--- a/ReferenceDocuments/ReportAuthors.xlsx
+++ b/ReferenceDocuments/ReportAuthors.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="17420" yWindow="360" windowWidth="17060" windowHeight="20000" tabRatio="500"/>
+    <workbookView xWindow="3105" yWindow="75" windowWidth="17055" windowHeight="16440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,193 +19,874 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="287">
   <si>
     <t>Report Authors</t>
   </si>
   <si>
-    <t>Brendan Crill</t>
-  </si>
-  <si>
-    <t>Al Kogut</t>
-  </si>
-  <si>
-    <t>Bill Jones</t>
-  </si>
-  <si>
-    <t>Charles Lawrence</t>
-  </si>
-  <si>
-    <t>Colin Hill</t>
-  </si>
-  <si>
-    <t>Dan Green</t>
-  </si>
-  <si>
-    <t>David Chuss</t>
-  </si>
-  <si>
-    <t>Jacques Delabrouille</t>
-  </si>
-  <si>
-    <t>James Bartlett</t>
-  </si>
-  <si>
-    <t>Johannes Hubmayr</t>
-  </si>
-  <si>
-    <t>Laura Fissel</t>
-  </si>
-  <si>
-    <t>Nicholas Battaglia</t>
-  </si>
-  <si>
-    <t>Clem Pryke</t>
-  </si>
-  <si>
-    <t>Raphael flauger</t>
-  </si>
-  <si>
-    <t>Tim Pearson</t>
-  </si>
-  <si>
-    <t>Stephen Feeney</t>
-  </si>
-  <si>
-    <t>Jamie Bock</t>
-  </si>
-  <si>
-    <t>Vera Gluscevic</t>
-  </si>
-  <si>
-    <t>Kim Boddy</t>
-  </si>
-  <si>
-    <t>Zack Li</t>
-  </si>
-  <si>
-    <t>Levon Pogosian</t>
-  </si>
-  <si>
-    <t>Amy Trangsrud</t>
-  </si>
-  <si>
-    <t>Karl Young</t>
-  </si>
-  <si>
-    <t>Qi Wen</t>
-  </si>
-  <si>
-    <t>Brian Sutin</t>
-  </si>
-  <si>
-    <t>Roger O'Brient</t>
-  </si>
-  <si>
-    <t>Chris Paine</t>
-  </si>
-  <si>
-    <t>Gianfranco de Zotti</t>
-  </si>
-  <si>
-    <t>Mattia Negrello</t>
-  </si>
-  <si>
-    <t>Matteo Bonato</t>
-  </si>
-  <si>
-    <t>Belen Barreiro</t>
-  </si>
-  <si>
-    <t>Soumen Basak</t>
-  </si>
-  <si>
-    <t>Graca Rocha</t>
-  </si>
-  <si>
-    <t>Kris Gorski</t>
-  </si>
-  <si>
-    <t>Jeff Fillippini</t>
-  </si>
-  <si>
-    <t>Eric Hivon</t>
-  </si>
-  <si>
-    <t>Maurizio Tomasi</t>
-  </si>
-  <si>
-    <t>Andrea Zonca</t>
-  </si>
-  <si>
-    <t>Marcelo Alvarez</t>
-  </si>
-  <si>
-    <t>Jean-Baptiste Melin</t>
-  </si>
-  <si>
-    <t>Brandon Hensley</t>
-  </si>
-  <si>
-    <t>Francois Boulanger</t>
-  </si>
-  <si>
-    <t>Susan Clark</t>
-  </si>
-  <si>
-    <t>lloyd Knox</t>
-  </si>
-  <si>
-    <t>Julian Borrill</t>
-  </si>
-  <si>
-    <t>Marcel Schmittfull</t>
-  </si>
-  <si>
-    <t>Mathew Madhavacheril</t>
-  </si>
-  <si>
-    <t>Alexander van Engelen</t>
-  </si>
-  <si>
-    <t>Ranajoy Banerji</t>
-  </si>
-  <si>
-    <t>Joy Didier</t>
-  </si>
-  <si>
-    <t>Josquin Errard</t>
-  </si>
-  <si>
-    <t>Flavien Vansyngel</t>
-  </si>
-  <si>
-    <t>Mathieu Remazeilles</t>
-  </si>
-  <si>
-    <t>Terry Jones</t>
-  </si>
-  <si>
-    <t>Alex Lazarian</t>
-  </si>
-  <si>
-    <t>Siyao Xu</t>
-  </si>
-  <si>
-    <t>Peter Ashton</t>
-  </si>
-  <si>
-    <t>Ian Stephens</t>
-  </si>
-  <si>
-    <t>Blakesley Burkhart</t>
+    <t>Marcelo</t>
+  </si>
+  <si>
+    <t>Alvarez</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Ashton</t>
+  </si>
+  <si>
+    <t>Ranajoy</t>
+  </si>
+  <si>
+    <t>Banerji</t>
+  </si>
+  <si>
+    <t>Belen</t>
+  </si>
+  <si>
+    <t>Barreiro</t>
+  </si>
+  <si>
+    <t>Bartlett</t>
+  </si>
+  <si>
+    <t>Soumen</t>
+  </si>
+  <si>
+    <t>Basak</t>
+  </si>
+  <si>
+    <t>Nicholas</t>
+  </si>
+  <si>
+    <t>Battaglia</t>
+  </si>
+  <si>
+    <t>Jamie</t>
+  </si>
+  <si>
+    <t>Bock</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>Boddy</t>
+  </si>
+  <si>
+    <t>Matteo</t>
+  </si>
+  <si>
+    <t>Bonato</t>
+  </si>
+  <si>
+    <t>Julian</t>
+  </si>
+  <si>
+    <t>Borrill</t>
+  </si>
+  <si>
+    <t>Francois</t>
+  </si>
+  <si>
+    <t>Boulanger</t>
+  </si>
+  <si>
+    <t>Blakesley</t>
+  </si>
+  <si>
+    <t>Burkhart</t>
+  </si>
+  <si>
+    <t>Brendan</t>
+  </si>
+  <si>
+    <t>Crill</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Chuss</t>
+  </si>
+  <si>
+    <t>Clark</t>
+  </si>
+  <si>
+    <t>Jacques</t>
+  </si>
+  <si>
+    <t>Delabrouille</t>
+  </si>
+  <si>
+    <t>Joy</t>
+  </si>
+  <si>
+    <t>Didier</t>
+  </si>
+  <si>
+    <t>Josquin</t>
+  </si>
+  <si>
+    <t>Errard</t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
+    <t>Feeney</t>
+  </si>
+  <si>
+    <t>Jeff</t>
+  </si>
+  <si>
+    <t>Fillippini</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Fissel</t>
+  </si>
+  <si>
+    <t>Raphael</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Vera</t>
+  </si>
+  <si>
+    <t>Gluscevic</t>
+  </si>
+  <si>
+    <t>Kris</t>
+  </si>
+  <si>
+    <t>Gorski</t>
+  </si>
+  <si>
+    <t>Brandon</t>
+  </si>
+  <si>
+    <t>Hensley</t>
+  </si>
+  <si>
+    <t>Colin</t>
+  </si>
+  <si>
+    <t>Hill</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>Hivon</t>
+  </si>
+  <si>
+    <t>Johannes</t>
+  </si>
+  <si>
+    <t>Hubmayr</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>Terry</t>
+  </si>
+  <si>
+    <t>lloyd</t>
+  </si>
+  <si>
+    <t>Knox</t>
+  </si>
+  <si>
+    <t>Al</t>
+  </si>
+  <si>
+    <t>Kogut</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Lawrence</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Lazarian</t>
+  </si>
+  <si>
+    <t>Zack</t>
+  </si>
+  <si>
+    <t>Li</t>
+  </si>
+  <si>
+    <t>Mathew</t>
+  </si>
+  <si>
+    <t>Madhavacheril</t>
+  </si>
+  <si>
+    <t>Jean-Baptiste</t>
+  </si>
+  <si>
+    <t>Melin</t>
+  </si>
+  <si>
+    <t>Mattia</t>
+  </si>
+  <si>
+    <t>Negrello</t>
+  </si>
+  <si>
+    <t>Roger</t>
+  </si>
+  <si>
+    <t>O'Brient</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Paine</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>Pearson</t>
+  </si>
+  <si>
+    <t>Levon</t>
+  </si>
+  <si>
+    <t>Pogosian</t>
+  </si>
+  <si>
+    <t>Clem</t>
+  </si>
+  <si>
+    <t>Pryke</t>
+  </si>
+  <si>
+    <t>Mathieu</t>
+  </si>
+  <si>
+    <t>Remazeilles</t>
+  </si>
+  <si>
+    <t>Graca</t>
+  </si>
+  <si>
+    <t>Rocha</t>
+  </si>
+  <si>
+    <t>Marcel</t>
+  </si>
+  <si>
+    <t>Schmittfull</t>
+  </si>
+  <si>
+    <t>Ian</t>
+  </si>
+  <si>
+    <t>Stephens</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
+    <t>Sutin</t>
+  </si>
+  <si>
+    <t>Maurizio</t>
+  </si>
+  <si>
+    <t>Tomasi</t>
+  </si>
+  <si>
+    <t>Amy</t>
+  </si>
+  <si>
+    <t>Trangsrud</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Flavien</t>
+  </si>
+  <si>
+    <t>Vansyngel</t>
+  </si>
+  <si>
+    <t>Qi</t>
+  </si>
+  <si>
+    <t>Wen</t>
+  </si>
+  <si>
+    <t>Siyao</t>
+  </si>
+  <si>
+    <t>Xu</t>
+  </si>
+  <si>
+    <t>Karl</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>Andrea</t>
+  </si>
+  <si>
+    <t>Zonca</t>
+  </si>
+  <si>
+    <t>Gianfranco</t>
+  </si>
+  <si>
+    <t>van Engelen</t>
+  </si>
+  <si>
+    <t>Last synced with google survey:</t>
+  </si>
+  <si>
+    <t>11/26/2018, 4 pm.</t>
+  </si>
+  <si>
+    <t>Author/Endorser</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Affiliation</t>
+  </si>
+  <si>
+    <t>Princeton University</t>
+  </si>
+  <si>
+    <t>Caltech / JPL</t>
+  </si>
+  <si>
+    <t>Endorse</t>
+  </si>
+  <si>
+    <t>Sapienza University</t>
+  </si>
+  <si>
+    <t>SLAC National Accelerator Laboratory</t>
+  </si>
+  <si>
+    <t>AstroParticle &amp; Cosmology Lab, Paris</t>
+  </si>
+  <si>
+    <t>Stanford University</t>
+  </si>
+  <si>
+    <t>Northwestern University</t>
+  </si>
+  <si>
+    <t>Niels Bohr Institute, Denmark</t>
+  </si>
+  <si>
+    <t>Stony Brook University</t>
+  </si>
+  <si>
+    <t>NASA Goddard Space Flight Center</t>
+  </si>
+  <si>
+    <t>JBCA</t>
+  </si>
+  <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
+    <t>University of Chicago.</t>
+  </si>
+  <si>
+    <t>UC San Diego</t>
+  </si>
+  <si>
+    <t>Stockholm University</t>
+  </si>
+  <si>
+    <t>Simon Fraser University</t>
+  </si>
+  <si>
+    <t>University of Melbourne</t>
+  </si>
+  <si>
+    <t>Institute for Advanced Study</t>
+  </si>
+  <si>
+    <t>Harvard-Smithsonian Center for Astrophysics</t>
+  </si>
+  <si>
+    <t>Columbia</t>
+  </si>
+  <si>
+    <t>Canadian Institute for Theoretical Astrophysics, University of Toronto</t>
+  </si>
+  <si>
+    <t>APC, Paris and DAP, CEA Saclay</t>
+  </si>
+  <si>
+    <t>University of Milano-Bicocca</t>
+  </si>
+  <si>
+    <t>Università degli studi di Milano</t>
+  </si>
+  <si>
+    <t>Sapienza, University of Rome, Department of Physics</t>
+  </si>
+  <si>
+    <t>NISER Bhubaneswar</t>
+  </si>
+  <si>
+    <t>Tata Institute of Fundamental Research, Mumbai, India</t>
+  </si>
+  <si>
+    <t>IAP</t>
+  </si>
+  <si>
+    <t>IRAP</t>
+  </si>
+  <si>
+    <t>Institut d'Astrophysique de Paris</t>
+  </si>
+  <si>
+    <t>University of Manchester</t>
+  </si>
+  <si>
+    <t>INAF-Osservatorio Astronomico di Padova, Italy</t>
+  </si>
+  <si>
+    <t>Instituto de Física de Cantabria</t>
+  </si>
+  <si>
+    <t>Cardiff University School of Physics and Astronomy</t>
+  </si>
+  <si>
+    <t>Physics Department, Brookhaven National Laboratory, Upton NY 11973</t>
+  </si>
+  <si>
+    <t>INAF-Istituto di Radioastronomia, and Italian ALMA Regional Centre, Via Gobetti 101, I-40129, Bologna, Italy</t>
+  </si>
+  <si>
+    <t>Harvard University</t>
+  </si>
+  <si>
+    <t>Johns Hopkins University</t>
+  </si>
+  <si>
+    <t>European Southern Observatory</t>
+  </si>
+  <si>
+    <t>UMN</t>
+  </si>
+  <si>
+    <t>Jet Propulsion Laboratory, California Institute of Technology</t>
+  </si>
+  <si>
+    <t>California Institute of Technology</t>
+  </si>
+  <si>
+    <t>Lawrence Berkeley Lab</t>
+  </si>
+  <si>
+    <t>NIST-Boulder &amp; CU-Boulder</t>
+  </si>
+  <si>
+    <t>NASA Jet Propulsion Laboratory/California Institute of Technology</t>
+  </si>
+  <si>
+    <t>University of Toronto</t>
+  </si>
+  <si>
+    <t>SISSA, Trieste</t>
+  </si>
+  <si>
+    <t>Tijmen</t>
+  </si>
+  <si>
+    <t>LBNL</t>
+  </si>
+  <si>
+    <t>APC - Université Paris Diderot/JPL - California Institute of Technology</t>
+  </si>
+  <si>
+    <t>JPL/Caltech</t>
+  </si>
+  <si>
+    <t>NIST</t>
+  </si>
+  <si>
+    <t>Stanford</t>
+  </si>
+  <si>
+    <t>University of Porto</t>
+  </si>
+  <si>
+    <t>Rutgers</t>
+  </si>
+  <si>
+    <t>UC Berkeley / LBNL / Kavli IPMU</t>
+  </si>
+  <si>
+    <t>University of New Mexico</t>
+  </si>
+  <si>
+    <t>National Radio Astronomy Observatory</t>
+  </si>
+  <si>
+    <t>LAL - CNRS</t>
+  </si>
+  <si>
+    <t>Stanford University &amp; KIPAC</t>
+  </si>
+  <si>
+    <t>University of Minnesota</t>
+  </si>
+  <si>
+    <t>UCSD</t>
+  </si>
+  <si>
+    <t>Pennsylvania State University</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Zeeshan</t>
+  </si>
+  <si>
+    <t>Ahmed</t>
+  </si>
+  <si>
+    <t>Ken</t>
+  </si>
+  <si>
+    <t>Ganga</t>
+  </si>
+  <si>
+    <t>Elena</t>
+  </si>
+  <si>
+    <t>Orlando</t>
+  </si>
+  <si>
+    <t>Giles</t>
+  </si>
+  <si>
+    <t>Novak</t>
+  </si>
+  <si>
+    <t>Pavel</t>
+  </si>
+  <si>
+    <t>Naselsky</t>
+  </si>
+  <si>
+    <t>Marilena</t>
+  </si>
+  <si>
+    <t>Loverde</t>
+  </si>
+  <si>
+    <t>Wollack</t>
+  </si>
+  <si>
+    <t>Jens</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>Watson</t>
+  </si>
+  <si>
+    <t>Shirokoff,</t>
+  </si>
+  <si>
+    <t>Erik</t>
+  </si>
+  <si>
+    <t>Flauger</t>
+  </si>
+  <si>
+    <t>Gudmundsson</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Reichardt</t>
+  </si>
+  <si>
+    <t>Xingang</t>
+  </si>
+  <si>
+    <t>Chen</t>
+  </si>
+  <si>
+    <t>Federico</t>
+  </si>
+  <si>
+    <t>Bianchini</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Bond</t>
+  </si>
+  <si>
+    <t>Nati</t>
+  </si>
+  <si>
+    <t>Piacentini</t>
+  </si>
+  <si>
+    <t>Francesco</t>
+  </si>
+  <si>
+    <t>Tuhin</t>
+  </si>
+  <si>
+    <t>Ghosh</t>
+  </si>
+  <si>
+    <t>Rishi</t>
+  </si>
+  <si>
+    <t>Khatri</t>
+  </si>
+  <si>
+    <t>Silvia</t>
+  </si>
+  <si>
+    <t>Galli</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
+  </si>
+  <si>
+    <t>Aumont</t>
+  </si>
+  <si>
+    <t>Eleonora</t>
+  </si>
+  <si>
+    <t>Diego</t>
+  </si>
+  <si>
+    <t>Herranz</t>
+  </si>
+  <si>
+    <t>An\v{z}e</t>
+  </si>
+  <si>
+    <t>Slosar</t>
+  </si>
+  <si>
+    <t>Francis-Yan</t>
+  </si>
+  <si>
+    <t>Cyr-Racine</t>
+  </si>
+  <si>
+    <t>Marc</t>
+  </si>
+  <si>
+    <t>Kamionkowski</t>
+  </si>
+  <si>
+    <t>Tony</t>
+  </si>
+  <si>
+    <t>Mroczkowski</t>
+  </si>
+  <si>
+    <t>Bouchet</t>
+  </si>
+  <si>
+    <t>François</t>
+  </si>
+  <si>
+    <t>Lorenzo</t>
+  </si>
+  <si>
+    <t>Moncelsi</t>
+  </si>
+  <si>
+    <t>Reijo</t>
+  </si>
+  <si>
+    <t>Keskitalo</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>Austermann</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Lenz</t>
+  </si>
+  <si>
+    <t>Motloch</t>
+  </si>
+  <si>
+    <t>Anirban</t>
+  </si>
+  <si>
+    <t>Roy</t>
+  </si>
+  <si>
+    <t>Ely</t>
+  </si>
+  <si>
+    <t>Kovetz</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Essinger-Hileman</t>
+  </si>
+  <si>
+    <t>Aritoki</t>
+  </si>
+  <si>
+    <t>Suzuki</t>
+  </si>
+  <si>
+    <t>Giuseppe</t>
+  </si>
+  <si>
+    <t>Puglisi</t>
+  </si>
+  <si>
+    <t>Olivier</t>
+  </si>
+  <si>
+    <t>Doré</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Martins</t>
+  </si>
+  <si>
+    <t>Aurelien</t>
+  </si>
+  <si>
+    <t>Fraisse</t>
+  </si>
+  <si>
+    <t>Darcy</t>
+  </si>
+  <si>
+    <t>Barron</t>
+  </si>
+  <si>
+    <t>Matthieu</t>
+  </si>
+  <si>
+    <t>Tristram</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Salatino</t>
+  </si>
+  <si>
+    <t>Grant</t>
+  </si>
+  <si>
+    <t>Teply</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>Shandera</t>
+  </si>
+  <si>
+    <t>Edward J.</t>
+  </si>
+  <si>
+    <t>Chluba</t>
+  </si>
+  <si>
+    <t>Jon E.</t>
+  </si>
+  <si>
+    <t>Susan E.</t>
+  </si>
+  <si>
+    <t>J. Richard</t>
+  </si>
+  <si>
+    <t>Di Valentino</t>
+  </si>
+  <si>
+    <t>De Zotti</t>
+  </si>
+  <si>
+    <t>Karim</t>
+  </si>
+  <si>
+    <t>Benabed</t>
+  </si>
+  <si>
+    <t>James G.</t>
+  </si>
+  <si>
+    <t>de Haan</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Masi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -256,7 +937,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="222">
+  <cellStyleXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -282,7 +963,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -480,9 +1160,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="25"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -490,7 +1169,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="222">
+  <cellStyles count="221">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -503,6 +1182,7 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
@@ -698,7 +1378,6 @@
     <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="219" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="221" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -711,11 +1390,15 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1041,520 +1724,1516 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F88"/>
+  <dimension ref="A1:E141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="57.83203125" customWidth="1"/>
-    <col min="6" max="6" width="38" customWidth="1"/>
+    <col min="2" max="2" width="21.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.875" customWidth="1"/>
+    <col min="5" max="5" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2"/>
-      <c r="D2"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="B3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" t="s">
+        <v>274</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" t="s">
+        <v>223</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D23" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" t="s">
+        <v>255</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" t="s">
+        <v>249</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D27" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D3"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="B4" s="2" t="s">
+      <c r="C29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>201</v>
+      </c>
+      <c r="D31" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" t="s">
+        <v>224</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D36" t="s">
+        <v>116</v>
+      </c>
+      <c r="E36" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D4"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="B5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7"/>
-      <c r="D7"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8"/>
-      <c r="D8"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9"/>
-      <c r="D9"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="B14" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="B15" s="2" t="s">
+      <c r="D39" t="s">
+        <v>116</v>
+      </c>
+      <c r="E39" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" t="s">
+        <v>209</v>
+      </c>
+      <c r="C40" t="s">
+        <v>210</v>
+      </c>
+      <c r="D40" t="s">
+        <v>116</v>
+      </c>
+      <c r="E40" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="B16" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23"/>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24"/>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="2" t="s">
+      <c r="C42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" t="s">
+        <v>116</v>
+      </c>
+      <c r="E50" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" t="s">
+        <v>189</v>
+      </c>
+      <c r="C51" t="s">
+        <v>190</v>
+      </c>
+      <c r="D51" t="s">
+        <v>116</v>
+      </c>
+      <c r="E51" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" t="s">
+        <v>116</v>
+      </c>
+      <c r="E52" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D53" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D54" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" t="s">
+        <v>83</v>
+      </c>
+      <c r="D55" t="s">
+        <v>116</v>
+      </c>
+      <c r="E55" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D56" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D57" t="s">
+        <v>116</v>
+      </c>
+      <c r="E57" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D58" t="s">
+        <v>116</v>
+      </c>
+      <c r="E58" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D59" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D60" t="s">
+        <v>116</v>
+      </c>
+      <c r="E60" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C61" t="s">
+        <v>95</v>
+      </c>
+      <c r="D61" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" t="s">
+        <v>96</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D62" t="s">
+        <v>116</v>
+      </c>
+      <c r="E62" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C63" t="s">
+        <v>99</v>
+      </c>
+      <c r="D63" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C64" t="s">
+        <v>112</v>
+      </c>
+      <c r="D64" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C65" t="s">
+        <v>102</v>
+      </c>
+      <c r="D65" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D66" t="s">
+        <v>116</v>
+      </c>
+      <c r="E66" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="B67" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C67" t="s">
+        <v>285</v>
+      </c>
+      <c r="D67" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="B68" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C68" t="s">
+        <v>106</v>
+      </c>
+      <c r="D68" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C69" t="s">
+        <v>108</v>
+      </c>
+      <c r="D69" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C70" t="s">
+        <v>110</v>
+      </c>
+      <c r="D70" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71" s="2"/>
+      <c r="C71"/>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="B72" s="2"/>
+      <c r="C72"/>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="B73" t="s">
+        <v>183</v>
+      </c>
+      <c r="C73" t="s">
+        <v>184</v>
+      </c>
+      <c r="D73" t="s">
+        <v>120</v>
+      </c>
+      <c r="E73" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="B74" t="s">
+        <v>240</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D74" t="s">
+        <v>120</v>
+      </c>
+      <c r="E74" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="B75" t="s">
+        <v>261</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D75" t="s">
+        <v>120</v>
+      </c>
+      <c r="E75" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5">
+      <c r="B76" t="s">
+        <v>278</v>
+      </c>
+      <c r="C76" t="s">
+        <v>279</v>
+      </c>
+      <c r="D76" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5">
+      <c r="B77" t="s">
+        <v>207</v>
+      </c>
+      <c r="C77" t="s">
+        <v>208</v>
+      </c>
+      <c r="D77" t="s">
+        <v>120</v>
+      </c>
+      <c r="E77" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5">
+      <c r="B78" t="s">
         <v>14</v>
       </c>
-      <c r="D25"/>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26"/>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27"/>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28"/>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29"/>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30"/>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31"/>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32"/>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33"/>
-      <c r="D33"/>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34"/>
-      <c r="D34"/>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35"/>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36"/>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37"/>
-      <c r="D37"/>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38"/>
-      <c r="D38"/>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39"/>
-      <c r="D39"/>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40"/>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41"/>
-      <c r="D41"/>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="B42" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="B43" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4">
-      <c r="B44" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4">
-      <c r="B45" s="2" t="s">
+      <c r="C78" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="46" spans="2:4">
-      <c r="B46" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="B47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47"/>
-    </row>
-    <row r="48" spans="2:4">
-      <c r="B48" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D48"/>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D49"/>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D50"/>
-    </row>
-    <row r="51" spans="2:4">
-      <c r="B51" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D51"/>
-    </row>
-    <row r="52" spans="2:4">
-      <c r="B52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C52"/>
-      <c r="D52"/>
-    </row>
-    <row r="53" spans="2:4">
-      <c r="B53" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C53"/>
-      <c r="D53"/>
-    </row>
-    <row r="54" spans="2:4">
-      <c r="B54" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C54"/>
-      <c r="D54"/>
-    </row>
-    <row r="55" spans="2:4">
-      <c r="B55" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C55"/>
-      <c r="D55"/>
-    </row>
-    <row r="56" spans="2:4">
-      <c r="B56" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C56"/>
-      <c r="D56"/>
-    </row>
-    <row r="57" spans="2:4">
-      <c r="B57" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C57"/>
-      <c r="D57"/>
-    </row>
-    <row r="58" spans="2:4">
-      <c r="B58" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C58"/>
-      <c r="D58"/>
-    </row>
-    <row r="59" spans="2:4">
-      <c r="B59" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C59"/>
-      <c r="D59"/>
-    </row>
-    <row r="60" spans="2:4">
-      <c r="B60" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C60"/>
-      <c r="D60"/>
-    </row>
-    <row r="61" spans="2:4">
-      <c r="B61" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C61"/>
-      <c r="D61"/>
-    </row>
-    <row r="62" spans="2:4">
-      <c r="C62"/>
-      <c r="D62"/>
-    </row>
-    <row r="63" spans="2:4">
-      <c r="C63"/>
-      <c r="D63"/>
-    </row>
-    <row r="64" spans="2:4">
-      <c r="C64"/>
-      <c r="D64"/>
-    </row>
-    <row r="65" spans="2:4">
-      <c r="B65"/>
-      <c r="C65"/>
-      <c r="D65"/>
-    </row>
-    <row r="66" spans="2:4">
-      <c r="B66"/>
-      <c r="C66"/>
-      <c r="D66"/>
-    </row>
-    <row r="67" spans="2:4">
-      <c r="B67"/>
-      <c r="C67"/>
-      <c r="D67"/>
-    </row>
-    <row r="68" spans="2:4">
-      <c r="B68"/>
-      <c r="C68"/>
-      <c r="D68"/>
-    </row>
-    <row r="69" spans="2:4">
-      <c r="B69"/>
-      <c r="C69"/>
-      <c r="D69"/>
-    </row>
-    <row r="70" spans="2:4">
-      <c r="B70"/>
-      <c r="C70"/>
-      <c r="D70"/>
-    </row>
-    <row r="71" spans="2:4">
-      <c r="B71"/>
-      <c r="C71"/>
-      <c r="D71"/>
-    </row>
-    <row r="72" spans="2:4">
-      <c r="B72"/>
-      <c r="C72"/>
-      <c r="D72"/>
-    </row>
-    <row r="73" spans="2:4">
-      <c r="B73"/>
-      <c r="C73"/>
-      <c r="D73"/>
-    </row>
-    <row r="74" spans="2:4">
-      <c r="B74"/>
-      <c r="C74"/>
-      <c r="D74"/>
-    </row>
-    <row r="75" spans="2:4">
-      <c r="B75"/>
-      <c r="C75"/>
-      <c r="D75"/>
-    </row>
-    <row r="76" spans="2:4">
-      <c r="B76"/>
-      <c r="C76"/>
-      <c r="D76"/>
-    </row>
-    <row r="77" spans="2:4">
-      <c r="B77"/>
-      <c r="C77"/>
-      <c r="D77"/>
-    </row>
-    <row r="78" spans="2:4">
-      <c r="B78"/>
-      <c r="C78"/>
-      <c r="D78"/>
-    </row>
-    <row r="79" spans="2:4">
-      <c r="B79"/>
-      <c r="C79"/>
-      <c r="D79"/>
-    </row>
-    <row r="80" spans="2:4">
-      <c r="B80"/>
-      <c r="C80"/>
-      <c r="D80"/>
-    </row>
-    <row r="81" spans="2:6">
-      <c r="B81"/>
-      <c r="C81"/>
-      <c r="D81"/>
-    </row>
-    <row r="82" spans="2:6">
-      <c r="B82"/>
-      <c r="C82"/>
-      <c r="D82"/>
-    </row>
-    <row r="83" spans="2:6">
-      <c r="B83"/>
-      <c r="C83"/>
-      <c r="D83"/>
-      <c r="F83" s="1"/>
-    </row>
-    <row r="84" spans="2:6">
-      <c r="B84"/>
-      <c r="C84"/>
-      <c r="D84"/>
-    </row>
-    <row r="85" spans="2:6">
-      <c r="B85"/>
-      <c r="C85"/>
-      <c r="D85"/>
-    </row>
-    <row r="86" spans="2:6">
-      <c r="B86"/>
-      <c r="C86"/>
-      <c r="D86"/>
-    </row>
-    <row r="87" spans="2:6">
-      <c r="B87"/>
-      <c r="C87"/>
-      <c r="D87"/>
-    </row>
-    <row r="88" spans="2:6">
-      <c r="B88"/>
-      <c r="C88"/>
-      <c r="D88"/>
+      <c r="D78" t="s">
+        <v>120</v>
+      </c>
+      <c r="E78" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5">
+      <c r="B79" t="s">
+        <v>275</v>
+      </c>
+      <c r="C79" t="s">
+        <v>211</v>
+      </c>
+      <c r="D79" t="s">
+        <v>120</v>
+      </c>
+      <c r="E79" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5">
+      <c r="B80" t="s">
+        <v>205</v>
+      </c>
+      <c r="C80" t="s">
+        <v>206</v>
+      </c>
+      <c r="D80" t="s">
+        <v>120</v>
+      </c>
+      <c r="E80" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81" t="s">
+        <v>196</v>
+      </c>
+      <c r="C81" t="s">
+        <v>272</v>
+      </c>
+      <c r="D81" t="s">
+        <v>120</v>
+      </c>
+      <c r="E81" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82" t="s">
+        <v>228</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D82" t="s">
+        <v>120</v>
+      </c>
+      <c r="E82" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="B83" t="s">
+        <v>166</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D83" t="s">
+        <v>120</v>
+      </c>
+      <c r="E83" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84" t="s">
+        <v>199</v>
+      </c>
+      <c r="C84" t="s">
+        <v>200</v>
+      </c>
+      <c r="D84" t="s">
+        <v>120</v>
+      </c>
+      <c r="E84" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85" t="s">
+        <v>259</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D85" t="s">
+        <v>120</v>
+      </c>
+      <c r="E85" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="B86" t="s">
+        <v>213</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D86" t="s">
+        <v>120</v>
+      </c>
+      <c r="E86" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="B87" t="s">
+        <v>234</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D87" t="s">
+        <v>120</v>
+      </c>
+      <c r="E87" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="B88" t="s">
+        <v>219</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D88" t="s">
+        <v>120</v>
+      </c>
+      <c r="E88" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5">
+      <c r="B89" t="s">
+        <v>185</v>
+      </c>
+      <c r="C89" t="s">
+        <v>186</v>
+      </c>
+      <c r="D89" t="s">
+        <v>120</v>
+      </c>
+      <c r="E89" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="B90" t="s">
+        <v>215</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D90" t="s">
+        <v>120</v>
+      </c>
+      <c r="E90" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="B91" t="s">
+        <v>273</v>
+      </c>
+      <c r="C91" t="s">
+        <v>202</v>
+      </c>
+      <c r="D91" t="s">
+        <v>120</v>
+      </c>
+      <c r="E91" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="B92" t="s">
+        <v>230</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D92" t="s">
+        <v>120</v>
+      </c>
+      <c r="E92" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="B93" t="s">
+        <v>238</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D93" t="s">
+        <v>120</v>
+      </c>
+      <c r="E93" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="B94" t="s">
+        <v>217</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D94" t="s">
+        <v>120</v>
+      </c>
+      <c r="E94" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5">
+      <c r="B95" t="s">
+        <v>247</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D95" t="s">
+        <v>120</v>
+      </c>
+      <c r="E95" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="B96" t="s">
+        <v>242</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D96" t="s">
+        <v>120</v>
+      </c>
+      <c r="E96" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5">
+      <c r="B97" t="s">
+        <v>193</v>
+      </c>
+      <c r="C97" t="s">
+        <v>194</v>
+      </c>
+      <c r="D97" t="s">
+        <v>120</v>
+      </c>
+      <c r="E97" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5">
+      <c r="B98" t="s">
+        <v>257</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D98" t="s">
+        <v>120</v>
+      </c>
+      <c r="E98" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5">
+      <c r="B99" t="s">
+        <v>219</v>
+      </c>
+      <c r="C99" t="s">
+        <v>286</v>
+      </c>
+      <c r="D99" t="s">
+        <v>120</v>
+      </c>
+      <c r="E99" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5">
+      <c r="B100" t="s">
+        <v>236</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D100" t="s">
+        <v>120</v>
+      </c>
+      <c r="E100" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5">
+      <c r="B101" t="s">
+        <v>191</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D101" t="s">
+        <v>120</v>
+      </c>
+      <c r="E101" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5">
+      <c r="B102" t="s">
+        <v>232</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D102" t="s">
+        <v>120</v>
+      </c>
+      <c r="E102" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5">
+      <c r="B103" t="s">
+        <v>191</v>
+      </c>
+      <c r="C103" t="s">
+        <v>192</v>
+      </c>
+      <c r="D103" t="s">
+        <v>120</v>
+      </c>
+      <c r="E103" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5">
+      <c r="B104" t="s">
+        <v>207</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D104" t="s">
+        <v>120</v>
+      </c>
+      <c r="E104" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5">
+      <c r="B105" t="s">
+        <v>187</v>
+      </c>
+      <c r="C105" t="s">
+        <v>188</v>
+      </c>
+      <c r="D105" t="s">
+        <v>120</v>
+      </c>
+      <c r="E105" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5">
+      <c r="B106" t="s">
+        <v>253</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D106" t="s">
+        <v>120</v>
+      </c>
+      <c r="E106" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5">
+      <c r="B107" t="s">
+        <v>203</v>
+      </c>
+      <c r="C107" t="s">
+        <v>204</v>
+      </c>
+      <c r="D107" t="s">
+        <v>120</v>
+      </c>
+      <c r="E107" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5">
+      <c r="B108" t="s">
+        <v>245</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D108" t="s">
+        <v>120</v>
+      </c>
+      <c r="E108" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5">
+      <c r="B109" t="s">
+        <v>265</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D109" t="s">
+        <v>120</v>
+      </c>
+      <c r="E109" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5">
+      <c r="B110" t="s">
+        <v>269</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D110" t="s">
+        <v>120</v>
+      </c>
+      <c r="E110" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5">
+      <c r="B111" t="s">
+        <v>226</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D111" t="s">
+        <v>120</v>
+      </c>
+      <c r="E111" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5">
+      <c r="B112" t="s">
+        <v>251</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D112" t="s">
+        <v>120</v>
+      </c>
+      <c r="E112" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5">
+      <c r="B113" t="s">
+        <v>267</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D113" t="s">
+        <v>120</v>
+      </c>
+      <c r="E113" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5">
+      <c r="B114" t="s">
+        <v>263</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D114" t="s">
+        <v>120</v>
+      </c>
+      <c r="E114" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5">
+      <c r="B115" t="s">
+        <v>197</v>
+      </c>
+      <c r="C115" t="s">
+        <v>198</v>
+      </c>
+      <c r="D115" t="s">
+        <v>120</v>
+      </c>
+      <c r="E115" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5">
+      <c r="B116" t="s">
+        <v>271</v>
+      </c>
+      <c r="C116" t="s">
+        <v>195</v>
+      </c>
+      <c r="D116" t="s">
+        <v>120</v>
+      </c>
+      <c r="E116" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5">
+      <c r="C118"/>
+    </row>
+    <row r="123" spans="2:5">
+      <c r="B123" s="2"/>
+      <c r="C123"/>
+    </row>
+    <row r="129" spans="2:3">
+      <c r="C129"/>
+    </row>
+    <row r="130" spans="2:3">
+      <c r="C130"/>
+    </row>
+    <row r="137" spans="2:3">
+      <c r="C137"/>
+    </row>
+    <row r="138" spans="2:3">
+      <c r="B138" s="2"/>
+      <c r="C138"/>
+    </row>
+    <row r="139" spans="2:3">
+      <c r="C139"/>
+    </row>
+    <row r="140" spans="2:3">
+      <c r="C140"/>
+    </row>
+    <row r="141" spans="2:3">
+      <c r="B141"/>
+      <c r="C141"/>
     </row>
   </sheetData>
+  <sortState ref="B5:F136">
+    <sortCondition ref="D5:D136"/>
+    <sortCondition ref="C5:C136"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/ReferenceDocuments/ReportAuthors.xlsx
+++ b/ReferenceDocuments/ReportAuthors.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="321">
   <si>
     <t>Report Authors</t>
   </si>
@@ -205,12 +205,6 @@
     <t>Feeney</t>
   </si>
   <si>
-    <t>Jeff</t>
-  </si>
-  <si>
-    <t>Fillippini</t>
-  </si>
-  <si>
     <t>Laura</t>
   </si>
   <si>
@@ -586,9 +580,6 @@
     <t>LBNL</t>
   </si>
   <si>
-    <t>Shirokoff,</t>
-  </si>
-  <si>
     <t>Erik</t>
   </si>
   <si>
@@ -980,6 +971,12 @@
   </si>
   <si>
     <t>Column goes to latex</t>
+  </si>
+  <si>
+    <t>Douglas</t>
+  </si>
+  <si>
+    <t>Shirokoff</t>
   </si>
 </sst>
 </file>
@@ -1412,8 +1409,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K179"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1443,25 +1440,25 @@
       </c>
       <c r="B3"/>
       <c r="C3" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B4"/>
       <c r="C4" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B5"/>
       <c r="C5" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1469,10 +1466,10 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B7" t="s">
         <v>279</v>
-      </c>
-      <c r="B7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1493,16 +1490,16 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="I9" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="J9" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K9" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1546,19 +1543,19 @@
         <v>11</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" ref="G11:G74" si="0">CONCATENATE(B11," ",C11,K11,"\\")</f>
+        <f t="shared" ref="G11:G72" si="0">CONCATENATE(B11," ",C11,K11,"\\")</f>
         <v>Peter Ashton                    \\</v>
       </c>
       <c r="I11">
-        <f t="shared" ref="I11:I74" si="1">LEN(B11) + LEN(C11) +1</f>
+        <f t="shared" ref="I11:I72" si="1">LEN(B11) + LEN(C11) +1</f>
         <v>12</v>
       </c>
       <c r="J11">
-        <f t="shared" ref="J11:J74" si="2">IF(I11&lt;30,(32-I11),3)</f>
+        <f t="shared" ref="J11:J72" si="2">IF(I11&lt;30,(32-I11),3)</f>
         <v>20</v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" ref="K11:K74" si="3">REPT(" ",J11)</f>
+        <f t="shared" ref="K11:K72" si="3">REPT(" ",J11)</f>
         <v xml:space="preserve">                    </v>
       </c>
     </row>
@@ -1732,17 +1729,17 @@
     </row>
     <row r="18" spans="2:11">
       <c r="B18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
         <v>173</v>
       </c>
-      <c r="C18" t="s">
-        <v>174</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
-        <v>175</v>
-      </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
         <v>Jamie Bock                      \\</v>
@@ -1761,1006 +1758,1009 @@
       </c>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="1" t="s">
-        <v>26</v>
+      <c r="B19" t="s">
+        <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
       </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>Kim Boddy                       \\</v>
+        <v>Matteo Bonato                   \\</v>
       </c>
       <c r="I19">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J19">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                       </v>
+        <v xml:space="preserve">                   </v>
       </c>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" t="s">
-        <v>28</v>
+      <c r="B20" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
       </c>
-      <c r="E20" t="s">
-        <v>30</v>
-      </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>Matteo Bonato                   \\</v>
+        <v>Julian Borrill                  \\</v>
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J20">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>Julian Borrill                  \\</v>
+        <v>Francois Boulanger              \\</v>
       </c>
       <c r="I21">
         <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="J21">
-        <f t="shared" si="2"/>
+      <c r="K21" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">              </v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>Blakesley Burkhart              \\</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="K21" t="str">
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">              </v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>David Chuss                     \\</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">                     </v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>Susan E. Clark                  \\</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="K24" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                  </v>
       </c>
     </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" t="str">
-        <f t="shared" si="0"/>
-        <v>Francois Boulanger              \\</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="K22" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">              </v>
-      </c>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="B23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" t="str">
-        <f t="shared" si="0"/>
-        <v>Blakesley Burkhart              \\</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="K23" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">              </v>
-      </c>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="B24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" t="str">
-        <f t="shared" si="0"/>
-        <v>David Chuss                     \\</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="K24" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">                     </v>
-      </c>
-    </row>
     <row r="25" spans="2:11">
-      <c r="B25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" t="s">
-        <v>41</v>
+      <c r="B25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
       </c>
-      <c r="E25" t="s">
-        <v>42</v>
-      </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>Susan E. Clark                  \\</v>
+        <v>Brendan Crill                   \\</v>
       </c>
       <c r="I25">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J25">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                   </v>
       </c>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="1" t="s">
-        <v>43</v>
+      <c r="B26" t="s">
+        <v>313</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>312</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
       </c>
+      <c r="E26" t="s">
+        <v>45</v>
+      </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>Brendan Crill                   \\</v>
+        <v>Gianfranco De Zotti             \\</v>
       </c>
       <c r="I26">
         <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="J26">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
       <c r="K26" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">             </v>
       </c>
     </row>
     <row r="27" spans="2:11">
       <c r="B27" t="s">
-        <v>316</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>315</v>
+        <v>46</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>Gianfranco De Zotti             \\</v>
+        <v>Jacques Delabrouille            \\</v>
       </c>
       <c r="I27">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J27">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">             </v>
+        <v xml:space="preserve">            </v>
       </c>
     </row>
     <row r="28" spans="2:11">
       <c r="B28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>Jacques Delabrouille            \\</v>
+        <v>Eleonora Di Valentino           \\</v>
       </c>
       <c r="I28">
         <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">           </v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>Joy Didier                      \\</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">                      </v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>Olivier Dor\'e                  \\</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">                  </v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>Josquin Errard                  \\</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">                  </v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>Tom Essinger-Hileman            \\</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="J28">
+      <c r="J32">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="K28" t="str">
+      <c r="K32" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">            </v>
       </c>
     </row>
-    <row r="29" spans="2:11">
-      <c r="B29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" t="s">
-        <v>51</v>
-      </c>
-      <c r="G29" t="str">
-        <f t="shared" si="0"/>
-        <v>Eleonora Di Valentino           \\</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="K29" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">           </v>
-      </c>
-    </row>
-    <row r="30" spans="2:11">
-      <c r="B30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" t="str">
-        <f t="shared" si="0"/>
-        <v>Joy Didier                      \\</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="K30" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">                      </v>
-      </c>
-    </row>
-    <row r="31" spans="2:11">
-      <c r="B31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" t="s">
-        <v>55</v>
-      </c>
-      <c r="G31" t="str">
-        <f t="shared" si="0"/>
-        <v>Olivier Dor\'e                  \\</v>
-      </c>
-      <c r="I31">
+    <row r="33" spans="2:11">
+      <c r="B33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>Stephen Feeney                  \\</v>
+      </c>
+      <c r="I33">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="J31">
+      <c r="J33">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="K31" t="str">
+      <c r="K33" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                  </v>
       </c>
     </row>
-    <row r="32" spans="2:11">
-      <c r="B32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" t="str">
-        <f t="shared" si="0"/>
-        <v>Josquin Errard                  \\</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="K32" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
-      </c>
-    </row>
-    <row r="33" spans="2:11">
-      <c r="B33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33" t="str">
-        <f t="shared" si="0"/>
-        <v>Tom Essinger-Hileman            \\</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="K33" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">            </v>
-      </c>
-    </row>
     <row r="34" spans="2:11">
-      <c r="B34" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>62</v>
+      <c r="B34" t="s">
+        <v>305</v>
+      </c>
+      <c r="C34" t="s">
+        <v>306</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
       </c>
+      <c r="E34" t="s">
+        <v>290</v>
+      </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
-        <v>Stephen Feeney                  \\</v>
+        <v>Jeffrey Filippini               \\</v>
       </c>
       <c r="I34">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J34">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">               </v>
       </c>
     </row>
     <row r="35" spans="2:11">
       <c r="B35" t="s">
-        <v>308</v>
-      </c>
-      <c r="C35" t="s">
-        <v>309</v>
+        <v>63</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>293</v>
+        <v>65</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
-        <v>Jeffrey Filippini               \\</v>
+        <v>Laura Fissel                    \\</v>
       </c>
       <c r="I35">
         <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>Raphael Flauger                 \\</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="J35">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="K35" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">               </v>
-      </c>
-    </row>
-    <row r="36" spans="2:11">
-      <c r="B36" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D36" t="s">
-        <v>8</v>
-      </c>
-      <c r="G36" t="str">
-        <f t="shared" si="0"/>
-        <v>Jeff Fillippini                 \\</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
       <c r="K36" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                 </v>
       </c>
     </row>
     <row r="37" spans="2:11">
-      <c r="B37" t="s">
-        <v>65</v>
+      <c r="B37" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D37" t="s">
         <v>8</v>
       </c>
-      <c r="E37" t="s">
-        <v>67</v>
-      </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
-        <v>Laura Fissel                    \\</v>
+        <v>Vera Gluscevic                  \\</v>
       </c>
       <c r="I37">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J37">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K37" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="38" spans="2:11">
-      <c r="B38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" t="s">
-        <v>69</v>
+      <c r="B38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="D38" t="s">
         <v>8</v>
       </c>
-      <c r="E38" t="s">
-        <v>70</v>
-      </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
-        <v>Raphael Flauger                 \\</v>
+        <v>Kris Gorski                     \\</v>
       </c>
       <c r="I38">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J38">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K38" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="39" spans="2:11">
       <c r="B39" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
-        <v>Vera Gluscevic                  \\</v>
+        <v>Dan Green                       \\</v>
       </c>
       <c r="I39">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J39">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K39" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                       </v>
       </c>
     </row>
     <row r="40" spans="2:11">
       <c r="B40" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D40" t="s">
         <v>8</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
-        <v>Kris Gorski                     \\</v>
+        <v>Brandon Hensley                 \\</v>
       </c>
       <c r="I40">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J40">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K40" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                 </v>
       </c>
     </row>
     <row r="41" spans="2:11">
-      <c r="B41" s="1" t="s">
-        <v>75</v>
+      <c r="B41" t="s">
+        <v>77</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>
       </c>
+      <c r="E41" t="s">
+        <v>79</v>
+      </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
-        <v>Dan Green                       \\</v>
+        <v>Diego Herranz                   \\</v>
       </c>
       <c r="I41">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J41">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                       </v>
+        <v xml:space="preserve">                   </v>
       </c>
     </row>
     <row r="42" spans="2:11">
       <c r="B42" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D42" t="s">
         <v>8</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
-        <v>Brandon Hensley                 \\</v>
+        <v>Colin Hill                      \\</v>
       </c>
       <c r="I42">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J42">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K42" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">                      </v>
       </c>
     </row>
     <row r="43" spans="2:11">
       <c r="B43" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
-        <v>Diego Herranz                   \\</v>
+        <v>Eric Hivon                      \\</v>
       </c>
       <c r="I43">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J43">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K43" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">                      </v>
       </c>
     </row>
     <row r="44" spans="2:11">
-      <c r="B44" s="1" t="s">
-        <v>82</v>
+      <c r="B44" t="s">
+        <v>85</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
       </c>
+      <c r="E44" t="s">
+        <v>87</v>
+      </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
-        <v>Colin Hill                      \\</v>
+        <v>Johannes Hubmayr                \\</v>
       </c>
       <c r="I44">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J44">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                      </v>
+        <v xml:space="preserve">                </v>
       </c>
     </row>
     <row r="45" spans="2:11">
       <c r="B45" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
+      </c>
+      <c r="C45" t="s">
+        <v>89</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
-        <v>Eric Hivon                      \\</v>
+        <v>Brad Johnson                    \\</v>
       </c>
       <c r="I45">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J45">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                      </v>
+        <v xml:space="preserve">                    </v>
       </c>
     </row>
     <row r="46" spans="2:11">
       <c r="B46" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
+      </c>
+      <c r="C46" t="s">
+        <v>92</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
-        <v>Johannes Hubmayr                \\</v>
+        <v>William Jones                   \\</v>
       </c>
       <c r="I46">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J46">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K46" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                </v>
+        <v xml:space="preserve">                   </v>
       </c>
     </row>
     <row r="47" spans="2:11">
       <c r="B47" t="s">
-        <v>90</v>
-      </c>
-      <c r="C47" t="s">
-        <v>91</v>
+        <v>94</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
-        <v>Brad Johnson                    \\</v>
+        <v>Terry Jones                     \\</v>
       </c>
       <c r="I47">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J47">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K47" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="48" spans="2:11">
-      <c r="B48" t="s">
-        <v>93</v>
-      </c>
-      <c r="C48" t="s">
-        <v>94</v>
+      <c r="B48" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
       </c>
-      <c r="E48" t="s">
-        <v>95</v>
-      </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
-        <v>William Jones                   \\</v>
+        <v>Lloyd Knox                      \\</v>
       </c>
       <c r="I48">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J48">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K48" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">                      </v>
       </c>
     </row>
     <row r="49" spans="2:11">
-      <c r="B49" t="s">
-        <v>96</v>
+      <c r="B49" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D49" t="s">
         <v>8</v>
       </c>
-      <c r="E49" t="s">
-        <v>97</v>
-      </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
-        <v>Terry Jones                     \\</v>
+        <v>Al Kogut                        \\</v>
       </c>
       <c r="I49">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J49">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K49" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                        </v>
       </c>
     </row>
     <row r="50" spans="2:11">
       <c r="B50" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="C50" t="s">
+        <v>100</v>
       </c>
       <c r="D50" t="s">
         <v>8</v>
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
-        <v>Lloyd Knox                      \\</v>
+        <v>Charles Lawrence                \\</v>
       </c>
       <c r="I50">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J50">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="K50" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                      </v>
+        <v xml:space="preserve">                </v>
       </c>
     </row>
     <row r="51" spans="2:11">
       <c r="B51" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="C51" t="s">
+        <v>102</v>
       </c>
       <c r="D51" t="s">
         <v>8</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
-        <v>Al Kogut                        \\</v>
+        <v>Alex Lazarian                   \\</v>
       </c>
       <c r="I51">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J51">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K51" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                        </v>
+        <v xml:space="preserve">                   </v>
       </c>
     </row>
     <row r="52" spans="2:11">
       <c r="B52" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C52" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D52" t="s">
         <v>8</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
-        <v>Charles Lawrence                \\</v>
+        <v>Zack Li                         \\</v>
       </c>
       <c r="I52">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J52">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K52" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                </v>
+        <v xml:space="preserve">                         </v>
       </c>
     </row>
     <row r="53" spans="2:11">
-      <c r="B53" s="1" t="s">
-        <v>103</v>
+      <c r="B53" t="s">
+        <v>297</v>
       </c>
       <c r="C53" t="s">
-        <v>104</v>
+        <v>316</v>
       </c>
       <c r="D53" t="s">
         <v>8</v>
       </c>
+      <c r="E53" t="s">
+        <v>285</v>
+      </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
-        <v>Alex Lazarian                   \\</v>
+        <v>Marcos L\'{o}pez-Caniego        \\</v>
       </c>
       <c r="I53">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="J53">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="K53" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">        </v>
       </c>
     </row>
     <row r="54" spans="2:11">
       <c r="B54" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="1" t="s">
         <v>106</v>
       </c>
       <c r="D54" t="s">
@@ -2768,151 +2768,151 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
-        <v>Zack Li                         \\</v>
+        <v>Mathew Madhavacheril            \\</v>
       </c>
       <c r="I54">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J54">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="K54" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                         </v>
+        <v xml:space="preserve">            </v>
       </c>
     </row>
     <row r="55" spans="2:11">
-      <c r="B55" t="s">
-        <v>300</v>
+      <c r="B55" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="C55" t="s">
-        <v>319</v>
+        <v>108</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
       </c>
-      <c r="E55" t="s">
-        <v>288</v>
-      </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
-        <v>Marcos L\'{o}pez-Caniego        \\</v>
+        <v>Jean-Baptiste Melin             \\</v>
       </c>
       <c r="I55">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J55">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K55" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">        </v>
+        <v xml:space="preserve">             </v>
       </c>
     </row>
     <row r="56" spans="2:11">
-      <c r="B56" s="1" t="s">
-        <v>107</v>
+      <c r="B56" t="s">
+        <v>109</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
       </c>
+      <c r="E56" t="s">
+        <v>111</v>
+      </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
-        <v>Mathew Madhavacheril            \\</v>
+        <v>Mattia Negrello                 \\</v>
       </c>
       <c r="I56">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J56">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K56" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
     </row>
     <row r="57" spans="2:11">
-      <c r="B57" s="1" t="s">
-        <v>109</v>
+      <c r="B57" t="s">
+        <v>112</v>
       </c>
       <c r="C57" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D57" t="s">
         <v>8</v>
       </c>
+      <c r="E57" t="s">
+        <v>114</v>
+      </c>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
-        <v>Jean-Baptiste Melin             \\</v>
+        <v>Giles Novak                     \\</v>
       </c>
       <c r="I57">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J57">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K57" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">             </v>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="58" spans="2:11">
       <c r="B58" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D58" t="s">
         <v>8</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G58" t="str">
         <f t="shared" si="0"/>
-        <v>Mattia Negrello                 \\</v>
+        <v>Roger O'Brient                  \\</v>
       </c>
       <c r="I58">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J58">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K58" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="59" spans="2:11">
-      <c r="B59" t="s">
-        <v>114</v>
-      </c>
-      <c r="C59" t="s">
-        <v>115</v>
+      <c r="B59" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="D59" t="s">
         <v>8</v>
       </c>
-      <c r="E59" t="s">
-        <v>116</v>
-      </c>
       <c r="G59" t="str">
         <f t="shared" si="0"/>
-        <v>Giles Novak                     \\</v>
+        <v>Chris Paine                     \\</v>
       </c>
       <c r="I59">
         <f t="shared" si="1"/>
@@ -2928,318 +2928,315 @@
       </c>
     </row>
     <row r="60" spans="2:11">
-      <c r="B60" t="s">
-        <v>117</v>
+      <c r="B60" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D60" t="s">
         <v>8</v>
       </c>
-      <c r="E60" t="s">
-        <v>119</v>
-      </c>
       <c r="G60" t="str">
         <f t="shared" si="0"/>
-        <v>Roger O'Brient                  \\</v>
+        <v>Tim Pearson                     \\</v>
       </c>
       <c r="I60">
         <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="K60" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">                     </v>
+      </c>
+    </row>
+    <row r="61" spans="2:11">
+      <c r="B61" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" t="s">
+        <v>123</v>
+      </c>
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" t="s">
+        <v>124</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="0"/>
+        <v>Levon Pogosian                  \\</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="J60">
+      <c r="J61">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="K60" t="str">
+      <c r="K61" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                  </v>
-      </c>
-    </row>
-    <row r="61" spans="2:11">
-      <c r="B61" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D61" t="s">
-        <v>8</v>
-      </c>
-      <c r="G61" t="str">
-        <f t="shared" si="0"/>
-        <v>Chris Paine                     \\</v>
-      </c>
-      <c r="I61">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="J61">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="K61" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="62" spans="2:11">
       <c r="B62" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D62" t="s">
         <v>8</v>
       </c>
       <c r="G62" t="str">
         <f t="shared" si="0"/>
-        <v>Tim Pearson                     \\</v>
+        <v>Clem Pryke                      \\</v>
       </c>
       <c r="I62">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J62">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K62" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                      </v>
       </c>
     </row>
     <row r="63" spans="2:11">
       <c r="B63" t="s">
-        <v>124</v>
-      </c>
-      <c r="C63" t="s">
-        <v>125</v>
+        <v>127</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="D63" t="s">
         <v>8</v>
       </c>
       <c r="E63" t="s">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="G63" t="str">
         <f t="shared" si="0"/>
-        <v>Levon Pogosian                  \\</v>
+        <v>Mathieu Remazeilles             \\</v>
       </c>
       <c r="I63">
         <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="K63" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">             </v>
+      </c>
+    </row>
+    <row r="64" spans="2:11">
+      <c r="B64" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" t="s">
+        <v>55</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="0"/>
+        <v>Graca Rocha                     \\</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="K64" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">                     </v>
+      </c>
+    </row>
+    <row r="65" spans="2:11">
+      <c r="B65" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="0"/>
+        <v>Marcel Schmittfull              \\</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="J63">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="K63" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
-      </c>
-    </row>
-    <row r="64" spans="2:11">
-      <c r="B64" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D64" t="s">
-        <v>8</v>
-      </c>
-      <c r="G64" t="str">
-        <f t="shared" si="0"/>
-        <v>Clem Pryke                      \\</v>
-      </c>
-      <c r="I64">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="J64">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="K64" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">                      </v>
-      </c>
-    </row>
-    <row r="65" spans="2:11">
-      <c r="B65" t="s">
-        <v>129</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D65" t="s">
-        <v>8</v>
-      </c>
-      <c r="E65" t="s">
-        <v>51</v>
-      </c>
-      <c r="G65" t="str">
-        <f t="shared" si="0"/>
-        <v>Mathieu Remazeilles             \\</v>
-      </c>
-      <c r="I65">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="J65">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
       <c r="K65" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">             </v>
+        <v xml:space="preserve">              </v>
       </c>
     </row>
     <row r="66" spans="2:11">
       <c r="B66" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
       </c>
       <c r="E66" t="s">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="G66" t="str">
         <f t="shared" si="0"/>
-        <v>Graca Rocha                     \\</v>
+        <v>Ian Stephens                    \\</v>
       </c>
       <c r="I66">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J66">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K66" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                    </v>
       </c>
     </row>
     <row r="67" spans="2:11">
       <c r="B67" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
+      </c>
+      <c r="C67" t="s">
+        <v>137</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
       </c>
       <c r="G67" t="str">
         <f t="shared" si="0"/>
-        <v>Marcel Schmittfull              \\</v>
+        <v>Brian Sutin                     \\</v>
       </c>
       <c r="I67">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J67">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K67" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">              </v>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="68" spans="2:11">
       <c r="B68" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D68" t="s">
         <v>8</v>
       </c>
       <c r="E68" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G68" t="str">
         <f t="shared" si="0"/>
-        <v>Ian Stephens                    \\</v>
+        <v>Maurizio Tomasi                 \\</v>
       </c>
       <c r="I68">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J68">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K68" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">                 </v>
       </c>
     </row>
     <row r="69" spans="2:11">
       <c r="B69" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C69" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D69" t="s">
         <v>8</v>
       </c>
       <c r="G69" t="str">
         <f t="shared" si="0"/>
-        <v>Brian Sutin                     \\</v>
+        <v>Amy Trangsrud                   \\</v>
       </c>
       <c r="I69">
         <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="K69" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">                   </v>
+      </c>
+    </row>
+    <row r="70" spans="2:11">
+      <c r="B70" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C70" t="s">
+        <v>310</v>
+      </c>
+      <c r="D70" t="s">
+        <v>8</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="0"/>
+        <v>Alexander van Engelen           \\</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="J69">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="K69" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">                     </v>
-      </c>
-    </row>
-    <row r="70" spans="2:11">
-      <c r="B70" t="s">
-        <v>140</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D70" t="s">
-        <v>8</v>
-      </c>
-      <c r="E70" t="s">
-        <v>142</v>
-      </c>
-      <c r="G70" t="str">
-        <f t="shared" si="0"/>
-        <v>Maurizio Tomasi                 \\</v>
-      </c>
-      <c r="I70">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="J70">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
       <c r="K70" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">           </v>
       </c>
     </row>
     <row r="71" spans="2:11">
@@ -3254,1109 +3251,1115 @@
       </c>
       <c r="G71" t="str">
         <f t="shared" si="0"/>
-        <v>Amy Trangsrud                   \\</v>
+        <v>Flavien Vansyngel               \\</v>
       </c>
       <c r="I71">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J71">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K71" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">               </v>
       </c>
     </row>
     <row r="72" spans="2:11">
-      <c r="B72" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C72" t="s">
-        <v>313</v>
+      <c r="B72" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="D72" t="s">
         <v>8</v>
       </c>
+      <c r="E72" t="s">
+        <v>147</v>
+      </c>
       <c r="G72" t="str">
         <f t="shared" si="0"/>
-        <v>Alexander van Engelen           \\</v>
+        <v>Qi Wen                          \\</v>
       </c>
       <c r="I72">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="J72">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="K72" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">           </v>
+        <v xml:space="preserve">                          </v>
       </c>
     </row>
     <row r="73" spans="2:11">
-      <c r="B73" s="1" t="s">
-        <v>145</v>
+      <c r="B73" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="C73" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D73" t="s">
         <v>8</v>
       </c>
       <c r="G73" t="str">
-        <f t="shared" si="0"/>
-        <v>Flavien Vansyngel               \\</v>
+        <f t="shared" ref="G73:G137" si="4">CONCATENATE(B73," ",C73,K73,"\\")</f>
+        <v>Siyao Xu                        \\</v>
       </c>
       <c r="I73">
-        <f t="shared" si="1"/>
-        <v>17</v>
+        <f t="shared" ref="I73:I137" si="5">LEN(B73) + LEN(C73) +1</f>
+        <v>8</v>
       </c>
       <c r="J73">
-        <f t="shared" si="2"/>
-        <v>15</v>
+        <f t="shared" ref="J73:J137" si="6">IF(I73&lt;30,(32-I73),3)</f>
+        <v>24</v>
       </c>
       <c r="K73" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">               </v>
+        <f t="shared" ref="K73:K137" si="7">REPT(" ",J73)</f>
+        <v xml:space="preserve">                        </v>
       </c>
     </row>
     <row r="74" spans="2:11">
-      <c r="B74" t="s">
-        <v>147</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>148</v>
+      <c r="B74" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C74" t="s">
+        <v>153</v>
       </c>
       <c r="D74" t="s">
         <v>8</v>
       </c>
-      <c r="E74" t="s">
-        <v>149</v>
-      </c>
       <c r="G74" t="str">
-        <f t="shared" si="0"/>
-        <v>Qi Wen                          \\</v>
+        <f t="shared" si="4"/>
+        <v>Karl Young                      \\</v>
       </c>
       <c r="I74">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="J74">
-        <f t="shared" si="2"/>
-        <v>26</v>
+        <f t="shared" si="6"/>
+        <v>22</v>
       </c>
       <c r="K74" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">                          </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                      </v>
       </c>
     </row>
     <row r="75" spans="2:11">
       <c r="B75" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C75" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D75" t="s">
         <v>8</v>
       </c>
       <c r="G75" t="str">
-        <f t="shared" ref="G75:G138" si="4">CONCATENATE(B75," ",C75,K75,"\\")</f>
-        <v>Siyao Xu                        \\</v>
+        <f t="shared" si="4"/>
+        <v>Andrea Zonca                    \\</v>
       </c>
       <c r="I75">
-        <f t="shared" ref="I75:I138" si="5">LEN(B75) + LEN(C75) +1</f>
-        <v>8</v>
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
       <c r="J75">
-        <f t="shared" ref="J75:J138" si="6">IF(I75&lt;30,(32-I75),3)</f>
-        <v>24</v>
+        <f t="shared" si="6"/>
+        <v>20</v>
       </c>
       <c r="K75" t="str">
-        <f t="shared" ref="K75:K138" si="7">REPT(" ",J75)</f>
-        <v xml:space="preserve">                        </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                    </v>
       </c>
     </row>
     <row r="76" spans="2:11">
-      <c r="B76" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C76" t="s">
-        <v>155</v>
-      </c>
-      <c r="D76" t="s">
-        <v>8</v>
-      </c>
+      <c r="B76" s="3"/>
+      <c r="C76"/>
       <c r="G76" t="str">
         <f t="shared" si="4"/>
-        <v>Karl Young                      \\</v>
+        <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I76">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J76">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="K76" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">                      </v>
+        <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="77" spans="2:11">
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="3"/>
+      <c r="C77"/>
+      <c r="G77" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                                \\</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="K77" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                               </v>
+      </c>
+    </row>
+    <row r="78" spans="2:11">
+      <c r="B78" t="s">
         <v>156</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C78" t="s">
         <v>157</v>
       </c>
-      <c r="D77" t="s">
-        <v>8</v>
-      </c>
-      <c r="G77" t="str">
-        <f t="shared" si="4"/>
-        <v>Andrea Zonca                    \\</v>
-      </c>
-      <c r="I77">
-        <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="J77">
-        <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="K77" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                    </v>
-      </c>
-    </row>
-    <row r="78" spans="2:11">
-      <c r="B78" s="3"/>
-      <c r="C78"/>
+      <c r="D78" t="s">
+        <v>158</v>
+      </c>
+      <c r="E78" t="s">
+        <v>159</v>
+      </c>
       <c r="G78" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                                \\</v>
+        <v>Zeeshan Ahmed                   \\</v>
       </c>
       <c r="I78">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J78">
         <f t="shared" si="6"/>
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="K78" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">                               </v>
+        <v xml:space="preserve">                   </v>
       </c>
     </row>
     <row r="79" spans="2:11">
-      <c r="B79" s="3"/>
-      <c r="C79"/>
+      <c r="B79" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D79" t="s">
+        <v>158</v>
+      </c>
+      <c r="E79" t="s">
+        <v>162</v>
+      </c>
       <c r="G79" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                                \\</v>
+        <v>Jason Austermann                \\</v>
       </c>
       <c r="I79">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J79">
         <f t="shared" si="6"/>
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="K79" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">                               </v>
+        <v xml:space="preserve">                </v>
       </c>
     </row>
     <row r="80" spans="2:11">
       <c r="B80" t="s">
+        <v>163</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D80" t="s">
         <v>158</v>
       </c>
-      <c r="C80" t="s">
-        <v>159</v>
-      </c>
-      <c r="D80" t="s">
-        <v>160</v>
-      </c>
       <c r="E80" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G80" t="str">
         <f t="shared" si="4"/>
-        <v>Zeeshan Ahmed                   \\</v>
+        <v>Darcy Barron                    \\</v>
       </c>
       <c r="I80">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J80">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K80" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">                    </v>
       </c>
     </row>
     <row r="81" spans="2:11">
       <c r="B81" t="s">
-        <v>162</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
+      </c>
+      <c r="C81" t="s">
+        <v>167</v>
       </c>
       <c r="D81" t="s">
-        <v>160</v>
-      </c>
-      <c r="E81" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G81" t="str">
         <f t="shared" si="4"/>
-        <v>Jason Austermann                \\</v>
+        <v>Karim Benabed                   \\</v>
       </c>
       <c r="I81">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J81">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K81" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">                </v>
+        <v xml:space="preserve">                   </v>
       </c>
     </row>
     <row r="82" spans="2:11">
       <c r="B82" t="s">
-        <v>165</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
+      </c>
+      <c r="C82" t="s">
+        <v>169</v>
       </c>
       <c r="D82" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E82" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G82" t="str">
         <f t="shared" si="4"/>
-        <v>Darcy Barron                    \\</v>
+        <v>Federico Bianchini              \\</v>
       </c>
       <c r="I82">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J82">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K82" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">              </v>
       </c>
     </row>
     <row r="83" spans="2:11">
-      <c r="B83" t="s">
-        <v>168</v>
-      </c>
-      <c r="C83" t="s">
-        <v>169</v>
+      <c r="B83" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="D83" t="s">
-        <v>160</v>
+        <v>158</v>
+      </c>
+      <c r="E83" t="s">
+        <v>284</v>
       </c>
       <c r="G83" t="str">
         <f t="shared" si="4"/>
-        <v>Karim Benabed                   \\</v>
+        <v>Colin Bischoff                  \\</v>
       </c>
       <c r="I83">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J83">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K83" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="84" spans="2:11">
       <c r="B84" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C84" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D84" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E84" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G84" t="str">
         <f t="shared" si="4"/>
-        <v>Federico Bianchini              \\</v>
+        <v>J. Richard Bond                 \\</v>
       </c>
       <c r="I84">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J84">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K84" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">              </v>
+        <v xml:space="preserve">                 </v>
       </c>
     </row>
     <row r="85" spans="2:11">
       <c r="B85" s="1" t="s">
-        <v>82</v>
+        <v>293</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D85" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E85" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G85" t="str">
         <f t="shared" si="4"/>
-        <v>Colin Bischoff                  \\</v>
+        <v>Robert Caldwell                 \\</v>
       </c>
       <c r="I85">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J85">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K85" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                 </v>
       </c>
     </row>
     <row r="86" spans="2:11">
       <c r="B86" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C86" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D86" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E86" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="G86" t="str">
         <f t="shared" si="4"/>
-        <v>J. Richard Bond                 \\</v>
+        <v>Xingang Chen                    \\</v>
       </c>
       <c r="I86">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J86">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K86" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">                    </v>
       </c>
     </row>
     <row r="87" spans="2:11">
-      <c r="B87" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>297</v>
+      <c r="B87" t="s">
+        <v>179</v>
+      </c>
+      <c r="C87" t="s">
+        <v>180</v>
       </c>
       <c r="D87" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E87" t="s">
-        <v>285</v>
+        <v>181</v>
       </c>
       <c r="G87" t="str">
         <f t="shared" si="4"/>
-        <v>Robert Caldwell                 \\</v>
+        <v>Jens Chluba                     \\</v>
       </c>
       <c r="I87">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J87">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K87" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="88" spans="2:11">
       <c r="B88" t="s">
-        <v>179</v>
-      </c>
-      <c r="C88" t="s">
-        <v>180</v>
+        <v>182</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D88" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E88" t="s">
-        <v>137</v>
+        <v>184</v>
       </c>
       <c r="G88" t="str">
         <f t="shared" si="4"/>
-        <v>Xingang Chen                    \\</v>
+        <v>Francis-Yan Cyr-Racine          \\</v>
       </c>
       <c r="I88">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J88">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K88" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">          </v>
       </c>
     </row>
     <row r="89" spans="2:11">
       <c r="B89" t="s">
-        <v>181</v>
-      </c>
-      <c r="C89" t="s">
-        <v>182</v>
+        <v>185</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="D89" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E89" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G89" t="str">
         <f t="shared" si="4"/>
-        <v>Jens Chluba                     \\</v>
+        <v>Tijmen de Haan                  \\</v>
       </c>
       <c r="I89">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J89">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K89" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="90" spans="2:11">
       <c r="B90" t="s">
-        <v>184</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
+      </c>
+      <c r="C90" t="s">
+        <v>320</v>
       </c>
       <c r="D90" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E90" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G90" t="str">
-        <f t="shared" si="4"/>
-        <v>Francis-Yan Cyr-Racine          \\</v>
+        <f>CONCATENATE(C90," ",B90,K90,"\\")</f>
+        <v>Shirokoff Erik                  \\</v>
       </c>
       <c r="I90">
-        <f t="shared" si="5"/>
-        <v>22</v>
+        <f>LEN(C90) + LEN(B90) +1</f>
+        <v>14</v>
       </c>
       <c r="J90">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="K90" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">          </v>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="91" spans="2:11">
       <c r="B91" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D91" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E91" t="s">
-        <v>189</v>
+        <v>93</v>
       </c>
       <c r="G91" t="str">
         <f t="shared" si="4"/>
-        <v>Tijmen de Haan                  \\</v>
+        <v>Aurelien Fraisse                \\</v>
       </c>
       <c r="I91">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J91">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K91" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                </v>
       </c>
     </row>
     <row r="92" spans="2:11">
-      <c r="B92" t="s">
-        <v>190</v>
+      <c r="B92" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="C92" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D92" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E92" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G92" t="str">
-        <f t="shared" si="4"/>
-        <v>Shirokoff, Erik                 \\</v>
+        <f>CONCATENATE(C92," ",B92,K92,"\\")</f>
+        <v>Piacentini Francesco            \\</v>
       </c>
       <c r="I92">
-        <f t="shared" si="5"/>
-        <v>15</v>
+        <f>LEN(C92) + LEN(B92) +1</f>
+        <v>20</v>
       </c>
       <c r="J92">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K92" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">            </v>
       </c>
     </row>
     <row r="93" spans="2:11">
-      <c r="B93" t="s">
-        <v>193</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>194</v>
+      <c r="B93" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C93" t="s">
+        <v>195</v>
       </c>
       <c r="D93" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E93" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="G93" t="str">
-        <f t="shared" si="4"/>
-        <v>Aurelien Fraisse                \\</v>
+        <f>CONCATENATE(C93," ",B93,K93,"\\")</f>
+        <v>Bouchet Fran\c{c}ois            \\</v>
       </c>
       <c r="I93">
-        <f t="shared" si="5"/>
-        <v>16</v>
+        <f>LEN(C93) + LEN(B93) +1</f>
+        <v>20</v>
       </c>
       <c r="J93">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K93" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">                </v>
+        <v xml:space="preserve">            </v>
       </c>
     </row>
     <row r="94" spans="2:11">
-      <c r="B94" s="1" t="s">
+      <c r="B94" t="s">
         <v>196</v>
       </c>
-      <c r="C94" t="s">
-        <v>195</v>
+      <c r="C94" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="D94" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E94" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G94" t="str">
-        <f>CONCATENATE(C94," ",B94,K94,"\\")</f>
-        <v>Piacentini Francesco            \\</v>
+        <f t="shared" si="4"/>
+        <v>Silvia Galli                    \\</v>
       </c>
       <c r="I94">
-        <f>LEN(C94) + LEN(B94) +1</f>
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="J94">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
       <c r="K94" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                    </v>
       </c>
     </row>
     <row r="95" spans="2:11">
-      <c r="B95" s="1" t="s">
-        <v>318</v>
+      <c r="B95" t="s">
+        <v>199</v>
       </c>
       <c r="C95" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D95" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E95" t="s">
-        <v>86</v>
+        <v>201</v>
       </c>
       <c r="G95" t="str">
-        <f>CONCATENATE(C95," ",B95,K95,"\\")</f>
-        <v>Bouchet Fran\c{c}ois            \\</v>
+        <f t="shared" si="4"/>
+        <v>Ken Ganga                       \\</v>
       </c>
       <c r="I95">
-        <f>LEN(C95) + LEN(B95) +1</f>
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>9</v>
       </c>
       <c r="J95">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="K95" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                       </v>
       </c>
     </row>
     <row r="96" spans="2:11">
       <c r="B96" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D96" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E96" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G96" t="str">
         <f t="shared" si="4"/>
-        <v>Silvia Galli                    \\</v>
+        <v>Tuhin Ghosh                     \\</v>
       </c>
       <c r="I96">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J96">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K96" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="97" spans="2:11">
       <c r="B97" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C97" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D97" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E97" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G97" t="str">
         <f t="shared" si="4"/>
-        <v>Ken Ganga                       \\</v>
+        <v>Jon E. Gudmundsson              \\</v>
       </c>
       <c r="I97">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J97">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K97" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">                       </v>
+        <v xml:space="preserve">              </v>
       </c>
     </row>
     <row r="98" spans="2:11">
       <c r="B98" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D98" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E98" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G98" t="str">
         <f t="shared" si="4"/>
-        <v>Tuhin Ghosh                     \\</v>
+        <v>Marc Kamionkowski               \\</v>
       </c>
       <c r="I98">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J98">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K98" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">               </v>
       </c>
     </row>
     <row r="99" spans="2:11">
       <c r="B99" t="s">
-        <v>208</v>
-      </c>
-      <c r="C99" t="s">
-        <v>209</v>
+        <v>211</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="D99" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E99" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G99" t="str">
         <f t="shared" si="4"/>
-        <v>Jon E. Gudmundsson              \\</v>
+        <v>Reijo Keskitalo                 \\</v>
       </c>
       <c r="I99">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J99">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K99" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">              </v>
+        <v xml:space="preserve">                 </v>
       </c>
     </row>
     <row r="100" spans="2:11">
       <c r="B100" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D100" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E100" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G100" t="str">
         <f t="shared" si="4"/>
-        <v>Marc Kamionkowski               \\</v>
+        <v>Rishi Khatri                    \\</v>
       </c>
       <c r="I100">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J100">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K100" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">               </v>
+        <v xml:space="preserve">                    </v>
       </c>
     </row>
     <row r="101" spans="2:11">
       <c r="B101" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D101" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E101" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G101" t="str">
         <f t="shared" si="4"/>
-        <v>Reijo Keskitalo                 \\</v>
+        <v>Ely Kovetz                      \\</v>
       </c>
       <c r="I101">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J101">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K101" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">                      </v>
       </c>
     </row>
     <row r="102" spans="2:11">
       <c r="B102" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D102" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E102" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G102" t="str">
         <f t="shared" si="4"/>
-        <v>Rishi Khatri                    \\</v>
+        <v>Daniel Lenz                     \\</v>
       </c>
       <c r="I102">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J102">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K102" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="103" spans="2:11">
       <c r="B103" t="s">
-        <v>220</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
+      </c>
+      <c r="C103" t="s">
+        <v>223</v>
       </c>
       <c r="D103" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E103" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="G103" t="str">
         <f t="shared" si="4"/>
-        <v>Ely Kovetz                      \\</v>
+        <v>Marilena Loverde                \\</v>
       </c>
       <c r="I103">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J103">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="K103" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">                      </v>
+        <v xml:space="preserve">                </v>
       </c>
     </row>
     <row r="104" spans="2:11">
       <c r="B104" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D104" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E104" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G104" t="str">
         <f t="shared" si="4"/>
-        <v>Daniel Lenz                     \\</v>
+        <v>Carlos Martins                  \\</v>
       </c>
       <c r="I104">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J104">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K104" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="105" spans="2:11">
       <c r="B105" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="C105" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D105" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E105" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G105" t="str">
         <f t="shared" si="4"/>
-        <v>Marilena Loverde                \\</v>
+        <v>Silvia Masi                     \\</v>
       </c>
       <c r="I105">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J105">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K105" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">                </v>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="106" spans="2:11">
-      <c r="B106" t="s">
-        <v>228</v>
+      <c r="B106" s="1" t="s">
+        <v>298</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>229</v>
+        <v>299</v>
       </c>
       <c r="D106" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E106" t="s">
-        <v>230</v>
+        <v>286</v>
       </c>
       <c r="G106" t="str">
         <f t="shared" si="4"/>
-        <v>Carlos Martins                  \\</v>
+        <v>Joel Meyers                     \\</v>
       </c>
       <c r="I106">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J106">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K106" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="107" spans="2:11">
       <c r="B107" t="s">
-        <v>199</v>
-      </c>
-      <c r="C107" t="s">
+        <v>230</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>231</v>
       </c>
       <c r="D107" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E107" t="s">
         <v>232</v>
       </c>
       <c r="G107" t="str">
         <f t="shared" si="4"/>
-        <v>Silvia Masi                     \\</v>
+        <v>Lorenzo Moncelsi                \\</v>
       </c>
       <c r="I107">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J107">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K107" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                </v>
       </c>
     </row>
     <row r="108" spans="2:11">
-      <c r="B108" s="1" t="s">
-        <v>301</v>
+      <c r="B108" t="s">
+        <v>233</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>302</v>
+        <v>234</v>
       </c>
       <c r="D108" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E108" t="s">
-        <v>289</v>
+        <v>235</v>
       </c>
       <c r="G108" t="str">
         <f t="shared" si="4"/>
-        <v>Joel Meyers                     \\</v>
+        <v>Pavel Motloch                   \\</v>
       </c>
       <c r="I108">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J108">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K108" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                   </v>
       </c>
     </row>
     <row r="109" spans="2:11">
       <c r="B109" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D109" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E109" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G109" t="str">
         <f t="shared" si="4"/>
-        <v>Lorenzo Moncelsi                \\</v>
+        <v>Tony Mroczkowski                \\</v>
       </c>
       <c r="I109">
         <f t="shared" si="5"/>
@@ -4373,320 +4376,317 @@
     </row>
     <row r="110" spans="2:11">
       <c r="B110" t="s">
-        <v>236</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
+      </c>
+      <c r="C110" t="s">
+        <v>239</v>
       </c>
       <c r="D110" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E110" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G110" t="str">
         <f t="shared" si="4"/>
-        <v>Pavel Motloch                   \\</v>
+        <v>Pavel Naselsky                  \\</v>
       </c>
       <c r="I110">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J110">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K110" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="111" spans="2:11">
       <c r="B111" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D111" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E111" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G111" t="str">
         <f t="shared" si="4"/>
-        <v>Tony Mroczkowski                \\</v>
+        <v>Federico Nati                   \\</v>
       </c>
       <c r="I111">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J111">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K111" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">                </v>
+        <v xml:space="preserve">                   </v>
       </c>
     </row>
     <row r="112" spans="2:11">
       <c r="B112" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C112" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D112" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E112" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G112" t="str">
         <f t="shared" si="4"/>
-        <v>Pavel Naselsky                  \\</v>
+        <v>Elena Orlando                   \\</v>
       </c>
       <c r="I112">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J112">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K112" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                   </v>
       </c>
     </row>
     <row r="113" spans="2:11">
       <c r="B113" t="s">
-        <v>170</v>
+        <v>246</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D113" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E113" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="G113" t="str">
         <f t="shared" si="4"/>
-        <v>Federico Nati                   \\</v>
+        <v>Giuseppe Puglisi                \\</v>
       </c>
       <c r="I113">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J113">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K113" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">                </v>
       </c>
     </row>
     <row r="114" spans="2:11">
       <c r="B114" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C114" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D114" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E114" t="s">
-        <v>248</v>
+        <v>170</v>
       </c>
       <c r="G114" t="str">
         <f t="shared" si="4"/>
-        <v>Elena Orlando                   \\</v>
+        <v>Christian Reichardt             \\</v>
       </c>
       <c r="I114">
         <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="J114">
-        <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
       <c r="K114" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">             </v>
       </c>
     </row>
     <row r="115" spans="2:11">
       <c r="B115" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D115" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E115" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G115" t="str">
         <f t="shared" si="4"/>
-        <v>Giuseppe Puglisi                \\</v>
+        <v>Anirban Roy                     \\</v>
       </c>
       <c r="I115">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J115">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K115" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">                </v>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="116" spans="2:11">
       <c r="B116" t="s">
-        <v>252</v>
-      </c>
-      <c r="C116" t="s">
-        <v>253</v>
+        <v>254</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="D116" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E116" t="s">
-        <v>172</v>
+        <v>256</v>
       </c>
       <c r="G116" t="str">
         <f t="shared" si="4"/>
-        <v>Christian Reichardt             \\</v>
+        <v>Maria Salatino                  \\</v>
       </c>
       <c r="I116">
         <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="K116" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                  </v>
+      </c>
+    </row>
+    <row r="117" spans="2:11">
+      <c r="B117" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D117" t="s">
+        <v>158</v>
+      </c>
+      <c r="E117" t="s">
+        <v>281</v>
+      </c>
+      <c r="G117" t="str">
+        <f t="shared" si="4"/>
+        <v>Benjamin Saliwanchik            \\</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="K117" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">            </v>
+      </c>
+    </row>
+    <row r="118" spans="2:11">
+      <c r="B118" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D118" t="s">
+        <v>158</v>
+      </c>
+      <c r="G118" t="str">
+        <f t="shared" si="4"/>
+        <v>Douglas Scott                   \\</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
-      <c r="J116">
-        <f t="shared" si="6"/>
-        <v>13</v>
-      </c>
-      <c r="K116" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">             </v>
-      </c>
-    </row>
-    <row r="117" spans="2:11">
-      <c r="B117" t="s">
-        <v>254</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D117" t="s">
-        <v>160</v>
-      </c>
-      <c r="E117" t="s">
-        <v>256</v>
-      </c>
-      <c r="G117" t="str">
-        <f t="shared" si="4"/>
-        <v>Anirban Roy                     \\</v>
-      </c>
-      <c r="I117">
-        <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="J117">
-        <f t="shared" si="6"/>
-        <v>21</v>
-      </c>
-      <c r="K117" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                     </v>
-      </c>
-    </row>
-    <row r="118" spans="2:11">
-      <c r="B118" t="s">
-        <v>257</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D118" t="s">
-        <v>160</v>
-      </c>
-      <c r="E118" t="s">
-        <v>259</v>
-      </c>
-      <c r="G118" t="str">
-        <f t="shared" si="4"/>
-        <v>Maria Salatino                  \\</v>
-      </c>
-      <c r="I118">
-        <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="J118">
-        <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
       <c r="K118" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                   </v>
       </c>
     </row>
     <row r="119" spans="2:11">
       <c r="B119" s="1" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="D119" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E119" t="s">
-        <v>284</v>
+        <v>224</v>
       </c>
       <c r="G119" t="str">
         <f t="shared" si="4"/>
-        <v>Benjamin Saliwanchik            \\</v>
+        <v>Neelima Sehgal                  \\</v>
       </c>
       <c r="I119">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J119">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K119" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="120" spans="2:11">
-      <c r="B120" s="1" t="s">
-        <v>305</v>
+      <c r="B120" t="s">
+        <v>257</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>306</v>
+        <v>258</v>
       </c>
       <c r="D120" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E120" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="G120" t="str">
         <f t="shared" si="4"/>
-        <v>Neelima Sehgal                  \\</v>
+        <v>Sarah Shandera                  \\</v>
       </c>
       <c r="I120">
         <f t="shared" si="5"/>
@@ -4709,26 +4709,26 @@
         <v>261</v>
       </c>
       <c r="D121" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E121" t="s">
         <v>262</v>
       </c>
       <c r="G121" t="str">
         <f t="shared" si="4"/>
-        <v>Sarah Shandera                  \\</v>
+        <v>An\v{z}e Slosar                 \\</v>
       </c>
       <c r="I121">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J121">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K121" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                 </v>
       </c>
     </row>
     <row r="122" spans="2:11">
@@ -4739,236 +4739,236 @@
         <v>264</v>
       </c>
       <c r="D122" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E122" t="s">
-        <v>265</v>
+        <v>187</v>
       </c>
       <c r="G122" t="str">
         <f t="shared" si="4"/>
-        <v>An\v{z}e Slosar                 \\</v>
+        <v>Aritoki Suzuki                  \\</v>
       </c>
       <c r="I122">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J122">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K122" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="123" spans="2:11">
-      <c r="B123" t="s">
-        <v>266</v>
+      <c r="B123" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="D123" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E123" t="s">
-        <v>189</v>
+        <v>287</v>
       </c>
       <c r="G123" t="str">
         <f t="shared" si="4"/>
-        <v>Aritoki Suzuki                  \\</v>
+        <v>Eric Switzer                    \\</v>
       </c>
       <c r="I123">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J123">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K123" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                    </v>
       </c>
     </row>
     <row r="124" spans="2:11">
       <c r="B124" s="1" t="s">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D124" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E124" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G124" t="str">
         <f t="shared" si="4"/>
-        <v>Eric Switzer                    \\</v>
+        <v>Andrea Tartari                  \\</v>
       </c>
       <c r="I124">
         <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="K124" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                  </v>
+      </c>
+    </row>
+    <row r="125" spans="2:11">
+      <c r="B125" t="s">
+        <v>265</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D125" t="s">
+        <v>158</v>
+      </c>
+      <c r="E125" t="s">
+        <v>267</v>
+      </c>
+      <c r="G125" t="str">
+        <f t="shared" si="4"/>
+        <v>Grant Teply                     \\</v>
+      </c>
+      <c r="I125">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="K125" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                     </v>
+      </c>
+    </row>
+    <row r="126" spans="2:11">
+      <c r="B126" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D126" t="s">
+        <v>158</v>
+      </c>
+      <c r="E126" t="s">
+        <v>289</v>
+      </c>
+      <c r="G126" t="str">
+        <f t="shared" si="4"/>
+        <v>Peter Timbie                    \\</v>
+      </c>
+      <c r="I126">
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="J124">
+      <c r="J126">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="K124" t="str">
+      <c r="K126" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">                    </v>
       </c>
     </row>
-    <row r="125" spans="2:11">
-      <c r="B125" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D125" t="s">
-        <v>160</v>
-      </c>
-      <c r="E125" t="s">
+    <row r="127" spans="2:11">
+      <c r="B127" t="s">
+        <v>268</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D127" t="s">
+        <v>158</v>
+      </c>
+      <c r="E127" t="s">
+        <v>270</v>
+      </c>
+      <c r="G127" t="str">
+        <f t="shared" si="4"/>
+        <v>Matthieu Tristram               \\</v>
+      </c>
+      <c r="I127">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="J127">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="K127" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">               </v>
+      </c>
+    </row>
+    <row r="128" spans="2:11">
+      <c r="B128" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="G125" t="str">
-        <f t="shared" si="4"/>
-        <v>Andrea Tartari                  \\</v>
-      </c>
-      <c r="I125">
-        <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="J125">
-        <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="K125" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                  </v>
-      </c>
-    </row>
-    <row r="126" spans="2:11">
-      <c r="B126" t="s">
-        <v>268</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D126" t="s">
-        <v>160</v>
-      </c>
-      <c r="E126" t="s">
-        <v>270</v>
-      </c>
-      <c r="G126" t="str">
-        <f t="shared" si="4"/>
-        <v>Grant Teply                     \\</v>
-      </c>
-      <c r="I126">
-        <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="J126">
-        <f t="shared" si="6"/>
-        <v>21</v>
-      </c>
-      <c r="K126" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                     </v>
-      </c>
-    </row>
-    <row r="127" spans="2:11">
-      <c r="B127" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="D127" t="s">
-        <v>160</v>
-      </c>
-      <c r="E127" t="s">
-        <v>292</v>
-      </c>
-      <c r="G127" t="str">
-        <f t="shared" si="4"/>
-        <v>Peter Timbie                    \\</v>
-      </c>
-      <c r="I127">
+      <c r="C128" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D128" t="s">
+        <v>158</v>
+      </c>
+      <c r="E128" t="s">
+        <v>283</v>
+      </c>
+      <c r="G128" t="str">
+        <f t="shared" si="4"/>
+        <v>Benjamin Wallisch               \\</v>
+      </c>
+      <c r="I128">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="J128">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="K128" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">               </v>
+      </c>
+    </row>
+    <row r="129" spans="2:11">
+      <c r="B129" t="s">
+        <v>271</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D129" t="s">
+        <v>158</v>
+      </c>
+      <c r="E129" t="s">
+        <v>273</v>
+      </c>
+      <c r="G129" t="str">
+        <f t="shared" si="4"/>
+        <v>Scott Watson                    \\</v>
+      </c>
+      <c r="I129">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="J127">
+      <c r="J129">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="K127" t="str">
+      <c r="K129" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">                    </v>
-      </c>
-    </row>
-    <row r="128" spans="2:11">
-      <c r="B128" t="s">
-        <v>271</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D128" t="s">
-        <v>160</v>
-      </c>
-      <c r="E128" t="s">
-        <v>273</v>
-      </c>
-      <c r="G128" t="str">
-        <f t="shared" si="4"/>
-        <v>Matthieu Tristram               \\</v>
-      </c>
-      <c r="I128">
-        <f t="shared" si="5"/>
-        <v>17</v>
-      </c>
-      <c r="J128">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="K128" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">               </v>
-      </c>
-    </row>
-    <row r="129" spans="2:11">
-      <c r="B129" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D129" t="s">
-        <v>160</v>
-      </c>
-      <c r="E129" t="s">
-        <v>286</v>
-      </c>
-      <c r="G129" t="str">
-        <f t="shared" si="4"/>
-        <v>Benjamin Wallisch               \\</v>
-      </c>
-      <c r="I129">
-        <f t="shared" si="5"/>
-        <v>17</v>
-      </c>
-      <c r="J129">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="K129" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">               </v>
       </c>
     </row>
     <row r="130" spans="2:11">
@@ -4979,56 +4979,44 @@
         <v>275</v>
       </c>
       <c r="D130" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E130" t="s">
-        <v>276</v>
+        <v>60</v>
       </c>
       <c r="G130" t="str">
         <f t="shared" si="4"/>
-        <v>Scott Watson                    \\</v>
+        <v>Edward J. Wollack               \\</v>
       </c>
       <c r="I130">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J130">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K130" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">               </v>
       </c>
     </row>
     <row r="131" spans="2:11">
-      <c r="B131" t="s">
-        <v>277</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D131" t="s">
-        <v>160</v>
-      </c>
-      <c r="E131" t="s">
-        <v>60</v>
-      </c>
       <c r="G131" t="str">
         <f t="shared" si="4"/>
-        <v>Edward J. Wollack               \\</v>
+        <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I131">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="J131">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="K131" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">               </v>
+        <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="132" spans="2:11">
@@ -5140,48 +5128,57 @@
       </c>
     </row>
     <row r="138" spans="2:11">
+      <c r="B138" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C138" t="s">
+        <v>149</v>
+      </c>
+      <c r="D138" t="s">
+        <v>158</v>
+      </c>
       <c r="G138" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                                \\</v>
+        <f t="shared" ref="G138:G179" si="8">CONCATENATE(B138," ",C138,K138,"\\")</f>
+        <v>Martin White                    \\</v>
       </c>
       <c r="I138">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" ref="I138:I179" si="9">LEN(B138) + LEN(C138) +1</f>
+        <v>12</v>
       </c>
       <c r="J138">
-        <f t="shared" si="6"/>
-        <v>31</v>
+        <f t="shared" ref="J138:J179" si="10">IF(I138&lt;30,(32-I138),3)</f>
+        <v>20</v>
       </c>
       <c r="K138" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                               </v>
+        <f t="shared" ref="K138:K179" si="11">REPT(" ",J138)</f>
+        <v xml:space="preserve">                    </v>
       </c>
     </row>
     <row r="139" spans="2:11">
       <c r="B139" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C139" t="s">
-        <v>151</v>
+        <v>26</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D139" t="s">
-        <v>160</v>
+        <v>8</v>
       </c>
       <c r="G139" t="str">
-        <f t="shared" ref="G139:G179" si="8">CONCATENATE(B139," ",C139,K139,"\\")</f>
-        <v>Martin White                    \\</v>
+        <f>CONCATENATE(B139," ",C139,K139,"\\")</f>
+        <v>Kim Boddy                       \\</v>
       </c>
       <c r="I139">
-        <f t="shared" ref="I139:I179" si="9">LEN(B139) + LEN(C139) +1</f>
-        <v>12</v>
+        <f>LEN(B139) + LEN(C139) +1</f>
+        <v>9</v>
       </c>
       <c r="J139">
-        <f t="shared" ref="J139:J179" si="10">IF(I139&lt;30,(32-I139),3)</f>
-        <v>20</v>
+        <f>IF(I139&lt;30,(32-I139),3)</f>
+        <v>23</v>
       </c>
       <c r="K139" t="str">
-        <f t="shared" ref="K139:K179" si="11">REPT(" ",J139)</f>
-        <v xml:space="preserve">                    </v>
+        <f>REPT(" ",J139)</f>
+        <v xml:space="preserve">                       </v>
       </c>
     </row>
     <row r="140" spans="2:11">

--- a/ReferenceDocuments/ReportAuthors.xlsx
+++ b/ReferenceDocuments/ReportAuthors.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="325">
   <si>
     <t>Report Authors</t>
   </si>
@@ -856,9 +856,6 @@
     <t>Please update the relevant lines above if you add/remove/change names in this list.</t>
   </si>
   <si>
-    <t>12/5/2018, 1 pm.</t>
-  </si>
-  <si>
     <t>Yale University</t>
   </si>
   <si>
@@ -977,6 +974,21 @@
   </si>
   <si>
     <t>Shirokoff</t>
+  </si>
+  <si>
+    <t>CfA/Harvard</t>
+  </si>
+  <si>
+    <t>Racine</t>
+  </si>
+  <si>
+    <t>Caterina</t>
+  </si>
+  <si>
+    <t>Umilt\`{a}</t>
+  </si>
+  <si>
+    <t>12/10/2018, 3 pm.</t>
   </si>
 </sst>
 </file>
@@ -1407,10 +1419,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K179"/>
+  <dimension ref="A1:K180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C3:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1440,7 +1452,7 @@
       </c>
       <c r="B3"/>
       <c r="C3" s="1" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1449,7 +1461,7 @@
       </c>
       <c r="B4"/>
       <c r="C4" s="1" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1458,7 +1470,7 @@
       </c>
       <c r="B5"/>
       <c r="C5" s="1" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1490,16 +1502,16 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I9" t="s">
+        <v>306</v>
+      </c>
+      <c r="J9" t="s">
         <v>307</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>308</v>
-      </c>
-      <c r="K9" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1543,15 +1555,15 @@
         <v>11</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" ref="G11:G72" si="0">CONCATENATE(B11," ",C11,K11,"\\")</f>
+        <f t="shared" ref="G11:G74" si="0">CONCATENATE(B11," ",C11,K11,"\\")</f>
         <v>Peter Ashton                    \\</v>
       </c>
       <c r="I11">
-        <f t="shared" ref="I11:I72" si="1">LEN(B11) + LEN(C11) +1</f>
+        <f t="shared" ref="I11:I74" si="1">LEN(B11) + LEN(C11) +1</f>
         <v>12</v>
       </c>
       <c r="J11">
-        <f t="shared" ref="J11:J72" si="2">IF(I11&lt;30,(32-I11),3)</f>
+        <f t="shared" ref="J11:J74" si="2">IF(I11&lt;30,(32-I11),3)</f>
         <v>20</v>
       </c>
       <c r="K11" t="str">
@@ -1957,149 +1969,146 @@
     </row>
     <row r="26" spans="2:11">
       <c r="B26" t="s">
-        <v>313</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>312</v>
+        <v>46</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>Gianfranco De Zotti             \\</v>
+        <v>Jacques Delabrouille            \\</v>
       </c>
       <c r="I26">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J26">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">             </v>
+        <v xml:space="preserve">            </v>
       </c>
     </row>
     <row r="27" spans="2:11">
       <c r="B27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>Jacques Delabrouille            \\</v>
+        <v>Eleonora Di Valentino           \\</v>
       </c>
       <c r="I27">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J27">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">           </v>
       </c>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" t="s">
-        <v>49</v>
+      <c r="B28" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
       </c>
-      <c r="E28" t="s">
-        <v>51</v>
-      </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>Eleonora Di Valentino           \\</v>
+        <v>Joy Didier                      \\</v>
       </c>
       <c r="I28">
         <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">                      </v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>Olivier Dor\'e                  \\</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">                  </v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C30" t="s">
+        <v>309</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>Alexander van Engelen           \\</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="J28">
+      <c r="J30">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="K28" t="str">
+      <c r="K30" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">           </v>
-      </c>
-    </row>
-    <row r="29" spans="2:11">
-      <c r="B29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" t="str">
-        <f t="shared" si="0"/>
-        <v>Joy Didier                      \\</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="K29" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">                      </v>
-      </c>
-    </row>
-    <row r="30" spans="2:11">
-      <c r="B30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" t="s">
-        <v>55</v>
-      </c>
-      <c r="G30" t="str">
-        <f t="shared" si="0"/>
-        <v>Olivier Dor\'e                  \\</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="K30" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="31" spans="2:11">
@@ -2188,16 +2197,16 @@
     </row>
     <row r="34" spans="2:11">
       <c r="B34" t="s">
+        <v>304</v>
+      </c>
+      <c r="C34" t="s">
         <v>305</v>
       </c>
-      <c r="C34" t="s">
-        <v>306</v>
-      </c>
       <c r="D34" t="s">
         <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
@@ -2593,7 +2602,7 @@
     </row>
     <row r="48" spans="2:11">
       <c r="B48" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>96</v>
@@ -2646,114 +2655,114 @@
       </c>
     </row>
     <row r="50" spans="2:11">
-      <c r="B50" s="1" t="s">
-        <v>99</v>
+      <c r="B50" t="s">
+        <v>296</v>
       </c>
       <c r="C50" t="s">
-        <v>100</v>
+        <v>315</v>
       </c>
       <c r="D50" t="s">
         <v>8</v>
       </c>
+      <c r="E50" t="s">
+        <v>284</v>
+      </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
-        <v>Charles Lawrence                \\</v>
+        <v>Marcos L\'{o}pez-Caniego        \\</v>
       </c>
       <c r="I50">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J50">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K50" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                </v>
+        <v xml:space="preserve">        </v>
       </c>
     </row>
     <row r="51" spans="2:11">
       <c r="B51" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D51" t="s">
         <v>8</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
-        <v>Alex Lazarian                   \\</v>
+        <v>Charles Lawrence                \\</v>
       </c>
       <c r="I51">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J51">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K51" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">                </v>
       </c>
     </row>
     <row r="52" spans="2:11">
       <c r="B52" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" t="s">
+        <v>102</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="0"/>
+        <v>Alex Lazarian                   \\</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="K52" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">                   </v>
+      </c>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="B53" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>104</v>
       </c>
-      <c r="D52" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52" t="str">
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" t="str">
         <f t="shared" si="0"/>
         <v>Zack Li                         \\</v>
       </c>
-      <c r="I52">
+      <c r="I53">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="J52">
+      <c r="J53">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="K52" t="str">
+      <c r="K53" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                         </v>
-      </c>
-    </row>
-    <row r="53" spans="2:11">
-      <c r="B53" t="s">
-        <v>297</v>
-      </c>
-      <c r="C53" t="s">
-        <v>316</v>
-      </c>
-      <c r="D53" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" t="s">
-        <v>285</v>
-      </c>
-      <c r="G53" t="str">
-        <f t="shared" si="0"/>
-        <v>Marcos L\'{o}pez-Caniego        \\</v>
-      </c>
-      <c r="I53">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="J53">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="K53" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">        </v>
       </c>
     </row>
     <row r="54" spans="2:11">
@@ -3099,144 +3108,144 @@
       </c>
     </row>
     <row r="66" spans="2:11">
-      <c r="B66" t="s">
+      <c r="B66" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="0"/>
+        <v>Douglas Scott                   \\</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="K66" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">                   </v>
+      </c>
+    </row>
+    <row r="67" spans="2:11">
+      <c r="B67" t="s">
         <v>133</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D66" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="D67" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" t="s">
         <v>135</v>
       </c>
-      <c r="G66" t="str">
+      <c r="G67" t="str">
         <f t="shared" si="0"/>
         <v>Ian Stephens                    \\</v>
       </c>
-      <c r="I66">
+      <c r="I67">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="J66">
+      <c r="J67">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K66" t="str">
+      <c r="K67" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                    </v>
       </c>
     </row>
-    <row r="67" spans="2:11">
-      <c r="B67" s="1" t="s">
+    <row r="68" spans="2:11">
+      <c r="B68" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C68" t="s">
         <v>137</v>
       </c>
-      <c r="D67" t="s">
-        <v>8</v>
-      </c>
-      <c r="G67" t="str">
+      <c r="D68" t="s">
+        <v>8</v>
+      </c>
+      <c r="G68" t="str">
         <f t="shared" si="0"/>
         <v>Brian Sutin                     \\</v>
       </c>
-      <c r="I67">
+      <c r="I68">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="J67">
+      <c r="J68">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="K67" t="str">
+      <c r="K68" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                     </v>
       </c>
     </row>
-    <row r="68" spans="2:11">
-      <c r="B68" t="s">
+    <row r="69" spans="2:11">
+      <c r="B69" t="s">
         <v>138</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D68" t="s">
-        <v>8</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="D69" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" t="s">
         <v>140</v>
       </c>
-      <c r="G68" t="str">
+      <c r="G69" t="str">
         <f t="shared" si="0"/>
         <v>Maurizio Tomasi                 \\</v>
       </c>
-      <c r="I68">
+      <c r="I69">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="J68">
+      <c r="J69">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="K68" t="str">
+      <c r="K69" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                 </v>
-      </c>
-    </row>
-    <row r="69" spans="2:11">
-      <c r="B69" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C69" t="s">
-        <v>142</v>
-      </c>
-      <c r="D69" t="s">
-        <v>8</v>
-      </c>
-      <c r="G69" t="str">
-        <f t="shared" si="0"/>
-        <v>Amy Trangsrud                   \\</v>
-      </c>
-      <c r="I69">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="J69">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="K69" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">                   </v>
       </c>
     </row>
     <row r="70" spans="2:11">
       <c r="B70" s="1" t="s">
-        <v>311</v>
+        <v>141</v>
       </c>
       <c r="C70" t="s">
-        <v>310</v>
+        <v>142</v>
       </c>
       <c r="D70" t="s">
         <v>8</v>
       </c>
       <c r="G70" t="str">
         <f t="shared" si="0"/>
-        <v>Alexander van Engelen           \\</v>
+        <v>Amy Trangsrud                   \\</v>
       </c>
       <c r="I70">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J70">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K70" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">           </v>
+        <v xml:space="preserve">                   </v>
       </c>
     </row>
     <row r="71" spans="2:11">
@@ -3307,19 +3316,19 @@
         <v>8</v>
       </c>
       <c r="G73" t="str">
-        <f t="shared" ref="G73:G137" si="4">CONCATENATE(B73," ",C73,K73,"\\")</f>
+        <f t="shared" si="0"/>
         <v>Siyao Xu                        \\</v>
       </c>
       <c r="I73">
-        <f t="shared" ref="I73:I137" si="5">LEN(B73) + LEN(C73) +1</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="J73">
-        <f t="shared" ref="J73:J137" si="6">IF(I73&lt;30,(32-I73),3)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="K73" t="str">
-        <f t="shared" ref="K73:K137" si="7">REPT(" ",J73)</f>
+        <f t="shared" ref="K73:K138" si="4">REPT(" ",J73)</f>
         <v xml:space="preserve">                        </v>
       </c>
     </row>
@@ -3334,19 +3343,19 @@
         <v>8</v>
       </c>
       <c r="G74" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Karl Young                      \\</v>
       </c>
       <c r="I74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="K74" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">                      </v>
       </c>
     </row>
@@ -3361,1107 +3370,1087 @@
         <v>8</v>
       </c>
       <c r="G75" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G75:G76" si="5">CONCATENATE(B75," ",C75,K75,"\\")</f>
         <v>Andrea Zonca                    \\</v>
       </c>
       <c r="I75">
+        <f t="shared" ref="I75:I76" si="6">LEN(B75) + LEN(C75) +1</f>
+        <v>12</v>
+      </c>
+      <c r="J75">
+        <f t="shared" ref="J75:J76" si="7">IF(I75&lt;30,(32-I75),3)</f>
+        <v>20</v>
+      </c>
+      <c r="K75" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+    </row>
+    <row r="76" spans="2:11">
+      <c r="B76" t="s">
+        <v>312</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D76" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" t="s">
+        <v>45</v>
+      </c>
+      <c r="G76" t="str">
         <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="J75">
-        <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="K75" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                    </v>
-      </c>
-    </row>
-    <row r="76" spans="2:11">
-      <c r="B76" s="3"/>
-      <c r="C76"/>
-      <c r="G76" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                                \\</v>
+        <v>Gianfranco De Zotti             \\</v>
       </c>
       <c r="I76">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="J76">
-        <f t="shared" si="6"/>
-        <v>31</v>
-      </c>
-      <c r="K76" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="77" spans="2:11">
-      <c r="B77" s="3"/>
-      <c r="C77"/>
-      <c r="G77" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I77">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="J77">
-        <f t="shared" si="6"/>
-        <v>31</v>
-      </c>
-      <c r="K77" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="78" spans="2:11">
-      <c r="B78" t="s">
-        <v>156</v>
-      </c>
-      <c r="C78" t="s">
-        <v>157</v>
-      </c>
-      <c r="D78" t="s">
-        <v>158</v>
-      </c>
-      <c r="E78" t="s">
-        <v>159</v>
-      </c>
-      <c r="G78" t="str">
-        <f t="shared" si="4"/>
-        <v>Zeeshan Ahmed                   \\</v>
-      </c>
-      <c r="I78">
-        <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-      <c r="J78">
         <f t="shared" si="6"/>
         <v>19</v>
       </c>
+      <c r="J76">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="K76" t="str">
+        <f>REPT(" ",J76)</f>
+        <v xml:space="preserve">             </v>
+      </c>
+    </row>
+    <row r="78" spans="2:11">
+      <c r="B78" s="3"/>
+      <c r="C78"/>
+      <c r="G78" t="str">
+        <f t="shared" ref="G73:G138" si="8">CONCATENATE(B78," ",C78,K78,"\\")</f>
+        <v xml:space="preserve">                                \\</v>
+      </c>
+      <c r="I78">
+        <f t="shared" ref="I73:I138" si="9">LEN(B78) + LEN(C78) +1</f>
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <f t="shared" ref="J73:J138" si="10">IF(I78&lt;30,(32-I78),3)</f>
+        <v>31</v>
+      </c>
       <c r="K78" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                   </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="79" spans="2:11">
       <c r="B79" t="s">
-        <v>160</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
+      </c>
+      <c r="C79" t="s">
+        <v>157</v>
       </c>
       <c r="D79" t="s">
         <v>158</v>
       </c>
       <c r="E79" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G79" t="str">
-        <f t="shared" si="4"/>
-        <v>Jason Austermann                \\</v>
+        <f t="shared" si="8"/>
+        <v>Zeeshan Ahmed                   \\</v>
       </c>
       <c r="I79">
-        <f t="shared" si="5"/>
-        <v>16</v>
+        <f t="shared" si="9"/>
+        <v>13</v>
       </c>
       <c r="J79">
-        <f t="shared" si="6"/>
-        <v>16</v>
+        <f t="shared" si="10"/>
+        <v>19</v>
       </c>
       <c r="K79" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                   </v>
       </c>
     </row>
     <row r="80" spans="2:11">
       <c r="B80" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D80" t="s">
         <v>158</v>
       </c>
       <c r="E80" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G80" t="str">
-        <f t="shared" si="4"/>
-        <v>Darcy Barron                    \\</v>
+        <f t="shared" ref="G80:G132" si="11">CONCATENATE(B80," ",C80,K80,"\\")</f>
+        <v>Jason Austermann                \\</v>
       </c>
       <c r="I80">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f t="shared" ref="I80:I132" si="12">LEN(B80) + LEN(C80) +1</f>
+        <v>16</v>
       </c>
       <c r="J80">
-        <f t="shared" si="6"/>
-        <v>20</v>
+        <f t="shared" ref="J80:J132" si="13">IF(I80&lt;30,(32-I80),3)</f>
+        <v>16</v>
       </c>
       <c r="K80" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                    </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                </v>
       </c>
     </row>
     <row r="81" spans="2:11">
       <c r="B81" t="s">
-        <v>166</v>
-      </c>
-      <c r="C81" t="s">
-        <v>167</v>
+        <v>163</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="D81" t="s">
         <v>158</v>
       </c>
+      <c r="E81" t="s">
+        <v>165</v>
+      </c>
       <c r="G81" t="str">
-        <f t="shared" si="4"/>
-        <v>Karim Benabed                   \\</v>
+        <f t="shared" si="11"/>
+        <v>Darcy Barron                    \\</v>
       </c>
       <c r="I81">
-        <f t="shared" si="5"/>
-        <v>13</v>
+        <f t="shared" si="12"/>
+        <v>12</v>
       </c>
       <c r="J81">
-        <f t="shared" si="6"/>
-        <v>19</v>
+        <f t="shared" si="13"/>
+        <v>20</v>
       </c>
       <c r="K81" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                   </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                    </v>
       </c>
     </row>
     <row r="82" spans="2:11">
       <c r="B82" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C82" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D82" t="s">
         <v>158</v>
       </c>
-      <c r="E82" t="s">
-        <v>170</v>
-      </c>
       <c r="G82" t="str">
-        <f t="shared" si="4"/>
-        <v>Federico Bianchini              \\</v>
+        <f t="shared" si="11"/>
+        <v>Karim Benabed                   \\</v>
       </c>
       <c r="I82">
-        <f t="shared" si="5"/>
-        <v>18</v>
+        <f t="shared" si="12"/>
+        <v>13</v>
       </c>
       <c r="J82">
-        <f t="shared" si="6"/>
-        <v>14</v>
+        <f t="shared" si="13"/>
+        <v>19</v>
       </c>
       <c r="K82" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">              </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                   </v>
       </c>
     </row>
     <row r="83" spans="2:11">
-      <c r="B83" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>296</v>
+      <c r="B83" t="s">
+        <v>168</v>
+      </c>
+      <c r="C83" t="s">
+        <v>169</v>
       </c>
       <c r="D83" t="s">
         <v>158</v>
       </c>
       <c r="E83" t="s">
-        <v>284</v>
+        <v>170</v>
       </c>
       <c r="G83" t="str">
-        <f t="shared" si="4"/>
-        <v>Colin Bischoff                  \\</v>
+        <f t="shared" si="11"/>
+        <v>Federico Bianchini              \\</v>
       </c>
       <c r="I83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
-      <c r="J83">
-        <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
       <c r="K83" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                  </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">              </v>
       </c>
     </row>
     <row r="84" spans="2:11">
-      <c r="B84" t="s">
-        <v>174</v>
-      </c>
-      <c r="C84" t="s">
-        <v>175</v>
+      <c r="B84" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>295</v>
       </c>
       <c r="D84" t="s">
         <v>158</v>
       </c>
       <c r="E84" t="s">
-        <v>176</v>
+        <v>283</v>
       </c>
       <c r="G84" t="str">
-        <f t="shared" si="4"/>
-        <v>J. Richard Bond                 \\</v>
+        <f t="shared" si="11"/>
+        <v>Colin Bischoff                  \\</v>
       </c>
       <c r="I84">
-        <f t="shared" si="5"/>
-        <v>15</v>
+        <f t="shared" si="12"/>
+        <v>14</v>
       </c>
       <c r="J84">
-        <f t="shared" si="6"/>
-        <v>17</v>
+        <f t="shared" si="13"/>
+        <v>18</v>
       </c>
       <c r="K84" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                 </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="85" spans="2:11">
-      <c r="B85" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>294</v>
+      <c r="B85" t="s">
+        <v>174</v>
+      </c>
+      <c r="C85" t="s">
+        <v>175</v>
       </c>
       <c r="D85" t="s">
         <v>158</v>
       </c>
       <c r="E85" t="s">
-        <v>282</v>
+        <v>176</v>
       </c>
       <c r="G85" t="str">
-        <f t="shared" si="4"/>
-        <v>Robert Caldwell                 \\</v>
+        <f t="shared" si="11"/>
+        <v>J. Richard Bond                 \\</v>
       </c>
       <c r="I85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="J85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="K85" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">                 </v>
       </c>
     </row>
     <row r="86" spans="2:11">
-      <c r="B86" t="s">
-        <v>177</v>
+      <c r="B86" s="1" t="s">
+        <v>314</v>
       </c>
       <c r="C86" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="D86" t="s">
         <v>158</v>
       </c>
       <c r="E86" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="G86" t="str">
-        <f t="shared" si="4"/>
-        <v>Xingang Chen                    \\</v>
+        <f t="shared" si="11"/>
+        <v>Fran\c{c}ois Bouchet            \\</v>
       </c>
       <c r="I86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
-      <c r="J86">
-        <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
       <c r="K86" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                    </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">            </v>
       </c>
     </row>
     <row r="87" spans="2:11">
-      <c r="B87" t="s">
-        <v>179</v>
-      </c>
-      <c r="C87" t="s">
-        <v>180</v>
+      <c r="B87" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="D87" t="s">
         <v>158</v>
       </c>
       <c r="E87" t="s">
-        <v>181</v>
+        <v>281</v>
       </c>
       <c r="G87" t="str">
-        <f t="shared" si="4"/>
-        <v>Jens Chluba                     \\</v>
+        <f t="shared" si="11"/>
+        <v>Robert Caldwell                 \\</v>
       </c>
       <c r="I87">
-        <f t="shared" si="5"/>
-        <v>11</v>
+        <f t="shared" si="12"/>
+        <v>15</v>
       </c>
       <c r="J87">
-        <f t="shared" si="6"/>
-        <v>21</v>
+        <f t="shared" si="13"/>
+        <v>17</v>
       </c>
       <c r="K87" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                     </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                 </v>
       </c>
     </row>
     <row r="88" spans="2:11">
       <c r="B88" t="s">
-        <v>182</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
+      </c>
+      <c r="C88" t="s">
+        <v>178</v>
       </c>
       <c r="D88" t="s">
         <v>158</v>
       </c>
       <c r="E88" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="G88" t="str">
-        <f t="shared" si="4"/>
-        <v>Francis-Yan Cyr-Racine          \\</v>
+        <f t="shared" si="11"/>
+        <v>Xingang Chen                    \\</v>
       </c>
       <c r="I88">
-        <f t="shared" si="5"/>
-        <v>22</v>
+        <f t="shared" si="12"/>
+        <v>12</v>
       </c>
       <c r="J88">
-        <f t="shared" si="6"/>
-        <v>10</v>
+        <f t="shared" si="13"/>
+        <v>20</v>
       </c>
       <c r="K88" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">          </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                    </v>
       </c>
     </row>
     <row r="89" spans="2:11">
       <c r="B89" t="s">
-        <v>185</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
+      </c>
+      <c r="C89" t="s">
+        <v>180</v>
       </c>
       <c r="D89" t="s">
         <v>158</v>
       </c>
       <c r="E89" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G89" t="str">
-        <f t="shared" si="4"/>
-        <v>Tijmen de Haan                  \\</v>
+        <f t="shared" si="11"/>
+        <v>Jens Chluba                     \\</v>
       </c>
       <c r="I89">
-        <f t="shared" si="5"/>
-        <v>14</v>
+        <f t="shared" si="12"/>
+        <v>11</v>
       </c>
       <c r="J89">
-        <f t="shared" si="6"/>
-        <v>18</v>
+        <f t="shared" si="13"/>
+        <v>21</v>
       </c>
       <c r="K89" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                  </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="90" spans="2:11">
       <c r="B90" t="s">
-        <v>188</v>
-      </c>
-      <c r="C90" t="s">
-        <v>320</v>
+        <v>182</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D90" t="s">
         <v>158</v>
       </c>
       <c r="E90" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G90" t="str">
-        <f>CONCATENATE(C90," ",B90,K90,"\\")</f>
-        <v>Shirokoff Erik                  \\</v>
+        <f t="shared" si="11"/>
+        <v>Francis-Yan Cyr-Racine          \\</v>
       </c>
       <c r="I90">
-        <f>LEN(C90) + LEN(B90) +1</f>
-        <v>14</v>
+        <f t="shared" si="12"/>
+        <v>22</v>
       </c>
       <c r="J90">
-        <f t="shared" si="6"/>
-        <v>18</v>
+        <f t="shared" si="13"/>
+        <v>10</v>
       </c>
       <c r="K90" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                  </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">          </v>
       </c>
     </row>
     <row r="91" spans="2:11">
       <c r="B91" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D91" t="s">
         <v>158</v>
       </c>
       <c r="E91" t="s">
-        <v>93</v>
+        <v>187</v>
       </c>
       <c r="G91" t="str">
-        <f t="shared" si="4"/>
-        <v>Aurelien Fraisse                \\</v>
+        <f t="shared" si="11"/>
+        <v>Tijmen de Haan                  \\</v>
       </c>
       <c r="I91">
-        <f t="shared" si="5"/>
-        <v>16</v>
+        <f t="shared" si="12"/>
+        <v>14</v>
       </c>
       <c r="J91">
-        <f t="shared" si="6"/>
-        <v>16</v>
+        <f t="shared" si="13"/>
+        <v>18</v>
       </c>
       <c r="K91" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="92" spans="2:11">
-      <c r="B92" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C92" t="s">
-        <v>192</v>
+      <c r="B92" t="s">
+        <v>190</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="D92" t="s">
         <v>158</v>
       </c>
       <c r="E92" t="s">
-        <v>194</v>
+        <v>93</v>
       </c>
       <c r="G92" t="str">
-        <f>CONCATENATE(C92," ",B92,K92,"\\")</f>
-        <v>Piacentini Francesco            \\</v>
+        <f t="shared" si="11"/>
+        <v>Aurelien Fraisse                \\</v>
       </c>
       <c r="I92">
-        <f>LEN(C92) + LEN(B92) +1</f>
-        <v>20</v>
+        <f t="shared" si="12"/>
+        <v>16</v>
       </c>
       <c r="J92">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="13"/>
+        <v>16</v>
       </c>
       <c r="K92" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">            </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                </v>
       </c>
     </row>
     <row r="93" spans="2:11">
-      <c r="B93" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C93" t="s">
-        <v>195</v>
+      <c r="B93" t="s">
+        <v>196</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="D93" t="s">
         <v>158</v>
       </c>
       <c r="E93" t="s">
-        <v>84</v>
+        <v>198</v>
       </c>
       <c r="G93" t="str">
-        <f>CONCATENATE(C93," ",B93,K93,"\\")</f>
-        <v>Bouchet Fran\c{c}ois            \\</v>
+        <f t="shared" si="11"/>
+        <v>Silvia Galli                    \\</v>
       </c>
       <c r="I93">
-        <f>LEN(C93) + LEN(B93) +1</f>
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
-      <c r="J93">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
       <c r="K93" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">            </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                    </v>
       </c>
     </row>
     <row r="94" spans="2:11">
       <c r="B94" t="s">
-        <v>196</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
+      </c>
+      <c r="C94" t="s">
+        <v>200</v>
       </c>
       <c r="D94" t="s">
         <v>158</v>
       </c>
       <c r="E94" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G94" t="str">
-        <f t="shared" si="4"/>
-        <v>Silvia Galli                    \\</v>
+        <f t="shared" si="11"/>
+        <v>Ken Ganga                       \\</v>
       </c>
       <c r="I94">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f t="shared" si="12"/>
+        <v>9</v>
       </c>
       <c r="J94">
-        <f t="shared" si="6"/>
-        <v>20</v>
+        <f t="shared" si="13"/>
+        <v>23</v>
       </c>
       <c r="K94" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                    </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                       </v>
       </c>
     </row>
     <row r="95" spans="2:11">
       <c r="B95" t="s">
-        <v>199</v>
-      </c>
-      <c r="C95" t="s">
-        <v>200</v>
+        <v>202</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="D95" t="s">
         <v>158</v>
       </c>
       <c r="E95" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G95" t="str">
-        <f t="shared" si="4"/>
-        <v>Ken Ganga                       \\</v>
+        <f t="shared" si="11"/>
+        <v>Tuhin Ghosh                     \\</v>
       </c>
       <c r="I95">
-        <f t="shared" si="5"/>
-        <v>9</v>
+        <f t="shared" si="12"/>
+        <v>11</v>
       </c>
       <c r="J95">
-        <f t="shared" si="6"/>
-        <v>23</v>
+        <f t="shared" si="13"/>
+        <v>21</v>
       </c>
       <c r="K95" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                       </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="96" spans="2:11">
       <c r="B96" t="s">
-        <v>202</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
+      </c>
+      <c r="C96" t="s">
+        <v>206</v>
       </c>
       <c r="D96" t="s">
         <v>158</v>
       </c>
       <c r="E96" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G96" t="str">
-        <f t="shared" si="4"/>
-        <v>Tuhin Ghosh                     \\</v>
+        <f t="shared" si="11"/>
+        <v>Jon E. Gudmundsson              \\</v>
       </c>
       <c r="I96">
-        <f t="shared" si="5"/>
-        <v>11</v>
+        <f t="shared" si="12"/>
+        <v>18</v>
       </c>
       <c r="J96">
-        <f t="shared" si="6"/>
-        <v>21</v>
+        <f t="shared" si="13"/>
+        <v>14</v>
       </c>
       <c r="K96" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                     </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">              </v>
       </c>
     </row>
     <row r="97" spans="2:11">
       <c r="B97" t="s">
-        <v>205</v>
-      </c>
-      <c r="C97" t="s">
-        <v>206</v>
+        <v>208</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="D97" t="s">
         <v>158</v>
       </c>
       <c r="E97" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G97" t="str">
-        <f t="shared" si="4"/>
-        <v>Jon E. Gudmundsson              \\</v>
+        <f t="shared" si="11"/>
+        <v>Marc Kamionkowski               \\</v>
       </c>
       <c r="I97">
-        <f t="shared" si="5"/>
-        <v>18</v>
+        <f t="shared" si="12"/>
+        <v>17</v>
       </c>
       <c r="J97">
-        <f t="shared" si="6"/>
-        <v>14</v>
+        <f t="shared" si="13"/>
+        <v>15</v>
       </c>
       <c r="K97" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">              </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">               </v>
       </c>
     </row>
     <row r="98" spans="2:11">
       <c r="B98" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D98" t="s">
         <v>158</v>
       </c>
       <c r="E98" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G98" t="str">
-        <f t="shared" si="4"/>
-        <v>Marc Kamionkowski               \\</v>
+        <f t="shared" si="11"/>
+        <v>Reijo Keskitalo                 \\</v>
       </c>
       <c r="I98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
-      <c r="J98">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
       <c r="K98" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">               </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                 </v>
       </c>
     </row>
     <row r="99" spans="2:11">
       <c r="B99" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D99" t="s">
         <v>158</v>
       </c>
       <c r="E99" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G99" t="str">
-        <f t="shared" si="4"/>
-        <v>Reijo Keskitalo                 \\</v>
+        <f t="shared" si="11"/>
+        <v>Rishi Khatri                    \\</v>
       </c>
       <c r="I99">
-        <f t="shared" si="5"/>
-        <v>15</v>
+        <f t="shared" si="12"/>
+        <v>12</v>
       </c>
       <c r="J99">
-        <f t="shared" si="6"/>
-        <v>17</v>
+        <f t="shared" si="13"/>
+        <v>20</v>
       </c>
       <c r="K99" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                 </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                    </v>
       </c>
     </row>
     <row r="100" spans="2:11">
       <c r="B100" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D100" t="s">
         <v>158</v>
       </c>
       <c r="E100" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G100" t="str">
-        <f t="shared" si="4"/>
-        <v>Rishi Khatri                    \\</v>
+        <f t="shared" si="11"/>
+        <v>Ely Kovetz                      \\</v>
       </c>
       <c r="I100">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f t="shared" si="12"/>
+        <v>10</v>
       </c>
       <c r="J100">
-        <f t="shared" si="6"/>
-        <v>20</v>
+        <f t="shared" si="13"/>
+        <v>22</v>
       </c>
       <c r="K100" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                    </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                      </v>
       </c>
     </row>
     <row r="101" spans="2:11">
       <c r="B101" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D101" t="s">
         <v>158</v>
       </c>
       <c r="E101" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="G101" t="str">
-        <f t="shared" si="4"/>
-        <v>Ely Kovetz                      \\</v>
+        <f t="shared" si="11"/>
+        <v>Daniel Lenz                     \\</v>
       </c>
       <c r="I101">
-        <f t="shared" si="5"/>
-        <v>10</v>
+        <f t="shared" si="12"/>
+        <v>11</v>
       </c>
       <c r="J101">
-        <f t="shared" si="6"/>
-        <v>22</v>
+        <f t="shared" si="13"/>
+        <v>21</v>
       </c>
       <c r="K101" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                      </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="102" spans="2:11">
       <c r="B102" t="s">
-        <v>219</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
+      </c>
+      <c r="C102" t="s">
+        <v>223</v>
       </c>
       <c r="D102" t="s">
         <v>158</v>
       </c>
       <c r="E102" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G102" t="str">
-        <f t="shared" si="4"/>
-        <v>Daniel Lenz                     \\</v>
+        <f t="shared" si="11"/>
+        <v>Marilena Loverde                \\</v>
       </c>
       <c r="I102">
-        <f t="shared" si="5"/>
-        <v>11</v>
+        <f t="shared" si="12"/>
+        <v>16</v>
       </c>
       <c r="J102">
-        <f t="shared" si="6"/>
-        <v>21</v>
+        <f t="shared" si="13"/>
+        <v>16</v>
       </c>
       <c r="K102" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                     </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                </v>
       </c>
     </row>
     <row r="103" spans="2:11">
       <c r="B103" t="s">
-        <v>222</v>
-      </c>
-      <c r="C103" t="s">
-        <v>223</v>
+        <v>225</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="D103" t="s">
         <v>158</v>
       </c>
       <c r="E103" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G103" t="str">
-        <f t="shared" si="4"/>
-        <v>Marilena Loverde                \\</v>
+        <f t="shared" si="11"/>
+        <v>Carlos Martins                  \\</v>
       </c>
       <c r="I103">
-        <f t="shared" si="5"/>
-        <v>16</v>
+        <f t="shared" si="12"/>
+        <v>14</v>
       </c>
       <c r="J103">
-        <f t="shared" si="6"/>
-        <v>16</v>
+        <f t="shared" si="13"/>
+        <v>18</v>
       </c>
       <c r="K103" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="104" spans="2:11">
       <c r="B104" t="s">
-        <v>225</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>226</v>
+        <v>196</v>
+      </c>
+      <c r="C104" t="s">
+        <v>228</v>
       </c>
       <c r="D104" t="s">
         <v>158</v>
       </c>
       <c r="E104" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G104" t="str">
-        <f t="shared" si="4"/>
-        <v>Carlos Martins                  \\</v>
+        <f t="shared" si="11"/>
+        <v>Silvia Masi                     \\</v>
       </c>
       <c r="I104">
-        <f t="shared" si="5"/>
-        <v>14</v>
+        <f t="shared" si="12"/>
+        <v>11</v>
       </c>
       <c r="J104">
-        <f t="shared" si="6"/>
-        <v>18</v>
+        <f t="shared" si="13"/>
+        <v>21</v>
       </c>
       <c r="K104" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                  </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="105" spans="2:11">
-      <c r="B105" t="s">
-        <v>196</v>
-      </c>
-      <c r="C105" t="s">
-        <v>228</v>
+      <c r="B105" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>298</v>
       </c>
       <c r="D105" t="s">
         <v>158</v>
       </c>
       <c r="E105" t="s">
-        <v>229</v>
+        <v>285</v>
       </c>
       <c r="G105" t="str">
-        <f t="shared" si="4"/>
-        <v>Silvia Masi                     \\</v>
+        <f t="shared" si="11"/>
+        <v>Joel Meyers                     \\</v>
       </c>
       <c r="I105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
       <c r="J105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="K105" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="106" spans="2:11">
-      <c r="B106" s="1" t="s">
-        <v>298</v>
+      <c r="B106" t="s">
+        <v>230</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="D106" t="s">
         <v>158</v>
       </c>
       <c r="E106" t="s">
-        <v>286</v>
+        <v>232</v>
       </c>
       <c r="G106" t="str">
-        <f t="shared" si="4"/>
-        <v>Joel Meyers                     \\</v>
+        <f t="shared" si="11"/>
+        <v>Lorenzo Moncelsi                \\</v>
       </c>
       <c r="I106">
-        <f t="shared" si="5"/>
-        <v>11</v>
+        <f t="shared" si="12"/>
+        <v>16</v>
       </c>
       <c r="J106">
-        <f t="shared" si="6"/>
-        <v>21</v>
+        <f t="shared" si="13"/>
+        <v>16</v>
       </c>
       <c r="K106" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                     </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                </v>
       </c>
     </row>
     <row r="107" spans="2:11">
       <c r="B107" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D107" t="s">
         <v>158</v>
       </c>
       <c r="E107" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G107" t="str">
-        <f t="shared" si="4"/>
-        <v>Lorenzo Moncelsi                \\</v>
+        <f t="shared" si="11"/>
+        <v>Pavel Motloch                   \\</v>
       </c>
       <c r="I107">
-        <f t="shared" si="5"/>
-        <v>16</v>
+        <f t="shared" si="12"/>
+        <v>13</v>
       </c>
       <c r="J107">
-        <f t="shared" si="6"/>
-        <v>16</v>
+        <f t="shared" si="13"/>
+        <v>19</v>
       </c>
       <c r="K107" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                   </v>
       </c>
     </row>
     <row r="108" spans="2:11">
       <c r="B108" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D108" t="s">
         <v>158</v>
       </c>
       <c r="E108" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G108" t="str">
-        <f t="shared" si="4"/>
-        <v>Pavel Motloch                   \\</v>
+        <f t="shared" si="11"/>
+        <v>Tony Mroczkowski                \\</v>
       </c>
       <c r="I108">
-        <f t="shared" si="5"/>
-        <v>13</v>
+        <f t="shared" si="12"/>
+        <v>16</v>
       </c>
       <c r="J108">
-        <f t="shared" si="6"/>
-        <v>19</v>
+        <f t="shared" si="13"/>
+        <v>16</v>
       </c>
       <c r="K108" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                   </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                </v>
       </c>
     </row>
     <row r="109" spans="2:11">
       <c r="B109" t="s">
-        <v>236</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
+      </c>
+      <c r="C109" t="s">
+        <v>239</v>
       </c>
       <c r="D109" t="s">
         <v>158</v>
       </c>
       <c r="E109" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G109" t="str">
-        <f t="shared" si="4"/>
-        <v>Tony Mroczkowski                \\</v>
+        <f t="shared" si="11"/>
+        <v>Pavel Naselsky                  \\</v>
       </c>
       <c r="I109">
-        <f t="shared" si="5"/>
-        <v>16</v>
+        <f t="shared" si="12"/>
+        <v>14</v>
       </c>
       <c r="J109">
-        <f t="shared" si="6"/>
-        <v>16</v>
+        <f t="shared" si="13"/>
+        <v>18</v>
       </c>
       <c r="K109" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="110" spans="2:11">
       <c r="B110" t="s">
-        <v>233</v>
-      </c>
-      <c r="C110" t="s">
-        <v>239</v>
+        <v>168</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="D110" t="s">
         <v>158</v>
       </c>
       <c r="E110" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G110" t="str">
-        <f t="shared" si="4"/>
-        <v>Pavel Naselsky                  \\</v>
+        <f t="shared" si="11"/>
+        <v>Federico Nati                   \\</v>
       </c>
       <c r="I110">
-        <f t="shared" si="5"/>
-        <v>14</v>
+        <f t="shared" si="12"/>
+        <v>13</v>
       </c>
       <c r="J110">
-        <f t="shared" si="6"/>
-        <v>18</v>
+        <f t="shared" si="13"/>
+        <v>19</v>
       </c>
       <c r="K110" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                  </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                   </v>
       </c>
     </row>
     <row r="111" spans="2:11">
       <c r="B111" t="s">
-        <v>168</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
+      </c>
+      <c r="C111" t="s">
+        <v>244</v>
       </c>
       <c r="D111" t="s">
         <v>158</v>
       </c>
       <c r="E111" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G111" t="str">
-        <f t="shared" si="4"/>
-        <v>Federico Nati                   \\</v>
+        <f t="shared" si="11"/>
+        <v>Elena Orlando                   \\</v>
       </c>
       <c r="I111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="J111">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>19</v>
       </c>
       <c r="K111" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">                   </v>
       </c>
     </row>
     <row r="112" spans="2:11">
-      <c r="B112" t="s">
-        <v>243</v>
+      <c r="B112" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="C112" t="s">
-        <v>244</v>
+        <v>192</v>
       </c>
       <c r="D112" t="s">
         <v>158</v>
       </c>
       <c r="E112" t="s">
-        <v>245</v>
+        <v>194</v>
       </c>
       <c r="G112" t="str">
-        <f t="shared" si="4"/>
-        <v>Elena Orlando                   \\</v>
+        <f t="shared" si="11"/>
+        <v>Francesco Piacentini            \\</v>
       </c>
       <c r="I112">
-        <f t="shared" si="5"/>
-        <v>13</v>
+        <f t="shared" si="12"/>
+        <v>20</v>
       </c>
       <c r="J112">
-        <f t="shared" si="6"/>
-        <v>19</v>
+        <f t="shared" si="13"/>
+        <v>12</v>
       </c>
       <c r="K112" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                   </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">            </v>
       </c>
     </row>
     <row r="113" spans="2:11">
@@ -4478,175 +4467,178 @@
         <v>248</v>
       </c>
       <c r="G113" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Giuseppe Puglisi                \\</v>
       </c>
       <c r="I113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="J113">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="K113" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">                </v>
       </c>
     </row>
     <row r="114" spans="2:11">
-      <c r="B114" t="s">
-        <v>249</v>
-      </c>
-      <c r="C114" t="s">
-        <v>250</v>
+      <c r="B114" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>321</v>
       </c>
       <c r="D114" t="s">
         <v>158</v>
       </c>
       <c r="E114" t="s">
-        <v>170</v>
+        <v>320</v>
       </c>
       <c r="G114" t="str">
-        <f t="shared" si="4"/>
-        <v>Christian Reichardt             \\</v>
+        <f t="shared" si="11"/>
+        <v>Benjamin Racine                 \\</v>
       </c>
       <c r="I114">
-        <f t="shared" si="5"/>
-        <v>19</v>
+        <f t="shared" si="12"/>
+        <v>15</v>
       </c>
       <c r="J114">
-        <f t="shared" si="6"/>
-        <v>13</v>
+        <f t="shared" si="13"/>
+        <v>17</v>
       </c>
       <c r="K114" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">             </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                 </v>
       </c>
     </row>
     <row r="115" spans="2:11">
       <c r="B115" t="s">
-        <v>251</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
+      </c>
+      <c r="C115" t="s">
+        <v>250</v>
       </c>
       <c r="D115" t="s">
         <v>158</v>
       </c>
       <c r="E115" t="s">
-        <v>253</v>
+        <v>170</v>
       </c>
       <c r="G115" t="str">
-        <f t="shared" si="4"/>
-        <v>Anirban Roy                     \\</v>
+        <f t="shared" si="11"/>
+        <v>Christian Reichardt             \\</v>
       </c>
       <c r="I115">
-        <f t="shared" si="5"/>
-        <v>11</v>
+        <f t="shared" si="12"/>
+        <v>19</v>
       </c>
       <c r="J115">
-        <f t="shared" si="6"/>
-        <v>21</v>
+        <f t="shared" si="13"/>
+        <v>13</v>
       </c>
       <c r="K115" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                     </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">             </v>
       </c>
     </row>
     <row r="116" spans="2:11">
       <c r="B116" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D116" t="s">
         <v>158</v>
       </c>
       <c r="E116" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G116" t="str">
-        <f t="shared" si="4"/>
-        <v>Maria Salatino                  \\</v>
+        <f t="shared" si="11"/>
+        <v>Anirban Roy                     \\</v>
       </c>
       <c r="I116">
-        <f t="shared" si="5"/>
-        <v>14</v>
+        <f t="shared" si="12"/>
+        <v>11</v>
       </c>
       <c r="J116">
-        <f t="shared" si="6"/>
-        <v>18</v>
+        <f t="shared" si="13"/>
+        <v>21</v>
       </c>
       <c r="K116" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                  </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="117" spans="2:11">
-      <c r="B117" s="1" t="s">
-        <v>291</v>
+      <c r="B117" t="s">
+        <v>254</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>292</v>
+        <v>255</v>
       </c>
       <c r="D117" t="s">
         <v>158</v>
       </c>
       <c r="E117" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="G117" t="str">
-        <f t="shared" si="4"/>
-        <v>Benjamin Saliwanchik            \\</v>
+        <f t="shared" si="11"/>
+        <v>Maria Salatino                  \\</v>
       </c>
       <c r="I117">
-        <f t="shared" si="5"/>
-        <v>20</v>
+        <f t="shared" si="12"/>
+        <v>14</v>
       </c>
       <c r="J117">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="13"/>
+        <v>18</v>
       </c>
       <c r="K117" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">            </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="118" spans="2:11">
       <c r="B118" s="1" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="D118" t="s">
         <v>158</v>
       </c>
+      <c r="E118" t="s">
+        <v>280</v>
+      </c>
       <c r="G118" t="str">
-        <f t="shared" si="4"/>
-        <v>Douglas Scott                   \\</v>
+        <f t="shared" si="11"/>
+        <v>Benjamin Saliwanchik            \\</v>
       </c>
       <c r="I118">
-        <f t="shared" si="5"/>
-        <v>13</v>
+        <f t="shared" si="12"/>
+        <v>20</v>
       </c>
       <c r="J118">
-        <f t="shared" si="6"/>
-        <v>19</v>
+        <f t="shared" si="13"/>
+        <v>12</v>
       </c>
       <c r="K118" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                   </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">            </v>
       </c>
     </row>
     <row r="119" spans="2:11">
       <c r="B119" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="D119" t="s">
         <v>158</v>
@@ -4655,19 +4647,19 @@
         <v>224</v>
       </c>
       <c r="G119" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Neelima Sehgal                  \\</v>
       </c>
       <c r="I119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="J119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="K119" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">                  </v>
       </c>
     </row>
@@ -4685,1225 +4677,1269 @@
         <v>259</v>
       </c>
       <c r="G120" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>Sarah Shandera                  \\</v>
       </c>
       <c r="I120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="J120">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="K120" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="121" spans="2:11">
       <c r="B121" t="s">
-        <v>260</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>261</v>
+        <v>188</v>
+      </c>
+      <c r="C121" t="s">
+        <v>319</v>
       </c>
       <c r="D121" t="s">
         <v>158</v>
       </c>
       <c r="E121" t="s">
-        <v>262</v>
+        <v>189</v>
       </c>
       <c r="G121" t="str">
-        <f t="shared" si="4"/>
-        <v>An\v{z}e Slosar                 \\</v>
+        <f t="shared" si="11"/>
+        <v>Erik Shirokoff                  \\</v>
       </c>
       <c r="I121">
-        <f t="shared" si="5"/>
-        <v>15</v>
+        <f t="shared" si="12"/>
+        <v>14</v>
       </c>
       <c r="J121">
-        <f t="shared" si="6"/>
-        <v>17</v>
+        <f t="shared" si="13"/>
+        <v>18</v>
       </c>
       <c r="K121" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                 </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="122" spans="2:11">
       <c r="B122" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D122" t="s">
         <v>158</v>
       </c>
       <c r="E122" t="s">
-        <v>187</v>
+        <v>262</v>
       </c>
       <c r="G122" t="str">
-        <f t="shared" si="4"/>
-        <v>Aritoki Suzuki                  \\</v>
+        <f t="shared" si="11"/>
+        <v>An\v{z}e Slosar                 \\</v>
       </c>
       <c r="I122">
-        <f t="shared" si="5"/>
-        <v>14</v>
+        <f t="shared" si="12"/>
+        <v>15</v>
       </c>
       <c r="J122">
-        <f t="shared" si="6"/>
-        <v>18</v>
+        <f t="shared" si="13"/>
+        <v>17</v>
       </c>
       <c r="K122" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                  </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                 </v>
       </c>
     </row>
     <row r="123" spans="2:11">
-      <c r="B123" s="1" t="s">
-        <v>82</v>
+      <c r="B123" t="s">
+        <v>263</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="D123" t="s">
         <v>158</v>
       </c>
       <c r="E123" t="s">
-        <v>287</v>
+        <v>187</v>
       </c>
       <c r="G123" t="str">
-        <f t="shared" si="4"/>
-        <v>Eric Switzer                    \\</v>
+        <f t="shared" si="11"/>
+        <v>Aritoki Suzuki                  \\</v>
       </c>
       <c r="I123">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f t="shared" si="12"/>
+        <v>14</v>
       </c>
       <c r="J123">
-        <f t="shared" si="6"/>
-        <v>20</v>
+        <f t="shared" si="13"/>
+        <v>18</v>
       </c>
       <c r="K123" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                    </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="124" spans="2:11">
       <c r="B124" s="1" t="s">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D124" t="s">
         <v>158</v>
       </c>
       <c r="E124" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G124" t="str">
-        <f t="shared" si="4"/>
-        <v>Andrea Tartari                  \\</v>
+        <f t="shared" si="11"/>
+        <v>Eric Switzer                    \\</v>
       </c>
       <c r="I124">
-        <f t="shared" si="5"/>
-        <v>14</v>
+        <f t="shared" si="12"/>
+        <v>12</v>
       </c>
       <c r="J124">
-        <f t="shared" si="6"/>
-        <v>18</v>
+        <f t="shared" si="13"/>
+        <v>20</v>
       </c>
       <c r="K124" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                  </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                    </v>
       </c>
     </row>
     <row r="125" spans="2:11">
-      <c r="B125" t="s">
-        <v>265</v>
+      <c r="B125" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="D125" t="s">
         <v>158</v>
       </c>
       <c r="E125" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="G125" t="str">
-        <f t="shared" si="4"/>
-        <v>Grant Teply                     \\</v>
+        <f t="shared" si="11"/>
+        <v>Andrea Tartari                  \\</v>
       </c>
       <c r="I125">
-        <f t="shared" si="5"/>
-        <v>11</v>
+        <f t="shared" si="12"/>
+        <v>14</v>
       </c>
       <c r="J125">
-        <f t="shared" si="6"/>
-        <v>21</v>
+        <f t="shared" si="13"/>
+        <v>18</v>
       </c>
       <c r="K125" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                     </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="126" spans="2:11">
-      <c r="B126" s="1" t="s">
-        <v>9</v>
+      <c r="B126" t="s">
+        <v>265</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>304</v>
+        <v>266</v>
       </c>
       <c r="D126" t="s">
         <v>158</v>
       </c>
       <c r="E126" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="G126" t="str">
-        <f t="shared" si="4"/>
-        <v>Peter Timbie                    \\</v>
+        <f t="shared" si="11"/>
+        <v>Grant Teply                     \\</v>
       </c>
       <c r="I126">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f t="shared" si="12"/>
+        <v>11</v>
       </c>
       <c r="J126">
-        <f t="shared" si="6"/>
-        <v>20</v>
+        <f t="shared" si="13"/>
+        <v>21</v>
       </c>
       <c r="K126" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                    </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="127" spans="2:11">
-      <c r="B127" t="s">
-        <v>268</v>
+      <c r="B127" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="D127" t="s">
         <v>158</v>
       </c>
       <c r="E127" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="G127" t="str">
-        <f t="shared" si="4"/>
-        <v>Matthieu Tristram               \\</v>
+        <f t="shared" si="11"/>
+        <v>Peter Timbie                    \\</v>
       </c>
       <c r="I127">
-        <f t="shared" si="5"/>
-        <v>17</v>
+        <f t="shared" si="12"/>
+        <v>12</v>
       </c>
       <c r="J127">
-        <f t="shared" si="6"/>
-        <v>15</v>
+        <f t="shared" si="13"/>
+        <v>20</v>
       </c>
       <c r="K127" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">               </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                    </v>
       </c>
     </row>
     <row r="128" spans="2:11">
-      <c r="B128" s="1" t="s">
-        <v>291</v>
+      <c r="B128" t="s">
+        <v>268</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="D128" t="s">
         <v>158</v>
       </c>
       <c r="E128" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="G128" t="str">
-        <f t="shared" si="4"/>
-        <v>Benjamin Wallisch               \\</v>
+        <f t="shared" si="11"/>
+        <v>Matthieu Tristram               \\</v>
       </c>
       <c r="I128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
       <c r="J128">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="K128" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">               </v>
       </c>
     </row>
     <row r="129" spans="2:11">
-      <c r="B129" t="s">
-        <v>271</v>
+      <c r="B129" s="1" t="s">
+        <v>322</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>272</v>
+        <v>323</v>
       </c>
       <c r="D129" t="s">
         <v>158</v>
       </c>
       <c r="E129" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="G129" t="str">
-        <f t="shared" si="4"/>
-        <v>Scott Watson                    \\</v>
+        <f t="shared" si="11"/>
+        <v>Caterina Umilt\`{a}             \\</v>
       </c>
       <c r="I129">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f t="shared" si="12"/>
+        <v>19</v>
       </c>
       <c r="J129">
-        <f t="shared" si="6"/>
-        <v>20</v>
+        <f t="shared" si="13"/>
+        <v>13</v>
       </c>
       <c r="K129" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                    </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">             </v>
       </c>
     </row>
     <row r="130" spans="2:11">
-      <c r="B130" t="s">
-        <v>274</v>
+      <c r="B130" s="1" t="s">
+        <v>290</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="D130" t="s">
         <v>158</v>
       </c>
       <c r="E130" t="s">
+        <v>282</v>
+      </c>
+      <c r="G130" t="str">
+        <f t="shared" si="11"/>
+        <v>Benjamin Wallisch               \\</v>
+      </c>
+      <c r="I130">
+        <f t="shared" si="12"/>
+        <v>17</v>
+      </c>
+      <c r="J130">
+        <f t="shared" si="13"/>
+        <v>15</v>
+      </c>
+      <c r="K130" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">               </v>
+      </c>
+    </row>
+    <row r="131" spans="2:11">
+      <c r="B131" t="s">
+        <v>271</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D131" t="s">
+        <v>158</v>
+      </c>
+      <c r="E131" t="s">
+        <v>273</v>
+      </c>
+      <c r="G131" t="str">
+        <f t="shared" si="11"/>
+        <v>Scott Watson                    \\</v>
+      </c>
+      <c r="I131">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="J131">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="K131" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+    </row>
+    <row r="132" spans="2:11">
+      <c r="B132" t="s">
+        <v>274</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D132" t="s">
+        <v>158</v>
+      </c>
+      <c r="E132" t="s">
         <v>60</v>
       </c>
-      <c r="G130" t="str">
-        <f t="shared" si="4"/>
+      <c r="G132" t="str">
+        <f t="shared" si="11"/>
         <v>Edward J. Wollack               \\</v>
       </c>
-      <c r="I130">
-        <f t="shared" si="5"/>
+      <c r="I132">
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
-      <c r="J130">
-        <f t="shared" si="6"/>
+      <c r="J132">
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
-      <c r="K130" t="str">
-        <f t="shared" si="7"/>
+      <c r="K132" t="str">
+        <f t="shared" si="4"/>
         <v xml:space="preserve">               </v>
       </c>
     </row>
-    <row r="131" spans="2:11">
-      <c r="G131" t="str">
-        <f t="shared" si="4"/>
+    <row r="133" spans="2:11">
+      <c r="B133" s="3"/>
+      <c r="C133"/>
+      <c r="G133" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">                                \\</v>
       </c>
-      <c r="I131">
-        <f t="shared" si="5"/>
+      <c r="I133">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="J131">
-        <f t="shared" si="6"/>
+      <c r="J133">
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
-      <c r="K131" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="132" spans="2:11">
-      <c r="G132" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I132">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="J132">
-        <f t="shared" si="6"/>
-        <v>31</v>
-      </c>
-      <c r="K132" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="133" spans="2:11">
-      <c r="G133" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I133">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="J133">
-        <f t="shared" si="6"/>
-        <v>31</v>
-      </c>
       <c r="K133" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="134" spans="2:11">
       <c r="G134" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J134">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="K134" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="135" spans="2:11">
       <c r="G135" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J135">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="K135" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="136" spans="2:11">
       <c r="G136" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J136">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="K136" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="137" spans="2:11">
       <c r="G137" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I137">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J137">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="K137" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="138" spans="2:11">
-      <c r="B138" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C138" t="s">
-        <v>149</v>
-      </c>
-      <c r="D138" t="s">
-        <v>158</v>
-      </c>
       <c r="G138" t="str">
-        <f t="shared" ref="G138:G179" si="8">CONCATENATE(B138," ",C138,K138,"\\")</f>
-        <v>Martin White                    \\</v>
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I138">
-        <f t="shared" ref="I138:I179" si="9">LEN(B138) + LEN(C138) +1</f>
-        <v>12</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="J138">
-        <f t="shared" ref="J138:J179" si="10">IF(I138&lt;30,(32-I138),3)</f>
-        <v>20</v>
+        <f t="shared" si="10"/>
+        <v>31</v>
       </c>
       <c r="K138" t="str">
-        <f t="shared" ref="K138:K179" si="11">REPT(" ",J138)</f>
-        <v xml:space="preserve">                    </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="139" spans="2:11">
       <c r="B139" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C139" t="s">
+        <v>149</v>
+      </c>
+      <c r="D139" t="s">
+        <v>158</v>
+      </c>
+      <c r="G139" t="str">
+        <f t="shared" ref="G139:G180" si="14">CONCATENATE(B139," ",C139,K139,"\\")</f>
+        <v>Martin White                    \\</v>
+      </c>
+      <c r="I139">
+        <f t="shared" ref="I139:I180" si="15">LEN(B139) + LEN(C139) +1</f>
+        <v>12</v>
+      </c>
+      <c r="J139">
+        <f t="shared" ref="J139:J180" si="16">IF(I139&lt;30,(32-I139),3)</f>
+        <v>20</v>
+      </c>
+      <c r="K139" t="str">
+        <f t="shared" ref="K139:K180" si="17">REPT(" ",J139)</f>
+        <v xml:space="preserve">                    </v>
+      </c>
+    </row>
+    <row r="140" spans="2:11">
+      <c r="B140" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C140" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D139" t="s">
-        <v>8</v>
-      </c>
-      <c r="G139" t="str">
-        <f>CONCATENATE(B139," ",C139,K139,"\\")</f>
+      <c r="D140" t="s">
+        <v>8</v>
+      </c>
+      <c r="G140" t="str">
+        <f>CONCATENATE(B140," ",C140,K140,"\\")</f>
         <v>Kim Boddy                       \\</v>
       </c>
-      <c r="I139">
-        <f>LEN(B139) + LEN(C139) +1</f>
+      <c r="I140">
+        <f>LEN(B140) + LEN(C140) +1</f>
         <v>9</v>
       </c>
-      <c r="J139">
-        <f>IF(I139&lt;30,(32-I139),3)</f>
+      <c r="J140">
+        <f>IF(I140&lt;30,(32-I140),3)</f>
         <v>23</v>
       </c>
-      <c r="K139" t="str">
-        <f>REPT(" ",J139)</f>
+      <c r="K140" t="str">
+        <f>REPT(" ",J140)</f>
         <v xml:space="preserve">                       </v>
-      </c>
-    </row>
-    <row r="140" spans="2:11">
-      <c r="G140" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I140">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J140">
-        <f t="shared" si="10"/>
-        <v>31</v>
-      </c>
-      <c r="K140" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="141" spans="2:11">
       <c r="G141" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I141">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J141">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="K141" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="142" spans="2:11">
       <c r="G142" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I142">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J142">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="K142" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="143" spans="2:11">
       <c r="G143" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I143">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J143">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="K143" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="144" spans="2:11">
       <c r="G144" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I144">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J144">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="K144" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="145" spans="7:11">
       <c r="G145" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I145">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J145">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="K145" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="146" spans="7:11">
       <c r="G146" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I146">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J146">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="K146" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="147" spans="7:11">
       <c r="G147" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I147">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J147">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="K147" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="148" spans="7:11">
       <c r="G148" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I148">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J148">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="K148" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="149" spans="7:11">
       <c r="G149" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I149">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J149">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="K149" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="150" spans="7:11">
       <c r="G150" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I150">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J150">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="K150" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="151" spans="7:11">
       <c r="G151" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I151">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J151">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="K151" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="152" spans="7:11">
       <c r="G152" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I152">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J152">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="K152" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="153" spans="7:11">
       <c r="G153" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I153">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J153">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="K153" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="154" spans="7:11">
       <c r="G154" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I154">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J154">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="K154" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="155" spans="7:11">
       <c r="G155" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I155">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J155">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="K155" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="156" spans="7:11">
       <c r="G156" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I156">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J156">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="K156" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="157" spans="7:11">
       <c r="G157" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I157">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J157">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="K157" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="158" spans="7:11">
       <c r="G158" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I158">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J158">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="K158" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="159" spans="7:11">
       <c r="G159" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I159">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J159">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="K159" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="160" spans="7:11">
       <c r="G160" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I160">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J160">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="K160" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="161" spans="7:11">
       <c r="G161" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I161">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J161">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="K161" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="162" spans="7:11">
       <c r="G162" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I162">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J162">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="K162" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="163" spans="7:11">
       <c r="G163" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I163">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J163">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="K163" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="164" spans="7:11">
       <c r="G164" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I164">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J164">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="K164" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="165" spans="7:11">
       <c r="G165" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I165">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J165">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="K165" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="166" spans="7:11">
       <c r="G166" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I166">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J166">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="K166" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="167" spans="7:11">
       <c r="G167" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I167">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J167">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="K167" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="168" spans="7:11">
       <c r="G168" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I168">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J168">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="K168" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="169" spans="7:11">
       <c r="G169" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I169">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J169">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="K169" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="170" spans="7:11">
       <c r="G170" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I170">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J170">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="K170" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="171" spans="7:11">
       <c r="G171" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I171">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J171">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="K171" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="172" spans="7:11">
       <c r="G172" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I172">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J172">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="K172" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="173" spans="7:11">
       <c r="G173" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I173">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J173">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="K173" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="174" spans="7:11">
       <c r="G174" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I174">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J174">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="K174" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="175" spans="7:11">
       <c r="G175" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I175">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J175">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="K175" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="176" spans="7:11">
       <c r="G176" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I176">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J176">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="K176" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="177" spans="7:11">
       <c r="G177" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I177">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J177">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="K177" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="178" spans="7:11">
       <c r="G178" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I178">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J178">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="K178" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="179" spans="7:11">
       <c r="G179" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I179">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J179">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>31</v>
       </c>
       <c r="K179" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
+    <row r="180" spans="7:11">
+      <c r="G180" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">                                \\</v>
+      </c>
+      <c r="I180">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J180">
+        <f t="shared" si="16"/>
+        <v>31</v>
+      </c>
+      <c r="K180" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">                               </v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="B10:E77">
-    <sortCondition ref="C10:C77"/>
+  <sortState ref="B10:E76">
+    <sortCondition ref="C10:C76"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/ReferenceDocuments/ReportAuthors.xlsx
+++ b/ReferenceDocuments/ReportAuthors.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="321">
   <si>
     <t>Report Authors</t>
   </si>
@@ -856,6 +856,9 @@
     <t>Please update the relevant lines above if you add/remove/change names in this list.</t>
   </si>
   <si>
+    <t>12/5/2018, 1 pm.</t>
+  </si>
+  <si>
     <t>Yale University</t>
   </si>
   <si>
@@ -974,21 +977,6 @@
   </si>
   <si>
     <t>Shirokoff</t>
-  </si>
-  <si>
-    <t>CfA/Harvard</t>
-  </si>
-  <si>
-    <t>Racine</t>
-  </si>
-  <si>
-    <t>Caterina</t>
-  </si>
-  <si>
-    <t>Umilt\`{a}</t>
-  </si>
-  <si>
-    <t>12/10/2018, 3 pm.</t>
   </si>
 </sst>
 </file>
@@ -1419,10 +1407,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K180"/>
+  <dimension ref="A1:K179"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C3:C5"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1452,7 +1440,7 @@
       </c>
       <c r="B3"/>
       <c r="C3" s="1" t="s">
-        <v>324</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1461,7 +1449,7 @@
       </c>
       <c r="B4"/>
       <c r="C4" s="1" t="s">
-        <v>324</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1470,7 +1458,7 @@
       </c>
       <c r="B5"/>
       <c r="C5" s="1" t="s">
-        <v>324</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1502,16 +1490,16 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1555,15 +1543,15 @@
         <v>11</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" ref="G11:G74" si="0">CONCATENATE(B11," ",C11,K11,"\\")</f>
+        <f t="shared" ref="G11:G72" si="0">CONCATENATE(B11," ",C11,K11,"\\")</f>
         <v>Peter Ashton                    \\</v>
       </c>
       <c r="I11">
-        <f t="shared" ref="I11:I74" si="1">LEN(B11) + LEN(C11) +1</f>
+        <f t="shared" ref="I11:I72" si="1">LEN(B11) + LEN(C11) +1</f>
         <v>12</v>
       </c>
       <c r="J11">
-        <f t="shared" ref="J11:J74" si="2">IF(I11&lt;30,(32-I11),3)</f>
+        <f t="shared" ref="J11:J72" si="2">IF(I11&lt;30,(32-I11),3)</f>
         <v>20</v>
       </c>
       <c r="K11" t="str">
@@ -1969,146 +1957,149 @@
     </row>
     <row r="26" spans="2:11">
       <c r="B26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" t="s">
-        <v>47</v>
+        <v>313</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>312</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>Jacques Delabrouille            \\</v>
+        <v>Gianfranco De Zotti             \\</v>
       </c>
       <c r="I26">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J26">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">             </v>
       </c>
     </row>
     <row r="27" spans="2:11">
       <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>Jacques Delabrouille            \\</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">            </v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
         <v>51</v>
       </c>
-      <c r="G27" t="str">
+      <c r="G28" t="str">
         <f t="shared" si="0"/>
         <v>Eleonora Di Valentino           \\</v>
       </c>
-      <c r="I27">
+      <c r="I28">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="J27">
+      <c r="J28">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="K27" t="str">
+      <c r="K28" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">           </v>
       </c>
     </row>
-    <row r="28" spans="2:11">
-      <c r="B28" s="1" t="s">
+    <row r="29" spans="2:11">
+      <c r="B29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" t="str">
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" t="str">
         <f t="shared" si="0"/>
         <v>Joy Didier                      \\</v>
       </c>
-      <c r="I28">
+      <c r="I29">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="J28">
+      <c r="J29">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="K28" t="str">
+      <c r="K29" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                      </v>
       </c>
     </row>
-    <row r="29" spans="2:11">
-      <c r="B29" t="s">
+    <row r="30" spans="2:11">
+      <c r="B30" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="C30" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
         <v>55</v>
       </c>
-      <c r="G29" t="str">
+      <c r="G30" t="str">
         <f t="shared" si="0"/>
         <v>Olivier Dor\'e                  \\</v>
       </c>
-      <c r="I29">
+      <c r="I30">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="J29">
+      <c r="J30">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="K29" t="str">
+      <c r="K30" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                  </v>
-      </c>
-    </row>
-    <row r="30" spans="2:11">
-      <c r="B30" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C30" t="s">
-        <v>309</v>
-      </c>
-      <c r="D30" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" t="str">
-        <f t="shared" si="0"/>
-        <v>Alexander van Engelen           \\</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="K30" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">           </v>
       </c>
     </row>
     <row r="31" spans="2:11">
@@ -2197,16 +2188,16 @@
     </row>
     <row r="34" spans="2:11">
       <c r="B34" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C34" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
@@ -2602,7 +2593,7 @@
     </row>
     <row r="48" spans="2:11">
       <c r="B48" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>96</v>
@@ -2655,114 +2646,114 @@
       </c>
     </row>
     <row r="50" spans="2:11">
-      <c r="B50" t="s">
-        <v>296</v>
+      <c r="B50" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="C50" t="s">
-        <v>315</v>
+        <v>100</v>
       </c>
       <c r="D50" t="s">
         <v>8</v>
       </c>
-      <c r="E50" t="s">
-        <v>284</v>
-      </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
-        <v>Marcos L\'{o}pez-Caniego        \\</v>
+        <v>Charles Lawrence                \\</v>
       </c>
       <c r="I50">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J50">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K50" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">        </v>
+        <v xml:space="preserve">                </v>
       </c>
     </row>
     <row r="51" spans="2:11">
       <c r="B51" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C51" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D51" t="s">
         <v>8</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
-        <v>Charles Lawrence                \\</v>
+        <v>Alex Lazarian                   \\</v>
       </c>
       <c r="I51">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J51">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K51" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                </v>
+        <v xml:space="preserve">                   </v>
       </c>
     </row>
     <row r="52" spans="2:11">
       <c r="B52" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C52" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D52" t="s">
         <v>8</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
-        <v>Alex Lazarian                   \\</v>
+        <v>Zack Li                         \\</v>
       </c>
       <c r="I52">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J52">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K52" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">                         </v>
       </c>
     </row>
     <row r="53" spans="2:11">
-      <c r="B53" s="1" t="s">
-        <v>103</v>
+      <c r="B53" t="s">
+        <v>297</v>
       </c>
       <c r="C53" t="s">
-        <v>104</v>
+        <v>316</v>
       </c>
       <c r="D53" t="s">
         <v>8</v>
       </c>
+      <c r="E53" t="s">
+        <v>285</v>
+      </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
-        <v>Zack Li                         \\</v>
+        <v>Marcos L\'{o}pez-Caniego        \\</v>
       </c>
       <c r="I53">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="J53">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="K53" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                         </v>
+        <v xml:space="preserve">        </v>
       </c>
     </row>
     <row r="54" spans="2:11">
@@ -3108,144 +3099,144 @@
       </c>
     </row>
     <row r="66" spans="2:11">
-      <c r="B66" s="1" t="s">
-        <v>318</v>
+      <c r="B66" t="s">
+        <v>133</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>271</v>
+        <v>134</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
       </c>
+      <c r="E66" t="s">
+        <v>135</v>
+      </c>
       <c r="G66" t="str">
         <f t="shared" si="0"/>
-        <v>Douglas Scott                   \\</v>
+        <v>Ian Stephens                    \\</v>
       </c>
       <c r="I66">
         <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="K66" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+    </row>
+    <row r="67" spans="2:11">
+      <c r="B67" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" t="s">
+        <v>137</v>
+      </c>
+      <c r="D67" t="s">
+        <v>8</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="0"/>
+        <v>Brian Sutin                     \\</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="K67" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">                     </v>
+      </c>
+    </row>
+    <row r="68" spans="2:11">
+      <c r="B68" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D68" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" t="s">
+        <v>140</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="0"/>
+        <v>Maurizio Tomasi                 \\</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="K68" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">                 </v>
+      </c>
+    </row>
+    <row r="69" spans="2:11">
+      <c r="B69" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69" t="s">
+        <v>142</v>
+      </c>
+      <c r="D69" t="s">
+        <v>8</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="0"/>
+        <v>Amy Trangsrud                   \\</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="J66">
+      <c r="J69">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="K66" t="str">
+      <c r="K69" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                   </v>
-      </c>
-    </row>
-    <row r="67" spans="2:11">
-      <c r="B67" t="s">
-        <v>133</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D67" t="s">
-        <v>8</v>
-      </c>
-      <c r="E67" t="s">
-        <v>135</v>
-      </c>
-      <c r="G67" t="str">
-        <f t="shared" si="0"/>
-        <v>Ian Stephens                    \\</v>
-      </c>
-      <c r="I67">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="J67">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="K67" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">                    </v>
-      </c>
-    </row>
-    <row r="68" spans="2:11">
-      <c r="B68" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C68" t="s">
-        <v>137</v>
-      </c>
-      <c r="D68" t="s">
-        <v>8</v>
-      </c>
-      <c r="G68" t="str">
-        <f t="shared" si="0"/>
-        <v>Brian Sutin                     \\</v>
-      </c>
-      <c r="I68">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="J68">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="K68" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">                     </v>
-      </c>
-    </row>
-    <row r="69" spans="2:11">
-      <c r="B69" t="s">
-        <v>138</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D69" t="s">
-        <v>8</v>
-      </c>
-      <c r="E69" t="s">
-        <v>140</v>
-      </c>
-      <c r="G69" t="str">
-        <f t="shared" si="0"/>
-        <v>Maurizio Tomasi                 \\</v>
-      </c>
-      <c r="I69">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="J69">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="K69" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">                 </v>
       </c>
     </row>
     <row r="70" spans="2:11">
       <c r="B70" s="1" t="s">
-        <v>141</v>
+        <v>311</v>
       </c>
       <c r="C70" t="s">
-        <v>142</v>
+        <v>310</v>
       </c>
       <c r="D70" t="s">
         <v>8</v>
       </c>
       <c r="G70" t="str">
         <f t="shared" si="0"/>
-        <v>Amy Trangsrud                   \\</v>
+        <v>Alexander van Engelen           \\</v>
       </c>
       <c r="I70">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J70">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K70" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">           </v>
       </c>
     </row>
     <row r="71" spans="2:11">
@@ -3316,19 +3307,19 @@
         <v>8</v>
       </c>
       <c r="G73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G73:G137" si="4">CONCATENATE(B73," ",C73,K73,"\\")</f>
         <v>Siyao Xu                        \\</v>
       </c>
       <c r="I73">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I73:I137" si="5">LEN(B73) + LEN(C73) +1</f>
         <v>8</v>
       </c>
       <c r="J73">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J73:J137" si="6">IF(I73&lt;30,(32-I73),3)</f>
         <v>24</v>
       </c>
       <c r="K73" t="str">
-        <f t="shared" ref="K73:K138" si="4">REPT(" ",J73)</f>
+        <f t="shared" ref="K73:K137" si="7">REPT(" ",J73)</f>
         <v xml:space="preserve">                        </v>
       </c>
     </row>
@@ -3343,19 +3334,19 @@
         <v>8</v>
       </c>
       <c r="G74" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Karl Young                      \\</v>
       </c>
       <c r="I74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="K74" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">                      </v>
       </c>
     </row>
@@ -3370,1087 +3361,1107 @@
         <v>8</v>
       </c>
       <c r="G75" t="str">
-        <f t="shared" ref="G75:G76" si="5">CONCATENATE(B75," ",C75,K75,"\\")</f>
+        <f t="shared" si="4"/>
         <v>Andrea Zonca                    \\</v>
       </c>
       <c r="I75">
-        <f t="shared" ref="I75:I76" si="6">LEN(B75) + LEN(C75) +1</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="J75">
-        <f t="shared" ref="J75:J76" si="7">IF(I75&lt;30,(32-I75),3)</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="K75" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">                    </v>
       </c>
     </row>
     <row r="76" spans="2:11">
-      <c r="B76" t="s">
-        <v>312</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D76" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76" t="s">
-        <v>45</v>
-      </c>
+      <c r="B76" s="3"/>
+      <c r="C76"/>
       <c r="G76" t="str">
-        <f t="shared" si="5"/>
-        <v>Gianfranco De Zotti             \\</v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I76">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="K76" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                               </v>
+      </c>
+    </row>
+    <row r="77" spans="2:11">
+      <c r="B77" s="3"/>
+      <c r="C77"/>
+      <c r="G77" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                                \\</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="K77" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                               </v>
+      </c>
+    </row>
+    <row r="78" spans="2:11">
+      <c r="B78" t="s">
+        <v>156</v>
+      </c>
+      <c r="C78" t="s">
+        <v>157</v>
+      </c>
+      <c r="D78" t="s">
+        <v>158</v>
+      </c>
+      <c r="E78" t="s">
+        <v>159</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="4"/>
+        <v>Zeeshan Ahmed                   \\</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="J78">
         <f t="shared" si="6"/>
         <v>19</v>
       </c>
-      <c r="J76">
-        <f t="shared" si="7"/>
-        <v>13</v>
-      </c>
-      <c r="K76" t="str">
-        <f>REPT(" ",J76)</f>
-        <v xml:space="preserve">             </v>
-      </c>
-    </row>
-    <row r="78" spans="2:11">
-      <c r="B78" s="3"/>
-      <c r="C78"/>
-      <c r="G78" t="str">
-        <f t="shared" ref="G73:G138" si="8">CONCATENATE(B78," ",C78,K78,"\\")</f>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I78">
-        <f t="shared" ref="I73:I138" si="9">LEN(B78) + LEN(C78) +1</f>
-        <v>1</v>
-      </c>
-      <c r="J78">
-        <f t="shared" ref="J73:J138" si="10">IF(I78&lt;30,(32-I78),3)</f>
-        <v>31</v>
-      </c>
       <c r="K78" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                               </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                   </v>
       </c>
     </row>
     <row r="79" spans="2:11">
       <c r="B79" t="s">
-        <v>156</v>
-      </c>
-      <c r="C79" t="s">
-        <v>157</v>
+        <v>160</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="D79" t="s">
         <v>158</v>
       </c>
       <c r="E79" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G79" t="str">
-        <f t="shared" si="8"/>
-        <v>Zeeshan Ahmed                   \\</v>
+        <f t="shared" si="4"/>
+        <v>Jason Austermann                \\</v>
       </c>
       <c r="I79">
-        <f t="shared" si="9"/>
-        <v>13</v>
+        <f t="shared" si="5"/>
+        <v>16</v>
       </c>
       <c r="J79">
-        <f t="shared" si="10"/>
-        <v>19</v>
+        <f t="shared" si="6"/>
+        <v>16</v>
       </c>
       <c r="K79" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                   </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                </v>
       </c>
     </row>
     <row r="80" spans="2:11">
       <c r="B80" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D80" t="s">
         <v>158</v>
       </c>
       <c r="E80" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G80" t="str">
-        <f t="shared" ref="G80:G132" si="11">CONCATENATE(B80," ",C80,K80,"\\")</f>
-        <v>Jason Austermann                \\</v>
+        <f t="shared" si="4"/>
+        <v>Darcy Barron                    \\</v>
       </c>
       <c r="I80">
-        <f t="shared" ref="I80:I132" si="12">LEN(B80) + LEN(C80) +1</f>
-        <v>16</v>
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
       <c r="J80">
-        <f t="shared" ref="J80:J132" si="13">IF(I80&lt;30,(32-I80),3)</f>
-        <v>16</v>
+        <f t="shared" si="6"/>
+        <v>20</v>
       </c>
       <c r="K80" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                    </v>
       </c>
     </row>
     <row r="81" spans="2:11">
       <c r="B81" t="s">
-        <v>163</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
+      </c>
+      <c r="C81" t="s">
+        <v>167</v>
       </c>
       <c r="D81" t="s">
         <v>158</v>
       </c>
-      <c r="E81" t="s">
-        <v>165</v>
-      </c>
       <c r="G81" t="str">
-        <f t="shared" si="11"/>
-        <v>Darcy Barron                    \\</v>
+        <f t="shared" si="4"/>
+        <v>Karim Benabed                   \\</v>
       </c>
       <c r="I81">
-        <f t="shared" si="12"/>
-        <v>12</v>
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
       <c r="J81">
-        <f t="shared" si="13"/>
-        <v>20</v>
+        <f t="shared" si="6"/>
+        <v>19</v>
       </c>
       <c r="K81" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                    </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                   </v>
       </c>
     </row>
     <row r="82" spans="2:11">
       <c r="B82" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C82" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D82" t="s">
         <v>158</v>
       </c>
+      <c r="E82" t="s">
+        <v>170</v>
+      </c>
       <c r="G82" t="str">
-        <f t="shared" si="11"/>
-        <v>Karim Benabed                   \\</v>
+        <f t="shared" si="4"/>
+        <v>Federico Bianchini              \\</v>
       </c>
       <c r="I82">
-        <f t="shared" si="12"/>
-        <v>13</v>
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
       <c r="J82">
-        <f t="shared" si="13"/>
-        <v>19</v>
+        <f t="shared" si="6"/>
+        <v>14</v>
       </c>
       <c r="K82" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                   </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">              </v>
       </c>
     </row>
     <row r="83" spans="2:11">
-      <c r="B83" t="s">
-        <v>168</v>
-      </c>
-      <c r="C83" t="s">
-        <v>169</v>
+      <c r="B83" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="D83" t="s">
         <v>158</v>
       </c>
       <c r="E83" t="s">
-        <v>170</v>
+        <v>284</v>
       </c>
       <c r="G83" t="str">
-        <f t="shared" si="11"/>
-        <v>Federico Bianchini              \\</v>
+        <f t="shared" si="4"/>
+        <v>Colin Bischoff                  \\</v>
       </c>
       <c r="I83">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
-      <c r="J83">
-        <f t="shared" si="13"/>
-        <v>14</v>
-      </c>
       <c r="K83" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">              </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="84" spans="2:11">
-      <c r="B84" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>295</v>
+      <c r="B84" t="s">
+        <v>174</v>
+      </c>
+      <c r="C84" t="s">
+        <v>175</v>
       </c>
       <c r="D84" t="s">
         <v>158</v>
       </c>
       <c r="E84" t="s">
-        <v>283</v>
+        <v>176</v>
       </c>
       <c r="G84" t="str">
-        <f t="shared" si="11"/>
-        <v>Colin Bischoff                  \\</v>
+        <f t="shared" si="4"/>
+        <v>J. Richard Bond                 \\</v>
       </c>
       <c r="I84">
-        <f t="shared" si="12"/>
-        <v>14</v>
+        <f t="shared" si="5"/>
+        <v>15</v>
       </c>
       <c r="J84">
-        <f t="shared" si="13"/>
-        <v>18</v>
+        <f t="shared" si="6"/>
+        <v>17</v>
       </c>
       <c r="K84" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                  </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                 </v>
       </c>
     </row>
     <row r="85" spans="2:11">
-      <c r="B85" t="s">
-        <v>174</v>
-      </c>
-      <c r="C85" t="s">
-        <v>175</v>
+      <c r="B85" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>294</v>
       </c>
       <c r="D85" t="s">
         <v>158</v>
       </c>
       <c r="E85" t="s">
-        <v>176</v>
+        <v>282</v>
       </c>
       <c r="G85" t="str">
-        <f t="shared" si="11"/>
-        <v>J. Richard Bond                 \\</v>
+        <f t="shared" si="4"/>
+        <v>Robert Caldwell                 \\</v>
       </c>
       <c r="I85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="J85">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="K85" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">                 </v>
       </c>
     </row>
     <row r="86" spans="2:11">
-      <c r="B86" s="1" t="s">
-        <v>314</v>
+      <c r="B86" t="s">
+        <v>177</v>
       </c>
       <c r="C86" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="D86" t="s">
         <v>158</v>
       </c>
       <c r="E86" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="G86" t="str">
-        <f t="shared" si="11"/>
-        <v>Fran\c{c}ois Bouchet            \\</v>
+        <f t="shared" si="4"/>
+        <v>Xingang Chen                    \\</v>
       </c>
       <c r="I86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="J86">
-        <f t="shared" si="13"/>
-        <v>12</v>
-      </c>
       <c r="K86" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">            </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                    </v>
       </c>
     </row>
     <row r="87" spans="2:11">
-      <c r="B87" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>293</v>
+      <c r="B87" t="s">
+        <v>179</v>
+      </c>
+      <c r="C87" t="s">
+        <v>180</v>
       </c>
       <c r="D87" t="s">
         <v>158</v>
       </c>
       <c r="E87" t="s">
-        <v>281</v>
+        <v>181</v>
       </c>
       <c r="G87" t="str">
-        <f t="shared" si="11"/>
-        <v>Robert Caldwell                 \\</v>
+        <f t="shared" si="4"/>
+        <v>Jens Chluba                     \\</v>
       </c>
       <c r="I87">
-        <f t="shared" si="12"/>
-        <v>15</v>
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
       <c r="J87">
-        <f t="shared" si="13"/>
-        <v>17</v>
+        <f t="shared" si="6"/>
+        <v>21</v>
       </c>
       <c r="K87" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                 </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="88" spans="2:11">
       <c r="B88" t="s">
-        <v>177</v>
-      </c>
-      <c r="C88" t="s">
-        <v>178</v>
+        <v>182</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D88" t="s">
         <v>158</v>
       </c>
       <c r="E88" t="s">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="G88" t="str">
-        <f t="shared" si="11"/>
-        <v>Xingang Chen                    \\</v>
+        <f t="shared" si="4"/>
+        <v>Francis-Yan Cyr-Racine          \\</v>
       </c>
       <c r="I88">
-        <f t="shared" si="12"/>
-        <v>12</v>
+        <f t="shared" si="5"/>
+        <v>22</v>
       </c>
       <c r="J88">
-        <f t="shared" si="13"/>
-        <v>20</v>
+        <f t="shared" si="6"/>
+        <v>10</v>
       </c>
       <c r="K88" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                    </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">          </v>
       </c>
     </row>
     <row r="89" spans="2:11">
       <c r="B89" t="s">
-        <v>179</v>
-      </c>
-      <c r="C89" t="s">
-        <v>180</v>
+        <v>185</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="D89" t="s">
         <v>158</v>
       </c>
       <c r="E89" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G89" t="str">
-        <f t="shared" si="11"/>
-        <v>Jens Chluba                     \\</v>
+        <f t="shared" si="4"/>
+        <v>Tijmen de Haan                  \\</v>
       </c>
       <c r="I89">
-        <f t="shared" si="12"/>
-        <v>11</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
       <c r="J89">
-        <f t="shared" si="13"/>
-        <v>21</v>
+        <f t="shared" si="6"/>
+        <v>18</v>
       </c>
       <c r="K89" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                     </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="90" spans="2:11">
       <c r="B90" t="s">
-        <v>182</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
+      </c>
+      <c r="C90" t="s">
+        <v>320</v>
       </c>
       <c r="D90" t="s">
         <v>158</v>
       </c>
       <c r="E90" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G90" t="str">
-        <f t="shared" si="11"/>
-        <v>Francis-Yan Cyr-Racine          \\</v>
+        <f>CONCATENATE(C90," ",B90,K90,"\\")</f>
+        <v>Shirokoff Erik                  \\</v>
       </c>
       <c r="I90">
-        <f t="shared" si="12"/>
-        <v>22</v>
+        <f>LEN(C90) + LEN(B90) +1</f>
+        <v>14</v>
       </c>
       <c r="J90">
-        <f t="shared" si="13"/>
-        <v>10</v>
+        <f t="shared" si="6"/>
+        <v>18</v>
       </c>
       <c r="K90" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">          </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="91" spans="2:11">
       <c r="B91" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D91" t="s">
         <v>158</v>
       </c>
       <c r="E91" t="s">
-        <v>187</v>
+        <v>93</v>
       </c>
       <c r="G91" t="str">
-        <f t="shared" si="11"/>
-        <v>Tijmen de Haan                  \\</v>
+        <f t="shared" si="4"/>
+        <v>Aurelien Fraisse                \\</v>
       </c>
       <c r="I91">
-        <f t="shared" si="12"/>
-        <v>14</v>
+        <f t="shared" si="5"/>
+        <v>16</v>
       </c>
       <c r="J91">
-        <f t="shared" si="13"/>
-        <v>18</v>
+        <f t="shared" si="6"/>
+        <v>16</v>
       </c>
       <c r="K91" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                  </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                </v>
       </c>
     </row>
     <row r="92" spans="2:11">
-      <c r="B92" t="s">
-        <v>190</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>191</v>
+      <c r="B92" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C92" t="s">
+        <v>192</v>
       </c>
       <c r="D92" t="s">
         <v>158</v>
       </c>
       <c r="E92" t="s">
-        <v>93</v>
+        <v>194</v>
       </c>
       <c r="G92" t="str">
-        <f t="shared" si="11"/>
-        <v>Aurelien Fraisse                \\</v>
+        <f>CONCATENATE(C92," ",B92,K92,"\\")</f>
+        <v>Piacentini Francesco            \\</v>
       </c>
       <c r="I92">
-        <f t="shared" si="12"/>
-        <v>16</v>
+        <f>LEN(C92) + LEN(B92) +1</f>
+        <v>20</v>
       </c>
       <c r="J92">
-        <f t="shared" si="13"/>
-        <v>16</v>
+        <f t="shared" si="6"/>
+        <v>12</v>
       </c>
       <c r="K92" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">            </v>
       </c>
     </row>
     <row r="93" spans="2:11">
-      <c r="B93" t="s">
-        <v>196</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>197</v>
+      <c r="B93" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C93" t="s">
+        <v>195</v>
       </c>
       <c r="D93" t="s">
         <v>158</v>
       </c>
       <c r="E93" t="s">
-        <v>198</v>
+        <v>84</v>
       </c>
       <c r="G93" t="str">
-        <f t="shared" si="11"/>
-        <v>Silvia Galli                    \\</v>
+        <f>CONCATENATE(C93," ",B93,K93,"\\")</f>
+        <v>Bouchet Fran\c{c}ois            \\</v>
       </c>
       <c r="I93">
-        <f t="shared" si="12"/>
+        <f>LEN(C93) + LEN(B93) +1</f>
+        <v>20</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="J93">
-        <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
       <c r="K93" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                    </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">            </v>
       </c>
     </row>
     <row r="94" spans="2:11">
       <c r="B94" t="s">
-        <v>199</v>
-      </c>
-      <c r="C94" t="s">
-        <v>200</v>
+        <v>196</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="D94" t="s">
         <v>158</v>
       </c>
       <c r="E94" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G94" t="str">
-        <f t="shared" si="11"/>
-        <v>Ken Ganga                       \\</v>
+        <f t="shared" si="4"/>
+        <v>Silvia Galli                    \\</v>
       </c>
       <c r="I94">
-        <f t="shared" si="12"/>
-        <v>9</v>
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
       <c r="J94">
-        <f t="shared" si="13"/>
-        <v>23</v>
+        <f t="shared" si="6"/>
+        <v>20</v>
       </c>
       <c r="K94" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                       </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                    </v>
       </c>
     </row>
     <row r="95" spans="2:11">
       <c r="B95" t="s">
-        <v>202</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
+      </c>
+      <c r="C95" t="s">
+        <v>200</v>
       </c>
       <c r="D95" t="s">
         <v>158</v>
       </c>
       <c r="E95" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G95" t="str">
-        <f t="shared" si="11"/>
-        <v>Tuhin Ghosh                     \\</v>
+        <f t="shared" si="4"/>
+        <v>Ken Ganga                       \\</v>
       </c>
       <c r="I95">
-        <f t="shared" si="12"/>
-        <v>11</v>
+        <f t="shared" si="5"/>
+        <v>9</v>
       </c>
       <c r="J95">
-        <f t="shared" si="13"/>
-        <v>21</v>
+        <f t="shared" si="6"/>
+        <v>23</v>
       </c>
       <c r="K95" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                     </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                       </v>
       </c>
     </row>
     <row r="96" spans="2:11">
       <c r="B96" t="s">
-        <v>205</v>
-      </c>
-      <c r="C96" t="s">
-        <v>206</v>
+        <v>202</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="D96" t="s">
         <v>158</v>
       </c>
       <c r="E96" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G96" t="str">
-        <f t="shared" si="11"/>
-        <v>Jon E. Gudmundsson              \\</v>
+        <f t="shared" si="4"/>
+        <v>Tuhin Ghosh                     \\</v>
       </c>
       <c r="I96">
-        <f t="shared" si="12"/>
-        <v>18</v>
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
       <c r="J96">
-        <f t="shared" si="13"/>
-        <v>14</v>
+        <f t="shared" si="6"/>
+        <v>21</v>
       </c>
       <c r="K96" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">              </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="97" spans="2:11">
       <c r="B97" t="s">
-        <v>208</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
+      </c>
+      <c r="C97" t="s">
+        <v>206</v>
       </c>
       <c r="D97" t="s">
         <v>158</v>
       </c>
       <c r="E97" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G97" t="str">
-        <f t="shared" si="11"/>
-        <v>Marc Kamionkowski               \\</v>
+        <f t="shared" si="4"/>
+        <v>Jon E. Gudmundsson              \\</v>
       </c>
       <c r="I97">
-        <f t="shared" si="12"/>
-        <v>17</v>
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
       <c r="J97">
-        <f t="shared" si="13"/>
-        <v>15</v>
+        <f t="shared" si="6"/>
+        <v>14</v>
       </c>
       <c r="K97" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">               </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">              </v>
       </c>
     </row>
     <row r="98" spans="2:11">
       <c r="B98" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D98" t="s">
         <v>158</v>
       </c>
       <c r="E98" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G98" t="str">
-        <f t="shared" si="11"/>
-        <v>Reijo Keskitalo                 \\</v>
+        <f t="shared" si="4"/>
+        <v>Marc Kamionkowski               \\</v>
       </c>
       <c r="I98">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="J98">
-        <f t="shared" si="13"/>
-        <v>17</v>
-      </c>
       <c r="K98" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                 </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">               </v>
       </c>
     </row>
     <row r="99" spans="2:11">
       <c r="B99" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D99" t="s">
         <v>158</v>
       </c>
       <c r="E99" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G99" t="str">
-        <f t="shared" si="11"/>
-        <v>Rishi Khatri                    \\</v>
+        <f t="shared" si="4"/>
+        <v>Reijo Keskitalo                 \\</v>
       </c>
       <c r="I99">
-        <f t="shared" si="12"/>
-        <v>12</v>
+        <f t="shared" si="5"/>
+        <v>15</v>
       </c>
       <c r="J99">
-        <f t="shared" si="13"/>
-        <v>20</v>
+        <f t="shared" si="6"/>
+        <v>17</v>
       </c>
       <c r="K99" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                    </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                 </v>
       </c>
     </row>
     <row r="100" spans="2:11">
       <c r="B100" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D100" t="s">
         <v>158</v>
       </c>
       <c r="E100" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="G100" t="str">
-        <f t="shared" si="11"/>
-        <v>Ely Kovetz                      \\</v>
+        <f t="shared" si="4"/>
+        <v>Rishi Khatri                    \\</v>
       </c>
       <c r="I100">
-        <f t="shared" si="12"/>
-        <v>10</v>
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
       <c r="J100">
-        <f t="shared" si="13"/>
-        <v>22</v>
+        <f t="shared" si="6"/>
+        <v>20</v>
       </c>
       <c r="K100" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                      </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                    </v>
       </c>
     </row>
     <row r="101" spans="2:11">
       <c r="B101" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D101" t="s">
         <v>158</v>
       </c>
       <c r="E101" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="G101" t="str">
-        <f t="shared" si="11"/>
-        <v>Daniel Lenz                     \\</v>
+        <f t="shared" si="4"/>
+        <v>Ely Kovetz                      \\</v>
       </c>
       <c r="I101">
-        <f t="shared" si="12"/>
-        <v>11</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="J101">
-        <f t="shared" si="13"/>
-        <v>21</v>
+        <f t="shared" si="6"/>
+        <v>22</v>
       </c>
       <c r="K101" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                     </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                      </v>
       </c>
     </row>
     <row r="102" spans="2:11">
       <c r="B102" t="s">
-        <v>222</v>
-      </c>
-      <c r="C102" t="s">
-        <v>223</v>
+        <v>219</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="D102" t="s">
         <v>158</v>
       </c>
       <c r="E102" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G102" t="str">
-        <f t="shared" si="11"/>
-        <v>Marilena Loverde                \\</v>
+        <f t="shared" si="4"/>
+        <v>Daniel Lenz                     \\</v>
       </c>
       <c r="I102">
-        <f t="shared" si="12"/>
-        <v>16</v>
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
       <c r="J102">
-        <f t="shared" si="13"/>
-        <v>16</v>
+        <f t="shared" si="6"/>
+        <v>21</v>
       </c>
       <c r="K102" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="103" spans="2:11">
       <c r="B103" t="s">
-        <v>225</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
+      </c>
+      <c r="C103" t="s">
+        <v>223</v>
       </c>
       <c r="D103" t="s">
         <v>158</v>
       </c>
       <c r="E103" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G103" t="str">
-        <f t="shared" si="11"/>
-        <v>Carlos Martins                  \\</v>
+        <f t="shared" si="4"/>
+        <v>Marilena Loverde                \\</v>
       </c>
       <c r="I103">
-        <f t="shared" si="12"/>
-        <v>14</v>
+        <f t="shared" si="5"/>
+        <v>16</v>
       </c>
       <c r="J103">
-        <f t="shared" si="13"/>
-        <v>18</v>
+        <f t="shared" si="6"/>
+        <v>16</v>
       </c>
       <c r="K103" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                  </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                </v>
       </c>
     </row>
     <row r="104" spans="2:11">
       <c r="B104" t="s">
-        <v>196</v>
-      </c>
-      <c r="C104" t="s">
-        <v>228</v>
+        <v>225</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="D104" t="s">
         <v>158</v>
       </c>
       <c r="E104" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G104" t="str">
-        <f t="shared" si="11"/>
-        <v>Silvia Masi                     \\</v>
+        <f t="shared" si="4"/>
+        <v>Carlos Martins                  \\</v>
       </c>
       <c r="I104">
-        <f t="shared" si="12"/>
-        <v>11</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
       <c r="J104">
-        <f t="shared" si="13"/>
-        <v>21</v>
+        <f t="shared" si="6"/>
+        <v>18</v>
       </c>
       <c r="K104" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                     </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="105" spans="2:11">
-      <c r="B105" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>298</v>
+      <c r="B105" t="s">
+        <v>196</v>
+      </c>
+      <c r="C105" t="s">
+        <v>228</v>
       </c>
       <c r="D105" t="s">
         <v>158</v>
       </c>
       <c r="E105" t="s">
-        <v>285</v>
+        <v>229</v>
       </c>
       <c r="G105" t="str">
-        <f t="shared" si="11"/>
-        <v>Joel Meyers                     \\</v>
+        <f t="shared" si="4"/>
+        <v>Silvia Masi                     \\</v>
       </c>
       <c r="I105">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="J105">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="K105" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="106" spans="2:11">
-      <c r="B106" t="s">
-        <v>230</v>
+      <c r="B106" s="1" t="s">
+        <v>298</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>231</v>
+        <v>299</v>
       </c>
       <c r="D106" t="s">
         <v>158</v>
       </c>
       <c r="E106" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="G106" t="str">
-        <f t="shared" si="11"/>
-        <v>Lorenzo Moncelsi                \\</v>
+        <f t="shared" si="4"/>
+        <v>Joel Meyers                     \\</v>
       </c>
       <c r="I106">
-        <f t="shared" si="12"/>
-        <v>16</v>
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
       <c r="J106">
-        <f t="shared" si="13"/>
-        <v>16</v>
+        <f t="shared" si="6"/>
+        <v>21</v>
       </c>
       <c r="K106" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="107" spans="2:11">
       <c r="B107" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D107" t="s">
         <v>158</v>
       </c>
       <c r="E107" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G107" t="str">
-        <f t="shared" si="11"/>
-        <v>Pavel Motloch                   \\</v>
+        <f t="shared" si="4"/>
+        <v>Lorenzo Moncelsi                \\</v>
       </c>
       <c r="I107">
-        <f t="shared" si="12"/>
-        <v>13</v>
+        <f t="shared" si="5"/>
+        <v>16</v>
       </c>
       <c r="J107">
-        <f t="shared" si="13"/>
-        <v>19</v>
+        <f t="shared" si="6"/>
+        <v>16</v>
       </c>
       <c r="K107" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                   </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                </v>
       </c>
     </row>
     <row r="108" spans="2:11">
       <c r="B108" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D108" t="s">
         <v>158</v>
       </c>
       <c r="E108" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G108" t="str">
-        <f t="shared" si="11"/>
-        <v>Tony Mroczkowski                \\</v>
+        <f t="shared" si="4"/>
+        <v>Pavel Motloch                   \\</v>
       </c>
       <c r="I108">
-        <f t="shared" si="12"/>
-        <v>16</v>
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
       <c r="J108">
-        <f t="shared" si="13"/>
-        <v>16</v>
+        <f t="shared" si="6"/>
+        <v>19</v>
       </c>
       <c r="K108" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                   </v>
       </c>
     </row>
     <row r="109" spans="2:11">
       <c r="B109" t="s">
-        <v>233</v>
-      </c>
-      <c r="C109" t="s">
-        <v>239</v>
+        <v>236</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="D109" t="s">
         <v>158</v>
       </c>
       <c r="E109" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G109" t="str">
-        <f t="shared" si="11"/>
-        <v>Pavel Naselsky                  \\</v>
+        <f t="shared" si="4"/>
+        <v>Tony Mroczkowski                \\</v>
       </c>
       <c r="I109">
-        <f t="shared" si="12"/>
-        <v>14</v>
+        <f t="shared" si="5"/>
+        <v>16</v>
       </c>
       <c r="J109">
-        <f t="shared" si="13"/>
-        <v>18</v>
+        <f t="shared" si="6"/>
+        <v>16</v>
       </c>
       <c r="K109" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                  </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                </v>
       </c>
     </row>
     <row r="110" spans="2:11">
       <c r="B110" t="s">
-        <v>168</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
+      </c>
+      <c r="C110" t="s">
+        <v>239</v>
       </c>
       <c r="D110" t="s">
         <v>158</v>
       </c>
       <c r="E110" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G110" t="str">
-        <f t="shared" si="11"/>
-        <v>Federico Nati                   \\</v>
+        <f t="shared" si="4"/>
+        <v>Pavel Naselsky                  \\</v>
       </c>
       <c r="I110">
-        <f t="shared" si="12"/>
-        <v>13</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
       <c r="J110">
-        <f t="shared" si="13"/>
-        <v>19</v>
+        <f t="shared" si="6"/>
+        <v>18</v>
       </c>
       <c r="K110" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                   </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="111" spans="2:11">
       <c r="B111" t="s">
-        <v>243</v>
-      </c>
-      <c r="C111" t="s">
-        <v>244</v>
+        <v>168</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="D111" t="s">
         <v>158</v>
       </c>
       <c r="E111" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G111" t="str">
-        <f t="shared" si="11"/>
-        <v>Elena Orlando                   \\</v>
+        <f t="shared" si="4"/>
+        <v>Federico Nati                   \\</v>
       </c>
       <c r="I111">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="J111">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="K111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">                   </v>
       </c>
     </row>
     <row r="112" spans="2:11">
-      <c r="B112" s="1" t="s">
-        <v>193</v>
+      <c r="B112" t="s">
+        <v>243</v>
       </c>
       <c r="C112" t="s">
-        <v>192</v>
+        <v>244</v>
       </c>
       <c r="D112" t="s">
         <v>158</v>
       </c>
       <c r="E112" t="s">
-        <v>194</v>
+        <v>245</v>
       </c>
       <c r="G112" t="str">
-        <f t="shared" si="11"/>
-        <v>Francesco Piacentini            \\</v>
+        <f t="shared" si="4"/>
+        <v>Elena Orlando                   \\</v>
       </c>
       <c r="I112">
-        <f t="shared" si="12"/>
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
       <c r="J112">
-        <f t="shared" si="13"/>
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>19</v>
       </c>
       <c r="K112" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">            </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                   </v>
       </c>
     </row>
     <row r="113" spans="2:11">
@@ -4467,178 +4478,175 @@
         <v>248</v>
       </c>
       <c r="G113" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>Giuseppe Puglisi                \\</v>
       </c>
       <c r="I113">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="J113">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="K113" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">                </v>
       </c>
     </row>
     <row r="114" spans="2:11">
-      <c r="B114" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>321</v>
+      <c r="B114" t="s">
+        <v>249</v>
+      </c>
+      <c r="C114" t="s">
+        <v>250</v>
       </c>
       <c r="D114" t="s">
         <v>158</v>
       </c>
       <c r="E114" t="s">
-        <v>320</v>
+        <v>170</v>
       </c>
       <c r="G114" t="str">
-        <f t="shared" si="11"/>
-        <v>Benjamin Racine                 \\</v>
+        <f t="shared" si="4"/>
+        <v>Christian Reichardt             \\</v>
       </c>
       <c r="I114">
-        <f t="shared" si="12"/>
-        <v>15</v>
+        <f t="shared" si="5"/>
+        <v>19</v>
       </c>
       <c r="J114">
-        <f t="shared" si="13"/>
-        <v>17</v>
+        <f t="shared" si="6"/>
+        <v>13</v>
       </c>
       <c r="K114" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                 </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">             </v>
       </c>
     </row>
     <row r="115" spans="2:11">
       <c r="B115" t="s">
-        <v>249</v>
-      </c>
-      <c r="C115" t="s">
-        <v>250</v>
+        <v>251</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="D115" t="s">
         <v>158</v>
       </c>
       <c r="E115" t="s">
-        <v>170</v>
+        <v>253</v>
       </c>
       <c r="G115" t="str">
-        <f t="shared" si="11"/>
-        <v>Christian Reichardt             \\</v>
+        <f t="shared" si="4"/>
+        <v>Anirban Roy                     \\</v>
       </c>
       <c r="I115">
-        <f t="shared" si="12"/>
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
       <c r="J115">
-        <f t="shared" si="13"/>
-        <v>13</v>
+        <f t="shared" si="6"/>
+        <v>21</v>
       </c>
       <c r="K115" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">             </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="116" spans="2:11">
       <c r="B116" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D116" t="s">
         <v>158</v>
       </c>
       <c r="E116" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="G116" t="str">
-        <f t="shared" si="11"/>
-        <v>Anirban Roy                     \\</v>
+        <f t="shared" si="4"/>
+        <v>Maria Salatino                  \\</v>
       </c>
       <c r="I116">
-        <f t="shared" si="12"/>
-        <v>11</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
       <c r="J116">
-        <f t="shared" si="13"/>
-        <v>21</v>
+        <f t="shared" si="6"/>
+        <v>18</v>
       </c>
       <c r="K116" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                     </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="117" spans="2:11">
-      <c r="B117" t="s">
-        <v>254</v>
+      <c r="B117" s="1" t="s">
+        <v>291</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="D117" t="s">
         <v>158</v>
       </c>
       <c r="E117" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="G117" t="str">
-        <f t="shared" si="11"/>
-        <v>Maria Salatino                  \\</v>
+        <f t="shared" si="4"/>
+        <v>Benjamin Saliwanchik            \\</v>
       </c>
       <c r="I117">
-        <f t="shared" si="12"/>
-        <v>14</v>
+        <f t="shared" si="5"/>
+        <v>20</v>
       </c>
       <c r="J117">
-        <f t="shared" si="13"/>
-        <v>18</v>
+        <f t="shared" si="6"/>
+        <v>12</v>
       </c>
       <c r="K117" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                  </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">            </v>
       </c>
     </row>
     <row r="118" spans="2:11">
       <c r="B118" s="1" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="D118" t="s">
         <v>158</v>
       </c>
-      <c r="E118" t="s">
-        <v>280</v>
-      </c>
       <c r="G118" t="str">
-        <f t="shared" si="11"/>
-        <v>Benjamin Saliwanchik            \\</v>
+        <f t="shared" si="4"/>
+        <v>Douglas Scott                   \\</v>
       </c>
       <c r="I118">
-        <f t="shared" si="12"/>
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
       <c r="J118">
-        <f t="shared" si="13"/>
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>19</v>
       </c>
       <c r="K118" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">            </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                   </v>
       </c>
     </row>
     <row r="119" spans="2:11">
       <c r="B119" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D119" t="s">
         <v>158</v>
@@ -4647,19 +4655,19 @@
         <v>224</v>
       </c>
       <c r="G119" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>Neelima Sehgal                  \\</v>
       </c>
       <c r="I119">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="J119">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="K119" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">                  </v>
       </c>
     </row>
@@ -4677,1269 +4685,1225 @@
         <v>259</v>
       </c>
       <c r="G120" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="4"/>
         <v>Sarah Shandera                  \\</v>
       </c>
       <c r="I120">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="J120">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="K120" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="121" spans="2:11">
       <c r="B121" t="s">
-        <v>188</v>
-      </c>
-      <c r="C121" t="s">
-        <v>319</v>
+        <v>260</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="D121" t="s">
         <v>158</v>
       </c>
       <c r="E121" t="s">
-        <v>189</v>
+        <v>262</v>
       </c>
       <c r="G121" t="str">
-        <f t="shared" si="11"/>
-        <v>Erik Shirokoff                  \\</v>
+        <f t="shared" si="4"/>
+        <v>An\v{z}e Slosar                 \\</v>
       </c>
       <c r="I121">
-        <f t="shared" si="12"/>
-        <v>14</v>
+        <f t="shared" si="5"/>
+        <v>15</v>
       </c>
       <c r="J121">
-        <f t="shared" si="13"/>
-        <v>18</v>
+        <f t="shared" si="6"/>
+        <v>17</v>
       </c>
       <c r="K121" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                  </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                 </v>
       </c>
     </row>
     <row r="122" spans="2:11">
       <c r="B122" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D122" t="s">
         <v>158</v>
       </c>
       <c r="E122" t="s">
-        <v>262</v>
+        <v>187</v>
       </c>
       <c r="G122" t="str">
-        <f t="shared" si="11"/>
-        <v>An\v{z}e Slosar                 \\</v>
+        <f t="shared" si="4"/>
+        <v>Aritoki Suzuki                  \\</v>
       </c>
       <c r="I122">
-        <f t="shared" si="12"/>
-        <v>15</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
       <c r="J122">
-        <f t="shared" si="13"/>
-        <v>17</v>
+        <f t="shared" si="6"/>
+        <v>18</v>
       </c>
       <c r="K122" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                 </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="123" spans="2:11">
-      <c r="B123" t="s">
-        <v>263</v>
+      <c r="B123" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="D123" t="s">
         <v>158</v>
       </c>
       <c r="E123" t="s">
-        <v>187</v>
+        <v>287</v>
       </c>
       <c r="G123" t="str">
-        <f t="shared" si="11"/>
-        <v>Aritoki Suzuki                  \\</v>
+        <f t="shared" si="4"/>
+        <v>Eric Switzer                    \\</v>
       </c>
       <c r="I123">
-        <f t="shared" si="12"/>
-        <v>14</v>
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
       <c r="J123">
-        <f t="shared" si="13"/>
-        <v>18</v>
+        <f t="shared" si="6"/>
+        <v>20</v>
       </c>
       <c r="K123" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                  </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                    </v>
       </c>
     </row>
     <row r="124" spans="2:11">
       <c r="B124" s="1" t="s">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D124" t="s">
         <v>158</v>
       </c>
       <c r="E124" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G124" t="str">
-        <f t="shared" si="11"/>
-        <v>Eric Switzer                    \\</v>
+        <f t="shared" si="4"/>
+        <v>Andrea Tartari                  \\</v>
       </c>
       <c r="I124">
-        <f t="shared" si="12"/>
-        <v>12</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
       <c r="J124">
-        <f t="shared" si="13"/>
-        <v>20</v>
+        <f t="shared" si="6"/>
+        <v>18</v>
       </c>
       <c r="K124" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                    </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="125" spans="2:11">
-      <c r="B125" s="1" t="s">
-        <v>154</v>
+      <c r="B125" t="s">
+        <v>265</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>300</v>
+        <v>266</v>
       </c>
       <c r="D125" t="s">
         <v>158</v>
       </c>
       <c r="E125" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="G125" t="str">
-        <f t="shared" si="11"/>
-        <v>Andrea Tartari                  \\</v>
+        <f t="shared" si="4"/>
+        <v>Grant Teply                     \\</v>
       </c>
       <c r="I125">
-        <f t="shared" si="12"/>
-        <v>14</v>
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
       <c r="J125">
-        <f t="shared" si="13"/>
-        <v>18</v>
+        <f t="shared" si="6"/>
+        <v>21</v>
       </c>
       <c r="K125" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                  </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="126" spans="2:11">
-      <c r="B126" t="s">
-        <v>265</v>
+      <c r="B126" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>266</v>
+        <v>304</v>
       </c>
       <c r="D126" t="s">
         <v>158</v>
       </c>
       <c r="E126" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="G126" t="str">
-        <f t="shared" si="11"/>
-        <v>Grant Teply                     \\</v>
+        <f t="shared" si="4"/>
+        <v>Peter Timbie                    \\</v>
       </c>
       <c r="I126">
-        <f t="shared" si="12"/>
-        <v>11</v>
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
       <c r="J126">
-        <f t="shared" si="13"/>
-        <v>21</v>
+        <f t="shared" si="6"/>
+        <v>20</v>
       </c>
       <c r="K126" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                     </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                    </v>
       </c>
     </row>
     <row r="127" spans="2:11">
-      <c r="B127" s="1" t="s">
-        <v>9</v>
+      <c r="B127" t="s">
+        <v>268</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="D127" t="s">
         <v>158</v>
       </c>
       <c r="E127" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="G127" t="str">
-        <f t="shared" si="11"/>
-        <v>Peter Timbie                    \\</v>
+        <f t="shared" si="4"/>
+        <v>Matthieu Tristram               \\</v>
       </c>
       <c r="I127">
-        <f t="shared" si="12"/>
-        <v>12</v>
+        <f t="shared" si="5"/>
+        <v>17</v>
       </c>
       <c r="J127">
-        <f t="shared" si="13"/>
-        <v>20</v>
+        <f t="shared" si="6"/>
+        <v>15</v>
       </c>
       <c r="K127" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                    </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">               </v>
       </c>
     </row>
     <row r="128" spans="2:11">
-      <c r="B128" t="s">
-        <v>268</v>
+      <c r="B128" s="1" t="s">
+        <v>291</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="D128" t="s">
         <v>158</v>
       </c>
       <c r="E128" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="G128" t="str">
-        <f t="shared" si="11"/>
-        <v>Matthieu Tristram               \\</v>
+        <f t="shared" si="4"/>
+        <v>Benjamin Wallisch               \\</v>
       </c>
       <c r="I128">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="J128">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="K128" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">               </v>
       </c>
     </row>
     <row r="129" spans="2:11">
-      <c r="B129" s="1" t="s">
-        <v>322</v>
+      <c r="B129" t="s">
+        <v>271</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>323</v>
+        <v>272</v>
       </c>
       <c r="D129" t="s">
         <v>158</v>
       </c>
       <c r="E129" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="G129" t="str">
-        <f t="shared" si="11"/>
-        <v>Caterina Umilt\`{a}             \\</v>
+        <f t="shared" si="4"/>
+        <v>Scott Watson                    \\</v>
       </c>
       <c r="I129">
-        <f t="shared" si="12"/>
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
       <c r="J129">
-        <f t="shared" si="13"/>
-        <v>13</v>
+        <f t="shared" si="6"/>
+        <v>20</v>
       </c>
       <c r="K129" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">             </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                    </v>
       </c>
     </row>
     <row r="130" spans="2:11">
-      <c r="B130" s="1" t="s">
-        <v>290</v>
+      <c r="B130" t="s">
+        <v>274</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="D130" t="s">
         <v>158</v>
       </c>
       <c r="E130" t="s">
-        <v>282</v>
+        <v>60</v>
       </c>
       <c r="G130" t="str">
-        <f t="shared" si="11"/>
-        <v>Benjamin Wallisch               \\</v>
+        <f t="shared" si="4"/>
+        <v>Edward J. Wollack               \\</v>
       </c>
       <c r="I130">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="J130">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="K130" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">               </v>
       </c>
     </row>
     <row r="131" spans="2:11">
-      <c r="B131" t="s">
-        <v>271</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D131" t="s">
+      <c r="G131" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                                \\</v>
+      </c>
+      <c r="I131">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="K131" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                               </v>
+      </c>
+    </row>
+    <row r="132" spans="2:11">
+      <c r="G132" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                                \\</v>
+      </c>
+      <c r="I132">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="K132" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                               </v>
+      </c>
+    </row>
+    <row r="133" spans="2:11">
+      <c r="G133" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                                \\</v>
+      </c>
+      <c r="I133">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J133">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="K133" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                               </v>
+      </c>
+    </row>
+    <row r="134" spans="2:11">
+      <c r="G134" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                                \\</v>
+      </c>
+      <c r="I134">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="K134" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                               </v>
+      </c>
+    </row>
+    <row r="135" spans="2:11">
+      <c r="G135" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                                \\</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="K135" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                               </v>
+      </c>
+    </row>
+    <row r="136" spans="2:11">
+      <c r="G136" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                                \\</v>
+      </c>
+      <c r="I136">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="K136" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                               </v>
+      </c>
+    </row>
+    <row r="137" spans="2:11">
+      <c r="G137" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                                \\</v>
+      </c>
+      <c r="I137">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="K137" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                               </v>
+      </c>
+    </row>
+    <row r="138" spans="2:11">
+      <c r="B138" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C138" t="s">
+        <v>149</v>
+      </c>
+      <c r="D138" t="s">
         <v>158</v>
       </c>
-      <c r="E131" t="s">
-        <v>273</v>
-      </c>
-      <c r="G131" t="str">
-        <f t="shared" si="11"/>
-        <v>Scott Watson                    \\</v>
-      </c>
-      <c r="I131">
-        <f t="shared" si="12"/>
+      <c r="G138" t="str">
+        <f t="shared" ref="G138:G179" si="8">CONCATENATE(B138," ",C138,K138,"\\")</f>
+        <v>Martin White                    \\</v>
+      </c>
+      <c r="I138">
+        <f t="shared" ref="I138:I179" si="9">LEN(B138) + LEN(C138) +1</f>
         <v>12</v>
       </c>
-      <c r="J131">
-        <f t="shared" si="13"/>
+      <c r="J138">
+        <f t="shared" ref="J138:J179" si="10">IF(I138&lt;30,(32-I138),3)</f>
         <v>20</v>
       </c>
-      <c r="K131" t="str">
-        <f t="shared" si="4"/>
+      <c r="K138" t="str">
+        <f t="shared" ref="K138:K179" si="11">REPT(" ",J138)</f>
         <v xml:space="preserve">                    </v>
       </c>
     </row>
-    <row r="132" spans="2:11">
-      <c r="B132" t="s">
-        <v>274</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D132" t="s">
-        <v>158</v>
-      </c>
-      <c r="E132" t="s">
-        <v>60</v>
-      </c>
-      <c r="G132" t="str">
-        <f t="shared" si="11"/>
-        <v>Edward J. Wollack               \\</v>
-      </c>
-      <c r="I132">
-        <f t="shared" si="12"/>
-        <v>17</v>
-      </c>
-      <c r="J132">
-        <f t="shared" si="13"/>
-        <v>15</v>
-      </c>
-      <c r="K132" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">               </v>
-      </c>
-    </row>
-    <row r="133" spans="2:11">
-      <c r="B133" s="3"/>
-      <c r="C133"/>
-      <c r="G133" t="str">
+    <row r="139" spans="2:11">
+      <c r="B139" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D139" t="s">
+        <v>8</v>
+      </c>
+      <c r="G139" t="str">
+        <f>CONCATENATE(B139," ",C139,K139,"\\")</f>
+        <v>Kim Boddy                       \\</v>
+      </c>
+      <c r="I139">
+        <f>LEN(B139) + LEN(C139) +1</f>
+        <v>9</v>
+      </c>
+      <c r="J139">
+        <f>IF(I139&lt;30,(32-I139),3)</f>
+        <v>23</v>
+      </c>
+      <c r="K139" t="str">
+        <f>REPT(" ",J139)</f>
+        <v xml:space="preserve">                       </v>
+      </c>
+    </row>
+    <row r="140" spans="2:11">
+      <c r="G140" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">                                \\</v>
       </c>
-      <c r="I133">
+      <c r="I140">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="J133">
+      <c r="J140">
         <f t="shared" si="10"/>
         <v>31</v>
       </c>
-      <c r="K133" t="str">
-        <f t="shared" si="4"/>
+      <c r="K140" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
-    <row r="134" spans="2:11">
-      <c r="G134" t="str">
+    <row r="141" spans="2:11">
+      <c r="G141" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">                                \\</v>
       </c>
-      <c r="I134">
+      <c r="I141">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="J134">
+      <c r="J141">
         <f t="shared" si="10"/>
         <v>31</v>
       </c>
-      <c r="K134" t="str">
-        <f t="shared" si="4"/>
+      <c r="K141" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
-    <row r="135" spans="2:11">
-      <c r="G135" t="str">
+    <row r="142" spans="2:11">
+      <c r="G142" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">                                \\</v>
       </c>
-      <c r="I135">
+      <c r="I142">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="J135">
+      <c r="J142">
         <f t="shared" si="10"/>
         <v>31</v>
       </c>
-      <c r="K135" t="str">
-        <f t="shared" si="4"/>
+      <c r="K142" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
-    <row r="136" spans="2:11">
-      <c r="G136" t="str">
+    <row r="143" spans="2:11">
+      <c r="G143" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">                                \\</v>
       </c>
-      <c r="I136">
+      <c r="I143">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="J136">
+      <c r="J143">
         <f t="shared" si="10"/>
         <v>31</v>
       </c>
-      <c r="K136" t="str">
-        <f t="shared" si="4"/>
+      <c r="K143" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
-    <row r="137" spans="2:11">
-      <c r="G137" t="str">
+    <row r="144" spans="2:11">
+      <c r="G144" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">                                \\</v>
       </c>
-      <c r="I137">
+      <c r="I144">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="J137">
+      <c r="J144">
         <f t="shared" si="10"/>
         <v>31</v>
       </c>
-      <c r="K137" t="str">
-        <f t="shared" si="4"/>
+      <c r="K144" t="str">
+        <f t="shared" si="11"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
-    <row r="138" spans="2:11">
-      <c r="G138" t="str">
+    <row r="145" spans="7:11">
+      <c r="G145" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">                                \\</v>
       </c>
-      <c r="I138">
+      <c r="I145">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="J138">
+      <c r="J145">
         <f t="shared" si="10"/>
         <v>31</v>
       </c>
-      <c r="K138" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="139" spans="2:11">
-      <c r="B139" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C139" t="s">
-        <v>149</v>
-      </c>
-      <c r="D139" t="s">
-        <v>158</v>
-      </c>
-      <c r="G139" t="str">
-        <f t="shared" ref="G139:G180" si="14">CONCATENATE(B139," ",C139,K139,"\\")</f>
-        <v>Martin White                    \\</v>
-      </c>
-      <c r="I139">
-        <f t="shared" ref="I139:I180" si="15">LEN(B139) + LEN(C139) +1</f>
-        <v>12</v>
-      </c>
-      <c r="J139">
-        <f t="shared" ref="J139:J180" si="16">IF(I139&lt;30,(32-I139),3)</f>
-        <v>20</v>
-      </c>
-      <c r="K139" t="str">
-        <f t="shared" ref="K139:K180" si="17">REPT(" ",J139)</f>
-        <v xml:space="preserve">                    </v>
-      </c>
-    </row>
-    <row r="140" spans="2:11">
-      <c r="B140" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D140" t="s">
-        <v>8</v>
-      </c>
-      <c r="G140" t="str">
-        <f>CONCATENATE(B140," ",C140,K140,"\\")</f>
-        <v>Kim Boddy                       \\</v>
-      </c>
-      <c r="I140">
-        <f>LEN(B140) + LEN(C140) +1</f>
-        <v>9</v>
-      </c>
-      <c r="J140">
-        <f>IF(I140&lt;30,(32-I140),3)</f>
-        <v>23</v>
-      </c>
-      <c r="K140" t="str">
-        <f>REPT(" ",J140)</f>
-        <v xml:space="preserve">                       </v>
-      </c>
-    </row>
-    <row r="141" spans="2:11">
-      <c r="G141" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I141">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="J141">
-        <f t="shared" si="16"/>
-        <v>31</v>
-      </c>
-      <c r="K141" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="142" spans="2:11">
-      <c r="G142" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I142">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="J142">
-        <f t="shared" si="16"/>
-        <v>31</v>
-      </c>
-      <c r="K142" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="143" spans="2:11">
-      <c r="G143" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I143">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="J143">
-        <f t="shared" si="16"/>
-        <v>31</v>
-      </c>
-      <c r="K143" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="144" spans="2:11">
-      <c r="G144" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I144">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="J144">
-        <f t="shared" si="16"/>
-        <v>31</v>
-      </c>
-      <c r="K144" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="145" spans="7:11">
-      <c r="G145" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I145">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="J145">
-        <f t="shared" si="16"/>
-        <v>31</v>
-      </c>
       <c r="K145" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="146" spans="7:11">
       <c r="G146" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I146">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J146">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="K146" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="147" spans="7:11">
       <c r="G147" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I147">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J147">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="K147" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="148" spans="7:11">
       <c r="G148" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I148">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J148">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="K148" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="149" spans="7:11">
       <c r="G149" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I149">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J149">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="K149" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="150" spans="7:11">
       <c r="G150" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I150">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J150">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="K150" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="151" spans="7:11">
       <c r="G151" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I151">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J151">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="K151" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="152" spans="7:11">
       <c r="G152" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I152">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J152">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="K152" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="153" spans="7:11">
       <c r="G153" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I153">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J153">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="K153" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="154" spans="7:11">
       <c r="G154" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I154">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J154">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="K154" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="155" spans="7:11">
       <c r="G155" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I155">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J155">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="K155" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="156" spans="7:11">
       <c r="G156" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I156">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J156">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="K156" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="157" spans="7:11">
       <c r="G157" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I157">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J157">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="K157" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="158" spans="7:11">
       <c r="G158" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I158">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J158">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="K158" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="159" spans="7:11">
       <c r="G159" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I159">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J159">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="K159" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="160" spans="7:11">
       <c r="G160" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I160">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J160">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="K160" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="161" spans="7:11">
       <c r="G161" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I161">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J161">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="K161" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="162" spans="7:11">
       <c r="G162" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I162">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J162">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="K162" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="163" spans="7:11">
       <c r="G163" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I163">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J163">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="K163" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="164" spans="7:11">
       <c r="G164" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I164">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J164">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="K164" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="165" spans="7:11">
       <c r="G165" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I165">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J165">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="K165" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="166" spans="7:11">
       <c r="G166" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I166">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J166">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="K166" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="167" spans="7:11">
       <c r="G167" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I167">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J167">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="K167" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="168" spans="7:11">
       <c r="G168" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I168">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J168">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="K168" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="169" spans="7:11">
       <c r="G169" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I169">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J169">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="K169" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="170" spans="7:11">
       <c r="G170" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I170">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J170">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="K170" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="171" spans="7:11">
       <c r="G171" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I171">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J171">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="K171" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="172" spans="7:11">
       <c r="G172" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I172">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J172">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="K172" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="173" spans="7:11">
       <c r="G173" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I173">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J173">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="K173" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="174" spans="7:11">
       <c r="G174" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I174">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J174">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="K174" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="175" spans="7:11">
       <c r="G175" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I175">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J175">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="K175" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="176" spans="7:11">
       <c r="G176" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I176">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J176">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="K176" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="177" spans="7:11">
       <c r="G177" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I177">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J177">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="K177" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="178" spans="7:11">
       <c r="G178" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I178">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J178">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="K178" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="179" spans="7:11">
       <c r="G179" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I179">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J179">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="K179" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
-    <row r="180" spans="7:11">
-      <c r="G180" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I180">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="J180">
-        <f t="shared" si="16"/>
-        <v>31</v>
-      </c>
-      <c r="K180" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="B10:E76">
-    <sortCondition ref="C10:C76"/>
+  <sortState ref="B10:E77">
+    <sortCondition ref="C10:C77"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/ReferenceDocuments/ReportAuthors.xlsx
+++ b/ReferenceDocuments/ReportAuthors.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="335">
   <si>
     <t>Report Authors</t>
   </si>
@@ -94,9 +94,6 @@
     <t>Battaglia</t>
   </si>
   <si>
-    <t>Kim</t>
-  </si>
-  <si>
     <t>Boddy</t>
   </si>
   <si>
@@ -988,7 +985,40 @@
     <t>Umilt\`{a}</t>
   </si>
   <si>
-    <t>12/10/2018, 3 pm.</t>
+    <t>Instituto de Fisica de Cantabria (CSIC - UC)</t>
+  </si>
+  <si>
+    <t>Kimberly K. Boddy</t>
+  </si>
+  <si>
+    <t>Contributed text to DM-baryon scattering physics.</t>
+  </si>
+  <si>
+    <t>Florida State University</t>
+  </si>
+  <si>
+    <t>Golwara</t>
+  </si>
+  <si>
+    <t>Sunil</t>
+  </si>
+  <si>
+    <t>Kevin M.</t>
+  </si>
+  <si>
+    <t>Huffenberger</t>
+  </si>
+  <si>
+    <t>Vielva</t>
+  </si>
+  <si>
+    <t>Patricio</t>
+  </si>
+  <si>
+    <t>Kimberly K.</t>
+  </si>
+  <si>
+    <t>12/17/2018, 4 pm.</t>
   </si>
 </sst>
 </file>
@@ -1419,10 +1449,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K180"/>
+  <dimension ref="A1:K181"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C3:C5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1452,25 +1482,25 @@
       </c>
       <c r="B3"/>
       <c r="C3" s="1" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B4"/>
       <c r="C4" s="1" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B5"/>
       <c r="C5" s="1" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1478,10 +1508,10 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1502,16 +1532,16 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I9" t="s">
+        <v>305</v>
+      </c>
+      <c r="J9" t="s">
         <v>306</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>307</v>
-      </c>
-      <c r="K9" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1741,16 +1771,16 @@
     </row>
     <row r="18" spans="2:11">
       <c r="B18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" t="s">
         <v>171</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
         <v>172</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
-        <v>173</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
@@ -1770,105 +1800,105 @@
       </c>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" t="s">
-        <v>28</v>
+      <c r="B19" s="1" t="s">
+        <v>333</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
       </c>
-      <c r="E19" t="s">
-        <v>30</v>
+      <c r="E19" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>Matteo Bonato                   \\</v>
+        <v>Kimberly K. Boddy               \\</v>
       </c>
       <c r="I19">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J19">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">               </v>
       </c>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="1" t="s">
-        <v>31</v>
+      <c r="B20" t="s">
+        <v>27</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
       </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>Julian Borrill                  \\</v>
+        <v>Matteo Bonato                   \\</v>
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J20">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                   </v>
       </c>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>Francois Boulanger              \\</v>
+        <v>Julian Borrill                  \\</v>
       </c>
       <c r="I21">
         <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="2"/>
         <v>18</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="2"/>
-        <v>14</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">              </v>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" t="s">
-        <v>35</v>
+      <c r="B22" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
       </c>
-      <c r="E22" t="s">
-        <v>37</v>
-      </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>Blakesley Burkhart              \\</v>
+        <v>Francois Boulanger              \\</v>
       </c>
       <c r="I22">
         <f t="shared" si="1"/>
@@ -1884,588 +1914,588 @@
       </c>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="1" t="s">
-        <v>38</v>
+      <c r="B23" t="s">
+        <v>34</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
       </c>
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>David Chuss                     \\</v>
+        <v>Blakesley Burkhart              \\</v>
       </c>
       <c r="I23">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J23">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">              </v>
       </c>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" t="s">
-        <v>41</v>
+      <c r="B24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
       </c>
-      <c r="E24" t="s">
-        <v>42</v>
-      </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>Susan E. Clark                  \\</v>
+        <v>David Chuss                     \\</v>
       </c>
       <c r="I24">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J24">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>44</v>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
       </c>
+      <c r="E25" t="s">
+        <v>41</v>
+      </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>Brendan Crill                   \\</v>
+        <v>Susan E. Clark                  \\</v>
       </c>
       <c r="I25">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J25">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" t="s">
-        <v>47</v>
+      <c r="B26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
       </c>
-      <c r="E26" t="s">
-        <v>48</v>
-      </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>Jacques Delabrouille            \\</v>
+        <v>Brendan Crill                   \\</v>
       </c>
       <c r="I26">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J26">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                   </v>
       </c>
     </row>
     <row r="27" spans="2:11">
       <c r="B27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>Eleonora Di Valentino           \\</v>
+        <v>Jacques Delabrouille            \\</v>
       </c>
       <c r="I27">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J27">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">           </v>
+        <v xml:space="preserve">            </v>
       </c>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="1" t="s">
-        <v>52</v>
+      <c r="B28" t="s">
+        <v>48</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
       </c>
+      <c r="E28" t="s">
+        <v>50</v>
+      </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>Joy Didier                      \\</v>
+        <v>Eleonora Di Valentino           \\</v>
       </c>
       <c r="I28">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J28">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                      </v>
+        <v xml:space="preserve">           </v>
       </c>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" t="s">
-        <v>54</v>
+      <c r="B29" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>313</v>
+        <v>52</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
       </c>
-      <c r="E29" t="s">
-        <v>55</v>
-      </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>Olivier Dor\'e                  \\</v>
+        <v>Joy Didier                      \\</v>
       </c>
       <c r="I29">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J29">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                      </v>
       </c>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C30" t="s">
-        <v>309</v>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>312</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
       </c>
+      <c r="E30" t="s">
+        <v>54</v>
+      </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>Alexander van Engelen           \\</v>
+        <v>Olivier Dor\'e                  \\</v>
       </c>
       <c r="I30">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J30">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">           </v>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="31" spans="2:11">
       <c r="B31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>57</v>
+        <v>309</v>
+      </c>
+      <c r="C31" t="s">
+        <v>308</v>
       </c>
       <c r="D31" t="s">
         <v>8</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>Josquin Errard                  \\</v>
+        <v>Alexander van Engelen           \\</v>
       </c>
       <c r="I31">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J31">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">           </v>
       </c>
     </row>
     <row r="32" spans="2:11">
-      <c r="B32" t="s">
-        <v>58</v>
+      <c r="B32" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D32" t="s">
         <v>8</v>
       </c>
-      <c r="E32" t="s">
-        <v>60</v>
-      </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v>Tom Essinger-Hileman            \\</v>
+        <v>Josquin Errard                  \\</v>
       </c>
       <c r="I32">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J32">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="33" spans="2:11">
-      <c r="B33" s="1" t="s">
-        <v>61</v>
+      <c r="B33" t="s">
+        <v>57</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
       </c>
+      <c r="E33" t="s">
+        <v>59</v>
+      </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
-        <v>Stephen Feeney                  \\</v>
+        <v>Tom Essinger-Hileman            \\</v>
       </c>
       <c r="I33">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J33">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">            </v>
       </c>
     </row>
     <row r="34" spans="2:11">
-      <c r="B34" t="s">
-        <v>304</v>
-      </c>
-      <c r="C34" t="s">
-        <v>305</v>
+      <c r="B34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
       </c>
-      <c r="E34" t="s">
-        <v>289</v>
-      </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
-        <v>Jeffrey Filippini               \\</v>
+        <v>Stephen Feeney                  \\</v>
       </c>
       <c r="I34">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">               </v>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="35" spans="2:11">
       <c r="B35" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>64</v>
+        <v>303</v>
+      </c>
+      <c r="C35" t="s">
+        <v>304</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>65</v>
+        <v>288</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
-        <v>Laura Fissel                    \\</v>
+        <v>Jeffrey Filippini               \\</v>
       </c>
       <c r="I35">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J35">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">               </v>
       </c>
     </row>
     <row r="36" spans="2:11">
       <c r="B36" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" t="s">
-        <v>67</v>
+        <v>62</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="D36" t="s">
         <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
-        <v>Raphael Flauger                 \\</v>
+        <v>Laura Fissel                    \\</v>
       </c>
       <c r="I36">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J36">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">                    </v>
       </c>
     </row>
     <row r="37" spans="2:11">
-      <c r="B37" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>70</v>
+      <c r="B37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" t="s">
+        <v>66</v>
       </c>
       <c r="D37" t="s">
         <v>8</v>
       </c>
+      <c r="E37" t="s">
+        <v>67</v>
+      </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
-        <v>Vera Gluscevic                  \\</v>
+        <v>Raphael Flauger                 \\</v>
       </c>
       <c r="I37">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J37">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K37" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                 </v>
       </c>
     </row>
     <row r="38" spans="2:11">
       <c r="B38" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D38" t="s">
         <v>8</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
-        <v>Kris Gorski                     \\</v>
+        <v>Vera Gluscevic                  \\</v>
       </c>
       <c r="I38">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J38">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K38" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="39" spans="2:11">
       <c r="B39" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
-        <v>Dan Green                       \\</v>
+        <v>Kris Gorski                     \\</v>
       </c>
       <c r="I39">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J39">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K39" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                       </v>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="40" spans="2:11">
       <c r="B40" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D40" t="s">
         <v>8</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
-        <v>Brandon Hensley                 \\</v>
+        <v>Dan Green                       \\</v>
       </c>
       <c r="I40">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J40">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K40" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">                       </v>
       </c>
     </row>
     <row r="41" spans="2:11">
-      <c r="B41" t="s">
-        <v>77</v>
+      <c r="B41" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>
       </c>
-      <c r="E41" t="s">
-        <v>79</v>
-      </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
-        <v>Diego Herranz                   \\</v>
+        <v>Brandon Hensley                 \\</v>
       </c>
       <c r="I41">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J41">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">                 </v>
       </c>
     </row>
     <row r="42" spans="2:11">
-      <c r="B42" s="1" t="s">
-        <v>80</v>
+      <c r="B42" t="s">
+        <v>76</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D42" t="s">
         <v>8</v>
       </c>
+      <c r="E42" t="s">
+        <v>78</v>
+      </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
-        <v>Colin Hill                      \\</v>
+        <v>Diego Herranz                   \\</v>
       </c>
       <c r="I42">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J42">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K42" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                      </v>
+        <v xml:space="preserve">                   </v>
       </c>
     </row>
     <row r="43" spans="2:11">
-      <c r="B43" t="s">
-        <v>82</v>
+      <c r="B43" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
       </c>
-      <c r="E43" t="s">
-        <v>84</v>
-      </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
-        <v>Eric Hivon                      \\</v>
+        <v>Colin Hill                      \\</v>
       </c>
       <c r="I43">
         <f t="shared" si="1"/>
@@ -2482,473 +2512,476 @@
     </row>
     <row r="44" spans="2:11">
       <c r="B44" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
-        <v>Johannes Hubmayr                \\</v>
+        <v>Eric Hivon                      \\</v>
       </c>
       <c r="I44">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J44">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                </v>
+        <v xml:space="preserve">                      </v>
       </c>
     </row>
     <row r="45" spans="2:11">
       <c r="B45" t="s">
-        <v>88</v>
-      </c>
-      <c r="C45" t="s">
-        <v>89</v>
+        <v>84</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
-        <v>Brad Johnson                    \\</v>
+        <v>Johannes Hubmayr                \\</v>
       </c>
       <c r="I45">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J45">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">                </v>
       </c>
     </row>
     <row r="46" spans="2:11">
       <c r="B46" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C46" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
-        <v>William Jones                   \\</v>
+        <v>Brad Johnson                    \\</v>
       </c>
       <c r="I46">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J46">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K46" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">                    </v>
       </c>
     </row>
     <row r="47" spans="2:11">
       <c r="B47" t="s">
-        <v>94</v>
-      </c>
-      <c r="C47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s">
         <v>92</v>
       </c>
-      <c r="D47" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" t="s">
-        <v>95</v>
-      </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
-        <v>Terry Jones                     \\</v>
+        <v>William Jones                   \\</v>
       </c>
       <c r="I47">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J47">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K47" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                   </v>
       </c>
     </row>
     <row r="48" spans="2:11">
-      <c r="B48" s="1" t="s">
-        <v>316</v>
+      <c r="B48" t="s">
+        <v>93</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
       </c>
+      <c r="E48" t="s">
+        <v>94</v>
+      </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
-        <v>Lloyd Knox                      \\</v>
+        <v>Terry Jones                     \\</v>
       </c>
       <c r="I48">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J48">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K48" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                      </v>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="49" spans="2:11">
       <c r="B49" s="1" t="s">
-        <v>97</v>
+        <v>315</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D49" t="s">
         <v>8</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
-        <v>Al Kogut                        \\</v>
+        <v>Lloyd Knox                      \\</v>
       </c>
       <c r="I49">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J49">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K49" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                        </v>
+        <v xml:space="preserve">                      </v>
       </c>
     </row>
     <row r="50" spans="2:11">
-      <c r="B50" t="s">
-        <v>296</v>
-      </c>
-      <c r="C50" t="s">
-        <v>315</v>
+      <c r="B50" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="D50" t="s">
         <v>8</v>
       </c>
-      <c r="E50" t="s">
-        <v>284</v>
-      </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
-        <v>Marcos L\'{o}pez-Caniego        \\</v>
+        <v>Al Kogut                        \\</v>
       </c>
       <c r="I50">
         <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="2"/>
         <v>24</v>
-      </c>
-      <c r="J50">
-        <f t="shared" si="2"/>
-        <v>8</v>
       </c>
       <c r="K50" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">        </v>
+        <v xml:space="preserve">                        </v>
       </c>
     </row>
     <row r="51" spans="2:11">
-      <c r="B51" s="1" t="s">
-        <v>99</v>
+      <c r="B51" t="s">
+        <v>295</v>
       </c>
       <c r="C51" t="s">
-        <v>100</v>
+        <v>314</v>
       </c>
       <c r="D51" t="s">
         <v>8</v>
       </c>
+      <c r="E51" t="s">
+        <v>283</v>
+      </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
-        <v>Charles Lawrence                \\</v>
+        <v>Marcos L\'{o}pez-Caniego        \\</v>
       </c>
       <c r="I51">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J51">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K51" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                </v>
+        <v xml:space="preserve">        </v>
       </c>
     </row>
     <row r="52" spans="2:11">
       <c r="B52" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C52" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D52" t="s">
         <v>8</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
-        <v>Alex Lazarian                   \\</v>
+        <v>Charles Lawrence                \\</v>
       </c>
       <c r="I52">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J52">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K52" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">                </v>
       </c>
     </row>
     <row r="53" spans="2:11">
       <c r="B53" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C53" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D53" t="s">
         <v>8</v>
       </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
-        <v>Zack Li                         \\</v>
+        <v>Alex Lazarian                   \\</v>
       </c>
       <c r="I53">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J53">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K53" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                         </v>
+        <v xml:space="preserve">                   </v>
       </c>
     </row>
     <row r="54" spans="2:11">
       <c r="B54" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
+      </c>
+      <c r="C54" t="s">
+        <v>103</v>
       </c>
       <c r="D54" t="s">
         <v>8</v>
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
-        <v>Mathew Madhavacheril            \\</v>
+        <v>Zack Li                         \\</v>
       </c>
       <c r="I54">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J54">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K54" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                         </v>
       </c>
     </row>
     <row r="55" spans="2:11">
       <c r="B55" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C55" t="s">
-        <v>108</v>
+        <v>104</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
       </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
-        <v>Jean-Baptiste Melin             \\</v>
+        <v>Mathew Madhavacheril            \\</v>
       </c>
       <c r="I55">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J55">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K55" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">             </v>
+        <v xml:space="preserve">            </v>
       </c>
     </row>
     <row r="56" spans="2:11">
-      <c r="B56" t="s">
-        <v>109</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>110</v>
+      <c r="B56" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" t="s">
+        <v>107</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
       </c>
-      <c r="E56" t="s">
-        <v>111</v>
-      </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
-        <v>Mattia Negrello                 \\</v>
+        <v>Jean-Baptiste Melin             \\</v>
       </c>
       <c r="I56">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J56">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K56" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">             </v>
       </c>
     </row>
     <row r="57" spans="2:11">
       <c r="B57" t="s">
-        <v>112</v>
-      </c>
-      <c r="C57" t="s">
-        <v>113</v>
+        <v>108</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="D57" t="s">
         <v>8</v>
       </c>
       <c r="E57" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
-        <v>Giles Novak                     \\</v>
+        <v>Mattia Negrello                 \\</v>
       </c>
       <c r="I57">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J57">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K57" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                 </v>
       </c>
     </row>
     <row r="58" spans="2:11">
       <c r="B58" t="s">
-        <v>115</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="C58" t="s">
+        <v>112</v>
       </c>
       <c r="D58" t="s">
         <v>8</v>
       </c>
       <c r="E58" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G58" t="str">
         <f t="shared" si="0"/>
-        <v>Roger O'Brient                  \\</v>
+        <v>Giles Novak                     \\</v>
       </c>
       <c r="I58">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J58">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K58" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="59" spans="2:11">
-      <c r="B59" s="1" t="s">
-        <v>118</v>
+      <c r="B59" t="s">
+        <v>114</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D59" t="s">
         <v>8</v>
       </c>
+      <c r="E59" t="s">
+        <v>116</v>
+      </c>
       <c r="G59" t="str">
         <f t="shared" si="0"/>
-        <v>Chris Paine                     \\</v>
+        <v>Roger O'Brient                  \\</v>
       </c>
       <c r="I59">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J59">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K59" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="60" spans="2:11">
       <c r="B60" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D60" t="s">
         <v>8</v>
       </c>
       <c r="G60" t="str">
         <f t="shared" si="0"/>
-        <v>Tim Pearson                     \\</v>
+        <v>Chris Paine                     \\</v>
       </c>
       <c r="I60">
         <f t="shared" si="1"/>
@@ -2964,1248 +2997,1245 @@
       </c>
     </row>
     <row r="61" spans="2:11">
-      <c r="B61" t="s">
-        <v>122</v>
-      </c>
-      <c r="C61" t="s">
-        <v>123</v>
+      <c r="B61" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="D61" t="s">
         <v>8</v>
       </c>
-      <c r="E61" t="s">
-        <v>124</v>
-      </c>
       <c r="G61" t="str">
         <f t="shared" si="0"/>
-        <v>Levon Pogosian                  \\</v>
+        <v>Tim Pearson                     \\</v>
       </c>
       <c r="I61">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J61">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K61" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="62" spans="2:11">
-      <c r="B62" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>126</v>
+      <c r="B62" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" t="s">
+        <v>122</v>
       </c>
       <c r="D62" t="s">
         <v>8</v>
       </c>
+      <c r="E62" t="s">
+        <v>123</v>
+      </c>
       <c r="G62" t="str">
         <f t="shared" si="0"/>
-        <v>Clem Pryke                      \\</v>
+        <v>Levon Pogosian                  \\</v>
       </c>
       <c r="I62">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J62">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K62" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                      </v>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="63" spans="2:11">
-      <c r="B63" t="s">
-        <v>127</v>
+      <c r="B63" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D63" t="s">
         <v>8</v>
       </c>
-      <c r="E63" t="s">
-        <v>51</v>
-      </c>
       <c r="G63" t="str">
         <f t="shared" si="0"/>
-        <v>Mathieu Remazeilles             \\</v>
+        <v>Clem Pryke                      \\</v>
       </c>
       <c r="I63">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J63">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="K63" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">             </v>
+        <v xml:space="preserve">                      </v>
       </c>
     </row>
     <row r="64" spans="2:11">
       <c r="B64" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D64" t="s">
         <v>8</v>
       </c>
       <c r="E64" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G64" t="str">
         <f t="shared" si="0"/>
-        <v>Graca Rocha                     \\</v>
+        <v>Mathieu Remazeilles             \\</v>
       </c>
       <c r="I64">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J64">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K64" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">             </v>
       </c>
     </row>
     <row r="65" spans="2:11">
-      <c r="B65" s="1" t="s">
-        <v>131</v>
+      <c r="B65" t="s">
+        <v>128</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D65" t="s">
         <v>8</v>
       </c>
+      <c r="E65" t="s">
+        <v>54</v>
+      </c>
       <c r="G65" t="str">
         <f t="shared" si="0"/>
-        <v>Marcel Schmittfull              \\</v>
+        <v>Graca Rocha                     \\</v>
       </c>
       <c r="I65">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J65">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K65" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">              </v>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="66" spans="2:11">
       <c r="B66" s="1" t="s">
-        <v>318</v>
+        <v>130</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>271</v>
+        <v>131</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
       </c>
       <c r="G66" t="str">
         <f t="shared" si="0"/>
-        <v>Douglas Scott                   \\</v>
+        <v>Marcel Schmittfull              \\</v>
       </c>
       <c r="I66">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J66">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K66" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">              </v>
       </c>
     </row>
     <row r="67" spans="2:11">
-      <c r="B67" t="s">
-        <v>133</v>
+      <c r="B67" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>134</v>
+        <v>270</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
       </c>
-      <c r="E67" t="s">
-        <v>135</v>
-      </c>
       <c r="G67" t="str">
         <f t="shared" si="0"/>
-        <v>Ian Stephens                    \\</v>
+        <v>Douglas Scott                   \\</v>
       </c>
       <c r="I67">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J67">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K67" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">                   </v>
       </c>
     </row>
     <row r="68" spans="2:11">
-      <c r="B68" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C68" t="s">
-        <v>137</v>
+      <c r="B68" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="D68" t="s">
         <v>8</v>
       </c>
+      <c r="E68" t="s">
+        <v>134</v>
+      </c>
       <c r="G68" t="str">
         <f t="shared" si="0"/>
-        <v>Brian Sutin                     \\</v>
+        <v>Ian Stephens                    \\</v>
       </c>
       <c r="I68">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J68">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K68" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                    </v>
       </c>
     </row>
     <row r="69" spans="2:11">
-      <c r="B69" t="s">
-        <v>138</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>139</v>
+      <c r="B69" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C69" t="s">
+        <v>136</v>
       </c>
       <c r="D69" t="s">
         <v>8</v>
       </c>
-      <c r="E69" t="s">
-        <v>140</v>
-      </c>
       <c r="G69" t="str">
         <f t="shared" si="0"/>
-        <v>Maurizio Tomasi                 \\</v>
+        <v>Brian Sutin                     \\</v>
       </c>
       <c r="I69">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J69">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K69" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="70" spans="2:11">
-      <c r="B70" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C70" t="s">
-        <v>142</v>
+      <c r="B70" t="s">
+        <v>137</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="D70" t="s">
         <v>8</v>
       </c>
+      <c r="E70" t="s">
+        <v>139</v>
+      </c>
       <c r="G70" t="str">
         <f t="shared" si="0"/>
-        <v>Amy Trangsrud                   \\</v>
+        <v>Maurizio Tomasi                 \\</v>
       </c>
       <c r="I70">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J70">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K70" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">                 </v>
       </c>
     </row>
     <row r="71" spans="2:11">
       <c r="B71" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C71" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D71" t="s">
         <v>8</v>
       </c>
       <c r="G71" t="str">
         <f t="shared" si="0"/>
-        <v>Flavien Vansyngel               \\</v>
+        <v>Amy Trangsrud                   \\</v>
       </c>
       <c r="I71">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J71">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K71" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">               </v>
+        <v xml:space="preserve">                   </v>
       </c>
     </row>
     <row r="72" spans="2:11">
-      <c r="B72" t="s">
-        <v>145</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>146</v>
+      <c r="B72" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" t="s">
+        <v>143</v>
       </c>
       <c r="D72" t="s">
         <v>8</v>
       </c>
-      <c r="E72" t="s">
-        <v>147</v>
-      </c>
       <c r="G72" t="str">
         <f t="shared" si="0"/>
-        <v>Qi Wen                          \\</v>
+        <v>Flavien Vansyngel               \\</v>
       </c>
       <c r="I72">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J72">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="K72" t="str">
         <f t="shared" si="3"/>
+        <v xml:space="preserve">               </v>
+      </c>
+    </row>
+    <row r="73" spans="2:11">
+      <c r="B73" t="s">
+        <v>144</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" t="s">
+        <v>146</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="0"/>
+        <v>Qi Wen                          \\</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="K73" t="str">
+        <f t="shared" ref="K73:K139" si="4">REPT(" ",J73)</f>
         <v xml:space="preserve">                          </v>
-      </c>
-    </row>
-    <row r="73" spans="2:11">
-      <c r="B73" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C73" t="s">
-        <v>151</v>
-      </c>
-      <c r="D73" t="s">
-        <v>8</v>
-      </c>
-      <c r="G73" t="str">
-        <f t="shared" si="0"/>
-        <v>Siyao Xu                        \\</v>
-      </c>
-      <c r="I73">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="J73">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="K73" t="str">
-        <f t="shared" ref="K73:K138" si="4">REPT(" ",J73)</f>
-        <v xml:space="preserve">                        </v>
       </c>
     </row>
     <row r="74" spans="2:11">
       <c r="B74" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C74" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D74" t="s">
         <v>8</v>
       </c>
       <c r="G74" t="str">
         <f t="shared" si="0"/>
-        <v>Karl Young                      \\</v>
+        <v>Siyao Xu                        \\</v>
       </c>
       <c r="I74">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J74">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K74" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                      </v>
+        <v xml:space="preserve">                        </v>
       </c>
     </row>
     <row r="75" spans="2:11">
       <c r="B75" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" t="s">
+        <v>152</v>
+      </c>
+      <c r="D75" t="s">
+        <v>8</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" ref="G75:G77" si="5">CONCATENATE(B75," ",C75,K75,"\\")</f>
+        <v>Karl Young                      \\</v>
+      </c>
+      <c r="I75">
+        <f t="shared" ref="I75:I77" si="6">LEN(B75) + LEN(C75) +1</f>
+        <v>10</v>
+      </c>
+      <c r="J75">
+        <f t="shared" ref="J75:J77" si="7">IF(I75&lt;30,(32-I75),3)</f>
+        <v>22</v>
+      </c>
+      <c r="K75" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                      </v>
+      </c>
+    </row>
+    <row r="76" spans="2:11">
+      <c r="B76" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" t="s">
         <v>154</v>
       </c>
-      <c r="C75" t="s">
-        <v>155</v>
-      </c>
-      <c r="D75" t="s">
-        <v>8</v>
-      </c>
-      <c r="G75" t="str">
-        <f t="shared" ref="G75:G76" si="5">CONCATENATE(B75," ",C75,K75,"\\")</f>
-        <v>Andrea Zonca                    \\</v>
-      </c>
-      <c r="I75">
-        <f t="shared" ref="I75:I76" si="6">LEN(B75) + LEN(C75) +1</f>
-        <v>12</v>
-      </c>
-      <c r="J75">
-        <f t="shared" ref="J75:J76" si="7">IF(I75&lt;30,(32-I75),3)</f>
-        <v>20</v>
-      </c>
-      <c r="K75" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                    </v>
-      </c>
-    </row>
-    <row r="76" spans="2:11">
-      <c r="B76" t="s">
-        <v>312</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="D76" t="s">
         <v>8</v>
-      </c>
-      <c r="E76" t="s">
-        <v>45</v>
       </c>
       <c r="G76" t="str">
         <f t="shared" si="5"/>
-        <v>Gianfranco De Zotti             \\</v>
+        <v>Andrea Zonca                    \\</v>
       </c>
       <c r="I76">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J76">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="K76" t="str">
         <f>REPT(" ",J76)</f>
+        <v xml:space="preserve">                    </v>
+      </c>
+    </row>
+    <row r="77" spans="2:11">
+      <c r="B77" t="s">
+        <v>311</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D77" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" ref="G77" si="8">CONCATENATE(B77," ",C77,K77,"\\")</f>
+        <v>Gianfranco De Zotti             \\</v>
+      </c>
+      <c r="I77">
+        <f t="shared" ref="I77" si="9">LEN(B77) + LEN(C77) +1</f>
+        <v>19</v>
+      </c>
+      <c r="J77">
+        <f t="shared" ref="J77" si="10">IF(I77&lt;30,(32-I77),3)</f>
+        <v>13</v>
+      </c>
+      <c r="K77" t="str">
+        <f t="shared" ref="K77" si="11">REPT(" ",J77)</f>
         <v xml:space="preserve">             </v>
       </c>
     </row>
-    <row r="78" spans="2:11">
-      <c r="B78" s="3"/>
-      <c r="C78"/>
-      <c r="G78" t="str">
-        <f t="shared" ref="G73:G138" si="8">CONCATENATE(B78," ",C78,K78,"\\")</f>
+    <row r="79" spans="2:11">
+      <c r="B79" s="3"/>
+      <c r="C79"/>
+      <c r="G79" t="str">
+        <f t="shared" ref="G79:G139" si="12">CONCATENATE(B79," ",C79,K79,"\\")</f>
         <v xml:space="preserve">                                \\</v>
       </c>
-      <c r="I78">
-        <f t="shared" ref="I73:I138" si="9">LEN(B78) + LEN(C78) +1</f>
+      <c r="I79">
+        <f t="shared" ref="I79:I139" si="13">LEN(B79) + LEN(C79) +1</f>
         <v>1</v>
       </c>
-      <c r="J78">
-        <f t="shared" ref="J73:J138" si="10">IF(I78&lt;30,(32-I78),3)</f>
+      <c r="J79">
+        <f t="shared" ref="J79:J139" si="14">IF(I79&lt;30,(32-I79),3)</f>
         <v>31</v>
       </c>
-      <c r="K78" t="str">
+      <c r="K79" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="79" spans="2:11">
-      <c r="B79" t="s">
-        <v>156</v>
-      </c>
-      <c r="C79" t="s">
-        <v>157</v>
-      </c>
-      <c r="D79" t="s">
-        <v>158</v>
-      </c>
-      <c r="E79" t="s">
-        <v>159</v>
-      </c>
-      <c r="G79" t="str">
-        <f t="shared" si="8"/>
-        <v>Zeeshan Ahmed                   \\</v>
-      </c>
-      <c r="I79">
-        <f t="shared" si="9"/>
-        <v>13</v>
-      </c>
-      <c r="J79">
-        <f t="shared" si="10"/>
-        <v>19</v>
-      </c>
-      <c r="K79" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                   </v>
       </c>
     </row>
     <row r="80" spans="2:11">
       <c r="B80" t="s">
-        <v>160</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
+      </c>
+      <c r="C80" t="s">
+        <v>156</v>
       </c>
       <c r="D80" t="s">
+        <v>157</v>
+      </c>
+      <c r="E80" t="s">
         <v>158</v>
       </c>
-      <c r="E80" t="s">
-        <v>162</v>
-      </c>
       <c r="G80" t="str">
-        <f t="shared" ref="G80:G132" si="11">CONCATENATE(B80," ",C80,K80,"\\")</f>
-        <v>Jason Austermann                \\</v>
+        <f t="shared" si="12"/>
+        <v>Zeeshan Ahmed                   \\</v>
       </c>
       <c r="I80">
-        <f t="shared" ref="I80:I132" si="12">LEN(B80) + LEN(C80) +1</f>
-        <v>16</v>
+        <f t="shared" si="13"/>
+        <v>13</v>
       </c>
       <c r="J80">
-        <f t="shared" ref="J80:J132" si="13">IF(I80&lt;30,(32-I80),3)</f>
-        <v>16</v>
+        <f t="shared" si="14"/>
+        <v>19</v>
       </c>
       <c r="K80" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                </v>
+        <v xml:space="preserve">                   </v>
       </c>
     </row>
     <row r="81" spans="2:11">
       <c r="B81" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D81" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E81" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G81" t="str">
-        <f t="shared" si="11"/>
-        <v>Darcy Barron                    \\</v>
+        <f t="shared" ref="G81:G133" si="15">CONCATENATE(B81," ",C81,K81,"\\")</f>
+        <v>Jason Austermann                \\</v>
       </c>
       <c r="I81">
-        <f t="shared" si="12"/>
-        <v>12</v>
+        <f t="shared" ref="I81:I133" si="16">LEN(B81) + LEN(C81) +1</f>
+        <v>16</v>
       </c>
       <c r="J81">
-        <f t="shared" si="13"/>
-        <v>20</v>
+        <f t="shared" ref="J81:J133" si="17">IF(I81&lt;30,(32-I81),3)</f>
+        <v>16</v>
       </c>
       <c r="K81" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">                </v>
       </c>
     </row>
     <row r="82" spans="2:11">
       <c r="B82" t="s">
-        <v>166</v>
-      </c>
-      <c r="C82" t="s">
-        <v>167</v>
+        <v>162</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="D82" t="s">
-        <v>158</v>
+        <v>157</v>
+      </c>
+      <c r="E82" t="s">
+        <v>164</v>
       </c>
       <c r="G82" t="str">
-        <f t="shared" si="11"/>
-        <v>Karim Benabed                   \\</v>
+        <f t="shared" si="15"/>
+        <v>Darcy Barron                    \\</v>
       </c>
       <c r="I82">
-        <f t="shared" si="12"/>
-        <v>13</v>
+        <f t="shared" si="16"/>
+        <v>12</v>
       </c>
       <c r="J82">
-        <f t="shared" si="13"/>
-        <v>19</v>
+        <f t="shared" si="17"/>
+        <v>20</v>
       </c>
       <c r="K82" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">                    </v>
       </c>
     </row>
     <row r="83" spans="2:11">
       <c r="B83" t="s">
+        <v>165</v>
+      </c>
+      <c r="C83" t="s">
+        <v>166</v>
+      </c>
+      <c r="D83" t="s">
+        <v>157</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="15"/>
+        <v>Karim Benabed                   \\</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="16"/>
+        <v>13</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="17"/>
+        <v>19</v>
+      </c>
+      <c r="K83" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                   </v>
+      </c>
+    </row>
+    <row r="84" spans="2:11">
+      <c r="B84" t="s">
+        <v>167</v>
+      </c>
+      <c r="C84" t="s">
         <v>168</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D84" t="s">
+        <v>157</v>
+      </c>
+      <c r="E84" t="s">
         <v>169</v>
       </c>
-      <c r="D83" t="s">
-        <v>158</v>
-      </c>
-      <c r="E83" t="s">
-        <v>170</v>
-      </c>
-      <c r="G83" t="str">
-        <f t="shared" si="11"/>
+      <c r="G84" t="str">
+        <f t="shared" si="15"/>
         <v>Federico Bianchini              \\</v>
       </c>
-      <c r="I83">
-        <f t="shared" si="12"/>
+      <c r="I84">
+        <f t="shared" si="16"/>
         <v>18</v>
       </c>
-      <c r="J83">
-        <f t="shared" si="13"/>
+      <c r="J84">
+        <f t="shared" si="17"/>
         <v>14</v>
       </c>
-      <c r="K83" t="str">
+      <c r="K84" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">              </v>
       </c>
     </row>
-    <row r="84" spans="2:11">
-      <c r="B84" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D84" t="s">
-        <v>158</v>
-      </c>
-      <c r="E84" t="s">
-        <v>283</v>
-      </c>
-      <c r="G84" t="str">
-        <f t="shared" si="11"/>
+    <row r="85" spans="2:11">
+      <c r="B85" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D85" t="s">
+        <v>157</v>
+      </c>
+      <c r="E85" t="s">
+        <v>282</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="15"/>
         <v>Colin Bischoff                  \\</v>
       </c>
-      <c r="I84">
-        <f t="shared" si="12"/>
+      <c r="I85">
+        <f t="shared" si="16"/>
         <v>14</v>
       </c>
-      <c r="J84">
-        <f t="shared" si="13"/>
+      <c r="J85">
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
-      <c r="K84" t="str">
+      <c r="K85" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">                  </v>
       </c>
     </row>
-    <row r="85" spans="2:11">
-      <c r="B85" t="s">
+    <row r="86" spans="2:11">
+      <c r="B86" t="s">
+        <v>173</v>
+      </c>
+      <c r="C86" t="s">
         <v>174</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D86" t="s">
+        <v>157</v>
+      </c>
+      <c r="E86" t="s">
         <v>175</v>
       </c>
-      <c r="D85" t="s">
-        <v>158</v>
-      </c>
-      <c r="E85" t="s">
-        <v>176</v>
-      </c>
-      <c r="G85" t="str">
-        <f t="shared" si="11"/>
+      <c r="G86" t="str">
+        <f t="shared" si="15"/>
         <v>J. Richard Bond                 \\</v>
       </c>
-      <c r="I85">
-        <f t="shared" si="12"/>
+      <c r="I86">
+        <f t="shared" si="16"/>
         <v>15</v>
       </c>
-      <c r="J85">
-        <f t="shared" si="13"/>
+      <c r="J86">
+        <f t="shared" si="17"/>
         <v>17</v>
       </c>
-      <c r="K85" t="str">
+      <c r="K86" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">                 </v>
-      </c>
-    </row>
-    <row r="86" spans="2:11">
-      <c r="B86" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C86" t="s">
-        <v>195</v>
-      </c>
-      <c r="D86" t="s">
-        <v>158</v>
-      </c>
-      <c r="E86" t="s">
-        <v>84</v>
-      </c>
-      <c r="G86" t="str">
-        <f t="shared" si="11"/>
-        <v>Fran\c{c}ois Bouchet            \\</v>
-      </c>
-      <c r="I86">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="J86">
-        <f t="shared" si="13"/>
-        <v>12</v>
-      </c>
-      <c r="K86" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">            </v>
       </c>
     </row>
     <row r="87" spans="2:11">
       <c r="B87" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C87" t="s">
+        <v>194</v>
+      </c>
+      <c r="D87" t="s">
+        <v>157</v>
+      </c>
+      <c r="E87" t="s">
+        <v>83</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="15"/>
+        <v>Fran\c{c}ois Bouchet            \\</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+      <c r="K87" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">            </v>
+      </c>
+    </row>
+    <row r="88" spans="2:11">
+      <c r="B88" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D87" t="s">
-        <v>158</v>
-      </c>
-      <c r="E87" t="s">
-        <v>281</v>
-      </c>
-      <c r="G87" t="str">
-        <f t="shared" si="11"/>
+      <c r="D88" t="s">
+        <v>157</v>
+      </c>
+      <c r="E88" t="s">
+        <v>280</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="15"/>
         <v>Robert Caldwell                 \\</v>
       </c>
-      <c r="I87">
-        <f t="shared" si="12"/>
+      <c r="I88">
+        <f t="shared" si="16"/>
         <v>15</v>
       </c>
-      <c r="J87">
-        <f t="shared" si="13"/>
+      <c r="J88">
+        <f t="shared" si="17"/>
         <v>17</v>
       </c>
-      <c r="K87" t="str">
+      <c r="K88" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">                 </v>
-      </c>
-    </row>
-    <row r="88" spans="2:11">
-      <c r="B88" t="s">
-        <v>177</v>
-      </c>
-      <c r="C88" t="s">
-        <v>178</v>
-      </c>
-      <c r="D88" t="s">
-        <v>158</v>
-      </c>
-      <c r="E88" t="s">
-        <v>135</v>
-      </c>
-      <c r="G88" t="str">
-        <f t="shared" si="11"/>
-        <v>Xingang Chen                    \\</v>
-      </c>
-      <c r="I88">
-        <f t="shared" si="12"/>
-        <v>12</v>
-      </c>
-      <c r="J88">
-        <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-      <c r="K88" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                    </v>
       </c>
     </row>
     <row r="89" spans="2:11">
       <c r="B89" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C89" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D89" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E89" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="G89" t="str">
-        <f t="shared" si="11"/>
-        <v>Jens Chluba                     \\</v>
+        <f t="shared" si="15"/>
+        <v>Xingang Chen                    \\</v>
       </c>
       <c r="I89">
-        <f t="shared" si="12"/>
-        <v>11</v>
+        <f t="shared" si="16"/>
+        <v>12</v>
       </c>
       <c r="J89">
-        <f t="shared" si="13"/>
-        <v>21</v>
+        <f t="shared" si="17"/>
+        <v>20</v>
       </c>
       <c r="K89" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                    </v>
       </c>
     </row>
     <row r="90" spans="2:11">
       <c r="B90" t="s">
-        <v>182</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
+      </c>
+      <c r="C90" t="s">
+        <v>179</v>
       </c>
       <c r="D90" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E90" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G90" t="str">
-        <f t="shared" si="11"/>
-        <v>Francis-Yan Cyr-Racine          \\</v>
+        <f t="shared" si="15"/>
+        <v>Jens Chluba                     \\</v>
       </c>
       <c r="I90">
-        <f t="shared" si="12"/>
-        <v>22</v>
+        <f t="shared" si="16"/>
+        <v>11</v>
       </c>
       <c r="J90">
-        <f t="shared" si="13"/>
-        <v>10</v>
+        <f t="shared" si="17"/>
+        <v>21</v>
       </c>
       <c r="K90" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">          </v>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="91" spans="2:11">
       <c r="B91" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D91" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E91" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G91" t="str">
-        <f t="shared" si="11"/>
-        <v>Tijmen de Haan                  \\</v>
+        <f t="shared" si="15"/>
+        <v>Francis-Yan Cyr-Racine          \\</v>
       </c>
       <c r="I91">
-        <f t="shared" si="12"/>
-        <v>14</v>
+        <f t="shared" si="16"/>
+        <v>22</v>
       </c>
       <c r="J91">
-        <f t="shared" si="13"/>
-        <v>18</v>
+        <f t="shared" si="17"/>
+        <v>10</v>
       </c>
       <c r="K91" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">          </v>
       </c>
     </row>
     <row r="92" spans="2:11">
       <c r="B92" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D92" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E92" t="s">
-        <v>93</v>
+        <v>186</v>
       </c>
       <c r="G92" t="str">
-        <f t="shared" si="11"/>
-        <v>Aurelien Fraisse                \\</v>
+        <f t="shared" si="15"/>
+        <v>Tijmen de Haan                  \\</v>
       </c>
       <c r="I92">
-        <f t="shared" si="12"/>
-        <v>16</v>
+        <f t="shared" si="16"/>
+        <v>14</v>
       </c>
       <c r="J92">
-        <f t="shared" si="13"/>
-        <v>16</v>
+        <f t="shared" si="17"/>
+        <v>18</v>
       </c>
       <c r="K92" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                </v>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="93" spans="2:11">
       <c r="B93" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D93" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E93" t="s">
-        <v>198</v>
+        <v>92</v>
       </c>
       <c r="G93" t="str">
-        <f t="shared" si="11"/>
-        <v>Silvia Galli                    \\</v>
+        <f t="shared" si="15"/>
+        <v>Aurelien Fraisse                \\</v>
       </c>
       <c r="I93">
-        <f t="shared" si="12"/>
-        <v>12</v>
+        <f t="shared" si="16"/>
+        <v>16</v>
       </c>
       <c r="J93">
-        <f t="shared" si="13"/>
-        <v>20</v>
+        <f t="shared" si="17"/>
+        <v>16</v>
       </c>
       <c r="K93" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">                </v>
       </c>
     </row>
     <row r="94" spans="2:11">
       <c r="B94" t="s">
-        <v>199</v>
-      </c>
-      <c r="C94" t="s">
-        <v>200</v>
+        <v>195</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="D94" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E94" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G94" t="str">
-        <f t="shared" si="11"/>
-        <v>Ken Ganga                       \\</v>
+        <f t="shared" si="15"/>
+        <v>Silvia Galli                    \\</v>
       </c>
       <c r="I94">
-        <f t="shared" si="12"/>
-        <v>9</v>
+        <f t="shared" si="16"/>
+        <v>12</v>
       </c>
       <c r="J94">
-        <f t="shared" si="13"/>
-        <v>23</v>
+        <f t="shared" si="17"/>
+        <v>20</v>
       </c>
       <c r="K94" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                       </v>
+        <v xml:space="preserve">                    </v>
       </c>
     </row>
     <row r="95" spans="2:11">
       <c r="B95" t="s">
-        <v>202</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
+      </c>
+      <c r="C95" t="s">
+        <v>199</v>
       </c>
       <c r="D95" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E95" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G95" t="str">
-        <f t="shared" si="11"/>
-        <v>Tuhin Ghosh                     \\</v>
+        <f t="shared" si="15"/>
+        <v>Ken Ganga                       \\</v>
       </c>
       <c r="I95">
-        <f t="shared" si="12"/>
-        <v>11</v>
+        <f t="shared" si="16"/>
+        <v>9</v>
       </c>
       <c r="J95">
-        <f t="shared" si="13"/>
-        <v>21</v>
+        <f t="shared" si="17"/>
+        <v>23</v>
       </c>
       <c r="K95" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                       </v>
       </c>
     </row>
     <row r="96" spans="2:11">
       <c r="B96" t="s">
-        <v>205</v>
-      </c>
-      <c r="C96" t="s">
-        <v>206</v>
+        <v>201</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="D96" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E96" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G96" t="str">
-        <f t="shared" si="11"/>
-        <v>Jon E. Gudmundsson              \\</v>
+        <f t="shared" si="15"/>
+        <v>Tuhin Ghosh                     \\</v>
       </c>
       <c r="I96">
-        <f t="shared" si="12"/>
-        <v>18</v>
+        <f t="shared" si="16"/>
+        <v>11</v>
       </c>
       <c r="J96">
-        <f t="shared" si="13"/>
-        <v>14</v>
+        <f t="shared" si="17"/>
+        <v>21</v>
       </c>
       <c r="K96" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">              </v>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="97" spans="2:11">
-      <c r="B97" t="s">
-        <v>208</v>
+      <c r="B97" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>209</v>
+        <v>327</v>
       </c>
       <c r="D97" t="s">
-        <v>158</v>
-      </c>
-      <c r="E97" t="s">
-        <v>210</v>
+        <v>157</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="G97" t="str">
-        <f t="shared" si="11"/>
-        <v>Marc Kamionkowski               \\</v>
+        <f t="shared" si="15"/>
+        <v>Sunil Golwara                   \\</v>
       </c>
       <c r="I97">
-        <f t="shared" si="12"/>
-        <v>17</v>
+        <f t="shared" si="16"/>
+        <v>13</v>
       </c>
       <c r="J97">
-        <f t="shared" si="13"/>
-        <v>15</v>
+        <f t="shared" si="17"/>
+        <v>19</v>
       </c>
       <c r="K97" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">               </v>
+        <v xml:space="preserve">                   </v>
       </c>
     </row>
     <row r="98" spans="2:11">
       <c r="B98" t="s">
-        <v>211</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
+      </c>
+      <c r="C98" t="s">
+        <v>205</v>
       </c>
       <c r="D98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E98" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G98" t="str">
-        <f t="shared" si="11"/>
-        <v>Reijo Keskitalo                 \\</v>
+        <f t="shared" si="15"/>
+        <v>Jon E. Gudmundsson              \\</v>
       </c>
       <c r="I98">
-        <f t="shared" si="12"/>
-        <v>15</v>
+        <f t="shared" si="16"/>
+        <v>18</v>
       </c>
       <c r="J98">
-        <f t="shared" si="13"/>
-        <v>17</v>
+        <f t="shared" si="17"/>
+        <v>14</v>
       </c>
       <c r="K98" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">              </v>
       </c>
     </row>
     <row r="99" spans="2:11">
-      <c r="B99" t="s">
-        <v>214</v>
+      <c r="B99" s="1" t="s">
+        <v>329</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>215</v>
+        <v>330</v>
       </c>
       <c r="D99" t="s">
-        <v>158</v>
-      </c>
-      <c r="E99" t="s">
-        <v>216</v>
+        <v>157</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>326</v>
       </c>
       <c r="G99" t="str">
-        <f t="shared" si="11"/>
-        <v>Rishi Khatri                    \\</v>
+        <f t="shared" si="15"/>
+        <v>Kevin M. Huffenberger           \\</v>
       </c>
       <c r="I99">
-        <f t="shared" si="12"/>
-        <v>12</v>
+        <f t="shared" si="16"/>
+        <v>21</v>
       </c>
       <c r="J99">
-        <f t="shared" si="13"/>
-        <v>20</v>
+        <f t="shared" si="17"/>
+        <v>11</v>
       </c>
       <c r="K99" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">           </v>
       </c>
     </row>
     <row r="100" spans="2:11">
       <c r="B100" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D100" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E100" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G100" t="str">
-        <f t="shared" si="11"/>
-        <v>Ely Kovetz                      \\</v>
+        <f t="shared" si="15"/>
+        <v>Marc Kamionkowski               \\</v>
       </c>
       <c r="I100">
-        <f t="shared" si="12"/>
-        <v>10</v>
+        <f t="shared" si="16"/>
+        <v>17</v>
       </c>
       <c r="J100">
-        <f t="shared" si="13"/>
-        <v>22</v>
+        <f t="shared" si="17"/>
+        <v>15</v>
       </c>
       <c r="K100" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                      </v>
+        <v xml:space="preserve">               </v>
       </c>
     </row>
     <row r="101" spans="2:11">
       <c r="B101" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D101" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E101" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="G101" t="str">
-        <f t="shared" si="11"/>
-        <v>Daniel Lenz                     \\</v>
+        <f t="shared" si="15"/>
+        <v>Reijo Keskitalo                 \\</v>
       </c>
       <c r="I101">
-        <f t="shared" si="12"/>
-        <v>11</v>
+        <f t="shared" si="16"/>
+        <v>15</v>
       </c>
       <c r="J101">
-        <f t="shared" si="13"/>
-        <v>21</v>
+        <f t="shared" si="17"/>
+        <v>17</v>
       </c>
       <c r="K101" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                 </v>
       </c>
     </row>
     <row r="102" spans="2:11">
       <c r="B102" t="s">
-        <v>222</v>
-      </c>
-      <c r="C102" t="s">
-        <v>223</v>
+        <v>213</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="D102" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E102" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="G102" t="str">
-        <f t="shared" si="11"/>
-        <v>Marilena Loverde                \\</v>
+        <f t="shared" si="15"/>
+        <v>Rishi Khatri                    \\</v>
       </c>
       <c r="I102">
-        <f t="shared" si="12"/>
-        <v>16</v>
+        <f t="shared" si="16"/>
+        <v>12</v>
       </c>
       <c r="J102">
-        <f t="shared" si="13"/>
-        <v>16</v>
+        <f t="shared" si="17"/>
+        <v>20</v>
       </c>
       <c r="K102" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                </v>
+        <v xml:space="preserve">                    </v>
       </c>
     </row>
     <row r="103" spans="2:11">
       <c r="B103" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D103" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E103" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="G103" t="str">
-        <f t="shared" si="11"/>
-        <v>Carlos Martins                  \\</v>
+        <f t="shared" si="15"/>
+        <v>Ely Kovetz                      \\</v>
       </c>
       <c r="I103">
-        <f t="shared" si="12"/>
-        <v>14</v>
+        <f t="shared" si="16"/>
+        <v>10</v>
       </c>
       <c r="J103">
-        <f t="shared" si="13"/>
-        <v>18</v>
+        <f t="shared" si="17"/>
+        <v>22</v>
       </c>
       <c r="K103" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                      </v>
       </c>
     </row>
     <row r="104" spans="2:11">
       <c r="B104" t="s">
-        <v>196</v>
-      </c>
-      <c r="C104" t="s">
-        <v>228</v>
+        <v>218</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="D104" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E104" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="G104" t="str">
-        <f t="shared" si="11"/>
-        <v>Silvia Masi                     \\</v>
+        <f t="shared" si="15"/>
+        <v>Daniel Lenz                     \\</v>
       </c>
       <c r="I104">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
       <c r="J104">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>21</v>
       </c>
       <c r="K104" t="str">
@@ -4214,178 +4244,178 @@
       </c>
     </row>
     <row r="105" spans="2:11">
-      <c r="B105" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>298</v>
+      <c r="B105" t="s">
+        <v>221</v>
+      </c>
+      <c r="C105" t="s">
+        <v>222</v>
       </c>
       <c r="D105" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E105" t="s">
-        <v>285</v>
+        <v>223</v>
       </c>
       <c r="G105" t="str">
-        <f t="shared" si="11"/>
-        <v>Joel Meyers                     \\</v>
+        <f t="shared" si="15"/>
+        <v>Marilena Loverde                \\</v>
       </c>
       <c r="I105">
-        <f t="shared" si="12"/>
-        <v>11</v>
+        <f t="shared" si="16"/>
+        <v>16</v>
       </c>
       <c r="J105">
-        <f t="shared" si="13"/>
-        <v>21</v>
+        <f t="shared" si="17"/>
+        <v>16</v>
       </c>
       <c r="K105" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                </v>
       </c>
     </row>
     <row r="106" spans="2:11">
       <c r="B106" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D106" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E106" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G106" t="str">
-        <f t="shared" si="11"/>
-        <v>Lorenzo Moncelsi                \\</v>
+        <f t="shared" si="15"/>
+        <v>Carlos Martins                  \\</v>
       </c>
       <c r="I106">
-        <f t="shared" si="12"/>
-        <v>16</v>
+        <f t="shared" si="16"/>
+        <v>14</v>
       </c>
       <c r="J106">
-        <f t="shared" si="13"/>
-        <v>16</v>
+        <f t="shared" si="17"/>
+        <v>18</v>
       </c>
       <c r="K106" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                </v>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="107" spans="2:11">
       <c r="B107" t="s">
-        <v>233</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>234</v>
+        <v>195</v>
+      </c>
+      <c r="C107" t="s">
+        <v>227</v>
       </c>
       <c r="D107" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E107" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G107" t="str">
-        <f t="shared" si="11"/>
-        <v>Pavel Motloch                   \\</v>
+        <f t="shared" si="15"/>
+        <v>Silvia Masi                     \\</v>
       </c>
       <c r="I107">
-        <f t="shared" si="12"/>
-        <v>13</v>
+        <f t="shared" si="16"/>
+        <v>11</v>
       </c>
       <c r="J107">
-        <f t="shared" si="13"/>
-        <v>19</v>
+        <f t="shared" si="17"/>
+        <v>21</v>
       </c>
       <c r="K107" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="108" spans="2:11">
-      <c r="B108" t="s">
-        <v>236</v>
+      <c r="B108" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>237</v>
+        <v>297</v>
       </c>
       <c r="D108" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E108" t="s">
-        <v>238</v>
+        <v>284</v>
       </c>
       <c r="G108" t="str">
-        <f t="shared" si="11"/>
-        <v>Tony Mroczkowski                \\</v>
+        <f t="shared" si="15"/>
+        <v>Joel Meyers                     \\</v>
       </c>
       <c r="I108">
-        <f t="shared" si="12"/>
-        <v>16</v>
+        <f t="shared" si="16"/>
+        <v>11</v>
       </c>
       <c r="J108">
-        <f t="shared" si="13"/>
-        <v>16</v>
+        <f t="shared" si="17"/>
+        <v>21</v>
       </c>
       <c r="K108" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                </v>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="109" spans="2:11">
       <c r="B109" t="s">
-        <v>233</v>
-      </c>
-      <c r="C109" t="s">
-        <v>239</v>
+        <v>229</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="D109" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E109" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="G109" t="str">
-        <f t="shared" si="11"/>
-        <v>Pavel Naselsky                  \\</v>
+        <f t="shared" si="15"/>
+        <v>Lorenzo Moncelsi                \\</v>
       </c>
       <c r="I109">
-        <f t="shared" si="12"/>
-        <v>14</v>
+        <f t="shared" si="16"/>
+        <v>16</v>
       </c>
       <c r="J109">
-        <f t="shared" si="13"/>
-        <v>18</v>
+        <f t="shared" si="17"/>
+        <v>16</v>
       </c>
       <c r="K109" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                </v>
       </c>
     </row>
     <row r="110" spans="2:11">
       <c r="B110" t="s">
-        <v>168</v>
+        <v>232</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D110" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E110" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="G110" t="str">
-        <f t="shared" si="11"/>
-        <v>Federico Nati                   \\</v>
+        <f t="shared" si="15"/>
+        <v>Pavel Motloch                   \\</v>
       </c>
       <c r="I110">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>13</v>
       </c>
       <c r="J110">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>19</v>
       </c>
       <c r="K110" t="str">
@@ -4395,297 +4425,297 @@
     </row>
     <row r="111" spans="2:11">
       <c r="B111" t="s">
-        <v>243</v>
-      </c>
-      <c r="C111" t="s">
-        <v>244</v>
+        <v>235</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="D111" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E111" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="G111" t="str">
-        <f t="shared" si="11"/>
-        <v>Elena Orlando                   \\</v>
+        <f t="shared" si="15"/>
+        <v>Tony Mroczkowski                \\</v>
       </c>
       <c r="I111">
-        <f t="shared" si="12"/>
-        <v>13</v>
+        <f t="shared" si="16"/>
+        <v>16</v>
       </c>
       <c r="J111">
-        <f t="shared" si="13"/>
-        <v>19</v>
+        <f t="shared" si="17"/>
+        <v>16</v>
       </c>
       <c r="K111" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">                </v>
       </c>
     </row>
     <row r="112" spans="2:11">
-      <c r="B112" s="1" t="s">
-        <v>193</v>
+      <c r="B112" t="s">
+        <v>232</v>
       </c>
       <c r="C112" t="s">
-        <v>192</v>
+        <v>238</v>
       </c>
       <c r="D112" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E112" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="G112" t="str">
-        <f t="shared" si="11"/>
-        <v>Francesco Piacentini            \\</v>
+        <f t="shared" si="15"/>
+        <v>Pavel Naselsky                  \\</v>
       </c>
       <c r="I112">
-        <f t="shared" si="12"/>
-        <v>20</v>
+        <f t="shared" si="16"/>
+        <v>14</v>
       </c>
       <c r="J112">
-        <f t="shared" si="13"/>
-        <v>12</v>
+        <f t="shared" si="17"/>
+        <v>18</v>
       </c>
       <c r="K112" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="113" spans="2:11">
       <c r="B113" t="s">
-        <v>246</v>
+        <v>167</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D113" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E113" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="G113" t="str">
-        <f t="shared" si="11"/>
-        <v>Giuseppe Puglisi                \\</v>
+        <f t="shared" si="15"/>
+        <v>Federico Nati                   \\</v>
       </c>
       <c r="I113">
-        <f t="shared" si="12"/>
-        <v>16</v>
+        <f t="shared" si="16"/>
+        <v>13</v>
       </c>
       <c r="J113">
-        <f t="shared" si="13"/>
-        <v>16</v>
+        <f t="shared" si="17"/>
+        <v>19</v>
       </c>
       <c r="K113" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                </v>
+        <v xml:space="preserve">                   </v>
       </c>
     </row>
     <row r="114" spans="2:11">
-      <c r="B114" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>321</v>
+      <c r="B114" t="s">
+        <v>242</v>
+      </c>
+      <c r="C114" t="s">
+        <v>243</v>
       </c>
       <c r="D114" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E114" t="s">
-        <v>320</v>
+        <v>244</v>
       </c>
       <c r="G114" t="str">
-        <f t="shared" si="11"/>
-        <v>Benjamin Racine                 \\</v>
+        <f t="shared" si="15"/>
+        <v>Elena Orlando                   \\</v>
       </c>
       <c r="I114">
-        <f t="shared" si="12"/>
-        <v>15</v>
+        <f t="shared" si="16"/>
+        <v>13</v>
       </c>
       <c r="J114">
-        <f t="shared" si="13"/>
-        <v>17</v>
+        <f t="shared" si="17"/>
+        <v>19</v>
       </c>
       <c r="K114" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">                   </v>
       </c>
     </row>
     <row r="115" spans="2:11">
-      <c r="B115" t="s">
-        <v>249</v>
+      <c r="B115" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="C115" t="s">
-        <v>250</v>
+        <v>191</v>
       </c>
       <c r="D115" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E115" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="G115" t="str">
-        <f t="shared" si="11"/>
-        <v>Christian Reichardt             \\</v>
+        <f t="shared" si="15"/>
+        <v>Francesco Piacentini            \\</v>
       </c>
       <c r="I115">
-        <f t="shared" si="12"/>
-        <v>19</v>
+        <f t="shared" si="16"/>
+        <v>20</v>
       </c>
       <c r="J115">
-        <f t="shared" si="13"/>
-        <v>13</v>
+        <f t="shared" si="17"/>
+        <v>12</v>
       </c>
       <c r="K115" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">             </v>
+        <v xml:space="preserve">            </v>
       </c>
     </row>
     <row r="116" spans="2:11">
       <c r="B116" t="s">
+        <v>245</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D116" t="s">
+        <v>157</v>
+      </c>
+      <c r="E116" t="s">
+        <v>247</v>
+      </c>
+      <c r="G116" t="str">
+        <f t="shared" si="15"/>
+        <v>Giuseppe Puglisi                \\</v>
+      </c>
+      <c r="I116">
+        <f t="shared" si="16"/>
+        <v>16</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="17"/>
+        <v>16</v>
+      </c>
+      <c r="K116" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                </v>
+      </c>
+    </row>
+    <row r="117" spans="2:11">
+      <c r="B117" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D117" t="s">
+        <v>157</v>
+      </c>
+      <c r="E117" t="s">
+        <v>319</v>
+      </c>
+      <c r="G117" t="str">
+        <f t="shared" si="15"/>
+        <v>Benjamin Racine                 \\</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="16"/>
+        <v>15</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="17"/>
+        <v>17</v>
+      </c>
+      <c r="K117" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                 </v>
+      </c>
+    </row>
+    <row r="118" spans="2:11">
+      <c r="B118" t="s">
+        <v>248</v>
+      </c>
+      <c r="C118" t="s">
+        <v>249</v>
+      </c>
+      <c r="D118" t="s">
+        <v>157</v>
+      </c>
+      <c r="E118" t="s">
+        <v>169</v>
+      </c>
+      <c r="G118" t="str">
+        <f t="shared" si="15"/>
+        <v>Christian Reichardt             \\</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="16"/>
+        <v>19</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="17"/>
+        <v>13</v>
+      </c>
+      <c r="K118" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">             </v>
+      </c>
+    </row>
+    <row r="119" spans="2:11">
+      <c r="B119" t="s">
+        <v>250</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="D119" t="s">
+        <v>157</v>
+      </c>
+      <c r="E119" t="s">
         <v>252</v>
       </c>
-      <c r="D116" t="s">
-        <v>158</v>
-      </c>
-      <c r="E116" t="s">
-        <v>253</v>
-      </c>
-      <c r="G116" t="str">
-        <f t="shared" si="11"/>
+      <c r="G119" t="str">
+        <f t="shared" si="15"/>
         <v>Anirban Roy                     \\</v>
       </c>
-      <c r="I116">
-        <f t="shared" si="12"/>
+      <c r="I119">
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
-      <c r="J116">
-        <f t="shared" si="13"/>
+      <c r="J119">
+        <f t="shared" si="17"/>
         <v>21</v>
       </c>
-      <c r="K116" t="str">
+      <c r="K119" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">                     </v>
-      </c>
-    </row>
-    <row r="117" spans="2:11">
-      <c r="B117" t="s">
-        <v>254</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D117" t="s">
-        <v>158</v>
-      </c>
-      <c r="E117" t="s">
-        <v>256</v>
-      </c>
-      <c r="G117" t="str">
-        <f t="shared" si="11"/>
-        <v>Maria Salatino                  \\</v>
-      </c>
-      <c r="I117">
-        <f t="shared" si="12"/>
-        <v>14</v>
-      </c>
-      <c r="J117">
-        <f t="shared" si="13"/>
-        <v>18</v>
-      </c>
-      <c r="K117" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                  </v>
-      </c>
-    </row>
-    <row r="118" spans="2:11">
-      <c r="B118" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D118" t="s">
-        <v>158</v>
-      </c>
-      <c r="E118" t="s">
-        <v>280</v>
-      </c>
-      <c r="G118" t="str">
-        <f t="shared" si="11"/>
-        <v>Benjamin Saliwanchik            \\</v>
-      </c>
-      <c r="I118">
-        <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="J118">
-        <f t="shared" si="13"/>
-        <v>12</v>
-      </c>
-      <c r="K118" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">            </v>
-      </c>
-    </row>
-    <row r="119" spans="2:11">
-      <c r="B119" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D119" t="s">
-        <v>158</v>
-      </c>
-      <c r="E119" t="s">
-        <v>224</v>
-      </c>
-      <c r="G119" t="str">
-        <f t="shared" si="11"/>
-        <v>Neelima Sehgal                  \\</v>
-      </c>
-      <c r="I119">
-        <f t="shared" si="12"/>
-        <v>14</v>
-      </c>
-      <c r="J119">
-        <f t="shared" si="13"/>
-        <v>18</v>
-      </c>
-      <c r="K119" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="120" spans="2:11">
       <c r="B120" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D120" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E120" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G120" t="str">
-        <f t="shared" si="11"/>
-        <v>Sarah Shandera                  \\</v>
+        <f t="shared" si="15"/>
+        <v>Maria Salatino                  \\</v>
       </c>
       <c r="I120">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>14</v>
       </c>
       <c r="J120">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="K120" t="str">
@@ -4694,208 +4724,208 @@
       </c>
     </row>
     <row r="121" spans="2:11">
-      <c r="B121" t="s">
-        <v>188</v>
-      </c>
-      <c r="C121" t="s">
-        <v>319</v>
+      <c r="B121" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>290</v>
       </c>
       <c r="D121" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E121" t="s">
-        <v>189</v>
+        <v>279</v>
       </c>
       <c r="G121" t="str">
-        <f t="shared" si="11"/>
-        <v>Erik Shirokoff                  \\</v>
+        <f t="shared" si="15"/>
+        <v>Benjamin Saliwanchik            \\</v>
       </c>
       <c r="I121">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+      <c r="K121" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">            </v>
+      </c>
+    </row>
+    <row r="122" spans="2:11">
+      <c r="B122" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D122" t="s">
+        <v>157</v>
+      </c>
+      <c r="E122" t="s">
+        <v>223</v>
+      </c>
+      <c r="G122" t="str">
+        <f t="shared" si="15"/>
+        <v>Neelima Sehgal                  \\</v>
+      </c>
+      <c r="I122">
+        <f t="shared" si="16"/>
         <v>14</v>
       </c>
-      <c r="J121">
-        <f t="shared" si="13"/>
+      <c r="J122">
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
-      <c r="K121" t="str">
+      <c r="K122" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">                  </v>
-      </c>
-    </row>
-    <row r="122" spans="2:11">
-      <c r="B122" t="s">
-        <v>260</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D122" t="s">
-        <v>158</v>
-      </c>
-      <c r="E122" t="s">
-        <v>262</v>
-      </c>
-      <c r="G122" t="str">
-        <f t="shared" si="11"/>
-        <v>An\v{z}e Slosar                 \\</v>
-      </c>
-      <c r="I122">
-        <f t="shared" si="12"/>
-        <v>15</v>
-      </c>
-      <c r="J122">
-        <f t="shared" si="13"/>
-        <v>17</v>
-      </c>
-      <c r="K122" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                 </v>
       </c>
     </row>
     <row r="123" spans="2:11">
       <c r="B123" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D123" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E123" t="s">
+        <v>258</v>
+      </c>
+      <c r="G123" t="str">
+        <f t="shared" si="15"/>
+        <v>Sarah Shandera                  \\</v>
+      </c>
+      <c r="I123">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="17"/>
+        <v>18</v>
+      </c>
+      <c r="K123" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                  </v>
+      </c>
+    </row>
+    <row r="124" spans="2:11">
+      <c r="B124" t="s">
         <v>187</v>
       </c>
-      <c r="G123" t="str">
-        <f t="shared" si="11"/>
-        <v>Aritoki Suzuki                  \\</v>
-      </c>
-      <c r="I123">
-        <f t="shared" si="12"/>
+      <c r="C124" t="s">
+        <v>318</v>
+      </c>
+      <c r="D124" t="s">
+        <v>157</v>
+      </c>
+      <c r="E124" t="s">
+        <v>188</v>
+      </c>
+      <c r="G124" t="str">
+        <f t="shared" si="15"/>
+        <v>Erik Shirokoff                  \\</v>
+      </c>
+      <c r="I124">
+        <f t="shared" si="16"/>
         <v>14</v>
       </c>
-      <c r="J123">
-        <f t="shared" si="13"/>
+      <c r="J124">
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
-      <c r="K123" t="str">
+      <c r="K124" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">                  </v>
       </c>
     </row>
-    <row r="124" spans="2:11">
-      <c r="B124" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D124" t="s">
-        <v>158</v>
-      </c>
-      <c r="E124" t="s">
-        <v>286</v>
-      </c>
-      <c r="G124" t="str">
-        <f t="shared" si="11"/>
-        <v>Eric Switzer                    \\</v>
-      </c>
-      <c r="I124">
-        <f t="shared" si="12"/>
-        <v>12</v>
-      </c>
-      <c r="J124">
-        <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-      <c r="K124" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                    </v>
-      </c>
-    </row>
     <row r="125" spans="2:11">
-      <c r="B125" s="1" t="s">
-        <v>154</v>
+      <c r="B125" t="s">
+        <v>259</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="D125" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E125" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="G125" t="str">
-        <f t="shared" si="11"/>
-        <v>Andrea Tartari                  \\</v>
+        <f t="shared" si="15"/>
+        <v>An\v{z}e Slosar                 \\</v>
       </c>
       <c r="I125">
-        <f t="shared" si="12"/>
-        <v>14</v>
+        <f t="shared" si="16"/>
+        <v>15</v>
       </c>
       <c r="J125">
-        <f t="shared" si="13"/>
-        <v>18</v>
+        <f t="shared" si="17"/>
+        <v>17</v>
       </c>
       <c r="K125" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                 </v>
       </c>
     </row>
     <row r="126" spans="2:11">
       <c r="B126" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D126" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E126" t="s">
-        <v>267</v>
+        <v>186</v>
       </c>
       <c r="G126" t="str">
-        <f t="shared" si="11"/>
-        <v>Grant Teply                     \\</v>
+        <f t="shared" si="15"/>
+        <v>Aritoki Suzuki                  \\</v>
       </c>
       <c r="I126">
-        <f t="shared" si="12"/>
-        <v>11</v>
+        <f t="shared" si="16"/>
+        <v>14</v>
       </c>
       <c r="J126">
-        <f t="shared" si="13"/>
-        <v>21</v>
+        <f t="shared" si="17"/>
+        <v>18</v>
       </c>
       <c r="K126" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="127" spans="2:11">
       <c r="B127" s="1" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D127" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E127" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G127" t="str">
-        <f t="shared" si="11"/>
-        <v>Peter Timbie                    \\</v>
+        <f t="shared" si="15"/>
+        <v>Eric Switzer                    \\</v>
       </c>
       <c r="I127">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
       <c r="J127">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="K127" t="str">
@@ -4904,240 +4934,286 @@
       </c>
     </row>
     <row r="128" spans="2:11">
-      <c r="B128" t="s">
-        <v>268</v>
+      <c r="B128" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="D128" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E128" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="G128" t="str">
-        <f t="shared" si="11"/>
-        <v>Matthieu Tristram               \\</v>
+        <f t="shared" si="15"/>
+        <v>Andrea Tartari                  \\</v>
       </c>
       <c r="I128">
-        <f t="shared" si="12"/>
-        <v>17</v>
+        <f t="shared" si="16"/>
+        <v>14</v>
       </c>
       <c r="J128">
-        <f t="shared" si="13"/>
-        <v>15</v>
+        <f t="shared" si="17"/>
+        <v>18</v>
       </c>
       <c r="K128" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">               </v>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="129" spans="2:11">
-      <c r="B129" s="1" t="s">
-        <v>322</v>
+      <c r="B129" t="s">
+        <v>264</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>323</v>
+        <v>265</v>
       </c>
       <c r="D129" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E129" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="G129" t="str">
-        <f t="shared" si="11"/>
-        <v>Caterina Umilt\`{a}             \\</v>
+        <f t="shared" si="15"/>
+        <v>Grant Teply                     \\</v>
       </c>
       <c r="I129">
-        <f t="shared" si="12"/>
-        <v>19</v>
+        <f t="shared" si="16"/>
+        <v>11</v>
       </c>
       <c r="J129">
-        <f t="shared" si="13"/>
-        <v>13</v>
+        <f t="shared" si="17"/>
+        <v>21</v>
       </c>
       <c r="K129" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">             </v>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="130" spans="2:11">
       <c r="B130" s="1" t="s">
-        <v>290</v>
+        <v>9</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="D130" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E130" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="G130" t="str">
-        <f t="shared" si="11"/>
-        <v>Benjamin Wallisch               \\</v>
+        <f t="shared" si="15"/>
+        <v>Peter Timbie                    \\</v>
       </c>
       <c r="I130">
-        <f t="shared" si="12"/>
-        <v>17</v>
+        <f t="shared" si="16"/>
+        <v>12</v>
       </c>
       <c r="J130">
-        <f t="shared" si="13"/>
-        <v>15</v>
+        <f t="shared" si="17"/>
+        <v>20</v>
       </c>
       <c r="K130" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">               </v>
+        <v xml:space="preserve">                    </v>
       </c>
     </row>
     <row r="131" spans="2:11">
       <c r="B131" t="s">
+        <v>267</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D131" t="s">
+        <v>157</v>
+      </c>
+      <c r="E131" t="s">
+        <v>269</v>
+      </c>
+      <c r="G131" t="str">
+        <f t="shared" si="15"/>
+        <v>Matthieu Tristram               \\</v>
+      </c>
+      <c r="I131">
+        <f t="shared" si="16"/>
+        <v>17</v>
+      </c>
+      <c r="J131">
+        <f t="shared" si="17"/>
+        <v>15</v>
+      </c>
+      <c r="K131" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">               </v>
+      </c>
+    </row>
+    <row r="132" spans="2:11">
+      <c r="B132" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D132" t="s">
+        <v>157</v>
+      </c>
+      <c r="E132" t="s">
+        <v>282</v>
+      </c>
+      <c r="G132" t="str">
+        <f t="shared" si="15"/>
+        <v>Caterina Umilt\`{a}             \\</v>
+      </c>
+      <c r="I132">
+        <f t="shared" si="16"/>
+        <v>19</v>
+      </c>
+      <c r="J132">
+        <f t="shared" si="17"/>
+        <v>13</v>
+      </c>
+      <c r="K132" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">             </v>
+      </c>
+    </row>
+    <row r="133" spans="2:11">
+      <c r="B133" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D133" t="s">
+        <v>157</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G133" t="str">
+        <f t="shared" si="15"/>
+        <v>Patricio Vielva                 \\</v>
+      </c>
+      <c r="I133">
+        <f t="shared" si="16"/>
+        <v>15</v>
+      </c>
+      <c r="J133">
+        <f t="shared" si="17"/>
+        <v>17</v>
+      </c>
+      <c r="K133" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                 </v>
+      </c>
+    </row>
+    <row r="134" spans="2:11">
+      <c r="B134" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D134" t="s">
+        <v>157</v>
+      </c>
+      <c r="E134" t="s">
+        <v>281</v>
+      </c>
+      <c r="G134" t="str">
+        <f t="shared" ref="G134:G136" si="18">CONCATENATE(B134," ",C134,K134,"\\")</f>
+        <v>Benjamin Wallisch               \\</v>
+      </c>
+      <c r="I134">
+        <f t="shared" ref="I134:I136" si="19">LEN(B134) + LEN(C134) +1</f>
+        <v>17</v>
+      </c>
+      <c r="J134">
+        <f t="shared" ref="J134:J136" si="20">IF(I134&lt;30,(32-I134),3)</f>
+        <v>15</v>
+      </c>
+      <c r="K134" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">               </v>
+      </c>
+    </row>
+    <row r="135" spans="2:11">
+      <c r="B135" t="s">
+        <v>270</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="D135" t="s">
+        <v>157</v>
+      </c>
+      <c r="E135" t="s">
         <v>272</v>
       </c>
-      <c r="D131" t="s">
-        <v>158</v>
-      </c>
-      <c r="E131" t="s">
+      <c r="G135" t="str">
+        <f t="shared" si="18"/>
+        <v>Scott Watson                    \\</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="19"/>
+        <v>12</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="20"/>
+        <v>20</v>
+      </c>
+      <c r="K135" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+    </row>
+    <row r="136" spans="2:11">
+      <c r="B136" t="s">
         <v>273</v>
       </c>
-      <c r="G131" t="str">
-        <f t="shared" si="11"/>
-        <v>Scott Watson                    \\</v>
-      </c>
-      <c r="I131">
-        <f t="shared" si="12"/>
-        <v>12</v>
-      </c>
-      <c r="J131">
-        <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-      <c r="K131" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                    </v>
-      </c>
-    </row>
-    <row r="132" spans="2:11">
-      <c r="B132" t="s">
+      <c r="C136" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C132" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D132" t="s">
-        <v>158</v>
-      </c>
-      <c r="E132" t="s">
-        <v>60</v>
-      </c>
-      <c r="G132" t="str">
-        <f t="shared" si="11"/>
+      <c r="D136" t="s">
+        <v>157</v>
+      </c>
+      <c r="E136" t="s">
+        <v>59</v>
+      </c>
+      <c r="G136" t="str">
+        <f t="shared" si="18"/>
         <v>Edward J. Wollack               \\</v>
       </c>
-      <c r="I132">
-        <f t="shared" si="12"/>
+      <c r="I136">
+        <f t="shared" si="19"/>
         <v>17</v>
       </c>
-      <c r="J132">
-        <f t="shared" si="13"/>
+      <c r="J136">
+        <f t="shared" si="20"/>
         <v>15</v>
       </c>
-      <c r="K132" t="str">
+      <c r="K136" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">               </v>
-      </c>
-    </row>
-    <row r="133" spans="2:11">
-      <c r="B133" s="3"/>
-      <c r="C133"/>
-      <c r="G133" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I133">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J133">
-        <f t="shared" si="10"/>
-        <v>31</v>
-      </c>
-      <c r="K133" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="134" spans="2:11">
-      <c r="G134" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I134">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J134">
-        <f t="shared" si="10"/>
-        <v>31</v>
-      </c>
-      <c r="K134" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="135" spans="2:11">
-      <c r="G135" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I135">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J135">
-        <f t="shared" si="10"/>
-        <v>31</v>
-      </c>
-      <c r="K135" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="136" spans="2:11">
-      <c r="G136" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I136">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J136">
-        <f t="shared" si="10"/>
-        <v>31</v>
-      </c>
-      <c r="K136" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="137" spans="2:11">
       <c r="G137" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I137">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="J137">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>31</v>
       </c>
       <c r="K137" t="str">
@@ -5147,15 +5223,15 @@
     </row>
     <row r="138" spans="2:11">
       <c r="G138" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I138">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="J138">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>31</v>
       </c>
       <c r="K138" t="str">
@@ -5164,782 +5240,803 @@
       </c>
     </row>
     <row r="139" spans="2:11">
-      <c r="B139" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C139" t="s">
-        <v>149</v>
-      </c>
-      <c r="D139" t="s">
-        <v>158</v>
-      </c>
       <c r="G139" t="str">
-        <f t="shared" ref="G139:G180" si="14">CONCATENATE(B139," ",C139,K139,"\\")</f>
-        <v>Martin White                    \\</v>
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I139">
-        <f t="shared" ref="I139:I180" si="15">LEN(B139) + LEN(C139) +1</f>
-        <v>12</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="J139">
-        <f t="shared" ref="J139:J180" si="16">IF(I139&lt;30,(32-I139),3)</f>
-        <v>20</v>
+        <f t="shared" si="14"/>
+        <v>31</v>
       </c>
       <c r="K139" t="str">
-        <f t="shared" ref="K139:K180" si="17">REPT(" ",J139)</f>
-        <v xml:space="preserve">                    </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="140" spans="2:11">
       <c r="B140" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>27</v>
+        <v>147</v>
+      </c>
+      <c r="C140" t="s">
+        <v>148</v>
       </c>
       <c r="D140" t="s">
-        <v>8</v>
+        <v>157</v>
       </c>
       <c r="G140" t="str">
-        <f>CONCATENATE(B140," ",C140,K140,"\\")</f>
-        <v>Kim Boddy                       \\</v>
+        <f t="shared" ref="G140:G181" si="21">CONCATENATE(B140," ",C140,K140,"\\")</f>
+        <v>Martin White                    \\</v>
       </c>
       <c r="I140">
-        <f>LEN(B140) + LEN(C140) +1</f>
-        <v>9</v>
+        <f t="shared" ref="I140:I181" si="22">LEN(B140) + LEN(C140) +1</f>
+        <v>12</v>
       </c>
       <c r="J140">
-        <f>IF(I140&lt;30,(32-I140),3)</f>
-        <v>23</v>
+        <f t="shared" ref="J140:J181" si="23">IF(I140&lt;30,(32-I140),3)</f>
+        <v>20</v>
       </c>
       <c r="K140" t="str">
-        <f>REPT(" ",J140)</f>
-        <v xml:space="preserve">                       </v>
+        <f t="shared" ref="K140:K181" si="24">REPT(" ",J140)</f>
+        <v xml:space="preserve">                    </v>
       </c>
     </row>
     <row r="141" spans="2:11">
       <c r="G141" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">                                \\</v>
+        <f>CONCATENATE(B134," ",E134,K141,"\\")</f>
+        <v>Benjamin Institute for Advanced Study/University of California, San Diego   \\</v>
       </c>
       <c r="I141">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f>LEN(B134) + LEN(E134) +1</f>
+        <v>73</v>
       </c>
       <c r="J141">
-        <f t="shared" si="16"/>
-        <v>31</v>
+        <f>IF(I141&lt;30,(32-I141),3)</f>
+        <v>3</v>
       </c>
       <c r="K141" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">                               </v>
+        <f>REPT(" ",J141)</f>
+        <v xml:space="preserve">   </v>
       </c>
     </row>
     <row r="142" spans="2:11">
       <c r="G142" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">                                \\</v>
+        <f>CONCATENATE(B136," ",E136,K142,"\\")</f>
+        <v>Edward J. NASA Goddard Space Flight Center   \\</v>
       </c>
       <c r="I142">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f>LEN(B136) + LEN(E136) +1</f>
+        <v>42</v>
       </c>
       <c r="J142">
-        <f t="shared" si="16"/>
-        <v>31</v>
+        <f t="shared" si="23"/>
+        <v>3</v>
       </c>
       <c r="K142" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">                               </v>
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">   </v>
       </c>
     </row>
     <row r="143" spans="2:11">
+      <c r="B143" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D143" t="s">
+        <v>8</v>
+      </c>
+      <c r="E143" t="s">
+        <v>325</v>
+      </c>
       <c r="G143" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">                                \\</v>
+        <f t="shared" si="21"/>
+        <v>Kimberly K. Boddy Johns Hopkins University   \\</v>
       </c>
       <c r="I143">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f t="shared" si="22"/>
+        <v>42</v>
       </c>
       <c r="J143">
-        <f t="shared" si="16"/>
-        <v>31</v>
+        <f t="shared" si="23"/>
+        <v>3</v>
       </c>
       <c r="K143" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">                               </v>
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">   </v>
       </c>
     </row>
     <row r="144" spans="2:11">
       <c r="G144" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">                                \\</v>
+        <f>CONCATENATE(B135," ",E135,K144,"\\")</f>
+        <v>Scott Syracuse                  \\</v>
       </c>
       <c r="I144">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f>LEN(B135) + LEN(E135) +1</f>
+        <v>14</v>
       </c>
       <c r="J144">
-        <f t="shared" si="16"/>
-        <v>31</v>
+        <f t="shared" si="23"/>
+        <v>18</v>
       </c>
       <c r="K144" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">                               </v>
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="145" spans="7:11">
       <c r="G145" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I145">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J145">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>31</v>
       </c>
       <c r="K145" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="146" spans="7:11">
       <c r="G146" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I146">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J146">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>31</v>
       </c>
       <c r="K146" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="147" spans="7:11">
       <c r="G147" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I147">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J147">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>31</v>
       </c>
       <c r="K147" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="148" spans="7:11">
       <c r="G148" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I148">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J148">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>31</v>
       </c>
       <c r="K148" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="149" spans="7:11">
       <c r="G149" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I149">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J149">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>31</v>
       </c>
       <c r="K149" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="150" spans="7:11">
       <c r="G150" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I150">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J150">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>31</v>
       </c>
       <c r="K150" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="151" spans="7:11">
       <c r="G151" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I151">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J151">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>31</v>
       </c>
       <c r="K151" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="152" spans="7:11">
       <c r="G152" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I152">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J152">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>31</v>
       </c>
       <c r="K152" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="153" spans="7:11">
       <c r="G153" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I153">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J153">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>31</v>
       </c>
       <c r="K153" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="154" spans="7:11">
       <c r="G154" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I154">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J154">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>31</v>
       </c>
       <c r="K154" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="155" spans="7:11">
       <c r="G155" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I155">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J155">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>31</v>
       </c>
       <c r="K155" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="156" spans="7:11">
       <c r="G156" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I156">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J156">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>31</v>
       </c>
       <c r="K156" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="157" spans="7:11">
       <c r="G157" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I157">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J157">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>31</v>
       </c>
       <c r="K157" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="158" spans="7:11">
       <c r="G158" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I158">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J158">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>31</v>
       </c>
       <c r="K158" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="159" spans="7:11">
       <c r="G159" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I159">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J159">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>31</v>
       </c>
       <c r="K159" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="160" spans="7:11">
       <c r="G160" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I160">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J160">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>31</v>
       </c>
       <c r="K160" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="161" spans="7:11">
       <c r="G161" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I161">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J161">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>31</v>
       </c>
       <c r="K161" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="162" spans="7:11">
       <c r="G162" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I162">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J162">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>31</v>
       </c>
       <c r="K162" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="163" spans="7:11">
       <c r="G163" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I163">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J163">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>31</v>
       </c>
       <c r="K163" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="164" spans="7:11">
       <c r="G164" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I164">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J164">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>31</v>
       </c>
       <c r="K164" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="165" spans="7:11">
       <c r="G165" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I165">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J165">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>31</v>
       </c>
       <c r="K165" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="166" spans="7:11">
       <c r="G166" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I166">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J166">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>31</v>
       </c>
       <c r="K166" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="167" spans="7:11">
       <c r="G167" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I167">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J167">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>31</v>
       </c>
       <c r="K167" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="168" spans="7:11">
       <c r="G168" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I168">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J168">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>31</v>
       </c>
       <c r="K168" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="169" spans="7:11">
       <c r="G169" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I169">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J169">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>31</v>
       </c>
       <c r="K169" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="170" spans="7:11">
       <c r="G170" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I170">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J170">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>31</v>
       </c>
       <c r="K170" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="171" spans="7:11">
       <c r="G171" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I171">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J171">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>31</v>
       </c>
       <c r="K171" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="172" spans="7:11">
       <c r="G172" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I172">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J172">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>31</v>
       </c>
       <c r="K172" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="173" spans="7:11">
       <c r="G173" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I173">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J173">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>31</v>
       </c>
       <c r="K173" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="174" spans="7:11">
       <c r="G174" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I174">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J174">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>31</v>
       </c>
       <c r="K174" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="175" spans="7:11">
       <c r="G175" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I175">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J175">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>31</v>
       </c>
       <c r="K175" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="176" spans="7:11">
       <c r="G176" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I176">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J176">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>31</v>
       </c>
       <c r="K176" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="177" spans="7:11">
       <c r="G177" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I177">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J177">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>31</v>
       </c>
       <c r="K177" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="178" spans="7:11">
       <c r="G178" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I178">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J178">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>31</v>
       </c>
       <c r="K178" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="179" spans="7:11">
       <c r="G179" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I179">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J179">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>31</v>
       </c>
       <c r="K179" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="180" spans="7:11">
       <c r="G180" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I180">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J180">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>31</v>
       </c>
       <c r="K180" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
+    <row r="181" spans="7:11">
+      <c r="G181" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">                                \\</v>
+      </c>
+      <c r="I181">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="J181">
+        <f t="shared" si="23"/>
+        <v>31</v>
+      </c>
+      <c r="K181" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">                               </v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="B10:E76">
-    <sortCondition ref="C10:C76"/>
+  <sortState ref="B10:E77">
+    <sortCondition ref="C10:C77"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/ReferenceDocuments/ReportAuthors.xlsx
+++ b/ReferenceDocuments/ReportAuthors.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="343">
   <si>
     <t>Report Authors</t>
   </si>
@@ -1019,13 +1019,67 @@
   </si>
   <si>
     <t>12/17/2018, 4 pm.</t>
+  </si>
+  <si>
+    <r>
+      <t>Ren</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>\'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>{e}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">e </t>
+    </r>
+  </si>
+  <si>
+    <t>Hlo\v{z}ek</t>
+  </si>
+  <si>
+    <t>Valentino</t>
+  </si>
+  <si>
+    <t>Department of Astronomy \&amp; Astrophysics and Dunlap Institute, University of Toronto</t>
+  </si>
+  <si>
+    <t>12/18/2018, 3 pm.</t>
+  </si>
+  <si>
+    <t>UC Berkeley / LBNL</t>
+  </si>
+  <si>
+    <t>University of Oslo</t>
+  </si>
+  <si>
+    <t>Eleonora Di</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1047,6 +1101,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF008000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF008000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1449,10 +1522,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K181"/>
+  <dimension ref="A1:K188"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1482,7 +1555,7 @@
       </c>
       <c r="B3"/>
       <c r="C3" s="1" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1554,6 +1627,9 @@
       <c r="D10" t="s">
         <v>8</v>
       </c>
+      <c r="E10" t="s">
+        <v>340</v>
+      </c>
       <c r="G10" t="str">
         <f>CONCATENATE(B10," ",C10,K10,"\\")</f>
         <v>Marcelo Alvarez                 \\</v>
@@ -1641,6 +1717,9 @@
       <c r="D13" t="s">
         <v>8</v>
       </c>
+      <c r="E13" t="s">
+        <v>341</v>
+      </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
         <v>Ranajoy Banerji                 \\</v>
@@ -3361,7 +3440,7 @@
         <v>26</v>
       </c>
       <c r="K73" t="str">
-        <f t="shared" ref="K73:K139" si="4">REPT(" ",J73)</f>
+        <f t="shared" ref="K73:K146" si="4">REPT(" ",J73)</f>
         <v xml:space="preserve">                          </v>
       </c>
     </row>
@@ -3403,15 +3482,15 @@
         <v>8</v>
       </c>
       <c r="G75" t="str">
-        <f t="shared" ref="G75:G77" si="5">CONCATENATE(B75," ",C75,K75,"\\")</f>
+        <f t="shared" ref="G75:G76" si="5">CONCATENATE(B75," ",C75,K75,"\\")</f>
         <v>Karl Young                      \\</v>
       </c>
       <c r="I75">
-        <f t="shared" ref="I75:I77" si="6">LEN(B75) + LEN(C75) +1</f>
+        <f t="shared" ref="I75:I76" si="6">LEN(B75) + LEN(C75) +1</f>
         <v>10</v>
       </c>
       <c r="J75">
-        <f t="shared" ref="J75:J77" si="7">IF(I75&lt;30,(32-I75),3)</f>
+        <f t="shared" ref="J75:J76" si="7">IF(I75&lt;30,(32-I75),3)</f>
         <v>22</v>
       </c>
       <c r="K75" t="str">
@@ -3476,316 +3555,188 @@
         <v xml:space="preserve">             </v>
       </c>
     </row>
+    <row r="78" spans="2:11">
+      <c r="B78" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D78" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" t="s">
+        <v>338</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" ref="G78:G80" si="12">CONCATENATE(B78," ",C78,K78,"\\")</f>
+        <v>Ren\'{e}e  Hlo\v{z}ek           \\</v>
+      </c>
+      <c r="I78">
+        <f t="shared" ref="I78:I80" si="13">LEN(B78) + LEN(C78) +1</f>
+        <v>21</v>
+      </c>
+      <c r="J78">
+        <f t="shared" ref="J78:J80" si="14">IF(I78&lt;30,(32-I78),3)</f>
+        <v>11</v>
+      </c>
+      <c r="K78" t="str">
+        <f>REPT(" ",J78)</f>
+        <v xml:space="preserve">           </v>
+      </c>
+    </row>
     <row r="79" spans="2:11">
-      <c r="B79" s="3"/>
-      <c r="C79"/>
+      <c r="B79" t="s">
+        <v>342</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" t="s">
+        <v>50</v>
+      </c>
       <c r="G79" t="str">
-        <f t="shared" ref="G79:G139" si="12">CONCATENATE(B79," ",C79,K79,"\\")</f>
+        <f t="shared" si="12"/>
+        <v>Eleonora Di Valentino\\</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="13"/>
+        <v>21</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11">
+      <c r="G80" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve"> \\</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="14"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11">
+      <c r="B81"/>
+    </row>
+    <row r="83" spans="2:11">
+      <c r="B83"/>
+    </row>
+    <row r="84" spans="2:11">
+      <c r="B84"/>
+    </row>
+    <row r="86" spans="2:11">
+      <c r="B86" s="3"/>
+      <c r="C86"/>
+      <c r="G86" t="str">
+        <f t="shared" ref="G86:G146" si="15">CONCATENATE(B86," ",C86,K86,"\\")</f>
         <v xml:space="preserve">                                \\</v>
       </c>
-      <c r="I79">
-        <f t="shared" ref="I79:I139" si="13">LEN(B79) + LEN(C79) +1</f>
+      <c r="I86">
+        <f t="shared" ref="I86:I146" si="16">LEN(B86) + LEN(C86) +1</f>
         <v>1</v>
       </c>
-      <c r="J79">
-        <f t="shared" ref="J79:J139" si="14">IF(I79&lt;30,(32-I79),3)</f>
+      <c r="J86">
+        <f t="shared" ref="J86:J146" si="17">IF(I86&lt;30,(32-I86),3)</f>
         <v>31</v>
       </c>
-      <c r="K79" t="str">
+      <c r="K86" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
-    <row r="80" spans="2:11">
-      <c r="B80" t="s">
+    <row r="87" spans="2:11">
+      <c r="B87" t="s">
         <v>155</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C87" t="s">
         <v>156</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D87" t="s">
         <v>157</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E87" t="s">
         <v>158</v>
       </c>
-      <c r="G80" t="str">
-        <f t="shared" si="12"/>
+      <c r="G87" t="str">
+        <f t="shared" si="15"/>
         <v>Zeeshan Ahmed                   \\</v>
       </c>
-      <c r="I80">
-        <f t="shared" si="13"/>
+      <c r="I87">
+        <f t="shared" si="16"/>
         <v>13</v>
       </c>
-      <c r="J80">
-        <f t="shared" si="14"/>
+      <c r="J87">
+        <f t="shared" si="17"/>
         <v>19</v>
       </c>
-      <c r="K80" t="str">
+      <c r="K87" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">                   </v>
       </c>
     </row>
-    <row r="81" spans="2:11">
-      <c r="B81" t="s">
+    <row r="88" spans="2:11">
+      <c r="B88" t="s">
         <v>159</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D88" t="s">
         <v>157</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E88" t="s">
         <v>161</v>
       </c>
-      <c r="G81" t="str">
-        <f t="shared" ref="G81:G133" si="15">CONCATENATE(B81," ",C81,K81,"\\")</f>
+      <c r="G88" t="str">
+        <f t="shared" ref="G88:G140" si="18">CONCATENATE(B88," ",C88,K88,"\\")</f>
         <v>Jason Austermann                \\</v>
       </c>
-      <c r="I81">
-        <f t="shared" ref="I81:I133" si="16">LEN(B81) + LEN(C81) +1</f>
+      <c r="I88">
+        <f t="shared" ref="I88:I140" si="19">LEN(B88) + LEN(C88) +1</f>
         <v>16</v>
       </c>
-      <c r="J81">
-        <f t="shared" ref="J81:J133" si="17">IF(I81&lt;30,(32-I81),3)</f>
+      <c r="J88">
+        <f t="shared" ref="J88:J140" si="20">IF(I88&lt;30,(32-I88),3)</f>
         <v>16</v>
       </c>
-      <c r="K81" t="str">
+      <c r="K88" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">                </v>
       </c>
     </row>
-    <row r="82" spans="2:11">
-      <c r="B82" t="s">
-        <v>162</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D82" t="s">
-        <v>157</v>
-      </c>
-      <c r="E82" t="s">
-        <v>164</v>
-      </c>
-      <c r="G82" t="str">
-        <f t="shared" si="15"/>
-        <v>Darcy Barron                    \\</v>
-      </c>
-      <c r="I82">
-        <f t="shared" si="16"/>
-        <v>12</v>
-      </c>
-      <c r="J82">
-        <f t="shared" si="17"/>
-        <v>20</v>
-      </c>
-      <c r="K82" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                    </v>
-      </c>
-    </row>
-    <row r="83" spans="2:11">
-      <c r="B83" t="s">
-        <v>165</v>
-      </c>
-      <c r="C83" t="s">
-        <v>166</v>
-      </c>
-      <c r="D83" t="s">
-        <v>157</v>
-      </c>
-      <c r="G83" t="str">
-        <f t="shared" si="15"/>
-        <v>Karim Benabed                   \\</v>
-      </c>
-      <c r="I83">
-        <f t="shared" si="16"/>
-        <v>13</v>
-      </c>
-      <c r="J83">
-        <f t="shared" si="17"/>
-        <v>19</v>
-      </c>
-      <c r="K83" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                   </v>
-      </c>
-    </row>
-    <row r="84" spans="2:11">
-      <c r="B84" t="s">
-        <v>167</v>
-      </c>
-      <c r="C84" t="s">
-        <v>168</v>
-      </c>
-      <c r="D84" t="s">
-        <v>157</v>
-      </c>
-      <c r="E84" t="s">
-        <v>169</v>
-      </c>
-      <c r="G84" t="str">
-        <f t="shared" si="15"/>
-        <v>Federico Bianchini              \\</v>
-      </c>
-      <c r="I84">
-        <f t="shared" si="16"/>
-        <v>18</v>
-      </c>
-      <c r="J84">
-        <f t="shared" si="17"/>
-        <v>14</v>
-      </c>
-      <c r="K84" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">              </v>
-      </c>
-    </row>
-    <row r="85" spans="2:11">
-      <c r="B85" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D85" t="s">
-        <v>157</v>
-      </c>
-      <c r="E85" t="s">
-        <v>282</v>
-      </c>
-      <c r="G85" t="str">
-        <f t="shared" si="15"/>
-        <v>Colin Bischoff                  \\</v>
-      </c>
-      <c r="I85">
-        <f t="shared" si="16"/>
-        <v>14</v>
-      </c>
-      <c r="J85">
-        <f t="shared" si="17"/>
-        <v>18</v>
-      </c>
-      <c r="K85" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                  </v>
-      </c>
-    </row>
-    <row r="86" spans="2:11">
-      <c r="B86" t="s">
-        <v>173</v>
-      </c>
-      <c r="C86" t="s">
-        <v>174</v>
-      </c>
-      <c r="D86" t="s">
-        <v>157</v>
-      </c>
-      <c r="E86" t="s">
-        <v>175</v>
-      </c>
-      <c r="G86" t="str">
-        <f t="shared" si="15"/>
-        <v>J. Richard Bond                 \\</v>
-      </c>
-      <c r="I86">
-        <f t="shared" si="16"/>
-        <v>15</v>
-      </c>
-      <c r="J86">
-        <f t="shared" si="17"/>
-        <v>17</v>
-      </c>
-      <c r="K86" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                 </v>
-      </c>
-    </row>
-    <row r="87" spans="2:11">
-      <c r="B87" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C87" t="s">
-        <v>194</v>
-      </c>
-      <c r="D87" t="s">
-        <v>157</v>
-      </c>
-      <c r="E87" t="s">
-        <v>83</v>
-      </c>
-      <c r="G87" t="str">
-        <f t="shared" si="15"/>
-        <v>Fran\c{c}ois Bouchet            \\</v>
-      </c>
-      <c r="I87">
-        <f t="shared" si="16"/>
-        <v>20</v>
-      </c>
-      <c r="J87">
-        <f t="shared" si="17"/>
-        <v>12</v>
-      </c>
-      <c r="K87" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">            </v>
-      </c>
-    </row>
-    <row r="88" spans="2:11">
-      <c r="B88" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D88" t="s">
-        <v>157</v>
-      </c>
-      <c r="E88" t="s">
-        <v>280</v>
-      </c>
-      <c r="G88" t="str">
-        <f t="shared" si="15"/>
-        <v>Robert Caldwell                 \\</v>
-      </c>
-      <c r="I88">
-        <f t="shared" si="16"/>
-        <v>15</v>
-      </c>
-      <c r="J88">
-        <f t="shared" si="17"/>
-        <v>17</v>
-      </c>
-      <c r="K88" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                 </v>
-      </c>
-    </row>
     <row r="89" spans="2:11">
       <c r="B89" t="s">
-        <v>176</v>
-      </c>
-      <c r="C89" t="s">
-        <v>177</v>
+        <v>162</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="D89" t="s">
         <v>157</v>
       </c>
       <c r="E89" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="G89" t="str">
-        <f t="shared" si="15"/>
-        <v>Xingang Chen                    \\</v>
+        <f t="shared" si="18"/>
+        <v>Darcy Barron                    \\</v>
       </c>
       <c r="I89">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>12</v>
       </c>
       <c r="J89">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
       <c r="K89" t="str">
@@ -3795,87 +3746,84 @@
     </row>
     <row r="90" spans="2:11">
       <c r="B90" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="C90" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="D90" t="s">
         <v>157</v>
       </c>
-      <c r="E90" t="s">
-        <v>180</v>
-      </c>
       <c r="G90" t="str">
-        <f t="shared" si="15"/>
-        <v>Jens Chluba                     \\</v>
+        <f t="shared" si="18"/>
+        <v>Karim Benabed                   \\</v>
       </c>
       <c r="I90">
-        <f t="shared" si="16"/>
-        <v>11</v>
+        <f t="shared" si="19"/>
+        <v>13</v>
       </c>
       <c r="J90">
-        <f t="shared" si="17"/>
-        <v>21</v>
+        <f t="shared" si="20"/>
+        <v>19</v>
       </c>
       <c r="K90" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                   </v>
       </c>
     </row>
     <row r="91" spans="2:11">
       <c r="B91" t="s">
-        <v>181</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>182</v>
+        <v>167</v>
+      </c>
+      <c r="C91" t="s">
+        <v>168</v>
       </c>
       <c r="D91" t="s">
         <v>157</v>
       </c>
       <c r="E91" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="G91" t="str">
-        <f t="shared" si="15"/>
-        <v>Francis-Yan Cyr-Racine          \\</v>
+        <f t="shared" si="18"/>
+        <v>Federico Bianchini              \\</v>
       </c>
       <c r="I91">
-        <f t="shared" si="16"/>
-        <v>22</v>
+        <f t="shared" si="19"/>
+        <v>18</v>
       </c>
       <c r="J91">
-        <f t="shared" si="17"/>
-        <v>10</v>
+        <f t="shared" si="20"/>
+        <v>14</v>
       </c>
       <c r="K91" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">          </v>
+        <v xml:space="preserve">              </v>
       </c>
     </row>
     <row r="92" spans="2:11">
-      <c r="B92" t="s">
-        <v>184</v>
+      <c r="B92" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>185</v>
+        <v>294</v>
       </c>
       <c r="D92" t="s">
         <v>157</v>
       </c>
       <c r="E92" t="s">
-        <v>186</v>
+        <v>282</v>
       </c>
       <c r="G92" t="str">
-        <f t="shared" si="15"/>
-        <v>Tijmen de Haan                  \\</v>
+        <f t="shared" si="18"/>
+        <v>Colin Bischoff                  \\</v>
       </c>
       <c r="I92">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>14</v>
       </c>
       <c r="J92">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>18</v>
       </c>
       <c r="K92" t="str">
@@ -3885,717 +3833,717 @@
     </row>
     <row r="93" spans="2:11">
       <c r="B93" t="s">
-        <v>189</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>190</v>
+        <v>173</v>
+      </c>
+      <c r="C93" t="s">
+        <v>174</v>
       </c>
       <c r="D93" t="s">
         <v>157</v>
       </c>
       <c r="E93" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="G93" t="str">
-        <f t="shared" si="15"/>
-        <v>Aurelien Fraisse                \\</v>
+        <f t="shared" si="18"/>
+        <v>J. Richard Bond                 \\</v>
       </c>
       <c r="I93">
-        <f t="shared" si="16"/>
-        <v>16</v>
+        <f t="shared" si="19"/>
+        <v>15</v>
       </c>
       <c r="J93">
-        <f t="shared" si="17"/>
-        <v>16</v>
+        <f t="shared" si="20"/>
+        <v>17</v>
       </c>
       <c r="K93" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                </v>
+        <v xml:space="preserve">                 </v>
       </c>
     </row>
     <row r="94" spans="2:11">
-      <c r="B94" t="s">
-        <v>195</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>196</v>
+      <c r="B94" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C94" t="s">
+        <v>194</v>
       </c>
       <c r="D94" t="s">
         <v>157</v>
       </c>
       <c r="E94" t="s">
-        <v>197</v>
+        <v>83</v>
       </c>
       <c r="G94" t="str">
-        <f t="shared" si="15"/>
-        <v>Silvia Galli                    \\</v>
+        <f t="shared" si="18"/>
+        <v>Fran\c{c}ois Bouchet            \\</v>
       </c>
       <c r="I94">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
+        <v>20</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="20"/>
         <v>12</v>
-      </c>
-      <c r="J94">
-        <f t="shared" si="17"/>
-        <v>20</v>
       </c>
       <c r="K94" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">            </v>
       </c>
     </row>
     <row r="95" spans="2:11">
-      <c r="B95" t="s">
-        <v>198</v>
-      </c>
-      <c r="C95" t="s">
-        <v>199</v>
+      <c r="B95" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="D95" t="s">
         <v>157</v>
       </c>
       <c r="E95" t="s">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="G95" t="str">
-        <f t="shared" si="15"/>
-        <v>Ken Ganga                       \\</v>
+        <f t="shared" si="18"/>
+        <v>Robert Caldwell                 \\</v>
       </c>
       <c r="I95">
-        <f t="shared" si="16"/>
-        <v>9</v>
+        <f t="shared" si="19"/>
+        <v>15</v>
       </c>
       <c r="J95">
-        <f t="shared" si="17"/>
-        <v>23</v>
+        <f t="shared" si="20"/>
+        <v>17</v>
       </c>
       <c r="K95" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                       </v>
+        <v xml:space="preserve">                 </v>
       </c>
     </row>
     <row r="96" spans="2:11">
       <c r="B96" t="s">
-        <v>201</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>202</v>
+        <v>176</v>
+      </c>
+      <c r="C96" t="s">
+        <v>177</v>
       </c>
       <c r="D96" t="s">
         <v>157</v>
       </c>
       <c r="E96" t="s">
-        <v>203</v>
+        <v>134</v>
       </c>
       <c r="G96" t="str">
-        <f t="shared" si="15"/>
-        <v>Tuhin Ghosh                     \\</v>
+        <f t="shared" si="18"/>
+        <v>Xingang Chen                    \\</v>
       </c>
       <c r="I96">
-        <f t="shared" si="16"/>
-        <v>11</v>
+        <f t="shared" si="19"/>
+        <v>12</v>
       </c>
       <c r="J96">
-        <f t="shared" si="17"/>
-        <v>21</v>
+        <f t="shared" si="20"/>
+        <v>20</v>
       </c>
       <c r="K96" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                    </v>
       </c>
     </row>
     <row r="97" spans="2:11">
-      <c r="B97" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>327</v>
+      <c r="B97" t="s">
+        <v>178</v>
+      </c>
+      <c r="C97" t="s">
+        <v>179</v>
       </c>
       <c r="D97" t="s">
         <v>157</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>231</v>
+      <c r="E97" t="s">
+        <v>180</v>
       </c>
       <c r="G97" t="str">
-        <f t="shared" si="15"/>
-        <v>Sunil Golwara                   \\</v>
+        <f t="shared" si="18"/>
+        <v>Jens Chluba                     \\</v>
       </c>
       <c r="I97">
-        <f t="shared" si="16"/>
-        <v>13</v>
+        <f t="shared" si="19"/>
+        <v>11</v>
       </c>
       <c r="J97">
-        <f t="shared" si="17"/>
-        <v>19</v>
+        <f t="shared" si="20"/>
+        <v>21</v>
       </c>
       <c r="K97" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="98" spans="2:11">
       <c r="B98" t="s">
-        <v>204</v>
-      </c>
-      <c r="C98" t="s">
-        <v>205</v>
+        <v>181</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="D98" t="s">
         <v>157</v>
       </c>
       <c r="E98" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="G98" t="str">
-        <f t="shared" si="15"/>
-        <v>Jon E. Gudmundsson              \\</v>
+        <f t="shared" si="18"/>
+        <v>Francis-Yan Cyr-Racine          \\</v>
       </c>
       <c r="I98">
-        <f t="shared" si="16"/>
-        <v>18</v>
+        <f t="shared" si="19"/>
+        <v>22</v>
       </c>
       <c r="J98">
-        <f t="shared" si="17"/>
-        <v>14</v>
+        <f t="shared" si="20"/>
+        <v>10</v>
       </c>
       <c r="K98" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">              </v>
+        <v xml:space="preserve">          </v>
       </c>
     </row>
     <row r="99" spans="2:11">
-      <c r="B99" s="1" t="s">
-        <v>329</v>
+      <c r="B99" t="s">
+        <v>184</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>330</v>
+        <v>185</v>
       </c>
       <c r="D99" t="s">
         <v>157</v>
       </c>
-      <c r="E99" s="1" t="s">
-        <v>326</v>
+      <c r="E99" t="s">
+        <v>186</v>
       </c>
       <c r="G99" t="str">
-        <f t="shared" si="15"/>
-        <v>Kevin M. Huffenberger           \\</v>
+        <f t="shared" si="18"/>
+        <v>Tijmen de Haan                  \\</v>
       </c>
       <c r="I99">
-        <f t="shared" si="16"/>
-        <v>21</v>
+        <f t="shared" si="19"/>
+        <v>14</v>
       </c>
       <c r="J99">
-        <f t="shared" si="17"/>
-        <v>11</v>
+        <f t="shared" si="20"/>
+        <v>18</v>
       </c>
       <c r="K99" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">           </v>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="100" spans="2:11">
       <c r="B100" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="D100" t="s">
         <v>157</v>
       </c>
       <c r="E100" t="s">
-        <v>209</v>
+        <v>92</v>
       </c>
       <c r="G100" t="str">
-        <f t="shared" si="15"/>
-        <v>Marc Kamionkowski               \\</v>
+        <f t="shared" si="18"/>
+        <v>Aurelien Fraisse                \\</v>
       </c>
       <c r="I100">
-        <f t="shared" si="16"/>
-        <v>17</v>
+        <f t="shared" si="19"/>
+        <v>16</v>
       </c>
       <c r="J100">
-        <f t="shared" si="17"/>
-        <v>15</v>
+        <f t="shared" si="20"/>
+        <v>16</v>
       </c>
       <c r="K100" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">               </v>
+        <v xml:space="preserve">                </v>
       </c>
     </row>
     <row r="101" spans="2:11">
       <c r="B101" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="D101" t="s">
         <v>157</v>
       </c>
       <c r="E101" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="G101" t="str">
-        <f t="shared" si="15"/>
-        <v>Reijo Keskitalo                 \\</v>
+        <f t="shared" si="18"/>
+        <v>Silvia Galli                    \\</v>
       </c>
       <c r="I101">
-        <f t="shared" si="16"/>
-        <v>15</v>
+        <f t="shared" si="19"/>
+        <v>12</v>
       </c>
       <c r="J101">
-        <f t="shared" si="17"/>
-        <v>17</v>
+        <f t="shared" si="20"/>
+        <v>20</v>
       </c>
       <c r="K101" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">                    </v>
       </c>
     </row>
     <row r="102" spans="2:11">
       <c r="B102" t="s">
-        <v>213</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>214</v>
+        <v>198</v>
+      </c>
+      <c r="C102" t="s">
+        <v>199</v>
       </c>
       <c r="D102" t="s">
         <v>157</v>
       </c>
       <c r="E102" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="G102" t="str">
-        <f t="shared" si="15"/>
-        <v>Rishi Khatri                    \\</v>
+        <f t="shared" si="18"/>
+        <v>Ken Ganga                       \\</v>
       </c>
       <c r="I102">
-        <f t="shared" si="16"/>
-        <v>12</v>
+        <f t="shared" si="19"/>
+        <v>9</v>
       </c>
       <c r="J102">
-        <f t="shared" si="17"/>
-        <v>20</v>
+        <f t="shared" si="20"/>
+        <v>23</v>
       </c>
       <c r="K102" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">                       </v>
       </c>
     </row>
     <row r="103" spans="2:11">
       <c r="B103" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="D103" t="s">
         <v>157</v>
       </c>
       <c r="E103" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G103" t="str">
-        <f t="shared" si="15"/>
-        <v>Ely Kovetz                      \\</v>
+        <f t="shared" si="18"/>
+        <v>Tuhin Ghosh                     \\</v>
       </c>
       <c r="I103">
-        <f t="shared" si="16"/>
-        <v>10</v>
+        <f t="shared" si="19"/>
+        <v>11</v>
       </c>
       <c r="J103">
-        <f t="shared" si="17"/>
-        <v>22</v>
+        <f t="shared" si="20"/>
+        <v>21</v>
       </c>
       <c r="K103" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                      </v>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="104" spans="2:11">
-      <c r="B104" t="s">
-        <v>218</v>
+      <c r="B104" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>219</v>
+        <v>327</v>
       </c>
       <c r="D104" t="s">
         <v>157</v>
       </c>
-      <c r="E104" t="s">
-        <v>220</v>
+      <c r="E104" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="G104" t="str">
-        <f t="shared" si="15"/>
-        <v>Daniel Lenz                     \\</v>
+        <f t="shared" si="18"/>
+        <v>Sunil Golwara                   \\</v>
       </c>
       <c r="I104">
-        <f t="shared" si="16"/>
-        <v>11</v>
+        <f t="shared" si="19"/>
+        <v>13</v>
       </c>
       <c r="J104">
-        <f t="shared" si="17"/>
-        <v>21</v>
+        <f t="shared" si="20"/>
+        <v>19</v>
       </c>
       <c r="K104" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                   </v>
       </c>
     </row>
     <row r="105" spans="2:11">
       <c r="B105" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="C105" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="D105" t="s">
         <v>157</v>
       </c>
       <c r="E105" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="G105" t="str">
-        <f t="shared" si="15"/>
-        <v>Marilena Loverde                \\</v>
+        <f t="shared" si="18"/>
+        <v>Jon E. Gudmundsson              \\</v>
       </c>
       <c r="I105">
-        <f t="shared" si="16"/>
-        <v>16</v>
+        <f t="shared" si="19"/>
+        <v>18</v>
       </c>
       <c r="J105">
-        <f t="shared" si="17"/>
-        <v>16</v>
+        <f t="shared" si="20"/>
+        <v>14</v>
       </c>
       <c r="K105" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                </v>
+        <v xml:space="preserve">              </v>
       </c>
     </row>
     <row r="106" spans="2:11">
-      <c r="B106" t="s">
-        <v>224</v>
+      <c r="B106" s="1" t="s">
+        <v>329</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>225</v>
+        <v>330</v>
       </c>
       <c r="D106" t="s">
         <v>157</v>
       </c>
-      <c r="E106" t="s">
-        <v>226</v>
+      <c r="E106" s="1" t="s">
+        <v>326</v>
       </c>
       <c r="G106" t="str">
-        <f t="shared" si="15"/>
-        <v>Carlos Martins                  \\</v>
+        <f t="shared" si="18"/>
+        <v>Kevin M. Huffenberger           \\</v>
       </c>
       <c r="I106">
-        <f t="shared" si="16"/>
-        <v>14</v>
+        <f t="shared" si="19"/>
+        <v>21</v>
       </c>
       <c r="J106">
-        <f t="shared" si="17"/>
-        <v>18</v>
+        <f t="shared" si="20"/>
+        <v>11</v>
       </c>
       <c r="K106" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">           </v>
       </c>
     </row>
     <row r="107" spans="2:11">
       <c r="B107" t="s">
-        <v>195</v>
-      </c>
-      <c r="C107" t="s">
-        <v>227</v>
+        <v>207</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="D107" t="s">
         <v>157</v>
       </c>
       <c r="E107" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="G107" t="str">
-        <f t="shared" si="15"/>
-        <v>Silvia Masi                     \\</v>
+        <f t="shared" si="18"/>
+        <v>Marc Kamionkowski               \\</v>
       </c>
       <c r="I107">
-        <f t="shared" si="16"/>
-        <v>11</v>
+        <f t="shared" si="19"/>
+        <v>17</v>
       </c>
       <c r="J107">
-        <f t="shared" si="17"/>
-        <v>21</v>
+        <f t="shared" si="20"/>
+        <v>15</v>
       </c>
       <c r="K107" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">               </v>
       </c>
     </row>
     <row r="108" spans="2:11">
-      <c r="B108" s="1" t="s">
-        <v>296</v>
+      <c r="B108" t="s">
+        <v>210</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>297</v>
+        <v>211</v>
       </c>
       <c r="D108" t="s">
         <v>157</v>
       </c>
       <c r="E108" t="s">
-        <v>284</v>
+        <v>212</v>
       </c>
       <c r="G108" t="str">
-        <f t="shared" si="15"/>
-        <v>Joel Meyers                     \\</v>
+        <f t="shared" si="18"/>
+        <v>Reijo Keskitalo                 \\</v>
       </c>
       <c r="I108">
-        <f t="shared" si="16"/>
-        <v>11</v>
+        <f t="shared" si="19"/>
+        <v>15</v>
       </c>
       <c r="J108">
-        <f t="shared" si="17"/>
-        <v>21</v>
+        <f t="shared" si="20"/>
+        <v>17</v>
       </c>
       <c r="K108" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                 </v>
       </c>
     </row>
     <row r="109" spans="2:11">
       <c r="B109" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="D109" t="s">
         <v>157</v>
       </c>
       <c r="E109" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="G109" t="str">
-        <f t="shared" si="15"/>
-        <v>Lorenzo Moncelsi                \\</v>
+        <f t="shared" si="18"/>
+        <v>Rishi Khatri                    \\</v>
       </c>
       <c r="I109">
-        <f t="shared" si="16"/>
-        <v>16</v>
+        <f t="shared" si="19"/>
+        <v>12</v>
       </c>
       <c r="J109">
-        <f t="shared" si="17"/>
-        <v>16</v>
+        <f t="shared" si="20"/>
+        <v>20</v>
       </c>
       <c r="K109" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                </v>
+        <v xml:space="preserve">                    </v>
       </c>
     </row>
     <row r="110" spans="2:11">
       <c r="B110" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="D110" t="s">
         <v>157</v>
       </c>
       <c r="E110" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="G110" t="str">
-        <f t="shared" si="15"/>
-        <v>Pavel Motloch                   \\</v>
+        <f t="shared" si="18"/>
+        <v>Ely Kovetz                      \\</v>
       </c>
       <c r="I110">
-        <f t="shared" si="16"/>
-        <v>13</v>
+        <f t="shared" si="19"/>
+        <v>10</v>
       </c>
       <c r="J110">
-        <f t="shared" si="17"/>
-        <v>19</v>
+        <f t="shared" si="20"/>
+        <v>22</v>
       </c>
       <c r="K110" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">                      </v>
       </c>
     </row>
     <row r="111" spans="2:11">
       <c r="B111" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="D111" t="s">
         <v>157</v>
       </c>
       <c r="E111" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="G111" t="str">
-        <f t="shared" si="15"/>
-        <v>Tony Mroczkowski                \\</v>
+        <f t="shared" si="18"/>
+        <v>Daniel Lenz                     \\</v>
       </c>
       <c r="I111">
-        <f t="shared" si="16"/>
-        <v>16</v>
+        <f t="shared" si="19"/>
+        <v>11</v>
       </c>
       <c r="J111">
-        <f t="shared" si="17"/>
-        <v>16</v>
+        <f t="shared" si="20"/>
+        <v>21</v>
       </c>
       <c r="K111" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                </v>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="112" spans="2:11">
       <c r="B112" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="C112" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="D112" t="s">
         <v>157</v>
       </c>
       <c r="E112" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="G112" t="str">
-        <f t="shared" si="15"/>
-        <v>Pavel Naselsky                  \\</v>
+        <f t="shared" si="18"/>
+        <v>Marilena Loverde                \\</v>
       </c>
       <c r="I112">
-        <f t="shared" si="16"/>
-        <v>14</v>
+        <f t="shared" si="19"/>
+        <v>16</v>
       </c>
       <c r="J112">
-        <f t="shared" si="17"/>
-        <v>18</v>
+        <f t="shared" si="20"/>
+        <v>16</v>
       </c>
       <c r="K112" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                </v>
       </c>
     </row>
     <row r="113" spans="2:11">
       <c r="B113" t="s">
-        <v>167</v>
+        <v>224</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="D113" t="s">
         <v>157</v>
       </c>
       <c r="E113" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="G113" t="str">
-        <f t="shared" si="15"/>
-        <v>Federico Nati                   \\</v>
+        <f t="shared" si="18"/>
+        <v>Carlos Martins                  \\</v>
       </c>
       <c r="I113">
-        <f t="shared" si="16"/>
-        <v>13</v>
+        <f t="shared" si="19"/>
+        <v>14</v>
       </c>
       <c r="J113">
-        <f t="shared" si="17"/>
-        <v>19</v>
+        <f t="shared" si="20"/>
+        <v>18</v>
       </c>
       <c r="K113" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="114" spans="2:11">
       <c r="B114" t="s">
-        <v>242</v>
+        <v>195</v>
       </c>
       <c r="C114" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="D114" t="s">
         <v>157</v>
       </c>
       <c r="E114" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="G114" t="str">
-        <f t="shared" si="15"/>
-        <v>Elena Orlando                   \\</v>
+        <f t="shared" si="18"/>
+        <v>Silvia Masi                     \\</v>
       </c>
       <c r="I114">
-        <f t="shared" si="16"/>
-        <v>13</v>
+        <f t="shared" si="19"/>
+        <v>11</v>
       </c>
       <c r="J114">
-        <f t="shared" si="17"/>
-        <v>19</v>
+        <f t="shared" si="20"/>
+        <v>21</v>
       </c>
       <c r="K114" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="115" spans="2:11">
       <c r="B115" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C115" t="s">
-        <v>191</v>
+        <v>296</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="D115" t="s">
         <v>157</v>
       </c>
       <c r="E115" t="s">
-        <v>193</v>
+        <v>284</v>
       </c>
       <c r="G115" t="str">
-        <f t="shared" si="15"/>
-        <v>Francesco Piacentini            \\</v>
+        <f t="shared" si="18"/>
+        <v>Joel Meyers                     \\</v>
       </c>
       <c r="I115">
-        <f t="shared" si="16"/>
-        <v>20</v>
+        <f t="shared" si="19"/>
+        <v>11</v>
       </c>
       <c r="J115">
-        <f t="shared" si="17"/>
-        <v>12</v>
+        <f t="shared" si="20"/>
+        <v>21</v>
       </c>
       <c r="K115" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="116" spans="2:11">
       <c r="B116" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="D116" t="s">
         <v>157</v>
       </c>
       <c r="E116" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="G116" t="str">
-        <f t="shared" si="15"/>
-        <v>Giuseppe Puglisi                \\</v>
+        <f t="shared" si="18"/>
+        <v>Lorenzo Moncelsi                \\</v>
       </c>
       <c r="I116">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>16</v>
       </c>
       <c r="J116">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>16</v>
       </c>
       <c r="K116" t="str">
@@ -4604,1433 +4552,1643 @@
       </c>
     </row>
     <row r="117" spans="2:11">
-      <c r="B117" s="1" t="s">
-        <v>289</v>
+      <c r="B117" t="s">
+        <v>232</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>320</v>
+        <v>233</v>
       </c>
       <c r="D117" t="s">
         <v>157</v>
       </c>
       <c r="E117" t="s">
-        <v>319</v>
+        <v>234</v>
       </c>
       <c r="G117" t="str">
-        <f t="shared" si="15"/>
-        <v>Benjamin Racine                 \\</v>
+        <f t="shared" si="18"/>
+        <v>Pavel Motloch                   \\</v>
       </c>
       <c r="I117">
-        <f t="shared" si="16"/>
-        <v>15</v>
+        <f t="shared" si="19"/>
+        <v>13</v>
       </c>
       <c r="J117">
-        <f t="shared" si="17"/>
-        <v>17</v>
+        <f t="shared" si="20"/>
+        <v>19</v>
       </c>
       <c r="K117" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">                   </v>
       </c>
     </row>
     <row r="118" spans="2:11">
       <c r="B118" t="s">
-        <v>248</v>
-      </c>
-      <c r="C118" t="s">
-        <v>249</v>
+        <v>235</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="D118" t="s">
         <v>157</v>
       </c>
       <c r="E118" t="s">
-        <v>169</v>
+        <v>237</v>
       </c>
       <c r="G118" t="str">
-        <f t="shared" si="15"/>
-        <v>Christian Reichardt             \\</v>
+        <f t="shared" si="18"/>
+        <v>Tony Mroczkowski                \\</v>
       </c>
       <c r="I118">
-        <f t="shared" si="16"/>
-        <v>19</v>
+        <f t="shared" si="19"/>
+        <v>16</v>
       </c>
       <c r="J118">
-        <f t="shared" si="17"/>
-        <v>13</v>
+        <f t="shared" si="20"/>
+        <v>16</v>
       </c>
       <c r="K118" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">             </v>
+        <v xml:space="preserve">                </v>
       </c>
     </row>
     <row r="119" spans="2:11">
       <c r="B119" t="s">
-        <v>250</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>251</v>
+        <v>232</v>
+      </c>
+      <c r="C119" t="s">
+        <v>238</v>
       </c>
       <c r="D119" t="s">
         <v>157</v>
       </c>
       <c r="E119" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="G119" t="str">
-        <f t="shared" si="15"/>
-        <v>Anirban Roy                     \\</v>
+        <f t="shared" si="18"/>
+        <v>Pavel Naselsky                  \\</v>
       </c>
       <c r="I119">
-        <f t="shared" si="16"/>
-        <v>11</v>
+        <f t="shared" si="19"/>
+        <v>14</v>
       </c>
       <c r="J119">
-        <f t="shared" si="17"/>
-        <v>21</v>
+        <f t="shared" si="20"/>
+        <v>18</v>
       </c>
       <c r="K119" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="120" spans="2:11">
       <c r="B120" t="s">
-        <v>253</v>
+        <v>167</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="D120" t="s">
         <v>157</v>
       </c>
       <c r="E120" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="G120" t="str">
-        <f t="shared" si="15"/>
-        <v>Maria Salatino                  \\</v>
+        <f t="shared" si="18"/>
+        <v>Federico Nati                   \\</v>
       </c>
       <c r="I120">
-        <f t="shared" si="16"/>
-        <v>14</v>
+        <f t="shared" si="19"/>
+        <v>13</v>
       </c>
       <c r="J120">
-        <f t="shared" si="17"/>
-        <v>18</v>
+        <f t="shared" si="20"/>
+        <v>19</v>
       </c>
       <c r="K120" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                   </v>
       </c>
     </row>
     <row r="121" spans="2:11">
-      <c r="B121" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>290</v>
+      <c r="B121" t="s">
+        <v>242</v>
+      </c>
+      <c r="C121" t="s">
+        <v>243</v>
       </c>
       <c r="D121" t="s">
         <v>157</v>
       </c>
       <c r="E121" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="G121" t="str">
-        <f t="shared" si="15"/>
-        <v>Benjamin Saliwanchik            \\</v>
+        <f t="shared" si="18"/>
+        <v>Elena Orlando                   \\</v>
       </c>
       <c r="I121">
-        <f t="shared" si="16"/>
-        <v>20</v>
+        <f t="shared" si="19"/>
+        <v>13</v>
       </c>
       <c r="J121">
-        <f t="shared" si="17"/>
-        <v>12</v>
+        <f t="shared" si="20"/>
+        <v>19</v>
       </c>
       <c r="K121" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                   </v>
       </c>
     </row>
     <row r="122" spans="2:11">
       <c r="B122" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>301</v>
+        <v>192</v>
+      </c>
+      <c r="C122" t="s">
+        <v>191</v>
       </c>
       <c r="D122" t="s">
         <v>157</v>
       </c>
       <c r="E122" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="G122" t="str">
-        <f t="shared" si="15"/>
-        <v>Neelima Sehgal                  \\</v>
+        <f t="shared" si="18"/>
+        <v>Francesco Piacentini            \\</v>
       </c>
       <c r="I122">
-        <f t="shared" si="16"/>
-        <v>14</v>
+        <f t="shared" si="19"/>
+        <v>20</v>
       </c>
       <c r="J122">
-        <f t="shared" si="17"/>
-        <v>18</v>
+        <f t="shared" si="20"/>
+        <v>12</v>
       </c>
       <c r="K122" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">            </v>
       </c>
     </row>
     <row r="123" spans="2:11">
       <c r="B123" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="D123" t="s">
         <v>157</v>
       </c>
       <c r="E123" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="G123" t="str">
-        <f t="shared" si="15"/>
-        <v>Sarah Shandera                  \\</v>
+        <f t="shared" si="18"/>
+        <v>Giuseppe Puglisi                \\</v>
       </c>
       <c r="I123">
-        <f t="shared" si="16"/>
-        <v>14</v>
+        <f t="shared" si="19"/>
+        <v>16</v>
       </c>
       <c r="J123">
-        <f t="shared" si="17"/>
-        <v>18</v>
+        <f t="shared" si="20"/>
+        <v>16</v>
       </c>
       <c r="K123" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                </v>
       </c>
     </row>
     <row r="124" spans="2:11">
-      <c r="B124" t="s">
-        <v>187</v>
-      </c>
-      <c r="C124" t="s">
-        <v>318</v>
+      <c r="B124" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>320</v>
       </c>
       <c r="D124" t="s">
         <v>157</v>
       </c>
       <c r="E124" t="s">
-        <v>188</v>
+        <v>319</v>
       </c>
       <c r="G124" t="str">
-        <f t="shared" si="15"/>
-        <v>Erik Shirokoff                  \\</v>
+        <f t="shared" si="18"/>
+        <v>Benjamin Racine                 \\</v>
       </c>
       <c r="I124">
-        <f t="shared" si="16"/>
-        <v>14</v>
+        <f t="shared" si="19"/>
+        <v>15</v>
       </c>
       <c r="J124">
-        <f t="shared" si="17"/>
-        <v>18</v>
+        <f t="shared" si="20"/>
+        <v>17</v>
       </c>
       <c r="K124" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                 </v>
       </c>
     </row>
     <row r="125" spans="2:11">
       <c r="B125" t="s">
-        <v>259</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>260</v>
+        <v>248</v>
+      </c>
+      <c r="C125" t="s">
+        <v>249</v>
       </c>
       <c r="D125" t="s">
         <v>157</v>
       </c>
       <c r="E125" t="s">
-        <v>261</v>
+        <v>169</v>
       </c>
       <c r="G125" t="str">
-        <f t="shared" si="15"/>
-        <v>An\v{z}e Slosar                 \\</v>
+        <f t="shared" si="18"/>
+        <v>Christian Reichardt             \\</v>
       </c>
       <c r="I125">
-        <f t="shared" si="16"/>
-        <v>15</v>
+        <f t="shared" si="19"/>
+        <v>19</v>
       </c>
       <c r="J125">
-        <f t="shared" si="17"/>
-        <v>17</v>
+        <f t="shared" si="20"/>
+        <v>13</v>
       </c>
       <c r="K125" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">             </v>
       </c>
     </row>
     <row r="126" spans="2:11">
       <c r="B126" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="D126" t="s">
         <v>157</v>
       </c>
       <c r="E126" t="s">
-        <v>186</v>
+        <v>252</v>
       </c>
       <c r="G126" t="str">
-        <f t="shared" si="15"/>
-        <v>Aritoki Suzuki                  \\</v>
+        <f t="shared" si="18"/>
+        <v>Anirban Roy                     \\</v>
       </c>
       <c r="I126">
-        <f t="shared" si="16"/>
-        <v>14</v>
+        <f t="shared" si="19"/>
+        <v>11</v>
       </c>
       <c r="J126">
-        <f t="shared" si="17"/>
-        <v>18</v>
+        <f t="shared" si="20"/>
+        <v>21</v>
       </c>
       <c r="K126" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="127" spans="2:11">
-      <c r="B127" s="1" t="s">
-        <v>81</v>
+      <c r="B127" t="s">
+        <v>253</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>298</v>
+        <v>254</v>
       </c>
       <c r="D127" t="s">
         <v>157</v>
       </c>
       <c r="E127" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="G127" t="str">
-        <f t="shared" si="15"/>
-        <v>Eric Switzer                    \\</v>
+        <f t="shared" si="18"/>
+        <v>Maria Salatino                  \\</v>
       </c>
       <c r="I127">
-        <f t="shared" si="16"/>
-        <v>12</v>
+        <f t="shared" si="19"/>
+        <v>14</v>
       </c>
       <c r="J127">
-        <f t="shared" si="17"/>
-        <v>20</v>
+        <f t="shared" si="20"/>
+        <v>18</v>
       </c>
       <c r="K127" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="128" spans="2:11">
       <c r="B128" s="1" t="s">
-        <v>153</v>
+        <v>289</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D128" t="s">
         <v>157</v>
       </c>
       <c r="E128" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="G128" t="str">
-        <f t="shared" si="15"/>
-        <v>Andrea Tartari                  \\</v>
+        <f t="shared" si="18"/>
+        <v>Benjamin Saliwanchik            \\</v>
       </c>
       <c r="I128">
-        <f t="shared" si="16"/>
-        <v>14</v>
+        <f t="shared" si="19"/>
+        <v>20</v>
       </c>
       <c r="J128">
-        <f t="shared" si="17"/>
-        <v>18</v>
+        <f t="shared" si="20"/>
+        <v>12</v>
       </c>
       <c r="K128" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">            </v>
       </c>
     </row>
     <row r="129" spans="2:11">
-      <c r="B129" t="s">
-        <v>264</v>
+      <c r="B129" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="D129" t="s">
         <v>157</v>
       </c>
       <c r="E129" t="s">
-        <v>266</v>
+        <v>223</v>
       </c>
       <c r="G129" t="str">
-        <f t="shared" si="15"/>
-        <v>Grant Teply                     \\</v>
+        <f t="shared" si="18"/>
+        <v>Neelima Sehgal                  \\</v>
       </c>
       <c r="I129">
-        <f t="shared" si="16"/>
-        <v>11</v>
+        <f t="shared" si="19"/>
+        <v>14</v>
       </c>
       <c r="J129">
-        <f t="shared" si="17"/>
-        <v>21</v>
+        <f t="shared" si="20"/>
+        <v>18</v>
       </c>
       <c r="K129" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="130" spans="2:11">
-      <c r="B130" s="1" t="s">
-        <v>9</v>
+      <c r="B130" t="s">
+        <v>256</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>302</v>
+        <v>257</v>
       </c>
       <c r="D130" t="s">
         <v>157</v>
       </c>
       <c r="E130" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="G130" t="str">
-        <f t="shared" si="15"/>
-        <v>Peter Timbie                    \\</v>
+        <f t="shared" si="18"/>
+        <v>Sarah Shandera                  \\</v>
       </c>
       <c r="I130">
-        <f t="shared" si="16"/>
-        <v>12</v>
+        <f t="shared" si="19"/>
+        <v>14</v>
       </c>
       <c r="J130">
-        <f t="shared" si="17"/>
-        <v>20</v>
+        <f t="shared" si="20"/>
+        <v>18</v>
       </c>
       <c r="K130" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="131" spans="2:11">
       <c r="B131" t="s">
-        <v>267</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>268</v>
+        <v>187</v>
+      </c>
+      <c r="C131" t="s">
+        <v>318</v>
       </c>
       <c r="D131" t="s">
         <v>157</v>
       </c>
       <c r="E131" t="s">
-        <v>269</v>
+        <v>188</v>
       </c>
       <c r="G131" t="str">
-        <f t="shared" si="15"/>
-        <v>Matthieu Tristram               \\</v>
+        <f t="shared" si="18"/>
+        <v>Erik Shirokoff                  \\</v>
       </c>
       <c r="I131">
-        <f t="shared" si="16"/>
-        <v>17</v>
+        <f t="shared" si="19"/>
+        <v>14</v>
       </c>
       <c r="J131">
-        <f t="shared" si="17"/>
-        <v>15</v>
+        <f t="shared" si="20"/>
+        <v>18</v>
       </c>
       <c r="K131" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">               </v>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="132" spans="2:11">
-      <c r="B132" s="1" t="s">
-        <v>321</v>
+      <c r="B132" t="s">
+        <v>259</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>322</v>
+        <v>260</v>
       </c>
       <c r="D132" t="s">
         <v>157</v>
       </c>
       <c r="E132" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="G132" t="str">
-        <f t="shared" si="15"/>
-        <v>Caterina Umilt\`{a}             \\</v>
+        <f t="shared" si="18"/>
+        <v>An\v{z}e Slosar                 \\</v>
       </c>
       <c r="I132">
-        <f t="shared" si="16"/>
-        <v>19</v>
+        <f t="shared" si="19"/>
+        <v>15</v>
       </c>
       <c r="J132">
-        <f t="shared" si="17"/>
-        <v>13</v>
+        <f t="shared" si="20"/>
+        <v>17</v>
       </c>
       <c r="K132" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">             </v>
+        <v xml:space="preserve">                 </v>
       </c>
     </row>
     <row r="133" spans="2:11">
-      <c r="B133" s="1" t="s">
-        <v>332</v>
+      <c r="B133" t="s">
+        <v>262</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>331</v>
+        <v>263</v>
       </c>
       <c r="D133" t="s">
         <v>157</v>
       </c>
-      <c r="E133" s="1" t="s">
-        <v>323</v>
+      <c r="E133" t="s">
+        <v>186</v>
       </c>
       <c r="G133" t="str">
-        <f t="shared" si="15"/>
-        <v>Patricio Vielva                 \\</v>
+        <f t="shared" si="18"/>
+        <v>Aritoki Suzuki                  \\</v>
       </c>
       <c r="I133">
-        <f t="shared" si="16"/>
-        <v>15</v>
+        <f t="shared" si="19"/>
+        <v>14</v>
       </c>
       <c r="J133">
-        <f t="shared" si="17"/>
-        <v>17</v>
+        <f t="shared" si="20"/>
+        <v>18</v>
       </c>
       <c r="K133" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="134" spans="2:11">
       <c r="B134" s="1" t="s">
-        <v>289</v>
+        <v>81</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="D134" t="s">
         <v>157</v>
       </c>
       <c r="E134" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G134" t="str">
-        <f t="shared" ref="G134:G136" si="18">CONCATENATE(B134," ",C134,K134,"\\")</f>
-        <v>Benjamin Wallisch               \\</v>
+        <f t="shared" si="18"/>
+        <v>Eric Switzer                    \\</v>
       </c>
       <c r="I134">
-        <f t="shared" ref="I134:I136" si="19">LEN(B134) + LEN(C134) +1</f>
-        <v>17</v>
+        <f t="shared" si="19"/>
+        <v>12</v>
       </c>
       <c r="J134">
-        <f t="shared" ref="J134:J136" si="20">IF(I134&lt;30,(32-I134),3)</f>
-        <v>15</v>
+        <f t="shared" si="20"/>
+        <v>20</v>
       </c>
       <c r="K134" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">               </v>
+        <v xml:space="preserve">                    </v>
       </c>
     </row>
     <row r="135" spans="2:11">
-      <c r="B135" t="s">
-        <v>270</v>
+      <c r="B135" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="D135" t="s">
         <v>157</v>
       </c>
       <c r="E135" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="G135" t="str">
         <f t="shared" si="18"/>
-        <v>Scott Watson                    \\</v>
+        <v>Andrea Tartari                  \\</v>
       </c>
       <c r="I135">
         <f t="shared" si="19"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J135">
         <f t="shared" si="20"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K135" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="136" spans="2:11">
       <c r="B136" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D136" t="s">
         <v>157</v>
       </c>
       <c r="E136" t="s">
-        <v>59</v>
+        <v>266</v>
       </c>
       <c r="G136" t="str">
         <f t="shared" si="18"/>
-        <v>Edward J. Wollack               \\</v>
+        <v>Grant Teply                     \\</v>
       </c>
       <c r="I136">
         <f t="shared" si="19"/>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J136">
         <f t="shared" si="20"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K136" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">               </v>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="137" spans="2:11">
+      <c r="B137" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D137" t="s">
+        <v>157</v>
+      </c>
+      <c r="E137" t="s">
+        <v>287</v>
+      </c>
       <c r="G137" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">                                \\</v>
+        <f t="shared" si="18"/>
+        <v>Peter Timbie                    \\</v>
       </c>
       <c r="I137">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>12</v>
       </c>
       <c r="J137">
-        <f t="shared" si="14"/>
-        <v>31</v>
+        <f t="shared" si="20"/>
+        <v>20</v>
       </c>
       <c r="K137" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                               </v>
+        <v xml:space="preserve">                    </v>
       </c>
     </row>
     <row r="138" spans="2:11">
+      <c r="B138" t="s">
+        <v>267</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D138" t="s">
+        <v>157</v>
+      </c>
+      <c r="E138" t="s">
+        <v>269</v>
+      </c>
       <c r="G138" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">                                \\</v>
+        <f t="shared" si="18"/>
+        <v>Matthieu Tristram               \\</v>
       </c>
       <c r="I138">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>17</v>
       </c>
       <c r="J138">
-        <f t="shared" si="14"/>
-        <v>31</v>
+        <f t="shared" si="20"/>
+        <v>15</v>
       </c>
       <c r="K138" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                               </v>
+        <v xml:space="preserve">               </v>
       </c>
     </row>
     <row r="139" spans="2:11">
+      <c r="B139" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D139" t="s">
+        <v>157</v>
+      </c>
+      <c r="E139" t="s">
+        <v>282</v>
+      </c>
       <c r="G139" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">                                \\</v>
+        <f t="shared" si="18"/>
+        <v>Caterina Umilt\`{a}             \\</v>
       </c>
       <c r="I139">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>19</v>
       </c>
       <c r="J139">
-        <f t="shared" si="14"/>
-        <v>31</v>
+        <f t="shared" si="20"/>
+        <v>13</v>
       </c>
       <c r="K139" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                               </v>
+        <v xml:space="preserve">             </v>
       </c>
     </row>
     <row r="140" spans="2:11">
       <c r="B140" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C140" t="s">
-        <v>148</v>
+        <v>332</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>331</v>
       </c>
       <c r="D140" t="s">
         <v>157</v>
       </c>
+      <c r="E140" s="1" t="s">
+        <v>323</v>
+      </c>
       <c r="G140" t="str">
-        <f t="shared" ref="G140:G181" si="21">CONCATENATE(B140," ",C140,K140,"\\")</f>
-        <v>Martin White                    \\</v>
+        <f t="shared" si="18"/>
+        <v>Patricio Vielva                 \\</v>
       </c>
       <c r="I140">
-        <f t="shared" ref="I140:I181" si="22">LEN(B140) + LEN(C140) +1</f>
+        <f t="shared" si="19"/>
+        <v>15</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="20"/>
+        <v>17</v>
+      </c>
+      <c r="K140" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                 </v>
+      </c>
+    </row>
+    <row r="141" spans="2:11">
+      <c r="B141" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D141" t="s">
+        <v>157</v>
+      </c>
+      <c r="E141" t="s">
+        <v>281</v>
+      </c>
+      <c r="G141" t="str">
+        <f t="shared" ref="G141:G143" si="21">CONCATENATE(B141," ",C141,K141,"\\")</f>
+        <v>Benjamin Wallisch               \\</v>
+      </c>
+      <c r="I141">
+        <f t="shared" ref="I141:I143" si="22">LEN(B141) + LEN(C141) +1</f>
+        <v>17</v>
+      </c>
+      <c r="J141">
+        <f t="shared" ref="J141:J143" si="23">IF(I141&lt;30,(32-I141),3)</f>
+        <v>15</v>
+      </c>
+      <c r="K141" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">               </v>
+      </c>
+    </row>
+    <row r="142" spans="2:11">
+      <c r="B142" t="s">
+        <v>270</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D142" t="s">
+        <v>157</v>
+      </c>
+      <c r="E142" t="s">
+        <v>272</v>
+      </c>
+      <c r="G142" t="str">
+        <f t="shared" si="21"/>
+        <v>Scott Watson                    \\</v>
+      </c>
+      <c r="I142">
+        <f t="shared" si="22"/>
         <v>12</v>
-      </c>
-      <c r="J140">
-        <f t="shared" ref="J140:J181" si="23">IF(I140&lt;30,(32-I140),3)</f>
-        <v>20</v>
-      </c>
-      <c r="K140" t="str">
-        <f t="shared" ref="K140:K181" si="24">REPT(" ",J140)</f>
-        <v xml:space="preserve">                    </v>
-      </c>
-    </row>
-    <row r="141" spans="2:11">
-      <c r="G141" t="str">
-        <f>CONCATENATE(B134," ",E134,K141,"\\")</f>
-        <v>Benjamin Institute for Advanced Study/University of California, San Diego   \\</v>
-      </c>
-      <c r="I141">
-        <f>LEN(B134) + LEN(E134) +1</f>
-        <v>73</v>
-      </c>
-      <c r="J141">
-        <f>IF(I141&lt;30,(32-I141),3)</f>
-        <v>3</v>
-      </c>
-      <c r="K141" t="str">
-        <f>REPT(" ",J141)</f>
-        <v xml:space="preserve">   </v>
-      </c>
-    </row>
-    <row r="142" spans="2:11">
-      <c r="G142" t="str">
-        <f>CONCATENATE(B136," ",E136,K142,"\\")</f>
-        <v>Edward J. NASA Goddard Space Flight Center   \\</v>
-      </c>
-      <c r="I142">
-        <f>LEN(B136) + LEN(E136) +1</f>
-        <v>42</v>
       </c>
       <c r="J142">
         <f t="shared" si="23"/>
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="K142" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">   </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                    </v>
       </c>
     </row>
     <row r="143" spans="2:11">
-      <c r="B143" s="1" t="s">
-        <v>324</v>
+      <c r="B143" t="s">
+        <v>273</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>209</v>
+        <v>274</v>
       </c>
       <c r="D143" t="s">
-        <v>8</v>
+        <v>157</v>
       </c>
       <c r="E143" t="s">
-        <v>325</v>
+        <v>59</v>
       </c>
       <c r="G143" t="str">
         <f t="shared" si="21"/>
-        <v>Kimberly K. Boddy Johns Hopkins University   \\</v>
+        <v>Edward J. Wollack               \\</v>
       </c>
       <c r="I143">
         <f t="shared" si="22"/>
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="J143">
         <f t="shared" si="23"/>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="K143" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">   </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">               </v>
       </c>
     </row>
     <row r="144" spans="2:11">
       <c r="G144" t="str">
-        <f>CONCATENATE(B135," ",E135,K144,"\\")</f>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">                                \\</v>
+      </c>
+      <c r="I144">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="17"/>
+        <v>31</v>
+      </c>
+      <c r="K144" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                               </v>
+      </c>
+    </row>
+    <row r="145" spans="2:11">
+      <c r="G145" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">                                \\</v>
+      </c>
+      <c r="I145">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <f t="shared" si="17"/>
+        <v>31</v>
+      </c>
+      <c r="K145" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                               </v>
+      </c>
+    </row>
+    <row r="146" spans="2:11">
+      <c r="G146" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">                                \\</v>
+      </c>
+      <c r="I146">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <f t="shared" si="17"/>
+        <v>31</v>
+      </c>
+      <c r="K146" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">                               </v>
+      </c>
+    </row>
+    <row r="147" spans="2:11">
+      <c r="B147" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C147" t="s">
+        <v>148</v>
+      </c>
+      <c r="D147" t="s">
+        <v>157</v>
+      </c>
+      <c r="G147" t="str">
+        <f t="shared" ref="G147:G188" si="24">CONCATENATE(B147," ",C147,K147,"\\")</f>
+        <v>Martin White                    \\</v>
+      </c>
+      <c r="I147">
+        <f t="shared" ref="I147:I188" si="25">LEN(B147) + LEN(C147) +1</f>
+        <v>12</v>
+      </c>
+      <c r="J147">
+        <f t="shared" ref="J147:J188" si="26">IF(I147&lt;30,(32-I147),3)</f>
+        <v>20</v>
+      </c>
+      <c r="K147" t="str">
+        <f t="shared" ref="K147:K188" si="27">REPT(" ",J147)</f>
+        <v xml:space="preserve">                    </v>
+      </c>
+    </row>
+    <row r="148" spans="2:11">
+      <c r="G148" t="str">
+        <f>CONCATENATE(B141," ",E141,K148,"\\")</f>
+        <v>Benjamin Institute for Advanced Study/University of California, San Diego   \\</v>
+      </c>
+      <c r="I148">
+        <f>LEN(B141) + LEN(E141) +1</f>
+        <v>73</v>
+      </c>
+      <c r="J148">
+        <f>IF(I148&lt;30,(32-I148),3)</f>
+        <v>3</v>
+      </c>
+      <c r="K148" t="str">
+        <f>REPT(" ",J148)</f>
+        <v xml:space="preserve">   </v>
+      </c>
+    </row>
+    <row r="149" spans="2:11">
+      <c r="G149" t="str">
+        <f>CONCATENATE(B143," ",E143,K149,"\\")</f>
+        <v>Edward J. NASA Goddard Space Flight Center   \\</v>
+      </c>
+      <c r="I149">
+        <f>LEN(B143) + LEN(E143) +1</f>
+        <v>42</v>
+      </c>
+      <c r="J149">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="K149" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">   </v>
+      </c>
+    </row>
+    <row r="150" spans="2:11">
+      <c r="B150" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D150" t="s">
+        <v>8</v>
+      </c>
+      <c r="E150" t="s">
+        <v>325</v>
+      </c>
+      <c r="G150" t="str">
+        <f t="shared" si="24"/>
+        <v>Kimberly K. Boddy Johns Hopkins University   \\</v>
+      </c>
+      <c r="I150">
+        <f t="shared" si="25"/>
+        <v>42</v>
+      </c>
+      <c r="J150">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="K150" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">   </v>
+      </c>
+    </row>
+    <row r="151" spans="2:11">
+      <c r="G151" t="str">
+        <f>CONCATENATE(B142," ",E142,K151,"\\")</f>
         <v>Scott Syracuse                  \\</v>
       </c>
-      <c r="I144">
-        <f>LEN(B135) + LEN(E135) +1</f>
+      <c r="I151">
+        <f>LEN(B142) + LEN(E142) +1</f>
         <v>14</v>
       </c>
-      <c r="J144">
-        <f t="shared" si="23"/>
+      <c r="J151">
+        <f t="shared" si="26"/>
         <v>18</v>
       </c>
-      <c r="K144" t="str">
+      <c r="K151" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">                  </v>
+      </c>
+    </row>
+    <row r="152" spans="2:11">
+      <c r="G152" t="str">
         <f t="shared" si="24"/>
-        <v xml:space="preserve">                  </v>
-      </c>
-    </row>
-    <row r="145" spans="7:11">
-      <c r="G145" t="str">
-        <f t="shared" si="21"/>
         <v xml:space="preserve">                                \\</v>
       </c>
-      <c r="I145">
-        <f t="shared" si="22"/>
+      <c r="I152">
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="J145">
-        <f t="shared" si="23"/>
+      <c r="J152">
+        <f t="shared" si="26"/>
         <v>31</v>
       </c>
-      <c r="K145" t="str">
+      <c r="K152" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">                               </v>
+      </c>
+    </row>
+    <row r="153" spans="2:11">
+      <c r="G153" t="str">
         <f t="shared" si="24"/>
+        <v xml:space="preserve">                                \\</v>
+      </c>
+      <c r="I153">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <f t="shared" si="26"/>
+        <v>31</v>
+      </c>
+      <c r="K153" t="str">
+        <f t="shared" si="27"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
-    <row r="146" spans="7:11">
-      <c r="G146" t="str">
-        <f t="shared" si="21"/>
+    <row r="154" spans="2:11">
+      <c r="G154" t="str">
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                                \\</v>
       </c>
-      <c r="I146">
-        <f t="shared" si="22"/>
+      <c r="I154">
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="J146">
-        <f t="shared" si="23"/>
+      <c r="J154">
+        <f t="shared" si="26"/>
         <v>31</v>
       </c>
-      <c r="K146" t="str">
+      <c r="K154" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">                               </v>
+      </c>
+    </row>
+    <row r="155" spans="2:11">
+      <c r="G155" t="str">
         <f t="shared" si="24"/>
+        <v xml:space="preserve">                                \\</v>
+      </c>
+      <c r="I155">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <f t="shared" si="26"/>
+        <v>31</v>
+      </c>
+      <c r="K155" t="str">
+        <f t="shared" si="27"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
-    <row r="147" spans="7:11">
-      <c r="G147" t="str">
-        <f t="shared" si="21"/>
+    <row r="156" spans="2:11">
+      <c r="G156" t="str">
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                                \\</v>
       </c>
-      <c r="I147">
-        <f t="shared" si="22"/>
+      <c r="I156">
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="J147">
-        <f t="shared" si="23"/>
+      <c r="J156">
+        <f t="shared" si="26"/>
         <v>31</v>
       </c>
-      <c r="K147" t="str">
+      <c r="K156" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">                               </v>
+      </c>
+    </row>
+    <row r="157" spans="2:11">
+      <c r="G157" t="str">
         <f t="shared" si="24"/>
+        <v xml:space="preserve">                                \\</v>
+      </c>
+      <c r="I157">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <f t="shared" si="26"/>
+        <v>31</v>
+      </c>
+      <c r="K157" t="str">
+        <f t="shared" si="27"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
-    <row r="148" spans="7:11">
-      <c r="G148" t="str">
-        <f t="shared" si="21"/>
+    <row r="158" spans="2:11">
+      <c r="G158" t="str">
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                                \\</v>
       </c>
-      <c r="I148">
-        <f t="shared" si="22"/>
+      <c r="I158">
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="J148">
-        <f t="shared" si="23"/>
+      <c r="J158">
+        <f t="shared" si="26"/>
         <v>31</v>
       </c>
-      <c r="K148" t="str">
+      <c r="K158" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">                               </v>
+      </c>
+    </row>
+    <row r="159" spans="2:11">
+      <c r="G159" t="str">
         <f t="shared" si="24"/>
+        <v xml:space="preserve">                                \\</v>
+      </c>
+      <c r="I159">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <f t="shared" si="26"/>
+        <v>31</v>
+      </c>
+      <c r="K159" t="str">
+        <f t="shared" si="27"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
-    <row r="149" spans="7:11">
-      <c r="G149" t="str">
-        <f t="shared" si="21"/>
+    <row r="160" spans="2:11">
+      <c r="G160" t="str">
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                                \\</v>
       </c>
-      <c r="I149">
-        <f t="shared" si="22"/>
+      <c r="I160">
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="J149">
-        <f t="shared" si="23"/>
+      <c r="J160">
+        <f t="shared" si="26"/>
         <v>31</v>
       </c>
-      <c r="K149" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="150" spans="7:11">
-      <c r="G150" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I150">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="J150">
-        <f t="shared" si="23"/>
-        <v>31</v>
-      </c>
-      <c r="K150" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="151" spans="7:11">
-      <c r="G151" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I151">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="J151">
-        <f t="shared" si="23"/>
-        <v>31</v>
-      </c>
-      <c r="K151" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="152" spans="7:11">
-      <c r="G152" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I152">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="J152">
-        <f t="shared" si="23"/>
-        <v>31</v>
-      </c>
-      <c r="K152" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="153" spans="7:11">
-      <c r="G153" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I153">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="J153">
-        <f t="shared" si="23"/>
-        <v>31</v>
-      </c>
-      <c r="K153" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="154" spans="7:11">
-      <c r="G154" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I154">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="J154">
-        <f t="shared" si="23"/>
-        <v>31</v>
-      </c>
-      <c r="K154" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="155" spans="7:11">
-      <c r="G155" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I155">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="J155">
-        <f t="shared" si="23"/>
-        <v>31</v>
-      </c>
-      <c r="K155" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="156" spans="7:11">
-      <c r="G156" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I156">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="J156">
-        <f t="shared" si="23"/>
-        <v>31</v>
-      </c>
-      <c r="K156" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="157" spans="7:11">
-      <c r="G157" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I157">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="J157">
-        <f t="shared" si="23"/>
-        <v>31</v>
-      </c>
-      <c r="K157" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="158" spans="7:11">
-      <c r="G158" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I158">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="J158">
-        <f t="shared" si="23"/>
-        <v>31</v>
-      </c>
-      <c r="K158" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="159" spans="7:11">
-      <c r="G159" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I159">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="J159">
-        <f t="shared" si="23"/>
-        <v>31</v>
-      </c>
-      <c r="K159" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="160" spans="7:11">
-      <c r="G160" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I160">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="J160">
-        <f t="shared" si="23"/>
-        <v>31</v>
-      </c>
       <c r="K160" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="161" spans="7:11">
       <c r="G161" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I161">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="J161">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>31</v>
       </c>
       <c r="K161" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="162" spans="7:11">
       <c r="G162" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I162">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="J162">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>31</v>
       </c>
       <c r="K162" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="163" spans="7:11">
       <c r="G163" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I163">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="J163">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>31</v>
       </c>
       <c r="K163" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="164" spans="7:11">
       <c r="G164" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I164">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="J164">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>31</v>
       </c>
       <c r="K164" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="165" spans="7:11">
       <c r="G165" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I165">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="J165">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>31</v>
       </c>
       <c r="K165" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="166" spans="7:11">
       <c r="G166" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I166">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="J166">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>31</v>
       </c>
       <c r="K166" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="167" spans="7:11">
       <c r="G167" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I167">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="J167">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>31</v>
       </c>
       <c r="K167" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="168" spans="7:11">
       <c r="G168" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I168">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="J168">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>31</v>
       </c>
       <c r="K168" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="169" spans="7:11">
       <c r="G169" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I169">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="J169">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>31</v>
       </c>
       <c r="K169" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="170" spans="7:11">
       <c r="G170" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I170">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="J170">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>31</v>
       </c>
       <c r="K170" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="171" spans="7:11">
       <c r="G171" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I171">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="J171">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>31</v>
       </c>
       <c r="K171" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="172" spans="7:11">
       <c r="G172" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I172">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="J172">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>31</v>
       </c>
       <c r="K172" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="173" spans="7:11">
       <c r="G173" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I173">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="J173">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>31</v>
       </c>
       <c r="K173" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="174" spans="7:11">
       <c r="G174" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I174">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="J174">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>31</v>
       </c>
       <c r="K174" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="175" spans="7:11">
       <c r="G175" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I175">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="J175">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>31</v>
       </c>
       <c r="K175" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="176" spans="7:11">
       <c r="G176" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I176">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="J176">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>31</v>
       </c>
       <c r="K176" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="177" spans="7:11">
       <c r="G177" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I177">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="J177">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>31</v>
       </c>
       <c r="K177" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="178" spans="7:11">
       <c r="G178" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I178">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="J178">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>31</v>
       </c>
       <c r="K178" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="179" spans="7:11">
       <c r="G179" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I179">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="J179">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>31</v>
       </c>
       <c r="K179" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="180" spans="7:11">
       <c r="G180" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I180">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="J180">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>31</v>
       </c>
       <c r="K180" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="181" spans="7:11">
       <c r="G181" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I181">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="J181">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>31</v>
       </c>
       <c r="K181" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">                               </v>
+      </c>
+    </row>
+    <row r="182" spans="7:11">
+      <c r="G182" t="str">
         <f t="shared" si="24"/>
+        <v xml:space="preserve">                                \\</v>
+      </c>
+      <c r="I182">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="J182">
+        <f t="shared" si="26"/>
+        <v>31</v>
+      </c>
+      <c r="K182" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">                               </v>
+      </c>
+    </row>
+    <row r="183" spans="7:11">
+      <c r="G183" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">                                \\</v>
+      </c>
+      <c r="I183">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="J183">
+        <f t="shared" si="26"/>
+        <v>31</v>
+      </c>
+      <c r="K183" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">                               </v>
+      </c>
+    </row>
+    <row r="184" spans="7:11">
+      <c r="G184" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">                                \\</v>
+      </c>
+      <c r="I184">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="J184">
+        <f t="shared" si="26"/>
+        <v>31</v>
+      </c>
+      <c r="K184" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">                               </v>
+      </c>
+    </row>
+    <row r="185" spans="7:11">
+      <c r="G185" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">                                \\</v>
+      </c>
+      <c r="I185">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="J185">
+        <f t="shared" si="26"/>
+        <v>31</v>
+      </c>
+      <c r="K185" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">                               </v>
+      </c>
+    </row>
+    <row r="186" spans="7:11">
+      <c r="G186" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">                                \\</v>
+      </c>
+      <c r="I186">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <f t="shared" si="26"/>
+        <v>31</v>
+      </c>
+      <c r="K186" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">                               </v>
+      </c>
+    </row>
+    <row r="187" spans="7:11">
+      <c r="G187" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">                                \\</v>
+      </c>
+      <c r="I187">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <f t="shared" si="26"/>
+        <v>31</v>
+      </c>
+      <c r="K187" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">                               </v>
+      </c>
+    </row>
+    <row r="188" spans="7:11">
+      <c r="G188" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">                                \\</v>
+      </c>
+      <c r="I188">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="J188">
+        <f t="shared" si="26"/>
+        <v>31</v>
+      </c>
+      <c r="K188" t="str">
+        <f t="shared" si="27"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>

--- a/ReferenceDocuments/ReportAuthors.xlsx
+++ b/ReferenceDocuments/ReportAuthors.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="360">
   <si>
     <t>Report Authors</t>
   </si>
@@ -112,9 +112,6 @@
     <t>Borrill</t>
   </si>
   <si>
-    <t>Francois</t>
-  </si>
-  <si>
     <t>Boulanger</t>
   </si>
   <si>
@@ -452,9 +449,6 @@
   </si>
   <si>
     <t>Wen</t>
-  </si>
-  <si>
-    <t>UMN</t>
   </si>
   <si>
     <t>Martin</t>
@@ -1057,22 +1051,79 @@
     <t>Hlo\v{z}ek</t>
   </si>
   <si>
-    <t>Valentino</t>
-  </si>
-  <si>
     <t>Department of Astronomy \&amp; Astrophysics and Dunlap Institute, University of Toronto</t>
   </si>
   <si>
-    <t>12/18/2018, 3 pm.</t>
-  </si>
-  <si>
     <t>UC Berkeley / LBNL</t>
   </si>
   <si>
     <t>University of Oslo</t>
   </si>
   <si>
-    <t>Eleonora Di</t>
+    <t> Instituto de Física de Cantabria (CSIC-Universidad de Cantabria), Avda. de los Castros s/n, Santander, Spain </t>
+  </si>
+  <si>
+    <t>School of Physics, Indian Institute of Science Education and Research Thiruvananthapuram, Maruthamala PO, Vithura, Thiruvananthapuram, 695551 Kerala, India</t>
+  </si>
+  <si>
+    <t>Lawrence Berkeley National Laboratory, Berkeley, CA, USA , Space Sciences Laboratory, University of California, Berkeley, CA, USA</t>
+  </si>
+  <si>
+    <t>Institut d’Astrophysique Spatiale, Orsay, France</t>
+  </si>
+  <si>
+    <t>Villanova University</t>
+  </si>
+  <si>
+    <t>University of Southern California</t>
+  </si>
+  <si>
+    <t>Canadian Institute for Theoretical Astrophysics, University of Toronto, 60 St. George Street, Toronto, Canada</t>
+  </si>
+  <si>
+    <t>Institut Lagrange, LPNHE, place Jussieu 4, 75005 Paris, France</t>
+  </si>
+  <si>
+    <t>Flatiron Institute</t>
+  </si>
+  <si>
+    <t>JPL</t>
+  </si>
+  <si>
+    <t>University of California, Berkeley</t>
+  </si>
+  <si>
+    <t>Institute for Advanced Study, Flatiron Institute</t>
+  </si>
+  <si>
+    <t>UC Davis</t>
+  </si>
+  <si>
+    <t>University of Wisconsin - Madison</t>
+  </si>
+  <si>
+    <t>Department of Astrophysical Sciences, Princeton University</t>
+  </si>
+  <si>
+    <t>CEA Saclay, DRF/Irfu/SPP, 91191 Gif-sur-Yvette Cedex, France</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>Institute for Advanced Study, Princeton</t>
+  </si>
+  <si>
+    <t>University of British Columbia, Canada</t>
+  </si>
+  <si>
+    <t>Institut d’Astrophysique Spatiale, CNRS, Univ. Paris-Sud, Universite´ Paris-Saclay, Bat. 121, 91405 Orsay cedex, France</t>
+  </si>
+  <si>
+    <t>San Diego Supercomputer Center, UC San Diego</t>
+  </si>
+  <si>
+    <t>12/18/2018, 5 pm.</t>
   </si>
 </sst>
 </file>
@@ -1524,8 +1575,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1555,25 +1606,25 @@
       </c>
       <c r="B3"/>
       <c r="C3" s="1" t="s">
-        <v>339</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B4"/>
       <c r="C4" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B5"/>
       <c r="C5" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1581,10 +1632,10 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1605,16 +1656,16 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I9" t="s">
+        <v>303</v>
+      </c>
+      <c r="J9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K9" t="s">
         <v>305</v>
-      </c>
-      <c r="J9" t="s">
-        <v>306</v>
-      </c>
-      <c r="K9" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1628,7 +1679,7 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G10" t="str">
         <f>CONCATENATE(B10," ",C10,K10,"\\")</f>
@@ -1718,7 +1769,7 @@
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
@@ -1747,6 +1798,9 @@
       <c r="D14" t="s">
         <v>8</v>
       </c>
+      <c r="E14" t="s">
+        <v>338</v>
+      </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
         <v>Belen Barreiro                  \\</v>
@@ -1804,6 +1858,9 @@
       <c r="D16" t="s">
         <v>8</v>
       </c>
+      <c r="E16" t="s">
+        <v>339</v>
+      </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
         <v>Soumen Basak                    \\</v>
@@ -1831,6 +1888,9 @@
       <c r="D17" t="s">
         <v>8</v>
       </c>
+      <c r="E17" t="s">
+        <v>91</v>
+      </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
         <v>Nicholas Battaglia              \\</v>
@@ -1850,16 +1910,16 @@
     </row>
     <row r="18" spans="2:11">
       <c r="B18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
         <v>170</v>
-      </c>
-      <c r="C18" t="s">
-        <v>171</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
-        <v>172</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
@@ -1880,7 +1940,7 @@
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>26</v>
@@ -1889,7 +1949,7 @@
         <v>8</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
@@ -1948,6 +2008,9 @@
       <c r="D21" t="s">
         <v>8</v>
       </c>
+      <c r="E21" t="s">
+        <v>340</v>
+      </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
         <v>Julian Borrill                  \\</v>
@@ -1967,43 +2030,46 @@
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="D22" t="s">
         <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>341</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>Francois Boulanger              \\</v>
+        <v>Fran\c{c}ois Boulanger          \\</v>
       </c>
       <c r="I22">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J22">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">              </v>
+        <v xml:space="preserve">          </v>
       </c>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
         <v>35</v>
-      </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" t="s">
-        <v>36</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
@@ -2024,13 +2090,16 @@
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="D24" t="s">
         <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>342</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
@@ -2051,16 +2120,16 @@
     </row>
     <row r="25" spans="2:11">
       <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
         <v>39</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
         <v>40</v>
-      </c>
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" t="s">
-        <v>41</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
@@ -2081,13 +2150,16 @@
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="D26" t="s">
         <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>53</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
@@ -2108,16 +2180,16 @@
     </row>
     <row r="27" spans="2:11">
       <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" t="s">
         <v>45</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
         <v>46</v>
-      </c>
-      <c r="D27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" t="s">
-        <v>47</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
@@ -2138,16 +2210,16 @@
     </row>
     <row r="28" spans="2:11">
       <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
         <v>49</v>
-      </c>
-      <c r="D28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" t="s">
-        <v>50</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
@@ -2168,13 +2240,16 @@
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D29" t="s">
         <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>343</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
@@ -2195,16 +2270,16 @@
     </row>
     <row r="30" spans="2:11">
       <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
         <v>53</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" t="s">
-        <v>54</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
@@ -2225,13 +2300,16 @@
     </row>
     <row r="31" spans="2:11">
       <c r="B31" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C31" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D31" t="s">
         <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>344</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
@@ -2252,13 +2330,16 @@
     </row>
     <row r="32" spans="2:11">
       <c r="B32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D32" t="s">
         <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>345</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
@@ -2279,16 +2360,16 @@
     </row>
     <row r="33" spans="2:11">
       <c r="B33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
         <v>58</v>
-      </c>
-      <c r="D33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" t="s">
-        <v>59</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
@@ -2309,13 +2390,16 @@
     </row>
     <row r="34" spans="2:11">
       <c r="B34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="D34" t="s">
         <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>346</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
@@ -2336,16 +2420,16 @@
     </row>
     <row r="35" spans="2:11">
       <c r="B35" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C35" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
@@ -2366,16 +2450,16 @@
     </row>
     <row r="36" spans="2:11">
       <c r="B36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
         <v>63</v>
-      </c>
-      <c r="D36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" t="s">
-        <v>64</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
@@ -2396,16 +2480,16 @@
     </row>
     <row r="37" spans="2:11">
       <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" t="s">
         <v>65</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
         <v>66</v>
-      </c>
-      <c r="D37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" t="s">
-        <v>67</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
@@ -2426,13 +2510,16 @@
     </row>
     <row r="38" spans="2:11">
       <c r="B38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="D38" t="s">
         <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>40</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
@@ -2453,13 +2540,16 @@
     </row>
     <row r="39" spans="2:11">
       <c r="B39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="D39" t="s">
         <v>8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>347</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
@@ -2480,13 +2570,16 @@
     </row>
     <row r="40" spans="2:11">
       <c r="B40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="D40" t="s">
         <v>8</v>
+      </c>
+      <c r="E40" t="s">
+        <v>348</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
@@ -2507,13 +2600,16 @@
     </row>
     <row r="41" spans="2:11">
       <c r="B41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="D41" t="s">
         <v>8</v>
+      </c>
+      <c r="E41" t="s">
+        <v>91</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
@@ -2534,16 +2630,16 @@
     </row>
     <row r="42" spans="2:11">
       <c r="B42" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s">
         <v>77</v>
-      </c>
-      <c r="D42" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" t="s">
-        <v>78</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
@@ -2564,13 +2660,16 @@
     </row>
     <row r="43" spans="2:11">
       <c r="B43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="D43" t="s">
         <v>8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>349</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
@@ -2591,16 +2690,16 @@
     </row>
     <row r="44" spans="2:11">
       <c r="B44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
         <v>82</v>
-      </c>
-      <c r="D44" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" t="s">
-        <v>83</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
@@ -2621,16 +2720,16 @@
     </row>
     <row r="45" spans="2:11">
       <c r="B45" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" t="s">
         <v>85</v>
-      </c>
-      <c r="D45" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" t="s">
-        <v>86</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
@@ -2651,16 +2750,16 @@
     </row>
     <row r="46" spans="2:11">
       <c r="B46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" t="s">
         <v>87</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
         <v>88</v>
-      </c>
-      <c r="D46" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" t="s">
-        <v>89</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
@@ -2681,16 +2780,16 @@
     </row>
     <row r="47" spans="2:11">
       <c r="B47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" t="s">
         <v>90</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s">
         <v>91</v>
-      </c>
-      <c r="D47" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
@@ -2711,16 +2810,16 @@
     </row>
     <row r="48" spans="2:11">
       <c r="B48" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s">
         <v>93</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
@@ -2741,13 +2840,16 @@
     </row>
     <row r="49" spans="2:11">
       <c r="B49" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D49" t="s">
         <v>8</v>
+      </c>
+      <c r="E49" t="s">
+        <v>350</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
@@ -2768,13 +2870,16 @@
     </row>
     <row r="50" spans="2:11">
       <c r="B50" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="D50" t="s">
         <v>8</v>
+      </c>
+      <c r="E50" t="s">
+        <v>58</v>
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
@@ -2795,16 +2900,16 @@
     </row>
     <row r="51" spans="2:11">
       <c r="B51" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C51" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D51" t="s">
         <v>8</v>
       </c>
       <c r="E51" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
@@ -2825,13 +2930,16 @@
     </row>
     <row r="52" spans="2:11">
       <c r="B52" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" t="s">
         <v>98</v>
       </c>
-      <c r="C52" t="s">
-        <v>99</v>
-      </c>
       <c r="D52" t="s">
         <v>8</v>
+      </c>
+      <c r="E52" t="s">
+        <v>347</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
@@ -2852,13 +2960,16 @@
     </row>
     <row r="53" spans="2:11">
       <c r="B53" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" t="s">
         <v>100</v>
       </c>
-      <c r="C53" t="s">
-        <v>101</v>
-      </c>
       <c r="D53" t="s">
         <v>8</v>
+      </c>
+      <c r="E53" t="s">
+        <v>351</v>
       </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
@@ -2879,13 +2990,16 @@
     </row>
     <row r="54" spans="2:11">
       <c r="B54" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" t="s">
         <v>102</v>
       </c>
-      <c r="C54" t="s">
-        <v>103</v>
-      </c>
       <c r="D54" t="s">
         <v>8</v>
+      </c>
+      <c r="E54" t="s">
+        <v>352</v>
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
@@ -2906,13 +3020,16 @@
     </row>
     <row r="55" spans="2:11">
       <c r="B55" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="D55" t="s">
         <v>8</v>
+      </c>
+      <c r="E55" t="s">
+        <v>352</v>
       </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
@@ -2933,13 +3050,16 @@
     </row>
     <row r="56" spans="2:11">
       <c r="B56" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" t="s">
         <v>106</v>
       </c>
-      <c r="C56" t="s">
-        <v>107</v>
-      </c>
       <c r="D56" t="s">
         <v>8</v>
+      </c>
+      <c r="E56" t="s">
+        <v>353</v>
       </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
@@ -2960,16 +3080,16 @@
     </row>
     <row r="57" spans="2:11">
       <c r="B57" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" t="s">
         <v>109</v>
-      </c>
-      <c r="D57" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" t="s">
-        <v>110</v>
       </c>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
@@ -2990,16 +3110,16 @@
     </row>
     <row r="58" spans="2:11">
       <c r="B58" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" t="s">
         <v>111</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" t="s">
         <v>112</v>
-      </c>
-      <c r="D58" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" t="s">
-        <v>113</v>
       </c>
       <c r="G58" t="str">
         <f t="shared" si="0"/>
@@ -3020,16 +3140,16 @@
     </row>
     <row r="59" spans="2:11">
       <c r="B59" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" t="s">
         <v>115</v>
-      </c>
-      <c r="D59" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="str">
         <f t="shared" si="0"/>
@@ -3050,13 +3170,16 @@
     </row>
     <row r="60" spans="2:11">
       <c r="B60" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="D60" t="s">
         <v>8</v>
+      </c>
+      <c r="E60" t="s">
+        <v>354</v>
       </c>
       <c r="G60" t="str">
         <f t="shared" si="0"/>
@@ -3077,13 +3200,16 @@
     </row>
     <row r="61" spans="2:11">
       <c r="B61" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="D61" t="s">
         <v>8</v>
+      </c>
+      <c r="E61" t="s">
+        <v>53</v>
       </c>
       <c r="G61" t="str">
         <f t="shared" si="0"/>
@@ -3104,16 +3230,16 @@
     </row>
     <row r="62" spans="2:11">
       <c r="B62" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" t="s">
         <v>121</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" t="s">
         <v>122</v>
-      </c>
-      <c r="D62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" t="s">
-        <v>123</v>
       </c>
       <c r="G62" t="str">
         <f t="shared" si="0"/>
@@ -3134,13 +3260,16 @@
     </row>
     <row r="63" spans="2:11">
       <c r="B63" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="D63" t="s">
         <v>8</v>
+      </c>
+      <c r="E63" t="s">
+        <v>93</v>
       </c>
       <c r="G63" t="str">
         <f t="shared" si="0"/>
@@ -3161,16 +3290,16 @@
     </row>
     <row r="64" spans="2:11">
       <c r="B64" t="s">
+        <v>125</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="D64" t="s">
         <v>8</v>
       </c>
       <c r="E64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G64" t="str">
         <f t="shared" si="0"/>
@@ -3191,16 +3320,16 @@
     </row>
     <row r="65" spans="2:11">
       <c r="B65" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="D65" t="s">
         <v>8</v>
       </c>
       <c r="E65" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G65" t="str">
         <f t="shared" si="0"/>
@@ -3221,13 +3350,16 @@
     </row>
     <row r="66" spans="2:11">
       <c r="B66" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="D66" t="s">
         <v>8</v>
+      </c>
+      <c r="E66" t="s">
+        <v>355</v>
       </c>
       <c r="G66" t="str">
         <f t="shared" si="0"/>
@@ -3248,13 +3380,16 @@
     </row>
     <row r="67" spans="2:11">
       <c r="B67" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
+      </c>
+      <c r="E67" t="s">
+        <v>356</v>
       </c>
       <c r="G67" t="str">
         <f t="shared" si="0"/>
@@ -3275,16 +3410,16 @@
     </row>
     <row r="68" spans="2:11">
       <c r="B68" t="s">
+        <v>131</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" t="s">
         <v>133</v>
-      </c>
-      <c r="D68" t="s">
-        <v>8</v>
-      </c>
-      <c r="E68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="str">
         <f t="shared" si="0"/>
@@ -3305,13 +3440,16 @@
     </row>
     <row r="69" spans="2:11">
       <c r="B69" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C69" t="s">
         <v>135</v>
       </c>
-      <c r="C69" t="s">
-        <v>136</v>
-      </c>
       <c r="D69" t="s">
         <v>8</v>
+      </c>
+      <c r="E69" t="s">
+        <v>347</v>
       </c>
       <c r="G69" t="str">
         <f t="shared" si="0"/>
@@ -3332,16 +3470,16 @@
     </row>
     <row r="70" spans="2:11">
       <c r="B70" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="D70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" t="s">
         <v>138</v>
-      </c>
-      <c r="D70" t="s">
-        <v>8</v>
-      </c>
-      <c r="E70" t="s">
-        <v>139</v>
       </c>
       <c r="G70" t="str">
         <f t="shared" si="0"/>
@@ -3362,13 +3500,16 @@
     </row>
     <row r="71" spans="2:11">
       <c r="B71" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71" t="s">
         <v>140</v>
       </c>
-      <c r="C71" t="s">
-        <v>141</v>
-      </c>
       <c r="D71" t="s">
         <v>8</v>
+      </c>
+      <c r="E71" t="s">
+        <v>347</v>
       </c>
       <c r="G71" t="str">
         <f t="shared" si="0"/>
@@ -3389,13 +3530,16 @@
     </row>
     <row r="72" spans="2:11">
       <c r="B72" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C72" t="s">
         <v>142</v>
       </c>
-      <c r="C72" t="s">
-        <v>143</v>
-      </c>
       <c r="D72" t="s">
         <v>8</v>
+      </c>
+      <c r="E72" t="s">
+        <v>357</v>
       </c>
       <c r="G72" t="str">
         <f t="shared" si="0"/>
@@ -3416,16 +3560,16 @@
     </row>
     <row r="73" spans="2:11">
       <c r="B73" t="s">
+        <v>143</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="D73" t="s">
         <v>8</v>
       </c>
       <c r="E73" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="G73" t="str">
         <f t="shared" si="0"/>
@@ -3446,13 +3590,16 @@
     </row>
     <row r="74" spans="2:11">
       <c r="B74" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C74" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D74" t="s">
         <v>8</v>
+      </c>
+      <c r="E74" t="s">
+        <v>351</v>
       </c>
       <c r="G74" t="str">
         <f t="shared" si="0"/>
@@ -3473,13 +3620,16 @@
     </row>
     <row r="75" spans="2:11">
       <c r="B75" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C75" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D75" t="s">
         <v>8</v>
+      </c>
+      <c r="E75" t="s">
+        <v>93</v>
       </c>
       <c r="G75" t="str">
         <f t="shared" ref="G75:G76" si="5">CONCATENATE(B75," ",C75,K75,"\\")</f>
@@ -3500,13 +3650,16 @@
     </row>
     <row r="76" spans="2:11">
       <c r="B76" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C76" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D76" t="s">
         <v>8</v>
+      </c>
+      <c r="E76" t="s">
+        <v>358</v>
       </c>
       <c r="G76" t="str">
         <f t="shared" si="5"/>
@@ -3527,16 +3680,16 @@
     </row>
     <row r="77" spans="2:11">
       <c r="B77" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D77" t="s">
         <v>8</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G77" t="str">
         <f t="shared" ref="G77" si="8">CONCATENATE(B77," ",C77,K77,"\\")</f>
@@ -3557,16 +3710,16 @@
     </row>
     <row r="78" spans="2:11">
       <c r="B78" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D78" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" t="s">
         <v>335</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D78" t="s">
-        <v>8</v>
-      </c>
-      <c r="E78" t="s">
-        <v>338</v>
       </c>
       <c r="G78" t="str">
         <f t="shared" ref="G78:G80" si="12">CONCATENATE(B78," ",C78,K78,"\\")</f>
@@ -3587,16 +3740,16 @@
     </row>
     <row r="79" spans="2:11">
       <c r="B79" t="s">
-        <v>342</v>
+        <v>47</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>337</v>
+        <v>48</v>
       </c>
       <c r="D79" t="s">
         <v>8</v>
       </c>
       <c r="E79" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G79" t="str">
         <f t="shared" si="12"/>
@@ -3656,16 +3809,16 @@
     </row>
     <row r="87" spans="2:11">
       <c r="B87" t="s">
+        <v>153</v>
+      </c>
+      <c r="C87" t="s">
+        <v>154</v>
+      </c>
+      <c r="D87" t="s">
         <v>155</v>
       </c>
-      <c r="C87" t="s">
+      <c r="E87" t="s">
         <v>156</v>
-      </c>
-      <c r="D87" t="s">
-        <v>157</v>
-      </c>
-      <c r="E87" t="s">
-        <v>158</v>
       </c>
       <c r="G87" t="str">
         <f t="shared" si="15"/>
@@ -3686,16 +3839,16 @@
     </row>
     <row r="88" spans="2:11">
       <c r="B88" t="s">
+        <v>157</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D88" t="s">
+        <v>155</v>
+      </c>
+      <c r="E88" t="s">
         <v>159</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D88" t="s">
-        <v>157</v>
-      </c>
-      <c r="E88" t="s">
-        <v>161</v>
       </c>
       <c r="G88" t="str">
         <f t="shared" ref="G88:G140" si="18">CONCATENATE(B88," ",C88,K88,"\\")</f>
@@ -3716,16 +3869,16 @@
     </row>
     <row r="89" spans="2:11">
       <c r="B89" t="s">
+        <v>160</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D89" t="s">
+        <v>155</v>
+      </c>
+      <c r="E89" t="s">
         <v>162</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D89" t="s">
-        <v>157</v>
-      </c>
-      <c r="E89" t="s">
-        <v>164</v>
       </c>
       <c r="G89" t="str">
         <f t="shared" si="18"/>
@@ -3746,13 +3899,13 @@
     </row>
     <row r="90" spans="2:11">
       <c r="B90" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C90" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D90" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G90" t="str">
         <f t="shared" si="18"/>
@@ -3773,16 +3926,16 @@
     </row>
     <row r="91" spans="2:11">
       <c r="B91" t="s">
+        <v>165</v>
+      </c>
+      <c r="C91" t="s">
+        <v>166</v>
+      </c>
+      <c r="D91" t="s">
+        <v>155</v>
+      </c>
+      <c r="E91" t="s">
         <v>167</v>
-      </c>
-      <c r="C91" t="s">
-        <v>168</v>
-      </c>
-      <c r="D91" t="s">
-        <v>157</v>
-      </c>
-      <c r="E91" t="s">
-        <v>169</v>
       </c>
       <c r="G91" t="str">
         <f t="shared" si="18"/>
@@ -3803,16 +3956,16 @@
     </row>
     <row r="92" spans="2:11">
       <c r="B92" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D92" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E92" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G92" t="str">
         <f t="shared" si="18"/>
@@ -3833,16 +3986,16 @@
     </row>
     <row r="93" spans="2:11">
       <c r="B93" t="s">
+        <v>171</v>
+      </c>
+      <c r="C93" t="s">
+        <v>172</v>
+      </c>
+      <c r="D93" t="s">
+        <v>155</v>
+      </c>
+      <c r="E93" t="s">
         <v>173</v>
-      </c>
-      <c r="C93" t="s">
-        <v>174</v>
-      </c>
-      <c r="D93" t="s">
-        <v>157</v>
-      </c>
-      <c r="E93" t="s">
-        <v>175</v>
       </c>
       <c r="G93" t="str">
         <f t="shared" si="18"/>
@@ -3863,16 +4016,16 @@
     </row>
     <row r="94" spans="2:11">
       <c r="B94" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C94" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D94" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E94" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G94" t="str">
         <f t="shared" si="18"/>
@@ -3893,16 +4046,16 @@
     </row>
     <row r="95" spans="2:11">
       <c r="B95" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D95" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E95" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G95" t="str">
         <f t="shared" si="18"/>
@@ -3923,16 +4076,16 @@
     </row>
     <row r="96" spans="2:11">
       <c r="B96" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C96" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D96" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E96" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G96" t="str">
         <f t="shared" si="18"/>
@@ -3953,16 +4106,16 @@
     </row>
     <row r="97" spans="2:11">
       <c r="B97" t="s">
+        <v>176</v>
+      </c>
+      <c r="C97" t="s">
+        <v>177</v>
+      </c>
+      <c r="D97" t="s">
+        <v>155</v>
+      </c>
+      <c r="E97" t="s">
         <v>178</v>
-      </c>
-      <c r="C97" t="s">
-        <v>179</v>
-      </c>
-      <c r="D97" t="s">
-        <v>157</v>
-      </c>
-      <c r="E97" t="s">
-        <v>180</v>
       </c>
       <c r="G97" t="str">
         <f t="shared" si="18"/>
@@ -3983,16 +4136,16 @@
     </row>
     <row r="98" spans="2:11">
       <c r="B98" t="s">
+        <v>179</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D98" t="s">
+        <v>155</v>
+      </c>
+      <c r="E98" t="s">
         <v>181</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D98" t="s">
-        <v>157</v>
-      </c>
-      <c r="E98" t="s">
-        <v>183</v>
       </c>
       <c r="G98" t="str">
         <f t="shared" si="18"/>
@@ -4013,16 +4166,16 @@
     </row>
     <row r="99" spans="2:11">
       <c r="B99" t="s">
+        <v>182</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D99" t="s">
+        <v>155</v>
+      </c>
+      <c r="E99" t="s">
         <v>184</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D99" t="s">
-        <v>157</v>
-      </c>
-      <c r="E99" t="s">
-        <v>186</v>
       </c>
       <c r="G99" t="str">
         <f t="shared" si="18"/>
@@ -4043,16 +4196,16 @@
     </row>
     <row r="100" spans="2:11">
       <c r="B100" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D100" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E100" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G100" t="str">
         <f t="shared" si="18"/>
@@ -4073,16 +4226,16 @@
     </row>
     <row r="101" spans="2:11">
       <c r="B101" t="s">
+        <v>193</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D101" t="s">
+        <v>155</v>
+      </c>
+      <c r="E101" t="s">
         <v>195</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D101" t="s">
-        <v>157</v>
-      </c>
-      <c r="E101" t="s">
-        <v>197</v>
       </c>
       <c r="G101" t="str">
         <f t="shared" si="18"/>
@@ -4103,16 +4256,16 @@
     </row>
     <row r="102" spans="2:11">
       <c r="B102" t="s">
+        <v>196</v>
+      </c>
+      <c r="C102" t="s">
+        <v>197</v>
+      </c>
+      <c r="D102" t="s">
+        <v>155</v>
+      </c>
+      <c r="E102" t="s">
         <v>198</v>
-      </c>
-      <c r="C102" t="s">
-        <v>199</v>
-      </c>
-      <c r="D102" t="s">
-        <v>157</v>
-      </c>
-      <c r="E102" t="s">
-        <v>200</v>
       </c>
       <c r="G102" t="str">
         <f t="shared" si="18"/>
@@ -4133,16 +4286,16 @@
     </row>
     <row r="103" spans="2:11">
       <c r="B103" t="s">
+        <v>199</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D103" t="s">
+        <v>155</v>
+      </c>
+      <c r="E103" t="s">
         <v>201</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D103" t="s">
-        <v>157</v>
-      </c>
-      <c r="E103" t="s">
-        <v>203</v>
       </c>
       <c r="G103" t="str">
         <f t="shared" si="18"/>
@@ -4163,16 +4316,16 @@
     </row>
     <row r="104" spans="2:11">
       <c r="B104" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D104" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G104" t="str">
         <f t="shared" si="18"/>
@@ -4193,16 +4346,16 @@
     </row>
     <row r="105" spans="2:11">
       <c r="B105" t="s">
+        <v>202</v>
+      </c>
+      <c r="C105" t="s">
+        <v>203</v>
+      </c>
+      <c r="D105" t="s">
+        <v>155</v>
+      </c>
+      <c r="E105" t="s">
         <v>204</v>
-      </c>
-      <c r="C105" t="s">
-        <v>205</v>
-      </c>
-      <c r="D105" t="s">
-        <v>157</v>
-      </c>
-      <c r="E105" t="s">
-        <v>206</v>
       </c>
       <c r="G105" t="str">
         <f t="shared" si="18"/>
@@ -4223,16 +4376,16 @@
     </row>
     <row r="106" spans="2:11">
       <c r="B106" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D106" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G106" t="str">
         <f t="shared" si="18"/>
@@ -4253,16 +4406,16 @@
     </row>
     <row r="107" spans="2:11">
       <c r="B107" t="s">
+        <v>205</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D107" t="s">
+        <v>155</v>
+      </c>
+      <c r="E107" t="s">
         <v>207</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D107" t="s">
-        <v>157</v>
-      </c>
-      <c r="E107" t="s">
-        <v>209</v>
       </c>
       <c r="G107" t="str">
         <f t="shared" si="18"/>
@@ -4283,16 +4436,16 @@
     </row>
     <row r="108" spans="2:11">
       <c r="B108" t="s">
+        <v>208</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D108" t="s">
+        <v>155</v>
+      </c>
+      <c r="E108" t="s">
         <v>210</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D108" t="s">
-        <v>157</v>
-      </c>
-      <c r="E108" t="s">
-        <v>212</v>
       </c>
       <c r="G108" t="str">
         <f t="shared" si="18"/>
@@ -4313,16 +4466,16 @@
     </row>
     <row r="109" spans="2:11">
       <c r="B109" t="s">
+        <v>211</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D109" t="s">
+        <v>155</v>
+      </c>
+      <c r="E109" t="s">
         <v>213</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D109" t="s">
-        <v>157</v>
-      </c>
-      <c r="E109" t="s">
-        <v>215</v>
       </c>
       <c r="G109" t="str">
         <f t="shared" si="18"/>
@@ -4343,16 +4496,16 @@
     </row>
     <row r="110" spans="2:11">
       <c r="B110" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D110" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E110" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G110" t="str">
         <f t="shared" si="18"/>
@@ -4373,16 +4526,16 @@
     </row>
     <row r="111" spans="2:11">
       <c r="B111" t="s">
+        <v>216</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D111" t="s">
+        <v>155</v>
+      </c>
+      <c r="E111" t="s">
         <v>218</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D111" t="s">
-        <v>157</v>
-      </c>
-      <c r="E111" t="s">
-        <v>220</v>
       </c>
       <c r="G111" t="str">
         <f t="shared" si="18"/>
@@ -4403,16 +4556,16 @@
     </row>
     <row r="112" spans="2:11">
       <c r="B112" t="s">
+        <v>219</v>
+      </c>
+      <c r="C112" t="s">
+        <v>220</v>
+      </c>
+      <c r="D112" t="s">
+        <v>155</v>
+      </c>
+      <c r="E112" t="s">
         <v>221</v>
-      </c>
-      <c r="C112" t="s">
-        <v>222</v>
-      </c>
-      <c r="D112" t="s">
-        <v>157</v>
-      </c>
-      <c r="E112" t="s">
-        <v>223</v>
       </c>
       <c r="G112" t="str">
         <f t="shared" si="18"/>
@@ -4433,16 +4586,16 @@
     </row>
     <row r="113" spans="2:11">
       <c r="B113" t="s">
+        <v>222</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D113" t="s">
+        <v>155</v>
+      </c>
+      <c r="E113" t="s">
         <v>224</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D113" t="s">
-        <v>157</v>
-      </c>
-      <c r="E113" t="s">
-        <v>226</v>
       </c>
       <c r="G113" t="str">
         <f t="shared" si="18"/>
@@ -4463,16 +4616,16 @@
     </row>
     <row r="114" spans="2:11">
       <c r="B114" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C114" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D114" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E114" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G114" t="str">
         <f t="shared" si="18"/>
@@ -4493,16 +4646,16 @@
     </row>
     <row r="115" spans="2:11">
       <c r="B115" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D115" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E115" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G115" t="str">
         <f t="shared" si="18"/>
@@ -4523,16 +4676,16 @@
     </row>
     <row r="116" spans="2:11">
       <c r="B116" t="s">
+        <v>227</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D116" t="s">
+        <v>155</v>
+      </c>
+      <c r="E116" t="s">
         <v>229</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D116" t="s">
-        <v>157</v>
-      </c>
-      <c r="E116" t="s">
-        <v>231</v>
       </c>
       <c r="G116" t="str">
         <f t="shared" si="18"/>
@@ -4553,16 +4706,16 @@
     </row>
     <row r="117" spans="2:11">
       <c r="B117" t="s">
+        <v>230</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D117" t="s">
+        <v>155</v>
+      </c>
+      <c r="E117" t="s">
         <v>232</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D117" t="s">
-        <v>157</v>
-      </c>
-      <c r="E117" t="s">
-        <v>234</v>
       </c>
       <c r="G117" t="str">
         <f t="shared" si="18"/>
@@ -4583,16 +4736,16 @@
     </row>
     <row r="118" spans="2:11">
       <c r="B118" t="s">
+        <v>233</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D118" t="s">
+        <v>155</v>
+      </c>
+      <c r="E118" t="s">
         <v>235</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D118" t="s">
-        <v>157</v>
-      </c>
-      <c r="E118" t="s">
-        <v>237</v>
       </c>
       <c r="G118" t="str">
         <f t="shared" si="18"/>
@@ -4613,16 +4766,16 @@
     </row>
     <row r="119" spans="2:11">
       <c r="B119" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C119" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D119" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E119" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G119" t="str">
         <f t="shared" si="18"/>
@@ -4643,16 +4796,16 @@
     </row>
     <row r="120" spans="2:11">
       <c r="B120" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D120" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E120" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G120" t="str">
         <f t="shared" si="18"/>
@@ -4673,16 +4826,16 @@
     </row>
     <row r="121" spans="2:11">
       <c r="B121" t="s">
+        <v>240</v>
+      </c>
+      <c r="C121" t="s">
+        <v>241</v>
+      </c>
+      <c r="D121" t="s">
+        <v>155</v>
+      </c>
+      <c r="E121" t="s">
         <v>242</v>
-      </c>
-      <c r="C121" t="s">
-        <v>243</v>
-      </c>
-      <c r="D121" t="s">
-        <v>157</v>
-      </c>
-      <c r="E121" t="s">
-        <v>244</v>
       </c>
       <c r="G121" t="str">
         <f t="shared" si="18"/>
@@ -4703,16 +4856,16 @@
     </row>
     <row r="122" spans="2:11">
       <c r="B122" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C122" t="s">
+        <v>189</v>
+      </c>
+      <c r="D122" t="s">
+        <v>155</v>
+      </c>
+      <c r="E122" t="s">
         <v>191</v>
-      </c>
-      <c r="D122" t="s">
-        <v>157</v>
-      </c>
-      <c r="E122" t="s">
-        <v>193</v>
       </c>
       <c r="G122" t="str">
         <f t="shared" si="18"/>
@@ -4733,16 +4886,16 @@
     </row>
     <row r="123" spans="2:11">
       <c r="B123" t="s">
+        <v>243</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D123" t="s">
+        <v>155</v>
+      </c>
+      <c r="E123" t="s">
         <v>245</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D123" t="s">
-        <v>157</v>
-      </c>
-      <c r="E123" t="s">
-        <v>247</v>
       </c>
       <c r="G123" t="str">
         <f t="shared" si="18"/>
@@ -4763,16 +4916,16 @@
     </row>
     <row r="124" spans="2:11">
       <c r="B124" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D124" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E124" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G124" t="str">
         <f t="shared" si="18"/>
@@ -4793,16 +4946,16 @@
     </row>
     <row r="125" spans="2:11">
       <c r="B125" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C125" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D125" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E125" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G125" t="str">
         <f t="shared" si="18"/>
@@ -4823,16 +4976,16 @@
     </row>
     <row r="126" spans="2:11">
       <c r="B126" t="s">
+        <v>248</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D126" t="s">
+        <v>155</v>
+      </c>
+      <c r="E126" t="s">
         <v>250</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D126" t="s">
-        <v>157</v>
-      </c>
-      <c r="E126" t="s">
-        <v>252</v>
       </c>
       <c r="G126" t="str">
         <f t="shared" si="18"/>
@@ -4853,16 +5006,16 @@
     </row>
     <row r="127" spans="2:11">
       <c r="B127" t="s">
+        <v>251</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D127" t="s">
+        <v>155</v>
+      </c>
+      <c r="E127" t="s">
         <v>253</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D127" t="s">
-        <v>157</v>
-      </c>
-      <c r="E127" t="s">
-        <v>255</v>
       </c>
       <c r="G127" t="str">
         <f t="shared" si="18"/>
@@ -4883,16 +5036,16 @@
     </row>
     <row r="128" spans="2:11">
       <c r="B128" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D128" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E128" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G128" t="str">
         <f t="shared" si="18"/>
@@ -4913,16 +5066,16 @@
     </row>
     <row r="129" spans="2:11">
       <c r="B129" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D129" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E129" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G129" t="str">
         <f t="shared" si="18"/>
@@ -4943,16 +5096,16 @@
     </row>
     <row r="130" spans="2:11">
       <c r="B130" t="s">
+        <v>254</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D130" t="s">
+        <v>155</v>
+      </c>
+      <c r="E130" t="s">
         <v>256</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D130" t="s">
-        <v>157</v>
-      </c>
-      <c r="E130" t="s">
-        <v>258</v>
       </c>
       <c r="G130" t="str">
         <f t="shared" si="18"/>
@@ -4973,16 +5126,16 @@
     </row>
     <row r="131" spans="2:11">
       <c r="B131" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C131" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D131" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E131" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G131" t="str">
         <f t="shared" si="18"/>
@@ -5003,16 +5156,16 @@
     </row>
     <row r="132" spans="2:11">
       <c r="B132" t="s">
+        <v>257</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D132" t="s">
+        <v>155</v>
+      </c>
+      <c r="E132" t="s">
         <v>259</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D132" t="s">
-        <v>157</v>
-      </c>
-      <c r="E132" t="s">
-        <v>261</v>
       </c>
       <c r="G132" t="str">
         <f t="shared" si="18"/>
@@ -5033,16 +5186,16 @@
     </row>
     <row r="133" spans="2:11">
       <c r="B133" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D133" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E133" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G133" t="str">
         <f t="shared" si="18"/>
@@ -5063,16 +5216,16 @@
     </row>
     <row r="134" spans="2:11">
       <c r="B134" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D134" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E134" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G134" t="str">
         <f t="shared" si="18"/>
@@ -5093,16 +5246,16 @@
     </row>
     <row r="135" spans="2:11">
       <c r="B135" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D135" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E135" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G135" t="str">
         <f t="shared" si="18"/>
@@ -5123,16 +5276,16 @@
     </row>
     <row r="136" spans="2:11">
       <c r="B136" t="s">
+        <v>262</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D136" t="s">
+        <v>155</v>
+      </c>
+      <c r="E136" t="s">
         <v>264</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D136" t="s">
-        <v>157</v>
-      </c>
-      <c r="E136" t="s">
-        <v>266</v>
       </c>
       <c r="G136" t="str">
         <f t="shared" si="18"/>
@@ -5156,13 +5309,13 @@
         <v>9</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D137" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E137" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G137" t="str">
         <f t="shared" si="18"/>
@@ -5183,16 +5336,16 @@
     </row>
     <row r="138" spans="2:11">
       <c r="B138" t="s">
+        <v>265</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D138" t="s">
+        <v>155</v>
+      </c>
+      <c r="E138" t="s">
         <v>267</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D138" t="s">
-        <v>157</v>
-      </c>
-      <c r="E138" t="s">
-        <v>269</v>
       </c>
       <c r="G138" t="str">
         <f t="shared" si="18"/>
@@ -5213,16 +5366,16 @@
     </row>
     <row r="139" spans="2:11">
       <c r="B139" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D139" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E139" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G139" t="str">
         <f t="shared" si="18"/>
@@ -5243,16 +5396,16 @@
     </row>
     <row r="140" spans="2:11">
       <c r="B140" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D140" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G140" t="str">
         <f t="shared" si="18"/>
@@ -5273,16 +5426,16 @@
     </row>
     <row r="141" spans="2:11">
       <c r="B141" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D141" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E141" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G141" t="str">
         <f t="shared" ref="G141:G143" si="21">CONCATENATE(B141," ",C141,K141,"\\")</f>
@@ -5303,16 +5456,16 @@
     </row>
     <row r="142" spans="2:11">
       <c r="B142" t="s">
+        <v>268</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D142" t="s">
+        <v>155</v>
+      </c>
+      <c r="E142" t="s">
         <v>270</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D142" t="s">
-        <v>157</v>
-      </c>
-      <c r="E142" t="s">
-        <v>272</v>
       </c>
       <c r="G142" t="str">
         <f t="shared" si="21"/>
@@ -5333,16 +5486,16 @@
     </row>
     <row r="143" spans="2:11">
       <c r="B143" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D143" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E143" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G143" t="str">
         <f t="shared" si="21"/>
@@ -5417,13 +5570,13 @@
     </row>
     <row r="147" spans="2:11">
       <c r="B147" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C147" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D147" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G147" t="str">
         <f t="shared" ref="G147:G188" si="24">CONCATENATE(B147," ",C147,K147,"\\")</f>
@@ -5480,16 +5633,16 @@
     </row>
     <row r="150" spans="2:11">
       <c r="B150" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D150" t="s">
         <v>8</v>
       </c>
       <c r="E150" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G150" t="str">
         <f t="shared" si="24"/>

--- a/ReferenceDocuments/ReportAuthors.xlsx
+++ b/ReferenceDocuments/ReportAuthors.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="371">
   <si>
     <t>Report Authors</t>
   </si>
@@ -982,12 +982,6 @@
     <t>Instituto de Fisica de Cantabria (CSIC - UC)</t>
   </si>
   <si>
-    <t>Kimberly K. Boddy</t>
-  </si>
-  <si>
-    <t>Contributed text to DM-baryon scattering physics.</t>
-  </si>
-  <si>
     <t>Florida State University</t>
   </si>
   <si>
@@ -1010,9 +1004,6 @@
   </si>
   <si>
     <t>Kimberly K.</t>
-  </si>
-  <si>
-    <t>12/17/2018, 4 pm.</t>
   </si>
   <si>
     <r>
@@ -1123,7 +1114,49 @@
     <t>San Diego Supercomputer Center, UC San Diego</t>
   </si>
   <si>
-    <t>12/18/2018, 5 pm.</t>
+    <t>IAC (Tenerife, Spain)</t>
+  </si>
+  <si>
+    <t>Louvain U.</t>
+  </si>
+  <si>
+    <t>LPSC</t>
+  </si>
+  <si>
+    <t>Universidad de Salamanca, Spain</t>
+  </si>
+  <si>
+    <t>ICREA &amp; ICC UB</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Macias-Perez</t>
+  </si>
+  <si>
+    <t>Kerstin</t>
+  </si>
+  <si>
+    <t>Kunze</t>
+  </si>
+  <si>
+    <t>Licia</t>
+  </si>
+  <si>
+    <t>Verde</t>
+  </si>
+  <si>
+    <t>Jose-Alberto</t>
+  </si>
+  <si>
+    <t>Rubino-Martin</t>
+  </si>
+  <si>
+    <t>Ringeval</t>
+  </si>
+  <si>
+    <t>12/20/2018, 9 am.</t>
   </si>
 </sst>
 </file>
@@ -1193,7 +1226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1203,6 +1236,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1573,7 +1609,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K188"/>
+  <dimension ref="A1:K191"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -1606,7 +1642,7 @@
       </c>
       <c r="B3"/>
       <c r="C3" s="1" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1615,7 +1651,7 @@
       </c>
       <c r="B4"/>
       <c r="C4" s="1" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1624,7 +1660,7 @@
       </c>
       <c r="B5"/>
       <c r="C5" s="1" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1679,7 +1715,7 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G10" t="str">
         <f>CONCATENATE(B10," ",C10,K10,"\\")</f>
@@ -1724,7 +1760,7 @@
         <v>20</v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" ref="K11:K72" si="3">REPT(" ",J11)</f>
+        <f t="shared" ref="K11:K74" si="3">REPT(" ",J11)</f>
         <v xml:space="preserve">                    </v>
       </c>
     </row>
@@ -1769,7 +1805,7 @@
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
@@ -1799,7 +1835,7 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
@@ -1859,7 +1895,7 @@
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
@@ -1940,7 +1976,7 @@
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>26</v>
@@ -2009,7 +2045,7 @@
         <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
@@ -2032,288 +2068,288 @@
       <c r="B22" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>32</v>
+      <c r="C22" t="s">
+        <v>192</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>341</v>
+        <v>82</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>Fran\c{c}ois Boulanger          \\</v>
+        <v>Fran\c{c}ois Bouchet            \\</v>
       </c>
       <c r="I22">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J22">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">          </v>
+        <v xml:space="preserve">            </v>
       </c>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" t="s">
-        <v>33</v>
+      <c r="B23" s="1" t="s">
+        <v>311</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>338</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>Blakesley Burkhart              \\</v>
+        <v>Fran\c{c}ois Boulanger          \\</v>
       </c>
       <c r="I23">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J23">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">              </v>
+        <v xml:space="preserve">          </v>
       </c>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="1" t="s">
-        <v>36</v>
+      <c r="B24" t="s">
+        <v>33</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>342</v>
+        <v>35</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>David Chuss                     \\</v>
+        <v>Blakesley Burkhart              \\</v>
       </c>
       <c r="I24">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J24">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">              </v>
       </c>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" t="s">
-        <v>38</v>
+        <v>176</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>Susan E. Clark                  \\</v>
+        <v>Jens Chluba                     \\</v>
       </c>
       <c r="I25">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J25">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>53</v>
+        <v>339</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>Brendan Crill                   \\</v>
+        <v>David Chuss                     \\</v>
       </c>
       <c r="I26">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J26">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="27" spans="2:11">
       <c r="B27" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>Jacques Delabrouille            \\</v>
+        <v>Susan E. Clark                  \\</v>
       </c>
       <c r="I27">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J27">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" t="s">
-        <v>47</v>
+      <c r="B28" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>Eleonora Di Valentino           \\</v>
+        <v>Brendan Crill                   \\</v>
       </c>
       <c r="I28">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J28">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">           </v>
+        <v xml:space="preserve">                   </v>
       </c>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>51</v>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>343</v>
+        <v>46</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>Joy Didier                      \\</v>
+        <v>Jacques Delabrouille            \\</v>
       </c>
       <c r="I29">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J29">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                      </v>
+        <v xml:space="preserve">            </v>
       </c>
     </row>
     <row r="30" spans="2:11">
       <c r="B30" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>310</v>
+        <v>48</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>Olivier Dor\'e                  \\</v>
+        <v>Eleonora Di Valentino           \\</v>
       </c>
       <c r="I30">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J30">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">           </v>
       </c>
     </row>
     <row r="31" spans="2:11">
-      <c r="B31" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C31" t="s">
-        <v>306</v>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D31" t="s">
         <v>8</v>
       </c>
       <c r="E31" t="s">
-        <v>344</v>
+        <v>49</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>Alexander van Engelen           \\</v>
+        <v>Eleonora Di Valentino           \\</v>
       </c>
       <c r="I31">
         <f t="shared" si="1"/>
@@ -2330,1000 +2366,1000 @@
     </row>
     <row r="32" spans="2:11">
       <c r="B32" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D32" t="s">
         <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v>Josquin Errard                  \\</v>
+        <v>Joy Didier                      \\</v>
       </c>
       <c r="I32">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J32">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                      </v>
       </c>
     </row>
     <row r="33" spans="2:11">
       <c r="B33" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>57</v>
+        <v>310</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
-        <v>Tom Essinger-Hileman            \\</v>
+        <v>Olivier Dor\'e                  \\</v>
       </c>
       <c r="I33">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J33">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="34" spans="2:11">
       <c r="B34" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>60</v>
+        <v>307</v>
+      </c>
+      <c r="C34" t="s">
+        <v>306</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
-        <v>Stephen Feeney                  \\</v>
+        <v>Alexander van Engelen           \\</v>
       </c>
       <c r="I34">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J34">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">           </v>
       </c>
     </row>
     <row r="35" spans="2:11">
-      <c r="B35" t="s">
-        <v>301</v>
-      </c>
-      <c r="C35" t="s">
-        <v>302</v>
+      <c r="B35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>286</v>
+        <v>342</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
-        <v>Jeffrey Filippini               \\</v>
+        <v>Josquin Errard                  \\</v>
       </c>
       <c r="I35">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J35">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">               </v>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="36" spans="2:11">
       <c r="B36" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D36" t="s">
         <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
-        <v>Laura Fissel                    \\</v>
+        <v>Tom Essinger-Hileman            \\</v>
       </c>
       <c r="I36">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J36">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">            </v>
       </c>
     </row>
     <row r="37" spans="2:11">
-      <c r="B37" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" t="s">
-        <v>65</v>
+      <c r="B37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D37" t="s">
         <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>66</v>
+        <v>343</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
-        <v>Raphael Flauger                 \\</v>
+        <v>Stephen Feeney                  \\</v>
       </c>
       <c r="I37">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J37">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K37" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="38" spans="2:11">
-      <c r="B38" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>68</v>
+      <c r="B38" t="s">
+        <v>301</v>
+      </c>
+      <c r="C38" t="s">
+        <v>302</v>
       </c>
       <c r="D38" t="s">
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>40</v>
+        <v>286</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
-        <v>Vera Gluscevic                  \\</v>
+        <v>Jeffrey Filippini               \\</v>
       </c>
       <c r="I38">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J38">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K38" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">               </v>
       </c>
     </row>
     <row r="39" spans="2:11">
-      <c r="B39" s="1" t="s">
-        <v>69</v>
+      <c r="B39" t="s">
+        <v>61</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>347</v>
+        <v>63</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
-        <v>Kris Gorski                     \\</v>
+        <v>Laura Fissel                    \\</v>
       </c>
       <c r="I39">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J39">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K39" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                    </v>
       </c>
     </row>
     <row r="40" spans="2:11">
-      <c r="B40" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>72</v>
+      <c r="B40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" t="s">
+        <v>65</v>
       </c>
       <c r="D40" t="s">
         <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>348</v>
+        <v>66</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
-        <v>Dan Green                       \\</v>
+        <v>Raphael Flauger                 \\</v>
       </c>
       <c r="I40">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J40">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K40" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                       </v>
+        <v xml:space="preserve">                 </v>
       </c>
     </row>
     <row r="41" spans="2:11">
       <c r="B41" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
-        <v>Brandon Hensley                 \\</v>
+        <v>Vera Gluscevic                  \\</v>
       </c>
       <c r="I41">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J41">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="42" spans="2:11">
-      <c r="B42" t="s">
-        <v>75</v>
+      <c r="B42" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D42" t="s">
         <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>77</v>
+        <v>344</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
-        <v>Diego Herranz                   \\</v>
+        <v>Kris Gorski                     \\</v>
       </c>
       <c r="I42">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J42">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K42" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="43" spans="2:11">
       <c r="B43" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
-        <v>Colin Hill                      \\</v>
+        <v>Dan Green                       \\</v>
       </c>
       <c r="I43">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J43">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K43" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                      </v>
+        <v xml:space="preserve">                       </v>
       </c>
     </row>
     <row r="44" spans="2:11">
-      <c r="B44" t="s">
-        <v>80</v>
+      <c r="B44" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
-        <v>Eric Hivon                      \\</v>
+        <v>Brandon Hensley                 \\</v>
       </c>
       <c r="I44">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J44">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                      </v>
+        <v xml:space="preserve">                 </v>
       </c>
     </row>
     <row r="45" spans="2:11">
       <c r="B45" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
-        <v>Johannes Hubmayr                \\</v>
+        <v>Diego Herranz                   \\</v>
       </c>
       <c r="I45">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J45">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                </v>
+        <v xml:space="preserve">                   </v>
       </c>
     </row>
     <row r="46" spans="2:11">
-      <c r="B46" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" t="s">
-        <v>87</v>
+      <c r="B46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>88</v>
+        <v>346</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
-        <v>Brad Johnson                    \\</v>
+        <v>Colin Hill                      \\</v>
       </c>
       <c r="I46">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J46">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K46" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">                      </v>
       </c>
     </row>
     <row r="47" spans="2:11">
       <c r="B47" t="s">
-        <v>89</v>
-      </c>
-      <c r="C47" t="s">
-        <v>90</v>
+        <v>80</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
-        <v>William Jones                   \\</v>
+        <v>Eric Hivon                      \\</v>
       </c>
       <c r="I47">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J47">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K47" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">                      </v>
       </c>
     </row>
     <row r="48" spans="2:11">
-      <c r="B48" t="s">
-        <v>92</v>
+      <c r="B48" s="1" t="s">
+        <v>330</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>90</v>
+        <v>331</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>332</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
-        <v>Terry Jones                     \\</v>
+        <v>Ren\'{e}e  Hlo\v{z}ek           \\</v>
       </c>
       <c r="I48">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J48">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K48" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">           </v>
       </c>
     </row>
     <row r="49" spans="2:11">
-      <c r="B49" s="1" t="s">
-        <v>313</v>
+      <c r="B49" t="s">
+        <v>83</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D49" t="s">
         <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>350</v>
+        <v>85</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
-        <v>Lloyd Knox                      \\</v>
+        <v>Johannes Hubmayr                \\</v>
       </c>
       <c r="I49">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J49">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="K49" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                      </v>
+        <v xml:space="preserve">                </v>
       </c>
     </row>
     <row r="50" spans="2:11">
-      <c r="B50" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>96</v>
+      <c r="B50" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" t="s">
+        <v>87</v>
       </c>
       <c r="D50" t="s">
         <v>8</v>
       </c>
       <c r="E50" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
-        <v>Al Kogut                        \\</v>
+        <v>Brad Johnson                    \\</v>
       </c>
       <c r="I50">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J50">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K50" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                        </v>
+        <v xml:space="preserve">                    </v>
       </c>
     </row>
     <row r="51" spans="2:11">
       <c r="B51" t="s">
-        <v>293</v>
+        <v>89</v>
       </c>
       <c r="C51" t="s">
-        <v>312</v>
+        <v>90</v>
       </c>
       <c r="D51" t="s">
         <v>8</v>
       </c>
       <c r="E51" t="s">
-        <v>281</v>
+        <v>91</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
-        <v>Marcos L\'{o}pez-Caniego        \\</v>
+        <v>William Jones                   \\</v>
       </c>
       <c r="I51">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="J51">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="K51" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">        </v>
+        <v xml:space="preserve">                   </v>
       </c>
     </row>
     <row r="52" spans="2:11">
-      <c r="B52" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C52" t="s">
-        <v>98</v>
+      <c r="B52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D52" t="s">
         <v>8</v>
       </c>
       <c r="E52" t="s">
-        <v>347</v>
+        <v>93</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
-        <v>Charles Lawrence                \\</v>
+        <v>Terry Jones                     \\</v>
       </c>
       <c r="I52">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J52">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K52" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                </v>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="53" spans="2:11">
       <c r="B53" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C53" t="s">
-        <v>100</v>
+        <v>313</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="D53" t="s">
         <v>8</v>
       </c>
       <c r="E53" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
-        <v>Alex Lazarian                   \\</v>
+        <v>Lloyd Knox                      \\</v>
       </c>
       <c r="I53">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J53">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K53" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">                      </v>
       </c>
     </row>
     <row r="54" spans="2:11">
       <c r="B54" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C54" t="s">
-        <v>102</v>
+        <v>95</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="D54" t="s">
         <v>8</v>
       </c>
       <c r="E54" t="s">
-        <v>352</v>
+        <v>58</v>
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
-        <v>Zack Li                         \\</v>
+        <v>Al Kogut                        \\</v>
       </c>
       <c r="I54">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J54">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K54" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                         </v>
+        <v xml:space="preserve">                        </v>
       </c>
     </row>
     <row r="55" spans="2:11">
-      <c r="B55" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>104</v>
+      <c r="B55" t="s">
+        <v>293</v>
+      </c>
+      <c r="C55" t="s">
+        <v>312</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
       </c>
       <c r="E55" t="s">
-        <v>352</v>
+        <v>281</v>
       </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
-        <v>Mathew Madhavacheril            \\</v>
+        <v>Marcos L\'{o}pez-Caniego        \\</v>
       </c>
       <c r="I55">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J55">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K55" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">        </v>
       </c>
     </row>
     <row r="56" spans="2:11">
       <c r="B56" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C56" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
       </c>
       <c r="E56" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
-        <v>Jean-Baptiste Melin             \\</v>
+        <v>Charles Lawrence                \\</v>
       </c>
       <c r="I56">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J56">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K56" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">             </v>
+        <v xml:space="preserve">                </v>
       </c>
     </row>
     <row r="57" spans="2:11">
-      <c r="B57" t="s">
-        <v>107</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>108</v>
+      <c r="B57" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" t="s">
+        <v>100</v>
       </c>
       <c r="D57" t="s">
         <v>8</v>
       </c>
       <c r="E57" t="s">
-        <v>109</v>
+        <v>348</v>
       </c>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
-        <v>Mattia Negrello                 \\</v>
+        <v>Alex Lazarian                   \\</v>
       </c>
       <c r="I57">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J57">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K57" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">                   </v>
       </c>
     </row>
     <row r="58" spans="2:11">
-      <c r="B58" t="s">
-        <v>110</v>
+      <c r="B58" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="C58" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D58" t="s">
         <v>8</v>
       </c>
       <c r="E58" t="s">
-        <v>112</v>
+        <v>349</v>
       </c>
       <c r="G58" t="str">
         <f t="shared" si="0"/>
-        <v>Giles Novak                     \\</v>
+        <v>Zack Li                         \\</v>
       </c>
       <c r="I58">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J58">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K58" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                         </v>
       </c>
     </row>
     <row r="59" spans="2:11">
-      <c r="B59" t="s">
-        <v>113</v>
+      <c r="B59" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D59" t="s">
         <v>8</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>349</v>
       </c>
       <c r="G59" t="str">
         <f t="shared" si="0"/>
-        <v>Roger O'Brient                  \\</v>
+        <v>Mathew Madhavacheril            \\</v>
       </c>
       <c r="I59">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J59">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K59" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">            </v>
       </c>
     </row>
     <row r="60" spans="2:11">
       <c r="B60" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
+      </c>
+      <c r="C60" t="s">
+        <v>106</v>
       </c>
       <c r="D60" t="s">
         <v>8</v>
       </c>
       <c r="E60" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G60" t="str">
         <f t="shared" si="0"/>
-        <v>Chris Paine                     \\</v>
+        <v>Jean-Baptiste Melin             \\</v>
       </c>
       <c r="I60">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J60">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K60" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">             </v>
       </c>
     </row>
     <row r="61" spans="2:11">
-      <c r="B61" s="1" t="s">
-        <v>118</v>
+      <c r="B61" t="s">
+        <v>107</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D61" t="s">
         <v>8</v>
       </c>
       <c r="E61" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="G61" t="str">
         <f t="shared" si="0"/>
-        <v>Tim Pearson                     \\</v>
+        <v>Mattia Negrello                 \\</v>
       </c>
       <c r="I61">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J61">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K61" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                 </v>
       </c>
     </row>
     <row r="62" spans="2:11">
       <c r="B62" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C62" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D62" t="s">
         <v>8</v>
       </c>
       <c r="E62" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="G62" t="str">
         <f t="shared" si="0"/>
-        <v>Levon Pogosian                  \\</v>
+        <v>Giles Novak                     \\</v>
       </c>
       <c r="I62">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J62">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K62" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="63" spans="2:11">
-      <c r="B63" s="1" t="s">
-        <v>123</v>
+      <c r="B63" t="s">
+        <v>113</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D63" t="s">
         <v>8</v>
       </c>
       <c r="E63" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="G63" t="str">
         <f t="shared" si="0"/>
-        <v>Clem Pryke                      \\</v>
+        <v>Roger O'Brient                  \\</v>
       </c>
       <c r="I63">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J63">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K63" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                      </v>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="64" spans="2:11">
-      <c r="B64" t="s">
-        <v>125</v>
+      <c r="B64" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D64" t="s">
         <v>8</v>
       </c>
       <c r="E64" t="s">
-        <v>49</v>
+        <v>351</v>
       </c>
       <c r="G64" t="str">
         <f t="shared" si="0"/>
-        <v>Mathieu Remazeilles             \\</v>
+        <v>Chris Paine                     \\</v>
       </c>
       <c r="I64">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J64">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K64" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">             </v>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="65" spans="2:11">
-      <c r="B65" t="s">
-        <v>127</v>
+      <c r="B65" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D65" t="s">
         <v>8</v>
@@ -3333,7 +3369,7 @@
       </c>
       <c r="G65" t="str">
         <f t="shared" si="0"/>
-        <v>Graca Rocha                     \\</v>
+        <v>Tim Pearson                     \\</v>
       </c>
       <c r="I65">
         <f t="shared" si="1"/>
@@ -3349,111 +3385,111 @@
       </c>
     </row>
     <row r="66" spans="2:11">
-      <c r="B66" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>130</v>
+      <c r="B66" t="s">
+        <v>120</v>
+      </c>
+      <c r="C66" t="s">
+        <v>121</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
       </c>
       <c r="E66" t="s">
-        <v>355</v>
+        <v>122</v>
       </c>
       <c r="G66" t="str">
         <f t="shared" si="0"/>
-        <v>Marcel Schmittfull              \\</v>
+        <v>Levon Pogosian                  \\</v>
       </c>
       <c r="I66">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J66">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K66" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">              </v>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="67" spans="2:11">
       <c r="B67" s="1" t="s">
-        <v>315</v>
+        <v>123</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>268</v>
+        <v>124</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
       </c>
       <c r="E67" t="s">
-        <v>356</v>
+        <v>93</v>
       </c>
       <c r="G67" t="str">
         <f t="shared" si="0"/>
-        <v>Douglas Scott                   \\</v>
+        <v>Clem Pryke                      \\</v>
       </c>
       <c r="I67">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J67">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K67" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">                      </v>
       </c>
     </row>
     <row r="68" spans="2:11">
       <c r="B68" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D68" t="s">
         <v>8</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>49</v>
       </c>
       <c r="G68" t="str">
         <f t="shared" si="0"/>
-        <v>Ian Stephens                    \\</v>
+        <v>Mathieu Remazeilles             \\</v>
       </c>
       <c r="I68">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J68">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K68" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">             </v>
       </c>
     </row>
     <row r="69" spans="2:11">
-      <c r="B69" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C69" t="s">
-        <v>135</v>
+      <c r="B69" t="s">
+        <v>127</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="D69" t="s">
         <v>8</v>
       </c>
       <c r="E69" t="s">
-        <v>347</v>
+        <v>53</v>
       </c>
       <c r="G69" t="str">
         <f t="shared" si="0"/>
-        <v>Brian Sutin                     \\</v>
+        <v>Graca Rocha                     \\</v>
       </c>
       <c r="I69">
         <f t="shared" si="1"/>
@@ -3469,51 +3505,51 @@
       </c>
     </row>
     <row r="70" spans="2:11">
-      <c r="B70" t="s">
-        <v>136</v>
+      <c r="B70" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D70" t="s">
         <v>8</v>
       </c>
       <c r="E70" t="s">
-        <v>138</v>
+        <v>352</v>
       </c>
       <c r="G70" t="str">
         <f t="shared" si="0"/>
-        <v>Maurizio Tomasi                 \\</v>
+        <v>Marcel Schmittfull              \\</v>
       </c>
       <c r="I70">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J70">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K70" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">              </v>
       </c>
     </row>
     <row r="71" spans="2:11">
       <c r="B71" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C71" t="s">
-        <v>140</v>
+        <v>315</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="D71" t="s">
         <v>8</v>
       </c>
       <c r="E71" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="G71" t="str">
         <f t="shared" si="0"/>
-        <v>Amy Trangsrud                   \\</v>
+        <v>Douglas Scott                   \\</v>
       </c>
       <c r="I71">
         <f t="shared" si="1"/>
@@ -3529,537 +3565,545 @@
       </c>
     </row>
     <row r="72" spans="2:11">
-      <c r="B72" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C72" t="s">
-        <v>142</v>
+      <c r="B72" t="s">
+        <v>131</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="D72" t="s">
         <v>8</v>
       </c>
       <c r="E72" t="s">
-        <v>357</v>
+        <v>133</v>
       </c>
       <c r="G72" t="str">
         <f t="shared" si="0"/>
-        <v>Flavien Vansyngel               \\</v>
+        <v>Ian Stephens                    \\</v>
       </c>
       <c r="I72">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J72">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K72" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">               </v>
+        <v xml:space="preserve">                    </v>
       </c>
     </row>
     <row r="73" spans="2:11">
-      <c r="B73" t="s">
-        <v>143</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>144</v>
+      <c r="B73" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C73" t="s">
+        <v>135</v>
       </c>
       <c r="D73" t="s">
         <v>8</v>
       </c>
       <c r="E73" t="s">
-        <v>93</v>
+        <v>344</v>
       </c>
       <c r="G73" t="str">
         <f t="shared" si="0"/>
-        <v>Qi Wen                          \\</v>
+        <v>Brian Sutin                     \\</v>
       </c>
       <c r="I73">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J73">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K73" t="str">
-        <f t="shared" ref="K73:K146" si="4">REPT(" ",J73)</f>
-        <v xml:space="preserve">                          </v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="74" spans="2:11">
-      <c r="B74" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C74" t="s">
-        <v>148</v>
+      <c r="B74" t="s">
+        <v>136</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="D74" t="s">
         <v>8</v>
       </c>
       <c r="E74" t="s">
-        <v>351</v>
+        <v>138</v>
       </c>
       <c r="G74" t="str">
         <f t="shared" si="0"/>
-        <v>Siyao Xu                        \\</v>
+        <v>Maurizio Tomasi                 \\</v>
       </c>
       <c r="I74">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J74">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="K74" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">                 </v>
+      </c>
+    </row>
+    <row r="75" spans="2:11">
+      <c r="B75" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C75" t="s">
+        <v>140</v>
+      </c>
+      <c r="D75" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" t="s">
+        <v>344</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" ref="G75:G76" si="4">CONCATENATE(B75," ",C75,K75,"\\")</f>
+        <v>Amy Trangsrud                   \\</v>
+      </c>
+      <c r="I75">
+        <f t="shared" ref="I75:I76" si="5">LEN(B75) + LEN(C75) +1</f>
+        <v>13</v>
+      </c>
+      <c r="J75">
+        <f t="shared" ref="J75:J76" si="6">IF(I75&lt;30,(32-I75),3)</f>
+        <v>19</v>
+      </c>
+      <c r="K75" t="str">
+        <f t="shared" ref="K75:K82" si="7">REPT(" ",J75)</f>
+        <v xml:space="preserve">                   </v>
+      </c>
+    </row>
+    <row r="76" spans="2:11">
+      <c r="B76" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C76" t="s">
+        <v>142</v>
+      </c>
+      <c r="D76" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" t="s">
+        <v>354</v>
+      </c>
+      <c r="G76" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">                        </v>
-      </c>
-    </row>
-    <row r="75" spans="2:11">
-      <c r="B75" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C75" t="s">
-        <v>150</v>
-      </c>
-      <c r="D75" t="s">
-        <v>8</v>
-      </c>
-      <c r="E75" t="s">
-        <v>93</v>
-      </c>
-      <c r="G75" t="str">
-        <f t="shared" ref="G75:G76" si="5">CONCATENATE(B75," ",C75,K75,"\\")</f>
-        <v>Karl Young                      \\</v>
-      </c>
-      <c r="I75">
-        <f t="shared" ref="I75:I76" si="6">LEN(B75) + LEN(C75) +1</f>
-        <v>10</v>
-      </c>
-      <c r="J75">
-        <f t="shared" ref="J75:J76" si="7">IF(I75&lt;30,(32-I75),3)</f>
-        <v>22</v>
-      </c>
-      <c r="K75" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                      </v>
-      </c>
-    </row>
-    <row r="76" spans="2:11">
-      <c r="B76" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C76" t="s">
-        <v>152</v>
-      </c>
-      <c r="D76" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76" t="s">
-        <v>358</v>
-      </c>
-      <c r="G76" t="str">
+        <v>Flavien Vansyngel               \\</v>
+      </c>
+      <c r="I76">
         <f t="shared" si="5"/>
-        <v>Andrea Zonca                    \\</v>
-      </c>
-      <c r="I76">
+        <v>17</v>
+      </c>
+      <c r="J76">
         <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="J76">
+        <v>15</v>
+      </c>
+      <c r="K76" t="str">
         <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="K76" t="str">
-        <f>REPT(" ",J76)</f>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">               </v>
       </c>
     </row>
     <row r="77" spans="2:11">
       <c r="B77" t="s">
-        <v>309</v>
+        <v>143</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>308</v>
+        <v>144</v>
       </c>
       <c r="D77" t="s">
         <v>8</v>
       </c>
       <c r="E77" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="G77" t="str">
         <f t="shared" ref="G77" si="8">CONCATENATE(B77," ",C77,K77,"\\")</f>
-        <v>Gianfranco De Zotti             \\</v>
+        <v>Qi Wen                          \\</v>
       </c>
       <c r="I77">
         <f t="shared" ref="I77" si="9">LEN(B77) + LEN(C77) +1</f>
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="J77">
         <f t="shared" ref="J77" si="10">IF(I77&lt;30,(32-I77),3)</f>
+        <v>26</v>
+      </c>
+      <c r="K77" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                          </v>
+      </c>
+    </row>
+    <row r="78" spans="2:11">
+      <c r="B78" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C78" t="s">
+        <v>148</v>
+      </c>
+      <c r="D78" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" t="s">
+        <v>348</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" ref="G78:G82" si="11">CONCATENATE(B78," ",C78,K78,"\\")</f>
+        <v>Siyao Xu                        \\</v>
+      </c>
+      <c r="I78">
+        <f t="shared" ref="I78:I82" si="12">LEN(B78) + LEN(C78) +1</f>
+        <v>8</v>
+      </c>
+      <c r="J78">
+        <f t="shared" ref="J78:J82" si="13">IF(I78&lt;30,(32-I78),3)</f>
+        <v>24</v>
+      </c>
+      <c r="K78" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                        </v>
+      </c>
+    </row>
+    <row r="79" spans="2:11">
+      <c r="B79" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C79" t="s">
+        <v>150</v>
+      </c>
+      <c r="D79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" t="s">
+        <v>93</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="11"/>
+        <v>Karl Young                      \\</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="13"/>
+        <v>22</v>
+      </c>
+      <c r="K79" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                      </v>
+      </c>
+    </row>
+    <row r="80" spans="2:11">
+      <c r="B80" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C80" t="s">
+        <v>152</v>
+      </c>
+      <c r="D80" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" t="s">
+        <v>355</v>
+      </c>
+      <c r="G80" t="str">
+        <f>CONCATENATE(B80," ",C80,K80,"\\")</f>
+        <v>Andrea Zonca                    \\</v>
+      </c>
+      <c r="I80">
+        <f>LEN(B80) + LEN(C80) +1</f>
+        <v>12</v>
+      </c>
+      <c r="J80">
+        <f>IF(I80&lt;30,(32-I80),3)</f>
+        <v>20</v>
+      </c>
+      <c r="K80" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+    </row>
+    <row r="81" spans="2:11">
+      <c r="B81" t="s">
+        <v>309</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D81" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="G81" t="str">
+        <f>CONCATENATE(B81," ",C81,K81,"\\")</f>
+        <v>Gianfranco De Zotti             \\</v>
+      </c>
+      <c r="I81">
+        <f>LEN(B81) + LEN(C81) +1</f>
+        <v>19</v>
+      </c>
+      <c r="J81">
+        <f>IF(I81&lt;30,(32-I81),3)</f>
         <v>13</v>
       </c>
-      <c r="K77" t="str">
-        <f t="shared" ref="K77" si="11">REPT(" ",J77)</f>
+      <c r="K81" t="str">
+        <f t="shared" si="7"/>
         <v xml:space="preserve">             </v>
       </c>
     </row>
-    <row r="78" spans="2:11">
-      <c r="B78" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="D78" t="s">
-        <v>8</v>
-      </c>
-      <c r="E78" t="s">
-        <v>335</v>
-      </c>
-      <c r="G78" t="str">
-        <f t="shared" ref="G78:G80" si="12">CONCATENATE(B78," ",C78,K78,"\\")</f>
-        <v>Ren\'{e}e  Hlo\v{z}ek           \\</v>
-      </c>
-      <c r="I78">
-        <f t="shared" ref="I78:I80" si="13">LEN(B78) + LEN(C78) +1</f>
-        <v>21</v>
-      </c>
-      <c r="J78">
-        <f t="shared" ref="J78:J80" si="14">IF(I78&lt;30,(32-I78),3)</f>
-        <v>11</v>
-      </c>
-      <c r="K78" t="str">
-        <f>REPT(" ",J78)</f>
-        <v xml:space="preserve">           </v>
-      </c>
-    </row>
-    <row r="79" spans="2:11">
-      <c r="B79" t="s">
-        <v>47</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E79" t="s">
-        <v>49</v>
-      </c>
-      <c r="G79" t="str">
+    <row r="82" spans="2:11">
+      <c r="G82" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">                                \\</v>
+      </c>
+      <c r="I82">
         <f t="shared" si="12"/>
-        <v>Eleonora Di Valentino\\</v>
-      </c>
-      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J82">
         <f t="shared" si="13"/>
-        <v>21</v>
-      </c>
-      <c r="J79">
-        <f t="shared" si="14"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="80" spans="2:11">
-      <c r="G80" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve"> \\</v>
-      </c>
-      <c r="I80">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="J80">
-        <f t="shared" si="14"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="81" spans="2:11">
-      <c r="B81"/>
+      <c r="K82" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                               </v>
+      </c>
     </row>
     <row r="83" spans="2:11">
       <c r="B83"/>
     </row>
-    <row r="84" spans="2:11">
-      <c r="B84"/>
+    <row r="85" spans="2:11">
+      <c r="B85"/>
     </row>
     <row r="86" spans="2:11">
-      <c r="B86" s="3"/>
-      <c r="C86"/>
-      <c r="G86" t="str">
-        <f t="shared" ref="G86:G146" si="15">CONCATENATE(B86," ",C86,K86,"\\")</f>
+      <c r="B86"/>
+    </row>
+    <row r="88" spans="2:11">
+      <c r="B88" s="3"/>
+      <c r="C88"/>
+      <c r="G88" t="str">
+        <f t="shared" ref="G88:G149" si="14">CONCATENATE(B88," ",C88,K88,"\\")</f>
         <v xml:space="preserve">                                \\</v>
       </c>
-      <c r="I86">
-        <f t="shared" ref="I86:I146" si="16">LEN(B86) + LEN(C86) +1</f>
+      <c r="I88">
+        <f t="shared" ref="I88:I149" si="15">LEN(B88) + LEN(C88) +1</f>
         <v>1</v>
       </c>
-      <c r="J86">
-        <f t="shared" ref="J86:J146" si="17">IF(I86&lt;30,(32-I86),3)</f>
+      <c r="J88">
+        <f t="shared" ref="J88:J149" si="16">IF(I88&lt;30,(32-I88),3)</f>
         <v>31</v>
       </c>
-      <c r="K86" t="str">
-        <f t="shared" si="4"/>
+      <c r="K88" t="str">
+        <f t="shared" ref="K73:K149" si="17">REPT(" ",J88)</f>
         <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="87" spans="2:11">
-      <c r="B87" t="s">
-        <v>153</v>
-      </c>
-      <c r="C87" t="s">
-        <v>154</v>
-      </c>
-      <c r="D87" t="s">
-        <v>155</v>
-      </c>
-      <c r="E87" t="s">
-        <v>156</v>
-      </c>
-      <c r="G87" t="str">
-        <f t="shared" si="15"/>
-        <v>Zeeshan Ahmed                   \\</v>
-      </c>
-      <c r="I87">
-        <f t="shared" si="16"/>
-        <v>13</v>
-      </c>
-      <c r="J87">
-        <f t="shared" si="17"/>
-        <v>19</v>
-      </c>
-      <c r="K87" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                   </v>
-      </c>
-    </row>
-    <row r="88" spans="2:11">
-      <c r="B88" t="s">
-        <v>157</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D88" t="s">
-        <v>155</v>
-      </c>
-      <c r="E88" t="s">
-        <v>159</v>
-      </c>
-      <c r="G88" t="str">
-        <f t="shared" ref="G88:G140" si="18">CONCATENATE(B88," ",C88,K88,"\\")</f>
-        <v>Jason Austermann                \\</v>
-      </c>
-      <c r="I88">
-        <f t="shared" ref="I88:I140" si="19">LEN(B88) + LEN(C88) +1</f>
-        <v>16</v>
-      </c>
-      <c r="J88">
-        <f t="shared" ref="J88:J140" si="20">IF(I88&lt;30,(32-I88),3)</f>
-        <v>16</v>
-      </c>
-      <c r="K88" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                </v>
       </c>
     </row>
     <row r="89" spans="2:11">
       <c r="B89" t="s">
-        <v>160</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
+      </c>
+      <c r="C89" t="s">
+        <v>154</v>
       </c>
       <c r="D89" t="s">
         <v>155</v>
       </c>
       <c r="E89" t="s">
+        <v>156</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" si="14"/>
+        <v>Zeeshan Ahmed                   \\</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="16"/>
+        <v>19</v>
+      </c>
+      <c r="K89" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">                   </v>
+      </c>
+    </row>
+    <row r="90" spans="2:11">
+      <c r="B90" t="s">
+        <v>157</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D90" t="s">
+        <v>155</v>
+      </c>
+      <c r="E90" t="s">
+        <v>159</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" ref="G90:G140" si="18">CONCATENATE(B90," ",C90,K90,"\\")</f>
+        <v>Jason Austermann                \\</v>
+      </c>
+      <c r="I90">
+        <f t="shared" ref="I90:I140" si="19">LEN(B90) + LEN(C90) +1</f>
+        <v>16</v>
+      </c>
+      <c r="J90">
+        <f t="shared" ref="J90:J140" si="20">IF(I90&lt;30,(32-I90),3)</f>
+        <v>16</v>
+      </c>
+      <c r="K90" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">                </v>
+      </c>
+    </row>
+    <row r="91" spans="2:11">
+      <c r="B91" t="s">
+        <v>160</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D91" t="s">
+        <v>155</v>
+      </c>
+      <c r="E91" t="s">
         <v>162</v>
       </c>
-      <c r="G89" t="str">
+      <c r="G91" t="str">
         <f t="shared" si="18"/>
         <v>Darcy Barron                    \\</v>
       </c>
-      <c r="I89">
+      <c r="I91">
         <f t="shared" si="19"/>
         <v>12</v>
       </c>
-      <c r="J89">
+      <c r="J91">
         <f t="shared" si="20"/>
         <v>20</v>
       </c>
-      <c r="K89" t="str">
-        <f t="shared" si="4"/>
+      <c r="K91" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                    </v>
       </c>
     </row>
-    <row r="90" spans="2:11">
-      <c r="B90" t="s">
+    <row r="92" spans="2:11">
+      <c r="B92" t="s">
         <v>163</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C92" t="s">
         <v>164</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D92" t="s">
         <v>155</v>
       </c>
-      <c r="G90" t="str">
+      <c r="G92" t="str">
         <f t="shared" si="18"/>
         <v>Karim Benabed                   \\</v>
       </c>
-      <c r="I90">
+      <c r="I92">
         <f t="shared" si="19"/>
         <v>13</v>
       </c>
-      <c r="J90">
+      <c r="J92">
         <f t="shared" si="20"/>
         <v>19</v>
       </c>
-      <c r="K90" t="str">
-        <f t="shared" si="4"/>
+      <c r="K92" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                   </v>
       </c>
     </row>
-    <row r="91" spans="2:11">
-      <c r="B91" t="s">
+    <row r="93" spans="2:11">
+      <c r="B93" t="s">
         <v>165</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C93" t="s">
         <v>166</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D93" t="s">
         <v>155</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E93" t="s">
         <v>167</v>
       </c>
-      <c r="G91" t="str">
+      <c r="G93" t="str">
         <f t="shared" si="18"/>
         <v>Federico Bianchini              \\</v>
       </c>
-      <c r="I91">
+      <c r="I93">
         <f t="shared" si="19"/>
         <v>18</v>
       </c>
-      <c r="J91">
+      <c r="J93">
         <f t="shared" si="20"/>
         <v>14</v>
       </c>
-      <c r="K91" t="str">
-        <f t="shared" si="4"/>
+      <c r="K93" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">              </v>
       </c>
     </row>
-    <row r="92" spans="2:11">
-      <c r="B92" s="1" t="s">
+    <row r="94" spans="2:11">
+      <c r="B94" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D94" t="s">
         <v>155</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E94" t="s">
         <v>280</v>
       </c>
-      <c r="G92" t="str">
+      <c r="G94" t="str">
         <f t="shared" si="18"/>
         <v>Colin Bischoff                  \\</v>
       </c>
-      <c r="I92">
+      <c r="I94">
         <f t="shared" si="19"/>
         <v>14</v>
       </c>
-      <c r="J92">
+      <c r="J94">
         <f t="shared" si="20"/>
         <v>18</v>
       </c>
-      <c r="K92" t="str">
-        <f t="shared" si="4"/>
+      <c r="K94" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                  </v>
       </c>
     </row>
-    <row r="93" spans="2:11">
-      <c r="B93" t="s">
+    <row r="95" spans="2:11">
+      <c r="B95" t="s">
         <v>171</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C95" t="s">
         <v>172</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D95" t="s">
         <v>155</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E95" t="s">
         <v>173</v>
       </c>
-      <c r="G93" t="str">
+      <c r="G95" t="str">
         <f t="shared" si="18"/>
         <v>J. Richard Bond                 \\</v>
-      </c>
-      <c r="I93">
-        <f t="shared" si="19"/>
-        <v>15</v>
-      </c>
-      <c r="J93">
-        <f t="shared" si="20"/>
-        <v>17</v>
-      </c>
-      <c r="K93" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                 </v>
-      </c>
-    </row>
-    <row r="94" spans="2:11">
-      <c r="B94" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C94" t="s">
-        <v>192</v>
-      </c>
-      <c r="D94" t="s">
-        <v>155</v>
-      </c>
-      <c r="E94" t="s">
-        <v>82</v>
-      </c>
-      <c r="G94" t="str">
-        <f t="shared" si="18"/>
-        <v>Fran\c{c}ois Bouchet            \\</v>
-      </c>
-      <c r="I94">
-        <f t="shared" si="19"/>
-        <v>20</v>
-      </c>
-      <c r="J94">
-        <f t="shared" si="20"/>
-        <v>12</v>
-      </c>
-      <c r="K94" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">            </v>
-      </c>
-    </row>
-    <row r="95" spans="2:11">
-      <c r="B95" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D95" t="s">
-        <v>155</v>
-      </c>
-      <c r="E95" t="s">
-        <v>278</v>
-      </c>
-      <c r="G95" t="str">
-        <f t="shared" si="18"/>
-        <v>Robert Caldwell                 \\</v>
       </c>
       <c r="I95">
         <f t="shared" si="19"/>
@@ -4070,68 +4114,68 @@
         <v>17</v>
       </c>
       <c r="K95" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                 </v>
       </c>
     </row>
     <row r="96" spans="2:11">
-      <c r="B96" t="s">
-        <v>174</v>
-      </c>
-      <c r="C96" t="s">
-        <v>175</v>
+      <c r="B96" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>290</v>
       </c>
       <c r="D96" t="s">
         <v>155</v>
       </c>
       <c r="E96" t="s">
-        <v>133</v>
+        <v>278</v>
       </c>
       <c r="G96" t="str">
         <f t="shared" si="18"/>
-        <v>Xingang Chen                    \\</v>
+        <v>Robert Caldwell                 \\</v>
       </c>
       <c r="I96">
         <f t="shared" si="19"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J96">
         <f t="shared" si="20"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K96" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                    </v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">                 </v>
       </c>
     </row>
     <row r="97" spans="2:11">
       <c r="B97" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C97" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D97" t="s">
         <v>155</v>
       </c>
       <c r="E97" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="G97" t="str">
         <f t="shared" si="18"/>
-        <v>Jens Chluba                     \\</v>
+        <v>Xingang Chen                    \\</v>
       </c>
       <c r="I97">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J97">
         <f t="shared" si="20"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K97" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                     </v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">                    </v>
       </c>
     </row>
     <row r="98" spans="2:11">
@@ -4160,7 +4204,7 @@
         <v>10</v>
       </c>
       <c r="K98" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">          </v>
       </c>
     </row>
@@ -4190,7 +4234,7 @@
         <v>18</v>
       </c>
       <c r="K99" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                  </v>
       </c>
     </row>
@@ -4220,7 +4264,7 @@
         <v>16</v>
       </c>
       <c r="K100" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                </v>
       </c>
     </row>
@@ -4250,7 +4294,7 @@
         <v>20</v>
       </c>
       <c r="K101" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                    </v>
       </c>
     </row>
@@ -4280,7 +4324,7 @@
         <v>23</v>
       </c>
       <c r="K102" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                       </v>
       </c>
     </row>
@@ -4310,16 +4354,16 @@
         <v>21</v>
       </c>
       <c r="K103" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="104" spans="2:11">
       <c r="B104" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D104" t="s">
         <v>155</v>
@@ -4340,7 +4384,7 @@
         <v>19</v>
       </c>
       <c r="K104" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                   </v>
       </c>
     </row>
@@ -4370,22 +4414,22 @@
         <v>14</v>
       </c>
       <c r="K105" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">              </v>
       </c>
     </row>
     <row r="106" spans="2:11">
       <c r="B106" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D106" t="s">
         <v>155</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G106" t="str">
         <f t="shared" si="18"/>
@@ -4400,7 +4444,7 @@
         <v>11</v>
       </c>
       <c r="K106" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">           </v>
       </c>
     </row>
@@ -4430,7 +4474,7 @@
         <v>15</v>
       </c>
       <c r="K107" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">               </v>
       </c>
     </row>
@@ -4460,7 +4504,7 @@
         <v>17</v>
       </c>
       <c r="K108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                 </v>
       </c>
     </row>
@@ -4490,7 +4534,7 @@
         <v>20</v>
       </c>
       <c r="K109" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                    </v>
       </c>
     </row>
@@ -4520,236 +4564,236 @@
         <v>22</v>
       </c>
       <c r="K110" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                      </v>
       </c>
     </row>
     <row r="111" spans="2:11">
-      <c r="B111" t="s">
-        <v>216</v>
+      <c r="B111" s="1" t="s">
+        <v>363</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>217</v>
+        <v>364</v>
       </c>
       <c r="D111" t="s">
         <v>155</v>
       </c>
       <c r="E111" t="s">
-        <v>218</v>
+        <v>359</v>
       </c>
       <c r="G111" t="str">
         <f t="shared" si="18"/>
-        <v>Daniel Lenz                     \\</v>
+        <v>Kerstin Kunze                   \\</v>
       </c>
       <c r="I111">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J111">
         <f t="shared" si="20"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K111" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                     </v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">                   </v>
       </c>
     </row>
     <row r="112" spans="2:11">
       <c r="B112" t="s">
-        <v>219</v>
-      </c>
-      <c r="C112" t="s">
-        <v>220</v>
+        <v>216</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="D112" t="s">
         <v>155</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G112" t="str">
         <f t="shared" si="18"/>
-        <v>Marilena Loverde                \\</v>
+        <v>Daniel Lenz                     \\</v>
       </c>
       <c r="I112">
         <f t="shared" si="19"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J112">
         <f t="shared" si="20"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K112" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                </v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="113" spans="2:11">
       <c r="B113" t="s">
-        <v>222</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
+      </c>
+      <c r="C113" t="s">
+        <v>220</v>
       </c>
       <c r="D113" t="s">
         <v>155</v>
       </c>
       <c r="E113" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G113" t="str">
         <f t="shared" si="18"/>
-        <v>Carlos Martins                  \\</v>
+        <v>Marilena Loverde                \\</v>
       </c>
       <c r="I113">
         <f t="shared" si="19"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J113">
         <f t="shared" si="20"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K113" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                  </v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">                </v>
       </c>
     </row>
     <row r="114" spans="2:11">
-      <c r="B114" t="s">
-        <v>193</v>
-      </c>
-      <c r="C114" t="s">
-        <v>225</v>
+      <c r="B114" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>362</v>
       </c>
       <c r="D114" t="s">
         <v>155</v>
       </c>
       <c r="E114" t="s">
-        <v>226</v>
+        <v>358</v>
       </c>
       <c r="G114" t="str">
         <f t="shared" si="18"/>
-        <v>Silvia Masi                     \\</v>
+        <v>Juan Macias-Perez               \\</v>
       </c>
       <c r="I114">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J114">
         <f t="shared" si="20"/>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K114" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                     </v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">               </v>
       </c>
     </row>
     <row r="115" spans="2:11">
-      <c r="B115" s="1" t="s">
-        <v>294</v>
+      <c r="B115" t="s">
+        <v>222</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>295</v>
+        <v>223</v>
       </c>
       <c r="D115" t="s">
         <v>155</v>
       </c>
       <c r="E115" t="s">
-        <v>282</v>
+        <v>224</v>
       </c>
       <c r="G115" t="str">
         <f t="shared" si="18"/>
-        <v>Joel Meyers                     \\</v>
+        <v>Carlos Martins                  \\</v>
       </c>
       <c r="I115">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J115">
         <f t="shared" si="20"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K115" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                     </v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="116" spans="2:11">
       <c r="B116" t="s">
-        <v>227</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>228</v>
+        <v>193</v>
+      </c>
+      <c r="C116" t="s">
+        <v>225</v>
       </c>
       <c r="D116" t="s">
         <v>155</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G116" t="str">
         <f t="shared" si="18"/>
-        <v>Lorenzo Moncelsi                \\</v>
+        <v>Silvia Masi                     \\</v>
       </c>
       <c r="I116">
         <f t="shared" si="19"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J116">
         <f t="shared" si="20"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K116" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                </v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="117" spans="2:11">
-      <c r="B117" t="s">
-        <v>230</v>
+      <c r="B117" s="1" t="s">
+        <v>294</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>231</v>
+        <v>295</v>
       </c>
       <c r="D117" t="s">
         <v>155</v>
       </c>
       <c r="E117" t="s">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="G117" t="str">
         <f t="shared" si="18"/>
-        <v>Pavel Motloch                   \\</v>
+        <v>Joel Meyers                     \\</v>
       </c>
       <c r="I117">
         <f t="shared" si="19"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J117">
         <f t="shared" si="20"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K117" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                   </v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="118" spans="2:11">
       <c r="B118" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D118" t="s">
         <v>155</v>
       </c>
       <c r="E118" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="G118" t="str">
         <f t="shared" si="18"/>
-        <v>Tony Mroczkowski                \\</v>
+        <v>Lorenzo Moncelsi                \\</v>
       </c>
       <c r="I118">
         <f t="shared" si="19"/>
@@ -4760,7 +4804,7 @@
         <v>16</v>
       </c>
       <c r="K118" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                </v>
       </c>
     </row>
@@ -4768,378 +4812,378 @@
       <c r="B119" t="s">
         <v>230</v>
       </c>
-      <c r="C119" t="s">
-        <v>236</v>
+      <c r="C119" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="D119" t="s">
         <v>155</v>
       </c>
       <c r="E119" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G119" t="str">
         <f t="shared" si="18"/>
-        <v>Pavel Naselsky                  \\</v>
+        <v>Pavel Motloch                   \\</v>
       </c>
       <c r="I119">
         <f t="shared" si="19"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J119">
         <f t="shared" si="20"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K119" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                  </v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">                   </v>
       </c>
     </row>
     <row r="120" spans="2:11">
       <c r="B120" t="s">
-        <v>165</v>
+        <v>233</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D120" t="s">
         <v>155</v>
       </c>
       <c r="E120" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G120" t="str">
         <f t="shared" si="18"/>
-        <v>Federico Nati                   \\</v>
+        <v>Tony Mroczkowski                \\</v>
       </c>
       <c r="I120">
         <f t="shared" si="19"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J120">
         <f t="shared" si="20"/>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K120" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                   </v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">                </v>
       </c>
     </row>
     <row r="121" spans="2:11">
       <c r="B121" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C121" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D121" t="s">
         <v>155</v>
       </c>
       <c r="E121" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G121" t="str">
         <f t="shared" si="18"/>
-        <v>Elena Orlando                   \\</v>
+        <v>Pavel Naselsky                  \\</v>
       </c>
       <c r="I121">
         <f t="shared" si="19"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J121">
         <f t="shared" si="20"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K121" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                   </v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="122" spans="2:11">
-      <c r="B122" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C122" t="s">
-        <v>189</v>
+      <c r="B122" t="s">
+        <v>165</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="D122" t="s">
         <v>155</v>
       </c>
       <c r="E122" t="s">
-        <v>191</v>
+        <v>239</v>
       </c>
       <c r="G122" t="str">
         <f t="shared" si="18"/>
-        <v>Francesco Piacentini            \\</v>
+        <v>Federico Nati                   \\</v>
       </c>
       <c r="I122">
         <f t="shared" si="19"/>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J122">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K122" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">            </v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">                   </v>
       </c>
     </row>
     <row r="123" spans="2:11">
       <c r="B123" t="s">
-        <v>243</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
+      </c>
+      <c r="C123" t="s">
+        <v>241</v>
       </c>
       <c r="D123" t="s">
         <v>155</v>
       </c>
       <c r="E123" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G123" t="str">
         <f t="shared" si="18"/>
-        <v>Giuseppe Puglisi                \\</v>
+        <v>Elena Orlando                   \\</v>
       </c>
       <c r="I123">
         <f t="shared" si="19"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J123">
         <f t="shared" si="20"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K123" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                </v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">                   </v>
       </c>
     </row>
     <row r="124" spans="2:11">
       <c r="B124" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>318</v>
+        <v>190</v>
+      </c>
+      <c r="C124" t="s">
+        <v>189</v>
       </c>
       <c r="D124" t="s">
         <v>155</v>
       </c>
       <c r="E124" t="s">
-        <v>317</v>
+        <v>191</v>
       </c>
       <c r="G124" t="str">
         <f t="shared" si="18"/>
-        <v>Benjamin Racine                 \\</v>
+        <v>Francesco Piacentini            \\</v>
       </c>
       <c r="I124">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J124">
         <f t="shared" si="20"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K124" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                 </v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">            </v>
       </c>
     </row>
     <row r="125" spans="2:11">
       <c r="B125" t="s">
-        <v>246</v>
-      </c>
-      <c r="C125" t="s">
-        <v>247</v>
+        <v>243</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>244</v>
       </c>
       <c r="D125" t="s">
         <v>155</v>
       </c>
       <c r="E125" t="s">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="G125" t="str">
         <f t="shared" si="18"/>
-        <v>Christian Reichardt             \\</v>
+        <v>Giuseppe Puglisi                \\</v>
       </c>
       <c r="I125">
         <f t="shared" si="19"/>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J125">
         <f t="shared" si="20"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K125" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">             </v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">                </v>
       </c>
     </row>
     <row r="126" spans="2:11">
-      <c r="B126" t="s">
-        <v>248</v>
+      <c r="B126" s="1" t="s">
+        <v>287</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>249</v>
+        <v>318</v>
       </c>
       <c r="D126" t="s">
         <v>155</v>
       </c>
       <c r="E126" t="s">
-        <v>250</v>
+        <v>317</v>
       </c>
       <c r="G126" t="str">
         <f t="shared" si="18"/>
-        <v>Anirban Roy                     \\</v>
+        <v>Benjamin Racine                 \\</v>
       </c>
       <c r="I126">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J126">
         <f t="shared" si="20"/>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K126" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                     </v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">                 </v>
       </c>
     </row>
     <row r="127" spans="2:11">
       <c r="B127" t="s">
-        <v>251</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
+      </c>
+      <c r="C127" t="s">
+        <v>247</v>
       </c>
       <c r="D127" t="s">
         <v>155</v>
       </c>
       <c r="E127" t="s">
-        <v>253</v>
+        <v>167</v>
       </c>
       <c r="G127" t="str">
         <f t="shared" si="18"/>
-        <v>Maria Salatino                  \\</v>
+        <v>Christian Reichardt             \\</v>
       </c>
       <c r="I127">
         <f t="shared" si="19"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J127">
         <f t="shared" si="20"/>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K127" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                  </v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">             </v>
       </c>
     </row>
     <row r="128" spans="2:11">
       <c r="B128" s="1" t="s">
-        <v>287</v>
+        <v>116</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>288</v>
+        <v>369</v>
       </c>
       <c r="D128" t="s">
         <v>155</v>
       </c>
       <c r="E128" t="s">
-        <v>277</v>
+        <v>357</v>
       </c>
       <c r="G128" t="str">
         <f t="shared" si="18"/>
-        <v>Benjamin Saliwanchik            \\</v>
+        <v>Chris Ringeval                  \\</v>
       </c>
       <c r="I128">
         <f t="shared" si="19"/>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J128">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K128" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">            </v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="129" spans="2:11">
-      <c r="B129" s="1" t="s">
-        <v>298</v>
+      <c r="B129" t="s">
+        <v>248</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>299</v>
+        <v>249</v>
       </c>
       <c r="D129" t="s">
         <v>155</v>
       </c>
       <c r="E129" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="G129" t="str">
         <f t="shared" si="18"/>
-        <v>Neelima Sehgal                  \\</v>
+        <v>Anirban Roy                     \\</v>
       </c>
       <c r="I129">
         <f t="shared" si="19"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J129">
         <f t="shared" si="20"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K129" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                  </v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="130" spans="2:11">
-      <c r="B130" t="s">
-        <v>254</v>
+      <c r="B130" s="1" t="s">
+        <v>367</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>255</v>
+        <v>368</v>
       </c>
       <c r="D130" t="s">
         <v>155</v>
       </c>
       <c r="E130" t="s">
-        <v>256</v>
+        <v>356</v>
       </c>
       <c r="G130" t="str">
         <f t="shared" si="18"/>
-        <v>Sarah Shandera                  \\</v>
+        <v>Jose-Alberto Rubino-Martin      \\</v>
       </c>
       <c r="I130">
         <f t="shared" si="19"/>
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J130">
         <f t="shared" si="20"/>
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="K130" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                  </v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">      </v>
       </c>
     </row>
     <row r="131" spans="2:11">
       <c r="B131" t="s">
-        <v>185</v>
-      </c>
-      <c r="C131" t="s">
-        <v>316</v>
+        <v>251</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="D131" t="s">
         <v>155</v>
       </c>
       <c r="E131" t="s">
-        <v>186</v>
+        <v>253</v>
       </c>
       <c r="G131" t="str">
         <f t="shared" si="18"/>
-        <v>Erik Shirokoff                  \\</v>
+        <v>Maria Salatino                  \\</v>
       </c>
       <c r="I131">
         <f t="shared" si="19"/>
@@ -5150,56 +5194,56 @@
         <v>18</v>
       </c>
       <c r="K131" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="132" spans="2:11">
-      <c r="B132" t="s">
-        <v>257</v>
+      <c r="B132" s="1" t="s">
+        <v>287</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="D132" t="s">
         <v>155</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="G132" t="str">
         <f t="shared" si="18"/>
-        <v>An\v{z}e Slosar                 \\</v>
+        <v>Benjamin Saliwanchik            \\</v>
       </c>
       <c r="I132">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J132">
         <f t="shared" si="20"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K132" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                 </v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">            </v>
       </c>
     </row>
     <row r="133" spans="2:11">
-      <c r="B133" t="s">
-        <v>260</v>
+      <c r="B133" s="1" t="s">
+        <v>298</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="D133" t="s">
         <v>155</v>
       </c>
       <c r="E133" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="G133" t="str">
         <f t="shared" si="18"/>
-        <v>Aritoki Suzuki                  \\</v>
+        <v>Neelima Sehgal                  \\</v>
       </c>
       <c r="I133">
         <f t="shared" si="19"/>
@@ -5210,56 +5254,56 @@
         <v>18</v>
       </c>
       <c r="K133" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="134" spans="2:11">
-      <c r="B134" s="1" t="s">
-        <v>80</v>
+      <c r="B134" t="s">
+        <v>254</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="D134" t="s">
         <v>155</v>
       </c>
       <c r="E134" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="G134" t="str">
         <f t="shared" si="18"/>
-        <v>Eric Switzer                    \\</v>
+        <v>Sarah Shandera                  \\</v>
       </c>
       <c r="I134">
         <f t="shared" si="19"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J134">
         <f t="shared" si="20"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K134" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                    </v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="135" spans="2:11">
-      <c r="B135" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>297</v>
+      <c r="B135" t="s">
+        <v>185</v>
+      </c>
+      <c r="C135" t="s">
+        <v>316</v>
       </c>
       <c r="D135" t="s">
         <v>155</v>
       </c>
       <c r="E135" t="s">
-        <v>284</v>
+        <v>186</v>
       </c>
       <c r="G135" t="str">
         <f t="shared" si="18"/>
-        <v>Andrea Tartari                  \\</v>
+        <v>Erik Shirokoff                  \\</v>
       </c>
       <c r="I135">
         <f t="shared" si="19"/>
@@ -5270,1086 +5314,1118 @@
         <v>18</v>
       </c>
       <c r="K135" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="136" spans="2:11">
       <c r="B136" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D136" t="s">
         <v>155</v>
       </c>
       <c r="E136" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G136" t="str">
         <f t="shared" si="18"/>
-        <v>Grant Teply                     \\</v>
+        <v>An\v{z}e Slosar                 \\</v>
       </c>
       <c r="I136">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J136">
         <f t="shared" si="20"/>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K136" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                     </v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">                 </v>
       </c>
     </row>
     <row r="137" spans="2:11">
-      <c r="B137" s="1" t="s">
-        <v>9</v>
+      <c r="B137" t="s">
+        <v>260</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>300</v>
+        <v>261</v>
       </c>
       <c r="D137" t="s">
         <v>155</v>
       </c>
       <c r="E137" t="s">
-        <v>285</v>
+        <v>184</v>
       </c>
       <c r="G137" t="str">
         <f t="shared" si="18"/>
-        <v>Peter Timbie                    \\</v>
+        <v>Aritoki Suzuki                  \\</v>
       </c>
       <c r="I137">
         <f t="shared" si="19"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J137">
         <f t="shared" si="20"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K137" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                    </v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="138" spans="2:11">
-      <c r="B138" t="s">
-        <v>265</v>
+      <c r="B138" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="D138" t="s">
         <v>155</v>
       </c>
       <c r="E138" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="G138" t="str">
         <f t="shared" si="18"/>
-        <v>Matthieu Tristram               \\</v>
+        <v>Eric Switzer                    \\</v>
       </c>
       <c r="I138">
         <f t="shared" si="19"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J138">
         <f t="shared" si="20"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K138" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">               </v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">                    </v>
       </c>
     </row>
     <row r="139" spans="2:11">
       <c r="B139" s="1" t="s">
-        <v>319</v>
+        <v>151</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="D139" t="s">
         <v>155</v>
       </c>
       <c r="E139" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="G139" t="str">
         <f t="shared" si="18"/>
-        <v>Caterina Umilt\`{a}             \\</v>
+        <v>Andrea Tartari                  \\</v>
       </c>
       <c r="I139">
         <f t="shared" si="19"/>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J139">
         <f t="shared" si="20"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K139" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">             </v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="140" spans="2:11">
-      <c r="B140" s="1" t="s">
-        <v>330</v>
+      <c r="B140" t="s">
+        <v>262</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>329</v>
+        <v>263</v>
       </c>
       <c r="D140" t="s">
         <v>155</v>
       </c>
-      <c r="E140" s="1" t="s">
-        <v>321</v>
+      <c r="E140" t="s">
+        <v>264</v>
       </c>
       <c r="G140" t="str">
         <f t="shared" si="18"/>
-        <v>Patricio Vielva                 \\</v>
+        <v>Grant Teply                     \\</v>
       </c>
       <c r="I140">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J140">
         <f t="shared" si="20"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K140" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                 </v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">                     </v>
       </c>
     </row>
     <row r="141" spans="2:11">
       <c r="B141" s="1" t="s">
-        <v>287</v>
+        <v>9</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="D141" t="s">
         <v>155</v>
       </c>
       <c r="E141" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="G141" t="str">
         <f t="shared" ref="G141:G143" si="21">CONCATENATE(B141," ",C141,K141,"\\")</f>
-        <v>Benjamin Wallisch               \\</v>
+        <v>Peter Timbie                    \\</v>
       </c>
       <c r="I141">
         <f t="shared" ref="I141:I143" si="22">LEN(B141) + LEN(C141) +1</f>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J141">
         <f t="shared" ref="J141:J143" si="23">IF(I141&lt;30,(32-I141),3)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K141" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">               </v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">                    </v>
       </c>
     </row>
     <row r="142" spans="2:11">
       <c r="B142" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D142" t="s">
         <v>155</v>
       </c>
       <c r="E142" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G142" t="str">
         <f t="shared" si="21"/>
-        <v>Scott Watson                    \\</v>
+        <v>Matthieu Tristram               \\</v>
       </c>
       <c r="I142">
-        <f t="shared" si="22"/>
-        <v>12</v>
+        <f t="shared" ref="I142:I148" si="24">LEN(B142) + LEN(C142) +1</f>
+        <v>17</v>
       </c>
       <c r="J142">
-        <f t="shared" si="23"/>
-        <v>20</v>
+        <f t="shared" ref="J142:J148" si="25">IF(I142&lt;30,(32-I142),3)</f>
+        <v>15</v>
       </c>
       <c r="K142" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                    </v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">               </v>
       </c>
     </row>
     <row r="143" spans="2:11">
-      <c r="B143" t="s">
-        <v>271</v>
+      <c r="B143" s="1" t="s">
+        <v>319</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>272</v>
+        <v>320</v>
       </c>
       <c r="D143" t="s">
         <v>155</v>
       </c>
       <c r="E143" t="s">
-        <v>58</v>
+        <v>280</v>
       </c>
       <c r="G143" t="str">
         <f t="shared" si="21"/>
-        <v>Edward J. Wollack               \\</v>
+        <v>Caterina Umilt\`{a}             \\</v>
       </c>
       <c r="I143">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
+        <v>19</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="25"/>
+        <v>13</v>
+      </c>
+      <c r="K143" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">             </v>
+      </c>
+    </row>
+    <row r="144" spans="2:11">
+      <c r="B144" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D144" t="s">
+        <v>155</v>
+      </c>
+      <c r="E144" t="s">
+        <v>360</v>
+      </c>
+      <c r="G144" t="str">
+        <f t="shared" ref="G144:G148" si="26">CONCATENATE(B144," ",C144,K144,"\\")</f>
+        <v>Licia Verde                     \\</v>
+      </c>
+      <c r="I144">
+        <f t="shared" si="24"/>
+        <v>11</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="25"/>
+        <v>21</v>
+      </c>
+      <c r="K144" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">                     </v>
+      </c>
+    </row>
+    <row r="145" spans="2:11">
+      <c r="B145" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D145" t="s">
+        <v>155</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="G145" t="str">
+        <f t="shared" si="26"/>
+        <v>Patricio Vielva                 \\</v>
+      </c>
+      <c r="I145">
+        <f t="shared" si="24"/>
+        <v>15</v>
+      </c>
+      <c r="J145">
+        <f t="shared" si="25"/>
         <v>17</v>
       </c>
-      <c r="J143">
-        <f t="shared" si="23"/>
+      <c r="K145" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">                 </v>
+      </c>
+    </row>
+    <row r="146" spans="2:11">
+      <c r="B146" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D146" t="s">
+        <v>155</v>
+      </c>
+      <c r="E146" t="s">
+        <v>279</v>
+      </c>
+      <c r="G146" t="str">
+        <f t="shared" si="26"/>
+        <v>Benjamin Wallisch               \\</v>
+      </c>
+      <c r="I146">
+        <f t="shared" si="24"/>
+        <v>17</v>
+      </c>
+      <c r="J146">
+        <f t="shared" si="25"/>
         <v>15</v>
       </c>
-      <c r="K143" t="str">
-        <f t="shared" si="4"/>
+      <c r="K146" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">               </v>
       </c>
     </row>
-    <row r="144" spans="2:11">
-      <c r="G144" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I144">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="J144">
-        <f t="shared" si="17"/>
-        <v>31</v>
-      </c>
-      <c r="K144" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="145" spans="2:11">
-      <c r="G145" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I145">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="J145">
-        <f t="shared" si="17"/>
-        <v>31</v>
-      </c>
-      <c r="K145" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="146" spans="2:11">
-      <c r="G146" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I146">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="J146">
-        <f t="shared" si="17"/>
-        <v>31</v>
-      </c>
-      <c r="K146" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
     <row r="147" spans="2:11">
-      <c r="B147" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C147" t="s">
-        <v>146</v>
+      <c r="B147" t="s">
+        <v>268</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="D147" t="s">
         <v>155</v>
       </c>
+      <c r="E147" t="s">
+        <v>270</v>
+      </c>
       <c r="G147" t="str">
-        <f t="shared" ref="G147:G188" si="24">CONCATENATE(B147," ",C147,K147,"\\")</f>
-        <v>Martin White                    \\</v>
+        <f t="shared" si="26"/>
+        <v>Scott Watson                    \\</v>
       </c>
       <c r="I147">
-        <f t="shared" ref="I147:I188" si="25">LEN(B147) + LEN(C147) +1</f>
+        <f t="shared" si="24"/>
         <v>12</v>
       </c>
       <c r="J147">
-        <f t="shared" ref="J147:J188" si="26">IF(I147&lt;30,(32-I147),3)</f>
+        <f t="shared" si="25"/>
         <v>20</v>
       </c>
       <c r="K147" t="str">
-        <f t="shared" ref="K147:K188" si="27">REPT(" ",J147)</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">                    </v>
       </c>
     </row>
     <row r="148" spans="2:11">
+      <c r="B148" t="s">
+        <v>271</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D148" t="s">
+        <v>155</v>
+      </c>
+      <c r="E148" t="s">
+        <v>58</v>
+      </c>
       <c r="G148" t="str">
-        <f>CONCATENATE(B141," ",E141,K148,"\\")</f>
-        <v>Benjamin Institute for Advanced Study/University of California, San Diego   \\</v>
+        <f t="shared" si="26"/>
+        <v>Edward J. Wollack               \\</v>
       </c>
       <c r="I148">
-        <f>LEN(B141) + LEN(E141) +1</f>
-        <v>73</v>
+        <f t="shared" si="24"/>
+        <v>17</v>
       </c>
       <c r="J148">
-        <f>IF(I148&lt;30,(32-I148),3)</f>
-        <v>3</v>
+        <f t="shared" si="25"/>
+        <v>15</v>
       </c>
       <c r="K148" t="str">
-        <f>REPT(" ",J148)</f>
-        <v xml:space="preserve">   </v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">               </v>
       </c>
     </row>
     <row r="149" spans="2:11">
       <c r="G149" t="str">
-        <f>CONCATENATE(B143," ",E143,K149,"\\")</f>
-        <v>Edward J. NASA Goddard Space Flight Center   \\</v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I149">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <f t="shared" si="16"/>
+        <v>31</v>
+      </c>
+      <c r="K149" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">                               </v>
+      </c>
+    </row>
+    <row r="150" spans="2:11">
+      <c r="I150">
+        <f>LEN(B141) + LEN(E141) +1</f>
+        <v>18</v>
+      </c>
+      <c r="J150">
+        <f>IF(I150&lt;30,(32-I150),3)</f>
+        <v>14</v>
+      </c>
+      <c r="K150" t="str">
+        <f>REPT(" ",J150)</f>
+        <v xml:space="preserve">              </v>
+      </c>
+    </row>
+    <row r="151" spans="2:11">
+      <c r="I151">
         <f>LEN(B143) + LEN(E143) +1</f>
-        <v>42</v>
-      </c>
-      <c r="J149">
-        <f t="shared" si="26"/>
+        <v>33</v>
+      </c>
+      <c r="J151">
+        <f t="shared" ref="J151:J191" si="27">IF(I151&lt;30,(32-I151),3)</f>
         <v>3</v>
       </c>
-      <c r="K149" t="str">
+      <c r="K151" t="str">
+        <f t="shared" ref="K151:K191" si="28">REPT(" ",J151)</f>
+        <v xml:space="preserve">   </v>
+      </c>
+    </row>
+    <row r="153" spans="2:11">
+      <c r="I153">
+        <f>LEN(B142) + LEN(E142) +1</f>
+        <v>19</v>
+      </c>
+      <c r="J153">
         <f t="shared" si="27"/>
-        <v xml:space="preserve">   </v>
-      </c>
-    </row>
-    <row r="150" spans="2:11">
-      <c r="B150" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D150" t="s">
-        <v>8</v>
-      </c>
-      <c r="E150" t="s">
-        <v>323</v>
-      </c>
-      <c r="G150" t="str">
-        <f t="shared" si="24"/>
-        <v>Kimberly K. Boddy Johns Hopkins University   \\</v>
-      </c>
-      <c r="I150">
-        <f t="shared" si="25"/>
-        <v>42</v>
-      </c>
-      <c r="J150">
-        <f t="shared" si="26"/>
-        <v>3</v>
-      </c>
-      <c r="K150" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">   </v>
-      </c>
-    </row>
-    <row r="151" spans="2:11">
-      <c r="G151" t="str">
-        <f>CONCATENATE(B142," ",E142,K151,"\\")</f>
-        <v>Scott Syracuse                  \\</v>
-      </c>
-      <c r="I151">
-        <f>LEN(B142) + LEN(E142) +1</f>
-        <v>14</v>
-      </c>
-      <c r="J151">
-        <f t="shared" si="26"/>
-        <v>18</v>
-      </c>
-      <c r="K151" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">                  </v>
-      </c>
-    </row>
-    <row r="152" spans="2:11">
-      <c r="G152" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I152">
-        <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="J152">
-        <f t="shared" si="26"/>
-        <v>31</v>
-      </c>
-      <c r="K152" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="153" spans="2:11">
-      <c r="G153" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I153">
-        <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="J153">
-        <f t="shared" si="26"/>
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="K153" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">                               </v>
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">             </v>
       </c>
     </row>
     <row r="154" spans="2:11">
       <c r="G154" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="G154:G191" si="29">CONCATENATE(B154," ",C154,K154,"\\")</f>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I154">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="I154:I191" si="30">LEN(B154) + LEN(C154) +1</f>
         <v>1</v>
       </c>
       <c r="J154">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>31</v>
       </c>
       <c r="K154" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="155" spans="2:11">
       <c r="G155" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I155">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="J155">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>31</v>
       </c>
       <c r="K155" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="156" spans="2:11">
       <c r="G156" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I156">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="J156">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>31</v>
       </c>
       <c r="K156" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="157" spans="2:11">
       <c r="G157" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I157">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="J157">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>31</v>
       </c>
       <c r="K157" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="158" spans="2:11">
       <c r="G158" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I158">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="J158">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>31</v>
       </c>
       <c r="K158" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="159" spans="2:11">
       <c r="G159" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I159">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="J159">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>31</v>
       </c>
       <c r="K159" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="160" spans="2:11">
       <c r="G160" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I160">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="J160">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>31</v>
       </c>
       <c r="K160" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">                               </v>
+      </c>
+    </row>
+    <row r="161" spans="2:11">
+      <c r="B161" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C161" t="s">
+        <v>146</v>
+      </c>
+      <c r="D161" t="s">
+        <v>155</v>
+      </c>
+      <c r="G161" t="str">
+        <f>CONCATENATE(B161," ",C161,K161,"\\")</f>
+        <v>Martin White                    \\</v>
+      </c>
+      <c r="I161">
+        <f>LEN(B161) + LEN(C161) +1</f>
+        <v>12</v>
+      </c>
+      <c r="J161">
+        <f>IF(I161&lt;30,(32-I161),3)</f>
+        <v>20</v>
+      </c>
+      <c r="K161" t="str">
+        <f>REPT(" ",J161)</f>
+        <v xml:space="preserve">                    </v>
+      </c>
+    </row>
+    <row r="162" spans="2:11">
+      <c r="G162" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">                                \\</v>
+      </c>
+      <c r="I162">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="J162">
         <f t="shared" si="27"/>
+        <v>31</v>
+      </c>
+      <c r="K162" t="str">
+        <f t="shared" si="28"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
-    <row r="161" spans="7:11">
-      <c r="G161" t="str">
-        <f t="shared" si="24"/>
+    <row r="163" spans="2:11">
+      <c r="G163" t="str">
+        <f t="shared" si="29"/>
         <v xml:space="preserve">                                \\</v>
       </c>
-      <c r="I161">
-        <f t="shared" si="25"/>
+      <c r="I163">
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="J161">
-        <f t="shared" si="26"/>
+      <c r="J163">
+        <f t="shared" si="27"/>
         <v>31</v>
       </c>
-      <c r="K161" t="str">
+      <c r="K163" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">                               </v>
+      </c>
+    </row>
+    <row r="164" spans="2:11">
+      <c r="G164" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">                                \\</v>
+      </c>
+      <c r="I164">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="J164">
         <f t="shared" si="27"/>
+        <v>31</v>
+      </c>
+      <c r="K164" t="str">
+        <f t="shared" si="28"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
-    <row r="162" spans="7:11">
-      <c r="G162" t="str">
-        <f t="shared" si="24"/>
+    <row r="165" spans="2:11">
+      <c r="G165" t="str">
+        <f t="shared" si="29"/>
         <v xml:space="preserve">                                \\</v>
       </c>
-      <c r="I162">
-        <f t="shared" si="25"/>
+      <c r="I165">
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="J162">
-        <f t="shared" si="26"/>
+      <c r="J165">
+        <f t="shared" si="27"/>
         <v>31</v>
       </c>
-      <c r="K162" t="str">
+      <c r="K165" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">                               </v>
+      </c>
+    </row>
+    <row r="166" spans="2:11">
+      <c r="G166" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">                                \\</v>
+      </c>
+      <c r="I166">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="J166">
         <f t="shared" si="27"/>
+        <v>31</v>
+      </c>
+      <c r="K166" t="str">
+        <f t="shared" si="28"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
-    <row r="163" spans="7:11">
-      <c r="G163" t="str">
-        <f t="shared" si="24"/>
+    <row r="167" spans="2:11">
+      <c r="B167" s="5"/>
+    </row>
+    <row r="168" spans="2:11">
+      <c r="B168" s="5"/>
+    </row>
+    <row r="169" spans="2:11">
+      <c r="B169" s="5"/>
+      <c r="G169" t="str">
+        <f t="shared" si="29"/>
         <v xml:space="preserve">                                \\</v>
       </c>
-      <c r="I163">
-        <f t="shared" si="25"/>
+      <c r="I169">
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="J163">
-        <f t="shared" si="26"/>
+      <c r="J169">
+        <f t="shared" si="27"/>
         <v>31</v>
       </c>
-      <c r="K163" t="str">
+      <c r="K169" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">                               </v>
+      </c>
+    </row>
+    <row r="170" spans="2:11">
+      <c r="B170" s="5"/>
+      <c r="G170" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">                                \\</v>
+      </c>
+      <c r="I170">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="J170">
         <f t="shared" si="27"/>
+        <v>31</v>
+      </c>
+      <c r="K170" t="str">
+        <f t="shared" si="28"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
-    <row r="164" spans="7:11">
-      <c r="G164" t="str">
-        <f t="shared" si="24"/>
+    <row r="171" spans="2:11">
+      <c r="B171" s="5"/>
+    </row>
+    <row r="172" spans="2:11">
+      <c r="B172" s="5"/>
+      <c r="G172" t="str">
+        <f t="shared" si="29"/>
         <v xml:space="preserve">                                \\</v>
       </c>
-      <c r="I164">
-        <f t="shared" si="25"/>
+      <c r="I172">
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="J164">
-        <f t="shared" si="26"/>
+      <c r="J172">
+        <f t="shared" si="27"/>
         <v>31</v>
       </c>
-      <c r="K164" t="str">
+      <c r="K172" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">                               </v>
+      </c>
+    </row>
+    <row r="173" spans="2:11">
+      <c r="B173" s="5"/>
+      <c r="G173" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">                                \\</v>
+      </c>
+      <c r="I173">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="J173">
         <f t="shared" si="27"/>
+        <v>31</v>
+      </c>
+      <c r="K173" t="str">
+        <f t="shared" si="28"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
-    <row r="165" spans="7:11">
-      <c r="G165" t="str">
-        <f t="shared" si="24"/>
+    <row r="174" spans="2:11">
+      <c r="B174" s="5"/>
+      <c r="G174" t="str">
+        <f t="shared" si="29"/>
         <v xml:space="preserve">                                \\</v>
       </c>
-      <c r="I165">
-        <f t="shared" si="25"/>
+      <c r="I174">
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="J165">
-        <f t="shared" si="26"/>
+      <c r="J174">
+        <f t="shared" si="27"/>
         <v>31</v>
       </c>
-      <c r="K165" t="str">
+      <c r="K174" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">                               </v>
+      </c>
+    </row>
+    <row r="175" spans="2:11">
+      <c r="G175" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">                                \\</v>
+      </c>
+      <c r="I175">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="J175">
         <f t="shared" si="27"/>
+        <v>31</v>
+      </c>
+      <c r="K175" t="str">
+        <f t="shared" si="28"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
-    <row r="166" spans="7:11">
-      <c r="G166" t="str">
-        <f t="shared" si="24"/>
+    <row r="176" spans="2:11">
+      <c r="G176" t="str">
+        <f t="shared" si="29"/>
         <v xml:space="preserve">                                \\</v>
       </c>
-      <c r="I166">
-        <f t="shared" si="25"/>
+      <c r="I176">
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="J166">
-        <f t="shared" si="26"/>
+      <c r="J176">
+        <f t="shared" si="27"/>
         <v>31</v>
       </c>
-      <c r="K166" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="167" spans="7:11">
-      <c r="G167" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I167">
-        <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="J167">
-        <f t="shared" si="26"/>
-        <v>31</v>
-      </c>
-      <c r="K167" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="168" spans="7:11">
-      <c r="G168" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I168">
-        <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="J168">
-        <f t="shared" si="26"/>
-        <v>31</v>
-      </c>
-      <c r="K168" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="169" spans="7:11">
-      <c r="G169" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I169">
-        <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="J169">
-        <f t="shared" si="26"/>
-        <v>31</v>
-      </c>
-      <c r="K169" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="170" spans="7:11">
-      <c r="G170" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I170">
-        <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="J170">
-        <f t="shared" si="26"/>
-        <v>31</v>
-      </c>
-      <c r="K170" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="171" spans="7:11">
-      <c r="G171" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I171">
-        <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="J171">
-        <f t="shared" si="26"/>
-        <v>31</v>
-      </c>
-      <c r="K171" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="172" spans="7:11">
-      <c r="G172" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I172">
-        <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="J172">
-        <f t="shared" si="26"/>
-        <v>31</v>
-      </c>
-      <c r="K172" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="173" spans="7:11">
-      <c r="G173" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I173">
-        <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="J173">
-        <f t="shared" si="26"/>
-        <v>31</v>
-      </c>
-      <c r="K173" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="174" spans="7:11">
-      <c r="G174" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I174">
-        <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="J174">
-        <f t="shared" si="26"/>
-        <v>31</v>
-      </c>
-      <c r="K174" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="175" spans="7:11">
-      <c r="G175" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I175">
-        <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="J175">
-        <f t="shared" si="26"/>
-        <v>31</v>
-      </c>
-      <c r="K175" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="176" spans="7:11">
-      <c r="G176" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I176">
-        <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="J176">
-        <f t="shared" si="26"/>
-        <v>31</v>
-      </c>
       <c r="K176" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="177" spans="7:11">
       <c r="G177" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I177">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="J177">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>31</v>
       </c>
       <c r="K177" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="178" spans="7:11">
       <c r="G178" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I178">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="J178">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>31</v>
       </c>
       <c r="K178" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="179" spans="7:11">
       <c r="G179" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I179">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="J179">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>31</v>
       </c>
       <c r="K179" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="180" spans="7:11">
       <c r="G180" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I180">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="J180">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>31</v>
       </c>
       <c r="K180" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="181" spans="7:11">
       <c r="G181" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I181">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="J181">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>31</v>
       </c>
       <c r="K181" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="182" spans="7:11">
       <c r="G182" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I182">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="J182">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>31</v>
       </c>
       <c r="K182" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="183" spans="7:11">
       <c r="G183" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I183">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="J183">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>31</v>
       </c>
       <c r="K183" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="184" spans="7:11">
       <c r="G184" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I184">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="J184">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>31</v>
       </c>
       <c r="K184" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="185" spans="7:11">
       <c r="G185" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I185">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="J185">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>31</v>
       </c>
       <c r="K185" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="186" spans="7:11">
       <c r="G186" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I186">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="J186">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>31</v>
       </c>
       <c r="K186" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="187" spans="7:11">
       <c r="G187" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I187">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="J187">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>31</v>
       </c>
       <c r="K187" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="188" spans="7:11">
       <c r="G188" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="I188">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="J188">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>31</v>
       </c>
       <c r="K188" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">                               </v>
+      </c>
+    </row>
+    <row r="189" spans="7:11">
+      <c r="G189" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">                                \\</v>
+      </c>
+      <c r="I189">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="J189">
         <f t="shared" si="27"/>
+        <v>31</v>
+      </c>
+      <c r="K189" t="str">
+        <f t="shared" si="28"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
+    <row r="190" spans="7:11">
+      <c r="G190" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">                                \\</v>
+      </c>
+      <c r="I190">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="J190">
+        <f t="shared" si="27"/>
+        <v>31</v>
+      </c>
+      <c r="K190" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">                               </v>
+      </c>
+    </row>
+    <row r="191" spans="7:11">
+      <c r="G191" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">                                \\</v>
+      </c>
+      <c r="I191">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="J191">
+        <f t="shared" si="27"/>
+        <v>31</v>
+      </c>
+      <c r="K191" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">                               </v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="B10:E77">
-    <sortCondition ref="C10:C77"/>
+  <sortState ref="B10:E81">
+    <sortCondition ref="C10:C81"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ReferenceDocuments/ReportAuthors.xlsx
+++ b/ReferenceDocuments/ReportAuthors.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="376">
   <si>
     <t>Report Authors</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>Basak</t>
-  </si>
-  <si>
-    <t>Nicholas</t>
   </si>
   <si>
     <t>Battaglia</t>
@@ -1099,9 +1096,6 @@
     <t>CEA Saclay, DRF/Irfu/SPP, 91191 Gif-sur-Yvette Cedex, France</t>
   </si>
   <si>
-    <t>??</t>
-  </si>
-  <si>
     <t>Institute for Advanced Study, Princeton</t>
   </si>
   <si>
@@ -1157,13 +1151,34 @@
   </si>
   <si>
     <t>12/20/2018, 9 am.</t>
+  </si>
+  <si>
+    <t>Joelle</t>
+  </si>
+  <si>
+    <t>Cooperrider</t>
+  </si>
+  <si>
+    <t>Caltech</t>
+  </si>
+  <si>
+    <t>Jeff</t>
+  </si>
+  <si>
+    <t>Booth</t>
+  </si>
+  <si>
+    <t>??? On EC currently ???</t>
+  </si>
+  <si>
+    <t>Nick</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1205,6 +1220,12 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1226,7 +1247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1237,6 +1258,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1609,10 +1633,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K191"/>
+  <dimension ref="A1:K214"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1642,25 +1666,25 @@
       </c>
       <c r="B3"/>
       <c r="C3" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B4"/>
       <c r="C4" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B5"/>
       <c r="C5" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1668,10 +1692,10 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1692,16 +1716,16 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I9" t="s">
+        <v>302</v>
+      </c>
+      <c r="J9" t="s">
         <v>303</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>304</v>
-      </c>
-      <c r="K9" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1715,7 +1739,7 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G10" t="str">
         <f>CONCATENATE(B10," ",C10,K10,"\\")</f>
@@ -1805,7 +1829,7 @@
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
@@ -1835,7 +1859,7 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
@@ -1895,7 +1919,7 @@
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
@@ -1916,46 +1940,46 @@
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C17" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
       <c r="D17" t="s">
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>Nicholas Battaglia              \\</v>
+        <v>Nick Battaglia                  \\</v>
       </c>
       <c r="I17">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J17">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">              </v>
+        <v xml:space="preserve">                  </v>
       </c>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" t="s">
         <v>168</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
         <v>169</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
-        <v>170</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
@@ -1976,16 +2000,16 @@
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
@@ -2006,16 +2030,16 @@
     </row>
     <row r="20" spans="2:11">
       <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
         <v>28</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" t="s">
-        <v>29</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
@@ -2036,16 +2060,16 @@
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="D21" t="s">
         <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
@@ -2066,16 +2090,16 @@
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
@@ -2096,16 +2120,16 @@
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
@@ -2126,16 +2150,16 @@
     </row>
     <row r="24" spans="2:11">
       <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
         <v>34</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" t="s">
-        <v>35</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
@@ -2156,16 +2180,16 @@
     </row>
     <row r="25" spans="2:11">
       <c r="B25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" t="s">
         <v>176</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
         <v>177</v>
-      </c>
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" t="s">
-        <v>178</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
@@ -2186,16 +2210,16 @@
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="D26" t="s">
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
@@ -2216,16 +2240,16 @@
     </row>
     <row r="27" spans="2:11">
       <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" t="s">
         <v>38</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
         <v>39</v>
-      </c>
-      <c r="D27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" t="s">
-        <v>40</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
@@ -2246,16 +2270,16 @@
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="D28" t="s">
         <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
@@ -2276,16 +2300,16 @@
     </row>
     <row r="29" spans="2:11">
       <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s">
         <v>44</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
         <v>45</v>
-      </c>
-      <c r="D29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" t="s">
-        <v>46</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
@@ -2306,16 +2330,16 @@
     </row>
     <row r="30" spans="2:11">
       <c r="B30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
         <v>48</v>
-      </c>
-      <c r="D30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" t="s">
-        <v>49</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
@@ -2336,16 +2360,16 @@
     </row>
     <row r="31" spans="2:11">
       <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
         <v>48</v>
-      </c>
-      <c r="D31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" t="s">
-        <v>49</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
@@ -2366,16 +2390,16 @@
     </row>
     <row r="32" spans="2:11">
       <c r="B32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="D32" t="s">
         <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
@@ -2396,16 +2420,16 @@
     </row>
     <row r="33" spans="2:11">
       <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
         <v>52</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" t="s">
-        <v>53</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
@@ -2426,16 +2450,16 @@
     </row>
     <row r="34" spans="2:11">
       <c r="B34" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C34" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
@@ -2456,16 +2480,16 @@
     </row>
     <row r="35" spans="2:11">
       <c r="B35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D35" t="s">
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
@@ -2486,16 +2510,16 @@
     </row>
     <row r="36" spans="2:11">
       <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
         <v>57</v>
-      </c>
-      <c r="D36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" t="s">
-        <v>58</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
@@ -2516,16 +2540,16 @@
     </row>
     <row r="37" spans="2:11">
       <c r="B37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="D37" t="s">
         <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
@@ -2546,16 +2570,16 @@
     </row>
     <row r="38" spans="2:11">
       <c r="B38" t="s">
+        <v>300</v>
+      </c>
+      <c r="C38" t="s">
         <v>301</v>
       </c>
-      <c r="C38" t="s">
-        <v>302</v>
-      </c>
       <c r="D38" t="s">
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
@@ -2576,16 +2600,16 @@
     </row>
     <row r="39" spans="2:11">
       <c r="B39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
         <v>62</v>
-      </c>
-      <c r="D39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" t="s">
-        <v>63</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
@@ -2606,16 +2630,16 @@
     </row>
     <row r="40" spans="2:11">
       <c r="B40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" t="s">
         <v>64</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" t="s">
         <v>65</v>
-      </c>
-      <c r="D40" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" t="s">
-        <v>66</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
@@ -2636,16 +2660,16 @@
     </row>
     <row r="41" spans="2:11">
       <c r="B41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="D41" t="s">
         <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
@@ -2666,16 +2690,16 @@
     </row>
     <row r="42" spans="2:11">
       <c r="B42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="D42" t="s">
         <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
@@ -2696,16 +2720,16 @@
     </row>
     <row r="43" spans="2:11">
       <c r="B43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D43" t="s">
         <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
@@ -2726,16 +2750,16 @@
     </row>
     <row r="44" spans="2:11">
       <c r="B44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="D44" t="s">
         <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
@@ -2756,16 +2780,16 @@
     </row>
     <row r="45" spans="2:11">
       <c r="B45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" t="s">
         <v>76</v>
-      </c>
-      <c r="D45" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" t="s">
-        <v>77</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
@@ -2786,16 +2810,16 @@
     </row>
     <row r="46" spans="2:11">
       <c r="B46" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="D46" t="s">
         <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
@@ -2816,16 +2840,16 @@
     </row>
     <row r="47" spans="2:11">
       <c r="B47" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s">
         <v>81</v>
-      </c>
-      <c r="D47" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" t="s">
-        <v>82</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
@@ -2846,16 +2870,16 @@
     </row>
     <row r="48" spans="2:11">
       <c r="B48" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s">
         <v>331</v>
-      </c>
-      <c r="D48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" t="s">
-        <v>332</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
@@ -2876,16 +2900,16 @@
     </row>
     <row r="49" spans="2:11">
       <c r="B49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s">
         <v>84</v>
-      </c>
-      <c r="D49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" t="s">
-        <v>85</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
@@ -2906,16 +2930,16 @@
     </row>
     <row r="50" spans="2:11">
       <c r="B50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" t="s">
         <v>86</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" t="s">
         <v>87</v>
-      </c>
-      <c r="D50" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" t="s">
-        <v>88</v>
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
@@ -2936,16 +2960,16 @@
     </row>
     <row r="51" spans="2:11">
       <c r="B51" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" t="s">
         <v>89</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s">
         <v>90</v>
-      </c>
-      <c r="D51" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" t="s">
-        <v>91</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
@@ -2966,16 +2990,16 @@
     </row>
     <row r="52" spans="2:11">
       <c r="B52" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" t="s">
         <v>92</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D52" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" t="s">
-        <v>93</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
@@ -2996,16 +3020,16 @@
     </row>
     <row r="53" spans="2:11">
       <c r="B53" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D53" t="s">
         <v>8</v>
       </c>
       <c r="E53" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
@@ -3026,16 +3050,16 @@
     </row>
     <row r="54" spans="2:11">
       <c r="B54" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="D54" t="s">
         <v>8</v>
       </c>
       <c r="E54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
@@ -3056,16 +3080,16 @@
     </row>
     <row r="55" spans="2:11">
       <c r="B55" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C55" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
       </c>
       <c r="E55" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
@@ -3086,16 +3110,16 @@
     </row>
     <row r="56" spans="2:11">
       <c r="B56" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" t="s">
         <v>97</v>
       </c>
-      <c r="C56" t="s">
-        <v>98</v>
-      </c>
       <c r="D56" t="s">
         <v>8</v>
       </c>
       <c r="E56" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
@@ -3116,16 +3140,16 @@
     </row>
     <row r="57" spans="2:11">
       <c r="B57" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" t="s">
         <v>99</v>
       </c>
-      <c r="C57" t="s">
-        <v>100</v>
-      </c>
       <c r="D57" t="s">
         <v>8</v>
       </c>
       <c r="E57" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
@@ -3146,16 +3170,16 @@
     </row>
     <row r="58" spans="2:11">
       <c r="B58" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C58" t="s">
         <v>101</v>
       </c>
-      <c r="C58" t="s">
-        <v>102</v>
-      </c>
       <c r="D58" t="s">
         <v>8</v>
       </c>
       <c r="E58" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G58" t="str">
         <f t="shared" si="0"/>
@@ -3176,16 +3200,16 @@
     </row>
     <row r="59" spans="2:11">
       <c r="B59" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="D59" t="s">
         <v>8</v>
       </c>
       <c r="E59" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G59" t="str">
         <f t="shared" si="0"/>
@@ -3206,16 +3230,16 @@
     </row>
     <row r="60" spans="2:11">
       <c r="B60" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C60" t="s">
         <v>105</v>
       </c>
-      <c r="C60" t="s">
-        <v>106</v>
-      </c>
       <c r="D60" t="s">
         <v>8</v>
       </c>
       <c r="E60" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G60" t="str">
         <f t="shared" si="0"/>
@@ -3236,16 +3260,16 @@
     </row>
     <row r="61" spans="2:11">
       <c r="B61" t="s">
+        <v>106</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" t="s">
         <v>108</v>
-      </c>
-      <c r="D61" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61" t="s">
-        <v>109</v>
       </c>
       <c r="G61" t="str">
         <f t="shared" si="0"/>
@@ -3266,16 +3290,16 @@
     </row>
     <row r="62" spans="2:11">
       <c r="B62" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" t="s">
         <v>110</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" t="s">
         <v>111</v>
-      </c>
-      <c r="D62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" t="s">
-        <v>112</v>
       </c>
       <c r="G62" t="str">
         <f t="shared" si="0"/>
@@ -3296,16 +3320,16 @@
     </row>
     <row r="63" spans="2:11">
       <c r="B63" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" t="s">
         <v>114</v>
-      </c>
-      <c r="D63" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63" t="s">
-        <v>115</v>
       </c>
       <c r="G63" t="str">
         <f t="shared" si="0"/>
@@ -3326,16 +3350,16 @@
     </row>
     <row r="64" spans="2:11">
       <c r="B64" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="D64" t="s">
         <v>8</v>
       </c>
       <c r="E64" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="G64" t="str">
         <f t="shared" si="0"/>
@@ -3356,16 +3380,16 @@
     </row>
     <row r="65" spans="2:11">
       <c r="B65" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="D65" t="s">
         <v>8</v>
       </c>
       <c r="E65" t="s">
-        <v>53</v>
+        <v>371</v>
       </c>
       <c r="G65" t="str">
         <f t="shared" si="0"/>
@@ -3386,16 +3410,16 @@
     </row>
     <row r="66" spans="2:11">
       <c r="B66" t="s">
+        <v>119</v>
+      </c>
+      <c r="C66" t="s">
         <v>120</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" t="s">
         <v>121</v>
-      </c>
-      <c r="D66" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" t="s">
-        <v>122</v>
       </c>
       <c r="G66" t="str">
         <f t="shared" si="0"/>
@@ -3416,16 +3440,16 @@
     </row>
     <row r="67" spans="2:11">
       <c r="B67" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="D67" t="s">
         <v>8</v>
       </c>
       <c r="E67" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G67" t="str">
         <f t="shared" si="0"/>
@@ -3446,16 +3470,16 @@
     </row>
     <row r="68" spans="2:11">
       <c r="B68" t="s">
+        <v>124</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="D68" t="s">
         <v>8</v>
       </c>
       <c r="E68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G68" t="str">
         <f t="shared" si="0"/>
@@ -3476,16 +3500,16 @@
     </row>
     <row r="69" spans="2:11">
       <c r="B69" t="s">
+        <v>126</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="D69" t="s">
         <v>8</v>
       </c>
       <c r="E69" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G69" t="str">
         <f t="shared" si="0"/>
@@ -3506,16 +3530,16 @@
     </row>
     <row r="70" spans="2:11">
       <c r="B70" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="D70" t="s">
         <v>8</v>
       </c>
       <c r="E70" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G70" t="str">
         <f t="shared" si="0"/>
@@ -3536,16 +3560,16 @@
     </row>
     <row r="71" spans="2:11">
       <c r="B71" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D71" t="s">
         <v>8</v>
       </c>
       <c r="E71" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G71" t="str">
         <f t="shared" si="0"/>
@@ -3566,16 +3590,16 @@
     </row>
     <row r="72" spans="2:11">
       <c r="B72" t="s">
+        <v>130</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" t="s">
         <v>132</v>
-      </c>
-      <c r="D72" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" t="s">
-        <v>133</v>
       </c>
       <c r="G72" t="str">
         <f t="shared" si="0"/>
@@ -3596,16 +3620,16 @@
     </row>
     <row r="73" spans="2:11">
       <c r="B73" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C73" t="s">
         <v>134</v>
       </c>
-      <c r="C73" t="s">
-        <v>135</v>
-      </c>
       <c r="D73" t="s">
         <v>8</v>
       </c>
       <c r="E73" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G73" t="str">
         <f t="shared" si="0"/>
@@ -3626,16 +3650,16 @@
     </row>
     <row r="74" spans="2:11">
       <c r="B74" t="s">
+        <v>135</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" t="s">
         <v>137</v>
-      </c>
-      <c r="D74" t="s">
-        <v>8</v>
-      </c>
-      <c r="E74" t="s">
-        <v>138</v>
       </c>
       <c r="G74" t="str">
         <f t="shared" si="0"/>
@@ -3656,16 +3680,16 @@
     </row>
     <row r="75" spans="2:11">
       <c r="B75" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C75" t="s">
         <v>139</v>
       </c>
-      <c r="C75" t="s">
-        <v>140</v>
-      </c>
       <c r="D75" t="s">
         <v>8</v>
       </c>
       <c r="E75" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G75" t="str">
         <f t="shared" ref="G75:G76" si="4">CONCATENATE(B75," ",C75,K75,"\\")</f>
@@ -3686,16 +3710,16 @@
     </row>
     <row r="76" spans="2:11">
       <c r="B76" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C76" t="s">
         <v>141</v>
       </c>
-      <c r="C76" t="s">
-        <v>142</v>
-      </c>
       <c r="D76" t="s">
         <v>8</v>
       </c>
       <c r="E76" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G76" t="str">
         <f t="shared" si="4"/>
@@ -3716,16 +3740,16 @@
     </row>
     <row r="77" spans="2:11">
       <c r="B77" t="s">
+        <v>142</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="D77" t="s">
         <v>8</v>
       </c>
       <c r="E77" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G77" t="str">
         <f t="shared" ref="G77" si="8">CONCATENATE(B77," ",C77,K77,"\\")</f>
@@ -3746,16 +3770,16 @@
     </row>
     <row r="78" spans="2:11">
       <c r="B78" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C78" t="s">
         <v>147</v>
       </c>
-      <c r="C78" t="s">
-        <v>148</v>
-      </c>
       <c r="D78" t="s">
         <v>8</v>
       </c>
       <c r="E78" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G78" t="str">
         <f t="shared" ref="G78:G82" si="11">CONCATENATE(B78," ",C78,K78,"\\")</f>
@@ -3776,16 +3800,16 @@
     </row>
     <row r="79" spans="2:11">
       <c r="B79" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C79" t="s">
         <v>149</v>
       </c>
-      <c r="C79" t="s">
-        <v>150</v>
-      </c>
       <c r="D79" t="s">
         <v>8</v>
       </c>
       <c r="E79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G79" t="str">
         <f t="shared" si="11"/>
@@ -3806,16 +3830,16 @@
     </row>
     <row r="80" spans="2:11">
       <c r="B80" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C80" t="s">
         <v>151</v>
       </c>
-      <c r="C80" t="s">
-        <v>152</v>
-      </c>
       <c r="D80" t="s">
         <v>8</v>
       </c>
       <c r="E80" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G80" t="str">
         <f>CONCATENATE(B80," ",C80,K80,"\\")</f>
@@ -3836,16 +3860,16 @@
     </row>
     <row r="81" spans="2:11">
       <c r="B81" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D81" t="s">
         <v>8</v>
       </c>
       <c r="E81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G81" t="str">
         <f>CONCATENATE(B81," ",C81,K81,"\\")</f>
@@ -3865,28 +3889,51 @@
       </c>
     </row>
     <row r="82" spans="2:11">
+      <c r="B82" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D82" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" t="s">
+        <v>343</v>
+      </c>
       <c r="G82" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">                                \\</v>
+        <v>Joelle Cooperrider              \\</v>
       </c>
       <c r="I82">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J82">
         <f t="shared" si="13"/>
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K82" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">                               </v>
+        <v xml:space="preserve">              </v>
       </c>
     </row>
     <row r="83" spans="2:11">
       <c r="B83"/>
     </row>
     <row r="85" spans="2:11">
-      <c r="B85"/>
+      <c r="B85" t="s">
+        <v>372</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D85" t="s">
+        <v>374</v>
+      </c>
+      <c r="E85" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="86" spans="2:11">
       <c r="B86"/>
@@ -3907,22 +3954,22 @@
         <v>31</v>
       </c>
       <c r="K88" t="str">
-        <f t="shared" ref="K73:K149" si="17">REPT(" ",J88)</f>
+        <f t="shared" ref="K88:K149" si="17">REPT(" ",J88)</f>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="89" spans="2:11">
       <c r="B89" t="s">
+        <v>152</v>
+      </c>
+      <c r="C89" t="s">
         <v>153</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>154</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>155</v>
-      </c>
-      <c r="E89" t="s">
-        <v>156</v>
       </c>
       <c r="G89" t="str">
         <f t="shared" si="14"/>
@@ -3943,16 +3990,16 @@
     </row>
     <row r="90" spans="2:11">
       <c r="B90" t="s">
+        <v>156</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="D90" t="s">
+        <v>154</v>
+      </c>
+      <c r="E90" t="s">
         <v>158</v>
-      </c>
-      <c r="D90" t="s">
-        <v>155</v>
-      </c>
-      <c r="E90" t="s">
-        <v>159</v>
       </c>
       <c r="G90" t="str">
         <f t="shared" ref="G90:G140" si="18">CONCATENATE(B90," ",C90,K90,"\\")</f>
@@ -3973,16 +4020,16 @@
     </row>
     <row r="91" spans="2:11">
       <c r="B91" t="s">
+        <v>159</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="D91" t="s">
+        <v>154</v>
+      </c>
+      <c r="E91" t="s">
         <v>161</v>
-      </c>
-      <c r="D91" t="s">
-        <v>155</v>
-      </c>
-      <c r="E91" t="s">
-        <v>162</v>
       </c>
       <c r="G91" t="str">
         <f t="shared" si="18"/>
@@ -4003,13 +4050,13 @@
     </row>
     <row r="92" spans="2:11">
       <c r="B92" t="s">
+        <v>162</v>
+      </c>
+      <c r="C92" t="s">
         <v>163</v>
       </c>
-      <c r="C92" t="s">
-        <v>164</v>
-      </c>
       <c r="D92" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G92" t="str">
         <f t="shared" si="18"/>
@@ -4030,16 +4077,16 @@
     </row>
     <row r="93" spans="2:11">
       <c r="B93" t="s">
+        <v>164</v>
+      </c>
+      <c r="C93" t="s">
         <v>165</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
+        <v>154</v>
+      </c>
+      <c r="E93" t="s">
         <v>166</v>
-      </c>
-      <c r="D93" t="s">
-        <v>155</v>
-      </c>
-      <c r="E93" t="s">
-        <v>167</v>
       </c>
       <c r="G93" t="str">
         <f t="shared" si="18"/>
@@ -4060,16 +4107,16 @@
     </row>
     <row r="94" spans="2:11">
       <c r="B94" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D94" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E94" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G94" t="str">
         <f t="shared" si="18"/>
@@ -4090,16 +4137,16 @@
     </row>
     <row r="95" spans="2:11">
       <c r="B95" t="s">
+        <v>170</v>
+      </c>
+      <c r="C95" t="s">
         <v>171</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
+        <v>154</v>
+      </c>
+      <c r="E95" t="s">
         <v>172</v>
-      </c>
-      <c r="D95" t="s">
-        <v>155</v>
-      </c>
-      <c r="E95" t="s">
-        <v>173</v>
       </c>
       <c r="G95" t="str">
         <f t="shared" si="18"/>
@@ -4120,16 +4167,16 @@
     </row>
     <row r="96" spans="2:11">
       <c r="B96" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>290</v>
-      </c>
       <c r="D96" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E96" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G96" t="str">
         <f t="shared" si="18"/>
@@ -4150,16 +4197,16 @@
     </row>
     <row r="97" spans="2:11">
       <c r="B97" t="s">
+        <v>173</v>
+      </c>
+      <c r="C97" t="s">
         <v>174</v>
       </c>
-      <c r="C97" t="s">
-        <v>175</v>
-      </c>
       <c r="D97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E97" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G97" t="str">
         <f t="shared" si="18"/>
@@ -4180,16 +4227,16 @@
     </row>
     <row r="98" spans="2:11">
       <c r="B98" t="s">
+        <v>178</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="D98" t="s">
+        <v>154</v>
+      </c>
+      <c r="E98" t="s">
         <v>180</v>
-      </c>
-      <c r="D98" t="s">
-        <v>155</v>
-      </c>
-      <c r="E98" t="s">
-        <v>181</v>
       </c>
       <c r="G98" t="str">
         <f t="shared" si="18"/>
@@ -4210,16 +4257,16 @@
     </row>
     <row r="99" spans="2:11">
       <c r="B99" t="s">
+        <v>181</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="D99" t="s">
+        <v>154</v>
+      </c>
+      <c r="E99" t="s">
         <v>183</v>
-      </c>
-      <c r="D99" t="s">
-        <v>155</v>
-      </c>
-      <c r="E99" t="s">
-        <v>184</v>
       </c>
       <c r="G99" t="str">
         <f t="shared" si="18"/>
@@ -4240,16 +4287,16 @@
     </row>
     <row r="100" spans="2:11">
       <c r="B100" t="s">
+        <v>186</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="D100" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E100" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G100" t="str">
         <f t="shared" si="18"/>
@@ -4270,16 +4317,16 @@
     </row>
     <row r="101" spans="2:11">
       <c r="B101" t="s">
+        <v>192</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="D101" t="s">
+        <v>154</v>
+      </c>
+      <c r="E101" t="s">
         <v>194</v>
-      </c>
-      <c r="D101" t="s">
-        <v>155</v>
-      </c>
-      <c r="E101" t="s">
-        <v>195</v>
       </c>
       <c r="G101" t="str">
         <f t="shared" si="18"/>
@@ -4300,16 +4347,16 @@
     </row>
     <row r="102" spans="2:11">
       <c r="B102" t="s">
+        <v>195</v>
+      </c>
+      <c r="C102" t="s">
         <v>196</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
+        <v>154</v>
+      </c>
+      <c r="E102" t="s">
         <v>197</v>
-      </c>
-      <c r="D102" t="s">
-        <v>155</v>
-      </c>
-      <c r="E102" t="s">
-        <v>198</v>
       </c>
       <c r="G102" t="str">
         <f t="shared" si="18"/>
@@ -4330,16 +4377,16 @@
     </row>
     <row r="103" spans="2:11">
       <c r="B103" t="s">
+        <v>198</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="D103" t="s">
+        <v>154</v>
+      </c>
+      <c r="E103" t="s">
         <v>200</v>
-      </c>
-      <c r="D103" t="s">
-        <v>155</v>
-      </c>
-      <c r="E103" t="s">
-        <v>201</v>
       </c>
       <c r="G103" t="str">
         <f t="shared" si="18"/>
@@ -4360,16 +4407,16 @@
     </row>
     <row r="104" spans="2:11">
       <c r="B104" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D104" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G104" t="str">
         <f t="shared" si="18"/>
@@ -4390,16 +4437,16 @@
     </row>
     <row r="105" spans="2:11">
       <c r="B105" t="s">
+        <v>201</v>
+      </c>
+      <c r="C105" t="s">
         <v>202</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
+        <v>154</v>
+      </c>
+      <c r="E105" t="s">
         <v>203</v>
-      </c>
-      <c r="D105" t="s">
-        <v>155</v>
-      </c>
-      <c r="E105" t="s">
-        <v>204</v>
       </c>
       <c r="G105" t="str">
         <f t="shared" si="18"/>
@@ -4420,16 +4467,16 @@
     </row>
     <row r="106" spans="2:11">
       <c r="B106" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>326</v>
-      </c>
       <c r="D106" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G106" t="str">
         <f t="shared" si="18"/>
@@ -4450,16 +4497,16 @@
     </row>
     <row r="107" spans="2:11">
       <c r="B107" t="s">
+        <v>204</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="D107" t="s">
+        <v>154</v>
+      </c>
+      <c r="E107" t="s">
         <v>206</v>
-      </c>
-      <c r="D107" t="s">
-        <v>155</v>
-      </c>
-      <c r="E107" t="s">
-        <v>207</v>
       </c>
       <c r="G107" t="str">
         <f t="shared" si="18"/>
@@ -4480,16 +4527,16 @@
     </row>
     <row r="108" spans="2:11">
       <c r="B108" t="s">
+        <v>207</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="D108" t="s">
+        <v>154</v>
+      </c>
+      <c r="E108" t="s">
         <v>209</v>
-      </c>
-      <c r="D108" t="s">
-        <v>155</v>
-      </c>
-      <c r="E108" t="s">
-        <v>210</v>
       </c>
       <c r="G108" t="str">
         <f t="shared" si="18"/>
@@ -4510,16 +4557,16 @@
     </row>
     <row r="109" spans="2:11">
       <c r="B109" t="s">
+        <v>210</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="D109" t="s">
+        <v>154</v>
+      </c>
+      <c r="E109" t="s">
         <v>212</v>
-      </c>
-      <c r="D109" t="s">
-        <v>155</v>
-      </c>
-      <c r="E109" t="s">
-        <v>213</v>
       </c>
       <c r="G109" t="str">
         <f t="shared" si="18"/>
@@ -4540,16 +4587,16 @@
     </row>
     <row r="110" spans="2:11">
       <c r="B110" t="s">
+        <v>213</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="D110" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E110" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G110" t="str">
         <f t="shared" si="18"/>
@@ -4570,16 +4617,16 @@
     </row>
     <row r="111" spans="2:11">
       <c r="B111" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D111" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E111" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G111" t="str">
         <f t="shared" si="18"/>
@@ -4600,16 +4647,16 @@
     </row>
     <row r="112" spans="2:11">
       <c r="B112" t="s">
+        <v>215</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="D112" t="s">
+        <v>154</v>
+      </c>
+      <c r="E112" t="s">
         <v>217</v>
-      </c>
-      <c r="D112" t="s">
-        <v>155</v>
-      </c>
-      <c r="E112" t="s">
-        <v>218</v>
       </c>
       <c r="G112" t="str">
         <f t="shared" si="18"/>
@@ -4630,16 +4677,16 @@
     </row>
     <row r="113" spans="2:11">
       <c r="B113" t="s">
+        <v>218</v>
+      </c>
+      <c r="C113" t="s">
         <v>219</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
+        <v>154</v>
+      </c>
+      <c r="E113" t="s">
         <v>220</v>
-      </c>
-      <c r="D113" t="s">
-        <v>155</v>
-      </c>
-      <c r="E113" t="s">
-        <v>221</v>
       </c>
       <c r="G113" t="str">
         <f t="shared" si="18"/>
@@ -4660,16 +4707,16 @@
     </row>
     <row r="114" spans="2:11">
       <c r="B114" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D114" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E114" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G114" t="str">
         <f t="shared" si="18"/>
@@ -4690,16 +4737,16 @@
     </row>
     <row r="115" spans="2:11">
       <c r="B115" t="s">
+        <v>221</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="D115" t="s">
+        <v>154</v>
+      </c>
+      <c r="E115" t="s">
         <v>223</v>
-      </c>
-      <c r="D115" t="s">
-        <v>155</v>
-      </c>
-      <c r="E115" t="s">
-        <v>224</v>
       </c>
       <c r="G115" t="str">
         <f t="shared" si="18"/>
@@ -4720,16 +4767,16 @@
     </row>
     <row r="116" spans="2:11">
       <c r="B116" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C116" t="s">
+        <v>224</v>
+      </c>
+      <c r="D116" t="s">
+        <v>154</v>
+      </c>
+      <c r="E116" t="s">
         <v>225</v>
-      </c>
-      <c r="D116" t="s">
-        <v>155</v>
-      </c>
-      <c r="E116" t="s">
-        <v>226</v>
       </c>
       <c r="G116" t="str">
         <f t="shared" si="18"/>
@@ -4750,16 +4797,16 @@
     </row>
     <row r="117" spans="2:11">
       <c r="B117" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="D117" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E117" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G117" t="str">
         <f t="shared" si="18"/>
@@ -4780,16 +4827,16 @@
     </row>
     <row r="118" spans="2:11">
       <c r="B118" t="s">
+        <v>226</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="D118" t="s">
+        <v>154</v>
+      </c>
+      <c r="E118" t="s">
         <v>228</v>
-      </c>
-      <c r="D118" t="s">
-        <v>155</v>
-      </c>
-      <c r="E118" t="s">
-        <v>229</v>
       </c>
       <c r="G118" t="str">
         <f t="shared" si="18"/>
@@ -4810,16 +4857,16 @@
     </row>
     <row r="119" spans="2:11">
       <c r="B119" t="s">
+        <v>229</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="D119" t="s">
+        <v>154</v>
+      </c>
+      <c r="E119" t="s">
         <v>231</v>
-      </c>
-      <c r="D119" t="s">
-        <v>155</v>
-      </c>
-      <c r="E119" t="s">
-        <v>232</v>
       </c>
       <c r="G119" t="str">
         <f t="shared" si="18"/>
@@ -4840,16 +4887,16 @@
     </row>
     <row r="120" spans="2:11">
       <c r="B120" t="s">
+        <v>232</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="D120" t="s">
+        <v>154</v>
+      </c>
+      <c r="E120" t="s">
         <v>234</v>
-      </c>
-      <c r="D120" t="s">
-        <v>155</v>
-      </c>
-      <c r="E120" t="s">
-        <v>235</v>
       </c>
       <c r="G120" t="str">
         <f t="shared" si="18"/>
@@ -4870,16 +4917,16 @@
     </row>
     <row r="121" spans="2:11">
       <c r="B121" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C121" t="s">
+        <v>235</v>
+      </c>
+      <c r="D121" t="s">
+        <v>154</v>
+      </c>
+      <c r="E121" t="s">
         <v>236</v>
-      </c>
-      <c r="D121" t="s">
-        <v>155</v>
-      </c>
-      <c r="E121" t="s">
-        <v>237</v>
       </c>
       <c r="G121" t="str">
         <f t="shared" si="18"/>
@@ -4900,16 +4947,16 @@
     </row>
     <row r="122" spans="2:11">
       <c r="B122" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C122" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D122" t="s">
+        <v>154</v>
+      </c>
+      <c r="E122" t="s">
         <v>238</v>
-      </c>
-      <c r="D122" t="s">
-        <v>155</v>
-      </c>
-      <c r="E122" t="s">
-        <v>239</v>
       </c>
       <c r="G122" t="str">
         <f t="shared" si="18"/>
@@ -4930,16 +4977,16 @@
     </row>
     <row r="123" spans="2:11">
       <c r="B123" t="s">
+        <v>239</v>
+      </c>
+      <c r="C123" t="s">
         <v>240</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
+        <v>154</v>
+      </c>
+      <c r="E123" t="s">
         <v>241</v>
-      </c>
-      <c r="D123" t="s">
-        <v>155</v>
-      </c>
-      <c r="E123" t="s">
-        <v>242</v>
       </c>
       <c r="G123" t="str">
         <f t="shared" si="18"/>
@@ -4960,16 +5007,16 @@
     </row>
     <row r="124" spans="2:11">
       <c r="B124" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C124" t="s">
+        <v>188</v>
+      </c>
+      <c r="D124" t="s">
+        <v>154</v>
+      </c>
+      <c r="E124" t="s">
         <v>190</v>
-      </c>
-      <c r="C124" t="s">
-        <v>189</v>
-      </c>
-      <c r="D124" t="s">
-        <v>155</v>
-      </c>
-      <c r="E124" t="s">
-        <v>191</v>
       </c>
       <c r="G124" t="str">
         <f t="shared" si="18"/>
@@ -4990,16 +5037,16 @@
     </row>
     <row r="125" spans="2:11">
       <c r="B125" t="s">
+        <v>242</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="D125" t="s">
+        <v>154</v>
+      </c>
+      <c r="E125" t="s">
         <v>244</v>
-      </c>
-      <c r="D125" t="s">
-        <v>155</v>
-      </c>
-      <c r="E125" t="s">
-        <v>245</v>
       </c>
       <c r="G125" t="str">
         <f t="shared" si="18"/>
@@ -5020,16 +5067,16 @@
     </row>
     <row r="126" spans="2:11">
       <c r="B126" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D126" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E126" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G126" t="str">
         <f t="shared" si="18"/>
@@ -5050,16 +5097,16 @@
     </row>
     <row r="127" spans="2:11">
       <c r="B127" t="s">
+        <v>245</v>
+      </c>
+      <c r="C127" t="s">
         <v>246</v>
       </c>
-      <c r="C127" t="s">
-        <v>247</v>
-      </c>
       <c r="D127" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E127" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G127" t="str">
         <f t="shared" si="18"/>
@@ -5080,16 +5127,16 @@
     </row>
     <row r="128" spans="2:11">
       <c r="B128" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D128" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E128" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G128" t="str">
         <f t="shared" si="18"/>
@@ -5110,16 +5157,16 @@
     </row>
     <row r="129" spans="2:11">
       <c r="B129" t="s">
+        <v>247</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="D129" t="s">
+        <v>154</v>
+      </c>
+      <c r="E129" t="s">
         <v>249</v>
-      </c>
-      <c r="D129" t="s">
-        <v>155</v>
-      </c>
-      <c r="E129" t="s">
-        <v>250</v>
       </c>
       <c r="G129" t="str">
         <f t="shared" si="18"/>
@@ -5140,16 +5187,16 @@
     </row>
     <row r="130" spans="2:11">
       <c r="B130" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D130" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E130" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G130" t="str">
         <f t="shared" si="18"/>
@@ -5170,16 +5217,16 @@
     </row>
     <row r="131" spans="2:11">
       <c r="B131" t="s">
+        <v>250</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="D131" t="s">
+        <v>154</v>
+      </c>
+      <c r="E131" t="s">
         <v>252</v>
-      </c>
-      <c r="D131" t="s">
-        <v>155</v>
-      </c>
-      <c r="E131" t="s">
-        <v>253</v>
       </c>
       <c r="G131" t="str">
         <f t="shared" si="18"/>
@@ -5200,16 +5247,16 @@
     </row>
     <row r="132" spans="2:11">
       <c r="B132" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C132" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="D132" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E132" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G132" t="str">
         <f t="shared" si="18"/>
@@ -5230,16 +5277,16 @@
     </row>
     <row r="133" spans="2:11">
       <c r="B133" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C133" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="D133" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E133" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G133" t="str">
         <f t="shared" si="18"/>
@@ -5260,16 +5307,16 @@
     </row>
     <row r="134" spans="2:11">
       <c r="B134" t="s">
+        <v>253</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="D134" t="s">
+        <v>154</v>
+      </c>
+      <c r="E134" t="s">
         <v>255</v>
-      </c>
-      <c r="D134" t="s">
-        <v>155</v>
-      </c>
-      <c r="E134" t="s">
-        <v>256</v>
       </c>
       <c r="G134" t="str">
         <f t="shared" si="18"/>
@@ -5290,16 +5337,16 @@
     </row>
     <row r="135" spans="2:11">
       <c r="B135" t="s">
+        <v>184</v>
+      </c>
+      <c r="C135" t="s">
+        <v>315</v>
+      </c>
+      <c r="D135" t="s">
+        <v>154</v>
+      </c>
+      <c r="E135" t="s">
         <v>185</v>
-      </c>
-      <c r="C135" t="s">
-        <v>316</v>
-      </c>
-      <c r="D135" t="s">
-        <v>155</v>
-      </c>
-      <c r="E135" t="s">
-        <v>186</v>
       </c>
       <c r="G135" t="str">
         <f t="shared" si="18"/>
@@ -5320,16 +5367,16 @@
     </row>
     <row r="136" spans="2:11">
       <c r="B136" t="s">
+        <v>256</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="D136" t="s">
+        <v>154</v>
+      </c>
+      <c r="E136" t="s">
         <v>258</v>
-      </c>
-      <c r="D136" t="s">
-        <v>155</v>
-      </c>
-      <c r="E136" t="s">
-        <v>259</v>
       </c>
       <c r="G136" t="str">
         <f t="shared" si="18"/>
@@ -5350,16 +5397,16 @@
     </row>
     <row r="137" spans="2:11">
       <c r="B137" t="s">
+        <v>259</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C137" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="D137" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E137" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G137" t="str">
         <f t="shared" si="18"/>
@@ -5380,16 +5427,16 @@
     </row>
     <row r="138" spans="2:11">
       <c r="B138" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D138" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E138" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G138" t="str">
         <f t="shared" si="18"/>
@@ -5410,16 +5457,16 @@
     </row>
     <row r="139" spans="2:11">
       <c r="B139" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D139" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E139" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G139" t="str">
         <f t="shared" si="18"/>
@@ -5440,16 +5487,16 @@
     </row>
     <row r="140" spans="2:11">
       <c r="B140" t="s">
+        <v>261</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="D140" t="s">
+        <v>154</v>
+      </c>
+      <c r="E140" t="s">
         <v>263</v>
-      </c>
-      <c r="D140" t="s">
-        <v>155</v>
-      </c>
-      <c r="E140" t="s">
-        <v>264</v>
       </c>
       <c r="G140" t="str">
         <f t="shared" si="18"/>
@@ -5473,24 +5520,24 @@
         <v>9</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D141" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E141" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G141" t="str">
         <f t="shared" ref="G141:G143" si="21">CONCATENATE(B141," ",C141,K141,"\\")</f>
         <v>Peter Timbie                    \\</v>
       </c>
       <c r="I141">
-        <f t="shared" ref="I141:I143" si="22">LEN(B141) + LEN(C141) +1</f>
+        <f t="shared" ref="I141" si="22">LEN(B141) + LEN(C141) +1</f>
         <v>12</v>
       </c>
       <c r="J141">
-        <f t="shared" ref="J141:J143" si="23">IF(I141&lt;30,(32-I141),3)</f>
+        <f t="shared" ref="J141" si="23">IF(I141&lt;30,(32-I141),3)</f>
         <v>20</v>
       </c>
       <c r="K141" t="str">
@@ -5500,16 +5547,16 @@
     </row>
     <row r="142" spans="2:11">
       <c r="B142" t="s">
+        <v>264</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="D142" t="s">
+        <v>154</v>
+      </c>
+      <c r="E142" t="s">
         <v>266</v>
-      </c>
-      <c r="D142" t="s">
-        <v>155</v>
-      </c>
-      <c r="E142" t="s">
-        <v>267</v>
       </c>
       <c r="G142" t="str">
         <f t="shared" si="21"/>
@@ -5530,16 +5577,16 @@
     </row>
     <row r="143" spans="2:11">
       <c r="B143" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C143" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="D143" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E143" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G143" t="str">
         <f t="shared" si="21"/>
@@ -5560,16 +5607,16 @@
     </row>
     <row r="144" spans="2:11">
       <c r="B144" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D144" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E144" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G144" t="str">
         <f t="shared" ref="G144:G148" si="26">CONCATENATE(B144," ",C144,K144,"\\")</f>
@@ -5590,16 +5637,16 @@
     </row>
     <row r="145" spans="2:11">
       <c r="B145" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D145" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G145" t="str">
         <f t="shared" si="26"/>
@@ -5620,16 +5667,16 @@
     </row>
     <row r="146" spans="2:11">
       <c r="B146" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D146" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E146" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G146" t="str">
         <f t="shared" si="26"/>
@@ -5650,16 +5697,16 @@
     </row>
     <row r="147" spans="2:11">
       <c r="B147" t="s">
+        <v>267</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="D147" t="s">
+        <v>154</v>
+      </c>
+      <c r="E147" t="s">
         <v>269</v>
-      </c>
-      <c r="D147" t="s">
-        <v>155</v>
-      </c>
-      <c r="E147" t="s">
-        <v>270</v>
       </c>
       <c r="G147" t="str">
         <f t="shared" si="26"/>
@@ -5680,16 +5727,16 @@
     </row>
     <row r="148" spans="2:11">
       <c r="B148" t="s">
+        <v>270</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>272</v>
-      </c>
       <c r="D148" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E148" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G148" t="str">
         <f t="shared" si="26"/>
@@ -5896,13 +5943,13 @@
     </row>
     <row r="161" spans="2:11">
       <c r="B161" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C161" t="s">
         <v>145</v>
       </c>
-      <c r="C161" t="s">
-        <v>146</v>
-      </c>
       <c r="D161" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G161" t="str">
         <f>CONCATENATE(B161," ",C161,K161,"\\")</f>
@@ -5958,57 +6005,21 @@
       </c>
     </row>
     <row r="164" spans="2:11">
-      <c r="G164" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I164">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="J164">
-        <f t="shared" si="27"/>
-        <v>31</v>
-      </c>
       <c r="K164" t="str">
         <f t="shared" si="28"/>
-        <v xml:space="preserve">                               </v>
+        <v/>
       </c>
     </row>
     <row r="165" spans="2:11">
-      <c r="G165" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I165">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="J165">
-        <f t="shared" si="27"/>
-        <v>31</v>
-      </c>
       <c r="K165" t="str">
         <f t="shared" si="28"/>
-        <v xml:space="preserve">                               </v>
+        <v/>
       </c>
     </row>
     <row r="166" spans="2:11">
-      <c r="G166" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I166">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="J166">
-        <f t="shared" si="27"/>
-        <v>31</v>
-      </c>
       <c r="K166" t="str">
         <f t="shared" si="28"/>
-        <v xml:space="preserve">                               </v>
+        <v/>
       </c>
     </row>
     <row r="167" spans="2:11">
@@ -6019,40 +6030,16 @@
     </row>
     <row r="169" spans="2:11">
       <c r="B169" s="5"/>
-      <c r="G169" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I169">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="J169">
-        <f t="shared" si="27"/>
-        <v>31</v>
-      </c>
       <c r="K169" t="str">
         <f t="shared" si="28"/>
-        <v xml:space="preserve">                               </v>
+        <v/>
       </c>
     </row>
     <row r="170" spans="2:11">
       <c r="B170" s="5"/>
-      <c r="G170" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I170">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="J170">
-        <f t="shared" si="27"/>
-        <v>31</v>
-      </c>
       <c r="K170" t="str">
         <f t="shared" si="28"/>
-        <v xml:space="preserve">                               </v>
+        <v/>
       </c>
     </row>
     <row r="171" spans="2:11">
@@ -6060,370 +6047,166 @@
     </row>
     <row r="172" spans="2:11">
       <c r="B172" s="5"/>
-      <c r="G172" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I172">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="J172">
-        <f t="shared" si="27"/>
-        <v>31</v>
-      </c>
       <c r="K172" t="str">
         <f t="shared" si="28"/>
-        <v xml:space="preserve">                               </v>
+        <v/>
       </c>
     </row>
     <row r="173" spans="2:11">
       <c r="B173" s="5"/>
-      <c r="G173" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I173">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="J173">
-        <f t="shared" si="27"/>
-        <v>31</v>
-      </c>
       <c r="K173" t="str">
         <f t="shared" si="28"/>
-        <v xml:space="preserve">                               </v>
+        <v/>
       </c>
     </row>
     <row r="174" spans="2:11">
       <c r="B174" s="5"/>
-      <c r="G174" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I174">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="J174">
-        <f t="shared" si="27"/>
-        <v>31</v>
-      </c>
       <c r="K174" t="str">
         <f t="shared" si="28"/>
-        <v xml:space="preserve">                               </v>
+        <v/>
       </c>
     </row>
     <row r="175" spans="2:11">
-      <c r="G175" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I175">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="J175">
-        <f t="shared" si="27"/>
-        <v>31</v>
-      </c>
       <c r="K175" t="str">
         <f t="shared" si="28"/>
-        <v xml:space="preserve">                               </v>
+        <v/>
       </c>
     </row>
     <row r="176" spans="2:11">
-      <c r="G176" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I176">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="J176">
-        <f t="shared" si="27"/>
-        <v>31</v>
-      </c>
       <c r="K176" t="str">
         <f t="shared" si="28"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="177" spans="7:11">
-      <c r="G177" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I177">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="J177">
-        <f t="shared" si="27"/>
-        <v>31</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="11:11">
       <c r="K177" t="str">
         <f t="shared" si="28"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="178" spans="7:11">
-      <c r="G178" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I178">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="J178">
-        <f t="shared" si="27"/>
-        <v>31</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="11:11">
       <c r="K178" t="str">
         <f t="shared" si="28"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="179" spans="7:11">
-      <c r="G179" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I179">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="J179">
-        <f t="shared" si="27"/>
-        <v>31</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="11:11">
       <c r="K179" t="str">
         <f t="shared" si="28"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="180" spans="7:11">
-      <c r="G180" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I180">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="J180">
-        <f t="shared" si="27"/>
-        <v>31</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="11:11">
       <c r="K180" t="str">
         <f t="shared" si="28"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="181" spans="7:11">
-      <c r="G181" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I181">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="J181">
-        <f t="shared" si="27"/>
-        <v>31</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="11:11">
       <c r="K181" t="str">
         <f t="shared" si="28"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="182" spans="7:11">
-      <c r="G182" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I182">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="J182">
-        <f t="shared" si="27"/>
-        <v>31</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="11:11">
       <c r="K182" t="str">
         <f t="shared" si="28"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="183" spans="7:11">
-      <c r="G183" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I183">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="J183">
-        <f t="shared" si="27"/>
-        <v>31</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="11:11">
       <c r="K183" t="str">
         <f t="shared" si="28"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="184" spans="7:11">
-      <c r="G184" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I184">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="J184">
-        <f t="shared" si="27"/>
-        <v>31</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="11:11">
       <c r="K184" t="str">
         <f t="shared" si="28"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="185" spans="7:11">
-      <c r="G185" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I185">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="J185">
-        <f t="shared" si="27"/>
-        <v>31</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="11:11">
       <c r="K185" t="str">
         <f t="shared" si="28"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="186" spans="7:11">
-      <c r="G186" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I186">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="J186">
-        <f t="shared" si="27"/>
-        <v>31</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="11:11">
       <c r="K186" t="str">
         <f t="shared" si="28"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="187" spans="7:11">
-      <c r="G187" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I187">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="J187">
-        <f t="shared" si="27"/>
-        <v>31</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="11:11">
       <c r="K187" t="str">
         <f t="shared" si="28"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="188" spans="7:11">
-      <c r="G188" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I188">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="J188">
-        <f t="shared" si="27"/>
-        <v>31</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="11:11">
       <c r="K188" t="str">
         <f t="shared" si="28"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="189" spans="7:11">
-      <c r="G189" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I189">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="J189">
-        <f t="shared" si="27"/>
-        <v>31</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="11:11">
       <c r="K189" t="str">
         <f t="shared" si="28"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="190" spans="7:11">
-      <c r="G190" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I190">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="J190">
-        <f t="shared" si="27"/>
-        <v>31</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="11:11">
       <c r="K190" t="str">
         <f t="shared" si="28"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="191" spans="7:11">
-      <c r="G191" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="I191">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="J191">
-        <f t="shared" si="27"/>
-        <v>31</v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="11:11">
       <c r="K191" t="str">
         <f t="shared" si="28"/>
-        <v xml:space="preserve">                               </v>
-      </c>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="2:3">
+      <c r="C203"/>
+    </row>
+    <row r="204" spans="2:3">
+      <c r="B204" s="6"/>
+    </row>
+    <row r="205" spans="2:3">
+      <c r="C205"/>
+    </row>
+    <row r="206" spans="2:3">
+      <c r="C206"/>
+    </row>
+    <row r="207" spans="2:3">
+      <c r="C207"/>
+    </row>
+    <row r="208" spans="2:3">
+      <c r="C208"/>
+    </row>
+    <row r="209" spans="3:3">
+      <c r="C209"/>
+    </row>
+    <row r="210" spans="3:3">
+      <c r="C210"/>
+    </row>
+    <row r="211" spans="3:3">
+      <c r="C211"/>
+    </row>
+    <row r="212" spans="3:3">
+      <c r="C212"/>
+    </row>
+    <row r="213" spans="3:3">
+      <c r="C213"/>
+    </row>
+    <row r="214" spans="3:3">
+      <c r="C214"/>
     </row>
   </sheetData>
-  <sortState ref="B10:E81">
-    <sortCondition ref="C10:C81"/>
+  <sortState ref="B203:C214">
+    <sortCondition ref="C203:C214"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>

--- a/ReferenceDocuments/ReportAuthors.xlsx
+++ b/ReferenceDocuments/ReportAuthors.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10319"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/WenQi/Documents/GitHub/PICOReport/ReferenceDocuments/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{200F29A2-584E-AC48-B456-203D7CDC0A9E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="31200" windowHeight="18620" tabRatio="989" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="379">
   <si>
     <t>Report Authors</t>
   </si>
@@ -1173,12 +1179,21 @@
   <si>
     <t>Nick</t>
   </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>marcelo.alvarez@berkeley.edu</t>
+  </si>
+  <si>
+    <t>nbatta@astro.princeton.edu</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1226,6 +1241,12 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1247,7 +1268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1263,6 +1284,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1341,6 +1363,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1388,7 +1413,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1421,9 +1446,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1456,6 +1498,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1631,36 +1690,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K214"/>
+  <dimension ref="A1:L214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.625"/>
-    <col min="2" max="2" width="22.125" style="1"/>
-    <col min="3" max="3" width="22.875" style="1"/>
-    <col min="4" max="4" width="58.375"/>
-    <col min="5" max="5" width="38.375"/>
-    <col min="6" max="1025" width="11.125"/>
+    <col min="1" max="1" width="8.6640625"/>
+    <col min="2" max="2" width="22.1640625" style="1"/>
+    <col min="3" max="3" width="22.83203125" style="1"/>
+    <col min="4" max="4" width="27.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="58.33203125"/>
+    <col min="6" max="6" width="38.33203125"/>
+    <col min="7" max="1026" width="11.1640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="D1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2"/>
       <c r="C2"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="D2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1669,7 +1731,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>273</v>
       </c>
@@ -1678,7 +1740,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>274</v>
       </c>
@@ -1687,10 +1749,10 @@
         <v>368</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>272</v>
       </c>
@@ -1698,11 +1760,12 @@
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8"/>
       <c r="C8"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="D8"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
@@ -1710,4499 +1773,4559 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
+        <v>376</v>
+      </c>
+      <c r="E9" t="s">
         <v>4</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>5</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>313</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>302</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>303</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" t="s">
-        <v>8</v>
+      <c r="D10" s="7" t="s">
+        <v>377</v>
       </c>
       <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
         <v>332</v>
       </c>
-      <c r="G10" t="str">
-        <f>CONCATENATE(B10," ",C10,K10,"\\")</f>
+      <c r="H10" t="str">
+        <f>CONCATENATE(B10," ",C10,L10,"\\")</f>
         <v>Marcelo Alvarez                 \\</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <f>LEN(B10) + LEN(C10) +1</f>
         <v>15</v>
       </c>
-      <c r="J10">
-        <f>IF(I10&lt;30,(32-I10),3)</f>
+      <c r="K10">
+        <f>IF(J10&lt;30,(32-J10),3)</f>
         <v>17</v>
       </c>
-      <c r="K10" t="str">
-        <f>REPT(" ",J10)</f>
+      <c r="L10" t="str">
+        <f>REPT(" ",K10)</f>
         <v xml:space="preserve">                 </v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
       <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="str">
-        <f t="shared" ref="G11:G74" si="0">CONCATENATE(B11," ",C11,K11,"\\")</f>
+      <c r="H11" t="str">
+        <f t="shared" ref="H11:H74" si="0">CONCATENATE(B11," ",C11,L11,"\\")</f>
         <v>Peter Ashton                    \\</v>
       </c>
-      <c r="I11">
-        <f t="shared" ref="I11:I74" si="1">LEN(B11) + LEN(C11) +1</f>
+      <c r="J11">
+        <f t="shared" ref="J11:J74" si="1">LEN(B11) + LEN(C11) +1</f>
         <v>12</v>
       </c>
-      <c r="J11">
-        <f t="shared" ref="J11:J74" si="2">IF(I11&lt;30,(32-I11),3)</f>
+      <c r="K11">
+        <f t="shared" ref="K11:K74" si="2">IF(J11&lt;30,(32-J11),3)</f>
         <v>20</v>
       </c>
-      <c r="K11" t="str">
-        <f t="shared" ref="K11:K74" si="3">REPT(" ",J11)</f>
+      <c r="L11" t="str">
+        <f t="shared" ref="L11:L74" si="3">REPT(" ",K11)</f>
         <v xml:space="preserve">                    </v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
       <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
         <v>14</v>
       </c>
-      <c r="G12" t="str">
+      <c r="H12" t="str">
         <f t="shared" si="0"/>
         <v>Jonathan Aumont                 \\</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="K12" t="str">
+      <c r="L12" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                 </v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
       <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
         <v>333</v>
       </c>
-      <c r="G13" t="str">
+      <c r="H13" t="str">
         <f t="shared" si="0"/>
         <v>Ranajoy Banerji                 \\</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="K13" t="str">
+      <c r="L13" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                 </v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
       <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
         <v>334</v>
       </c>
-      <c r="G14" t="str">
+      <c r="H14" t="str">
         <f t="shared" si="0"/>
         <v>Belen Barreiro                  \\</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="K14" t="str">
+      <c r="L14" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                  </v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
       <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
         <v>21</v>
       </c>
-      <c r="G15" t="str">
+      <c r="H15" t="str">
         <f t="shared" si="0"/>
         <v>James G. Bartlett               \\</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="K15" t="str">
+      <c r="L15" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">               </v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
       </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
+      <c r="D16"/>
       <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
         <v>335</v>
       </c>
-      <c r="G16" t="str">
+      <c r="H16" t="str">
         <f t="shared" si="0"/>
         <v>Soumen Basak                    \\</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K16" t="str">
+      <c r="L16" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                    </v>
       </c>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>375</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
       </c>
-      <c r="D17" t="s">
-        <v>8</v>
+      <c r="D17" s="7" t="s">
+        <v>378</v>
       </c>
       <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
         <v>90</v>
       </c>
-      <c r="G17" t="str">
+      <c r="H17" t="str">
         <f t="shared" si="0"/>
         <v>Nick Battaglia                  \\</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="K17" t="str">
+      <c r="L17" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                  </v>
       </c>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>167</v>
       </c>
       <c r="C18" t="s">
         <v>168</v>
       </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
+      <c r="D18"/>
       <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
         <v>169</v>
       </c>
-      <c r="G18" t="str">
+      <c r="H18" t="str">
         <f t="shared" si="0"/>
         <v>Jamie Bock                      \\</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="K18" t="str">
+      <c r="L18" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                      </v>
       </c>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="G19" t="str">
+      <c r="H19" t="str">
         <f t="shared" si="0"/>
         <v>Kimberly K. Boddy               \\</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="K19" t="str">
+      <c r="L19" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">               </v>
       </c>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
       <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
         <v>28</v>
       </c>
-      <c r="G20" t="str">
+      <c r="H20" t="str">
         <f t="shared" si="0"/>
         <v>Matteo Bonato                   \\</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="K20" t="str">
+      <c r="L20" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                   </v>
       </c>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
       <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
         <v>336</v>
       </c>
-      <c r="G21" t="str">
+      <c r="H21" t="str">
         <f t="shared" si="0"/>
         <v>Julian Borrill                  \\</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="K21" t="str">
+      <c r="L21" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                  </v>
       </c>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>310</v>
       </c>
       <c r="C22" t="s">
         <v>191</v>
       </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
+      <c r="D22"/>
       <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
         <v>81</v>
       </c>
-      <c r="G22" t="str">
+      <c r="H22" t="str">
         <f t="shared" si="0"/>
         <v>Fran\c{c}ois Bouchet            \\</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="K22" t="str">
+      <c r="L22" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">            </v>
       </c>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>310</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
       <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
         <v>337</v>
       </c>
-      <c r="G23" t="str">
+      <c r="H23" t="str">
         <f t="shared" si="0"/>
         <v>Fran\c{c}ois Boulanger          \\</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="K23" t="str">
+      <c r="L23" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">          </v>
       </c>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
       <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
         <v>34</v>
       </c>
-      <c r="G24" t="str">
+      <c r="H24" t="str">
         <f t="shared" si="0"/>
         <v>Blakesley Burkhart              \\</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="K24" t="str">
+      <c r="L24" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">              </v>
       </c>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>175</v>
       </c>
       <c r="C25" t="s">
         <v>176</v>
       </c>
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
+      <c r="D25"/>
       <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
         <v>177</v>
       </c>
-      <c r="G25" t="str">
+      <c r="H25" t="str">
         <f t="shared" si="0"/>
         <v>Jens Chluba                     \\</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="K25" t="str">
+      <c r="L25" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                     </v>
       </c>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D26" t="s">
-        <v>8</v>
-      </c>
       <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
         <v>338</v>
       </c>
-      <c r="G26" t="str">
+      <c r="H26" t="str">
         <f t="shared" si="0"/>
         <v>David Chuss                     \\</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="K26" t="str">
+      <c r="L26" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                     </v>
       </c>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>37</v>
       </c>
       <c r="C27" t="s">
         <v>38</v>
       </c>
-      <c r="D27" t="s">
-        <v>8</v>
-      </c>
+      <c r="D27"/>
       <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
         <v>39</v>
       </c>
-      <c r="G27" t="str">
+      <c r="H27" t="str">
         <f t="shared" si="0"/>
         <v>Susan E. Clark                  \\</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="K27" t="str">
+      <c r="L27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                  </v>
       </c>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D28" t="s">
-        <v>8</v>
-      </c>
       <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
         <v>52</v>
       </c>
-      <c r="G28" t="str">
+      <c r="H28" t="str">
         <f t="shared" si="0"/>
         <v>Brendan Crill                   \\</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="K28" t="str">
+      <c r="L28" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                   </v>
       </c>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>43</v>
       </c>
       <c r="C29" t="s">
         <v>44</v>
       </c>
-      <c r="D29" t="s">
-        <v>8</v>
-      </c>
+      <c r="D29"/>
       <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
         <v>45</v>
       </c>
-      <c r="G29" t="str">
+      <c r="H29" t="str">
         <f t="shared" si="0"/>
         <v>Jacques Delabrouille            \\</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="K29" t="str">
+      <c r="L29" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">            </v>
       </c>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>46</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D30" t="s">
-        <v>8</v>
-      </c>
       <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
         <v>48</v>
       </c>
-      <c r="G30" t="str">
+      <c r="H30" t="str">
         <f t="shared" si="0"/>
         <v>Eleonora Di Valentino           \\</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="K30" t="str">
+      <c r="L30" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">           </v>
       </c>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>46</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D31" t="s">
-        <v>8</v>
-      </c>
       <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
         <v>48</v>
       </c>
-      <c r="G31" t="str">
+      <c r="H31" t="str">
         <f t="shared" si="0"/>
         <v>Eleonora Di Valentino           \\</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="K31" t="str">
+      <c r="L31" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">           </v>
       </c>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D32" t="s">
-        <v>8</v>
-      </c>
       <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
         <v>339</v>
       </c>
-      <c r="G32" t="str">
+      <c r="H32" t="str">
         <f t="shared" si="0"/>
         <v>Joy Didier                      \\</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="K32" t="str">
+      <c r="L32" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                      </v>
       </c>
     </row>
-    <row r="33" spans="2:11">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>51</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D33" t="s">
-        <v>8</v>
-      </c>
       <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
         <v>52</v>
       </c>
-      <c r="G33" t="str">
+      <c r="H33" t="str">
         <f t="shared" si="0"/>
         <v>Olivier Dor\'e                  \\</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="K33" t="str">
+      <c r="L33" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                  </v>
       </c>
     </row>
-    <row r="34" spans="2:11">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>306</v>
       </c>
       <c r="C34" t="s">
         <v>305</v>
       </c>
-      <c r="D34" t="s">
-        <v>8</v>
-      </c>
+      <c r="D34"/>
       <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
         <v>340</v>
       </c>
-      <c r="G34" t="str">
+      <c r="H34" t="str">
         <f t="shared" si="0"/>
         <v>Alexander van Engelen           \\</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="K34" t="str">
+      <c r="L34" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">           </v>
       </c>
     </row>
-    <row r="35" spans="2:11">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D35" t="s">
-        <v>8</v>
-      </c>
       <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
         <v>341</v>
       </c>
-      <c r="G35" t="str">
+      <c r="H35" t="str">
         <f t="shared" si="0"/>
         <v>Josquin Errard                  \\</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="K35" t="str">
+      <c r="L35" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                  </v>
       </c>
     </row>
-    <row r="36" spans="2:11">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>55</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D36" t="s">
-        <v>8</v>
-      </c>
       <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
         <v>57</v>
       </c>
-      <c r="G36" t="str">
+      <c r="H36" t="str">
         <f t="shared" si="0"/>
         <v>Tom Essinger-Hileman            \\</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="K36" t="str">
+      <c r="L36" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">            </v>
       </c>
     </row>
-    <row r="37" spans="2:11">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D37" t="s">
-        <v>8</v>
-      </c>
       <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" t="s">
         <v>342</v>
       </c>
-      <c r="G37" t="str">
+      <c r="H37" t="str">
         <f t="shared" si="0"/>
         <v>Stephen Feeney                  \\</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="K37" t="str">
+      <c r="L37" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                  </v>
       </c>
     </row>
-    <row r="38" spans="2:11">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>300</v>
       </c>
       <c r="C38" t="s">
         <v>301</v>
       </c>
-      <c r="D38" t="s">
-        <v>8</v>
-      </c>
+      <c r="D38"/>
       <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
         <v>285</v>
       </c>
-      <c r="G38" t="str">
+      <c r="H38" t="str">
         <f t="shared" si="0"/>
         <v>Jeffrey Filippini               \\</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="K38" t="str">
+      <c r="L38" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">               </v>
       </c>
     </row>
-    <row r="39" spans="2:11">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>60</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D39" t="s">
-        <v>8</v>
-      </c>
       <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
         <v>62</v>
       </c>
-      <c r="G39" t="str">
+      <c r="H39" t="str">
         <f t="shared" si="0"/>
         <v>Laura Fissel                    \\</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K39" t="str">
+      <c r="L39" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                    </v>
       </c>
     </row>
-    <row r="40" spans="2:11">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>63</v>
       </c>
       <c r="C40" t="s">
         <v>64</v>
       </c>
-      <c r="D40" t="s">
-        <v>8</v>
-      </c>
+      <c r="D40"/>
       <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" t="s">
         <v>65</v>
       </c>
-      <c r="G40" t="str">
+      <c r="H40" t="str">
         <f t="shared" si="0"/>
         <v>Raphael Flauger                 \\</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="K40" t="str">
+      <c r="L40" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                 </v>
       </c>
     </row>
-    <row r="41" spans="2:11">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D41" t="s">
-        <v>8</v>
-      </c>
       <c r="E41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" t="s">
         <v>39</v>
       </c>
-      <c r="G41" t="str">
+      <c r="H41" t="str">
         <f t="shared" si="0"/>
         <v>Vera Gluscevic                  \\</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="K41" t="str">
+      <c r="L41" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                  </v>
       </c>
     </row>
-    <row r="42" spans="2:11">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D42" t="s">
-        <v>8</v>
-      </c>
       <c r="E42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" t="s">
         <v>343</v>
       </c>
-      <c r="G42" t="str">
+      <c r="H42" t="str">
         <f t="shared" si="0"/>
         <v>Kris Gorski                     \\</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="K42" t="str">
+      <c r="L42" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                     </v>
       </c>
     </row>
-    <row r="43" spans="2:11">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D43" t="s">
-        <v>8</v>
-      </c>
       <c r="E43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" t="s">
         <v>344</v>
       </c>
-      <c r="G43" t="str">
+      <c r="H43" t="str">
         <f t="shared" si="0"/>
         <v>Dan Green                       \\</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="K43" t="str">
+      <c r="L43" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                       </v>
       </c>
     </row>
-    <row r="44" spans="2:11">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D44" t="s">
-        <v>8</v>
-      </c>
       <c r="E44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" t="s">
         <v>90</v>
       </c>
-      <c r="G44" t="str">
+      <c r="H44" t="str">
         <f t="shared" si="0"/>
         <v>Brandon Hensley                 \\</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="K44" t="str">
+      <c r="L44" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                 </v>
       </c>
     </row>
-    <row r="45" spans="2:11">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>74</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D45" t="s">
-        <v>8</v>
-      </c>
       <c r="E45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" t="s">
         <v>76</v>
       </c>
-      <c r="G45" t="str">
+      <c r="H45" t="str">
         <f t="shared" si="0"/>
         <v>Diego Herranz                   \\</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="K45" t="str">
+      <c r="L45" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                   </v>
       </c>
     </row>
-    <row r="46" spans="2:11">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D46" t="s">
-        <v>8</v>
-      </c>
       <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" t="s">
         <v>345</v>
       </c>
-      <c r="G46" t="str">
+      <c r="H46" t="str">
         <f t="shared" si="0"/>
         <v>Colin Hill                      \\</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="K46" t="str">
+      <c r="L46" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                      </v>
       </c>
     </row>
-    <row r="47" spans="2:11">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>79</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D47" t="s">
-        <v>8</v>
-      </c>
       <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" t="s">
         <v>81</v>
       </c>
-      <c r="G47" t="str">
+      <c r="H47" t="str">
         <f t="shared" si="0"/>
         <v>Eric Hivon                      \\</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="K47" t="str">
+      <c r="L47" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                      </v>
       </c>
     </row>
-    <row r="48" spans="2:11">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>329</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D48" t="s">
-        <v>8</v>
-      </c>
       <c r="E48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" t="s">
         <v>331</v>
       </c>
-      <c r="G48" t="str">
+      <c r="H48" t="str">
         <f t="shared" si="0"/>
         <v>Ren\'{e}e  Hlo\v{z}ek           \\</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="K48" t="str">
+      <c r="L48" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">           </v>
       </c>
     </row>
-    <row r="49" spans="2:11">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>82</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D49" t="s">
-        <v>8</v>
-      </c>
       <c r="E49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" t="s">
         <v>84</v>
       </c>
-      <c r="G49" t="str">
+      <c r="H49" t="str">
         <f t="shared" si="0"/>
         <v>Johannes Hubmayr                \\</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="K49" t="str">
+      <c r="L49" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                </v>
       </c>
     </row>
-    <row r="50" spans="2:11">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>85</v>
       </c>
       <c r="C50" t="s">
         <v>86</v>
       </c>
-      <c r="D50" t="s">
-        <v>8</v>
-      </c>
+      <c r="D50"/>
       <c r="E50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" t="s">
         <v>87</v>
       </c>
-      <c r="G50" t="str">
+      <c r="H50" t="str">
         <f t="shared" si="0"/>
         <v>Brad Johnson                    \\</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K50" t="str">
+      <c r="L50" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                    </v>
       </c>
     </row>
-    <row r="51" spans="2:11">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>88</v>
       </c>
       <c r="C51" t="s">
         <v>89</v>
       </c>
-      <c r="D51" t="s">
-        <v>8</v>
-      </c>
+      <c r="D51"/>
       <c r="E51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" t="s">
         <v>90</v>
       </c>
-      <c r="G51" t="str">
+      <c r="H51" t="str">
         <f t="shared" si="0"/>
         <v>William Jones                   \\</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="K51" t="str">
+      <c r="L51" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                   </v>
       </c>
     </row>
-    <row r="52" spans="2:11">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>91</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D52" t="s">
-        <v>8</v>
-      </c>
       <c r="E52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" t="s">
         <v>92</v>
       </c>
-      <c r="G52" t="str">
+      <c r="H52" t="str">
         <f t="shared" si="0"/>
         <v>Terry Jones                     \\</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="K52" t="str">
+      <c r="L52" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                     </v>
       </c>
     </row>
-    <row r="53" spans="2:11">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>312</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D53" t="s">
-        <v>8</v>
-      </c>
       <c r="E53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" t="s">
         <v>346</v>
       </c>
-      <c r="G53" t="str">
+      <c r="H53" t="str">
         <f t="shared" si="0"/>
         <v>Lloyd Knox                      \\</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="K53" t="str">
+      <c r="L53" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                      </v>
       </c>
     </row>
-    <row r="54" spans="2:11">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D54" t="s">
-        <v>8</v>
-      </c>
       <c r="E54" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" t="s">
         <v>57</v>
       </c>
-      <c r="G54" t="str">
+      <c r="H54" t="str">
         <f t="shared" si="0"/>
         <v>Al Kogut                        \\</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="K54" t="str">
+      <c r="L54" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                        </v>
       </c>
     </row>
-    <row r="55" spans="2:11">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>292</v>
       </c>
       <c r="C55" t="s">
         <v>311</v>
       </c>
-      <c r="D55" t="s">
-        <v>8</v>
-      </c>
+      <c r="D55"/>
       <c r="E55" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" t="s">
         <v>280</v>
       </c>
-      <c r="G55" t="str">
+      <c r="H55" t="str">
         <f t="shared" si="0"/>
         <v>Marcos L\'{o}pez-Caniego        \\</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="K55" t="str">
+      <c r="L55" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">        </v>
       </c>
     </row>
-    <row r="56" spans="2:11">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C56" t="s">
         <v>97</v>
       </c>
-      <c r="D56" t="s">
-        <v>8</v>
-      </c>
+      <c r="D56"/>
       <c r="E56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" t="s">
         <v>343</v>
       </c>
-      <c r="G56" t="str">
+      <c r="H56" t="str">
         <f t="shared" si="0"/>
         <v>Charles Lawrence                \\</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="K56" t="str">
+      <c r="L56" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                </v>
       </c>
     </row>
-    <row r="57" spans="2:11">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C57" t="s">
         <v>99</v>
       </c>
-      <c r="D57" t="s">
-        <v>8</v>
-      </c>
+      <c r="D57"/>
       <c r="E57" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" t="s">
         <v>347</v>
       </c>
-      <c r="G57" t="str">
+      <c r="H57" t="str">
         <f t="shared" si="0"/>
         <v>Alex Lazarian                   \\</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="K57" t="str">
+      <c r="L57" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                   </v>
       </c>
     </row>
-    <row r="58" spans="2:11">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C58" t="s">
         <v>101</v>
       </c>
-      <c r="D58" t="s">
-        <v>8</v>
-      </c>
+      <c r="D58"/>
       <c r="E58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" t="s">
         <v>348</v>
       </c>
-      <c r="G58" t="str">
+      <c r="H58" t="str">
         <f t="shared" si="0"/>
         <v>Zack Li                         \\</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="K58" t="str">
+      <c r="L58" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                         </v>
       </c>
     </row>
-    <row r="59" spans="2:11">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D59" t="s">
-        <v>8</v>
-      </c>
       <c r="E59" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" t="s">
         <v>348</v>
       </c>
-      <c r="G59" t="str">
+      <c r="H59" t="str">
         <f t="shared" si="0"/>
         <v>Mathew Madhavacheril            \\</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="K59" t="str">
+      <c r="L59" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">            </v>
       </c>
     </row>
-    <row r="60" spans="2:11">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C60" t="s">
         <v>105</v>
       </c>
-      <c r="D60" t="s">
-        <v>8</v>
-      </c>
+      <c r="D60"/>
       <c r="E60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" t="s">
         <v>349</v>
       </c>
-      <c r="G60" t="str">
+      <c r="H60" t="str">
         <f t="shared" si="0"/>
         <v>Jean-Baptiste Melin             \\</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="K60" t="str">
+      <c r="L60" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">             </v>
       </c>
     </row>
-    <row r="61" spans="2:11">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>106</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D61" t="s">
-        <v>8</v>
-      </c>
       <c r="E61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" t="s">
         <v>108</v>
       </c>
-      <c r="G61" t="str">
+      <c r="H61" t="str">
         <f t="shared" si="0"/>
         <v>Mattia Negrello                 \\</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="K61" t="str">
+      <c r="L61" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                 </v>
       </c>
     </row>
-    <row r="62" spans="2:11">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>109</v>
       </c>
       <c r="C62" t="s">
         <v>110</v>
       </c>
-      <c r="D62" t="s">
-        <v>8</v>
-      </c>
+      <c r="D62"/>
       <c r="E62" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" t="s">
         <v>111</v>
       </c>
-      <c r="G62" t="str">
+      <c r="H62" t="str">
         <f t="shared" si="0"/>
         <v>Giles Novak                     \\</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="K62" t="str">
+      <c r="L62" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                     </v>
       </c>
     </row>
-    <row r="63" spans="2:11">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>112</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D63" t="s">
-        <v>8</v>
-      </c>
       <c r="E63" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" t="s">
         <v>114</v>
       </c>
-      <c r="G63" t="str">
+      <c r="H63" t="str">
         <f t="shared" si="0"/>
         <v>Roger O'Brient                  \\</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="K63" t="str">
+      <c r="L63" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                  </v>
       </c>
     </row>
-    <row r="64" spans="2:11">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>115</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D64" t="s">
-        <v>8</v>
-      </c>
       <c r="E64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" t="s">
         <v>343</v>
       </c>
-      <c r="G64" t="str">
+      <c r="H64" t="str">
         <f t="shared" si="0"/>
         <v>Chris Paine                     \\</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="K64" t="str">
+      <c r="L64" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                     </v>
       </c>
     </row>
-    <row r="65" spans="2:11">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D65" t="s">
-        <v>8</v>
-      </c>
       <c r="E65" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" t="s">
         <v>371</v>
       </c>
-      <c r="G65" t="str">
+      <c r="H65" t="str">
         <f t="shared" si="0"/>
         <v>Tim Pearson                     \\</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="K65" t="str">
+      <c r="L65" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                     </v>
       </c>
     </row>
-    <row r="66" spans="2:11">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>119</v>
       </c>
       <c r="C66" t="s">
         <v>120</v>
       </c>
-      <c r="D66" t="s">
-        <v>8</v>
-      </c>
+      <c r="D66"/>
       <c r="E66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" t="s">
         <v>121</v>
       </c>
-      <c r="G66" t="str">
+      <c r="H66" t="str">
         <f t="shared" si="0"/>
         <v>Levon Pogosian                  \\</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="K66" t="str">
+      <c r="L66" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                  </v>
       </c>
     </row>
-    <row r="67" spans="2:11">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>122</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D67" t="s">
-        <v>8</v>
-      </c>
       <c r="E67" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" t="s">
         <v>92</v>
       </c>
-      <c r="G67" t="str">
+      <c r="H67" t="str">
         <f t="shared" si="0"/>
         <v>Clem Pryke                      \\</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="K67" t="str">
+      <c r="L67" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                      </v>
       </c>
     </row>
-    <row r="68" spans="2:11">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>124</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D68" t="s">
-        <v>8</v>
-      </c>
       <c r="E68" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" t="s">
         <v>48</v>
       </c>
-      <c r="G68" t="str">
+      <c r="H68" t="str">
         <f t="shared" si="0"/>
         <v>Mathieu Remazeilles             \\</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="K68" t="str">
+      <c r="L68" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">             </v>
       </c>
     </row>
-    <row r="69" spans="2:11">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>126</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D69" t="s">
-        <v>8</v>
-      </c>
       <c r="E69" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" t="s">
         <v>52</v>
       </c>
-      <c r="G69" t="str">
+      <c r="H69" t="str">
         <f t="shared" si="0"/>
         <v>Graca Rocha                     \\</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="K69" t="str">
+      <c r="L69" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                     </v>
       </c>
     </row>
-    <row r="70" spans="2:11">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D70" t="s">
-        <v>8</v>
-      </c>
       <c r="E70" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" t="s">
         <v>350</v>
       </c>
-      <c r="G70" t="str">
+      <c r="H70" t="str">
         <f t="shared" si="0"/>
         <v>Marcel Schmittfull              \\</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="K70" t="str">
+      <c r="L70" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">              </v>
       </c>
     </row>
-    <row r="71" spans="2:11">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
         <v>314</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D71" t="s">
-        <v>8</v>
-      </c>
       <c r="E71" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" t="s">
         <v>351</v>
       </c>
-      <c r="G71" t="str">
+      <c r="H71" t="str">
         <f t="shared" si="0"/>
         <v>Douglas Scott                   \\</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="K71" t="str">
+      <c r="L71" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                   </v>
       </c>
     </row>
-    <row r="72" spans="2:11">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>130</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D72" t="s">
-        <v>8</v>
-      </c>
       <c r="E72" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" t="s">
         <v>132</v>
       </c>
-      <c r="G72" t="str">
+      <c r="H72" t="str">
         <f t="shared" si="0"/>
         <v>Ian Stephens                    \\</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K72" t="str">
+      <c r="L72" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                    </v>
       </c>
     </row>
-    <row r="73" spans="2:11">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
         <v>133</v>
       </c>
       <c r="C73" t="s">
         <v>134</v>
       </c>
-      <c r="D73" t="s">
-        <v>8</v>
-      </c>
+      <c r="D73"/>
       <c r="E73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" t="s">
         <v>343</v>
       </c>
-      <c r="G73" t="str">
+      <c r="H73" t="str">
         <f t="shared" si="0"/>
         <v>Brian Sutin                     \\</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="K73" t="str">
+      <c r="L73" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                     </v>
       </c>
     </row>
-    <row r="74" spans="2:11">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>135</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D74" t="s">
-        <v>8</v>
-      </c>
       <c r="E74" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" t="s">
         <v>137</v>
       </c>
-      <c r="G74" t="str">
+      <c r="H74" t="str">
         <f t="shared" si="0"/>
         <v>Maurizio Tomasi                 \\</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="K74" t="str">
+      <c r="L74" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">                 </v>
       </c>
     </row>
-    <row r="75" spans="2:11">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
         <v>138</v>
       </c>
       <c r="C75" t="s">
         <v>139</v>
       </c>
-      <c r="D75" t="s">
-        <v>8</v>
-      </c>
+      <c r="D75"/>
       <c r="E75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" t="s">
         <v>343</v>
       </c>
-      <c r="G75" t="str">
-        <f t="shared" ref="G75:G76" si="4">CONCATENATE(B75," ",C75,K75,"\\")</f>
+      <c r="H75" t="str">
+        <f t="shared" ref="H75:H76" si="4">CONCATENATE(B75," ",C75,L75,"\\")</f>
         <v>Amy Trangsrud                   \\</v>
       </c>
-      <c r="I75">
-        <f t="shared" ref="I75:I76" si="5">LEN(B75) + LEN(C75) +1</f>
+      <c r="J75">
+        <f t="shared" ref="J75:J76" si="5">LEN(B75) + LEN(C75) +1</f>
         <v>13</v>
       </c>
-      <c r="J75">
-        <f t="shared" ref="J75:J76" si="6">IF(I75&lt;30,(32-I75),3)</f>
+      <c r="K75">
+        <f t="shared" ref="K75:K76" si="6">IF(J75&lt;30,(32-J75),3)</f>
         <v>19</v>
       </c>
-      <c r="K75" t="str">
-        <f t="shared" ref="K75:K82" si="7">REPT(" ",J75)</f>
+      <c r="L75" t="str">
+        <f t="shared" ref="L75:L82" si="7">REPT(" ",K75)</f>
         <v xml:space="preserve">                   </v>
       </c>
     </row>
-    <row r="76" spans="2:11">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C76" t="s">
         <v>141</v>
       </c>
-      <c r="D76" t="s">
-        <v>8</v>
-      </c>
+      <c r="D76"/>
       <c r="E76" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" t="s">
         <v>352</v>
       </c>
-      <c r="G76" t="str">
+      <c r="H76" t="str">
         <f t="shared" si="4"/>
         <v>Flavien Vansyngel               \\</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="K76" t="str">
+      <c r="L76" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">               </v>
       </c>
     </row>
-    <row r="77" spans="2:11">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>142</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D77" t="s">
-        <v>8</v>
-      </c>
       <c r="E77" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" t="s">
         <v>92</v>
       </c>
-      <c r="G77" t="str">
-        <f t="shared" ref="G77" si="8">CONCATENATE(B77," ",C77,K77,"\\")</f>
+      <c r="H77" t="str">
+        <f t="shared" ref="H77" si="8">CONCATENATE(B77," ",C77,L77,"\\")</f>
         <v>Qi Wen                          \\</v>
       </c>
-      <c r="I77">
-        <f t="shared" ref="I77" si="9">LEN(B77) + LEN(C77) +1</f>
+      <c r="J77">
+        <f t="shared" ref="J77" si="9">LEN(B77) + LEN(C77) +1</f>
         <v>6</v>
       </c>
-      <c r="J77">
-        <f t="shared" ref="J77" si="10">IF(I77&lt;30,(32-I77),3)</f>
+      <c r="K77">
+        <f t="shared" ref="K77" si="10">IF(J77&lt;30,(32-J77),3)</f>
         <v>26</v>
       </c>
-      <c r="K77" t="str">
+      <c r="L77" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">                          </v>
       </c>
     </row>
-    <row r="78" spans="2:11">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B78" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C78" t="s">
         <v>147</v>
       </c>
-      <c r="D78" t="s">
-        <v>8</v>
-      </c>
+      <c r="D78"/>
       <c r="E78" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" t="s">
         <v>347</v>
       </c>
-      <c r="G78" t="str">
-        <f t="shared" ref="G78:G82" si="11">CONCATENATE(B78," ",C78,K78,"\\")</f>
+      <c r="H78" t="str">
+        <f t="shared" ref="H78:H82" si="11">CONCATENATE(B78," ",C78,L78,"\\")</f>
         <v>Siyao Xu                        \\</v>
       </c>
-      <c r="I78">
-        <f t="shared" ref="I78:I82" si="12">LEN(B78) + LEN(C78) +1</f>
-        <v>8</v>
-      </c>
       <c r="J78">
-        <f t="shared" ref="J78:J82" si="13">IF(I78&lt;30,(32-I78),3)</f>
+        <f t="shared" ref="J78:J82" si="12">LEN(B78) + LEN(C78) +1</f>
+        <v>8</v>
+      </c>
+      <c r="K78">
+        <f t="shared" ref="K78:K82" si="13">IF(J78&lt;30,(32-J78),3)</f>
         <v>24</v>
       </c>
-      <c r="K78" t="str">
+      <c r="L78" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">                        </v>
       </c>
     </row>
-    <row r="79" spans="2:11">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="3" t="s">
         <v>148</v>
       </c>
       <c r="C79" t="s">
         <v>149</v>
       </c>
-      <c r="D79" t="s">
-        <v>8</v>
-      </c>
+      <c r="D79"/>
       <c r="E79" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" t="s">
         <v>92</v>
       </c>
-      <c r="G79" t="str">
+      <c r="H79" t="str">
         <f t="shared" si="11"/>
         <v>Karl Young                      \\</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <f t="shared" si="12"/>
         <v>10</v>
       </c>
-      <c r="J79">
+      <c r="K79">
         <f t="shared" si="13"/>
         <v>22</v>
       </c>
-      <c r="K79" t="str">
+      <c r="L79" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">                      </v>
       </c>
     </row>
-    <row r="80" spans="2:11">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B80" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C80" t="s">
         <v>151</v>
       </c>
-      <c r="D80" t="s">
-        <v>8</v>
-      </c>
+      <c r="D80"/>
       <c r="E80" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" t="s">
         <v>353</v>
       </c>
-      <c r="G80" t="str">
-        <f>CONCATENATE(B80," ",C80,K80,"\\")</f>
+      <c r="H80" t="str">
+        <f>CONCATENATE(B80," ",C80,L80,"\\")</f>
         <v>Andrea Zonca                    \\</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <f>LEN(B80) + LEN(C80) +1</f>
         <v>12</v>
       </c>
-      <c r="J80">
-        <f>IF(I80&lt;30,(32-I80),3)</f>
+      <c r="K80">
+        <f>IF(J80&lt;30,(32-J80),3)</f>
         <v>20</v>
       </c>
-      <c r="K80" t="str">
+      <c r="L80" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">                    </v>
       </c>
     </row>
-    <row r="81" spans="2:11">
+    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>308</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="D81" t="s">
-        <v>8</v>
-      </c>
       <c r="E81" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" t="s">
         <v>42</v>
       </c>
-      <c r="G81" t="str">
-        <f>CONCATENATE(B81," ",C81,K81,"\\")</f>
+      <c r="H81" t="str">
+        <f>CONCATENATE(B81," ",C81,L81,"\\")</f>
         <v>Gianfranco De Zotti             \\</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <f>LEN(B81) + LEN(C81) +1</f>
         <v>19</v>
       </c>
-      <c r="J81">
-        <f>IF(I81&lt;30,(32-I81),3)</f>
+      <c r="K81">
+        <f>IF(J81&lt;30,(32-J81),3)</f>
         <v>13</v>
       </c>
-      <c r="K81" t="str">
+      <c r="L81" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">             </v>
       </c>
     </row>
-    <row r="82" spans="2:11">
+    <row r="82" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
         <v>369</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="D82" t="s">
-        <v>8</v>
-      </c>
       <c r="E82" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" t="s">
         <v>343</v>
       </c>
-      <c r="G82" t="str">
+      <c r="H82" t="str">
         <f t="shared" si="11"/>
         <v>Joelle Cooperrider              \\</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <f t="shared" si="12"/>
         <v>18</v>
       </c>
-      <c r="J82">
+      <c r="K82">
         <f t="shared" si="13"/>
         <v>14</v>
       </c>
-      <c r="K82" t="str">
+      <c r="L82" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve">              </v>
       </c>
     </row>
-    <row r="83" spans="2:11">
+    <row r="83" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B83"/>
     </row>
-    <row r="85" spans="2:11">
+    <row r="85" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>372</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>374</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="86" spans="2:11">
+    <row r="86" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B86"/>
     </row>
-    <row r="88" spans="2:11">
+    <row r="88" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B88" s="3"/>
       <c r="C88"/>
-      <c r="G88" t="str">
-        <f t="shared" ref="G88:G149" si="14">CONCATENATE(B88," ",C88,K88,"\\")</f>
+      <c r="D88"/>
+      <c r="H88" t="str">
+        <f t="shared" ref="H88:H149" si="14">CONCATENATE(B88," ",C88,L88,"\\")</f>
         <v xml:space="preserve">                                \\</v>
       </c>
-      <c r="I88">
-        <f t="shared" ref="I88:I149" si="15">LEN(B88) + LEN(C88) +1</f>
+      <c r="J88">
+        <f t="shared" ref="J88:J149" si="15">LEN(B88) + LEN(C88) +1</f>
         <v>1</v>
       </c>
-      <c r="J88">
-        <f t="shared" ref="J88:J149" si="16">IF(I88&lt;30,(32-I88),3)</f>
+      <c r="K88">
+        <f t="shared" ref="K88:K149" si="16">IF(J88&lt;30,(32-J88),3)</f>
         <v>31</v>
       </c>
-      <c r="K88" t="str">
-        <f t="shared" ref="K88:K149" si="17">REPT(" ",J88)</f>
+      <c r="L88" t="str">
+        <f t="shared" ref="L88:L149" si="17">REPT(" ",K88)</f>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
-    <row r="89" spans="2:11">
+    <row r="89" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>152</v>
       </c>
       <c r="C89" t="s">
         <v>153</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89"/>
+      <c r="E89" t="s">
         <v>154</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>155</v>
       </c>
-      <c r="G89" t="str">
+      <c r="H89" t="str">
         <f t="shared" si="14"/>
         <v>Zeeshan Ahmed                   \\</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <f t="shared" si="15"/>
         <v>13</v>
       </c>
-      <c r="J89">
+      <c r="K89">
         <f t="shared" si="16"/>
         <v>19</v>
       </c>
-      <c r="K89" t="str">
+      <c r="L89" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">                   </v>
       </c>
     </row>
-    <row r="90" spans="2:11">
+    <row r="90" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>156</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>154</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>158</v>
       </c>
-      <c r="G90" t="str">
-        <f t="shared" ref="G90:G140" si="18">CONCATENATE(B90," ",C90,K90,"\\")</f>
+      <c r="H90" t="str">
+        <f t="shared" ref="H90:H140" si="18">CONCATENATE(B90," ",C90,L90,"\\")</f>
         <v>Jason Austermann                \\</v>
       </c>
-      <c r="I90">
-        <f t="shared" ref="I90:I140" si="19">LEN(B90) + LEN(C90) +1</f>
+      <c r="J90">
+        <f t="shared" ref="J90:J140" si="19">LEN(B90) + LEN(C90) +1</f>
         <v>16</v>
       </c>
-      <c r="J90">
-        <f t="shared" ref="J90:J140" si="20">IF(I90&lt;30,(32-I90),3)</f>
+      <c r="K90">
+        <f t="shared" ref="K90:K140" si="20">IF(J90&lt;30,(32-J90),3)</f>
         <v>16</v>
       </c>
-      <c r="K90" t="str">
+      <c r="L90" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">                </v>
       </c>
     </row>
-    <row r="91" spans="2:11">
+    <row r="91" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>159</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>154</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>161</v>
       </c>
-      <c r="G91" t="str">
+      <c r="H91" t="str">
         <f t="shared" si="18"/>
         <v>Darcy Barron                    \\</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <f t="shared" si="19"/>
         <v>12</v>
       </c>
-      <c r="J91">
+      <c r="K91">
         <f t="shared" si="20"/>
         <v>20</v>
       </c>
-      <c r="K91" t="str">
+      <c r="L91" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">                    </v>
       </c>
     </row>
-    <row r="92" spans="2:11">
+    <row r="92" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>162</v>
       </c>
       <c r="C92" t="s">
         <v>163</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92"/>
+      <c r="E92" t="s">
         <v>154</v>
       </c>
-      <c r="G92" t="str">
+      <c r="H92" t="str">
         <f t="shared" si="18"/>
         <v>Karim Benabed                   \\</v>
       </c>
-      <c r="I92">
+      <c r="J92">
         <f t="shared" si="19"/>
         <v>13</v>
       </c>
-      <c r="J92">
+      <c r="K92">
         <f t="shared" si="20"/>
         <v>19</v>
       </c>
-      <c r="K92" t="str">
+      <c r="L92" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">                   </v>
       </c>
     </row>
-    <row r="93" spans="2:11">
+    <row r="93" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>164</v>
       </c>
       <c r="C93" t="s">
         <v>165</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93"/>
+      <c r="E93" t="s">
         <v>154</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
         <v>166</v>
       </c>
-      <c r="G93" t="str">
+      <c r="H93" t="str">
         <f t="shared" si="18"/>
         <v>Federico Bianchini              \\</v>
       </c>
-      <c r="I93">
+      <c r="J93">
         <f t="shared" si="19"/>
         <v>18</v>
       </c>
-      <c r="J93">
+      <c r="K93">
         <f t="shared" si="20"/>
         <v>14</v>
       </c>
-      <c r="K93" t="str">
+      <c r="L93" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">              </v>
       </c>
     </row>
-    <row r="94" spans="2:11">
+    <row r="94" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B94" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>154</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>279</v>
       </c>
-      <c r="G94" t="str">
+      <c r="H94" t="str">
         <f t="shared" si="18"/>
         <v>Colin Bischoff                  \\</v>
       </c>
-      <c r="I94">
+      <c r="J94">
         <f t="shared" si="19"/>
         <v>14</v>
       </c>
-      <c r="J94">
+      <c r="K94">
         <f t="shared" si="20"/>
         <v>18</v>
       </c>
-      <c r="K94" t="str">
+      <c r="L94" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">                  </v>
       </c>
     </row>
-    <row r="95" spans="2:11">
+    <row r="95" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>170</v>
       </c>
       <c r="C95" t="s">
         <v>171</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95"/>
+      <c r="E95" t="s">
         <v>154</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>172</v>
       </c>
-      <c r="G95" t="str">
+      <c r="H95" t="str">
         <f t="shared" si="18"/>
         <v>J. Richard Bond                 \\</v>
       </c>
-      <c r="I95">
+      <c r="J95">
         <f t="shared" si="19"/>
         <v>15</v>
       </c>
-      <c r="J95">
+      <c r="K95">
         <f t="shared" si="20"/>
         <v>17</v>
       </c>
-      <c r="K95" t="str">
+      <c r="L95" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">                 </v>
       </c>
     </row>
-    <row r="96" spans="2:11">
+    <row r="96" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B96" s="1" t="s">
         <v>288</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
         <v>154</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>277</v>
       </c>
-      <c r="G96" t="str">
+      <c r="H96" t="str">
         <f t="shared" si="18"/>
         <v>Robert Caldwell                 \\</v>
       </c>
-      <c r="I96">
+      <c r="J96">
         <f t="shared" si="19"/>
         <v>15</v>
       </c>
-      <c r="J96">
+      <c r="K96">
         <f t="shared" si="20"/>
         <v>17</v>
       </c>
-      <c r="K96" t="str">
+      <c r="L96" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">                 </v>
       </c>
     </row>
-    <row r="97" spans="2:11">
+    <row r="97" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>173</v>
       </c>
       <c r="C97" t="s">
         <v>174</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97"/>
+      <c r="E97" t="s">
         <v>154</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>132</v>
       </c>
-      <c r="G97" t="str">
+      <c r="H97" t="str">
         <f t="shared" si="18"/>
         <v>Xingang Chen                    \\</v>
       </c>
-      <c r="I97">
+      <c r="J97">
         <f t="shared" si="19"/>
         <v>12</v>
       </c>
-      <c r="J97">
+      <c r="K97">
         <f t="shared" si="20"/>
         <v>20</v>
       </c>
-      <c r="K97" t="str">
+      <c r="L97" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">                    </v>
       </c>
     </row>
-    <row r="98" spans="2:11">
+    <row r="98" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>178</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>154</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>180</v>
       </c>
-      <c r="G98" t="str">
+      <c r="H98" t="str">
         <f t="shared" si="18"/>
         <v>Francis-Yan Cyr-Racine          \\</v>
       </c>
-      <c r="I98">
+      <c r="J98">
         <f t="shared" si="19"/>
         <v>22</v>
       </c>
-      <c r="J98">
+      <c r="K98">
         <f t="shared" si="20"/>
         <v>10</v>
       </c>
-      <c r="K98" t="str">
+      <c r="L98" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">          </v>
       </c>
     </row>
-    <row r="99" spans="2:11">
+    <row r="99" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>181</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>154</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>183</v>
       </c>
-      <c r="G99" t="str">
+      <c r="H99" t="str">
         <f t="shared" si="18"/>
         <v>Tijmen de Haan                  \\</v>
       </c>
-      <c r="I99">
+      <c r="J99">
         <f t="shared" si="19"/>
         <v>14</v>
       </c>
-      <c r="J99">
+      <c r="K99">
         <f t="shared" si="20"/>
         <v>18</v>
       </c>
-      <c r="K99" t="str">
+      <c r="L99" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">                  </v>
       </c>
     </row>
-    <row r="100" spans="2:11">
+    <row r="100" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>186</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>154</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>90</v>
       </c>
-      <c r="G100" t="str">
+      <c r="H100" t="str">
         <f t="shared" si="18"/>
         <v>Aurelien Fraisse                \\</v>
       </c>
-      <c r="I100">
+      <c r="J100">
         <f t="shared" si="19"/>
         <v>16</v>
       </c>
-      <c r="J100">
+      <c r="K100">
         <f t="shared" si="20"/>
         <v>16</v>
       </c>
-      <c r="K100" t="str">
+      <c r="L100" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">                </v>
       </c>
     </row>
-    <row r="101" spans="2:11">
+    <row r="101" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>192</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>154</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>194</v>
       </c>
-      <c r="G101" t="str">
+      <c r="H101" t="str">
         <f t="shared" si="18"/>
         <v>Silvia Galli                    \\</v>
       </c>
-      <c r="I101">
+      <c r="J101">
         <f t="shared" si="19"/>
         <v>12</v>
       </c>
-      <c r="J101">
+      <c r="K101">
         <f t="shared" si="20"/>
         <v>20</v>
       </c>
-      <c r="K101" t="str">
+      <c r="L101" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">                    </v>
       </c>
     </row>
-    <row r="102" spans="2:11">
+    <row r="102" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>195</v>
       </c>
       <c r="C102" t="s">
         <v>196</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102"/>
+      <c r="E102" t="s">
         <v>154</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" t="s">
         <v>197</v>
       </c>
-      <c r="G102" t="str">
+      <c r="H102" t="str">
         <f t="shared" si="18"/>
         <v>Ken Ganga                       \\</v>
       </c>
-      <c r="I102">
+      <c r="J102">
         <f t="shared" si="19"/>
         <v>9</v>
       </c>
-      <c r="J102">
+      <c r="K102">
         <f t="shared" si="20"/>
         <v>23</v>
       </c>
-      <c r="K102" t="str">
+      <c r="L102" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">                       </v>
       </c>
     </row>
-    <row r="103" spans="2:11">
+    <row r="103" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>198</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
         <v>154</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
         <v>200</v>
       </c>
-      <c r="G103" t="str">
+      <c r="H103" t="str">
         <f t="shared" si="18"/>
         <v>Tuhin Ghosh                     \\</v>
       </c>
-      <c r="I103">
+      <c r="J103">
         <f t="shared" si="19"/>
         <v>11</v>
       </c>
-      <c r="J103">
+      <c r="K103">
         <f t="shared" si="20"/>
         <v>21</v>
       </c>
-      <c r="K103" t="str">
+      <c r="L103" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">                     </v>
       </c>
     </row>
-    <row r="104" spans="2:11">
+    <row r="104" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B104" s="1" t="s">
         <v>323</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
         <v>154</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="F104" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="G104" t="str">
+      <c r="H104" t="str">
         <f t="shared" si="18"/>
         <v>Sunil Golwara                   \\</v>
       </c>
-      <c r="I104">
+      <c r="J104">
         <f t="shared" si="19"/>
         <v>13</v>
       </c>
-      <c r="J104">
+      <c r="K104">
         <f t="shared" si="20"/>
         <v>19</v>
       </c>
-      <c r="K104" t="str">
+      <c r="L104" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">                   </v>
       </c>
     </row>
-    <row r="105" spans="2:11">
+    <row r="105" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>201</v>
       </c>
       <c r="C105" t="s">
         <v>202</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105"/>
+      <c r="E105" t="s">
         <v>154</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
         <v>203</v>
       </c>
-      <c r="G105" t="str">
+      <c r="H105" t="str">
         <f t="shared" si="18"/>
         <v>Jon E. Gudmundsson              \\</v>
       </c>
-      <c r="I105">
+      <c r="J105">
         <f t="shared" si="19"/>
         <v>18</v>
       </c>
-      <c r="J105">
+      <c r="K105">
         <f t="shared" si="20"/>
         <v>14</v>
       </c>
-      <c r="K105" t="str">
+      <c r="L105" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">              </v>
       </c>
     </row>
-    <row r="106" spans="2:11">
+    <row r="106" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B106" s="1" t="s">
         <v>324</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>154</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="F106" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="G106" t="str">
+      <c r="H106" t="str">
         <f t="shared" si="18"/>
         <v>Kevin M. Huffenberger           \\</v>
       </c>
-      <c r="I106">
+      <c r="J106">
         <f t="shared" si="19"/>
         <v>21</v>
       </c>
-      <c r="J106">
+      <c r="K106">
         <f t="shared" si="20"/>
         <v>11</v>
       </c>
-      <c r="K106" t="str">
+      <c r="L106" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">           </v>
       </c>
     </row>
-    <row r="107" spans="2:11">
+    <row r="107" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>204</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>154</v>
       </c>
-      <c r="E107" t="s">
+      <c r="F107" t="s">
         <v>206</v>
       </c>
-      <c r="G107" t="str">
+      <c r="H107" t="str">
         <f t="shared" si="18"/>
         <v>Marc Kamionkowski               \\</v>
       </c>
-      <c r="I107">
+      <c r="J107">
         <f t="shared" si="19"/>
         <v>17</v>
       </c>
-      <c r="J107">
+      <c r="K107">
         <f t="shared" si="20"/>
         <v>15</v>
       </c>
-      <c r="K107" t="str">
+      <c r="L107" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">               </v>
       </c>
     </row>
-    <row r="108" spans="2:11">
+    <row r="108" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>207</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
         <v>154</v>
       </c>
-      <c r="E108" t="s">
+      <c r="F108" t="s">
         <v>209</v>
       </c>
-      <c r="G108" t="str">
+      <c r="H108" t="str">
         <f t="shared" si="18"/>
         <v>Reijo Keskitalo                 \\</v>
       </c>
-      <c r="I108">
+      <c r="J108">
         <f t="shared" si="19"/>
         <v>15</v>
       </c>
-      <c r="J108">
+      <c r="K108">
         <f t="shared" si="20"/>
         <v>17</v>
       </c>
-      <c r="K108" t="str">
+      <c r="L108" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">                 </v>
       </c>
     </row>
-    <row r="109" spans="2:11">
+    <row r="109" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>210</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D109" t="s">
+      <c r="E109" t="s">
         <v>154</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F109" t="s">
         <v>212</v>
       </c>
-      <c r="G109" t="str">
+      <c r="H109" t="str">
         <f t="shared" si="18"/>
         <v>Rishi Khatri                    \\</v>
       </c>
-      <c r="I109">
+      <c r="J109">
         <f t="shared" si="19"/>
         <v>12</v>
       </c>
-      <c r="J109">
+      <c r="K109">
         <f t="shared" si="20"/>
         <v>20</v>
       </c>
-      <c r="K109" t="str">
+      <c r="L109" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">                    </v>
       </c>
     </row>
-    <row r="110" spans="2:11">
+    <row r="110" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>213</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>154</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
         <v>206</v>
       </c>
-      <c r="G110" t="str">
+      <c r="H110" t="str">
         <f t="shared" si="18"/>
         <v>Ely Kovetz                      \\</v>
       </c>
-      <c r="I110">
+      <c r="J110">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
-      <c r="J110">
+      <c r="K110">
         <f t="shared" si="20"/>
         <v>22</v>
       </c>
-      <c r="K110" t="str">
+      <c r="L110" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">                      </v>
       </c>
     </row>
-    <row r="111" spans="2:11">
+    <row r="111" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B111" s="1" t="s">
         <v>361</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
         <v>154</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
         <v>357</v>
       </c>
-      <c r="G111" t="str">
+      <c r="H111" t="str">
         <f t="shared" si="18"/>
         <v>Kerstin Kunze                   \\</v>
       </c>
-      <c r="I111">
+      <c r="J111">
         <f t="shared" si="19"/>
         <v>13</v>
       </c>
-      <c r="J111">
+      <c r="K111">
         <f t="shared" si="20"/>
         <v>19</v>
       </c>
-      <c r="K111" t="str">
+      <c r="L111" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">                   </v>
       </c>
     </row>
-    <row r="112" spans="2:11">
+    <row r="112" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>215</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D112" t="s">
+      <c r="E112" t="s">
         <v>154</v>
       </c>
-      <c r="E112" t="s">
+      <c r="F112" t="s">
         <v>217</v>
       </c>
-      <c r="G112" t="str">
+      <c r="H112" t="str">
         <f t="shared" si="18"/>
         <v>Daniel Lenz                     \\</v>
       </c>
-      <c r="I112">
+      <c r="J112">
         <f t="shared" si="19"/>
         <v>11</v>
       </c>
-      <c r="J112">
+      <c r="K112">
         <f t="shared" si="20"/>
         <v>21</v>
       </c>
-      <c r="K112" t="str">
+      <c r="L112" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">                     </v>
       </c>
     </row>
-    <row r="113" spans="2:11">
+    <row r="113" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>218</v>
       </c>
       <c r="C113" t="s">
         <v>219</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113"/>
+      <c r="E113" t="s">
         <v>154</v>
       </c>
-      <c r="E113" t="s">
+      <c r="F113" t="s">
         <v>220</v>
       </c>
-      <c r="G113" t="str">
+      <c r="H113" t="str">
         <f t="shared" si="18"/>
         <v>Marilena Loverde                \\</v>
       </c>
-      <c r="I113">
+      <c r="J113">
         <f t="shared" si="19"/>
         <v>16</v>
       </c>
-      <c r="J113">
+      <c r="K113">
         <f t="shared" si="20"/>
         <v>16</v>
       </c>
-      <c r="K113" t="str">
+      <c r="L113" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">                </v>
       </c>
     </row>
-    <row r="114" spans="2:11">
+    <row r="114" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B114" s="1" t="s">
         <v>359</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D114" t="s">
+      <c r="E114" t="s">
         <v>154</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
         <v>356</v>
       </c>
-      <c r="G114" t="str">
+      <c r="H114" t="str">
         <f t="shared" si="18"/>
         <v>Juan Macias-Perez               \\</v>
       </c>
-      <c r="I114">
+      <c r="J114">
         <f t="shared" si="19"/>
         <v>17</v>
       </c>
-      <c r="J114">
+      <c r="K114">
         <f t="shared" si="20"/>
         <v>15</v>
       </c>
-      <c r="K114" t="str">
+      <c r="L114" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">               </v>
       </c>
     </row>
-    <row r="115" spans="2:11">
+    <row r="115" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>221</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D115" t="s">
+      <c r="E115" t="s">
         <v>154</v>
       </c>
-      <c r="E115" t="s">
+      <c r="F115" t="s">
         <v>223</v>
       </c>
-      <c r="G115" t="str">
+      <c r="H115" t="str">
         <f t="shared" si="18"/>
         <v>Carlos Martins                  \\</v>
       </c>
-      <c r="I115">
+      <c r="J115">
         <f t="shared" si="19"/>
         <v>14</v>
       </c>
-      <c r="J115">
+      <c r="K115">
         <f t="shared" si="20"/>
         <v>18</v>
       </c>
-      <c r="K115" t="str">
+      <c r="L115" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">                  </v>
       </c>
     </row>
-    <row r="116" spans="2:11">
+    <row r="116" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>192</v>
       </c>
       <c r="C116" t="s">
         <v>224</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116"/>
+      <c r="E116" t="s">
         <v>154</v>
       </c>
-      <c r="E116" t="s">
+      <c r="F116" t="s">
         <v>225</v>
       </c>
-      <c r="G116" t="str">
+      <c r="H116" t="str">
         <f t="shared" si="18"/>
         <v>Silvia Masi                     \\</v>
       </c>
-      <c r="I116">
+      <c r="J116">
         <f t="shared" si="19"/>
         <v>11</v>
       </c>
-      <c r="J116">
+      <c r="K116">
         <f t="shared" si="20"/>
         <v>21</v>
       </c>
-      <c r="K116" t="str">
+      <c r="L116" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">                     </v>
       </c>
     </row>
-    <row r="117" spans="2:11">
+    <row r="117" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B117" s="1" t="s">
         <v>293</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
         <v>154</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F117" t="s">
         <v>281</v>
       </c>
-      <c r="G117" t="str">
+      <c r="H117" t="str">
         <f t="shared" si="18"/>
         <v>Joel Meyers                     \\</v>
       </c>
-      <c r="I117">
+      <c r="J117">
         <f t="shared" si="19"/>
         <v>11</v>
       </c>
-      <c r="J117">
+      <c r="K117">
         <f t="shared" si="20"/>
         <v>21</v>
       </c>
-      <c r="K117" t="str">
+      <c r="L117" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">                     </v>
       </c>
     </row>
-    <row r="118" spans="2:11">
+    <row r="118" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>226</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
         <v>154</v>
       </c>
-      <c r="E118" t="s">
+      <c r="F118" t="s">
         <v>228</v>
       </c>
-      <c r="G118" t="str">
+      <c r="H118" t="str">
         <f t="shared" si="18"/>
         <v>Lorenzo Moncelsi                \\</v>
       </c>
-      <c r="I118">
+      <c r="J118">
         <f t="shared" si="19"/>
         <v>16</v>
       </c>
-      <c r="J118">
+      <c r="K118">
         <f t="shared" si="20"/>
         <v>16</v>
       </c>
-      <c r="K118" t="str">
+      <c r="L118" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">                </v>
       </c>
     </row>
-    <row r="119" spans="2:11">
+    <row r="119" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>229</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
         <v>154</v>
       </c>
-      <c r="E119" t="s">
+      <c r="F119" t="s">
         <v>231</v>
       </c>
-      <c r="G119" t="str">
+      <c r="H119" t="str">
         <f t="shared" si="18"/>
         <v>Pavel Motloch                   \\</v>
       </c>
-      <c r="I119">
+      <c r="J119">
         <f t="shared" si="19"/>
         <v>13</v>
       </c>
-      <c r="J119">
+      <c r="K119">
         <f t="shared" si="20"/>
         <v>19</v>
       </c>
-      <c r="K119" t="str">
+      <c r="L119" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">                   </v>
       </c>
     </row>
-    <row r="120" spans="2:11">
+    <row r="120" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>232</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D120" t="s">
+      <c r="E120" t="s">
         <v>154</v>
       </c>
-      <c r="E120" t="s">
+      <c r="F120" t="s">
         <v>234</v>
       </c>
-      <c r="G120" t="str">
+      <c r="H120" t="str">
         <f t="shared" si="18"/>
         <v>Tony Mroczkowski                \\</v>
       </c>
-      <c r="I120">
+      <c r="J120">
         <f t="shared" si="19"/>
         <v>16</v>
       </c>
-      <c r="J120">
+      <c r="K120">
         <f t="shared" si="20"/>
         <v>16</v>
       </c>
-      <c r="K120" t="str">
+      <c r="L120" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">                </v>
       </c>
     </row>
-    <row r="121" spans="2:11">
+    <row r="121" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>229</v>
       </c>
       <c r="C121" t="s">
         <v>235</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121"/>
+      <c r="E121" t="s">
         <v>154</v>
       </c>
-      <c r="E121" t="s">
+      <c r="F121" t="s">
         <v>236</v>
       </c>
-      <c r="G121" t="str">
+      <c r="H121" t="str">
         <f t="shared" si="18"/>
         <v>Pavel Naselsky                  \\</v>
       </c>
-      <c r="I121">
+      <c r="J121">
         <f t="shared" si="19"/>
         <v>14</v>
       </c>
-      <c r="J121">
+      <c r="K121">
         <f t="shared" si="20"/>
         <v>18</v>
       </c>
-      <c r="K121" t="str">
+      <c r="L121" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">                  </v>
       </c>
     </row>
-    <row r="122" spans="2:11">
+    <row r="122" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>164</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D122" t="s">
+      <c r="E122" t="s">
         <v>154</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
         <v>238</v>
       </c>
-      <c r="G122" t="str">
+      <c r="H122" t="str">
         <f t="shared" si="18"/>
         <v>Federico Nati                   \\</v>
       </c>
-      <c r="I122">
+      <c r="J122">
         <f t="shared" si="19"/>
         <v>13</v>
       </c>
-      <c r="J122">
+      <c r="K122">
         <f t="shared" si="20"/>
         <v>19</v>
       </c>
-      <c r="K122" t="str">
+      <c r="L122" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">                   </v>
       </c>
     </row>
-    <row r="123" spans="2:11">
+    <row r="123" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>239</v>
       </c>
       <c r="C123" t="s">
         <v>240</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123"/>
+      <c r="E123" t="s">
         <v>154</v>
       </c>
-      <c r="E123" t="s">
+      <c r="F123" t="s">
         <v>241</v>
       </c>
-      <c r="G123" t="str">
+      <c r="H123" t="str">
         <f t="shared" si="18"/>
         <v>Elena Orlando                   \\</v>
       </c>
-      <c r="I123">
+      <c r="J123">
         <f t="shared" si="19"/>
         <v>13</v>
       </c>
-      <c r="J123">
+      <c r="K123">
         <f t="shared" si="20"/>
         <v>19</v>
       </c>
-      <c r="K123" t="str">
+      <c r="L123" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">                   </v>
       </c>
     </row>
-    <row r="124" spans="2:11">
+    <row r="124" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B124" s="1" t="s">
         <v>189</v>
       </c>
       <c r="C124" t="s">
         <v>188</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124"/>
+      <c r="E124" t="s">
         <v>154</v>
       </c>
-      <c r="E124" t="s">
+      <c r="F124" t="s">
         <v>190</v>
       </c>
-      <c r="G124" t="str">
+      <c r="H124" t="str">
         <f t="shared" si="18"/>
         <v>Francesco Piacentini            \\</v>
       </c>
-      <c r="I124">
+      <c r="J124">
         <f t="shared" si="19"/>
         <v>20</v>
       </c>
-      <c r="J124">
+      <c r="K124">
         <f t="shared" si="20"/>
         <v>12</v>
       </c>
-      <c r="K124" t="str">
+      <c r="L124" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">            </v>
       </c>
     </row>
-    <row r="125" spans="2:11">
+    <row r="125" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>242</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D125" t="s">
+      <c r="E125" t="s">
         <v>154</v>
       </c>
-      <c r="E125" t="s">
+      <c r="F125" t="s">
         <v>244</v>
       </c>
-      <c r="G125" t="str">
+      <c r="H125" t="str">
         <f t="shared" si="18"/>
         <v>Giuseppe Puglisi                \\</v>
       </c>
-      <c r="I125">
+      <c r="J125">
         <f t="shared" si="19"/>
         <v>16</v>
       </c>
-      <c r="J125">
+      <c r="K125">
         <f t="shared" si="20"/>
         <v>16</v>
       </c>
-      <c r="K125" t="str">
+      <c r="L125" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">                </v>
       </c>
     </row>
-    <row r="126" spans="2:11">
+    <row r="126" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B126" s="1" t="s">
         <v>286</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D126" t="s">
+      <c r="E126" t="s">
         <v>154</v>
       </c>
-      <c r="E126" t="s">
+      <c r="F126" t="s">
         <v>316</v>
       </c>
-      <c r="G126" t="str">
+      <c r="H126" t="str">
         <f t="shared" si="18"/>
         <v>Benjamin Racine                 \\</v>
       </c>
-      <c r="I126">
+      <c r="J126">
         <f t="shared" si="19"/>
         <v>15</v>
       </c>
-      <c r="J126">
+      <c r="K126">
         <f t="shared" si="20"/>
         <v>17</v>
       </c>
-      <c r="K126" t="str">
+      <c r="L126" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">                 </v>
       </c>
     </row>
-    <row r="127" spans="2:11">
+    <row r="127" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>245</v>
       </c>
       <c r="C127" t="s">
         <v>246</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127"/>
+      <c r="E127" t="s">
         <v>154</v>
       </c>
-      <c r="E127" t="s">
+      <c r="F127" t="s">
         <v>166</v>
       </c>
-      <c r="G127" t="str">
+      <c r="H127" t="str">
         <f t="shared" si="18"/>
         <v>Christian Reichardt             \\</v>
       </c>
-      <c r="I127">
+      <c r="J127">
         <f t="shared" si="19"/>
         <v>19</v>
       </c>
-      <c r="J127">
+      <c r="K127">
         <f t="shared" si="20"/>
         <v>13</v>
       </c>
-      <c r="K127" t="str">
+      <c r="L127" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">             </v>
       </c>
     </row>
-    <row r="128" spans="2:11">
+    <row r="128" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B128" s="1" t="s">
         <v>115</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="D128" t="s">
+      <c r="E128" t="s">
         <v>154</v>
       </c>
-      <c r="E128" t="s">
+      <c r="F128" t="s">
         <v>355</v>
       </c>
-      <c r="G128" t="str">
+      <c r="H128" t="str">
         <f t="shared" si="18"/>
         <v>Chris Ringeval                  \\</v>
       </c>
-      <c r="I128">
+      <c r="J128">
         <f t="shared" si="19"/>
         <v>14</v>
       </c>
-      <c r="J128">
+      <c r="K128">
         <f t="shared" si="20"/>
         <v>18</v>
       </c>
-      <c r="K128" t="str">
+      <c r="L128" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">                  </v>
       </c>
     </row>
-    <row r="129" spans="2:11">
+    <row r="129" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>247</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D129" t="s">
+      <c r="E129" t="s">
         <v>154</v>
       </c>
-      <c r="E129" t="s">
+      <c r="F129" t="s">
         <v>249</v>
       </c>
-      <c r="G129" t="str">
+      <c r="H129" t="str">
         <f t="shared" si="18"/>
         <v>Anirban Roy                     \\</v>
       </c>
-      <c r="I129">
+      <c r="J129">
         <f t="shared" si="19"/>
         <v>11</v>
       </c>
-      <c r="J129">
+      <c r="K129">
         <f t="shared" si="20"/>
         <v>21</v>
       </c>
-      <c r="K129" t="str">
+      <c r="L129" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">                     </v>
       </c>
     </row>
-    <row r="130" spans="2:11">
+    <row r="130" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B130" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D130" t="s">
+      <c r="E130" t="s">
         <v>154</v>
       </c>
-      <c r="E130" t="s">
+      <c r="F130" t="s">
         <v>354</v>
       </c>
-      <c r="G130" t="str">
+      <c r="H130" t="str">
         <f t="shared" si="18"/>
         <v>Jose-Alberto Rubino-Martin      \\</v>
       </c>
-      <c r="I130">
+      <c r="J130">
         <f t="shared" si="19"/>
         <v>26</v>
       </c>
-      <c r="J130">
+      <c r="K130">
         <f t="shared" si="20"/>
         <v>6</v>
       </c>
-      <c r="K130" t="str">
+      <c r="L130" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">      </v>
       </c>
     </row>
-    <row r="131" spans="2:11">
+    <row r="131" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>250</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D131" t="s">
+      <c r="E131" t="s">
         <v>154</v>
       </c>
-      <c r="E131" t="s">
+      <c r="F131" t="s">
         <v>252</v>
       </c>
-      <c r="G131" t="str">
+      <c r="H131" t="str">
         <f t="shared" si="18"/>
         <v>Maria Salatino                  \\</v>
       </c>
-      <c r="I131">
+      <c r="J131">
         <f t="shared" si="19"/>
         <v>14</v>
       </c>
-      <c r="J131">
+      <c r="K131">
         <f t="shared" si="20"/>
         <v>18</v>
       </c>
-      <c r="K131" t="str">
+      <c r="L131" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">                  </v>
       </c>
     </row>
-    <row r="132" spans="2:11">
+    <row r="132" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B132" s="1" t="s">
         <v>286</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D132" t="s">
+      <c r="E132" t="s">
         <v>154</v>
       </c>
-      <c r="E132" t="s">
+      <c r="F132" t="s">
         <v>276</v>
       </c>
-      <c r="G132" t="str">
+      <c r="H132" t="str">
         <f t="shared" si="18"/>
         <v>Benjamin Saliwanchik            \\</v>
       </c>
-      <c r="I132">
+      <c r="J132">
         <f t="shared" si="19"/>
         <v>20</v>
       </c>
-      <c r="J132">
+      <c r="K132">
         <f t="shared" si="20"/>
         <v>12</v>
       </c>
-      <c r="K132" t="str">
+      <c r="L132" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">            </v>
       </c>
     </row>
-    <row r="133" spans="2:11">
+    <row r="133" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B133" s="1" t="s">
         <v>297</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D133" t="s">
+      <c r="E133" t="s">
         <v>154</v>
       </c>
-      <c r="E133" t="s">
+      <c r="F133" t="s">
         <v>220</v>
       </c>
-      <c r="G133" t="str">
+      <c r="H133" t="str">
         <f t="shared" si="18"/>
         <v>Neelima Sehgal                  \\</v>
       </c>
-      <c r="I133">
+      <c r="J133">
         <f t="shared" si="19"/>
         <v>14</v>
       </c>
-      <c r="J133">
+      <c r="K133">
         <f t="shared" si="20"/>
         <v>18</v>
       </c>
-      <c r="K133" t="str">
+      <c r="L133" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">                  </v>
       </c>
     </row>
-    <row r="134" spans="2:11">
+    <row r="134" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>253</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D134" t="s">
+      <c r="E134" t="s">
         <v>154</v>
       </c>
-      <c r="E134" t="s">
+      <c r="F134" t="s">
         <v>255</v>
       </c>
-      <c r="G134" t="str">
+      <c r="H134" t="str">
         <f t="shared" si="18"/>
         <v>Sarah Shandera                  \\</v>
       </c>
-      <c r="I134">
+      <c r="J134">
         <f t="shared" si="19"/>
         <v>14</v>
       </c>
-      <c r="J134">
+      <c r="K134">
         <f t="shared" si="20"/>
         <v>18</v>
       </c>
-      <c r="K134" t="str">
+      <c r="L134" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">                  </v>
       </c>
     </row>
-    <row r="135" spans="2:11">
+    <row r="135" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>184</v>
       </c>
       <c r="C135" t="s">
         <v>315</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135"/>
+      <c r="E135" t="s">
         <v>154</v>
       </c>
-      <c r="E135" t="s">
+      <c r="F135" t="s">
         <v>185</v>
       </c>
-      <c r="G135" t="str">
+      <c r="H135" t="str">
         <f t="shared" si="18"/>
         <v>Erik Shirokoff                  \\</v>
       </c>
-      <c r="I135">
+      <c r="J135">
         <f t="shared" si="19"/>
         <v>14</v>
       </c>
-      <c r="J135">
+      <c r="K135">
         <f t="shared" si="20"/>
         <v>18</v>
       </c>
-      <c r="K135" t="str">
+      <c r="L135" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">                  </v>
       </c>
     </row>
-    <row r="136" spans="2:11">
+    <row r="136" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>256</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D136" t="s">
+      <c r="E136" t="s">
         <v>154</v>
       </c>
-      <c r="E136" t="s">
+      <c r="F136" t="s">
         <v>258</v>
       </c>
-      <c r="G136" t="str">
+      <c r="H136" t="str">
         <f t="shared" si="18"/>
         <v>An\v{z}e Slosar                 \\</v>
       </c>
-      <c r="I136">
+      <c r="J136">
         <f t="shared" si="19"/>
         <v>15</v>
       </c>
-      <c r="J136">
+      <c r="K136">
         <f t="shared" si="20"/>
         <v>17</v>
       </c>
-      <c r="K136" t="str">
+      <c r="L136" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">                 </v>
       </c>
     </row>
-    <row r="137" spans="2:11">
+    <row r="137" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>259</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D137" t="s">
+      <c r="E137" t="s">
         <v>154</v>
       </c>
-      <c r="E137" t="s">
+      <c r="F137" t="s">
         <v>183</v>
       </c>
-      <c r="G137" t="str">
+      <c r="H137" t="str">
         <f t="shared" si="18"/>
         <v>Aritoki Suzuki                  \\</v>
       </c>
-      <c r="I137">
+      <c r="J137">
         <f t="shared" si="19"/>
         <v>14</v>
       </c>
-      <c r="J137">
+      <c r="K137">
         <f t="shared" si="20"/>
         <v>18</v>
       </c>
-      <c r="K137" t="str">
+      <c r="L137" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">                  </v>
       </c>
     </row>
-    <row r="138" spans="2:11">
+    <row r="138" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B138" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D138" t="s">
+      <c r="E138" t="s">
         <v>154</v>
       </c>
-      <c r="E138" t="s">
+      <c r="F138" t="s">
         <v>282</v>
       </c>
-      <c r="G138" t="str">
+      <c r="H138" t="str">
         <f t="shared" si="18"/>
         <v>Eric Switzer                    \\</v>
       </c>
-      <c r="I138">
+      <c r="J138">
         <f t="shared" si="19"/>
         <v>12</v>
       </c>
-      <c r="J138">
+      <c r="K138">
         <f t="shared" si="20"/>
         <v>20</v>
       </c>
-      <c r="K138" t="str">
+      <c r="L138" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">                    </v>
       </c>
     </row>
-    <row r="139" spans="2:11">
+    <row r="139" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B139" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D139" t="s">
+      <c r="E139" t="s">
         <v>154</v>
       </c>
-      <c r="E139" t="s">
+      <c r="F139" t="s">
         <v>283</v>
       </c>
-      <c r="G139" t="str">
+      <c r="H139" t="str">
         <f t="shared" si="18"/>
         <v>Andrea Tartari                  \\</v>
       </c>
-      <c r="I139">
+      <c r="J139">
         <f t="shared" si="19"/>
         <v>14</v>
       </c>
-      <c r="J139">
+      <c r="K139">
         <f t="shared" si="20"/>
         <v>18</v>
       </c>
-      <c r="K139" t="str">
+      <c r="L139" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">                  </v>
       </c>
     </row>
-    <row r="140" spans="2:11">
+    <row r="140" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>261</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D140" t="s">
+      <c r="E140" t="s">
         <v>154</v>
       </c>
-      <c r="E140" t="s">
+      <c r="F140" t="s">
         <v>263</v>
       </c>
-      <c r="G140" t="str">
+      <c r="H140" t="str">
         <f t="shared" si="18"/>
         <v>Grant Teply                     \\</v>
       </c>
-      <c r="I140">
+      <c r="J140">
         <f t="shared" si="19"/>
         <v>11</v>
       </c>
-      <c r="J140">
+      <c r="K140">
         <f t="shared" si="20"/>
         <v>21</v>
       </c>
-      <c r="K140" t="str">
+      <c r="L140" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">                     </v>
       </c>
     </row>
-    <row r="141" spans="2:11">
+    <row r="141" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B141" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D141" t="s">
+      <c r="E141" t="s">
         <v>154</v>
       </c>
-      <c r="E141" t="s">
+      <c r="F141" t="s">
         <v>284</v>
       </c>
-      <c r="G141" t="str">
-        <f t="shared" ref="G141:G143" si="21">CONCATENATE(B141," ",C141,K141,"\\")</f>
+      <c r="H141" t="str">
+        <f t="shared" ref="H141:H143" si="21">CONCATENATE(B141," ",C141,L141,"\\")</f>
         <v>Peter Timbie                    \\</v>
       </c>
-      <c r="I141">
-        <f t="shared" ref="I141" si="22">LEN(B141) + LEN(C141) +1</f>
+      <c r="J141">
+        <f t="shared" ref="J141" si="22">LEN(B141) + LEN(C141) +1</f>
         <v>12</v>
       </c>
-      <c r="J141">
-        <f t="shared" ref="J141" si="23">IF(I141&lt;30,(32-I141),3)</f>
+      <c r="K141">
+        <f t="shared" ref="K141" si="23">IF(J141&lt;30,(32-J141),3)</f>
         <v>20</v>
       </c>
-      <c r="K141" t="str">
+      <c r="L141" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">                    </v>
       </c>
     </row>
-    <row r="142" spans="2:11">
+    <row r="142" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>264</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D142" t="s">
+      <c r="E142" t="s">
         <v>154</v>
       </c>
-      <c r="E142" t="s">
+      <c r="F142" t="s">
         <v>266</v>
       </c>
-      <c r="G142" t="str">
+      <c r="H142" t="str">
         <f t="shared" si="21"/>
         <v>Matthieu Tristram               \\</v>
       </c>
-      <c r="I142">
-        <f t="shared" ref="I142:I148" si="24">LEN(B142) + LEN(C142) +1</f>
+      <c r="J142">
+        <f t="shared" ref="J142:J148" si="24">LEN(B142) + LEN(C142) +1</f>
         <v>17</v>
       </c>
-      <c r="J142">
-        <f t="shared" ref="J142:J148" si="25">IF(I142&lt;30,(32-I142),3)</f>
+      <c r="K142">
+        <f t="shared" ref="K142:K148" si="25">IF(J142&lt;30,(32-J142),3)</f>
         <v>15</v>
       </c>
-      <c r="K142" t="str">
+      <c r="L142" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">               </v>
       </c>
     </row>
-    <row r="143" spans="2:11">
+    <row r="143" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B143" s="1" t="s">
         <v>318</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D143" t="s">
+      <c r="E143" t="s">
         <v>154</v>
       </c>
-      <c r="E143" t="s">
+      <c r="F143" t="s">
         <v>279</v>
       </c>
-      <c r="G143" t="str">
+      <c r="H143" t="str">
         <f t="shared" si="21"/>
         <v>Caterina Umilt\`{a}             \\</v>
       </c>
-      <c r="I143">
+      <c r="J143">
         <f t="shared" si="24"/>
         <v>19</v>
       </c>
-      <c r="J143">
+      <c r="K143">
         <f t="shared" si="25"/>
         <v>13</v>
       </c>
-      <c r="K143" t="str">
+      <c r="L143" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">             </v>
       </c>
     </row>
-    <row r="144" spans="2:11">
+    <row r="144" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B144" s="1" t="s">
         <v>363</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="D144" t="s">
+      <c r="E144" t="s">
         <v>154</v>
       </c>
-      <c r="E144" t="s">
+      <c r="F144" t="s">
         <v>358</v>
       </c>
-      <c r="G144" t="str">
-        <f t="shared" ref="G144:G148" si="26">CONCATENATE(B144," ",C144,K144,"\\")</f>
+      <c r="H144" t="str">
+        <f t="shared" ref="H144:H148" si="26">CONCATENATE(B144," ",C144,L144,"\\")</f>
         <v>Licia Verde                     \\</v>
       </c>
-      <c r="I144">
+      <c r="J144">
         <f t="shared" si="24"/>
         <v>11</v>
       </c>
-      <c r="J144">
+      <c r="K144">
         <f t="shared" si="25"/>
         <v>21</v>
       </c>
-      <c r="K144" t="str">
+      <c r="L144" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">                     </v>
       </c>
     </row>
-    <row r="145" spans="2:11">
+    <row r="145" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B145" s="1" t="s">
         <v>327</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D145" t="s">
+      <c r="E145" t="s">
         <v>154</v>
       </c>
-      <c r="E145" s="1" t="s">
+      <c r="F145" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="G145" t="str">
+      <c r="H145" t="str">
         <f t="shared" si="26"/>
         <v>Patricio Vielva                 \\</v>
       </c>
-      <c r="I145">
+      <c r="J145">
         <f t="shared" si="24"/>
         <v>15</v>
       </c>
-      <c r="J145">
+      <c r="K145">
         <f t="shared" si="25"/>
         <v>17</v>
       </c>
-      <c r="K145" t="str">
+      <c r="L145" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">                 </v>
       </c>
     </row>
-    <row r="146" spans="2:11">
+    <row r="146" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B146" s="1" t="s">
         <v>286</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D146" t="s">
+      <c r="E146" t="s">
         <v>154</v>
       </c>
-      <c r="E146" t="s">
+      <c r="F146" t="s">
         <v>278</v>
       </c>
-      <c r="G146" t="str">
+      <c r="H146" t="str">
         <f t="shared" si="26"/>
         <v>Benjamin Wallisch               \\</v>
       </c>
-      <c r="I146">
+      <c r="J146">
         <f t="shared" si="24"/>
         <v>17</v>
       </c>
-      <c r="J146">
+      <c r="K146">
         <f t="shared" si="25"/>
         <v>15</v>
       </c>
-      <c r="K146" t="str">
+      <c r="L146" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">               </v>
       </c>
     </row>
-    <row r="147" spans="2:11">
+    <row r="147" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>267</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D147" t="s">
+      <c r="E147" t="s">
         <v>154</v>
       </c>
-      <c r="E147" t="s">
+      <c r="F147" t="s">
         <v>269</v>
       </c>
-      <c r="G147" t="str">
+      <c r="H147" t="str">
         <f t="shared" si="26"/>
         <v>Scott Watson                    \\</v>
       </c>
-      <c r="I147">
+      <c r="J147">
         <f t="shared" si="24"/>
         <v>12</v>
       </c>
-      <c r="J147">
+      <c r="K147">
         <f t="shared" si="25"/>
         <v>20</v>
       </c>
-      <c r="K147" t="str">
+      <c r="L147" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">                    </v>
       </c>
     </row>
-    <row r="148" spans="2:11">
+    <row r="148" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>270</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D148" t="s">
+      <c r="E148" t="s">
         <v>154</v>
       </c>
-      <c r="E148" t="s">
+      <c r="F148" t="s">
         <v>57</v>
       </c>
-      <c r="G148" t="str">
+      <c r="H148" t="str">
         <f t="shared" si="26"/>
         <v>Edward J. Wollack               \\</v>
       </c>
-      <c r="I148">
+      <c r="J148">
         <f t="shared" si="24"/>
         <v>17</v>
       </c>
-      <c r="J148">
+      <c r="K148">
         <f t="shared" si="25"/>
         <v>15</v>
       </c>
-      <c r="K148" t="str">
+      <c r="L148" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">               </v>
       </c>
     </row>
-    <row r="149" spans="2:11">
-      <c r="G149" t="str">
+    <row r="149" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="H149" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">                                \\</v>
       </c>
-      <c r="I149">
+      <c r="J149">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="J149">
+      <c r="K149">
         <f t="shared" si="16"/>
         <v>31</v>
       </c>
-      <c r="K149" t="str">
+      <c r="L149" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
-    <row r="150" spans="2:11">
-      <c r="I150">
-        <f>LEN(B141) + LEN(E141) +1</f>
+    <row r="150" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J150">
+        <f>LEN(B141) + LEN(F141) +1</f>
         <v>18</v>
       </c>
-      <c r="J150">
-        <f>IF(I150&lt;30,(32-I150),3)</f>
+      <c r="K150">
+        <f>IF(J150&lt;30,(32-J150),3)</f>
         <v>14</v>
       </c>
-      <c r="K150" t="str">
-        <f>REPT(" ",J150)</f>
+      <c r="L150" t="str">
+        <f>REPT(" ",K150)</f>
         <v xml:space="preserve">              </v>
       </c>
     </row>
-    <row r="151" spans="2:11">
-      <c r="I151">
-        <f>LEN(B143) + LEN(E143) +1</f>
+    <row r="151" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J151">
+        <f>LEN(B143) + LEN(F143) +1</f>
         <v>33</v>
       </c>
-      <c r="J151">
-        <f t="shared" ref="J151:J191" si="27">IF(I151&lt;30,(32-I151),3)</f>
+      <c r="K151">
+        <f t="shared" ref="K151:K163" si="27">IF(J151&lt;30,(32-J151),3)</f>
         <v>3</v>
       </c>
-      <c r="K151" t="str">
-        <f t="shared" ref="K151:K191" si="28">REPT(" ",J151)</f>
+      <c r="L151" t="str">
+        <f t="shared" ref="L151:L191" si="28">REPT(" ",K151)</f>
         <v xml:space="preserve">   </v>
       </c>
     </row>
-    <row r="153" spans="2:11">
-      <c r="I153">
-        <f>LEN(B142) + LEN(E142) +1</f>
+    <row r="153" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J153">
+        <f>LEN(B142) + LEN(F142) +1</f>
         <v>19</v>
       </c>
-      <c r="J153">
+      <c r="K153">
         <f t="shared" si="27"/>
         <v>13</v>
       </c>
-      <c r="K153" t="str">
+      <c r="L153" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">             </v>
       </c>
     </row>
-    <row r="154" spans="2:11">
-      <c r="G154" t="str">
-        <f t="shared" ref="G154:G191" si="29">CONCATENATE(B154," ",C154,K154,"\\")</f>
+    <row r="154" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="H154" t="str">
+        <f t="shared" ref="H154:H163" si="29">CONCATENATE(B154," ",C154,L154,"\\")</f>
         <v xml:space="preserve">                                \\</v>
       </c>
-      <c r="I154">
-        <f t="shared" ref="I154:I191" si="30">LEN(B154) + LEN(C154) +1</f>
+      <c r="J154">
+        <f t="shared" ref="J154:J163" si="30">LEN(B154) + LEN(C154) +1</f>
         <v>1</v>
       </c>
-      <c r="J154">
+      <c r="K154">
         <f t="shared" si="27"/>
         <v>31</v>
       </c>
-      <c r="K154" t="str">
+      <c r="L154" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
-    <row r="155" spans="2:11">
-      <c r="G155" t="str">
+    <row r="155" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="H155" t="str">
         <f t="shared" si="29"/>
         <v xml:space="preserve">                                \\</v>
       </c>
-      <c r="I155">
+      <c r="J155">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="J155">
+      <c r="K155">
         <f t="shared" si="27"/>
         <v>31</v>
       </c>
-      <c r="K155" t="str">
+      <c r="L155" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
-    <row r="156" spans="2:11">
-      <c r="G156" t="str">
+    <row r="156" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="H156" t="str">
         <f t="shared" si="29"/>
         <v xml:space="preserve">                                \\</v>
       </c>
-      <c r="I156">
+      <c r="J156">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="J156">
+      <c r="K156">
         <f t="shared" si="27"/>
         <v>31</v>
       </c>
-      <c r="K156" t="str">
+      <c r="L156" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
-    <row r="157" spans="2:11">
-      <c r="G157" t="str">
+    <row r="157" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="H157" t="str">
         <f t="shared" si="29"/>
         <v xml:space="preserve">                                \\</v>
       </c>
-      <c r="I157">
+      <c r="J157">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="J157">
+      <c r="K157">
         <f t="shared" si="27"/>
         <v>31</v>
       </c>
-      <c r="K157" t="str">
+      <c r="L157" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
-    <row r="158" spans="2:11">
-      <c r="G158" t="str">
+    <row r="158" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="H158" t="str">
         <f t="shared" si="29"/>
         <v xml:space="preserve">                                \\</v>
       </c>
-      <c r="I158">
+      <c r="J158">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="J158">
+      <c r="K158">
         <f t="shared" si="27"/>
         <v>31</v>
       </c>
-      <c r="K158" t="str">
+      <c r="L158" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
-    <row r="159" spans="2:11">
-      <c r="G159" t="str">
+    <row r="159" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="H159" t="str">
         <f t="shared" si="29"/>
         <v xml:space="preserve">                                \\</v>
       </c>
-      <c r="I159">
+      <c r="J159">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="J159">
+      <c r="K159">
         <f t="shared" si="27"/>
         <v>31</v>
       </c>
-      <c r="K159" t="str">
+      <c r="L159" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
-    <row r="160" spans="2:11">
-      <c r="G160" t="str">
+    <row r="160" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="H160" t="str">
         <f t="shared" si="29"/>
         <v xml:space="preserve">                                \\</v>
       </c>
-      <c r="I160">
+      <c r="J160">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="J160">
+      <c r="K160">
         <f t="shared" si="27"/>
         <v>31</v>
       </c>
-      <c r="K160" t="str">
+      <c r="L160" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
-    <row r="161" spans="2:11">
+    <row r="161" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B161" s="1" t="s">
         <v>144</v>
       </c>
       <c r="C161" t="s">
         <v>145</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D161"/>
+      <c r="E161" t="s">
         <v>154</v>
       </c>
-      <c r="G161" t="str">
-        <f>CONCATENATE(B161," ",C161,K161,"\\")</f>
+      <c r="H161" t="str">
+        <f>CONCATENATE(B161," ",C161,L161,"\\")</f>
         <v>Martin White                    \\</v>
       </c>
-      <c r="I161">
+      <c r="J161">
         <f>LEN(B161) + LEN(C161) +1</f>
         <v>12</v>
       </c>
-      <c r="J161">
-        <f>IF(I161&lt;30,(32-I161),3)</f>
+      <c r="K161">
+        <f>IF(J161&lt;30,(32-J161),3)</f>
         <v>20</v>
       </c>
-      <c r="K161" t="str">
-        <f>REPT(" ",J161)</f>
+      <c r="L161" t="str">
+        <f>REPT(" ",K161)</f>
         <v xml:space="preserve">                    </v>
       </c>
     </row>
-    <row r="162" spans="2:11">
-      <c r="G162" t="str">
+    <row r="162" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="H162" t="str">
         <f t="shared" si="29"/>
         <v xml:space="preserve">                                \\</v>
       </c>
-      <c r="I162">
+      <c r="J162">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="J162">
+      <c r="K162">
         <f t="shared" si="27"/>
         <v>31</v>
       </c>
-      <c r="K162" t="str">
+      <c r="L162" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
-    <row r="163" spans="2:11">
-      <c r="G163" t="str">
+    <row r="163" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="H163" t="str">
         <f t="shared" si="29"/>
         <v xml:space="preserve">                                \\</v>
       </c>
-      <c r="I163">
+      <c r="J163">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="J163">
+      <c r="K163">
         <f t="shared" si="27"/>
         <v>31</v>
       </c>
-      <c r="K163" t="str">
+      <c r="L163" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
-    <row r="164" spans="2:11">
-      <c r="K164" t="str">
+    <row r="164" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L164" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
-    <row r="165" spans="2:11">
-      <c r="K165" t="str">
+    <row r="165" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L165" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
-    <row r="166" spans="2:11">
-      <c r="K166" t="str">
+    <row r="166" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L166" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
-    <row r="167" spans="2:11">
+    <row r="167" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B167" s="5"/>
     </row>
-    <row r="168" spans="2:11">
+    <row r="168" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B168" s="5"/>
     </row>
-    <row r="169" spans="2:11">
+    <row r="169" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B169" s="5"/>
-      <c r="K169" t="str">
+      <c r="L169" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
-    <row r="170" spans="2:11">
+    <row r="170" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B170" s="5"/>
-      <c r="K170" t="str">
+      <c r="L170" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
-    <row r="171" spans="2:11">
+    <row r="171" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B171" s="5"/>
     </row>
-    <row r="172" spans="2:11">
+    <row r="172" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B172" s="5"/>
-      <c r="K172" t="str">
+      <c r="L172" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
-    <row r="173" spans="2:11">
+    <row r="173" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B173" s="5"/>
-      <c r="K173" t="str">
+      <c r="L173" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
-    <row r="174" spans="2:11">
+    <row r="174" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B174" s="5"/>
-      <c r="K174" t="str">
+      <c r="L174" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
-    <row r="175" spans="2:11">
-      <c r="K175" t="str">
+    <row r="175" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L175" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
-    <row r="176" spans="2:11">
-      <c r="K176" t="str">
+    <row r="176" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L176" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
-    <row r="177" spans="11:11">
-      <c r="K177" t="str">
+    <row r="177" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L177" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
-    <row r="178" spans="11:11">
-      <c r="K178" t="str">
+    <row r="178" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L178" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
-    <row r="179" spans="11:11">
-      <c r="K179" t="str">
+    <row r="179" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L179" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
-    <row r="180" spans="11:11">
-      <c r="K180" t="str">
+    <row r="180" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L180" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
-    <row r="181" spans="11:11">
-      <c r="K181" t="str">
+    <row r="181" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L181" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
-    <row r="182" spans="11:11">
-      <c r="K182" t="str">
+    <row r="182" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L182" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
-    <row r="183" spans="11:11">
-      <c r="K183" t="str">
+    <row r="183" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L183" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
-    <row r="184" spans="11:11">
-      <c r="K184" t="str">
+    <row r="184" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L184" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
-    <row r="185" spans="11:11">
-      <c r="K185" t="str">
+    <row r="185" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L185" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
-    <row r="186" spans="11:11">
-      <c r="K186" t="str">
+    <row r="186" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L186" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
-    <row r="187" spans="11:11">
-      <c r="K187" t="str">
+    <row r="187" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L187" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
-    <row r="188" spans="11:11">
-      <c r="K188" t="str">
+    <row r="188" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L188" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
-    <row r="189" spans="11:11">
-      <c r="K189" t="str">
+    <row r="189" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L189" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
-    <row r="190" spans="11:11">
-      <c r="K190" t="str">
+    <row r="190" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L190" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
-    <row r="191" spans="11:11">
-      <c r="K191" t="str">
+    <row r="191" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L191" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
-    <row r="203" spans="2:3">
+    <row r="203" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C203"/>
-    </row>
-    <row r="204" spans="2:3">
+      <c r="D203"/>
+    </row>
+    <row r="204" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B204" s="6"/>
     </row>
-    <row r="205" spans="2:3">
+    <row r="205" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C205"/>
-    </row>
-    <row r="206" spans="2:3">
+      <c r="D205"/>
+    </row>
+    <row r="206" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C206"/>
-    </row>
-    <row r="207" spans="2:3">
+      <c r="D206"/>
+    </row>
+    <row r="207" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C207"/>
-    </row>
-    <row r="208" spans="2:3">
+      <c r="D207"/>
+    </row>
+    <row r="208" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C208"/>
-    </row>
-    <row r="209" spans="3:3">
+      <c r="D208"/>
+    </row>
+    <row r="209" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C209"/>
-    </row>
-    <row r="210" spans="3:3">
+      <c r="D209"/>
+    </row>
+    <row r="210" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C210"/>
-    </row>
-    <row r="211" spans="3:3">
+      <c r="D210"/>
+    </row>
+    <row r="211" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C211"/>
-    </row>
-    <row r="212" spans="3:3">
+      <c r="D211"/>
+    </row>
+    <row r="212" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C212"/>
-    </row>
-    <row r="213" spans="3:3">
+      <c r="D212"/>
+    </row>
+    <row r="213" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C213"/>
-    </row>
-    <row r="214" spans="3:3">
+      <c r="D213"/>
+    </row>
+    <row r="214" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C214"/>
+      <c r="D214"/>
     </row>
   </sheetData>
   <sortState ref="B203:C214">

--- a/ReferenceDocuments/ReportAuthors.xlsx
+++ b/ReferenceDocuments/ReportAuthors.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="514">
   <si>
     <t>Report Authors</t>
   </si>
@@ -1496,9 +1496,6 @@
     <t>IRAP, Universit\'e de Toulouse, France</t>
   </si>
   <si>
-    <t>Instituto de F\'isica de Cantabria (CSIC-Universidad de Cantabria), Spain </t>
-  </si>
-  <si>
     <t>School of Physics, Indian Institute of Science Education and Research Thiruvananthapuram,  India</t>
   </si>
   <si>
@@ -1535,24 +1532,15 @@
     <t>University of California, Berkeley &amp;&amp;&amp;&amp;&amp;&amp;&amp; LBNL</t>
   </si>
   <si>
-    <t>Lawrence Berkeley National Laboratory, &amp;&amp;&amp;&amp;&amp;   Space Sciences Laboratory, University of California, Berkeley, CA, USA</t>
-  </si>
-  <si>
     <t>University of California, Berkeley &amp;&amp;&amp;&amp;&amp;&amp; LBNL</t>
   </si>
   <si>
-    <t>7, 20</t>
-  </si>
-  <si>
     <t>1,24</t>
   </si>
   <si>
     <t>26,27</t>
   </si>
   <si>
-    <t>26, 39</t>
-  </si>
-  <si>
     <t>APC - Universit\'e Paris Diderot,  &amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;    JPL - California Institute of Technology</t>
   </si>
   <si>
@@ -1560,6 +1548,45 @@
   </si>
   <si>
     <t>Institut d'Astrophysique Spatiale, CNRS, Univ. Paris-Sud, Universit\'e Paris-Saclay, France</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>8,20</t>
+  </si>
+  <si>
+    <t>26,39</t>
+  </si>
+  <si>
+    <t>San Diego Supercomputer Center, University of California San Diego</t>
+  </si>
+  <si>
+    <t>Lawrence Berkeley National Laboratory, &amp;&amp;&amp;&amp;&amp;   Space Sciences Laboratory, University of California, Berkeley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mark </t>
+  </si>
+  <si>
+    <t>Devlin</t>
+  </si>
+  <si>
+    <t>University of Pennsylvania</t>
+  </si>
+  <si>
+    <t>McMahon</t>
+  </si>
+  <si>
+    <t>University of Michigan</t>
+  </si>
+  <si>
+    <t>Strings not right!!  Don't include EC members not on author list.</t>
+  </si>
+  <si>
+    <t>Instituto de F\'isica de Cantabria (CSIC-Universidad de Cantabria), Spain</t>
+  </si>
+  <si>
+    <t>Universit\`a degli studi di Milano</t>
   </si>
 </sst>
 </file>
@@ -2041,10 +2068,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q205"/>
+  <dimension ref="A1:Q206"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Y26" sqref="Y26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -2108,6 +2135,9 @@
       <c r="B7" t="s">
         <v>270</v>
       </c>
+      <c r="O7" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="B8"/>
@@ -2150,1250 +2180,1260 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="B10" t="s">
-        <v>19</v>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>416</v>
+        <v>7</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>369</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="G10" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="I10" t="str">
         <f>CONCATENATE(B10," ",C10, " $^{", F10,"}$", M10,"\\")</f>
-        <v>James G. Bartlett $^{1,24}$               \\</v>
+        <v>Marcelo Alvarez $^{26,39}$                 \\</v>
       </c>
       <c r="K10">
         <f>LEN(B10) + LEN(C10) +1</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L10">
         <f>IF(K10&lt;30,(32-K10),3)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M10" t="str">
         <f>REPT(" ",L10)</f>
-        <v xml:space="preserve">               </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="O10" t="str">
         <f>CONCATENATE(F10, ". ", G10, ".  \\")</f>
-        <v>1,24. APC - Universit\'e Paris Diderot,  &amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;    JPL - California Institute of Technology.  \\</v>
+        <v>26,39. University of California, Berkeley &amp;&amp;&amp;&amp;&amp;&amp;&amp; LBNL.  \\</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" t="s">
-        <v>428</v>
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
-      <c r="F11">
-        <v>2</v>
+      <c r="F11" t="s">
+        <v>503</v>
       </c>
       <c r="G11" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" ref="I11:I74" si="0">CONCATENATE(B11," ",C11, " $^{", F11,"}$", M11,"\\")</f>
-        <v>Jacques Delabrouille $^{2}$            \\</v>
+        <v>Peter Ashton $^{26,39}$                    \\</v>
       </c>
       <c r="K11">
         <f t="shared" ref="K11:K73" si="1">LEN(B11) + LEN(C11) +1</f>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="L11">
         <f t="shared" ref="L11:L73" si="2">IF(K11&lt;30,(32-K11),3)</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" ref="M11:M73" si="3">REPT(" ",L11)</f>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="O11" t="str">
         <f t="shared" ref="O11:O74" si="4">CONCATENATE(F11, ". ", G11, ".  \\")</f>
-        <v>2. APC, CNRS/IN2P3, Paris, France,    &amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp; DAP, CEA/lrfu, Centre d'Etudes de Saclay, France.  \\</v>
+        <v>26,39. University of California, Berkeley &amp;&amp;&amp;&amp;&amp;&amp; LBNL.  \\</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="B12" s="1" t="s">
-        <v>113</v>
+      <c r="B12" t="s">
+        <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>461</v>
+        <v>413</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>223</v>
+        <v>482</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="0"/>
-        <v>Tim Pearson $^{3}$                     \\</v>
+        <v>Jonathan Aumont $^{22}$                 \\</v>
       </c>
       <c r="K12">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L12">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="O12" t="str">
         <f t="shared" si="4"/>
-        <v>3. California Institute of Technology.  \\</v>
+        <v>22. IRAP, Universit\'e de Toulouse, France.  \\</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="B13" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C13" t="s">
-        <v>300</v>
-      </c>
-      <c r="D13" t="s">
-        <v>432</v>
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="G13" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="0"/>
-        <v>Alexander van Engelen $^{4}$           \\</v>
+        <v>Ranajoy Banerji $^{45}$                 \\</v>
       </c>
       <c r="K13">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L13">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="M13" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">           </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="O13" t="str">
         <f t="shared" si="4"/>
-        <v>4. Canadian Institute for Theoretical Astrophysics, University of Toronto, Canada.  \\</v>
+        <v>45. University of Oslo, Norway.  \\</v>
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="B14" t="s">
-        <v>102</v>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>457</v>
+        <v>415</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G14" t="s">
-        <v>104</v>
+        <v>512</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="0"/>
-        <v>Mattia Negrello $^{5}$                 \\</v>
+        <v>Belen Barreiro $^{21}$                  \\</v>
       </c>
       <c r="K14">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L14">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M14" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">                  </v>
       </c>
       <c r="O14" t="str">
         <f t="shared" si="4"/>
-        <v>5. Cardiff University School of Physics and Astronomy.  \\</v>
+        <v>21. Instituto de F\'isica de Cantabria (CSIC-Universidad de Cantabria), Spain.  \\</v>
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="B15" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" t="s">
-        <v>456</v>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>416</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
       </c>
-      <c r="F15">
-        <v>6</v>
+      <c r="F15" t="s">
+        <v>496</v>
       </c>
       <c r="G15" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="0"/>
-        <v>Jean-Baptiste Melin $^{6}$             \\</v>
+        <v>James G. Bartlett $^{1,24}$               \\</v>
       </c>
       <c r="K15">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L15">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M15" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">             </v>
+        <v xml:space="preserve">               </v>
       </c>
       <c r="O15" t="str">
         <f t="shared" si="4"/>
-        <v>6. CEA Saclay, DRF/Irfu/SPP, France.  \\</v>
+        <v>1,24. APC - Universit\'e Paris Diderot,  &amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;    JPL - California Institute of Technology.  \\</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="B16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>57</v>
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
       </c>
       <c r="F16">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="0"/>
-        <v>Stephen Feeney $^{7}$                  \\</v>
+        <v>Soumen Basak $^{35}$                    \\</v>
       </c>
       <c r="K16">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L16">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M16" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="O16" t="str">
         <f t="shared" si="4"/>
-        <v>7. Center for Computational Astrophysics, Flatiron Institute.  \\</v>
+        <v>35. School of Physics, Indian Institute of Science Education and Research Thiruvananthapuram,  India.  \\</v>
       </c>
     </row>
     <row r="17" spans="2:15">
-      <c r="B17" t="s">
-        <v>83</v>
+      <c r="B17" s="1" t="s">
+        <v>367</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" t="s">
-        <v>448</v>
+        <v>24</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>370</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
       </c>
       <c r="F17">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>373</v>
+        <v>87</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="0"/>
-        <v>Brad Johnson $^{8}$                    \\</v>
+        <v>Nick Battaglia $^{32}$                  \\</v>
       </c>
       <c r="K17">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L17">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M17" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">                  </v>
       </c>
       <c r="O17" t="str">
         <f t="shared" si="4"/>
-        <v>8. Columbia University.  \\</v>
+        <v>32. Princeton University.  \\</v>
       </c>
     </row>
     <row r="18" spans="2:15">
-      <c r="B18" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>446</v>
+      <c r="B18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" t="s">
+        <v>418</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
       </c>
       <c r="F18">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G18" t="s">
-        <v>493</v>
+        <v>110</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="0"/>
-        <v>Ren\'{e}e  Hlo\v{z}ek $^{9}$           \\</v>
+        <v>Jamie Bock $^{24}$                      \\</v>
       </c>
       <c r="K18">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="L18">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M18" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">           </v>
+        <v xml:space="preserve">                      </v>
       </c>
       <c r="O18" t="str">
         <f t="shared" si="4"/>
-        <v>9. Department of Astronomy \&amp; Astrophysics and Dunlap Institute, University of Toronto, Canada.  \\</v>
+        <v>24. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
       </c>
     </row>
     <row r="19" spans="2:15">
       <c r="B19" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" t="s">
-        <v>455</v>
+        <v>322</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>419</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
       </c>
       <c r="F19">
-        <v>10</v>
-      </c>
-      <c r="G19" t="s">
-        <v>341</v>
+        <v>25</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="0"/>
-        <v>Zack Li $^{10}$                         \\</v>
+        <v>Kimberly K. Boddy $^{25}$               \\</v>
       </c>
       <c r="K19">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="L19">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M19" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                         </v>
+        <v xml:space="preserve">               </v>
       </c>
       <c r="O19" t="str">
         <f t="shared" si="4"/>
-        <v>10. Department of Astrophysical Sciences, Princeton University.  \\</v>
+        <v>25. Johns Hopkins University.  \\</v>
       </c>
     </row>
     <row r="20" spans="2:15">
-      <c r="B20" s="1" t="s">
-        <v>98</v>
+      <c r="B20" t="s">
+        <v>26</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>99</v>
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>420</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
       </c>
       <c r="F20">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>341</v>
+        <v>484</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="0"/>
-        <v>Mathew Madhavacheril $^{10}$            \\</v>
+        <v>Matteo Bonato $^{14}$                   \\</v>
       </c>
       <c r="K20">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L20">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M20" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                   </v>
       </c>
       <c r="O20" t="str">
         <f t="shared" si="4"/>
-        <v>10. Department of Astrophysical Sciences, Princeton University.  \\</v>
+        <v>14. INAF-Istituto di Radioastronomia and Italian ALMA Regional Centre, Italy.  \\</v>
       </c>
     </row>
     <row r="21" spans="2:15">
-      <c r="B21" t="s">
-        <v>287</v>
-      </c>
-      <c r="C21" t="s">
-        <v>306</v>
-      </c>
-      <c r="D21"/>
+      <c r="B21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>421</v>
+      </c>
       <c r="E21" t="s">
         <v>8</v>
       </c>
-      <c r="F21">
-        <v>11</v>
+      <c r="F21" t="s">
+        <v>497</v>
       </c>
       <c r="G21" t="s">
-        <v>275</v>
+        <v>505</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="0"/>
-        <v>Marcos L\'{o}pez-Caniego $^{11}$        \\</v>
+        <v>Julian Borrill $^{26,27}$                  \\</v>
       </c>
       <c r="K21">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="L21">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M21" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">        </v>
+        <v xml:space="preserve">                  </v>
       </c>
       <c r="O21" t="str">
         <f t="shared" si="4"/>
-        <v>11. European Space Astronomy Centre.  \\</v>
+        <v>26,27. Lawrence Berkeley National Laboratory, &amp;&amp;&amp;&amp;&amp;   Space Sciences Laboratory, University of California, Berkeley.  \\</v>
       </c>
     </row>
     <row r="22" spans="2:15">
-      <c r="B22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="B22" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C22" t="s">
+        <v>186</v>
+      </c>
+      <c r="D22"/>
       <c r="E22" t="s">
         <v>8</v>
       </c>
       <c r="F22">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>128</v>
+        <v>480</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="0"/>
-        <v>Ian Stephens $^{13}$                    \\</v>
+        <v>Fran\c{c}ois Bouchet $^{18}$            \\</v>
       </c>
       <c r="K22">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L22">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M22" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">            </v>
       </c>
       <c r="O22" t="str">
         <f t="shared" si="4"/>
-        <v>13. Harvard-Smithsonian Center for Astrophysics.  \\</v>
+        <v>18. Institut d'Astrophysique de Paris, France.  \\</v>
       </c>
     </row>
     <row r="23" spans="2:15">
-      <c r="B23" t="s">
-        <v>26</v>
+      <c r="B23" s="1" t="s">
+        <v>305</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>420</v>
+        <v>31</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>422</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
       </c>
       <c r="F23">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G23" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="0"/>
-        <v>Matteo Bonato $^{14}$                   \\</v>
+        <v>Fran\c{c}ois Boulanger $^{17}$          \\</v>
       </c>
       <c r="K23">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="L23">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="M23" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">          </v>
       </c>
       <c r="O23" t="str">
         <f t="shared" si="4"/>
-        <v>14. INAF-Istituto di Radioastronomia and Italian ALMA Regional Centre, Italy.  \\</v>
+        <v>17. Institut d'Astrophysique Spatiale, Orsay, France.  \\</v>
       </c>
     </row>
     <row r="24" spans="2:15">
       <c r="B24" t="s">
-        <v>303</v>
+        <v>32</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>302</v>
+        <v>33</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>474</v>
+        <v>423</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
       </c>
       <c r="F24">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="0"/>
-        <v>Gianfranco De Zotti $^{15}$             \\</v>
+        <v>Blakesley Burkhart $^{33}$              \\</v>
       </c>
       <c r="K24">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L24">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M24" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">             </v>
+        <v xml:space="preserve">              </v>
       </c>
       <c r="O24" t="str">
         <f t="shared" si="4"/>
-        <v>15. INAF-Osservatorio Astronomico di Padova, Italy.  \\</v>
+        <v>33. Rutgers.  \\</v>
       </c>
     </row>
     <row r="25" spans="2:15">
-      <c r="B25" s="1" t="s">
-        <v>136</v>
+      <c r="B25" t="s">
+        <v>170</v>
       </c>
       <c r="C25" t="s">
-        <v>137</v>
-      </c>
-      <c r="D25"/>
+        <v>171</v>
+      </c>
+      <c r="D25" t="s">
+        <v>424</v>
+      </c>
       <c r="E25" t="s">
         <v>8</v>
       </c>
       <c r="F25">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G25" t="s">
-        <v>504</v>
+        <v>481</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" si="0"/>
-        <v>Flavien Vansyngel $^{16}$               \\</v>
+        <v>Jens Chluba $^{23}$                     \\</v>
       </c>
       <c r="K25">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L25">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M25" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">               </v>
+        <v xml:space="preserve">                     </v>
       </c>
       <c r="O25" t="str">
         <f t="shared" si="4"/>
-        <v>16. Institut d'Astrophysique Spatiale, CNRS, Univ. Paris-Sud, Universit\'e Paris-Saclay, France.  \\</v>
+        <v>23. JBCA, University of Manchester.  \\</v>
       </c>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="1" t="s">
-        <v>305</v>
+        <v>35</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
       </c>
       <c r="F26">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="G26" t="s">
-        <v>503</v>
+        <v>331</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="0"/>
-        <v>Fran\c{c}ois Boulanger $^{17}$          \\</v>
+        <v>David Chuss $^{48}$                     \\</v>
       </c>
       <c r="K26">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L26">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="M26" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">          </v>
+        <v xml:space="preserve">                     </v>
       </c>
       <c r="O26" t="str">
         <f t="shared" si="4"/>
-        <v>17. Institut d'Astrophysique Spatiale, Orsay, France.  \\</v>
+        <v>48. Villanova University.  \\</v>
       </c>
     </row>
     <row r="27" spans="2:15">
-      <c r="B27" s="1" t="s">
-        <v>305</v>
+      <c r="B27" t="s">
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>186</v>
+        <v>38</v>
       </c>
       <c r="D27"/>
       <c r="E27" t="s">
         <v>8</v>
       </c>
       <c r="F27">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G27" t="s">
-        <v>480</v>
+        <v>343</v>
       </c>
       <c r="I27" t="str">
         <f t="shared" si="0"/>
-        <v>Fran\c{c}ois Bouchet $^{18}$            \\</v>
+        <v>Susan E. Clark $^{20}$                  \\</v>
       </c>
       <c r="K27">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L27">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M27" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                  </v>
       </c>
       <c r="O27" t="str">
         <f t="shared" si="4"/>
-        <v>18. Institut d'Astrophysique de Paris, France.  \\</v>
+        <v>20. Institute for Advanced Study, Princeton.  \\</v>
       </c>
     </row>
     <row r="28" spans="2:15">
-      <c r="B28" t="s">
-        <v>77</v>
+      <c r="B28" s="1" t="s">
+        <v>362</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>78</v>
+        <v>363</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="E28" t="s">
         <v>8</v>
       </c>
       <c r="F28">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G28" t="s">
-        <v>480</v>
+        <v>110</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="0"/>
-        <v>Eric Hivon $^{18}$                      \\</v>
+        <v>Joelle Cooperrider $^{24}$              \\</v>
       </c>
       <c r="K28">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="L28">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="M28" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                      </v>
+        <v xml:space="preserve">              </v>
       </c>
       <c r="O28" t="str">
         <f t="shared" si="4"/>
-        <v>18. Institut d'Astrophysique de Paris, France.  \\</v>
+        <v>24. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
       </c>
     </row>
     <row r="29" spans="2:15">
       <c r="B29" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
       </c>
       <c r="F29">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G29" t="s">
-        <v>487</v>
+        <v>110</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" si="0"/>
-        <v>Josquin Errard $^{19}$                  \\</v>
+        <v>Brendan Crill $^{24}$                   \\</v>
       </c>
       <c r="K29">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L29">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M29" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                   </v>
       </c>
       <c r="O29" t="str">
         <f t="shared" si="4"/>
-        <v>19. Institut Lagrange, LPNHE,  Paris, France.  \\</v>
+        <v>24. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
       </c>
     </row>
     <row r="30" spans="2:15">
-      <c r="B30" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>76</v>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
       </c>
       <c r="D30" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G30" t="s">
-        <v>338</v>
+        <v>493</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="0"/>
-        <v>Colin Hill $^{7, 20}$                      \\</v>
+        <v>Jacques Delabrouille $^{2,3}$            \\</v>
       </c>
       <c r="K30">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L30">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="M30" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                      </v>
+        <v xml:space="preserve">            </v>
       </c>
       <c r="O30" t="str">
         <f t="shared" si="4"/>
-        <v>7, 20. Institute for Advanced Study, Flatiron Institute.  \\</v>
+        <v>2,3. APC, CNRS/IN2P3, Paris, France,    &amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp; DAP, CEA/lrfu, Centre d'Etudes de Saclay, France.  \\</v>
       </c>
     </row>
     <row r="31" spans="2:15">
       <c r="B31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31"/>
+        <v>45</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>429</v>
+      </c>
       <c r="E31" t="s">
         <v>8</v>
       </c>
       <c r="F31">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s">
-        <v>343</v>
+        <v>47</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="0"/>
-        <v>Susan E. Clark $^{20}$                  \\</v>
+        <v>Eleonora Di Valentino $^{43}$           \\</v>
       </c>
       <c r="K31">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L31">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="M31" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">           </v>
       </c>
       <c r="O31" t="str">
         <f t="shared" si="4"/>
-        <v>20. Institute for Advanced Study, Princeton.  \\</v>
+        <v>43. University of Manchester.  \\</v>
       </c>
     </row>
     <row r="32" spans="2:15">
       <c r="B32" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="E32" t="s">
         <v>8</v>
       </c>
       <c r="F32">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="G32" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="0"/>
-        <v>Vera Gluscevic $^{20}$                  \\</v>
+        <v>Joy Didier $^{46}$                      \\</v>
       </c>
       <c r="K32">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L32">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M32" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                      </v>
       </c>
       <c r="O32" t="str">
         <f t="shared" si="4"/>
-        <v>20. Institute for Advanced Study, Princeton.  \\</v>
+        <v>46. University of Southern California.  \\</v>
       </c>
     </row>
     <row r="33" spans="2:15">
-      <c r="B33" s="1" t="s">
-        <v>124</v>
+      <c r="B33" t="s">
+        <v>50</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>125</v>
+        <v>304</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>466</v>
+        <v>431</v>
       </c>
       <c r="E33" t="s">
         <v>8</v>
       </c>
       <c r="F33">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G33" t="s">
-        <v>343</v>
+        <v>110</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" si="0"/>
-        <v>Marcel Schmittfull $^{20}$              \\</v>
+        <v>Olivier Dor\'e $^{24}$                  \\</v>
       </c>
       <c r="K33">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L33">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M33" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">              </v>
+        <v xml:space="preserve">                  </v>
       </c>
       <c r="O33" t="str">
         <f t="shared" si="4"/>
-        <v>20. Institute for Advanced Study, Princeton.  \\</v>
+        <v>24. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
       </c>
     </row>
     <row r="34" spans="2:15">
       <c r="B34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>415</v>
+        <v>301</v>
+      </c>
+      <c r="C34" t="s">
+        <v>300</v>
+      </c>
+      <c r="D34" t="s">
+        <v>432</v>
       </c>
       <c r="E34" t="s">
         <v>8</v>
       </c>
       <c r="F34">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="G34" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" si="0"/>
-        <v>Belen Barreiro $^{21}$                  \\</v>
+        <v>Alexander van Engelen $^{5}$           \\</v>
       </c>
       <c r="K34">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L34">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="M34" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">           </v>
       </c>
       <c r="O34" t="str">
         <f t="shared" si="4"/>
-        <v>21. Instituto de F\'isica de Cantabria (CSIC-Universidad de Cantabria), Spain .  \\</v>
+        <v>5. Canadian Institute for Theoretical Astrophysics, University of Toronto, Canada.  \\</v>
       </c>
     </row>
     <row r="35" spans="2:15">
-      <c r="B35" t="s">
-        <v>72</v>
+      <c r="B35" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>73</v>
+        <v>52</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>433</v>
       </c>
       <c r="E35" t="s">
         <v>8</v>
       </c>
       <c r="F35">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G35" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="0"/>
-        <v>Diego Herranz $^{21}$                   \\</v>
+        <v>Josquin Errard $^{19}$                  \\</v>
       </c>
       <c r="K35">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L35">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M35" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">                  </v>
       </c>
       <c r="O35" t="str">
         <f t="shared" si="4"/>
-        <v>21. Instituto de F\'isica de Cantabria (CSIC-Universidad de Cantabria), Spain .  \\</v>
+        <v>19. Institut Lagrange, LPNHE,  Paris, France.  \\</v>
       </c>
     </row>
     <row r="36" spans="2:15">
       <c r="B36" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>413</v>
+        <v>434</v>
       </c>
       <c r="E36" t="s">
         <v>8</v>
       </c>
       <c r="F36">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G36" t="s">
-        <v>482</v>
+        <v>55</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" si="0"/>
-        <v>Jonathan Aumont $^{22}$                 \\</v>
+        <v>Tom Essinger-Hileman $^{28}$            \\</v>
       </c>
       <c r="K36">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L36">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="M36" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">            </v>
       </c>
       <c r="O36" t="str">
         <f t="shared" si="4"/>
-        <v>22. IRAP, Universit\'e de Toulouse, France.  \\</v>
+        <v>28. NASA Goddard Space Flight Center.  \\</v>
       </c>
     </row>
     <row r="37" spans="2:15">
-      <c r="B37" t="s">
-        <v>170</v>
-      </c>
-      <c r="C37" t="s">
-        <v>171</v>
+      <c r="B37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D37" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>
       </c>
       <c r="F37">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="G37" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" si="0"/>
-        <v>Jens Chluba $^{23}$                     \\</v>
+        <v>Stephen Feeney $^{8}$                  \\</v>
       </c>
       <c r="K37">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L37">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M37" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                  </v>
       </c>
       <c r="O37" t="str">
         <f t="shared" si="4"/>
-        <v>23. JBCA, University of Manchester.  \\</v>
+        <v>8. Center for Computational Astrophysics, Flatiron Institute.  \\</v>
       </c>
     </row>
     <row r="38" spans="2:15">
       <c r="B38" t="s">
-        <v>163</v>
+        <v>295</v>
       </c>
       <c r="C38" t="s">
-        <v>164</v>
+        <v>296</v>
       </c>
       <c r="D38" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="E38" t="s">
         <v>8</v>
       </c>
       <c r="F38">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s">
-        <v>110</v>
+        <v>280</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" si="0"/>
-        <v>Jamie Bock $^{24}$                      \\</v>
+        <v>Jeffrey Filippini $^{42}$               \\</v>
       </c>
       <c r="K38">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L38">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M38" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                      </v>
+        <v xml:space="preserve">               </v>
       </c>
       <c r="O38" t="str">
         <f t="shared" si="4"/>
-        <v>24. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
+        <v>42. University of Illinois, Urbana-Champaign.  \\</v>
       </c>
     </row>
     <row r="39" spans="2:15">
-      <c r="B39" s="1" t="s">
-        <v>362</v>
+      <c r="B39" t="s">
+        <v>58</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>363</v>
+        <v>59</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="E39" t="s">
         <v>8</v>
       </c>
       <c r="F39">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="I39" t="str">
         <f t="shared" si="0"/>
-        <v>Joelle Cooperrider $^{24}$              \\</v>
+        <v>Laura Fissel $^{30}$                    \\</v>
       </c>
       <c r="K39">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L39">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M39" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">              </v>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="O39" t="str">
         <f t="shared" si="4"/>
-        <v>24. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
+        <v>30. National Radio Astronomy Observatory.  \\</v>
       </c>
     </row>
     <row r="40" spans="2:15">
-      <c r="B40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="B40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" t="s">
+        <v>438</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40">
         <v>41</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="E40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40">
-        <v>24</v>
-      </c>
       <c r="G40" t="s">
-        <v>110</v>
+        <v>488</v>
       </c>
       <c r="I40" t="str">
         <f t="shared" si="0"/>
-        <v>Brendan Crill $^{24}$                   \\</v>
+        <v>Raphael Flauger $^{41}$                 \\</v>
       </c>
       <c r="K40">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L40">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M40" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="O40" t="str">
         <f t="shared" si="4"/>
-        <v>24. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
+        <v>41. University of California, San Diego.  \\</v>
       </c>
     </row>
     <row r="41" spans="2:15">
-      <c r="B41" t="s">
-        <v>50</v>
+      <c r="B41" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>304</v>
+        <v>65</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="E41" t="s">
         <v>8</v>
       </c>
       <c r="F41">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G41" t="s">
-        <v>110</v>
+        <v>343</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" si="0"/>
-        <v>Olivier Dor\'e $^{24}$                  \\</v>
+        <v>Vera Gluscevic $^{20}$                  \\</v>
       </c>
       <c r="K41">
         <f t="shared" si="1"/>
@@ -3409,7 +3449,7 @@
       </c>
       <c r="O41" t="str">
         <f t="shared" si="4"/>
-        <v>24. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
+        <v>20. Institute for Advanced Study, Princeton.  \\</v>
       </c>
     </row>
     <row r="42" spans="2:15">
@@ -3454,626 +3494,621 @@
     </row>
     <row r="43" spans="2:15">
       <c r="B43" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43" t="s">
-        <v>453</v>
+        <v>68</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>441</v>
       </c>
       <c r="E43" t="s">
         <v>8</v>
       </c>
       <c r="F43">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="G43" t="s">
-        <v>110</v>
+        <v>337</v>
       </c>
       <c r="I43" t="str">
         <f t="shared" si="0"/>
-        <v>Charles Lawrence $^{24}$                \\</v>
+        <v>Dan Green $^{39}$                       \\</v>
       </c>
       <c r="K43">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="L43">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M43" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                </v>
+        <v xml:space="preserve">                       </v>
       </c>
       <c r="O43" t="str">
         <f t="shared" si="4"/>
-        <v>24. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
+        <v>39. University of California, Berkeley.  \\</v>
       </c>
     </row>
     <row r="44" spans="2:15">
-      <c r="B44" t="s">
-        <v>108</v>
+      <c r="B44" s="1" t="s">
+        <v>411</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>459</v>
+        <v>412</v>
+      </c>
+      <c r="D44" t="s">
+        <v>442</v>
       </c>
       <c r="E44" t="s">
         <v>8</v>
       </c>
       <c r="F44">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="G44" t="s">
-        <v>110</v>
+        <v>410</v>
       </c>
       <c r="I44" t="str">
         <f t="shared" si="0"/>
-        <v>Roger O'Brient $^{24}$                  \\</v>
+        <v>Shaul Hanany $^{44}$                    \\</v>
       </c>
       <c r="K44">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L44">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M44" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="O44" t="str">
         <f t="shared" si="4"/>
-        <v>24. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
+        <v>44. University of Minnesota - Twin Cities.  \\</v>
       </c>
     </row>
     <row r="45" spans="2:15">
       <c r="B45" s="1" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>
       </c>
       <c r="F45">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G45" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="I45" t="str">
         <f t="shared" si="0"/>
-        <v>Chris Paine $^{24}$                     \\</v>
+        <v>Brandon Hensley $^{32}$                 \\</v>
       </c>
       <c r="K45">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L45">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M45" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="O45" t="str">
         <f t="shared" si="4"/>
-        <v>24. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
+        <v>32. Princeton University.  \\</v>
       </c>
     </row>
     <row r="46" spans="2:15">
       <c r="B46" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>465</v>
+        <v>73</v>
       </c>
       <c r="E46" t="s">
         <v>8</v>
       </c>
       <c r="F46">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G46" t="s">
-        <v>110</v>
+        <v>512</v>
       </c>
       <c r="I46" t="str">
         <f t="shared" si="0"/>
-        <v>Graca Rocha $^{24}$                     \\</v>
+        <v>Diego Herranz $^{21}$                   \\</v>
       </c>
       <c r="K46">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L46">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M46" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                   </v>
       </c>
       <c r="O46" t="str">
         <f t="shared" si="4"/>
-        <v>24. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
+        <v>21. Instituto de F\'isica de Cantabria (CSIC-Universidad de Cantabria), Spain.  \\</v>
       </c>
     </row>
     <row r="47" spans="2:15">
       <c r="B47" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C47" t="s">
-        <v>130</v>
+        <v>75</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="D47" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="E47" t="s">
         <v>8</v>
       </c>
-      <c r="F47">
-        <v>24</v>
+      <c r="F47" t="s">
+        <v>502</v>
       </c>
       <c r="G47" t="s">
-        <v>110</v>
+        <v>338</v>
       </c>
       <c r="I47" t="str">
         <f t="shared" si="0"/>
-        <v>Brian Sutin $^{24}$                     \\</v>
+        <v>Colin Hill $^{8,20}$                      \\</v>
       </c>
       <c r="K47">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L47">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M47" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                      </v>
       </c>
       <c r="O47" t="str">
         <f t="shared" si="4"/>
-        <v>24. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
+        <v>8,20. Institute for Advanced Study, Flatiron Institute.  \\</v>
       </c>
     </row>
     <row r="48" spans="2:15">
-      <c r="B48" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" t="s">
-        <v>135</v>
-      </c>
-      <c r="D48" t="s">
-        <v>470</v>
+      <c r="B48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>445</v>
       </c>
       <c r="E48" t="s">
         <v>8</v>
       </c>
       <c r="F48">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G48" t="s">
-        <v>110</v>
+        <v>480</v>
       </c>
       <c r="I48" t="str">
         <f t="shared" si="0"/>
-        <v>Amy Trangsrud $^{24}$                   \\</v>
+        <v>Eric Hivon $^{18}$                      \\</v>
       </c>
       <c r="K48">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L48">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M48" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">                      </v>
       </c>
       <c r="O48" t="str">
         <f t="shared" si="4"/>
-        <v>24. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
+        <v>18. Institut d'Astrophysique de Paris, France.  \\</v>
       </c>
     </row>
     <row r="49" spans="2:15">
       <c r="B49" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>25</v>
+        <v>324</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>419</v>
+        <v>446</v>
       </c>
       <c r="E49" t="s">
         <v>8</v>
       </c>
       <c r="F49">
-        <v>25</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>201</v>
+        <v>10</v>
+      </c>
+      <c r="G49" t="s">
+        <v>492</v>
       </c>
       <c r="I49" t="str">
         <f t="shared" si="0"/>
-        <v>Kimberly K. Boddy $^{25}$               \\</v>
+        <v>Ren\'{e}e  Hlo\v{z}ek $^{10}$           \\</v>
       </c>
       <c r="K49">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L49">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M49" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">               </v>
+        <v xml:space="preserve">           </v>
       </c>
       <c r="O49" t="str">
         <f t="shared" si="4"/>
-        <v>25. Johns Hopkins University.  \\</v>
+        <v>10. Department of Astronomy \&amp; Astrophysics and Dunlap Institute, University of Toronto, Canada.  \\</v>
       </c>
     </row>
     <row r="50" spans="2:15">
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50">
         <v>29</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="E50" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" t="s">
-        <v>500</v>
-      </c>
       <c r="G50" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="I50" t="str">
         <f t="shared" si="0"/>
-        <v>Julian Borrill $^{26,27}$                  \\</v>
+        <v>Johannes Hubmayr $^{29}$                \\</v>
       </c>
       <c r="K50">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L50">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M50" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                </v>
       </c>
       <c r="O50" t="str">
         <f t="shared" si="4"/>
-        <v>26,27. Lawrence Berkeley National Laboratory, &amp;&amp;&amp;&amp;&amp;   Space Sciences Laboratory, University of California, Berkeley, CA, USA.  \\</v>
+        <v>29. National Institute of Standards and Technology.  \\</v>
       </c>
     </row>
     <row r="51" spans="2:15">
       <c r="B51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>434</v>
+        <v>83</v>
+      </c>
+      <c r="C51" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" t="s">
+        <v>448</v>
       </c>
       <c r="E51" t="s">
         <v>8</v>
       </c>
       <c r="F51">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G51" t="s">
-        <v>55</v>
+        <v>373</v>
       </c>
       <c r="I51" t="str">
         <f t="shared" si="0"/>
-        <v>Tom Essinger-Hileman $^{28}$            \\</v>
+        <v>Brad Johnson $^{9}$                    \\</v>
       </c>
       <c r="K51">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="L51">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M51" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="O51" t="str">
         <f t="shared" si="4"/>
-        <v>28. NASA Goddard Space Flight Center.  \\</v>
+        <v>9. Columbia University.  \\</v>
       </c>
     </row>
     <row r="52" spans="2:15">
-      <c r="B52" s="1" t="s">
-        <v>90</v>
+      <c r="B52" t="s">
+        <v>88</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E52" t="s">
         <v>8</v>
       </c>
       <c r="F52">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G52" t="s">
-        <v>55</v>
+        <v>410</v>
       </c>
       <c r="I52" t="str">
         <f t="shared" si="0"/>
-        <v>Al Kogut $^{28}$                        \\</v>
+        <v>Terry Jones $^{44}$                     \\</v>
       </c>
       <c r="K52">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L52">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M52" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                        </v>
+        <v xml:space="preserve">                     </v>
       </c>
       <c r="O52" t="str">
         <f t="shared" si="4"/>
-        <v>28. NASA Goddard Space Flight Center.  \\</v>
+        <v>44. University of Minnesota - Twin Cities.  \\</v>
       </c>
     </row>
     <row r="53" spans="2:15">
       <c r="B53" t="s">
-        <v>80</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>447</v>
+        <v>85</v>
+      </c>
+      <c r="C53" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" t="s">
+        <v>449</v>
       </c>
       <c r="E53" t="s">
         <v>8</v>
       </c>
       <c r="F53">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G53" t="s">
-        <v>490</v>
+        <v>87</v>
       </c>
       <c r="I53" t="str">
         <f t="shared" si="0"/>
-        <v>Johannes Hubmayr $^{29}$                \\</v>
+        <v>William Jones $^{32}$                   \\</v>
       </c>
       <c r="K53">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L53">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M53" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                </v>
+        <v xml:space="preserve">                   </v>
       </c>
       <c r="O53" t="str">
         <f t="shared" si="4"/>
-        <v>29. National Institute of Standards and Technology.  \\</v>
+        <v>32. Princeton University.  \\</v>
       </c>
     </row>
     <row r="54" spans="2:15">
-      <c r="B54" t="s">
-        <v>58</v>
+      <c r="B54" s="1" t="s">
+        <v>307</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="E54" t="s">
         <v>8</v>
       </c>
       <c r="F54">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G54" t="s">
-        <v>60</v>
+        <v>490</v>
       </c>
       <c r="I54" t="str">
         <f t="shared" si="0"/>
-        <v>Laura Fissel $^{30}$                    \\</v>
+        <v>Lloyd Knox $^{40}$                      \\</v>
       </c>
       <c r="K54">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L54">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M54" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">                      </v>
       </c>
       <c r="O54" t="str">
         <f t="shared" si="4"/>
-        <v>30. National Radio Astronomy Observatory.  \\</v>
+        <v>40. University of California, Davis.  \\</v>
       </c>
     </row>
     <row r="55" spans="2:15">
-      <c r="B55" t="s">
-        <v>105</v>
-      </c>
-      <c r="C55" t="s">
-        <v>106</v>
-      </c>
-      <c r="D55" t="s">
-        <v>458</v>
+      <c r="B55" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>452</v>
       </c>
       <c r="E55" t="s">
         <v>8</v>
       </c>
       <c r="F55">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G55" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="I55" t="str">
         <f t="shared" si="0"/>
-        <v>Giles Novak $^{31}$                     \\</v>
+        <v>Al Kogut $^{28}$                        \\</v>
       </c>
       <c r="K55">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L55">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M55" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                        </v>
       </c>
       <c r="O55" t="str">
         <f t="shared" si="4"/>
-        <v>31. Northwestern University.  \\</v>
+        <v>28. NASA Goddard Space Flight Center.  \\</v>
       </c>
     </row>
     <row r="56" spans="2:15">
-      <c r="B56" s="1" t="s">
-        <v>367</v>
+      <c r="B56" t="s">
+        <v>287</v>
       </c>
       <c r="C56" t="s">
-        <v>24</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>370</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="D56"/>
       <c r="E56" t="s">
         <v>8</v>
       </c>
       <c r="F56">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G56" t="s">
-        <v>87</v>
+        <v>275</v>
       </c>
       <c r="I56" t="str">
         <f t="shared" si="0"/>
-        <v>Nick Battaglia $^{32}$                  \\</v>
+        <v>Marcos L\'{o}pez-Caniego $^{12}$        \\</v>
       </c>
       <c r="K56">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L56">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="M56" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">        </v>
       </c>
       <c r="O56" t="str">
         <f t="shared" si="4"/>
-        <v>32. Princeton University.  \\</v>
+        <v>12. European Space Astronomy Centre.  \\</v>
       </c>
     </row>
     <row r="57" spans="2:15">
       <c r="B57" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>443</v>
+        <v>92</v>
+      </c>
+      <c r="C57" t="s">
+        <v>93</v>
+      </c>
+      <c r="D57" t="s">
+        <v>453</v>
       </c>
       <c r="E57" t="s">
         <v>8</v>
       </c>
       <c r="F57">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G57" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="I57" t="str">
         <f t="shared" si="0"/>
-        <v>Brandon Hensley $^{32}$                 \\</v>
+        <v>Charles Lawrence $^{24}$                \\</v>
       </c>
       <c r="K57">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L57">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M57" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">                </v>
       </c>
       <c r="O57" t="str">
         <f t="shared" si="4"/>
-        <v>32. Princeton University.  \\</v>
+        <v>24. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
       </c>
     </row>
     <row r="58" spans="2:15">
-      <c r="B58" t="s">
-        <v>85</v>
+      <c r="B58" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="C58" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D58" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="E58" t="s">
         <v>8</v>
       </c>
       <c r="F58">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G58" t="s">
-        <v>87</v>
+        <v>340</v>
       </c>
       <c r="I58" t="str">
         <f t="shared" si="0"/>
-        <v>William Jones $^{32}$                   \\</v>
+        <v>Alex Lazarian $^{47}$                   \\</v>
       </c>
       <c r="K58">
         <f t="shared" si="1"/>
@@ -4089,388 +4124,388 @@
       </c>
       <c r="O58" t="str">
         <f t="shared" si="4"/>
-        <v>32. Princeton University.  \\</v>
+        <v>47. University of Wisconsin - Madison.  \\</v>
       </c>
     </row>
     <row r="59" spans="2:15">
-      <c r="B59" t="s">
-        <v>32</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>423</v>
+      <c r="B59" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" t="s">
+        <v>97</v>
+      </c>
+      <c r="D59" t="s">
+        <v>455</v>
       </c>
       <c r="E59" t="s">
         <v>8</v>
       </c>
       <c r="F59">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="G59" t="s">
-        <v>34</v>
+        <v>341</v>
       </c>
       <c r="I59" t="str">
         <f t="shared" si="0"/>
-        <v>Blakesley Burkhart $^{33}$              \\</v>
+        <v>Zack Li $^{11}$                         \\</v>
       </c>
       <c r="K59">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="L59">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="M59" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">              </v>
+        <v xml:space="preserve">                         </v>
       </c>
       <c r="O59" t="str">
         <f t="shared" si="4"/>
-        <v>33. Rutgers.  \\</v>
+        <v>11. Department of Astrophysical Sciences, Princeton University.  \\</v>
       </c>
     </row>
     <row r="60" spans="2:15">
-      <c r="B60" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C60" t="s">
-        <v>147</v>
-      </c>
-      <c r="D60" t="s">
-        <v>472</v>
+      <c r="B60" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="E60" t="s">
         <v>8</v>
       </c>
       <c r="F60">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="G60" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="I60" t="str">
         <f t="shared" si="0"/>
-        <v>Andrea Zonca $^{34}$                    \\</v>
+        <v>Mathew Madhavacheril $^{11}$            \\</v>
       </c>
       <c r="K60">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L60">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M60" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">            </v>
       </c>
       <c r="O60" t="str">
         <f t="shared" si="4"/>
-        <v>34. San Diego Supercomputer Center, UC San Diego.  \\</v>
+        <v>11. Department of Astrophysical Sciences, Princeton University.  \\</v>
       </c>
     </row>
     <row r="61" spans="2:15">
       <c r="B61" s="1" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="C61" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="D61" t="s">
-        <v>417</v>
+        <v>456</v>
       </c>
       <c r="E61" t="s">
         <v>8</v>
       </c>
       <c r="F61">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="G61" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="I61" t="str">
         <f t="shared" si="0"/>
-        <v>Soumen Basak $^{35}$                    \\</v>
+        <v>Jean-Baptiste Melin $^{7}$             \\</v>
       </c>
       <c r="K61">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L61">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M61" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">             </v>
       </c>
       <c r="O61" t="str">
         <f t="shared" si="4"/>
-        <v>35. School of Physics, Indian Institute of Science Education and Research Thiruvananthapuram,  India.  \\</v>
+        <v>7. CEA Saclay, DRF/Irfu/SPP, France.  \\</v>
       </c>
     </row>
     <row r="62" spans="2:15">
       <c r="B62" t="s">
-        <v>115</v>
-      </c>
-      <c r="C62" t="s">
-        <v>116</v>
-      </c>
-      <c r="D62" t="s">
-        <v>462</v>
+        <v>102</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>457</v>
       </c>
       <c r="E62" t="s">
         <v>8</v>
       </c>
       <c r="F62">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="G62" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="I62" t="str">
         <f t="shared" si="0"/>
-        <v>Levon Pogosian $^{36}$                  \\</v>
+        <v>Mattia Negrello $^{6}$                 \\</v>
       </c>
       <c r="K62">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L62">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M62" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="O62" t="str">
         <f t="shared" si="4"/>
-        <v>36. Simon Fraser University.  \\</v>
+        <v>6. Cardiff University School of Physics and Astronomy.  \\</v>
       </c>
     </row>
     <row r="63" spans="2:15">
       <c r="B63" t="s">
-        <v>131</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>469</v>
+        <v>105</v>
+      </c>
+      <c r="C63" t="s">
+        <v>106</v>
+      </c>
+      <c r="D63" t="s">
+        <v>458</v>
       </c>
       <c r="E63" t="s">
         <v>8</v>
       </c>
       <c r="F63">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="I63" t="str">
         <f t="shared" si="0"/>
-        <v>Maurizio Tomasi $^{37}$                 \\</v>
+        <v>Giles Novak $^{31}$                     \\</v>
       </c>
       <c r="K63">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L63">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M63" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">                     </v>
       </c>
       <c r="O63" t="str">
         <f t="shared" si="4"/>
-        <v>37. Università degli studi di Milano.  \\</v>
+        <v>31. Northwestern University.  \\</v>
       </c>
     </row>
     <row r="64" spans="2:15">
-      <c r="B64" s="1" t="s">
-        <v>309</v>
+      <c r="B64" t="s">
+        <v>108</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>262</v>
+        <v>109</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="E64" t="s">
         <v>8</v>
       </c>
       <c r="F64">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="G64" t="s">
-        <v>344</v>
+        <v>110</v>
       </c>
       <c r="I64" t="str">
         <f t="shared" si="0"/>
-        <v>Douglas Scott $^{38}$                   \\</v>
+        <v>Roger O'Brient $^{24}$                  \\</v>
       </c>
       <c r="K64">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L64">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M64" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">                  </v>
       </c>
       <c r="O64" t="str">
         <f t="shared" si="4"/>
-        <v>38. University of British Columbia, Canada.  \\</v>
+        <v>24. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
       </c>
     </row>
     <row r="65" spans="2:15">
       <c r="B65" s="1" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="E65" t="s">
         <v>8</v>
       </c>
       <c r="F65">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="G65" t="s">
-        <v>337</v>
+        <v>110</v>
       </c>
       <c r="I65" t="str">
         <f t="shared" si="0"/>
-        <v>Dan Green $^{39}$                       \\</v>
+        <v>Chris Paine $^{24}$                     \\</v>
       </c>
       <c r="K65">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L65">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M65" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                       </v>
+        <v xml:space="preserve">                     </v>
       </c>
       <c r="O65" t="str">
         <f t="shared" si="4"/>
-        <v>39. University of California, Berkeley.  \\</v>
+        <v>24. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
       </c>
     </row>
     <row r="66" spans="2:15">
-      <c r="B66" t="s">
-        <v>9</v>
+      <c r="B66" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>10</v>
+        <v>114</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="E66" t="s">
         <v>8</v>
       </c>
-      <c r="F66" t="s">
-        <v>501</v>
+      <c r="F66">
+        <v>4</v>
       </c>
       <c r="G66" t="s">
-        <v>497</v>
+        <v>223</v>
       </c>
       <c r="I66" t="str">
         <f t="shared" si="0"/>
-        <v>Peter Ashton $^{26, 39}$                    \\</v>
+        <v>Tim Pearson $^{4}$                     \\</v>
       </c>
       <c r="K66">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L66">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M66" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">                     </v>
       </c>
       <c r="O66" t="str">
         <f t="shared" si="4"/>
-        <v>26, 39. University of California, Berkeley &amp;&amp;&amp;&amp;&amp;&amp; LBNL.  \\</v>
+        <v>4. California Institute of Technology.  \\</v>
       </c>
     </row>
     <row r="67" spans="2:15">
-      <c r="B67" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>369</v>
+      <c r="B67" t="s">
+        <v>115</v>
+      </c>
+      <c r="C67" t="s">
+        <v>116</v>
+      </c>
+      <c r="D67" t="s">
+        <v>462</v>
       </c>
       <c r="E67" t="s">
         <v>8</v>
       </c>
-      <c r="F67" t="s">
-        <v>501</v>
+      <c r="F67">
+        <v>36</v>
       </c>
       <c r="G67" t="s">
-        <v>495</v>
+        <v>117</v>
       </c>
       <c r="I67" t="str">
         <f t="shared" si="0"/>
-        <v>Marcelo Alvarez $^{26, 39}$                 \\</v>
+        <v>Levon Pogosian $^{36}$                  \\</v>
       </c>
       <c r="K67">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L67">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M67" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">                  </v>
       </c>
       <c r="O67" t="str">
         <f t="shared" si="4"/>
-        <v>26, 39. University of California, Berkeley &amp;&amp;&amp;&amp;&amp;&amp;&amp; LBNL.  \\</v>
+        <v>36. Simon Fraser University.  \\</v>
       </c>
     </row>
     <row r="68" spans="2:15">
       <c r="B68" s="1" t="s">
-        <v>307</v>
+        <v>118</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="E68" t="s">
         <v>8</v>
       </c>
       <c r="F68">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G68" t="s">
-        <v>491</v>
+        <v>410</v>
       </c>
       <c r="I68" t="str">
         <f t="shared" si="0"/>
-        <v>Lloyd Knox $^{40}$                      \\</v>
+        <v>Clem Pryke $^{44}$                      \\</v>
       </c>
       <c r="K68">
         <f t="shared" si="1"/>
@@ -4486,191 +4521,188 @@
       </c>
       <c r="O68" t="str">
         <f t="shared" si="4"/>
-        <v>40. University of California, Davis.  \\</v>
+        <v>44. University of Minnesota - Twin Cities.  \\</v>
       </c>
     </row>
     <row r="69" spans="2:15">
       <c r="B69" t="s">
-        <v>61</v>
-      </c>
-      <c r="C69" t="s">
-        <v>62</v>
-      </c>
-      <c r="D69" t="s">
-        <v>438</v>
+        <v>120</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>464</v>
       </c>
       <c r="E69" t="s">
         <v>8</v>
       </c>
       <c r="F69">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G69" t="s">
-        <v>489</v>
+        <v>47</v>
       </c>
       <c r="I69" t="str">
         <f t="shared" si="0"/>
-        <v>Raphael Flauger $^{41}$                 \\</v>
+        <v>Mathieu Remazeilles $^{43}$             \\</v>
       </c>
       <c r="K69">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L69">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M69" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">             </v>
       </c>
       <c r="O69" t="str">
         <f t="shared" si="4"/>
-        <v>41. University of California, San Diego.  \\</v>
+        <v>43. University of Manchester.  \\</v>
       </c>
     </row>
     <row r="70" spans="2:15">
       <c r="B70" t="s">
-        <v>295</v>
-      </c>
-      <c r="C70" t="s">
-        <v>296</v>
-      </c>
-      <c r="D70" t="s">
-        <v>436</v>
+        <v>122</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>465</v>
       </c>
       <c r="E70" t="s">
         <v>8</v>
       </c>
       <c r="F70">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="G70" t="s">
-        <v>280</v>
+        <v>110</v>
       </c>
       <c r="I70" t="str">
         <f t="shared" si="0"/>
-        <v>Jeffrey Filippini $^{42}$               \\</v>
+        <v>Graca Rocha $^{24}$                     \\</v>
       </c>
       <c r="K70">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L70">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M70" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">               </v>
+        <v xml:space="preserve">                     </v>
       </c>
       <c r="O70" t="str">
         <f t="shared" si="4"/>
-        <v>42. University of Illinois, Urbana-Champaign.  \\</v>
+        <v>24. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
       </c>
     </row>
     <row r="71" spans="2:15">
-      <c r="B71" t="s">
-        <v>45</v>
+      <c r="B71" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>429</v>
+        <v>466</v>
       </c>
       <c r="E71" t="s">
         <v>8</v>
       </c>
       <c r="F71">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G71" t="s">
-        <v>47</v>
+        <v>343</v>
       </c>
       <c r="I71" t="str">
         <f t="shared" si="0"/>
-        <v>Eleonora Di Valentino $^{43}$           \\</v>
+        <v>Marcel Schmittfull $^{20}$              \\</v>
       </c>
       <c r="K71">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L71">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M71" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">           </v>
+        <v xml:space="preserve">              </v>
       </c>
       <c r="O71" t="str">
         <f t="shared" si="4"/>
-        <v>43. University of Manchester.  \\</v>
+        <v>20. Institute for Advanced Study, Princeton.  \\</v>
       </c>
     </row>
     <row r="72" spans="2:15">
-      <c r="B72" t="s">
-        <v>120</v>
+      <c r="B72" s="1" t="s">
+        <v>309</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>121</v>
+        <v>262</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="E72" t="s">
         <v>8</v>
       </c>
       <c r="F72">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G72" t="s">
-        <v>47</v>
+        <v>344</v>
       </c>
       <c r="I72" t="str">
         <f t="shared" si="0"/>
-        <v>Mathieu Remazeilles $^{43}$             \\</v>
+        <v>Douglas Scott $^{38}$                   \\</v>
       </c>
       <c r="K72">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L72">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M72" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">             </v>
+        <v xml:space="preserve">                   </v>
       </c>
       <c r="O72" t="str">
         <f t="shared" si="4"/>
-        <v>43. University of Manchester.  \\</v>
+        <v>38. University of British Columbia, Canada.  \\</v>
       </c>
     </row>
     <row r="73" spans="2:15">
-      <c r="B73" s="1" t="s">
-        <v>411</v>
+      <c r="B73" t="s">
+        <v>126</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="D73" t="s">
-        <v>442</v>
+        <v>127</v>
       </c>
       <c r="E73" t="s">
         <v>8</v>
       </c>
       <c r="F73">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>410</v>
+        <v>128</v>
       </c>
       <c r="I73" t="str">
         <f t="shared" si="0"/>
-        <v>Shaul Hanany $^{44}$                    \\</v>
+        <v>Ian Stephens $^{13}$                    \\</v>
       </c>
       <c r="K73">
         <f t="shared" si="1"/>
@@ -4686,31 +4718,31 @@
       </c>
       <c r="O73" t="str">
         <f t="shared" si="4"/>
-        <v>44. University of Minnesota - Twin Cities.  \\</v>
+        <v>13. Harvard-Smithsonian Center for Astrophysics.  \\</v>
       </c>
     </row>
     <row r="74" spans="2:15">
-      <c r="B74" t="s">
-        <v>88</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>450</v>
+      <c r="B74" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C74" t="s">
+        <v>130</v>
+      </c>
+      <c r="D74" t="s">
+        <v>468</v>
       </c>
       <c r="E74" t="s">
         <v>8</v>
       </c>
       <c r="F74">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="G74" t="s">
-        <v>410</v>
+        <v>110</v>
       </c>
       <c r="I74" t="str">
         <f t="shared" si="0"/>
-        <v>Terry Jones $^{44}$                     \\</v>
+        <v>Brian Sutin $^{24}$                     \\</v>
       </c>
       <c r="K74">
         <f t="shared" ref="K74:K75" si="5">LEN(B74) + LEN(C74) +1</f>
@@ -4726,325 +4758,323 @@
       </c>
       <c r="O74" t="str">
         <f t="shared" si="4"/>
-        <v>44. University of Minnesota - Twin Cities.  \\</v>
+        <v>24. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
       </c>
     </row>
     <row r="75" spans="2:15">
-      <c r="B75" s="1" t="s">
-        <v>118</v>
+      <c r="B75" t="s">
+        <v>131</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="E75" t="s">
         <v>8</v>
       </c>
       <c r="F75">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>410</v>
+        <v>513</v>
       </c>
       <c r="I75" t="str">
         <f t="shared" ref="I75:I81" si="8">CONCATENATE(B75," ",C75, " $^{", F75,"}$", M75,"\\")</f>
-        <v>Clem Pryke $^{44}$                      \\</v>
+        <v>Maurizio Tomasi $^{37}$                 \\</v>
       </c>
       <c r="K75">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L75">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M75" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">                      </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="O75" t="str">
         <f t="shared" ref="O75:O81" si="9">CONCATENATE(F75, ". ", G75, ".  \\")</f>
-        <v>44. University of Minnesota - Twin Cities.  \\</v>
+        <v>37. Universit\`a degli studi di Milano.  \\</v>
       </c>
     </row>
     <row r="76" spans="2:15">
-      <c r="B76" t="s">
-        <v>138</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>471</v>
+      <c r="B76" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C76" t="s">
+        <v>135</v>
+      </c>
+      <c r="D76" t="s">
+        <v>470</v>
       </c>
       <c r="E76" t="s">
         <v>8</v>
       </c>
       <c r="F76">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="G76" t="s">
-        <v>410</v>
+        <v>110</v>
       </c>
       <c r="I76" t="str">
         <f t="shared" si="8"/>
-        <v>Qi Wen $^{44}$                          \\</v>
+        <v>Amy Trangsrud $^{24}$                   \\</v>
       </c>
       <c r="K76">
         <f t="shared" ref="K76" si="10">LEN(B76) + LEN(C76) +1</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="L76">
         <f t="shared" ref="L76" si="11">IF(K76&lt;30,(32-K76),3)</f>
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M76" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">                          </v>
+        <v xml:space="preserve">                   </v>
       </c>
       <c r="O76" t="str">
         <f t="shared" si="9"/>
-        <v>44. University of Minnesota - Twin Cities.  \\</v>
+        <v>24. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
       </c>
     </row>
     <row r="77" spans="2:15">
-      <c r="B77" s="3" t="s">
-        <v>144</v>
+      <c r="B77" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C77" t="s">
-        <v>145</v>
-      </c>
-      <c r="D77" t="s">
-        <v>473</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="D77"/>
       <c r="E77" t="s">
         <v>8</v>
       </c>
       <c r="F77">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="G77" t="s">
-        <v>410</v>
+        <v>500</v>
       </c>
       <c r="I77" t="str">
         <f t="shared" si="8"/>
-        <v>Karl Young $^{44}$                      \\</v>
+        <v>Flavien Vansyngel $^{16}$               \\</v>
       </c>
       <c r="K77">
         <f t="shared" ref="K77:K81" si="12">LEN(B77) + LEN(C77) +1</f>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L77">
         <f t="shared" ref="L77:L81" si="13">IF(K77&lt;30,(32-K77),3)</f>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M77" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">                      </v>
+        <v xml:space="preserve">               </v>
       </c>
       <c r="O77" t="str">
         <f t="shared" si="9"/>
-        <v>44. University of Minnesota - Twin Cities.  \\</v>
+        <v>16. Institut d'Astrophysique Spatiale, CNRS, Univ. Paris-Sud, Universit\'e Paris-Saclay, France.  \\</v>
       </c>
     </row>
     <row r="78" spans="2:15">
-      <c r="B78" s="1" t="s">
-        <v>15</v>
+      <c r="B78" t="s">
+        <v>138</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>414</v>
+        <v>471</v>
       </c>
       <c r="E78" t="s">
         <v>8</v>
       </c>
       <c r="F78">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G78" t="s">
-        <v>479</v>
+        <v>410</v>
       </c>
       <c r="I78" t="str">
         <f t="shared" si="8"/>
-        <v>Ranajoy Banerji $^{45}$                 \\</v>
+        <v>Qi Wen $^{44}$                          \\</v>
       </c>
       <c r="K78">
         <f t="shared" si="12"/>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L78">
         <f t="shared" si="13"/>
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M78" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">                          </v>
       </c>
       <c r="O78" t="str">
         <f t="shared" si="9"/>
-        <v>45. University of Oslo, Norway.  \\</v>
+        <v>44. University of Minnesota - Twin Cities.  \\</v>
       </c>
     </row>
     <row r="79" spans="2:15">
-      <c r="B79" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>430</v>
-      </c>
+      <c r="B79" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C79" t="s">
+        <v>143</v>
+      </c>
+      <c r="D79"/>
       <c r="E79" t="s">
         <v>8</v>
       </c>
       <c r="F79">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G79" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="I79" t="str">
         <f t="shared" si="8"/>
-        <v>Joy Didier $^{46}$                      \\</v>
+        <v>Siyao Xu $^{47}$                        \\</v>
       </c>
       <c r="K79">
         <f>LEN(B79) + LEN(C79) +1</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L79">
         <f>IF(K79&lt;30,(32-K79),3)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M79" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">                      </v>
+        <v xml:space="preserve">                        </v>
       </c>
       <c r="O79" t="str">
         <f t="shared" si="9"/>
-        <v>46. University of Southern California.  \\</v>
+        <v>47. University of Wisconsin - Madison.  \\</v>
       </c>
     </row>
     <row r="80" spans="2:15">
-      <c r="B80" s="1" t="s">
-        <v>94</v>
+      <c r="B80" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="C80" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="D80" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="E80" t="s">
         <v>8</v>
       </c>
       <c r="F80">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G80" t="s">
-        <v>340</v>
+        <v>410</v>
       </c>
       <c r="I80" t="str">
         <f t="shared" si="8"/>
-        <v>Alex Lazarian $^{47}$                   \\</v>
+        <v>Karl Young $^{44}$                      \\</v>
       </c>
       <c r="K80">
         <f>LEN(B80) + LEN(C80) +1</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L80">
         <f>IF(K80&lt;30,(32-K80),3)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M80" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">                      </v>
       </c>
       <c r="O80" t="str">
         <f t="shared" si="9"/>
-        <v>47. University of Wisconsin - Madison.  \\</v>
+        <v>44. University of Minnesota - Twin Cities.  \\</v>
       </c>
     </row>
     <row r="81" spans="2:16">
       <c r="B81" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C81" t="s">
-        <v>143</v>
-      </c>
-      <c r="D81"/>
+        <v>147</v>
+      </c>
+      <c r="D81" t="s">
+        <v>472</v>
+      </c>
       <c r="E81" t="s">
         <v>8</v>
       </c>
       <c r="F81">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G81" t="s">
-        <v>340</v>
+        <v>504</v>
       </c>
       <c r="I81" t="str">
         <f t="shared" si="8"/>
-        <v>Siyao Xu $^{47}$                        \\</v>
+        <v>Andrea Zonca $^{34}$                    \\</v>
       </c>
       <c r="K81">
         <f t="shared" si="12"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L81">
         <f t="shared" si="13"/>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M81" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">                        </v>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="O81" t="str">
         <f t="shared" si="9"/>
-        <v>47. University of Wisconsin - Madison.  \\</v>
+        <v>34. San Diego Supercomputer Center, University of California San Diego.  \\</v>
       </c>
     </row>
     <row r="82" spans="2:16">
-      <c r="B82" s="1" t="s">
-        <v>35</v>
+      <c r="B82" t="s">
+        <v>303</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>36</v>
+        <v>302</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>425</v>
+        <v>474</v>
       </c>
       <c r="E82" t="s">
         <v>8</v>
       </c>
       <c r="F82">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="G82" t="s">
-        <v>331</v>
+        <v>42</v>
       </c>
       <c r="I82" t="str">
         <f t="shared" ref="I82" si="14">CONCATENATE(B82," ",C82, " $^{", F82,"}$", M82,"\\")</f>
-        <v>David Chuss $^{48}$                     \\</v>
+        <v>Gianfranco De Zotti $^{15}$             \\</v>
       </c>
       <c r="K82">
         <f t="shared" ref="K82" si="15">LEN(B82) + LEN(C82) +1</f>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L82">
         <f t="shared" ref="L82" si="16">IF(K82&lt;30,(32-K82),3)</f>
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M82" t="str">
         <f t="shared" ref="M82" si="17">REPT(" ",L82)</f>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">             </v>
       </c>
       <c r="O82" t="str">
         <f t="shared" ref="O82" si="18">CONCATENATE(F82, ". ", G82, ".  \\")</f>
-        <v>48. Villanova University.  \\</v>
+        <v>15. INAF-Osservatorio Astronomico di Padova, Italy.  \\</v>
       </c>
     </row>
     <row r="83" spans="2:16">
@@ -5070,1049 +5100,1035 @@
       </c>
       <c r="P87">
         <f>F12+1</f>
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="2:16">
-      <c r="B88"/>
+      <c r="B88" t="s">
+        <v>506</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E88" t="s">
+        <v>366</v>
+      </c>
+      <c r="G88" t="s">
+        <v>508</v>
+      </c>
       <c r="P88">
-        <f t="shared" ref="P88:P151" si="19">F13+1</f>
-        <v>5</v>
+        <f t="shared" ref="P88" si="19">F13+1</f>
+        <v>46</v>
       </c>
     </row>
     <row r="89" spans="2:16">
-      <c r="P89">
-        <f t="shared" si="19"/>
-        <v>6</v>
+      <c r="B89" t="s">
+        <v>364</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E89" t="s">
+        <v>366</v>
+      </c>
+      <c r="G89" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="90" spans="2:16">
-      <c r="B90" s="3"/>
-      <c r="C90"/>
-      <c r="D90"/>
-      <c r="I90" t="str">
-        <f t="shared" ref="I90:I91" si="20">CONCATENATE(B90," ",C90,M90,"\\")</f>
+      <c r="P90">
+        <f>F14+1</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="2:16">
+      <c r="B91" s="3"/>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="I91" t="str">
+        <f t="shared" ref="I91:I92" si="20">CONCATENATE(B91," ",C91,M91,"\\")</f>
         <v xml:space="preserve">                                \\</v>
       </c>
-      <c r="K90">
-        <f t="shared" ref="K90:K91" si="21">LEN(B90) + LEN(C90) +1</f>
+      <c r="K91">
+        <f t="shared" ref="K91:K92" si="21">LEN(B91) + LEN(C91) +1</f>
         <v>1</v>
       </c>
-      <c r="L90">
-        <f t="shared" ref="L90:L91" si="22">IF(K90&lt;30,(32-K90),3)</f>
+      <c r="L91">
+        <f t="shared" ref="L91:L92" si="22">IF(K91&lt;30,(32-K91),3)</f>
         <v>31</v>
       </c>
-      <c r="M90" t="str">
-        <f t="shared" ref="M90:M153" si="23">REPT(" ",L90)</f>
+      <c r="M91" t="str">
+        <f t="shared" ref="M91:M126" si="23">REPT(" ",L91)</f>
         <v xml:space="preserve">                               </v>
       </c>
-      <c r="P90">
-        <f t="shared" si="19"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="2:16">
-      <c r="B91" t="s">
+      <c r="P91" t="e">
+        <f>F15+1</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="92" spans="2:16">
+      <c r="B92" t="s">
         <v>148</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C92" t="s">
         <v>149</v>
       </c>
-      <c r="D91"/>
-      <c r="E91" t="s">
-        <v>150</v>
-      </c>
-      <c r="G91" t="s">
+      <c r="D92"/>
+      <c r="E92" t="s">
+        <v>150</v>
+      </c>
+      <c r="G92" t="s">
         <v>151</v>
       </c>
-      <c r="I91" t="str">
+      <c r="I92" t="str">
         <f t="shared" si="20"/>
         <v>Zeeshan Ahmed                   \\</v>
       </c>
-      <c r="K91">
+      <c r="K92">
         <f t="shared" si="21"/>
         <v>13</v>
       </c>
-      <c r="L91">
+      <c r="L92">
         <f t="shared" si="22"/>
         <v>19</v>
       </c>
-      <c r="M91" t="str">
+      <c r="M92" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">                   </v>
       </c>
-      <c r="P91">
-        <f t="shared" si="19"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="2:16">
-      <c r="B92" t="s">
+      <c r="P92">
+        <f>F16+1</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="93" spans="2:16">
+      <c r="B93" t="s">
         <v>152</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E92" t="s">
-        <v>150</v>
-      </c>
-      <c r="G92" t="s">
+      <c r="E93" t="s">
+        <v>150</v>
+      </c>
+      <c r="G93" t="s">
         <v>154</v>
       </c>
-      <c r="I92" t="str">
-        <f t="shared" ref="I92:I155" si="24">CONCATENATE(B92," ",C92,M92,"\\")</f>
+      <c r="I93" t="str">
+        <f t="shared" ref="I93:I126" si="24">CONCATENATE(B93," ",C93,M93,"\\")</f>
         <v>Jason Austermann                \\</v>
       </c>
-      <c r="K92">
-        <f t="shared" ref="K92:K142" si="25">LEN(B92) + LEN(C92) +1</f>
+      <c r="K93">
+        <f t="shared" ref="K93:K126" si="25">LEN(B93) + LEN(C93) +1</f>
         <v>16</v>
       </c>
-      <c r="L92">
-        <f t="shared" ref="L92:L142" si="26">IF(K92&lt;30,(32-K92),3)</f>
+      <c r="L93">
+        <f t="shared" ref="L93:L126" si="26">IF(K93&lt;30,(32-K93),3)</f>
         <v>16</v>
       </c>
-      <c r="M92" t="str">
+      <c r="M93" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">                </v>
       </c>
-      <c r="P92">
-        <f t="shared" si="19"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93" spans="2:16">
-      <c r="B93" t="s">
+      <c r="P93">
+        <f>F17+1</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="94" spans="2:16">
+      <c r="B94" t="s">
         <v>155</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E93" t="s">
-        <v>150</v>
-      </c>
-      <c r="G93" t="s">
+      <c r="E94" t="s">
+        <v>150</v>
+      </c>
+      <c r="G94" t="s">
         <v>157</v>
       </c>
-      <c r="I93" t="str">
+      <c r="I94" t="str">
         <f t="shared" si="24"/>
         <v>Darcy Barron                    \\</v>
       </c>
-      <c r="K93">
+      <c r="K94">
         <f t="shared" si="25"/>
         <v>12</v>
       </c>
-      <c r="L93">
+      <c r="L94">
         <f t="shared" si="26"/>
         <v>20</v>
       </c>
-      <c r="M93" t="str">
+      <c r="M94" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">                    </v>
       </c>
-      <c r="P93">
-        <f t="shared" si="19"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="2:16">
-      <c r="B94" t="s">
+      <c r="P94">
+        <f>F18+1</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="2:16">
+      <c r="B95" t="s">
         <v>158</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C95" t="s">
         <v>159</v>
       </c>
-      <c r="D94"/>
-      <c r="E94" t="s">
-        <v>150</v>
-      </c>
-      <c r="I94" t="str">
+      <c r="D95"/>
+      <c r="E95" t="s">
+        <v>150</v>
+      </c>
+      <c r="I95" t="str">
         <f t="shared" si="24"/>
         <v>Karim Benabed                   \\</v>
       </c>
-      <c r="K94">
+      <c r="K95">
         <f t="shared" si="25"/>
         <v>13</v>
       </c>
-      <c r="L94">
+      <c r="L95">
         <f t="shared" si="26"/>
         <v>19</v>
       </c>
-      <c r="M94" t="str">
+      <c r="M95" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">                   </v>
       </c>
-      <c r="P94">
-        <f t="shared" si="19"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" spans="2:16">
-      <c r="B95" t="s">
+      <c r="P95">
+        <f>F19+1</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" spans="2:16">
+      <c r="B96" t="s">
         <v>160</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C96" t="s">
         <v>161</v>
       </c>
-      <c r="D95"/>
-      <c r="E95" t="s">
-        <v>150</v>
-      </c>
-      <c r="G95" t="s">
+      <c r="D96"/>
+      <c r="E96" t="s">
+        <v>150</v>
+      </c>
+      <c r="G96" t="s">
         <v>162</v>
       </c>
-      <c r="I95" t="str">
+      <c r="I96" t="str">
         <f t="shared" si="24"/>
         <v>Federico Bianchini              \\</v>
       </c>
-      <c r="K95">
+      <c r="K96">
         <f t="shared" si="25"/>
         <v>18</v>
       </c>
-      <c r="L95">
+      <c r="L96">
         <f t="shared" si="26"/>
         <v>14</v>
       </c>
-      <c r="M95" t="str">
+      <c r="M96" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">              </v>
       </c>
-      <c r="P95">
-        <f t="shared" si="19"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="96" spans="2:16">
-      <c r="B96" s="1" t="s">
+      <c r="P96">
+        <f>F20+1</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="2:17">
+      <c r="B97" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E96" t="s">
-        <v>150</v>
-      </c>
-      <c r="G96" t="s">
+      <c r="E97" t="s">
+        <v>150</v>
+      </c>
+      <c r="G97" t="s">
         <v>274</v>
       </c>
-      <c r="I96" t="str">
+      <c r="I97" t="str">
         <f t="shared" si="24"/>
         <v>Colin Bischoff                  \\</v>
       </c>
-      <c r="K96">
+      <c r="K97">
         <f t="shared" si="25"/>
         <v>14</v>
       </c>
-      <c r="L96">
+      <c r="L97">
         <f t="shared" si="26"/>
         <v>18</v>
       </c>
-      <c r="M96" t="str">
+      <c r="M97" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">                  </v>
       </c>
-      <c r="P96">
-        <f t="shared" si="19"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" spans="2:17">
-      <c r="B97" t="s">
+      <c r="P97" t="e">
+        <f>F21+1</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="98" spans="2:17">
+      <c r="B98" t="s">
         <v>165</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C98" t="s">
         <v>166</v>
       </c>
-      <c r="D97"/>
-      <c r="E97" t="s">
-        <v>150</v>
-      </c>
-      <c r="G97" t="s">
+      <c r="D98"/>
+      <c r="E98" t="s">
+        <v>150</v>
+      </c>
+      <c r="G98" t="s">
         <v>167</v>
       </c>
-      <c r="I97" t="str">
+      <c r="I98" t="str">
         <f t="shared" si="24"/>
         <v>J. Richard Bond                 \\</v>
       </c>
-      <c r="K97">
+      <c r="K98">
         <f t="shared" si="25"/>
         <v>15</v>
       </c>
-      <c r="L97">
+      <c r="L98">
         <f t="shared" si="26"/>
         <v>17</v>
       </c>
-      <c r="M97" t="str">
+      <c r="M98" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">                 </v>
       </c>
-      <c r="P97">
-        <f t="shared" si="19"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="98" spans="2:17">
-      <c r="B98" s="1" t="s">
+      <c r="P98">
+        <f>F22+1</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="2:17">
+      <c r="B99" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G98" s="1" t="s">
+      <c r="E99" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G99" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="I98" t="str">
+      <c r="I99" t="str">
         <f t="shared" si="24"/>
         <v>Fran\c{c}ois Boulanger          \\</v>
       </c>
-      <c r="K98">
+      <c r="K99">
         <f t="shared" si="25"/>
         <v>22</v>
       </c>
-      <c r="L98">
+      <c r="L99">
         <f t="shared" si="26"/>
         <v>10</v>
       </c>
-      <c r="M98" t="str">
+      <c r="M99" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">          </v>
       </c>
-      <c r="P98">
-        <f t="shared" si="19"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99" spans="2:17">
-      <c r="B99" s="1" t="s">
+      <c r="P99">
+        <f>F23+1</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="2:17">
+      <c r="B100" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E99" t="s">
-        <v>150</v>
-      </c>
-      <c r="G99" t="s">
+      <c r="E100" t="s">
+        <v>150</v>
+      </c>
+      <c r="G100" t="s">
         <v>272</v>
       </c>
-      <c r="I99" t="str">
+      <c r="I100" t="str">
         <f t="shared" si="24"/>
         <v>Robert Caldwell                 \\</v>
       </c>
-      <c r="K99">
+      <c r="K100">
         <f t="shared" si="25"/>
         <v>15</v>
       </c>
-      <c r="L99">
+      <c r="L100">
         <f t="shared" si="26"/>
         <v>17</v>
       </c>
-      <c r="M99" t="str">
+      <c r="M100" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">                 </v>
       </c>
-      <c r="P99">
-        <f t="shared" si="19"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="100" spans="2:17">
-      <c r="B100" t="s">
+      <c r="P100">
+        <f>F24+1</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="101" spans="2:17">
+      <c r="B101" t="s">
         <v>168</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C101" t="s">
         <v>169</v>
       </c>
-      <c r="D100"/>
-      <c r="E100" t="s">
-        <v>150</v>
-      </c>
-      <c r="G100" t="s">
+      <c r="D101"/>
+      <c r="E101" t="s">
+        <v>150</v>
+      </c>
+      <c r="G101" t="s">
         <v>128</v>
       </c>
-      <c r="I100" t="str">
+      <c r="I101" t="str">
         <f t="shared" si="24"/>
         <v>Xingang Chen                    \\</v>
       </c>
-      <c r="K100">
+      <c r="K101">
         <f t="shared" si="25"/>
         <v>12</v>
       </c>
-      <c r="L100">
+      <c r="L101">
         <f t="shared" si="26"/>
         <v>20</v>
       </c>
-      <c r="M100" t="str">
+      <c r="M101" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">                    </v>
       </c>
-      <c r="P100">
-        <f t="shared" si="19"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="101" spans="2:17">
-      <c r="B101" t="s">
+      <c r="P101">
+        <f>F25+1</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="102" spans="2:17">
+      <c r="B102" t="s">
         <v>173</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E101" t="s">
-        <v>150</v>
-      </c>
-      <c r="G101" t="s">
+      <c r="E102" t="s">
+        <v>150</v>
+      </c>
+      <c r="G102" t="s">
         <v>175</v>
       </c>
-      <c r="I101" t="str">
+      <c r="I102" t="str">
         <f t="shared" si="24"/>
         <v>Francis-Yan Cyr-Racine          \\</v>
       </c>
-      <c r="K101">
+      <c r="K102">
         <f t="shared" si="25"/>
         <v>22</v>
       </c>
-      <c r="L101">
+      <c r="L102">
         <f t="shared" si="26"/>
         <v>10</v>
       </c>
-      <c r="M101" t="str">
+      <c r="M102" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">          </v>
       </c>
-      <c r="P101">
-        <f t="shared" si="19"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="102" spans="2:17">
-      <c r="B102" t="s">
+      <c r="P102">
+        <f>F26+1</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="103" spans="2:17">
+      <c r="B103" t="s">
         <v>176</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E102" t="s">
-        <v>150</v>
-      </c>
-      <c r="G102" t="s">
+      <c r="E103" t="s">
+        <v>150</v>
+      </c>
+      <c r="G103" t="s">
         <v>178</v>
       </c>
-      <c r="I102" t="str">
+      <c r="I103" t="str">
         <f t="shared" si="24"/>
         <v>Tijmen de Haan                  \\</v>
       </c>
-      <c r="K102">
+      <c r="K103">
         <f t="shared" si="25"/>
         <v>14</v>
       </c>
-      <c r="L102">
+      <c r="L103">
         <f t="shared" si="26"/>
         <v>18</v>
       </c>
-      <c r="M102" t="str">
+      <c r="M103" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">                  </v>
       </c>
-      <c r="P102">
-        <f t="shared" si="19"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="103" spans="2:17">
-      <c r="B103" t="s">
+      <c r="P103">
+        <f>F27+1</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" spans="2:17">
+      <c r="B104" t="s">
         <v>181</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E103" t="s">
-        <v>150</v>
-      </c>
-      <c r="G103" t="s">
+      <c r="E104" t="s">
+        <v>150</v>
+      </c>
+      <c r="G104" t="s">
         <v>87</v>
       </c>
-      <c r="I103" t="str">
+      <c r="I104" t="str">
         <f t="shared" si="24"/>
         <v>Aurelien Fraisse                \\</v>
       </c>
-      <c r="K103">
+      <c r="K104">
         <f t="shared" si="25"/>
         <v>16</v>
       </c>
-      <c r="L103">
+      <c r="L104">
         <f t="shared" si="26"/>
         <v>16</v>
       </c>
-      <c r="M103" t="str">
+      <c r="M104" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">                </v>
       </c>
-      <c r="P103">
-        <f t="shared" si="19"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="104" spans="2:17">
-      <c r="B104" t="s">
+      <c r="P104">
+        <f>F28+1</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105" spans="2:17">
+      <c r="B105" t="s">
         <v>187</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E104" t="s">
-        <v>150</v>
-      </c>
-      <c r="G104" t="s">
+      <c r="E105" t="s">
+        <v>150</v>
+      </c>
+      <c r="G105" t="s">
         <v>189</v>
       </c>
-      <c r="I104" t="str">
+      <c r="I105" t="str">
         <f t="shared" si="24"/>
         <v>Silvia Galli                    \\</v>
       </c>
-      <c r="K104">
+      <c r="K105">
         <f t="shared" si="25"/>
         <v>12</v>
       </c>
-      <c r="L104">
+      <c r="L105">
         <f t="shared" si="26"/>
         <v>20</v>
       </c>
-      <c r="M104" t="str">
+      <c r="M105" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">                    </v>
       </c>
-      <c r="P104">
-        <f t="shared" si="19"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="105" spans="2:17">
-      <c r="B105" t="s">
+      <c r="P105">
+        <f>F29+1</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" spans="2:17">
+      <c r="B106" t="s">
         <v>190</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C106" t="s">
         <v>191</v>
       </c>
-      <c r="D105"/>
-      <c r="E105" t="s">
-        <v>150</v>
-      </c>
-      <c r="G105" t="s">
+      <c r="D106"/>
+      <c r="E106" t="s">
+        <v>150</v>
+      </c>
+      <c r="G106" t="s">
         <v>192</v>
       </c>
-      <c r="I105" t="str">
+      <c r="I106" t="str">
         <f t="shared" si="24"/>
         <v>Ken Ganga                       \\</v>
       </c>
-      <c r="K105">
+      <c r="K106">
         <f t="shared" si="25"/>
         <v>9</v>
       </c>
-      <c r="L105">
+      <c r="L106">
         <f t="shared" si="26"/>
         <v>23</v>
       </c>
-      <c r="M105" t="str">
+      <c r="M106" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">                       </v>
       </c>
-      <c r="P105" t="e">
-        <f t="shared" si="19"/>
+      <c r="P106" t="e">
+        <f>F30+1</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="106" spans="2:17">
-      <c r="B106" t="s">
+    <row r="107" spans="2:17">
+      <c r="B107" t="s">
         <v>193</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E106" t="s">
-        <v>150</v>
-      </c>
-      <c r="G106" t="s">
+      <c r="E107" t="s">
+        <v>150</v>
+      </c>
+      <c r="G107" t="s">
         <v>195</v>
       </c>
-      <c r="I106" t="str">
+      <c r="I107" t="str">
         <f t="shared" si="24"/>
         <v>Tuhin Ghosh                     \\</v>
       </c>
-      <c r="K106">
+      <c r="K107">
         <f t="shared" si="25"/>
         <v>11</v>
       </c>
-      <c r="L106">
+      <c r="L107">
         <f t="shared" si="26"/>
         <v>21</v>
       </c>
-      <c r="M106" t="str">
+      <c r="M107" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">                     </v>
       </c>
-      <c r="P106">
-        <f t="shared" si="19"/>
-        <v>21</v>
-      </c>
-      <c r="Q106">
-        <f>P106+1</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="107" spans="2:17">
-      <c r="B107" s="1" t="s">
+      <c r="P107">
+        <f>F31+1</f>
+        <v>44</v>
+      </c>
+      <c r="Q107">
+        <f>P107+1</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="108" spans="2:17">
+      <c r="B108" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="E107" t="s">
-        <v>150</v>
-      </c>
-      <c r="G107" s="1" t="s">
+      <c r="E108" t="s">
+        <v>150</v>
+      </c>
+      <c r="G108" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="I107" t="str">
+      <c r="I108" t="str">
         <f t="shared" si="24"/>
         <v>Sunil Golwala                   \\</v>
       </c>
-      <c r="K107">
+      <c r="K108">
         <f t="shared" si="25"/>
         <v>13</v>
       </c>
-      <c r="L107">
+      <c r="L108">
         <f t="shared" si="26"/>
         <v>19</v>
       </c>
-      <c r="M107" t="str">
+      <c r="M108" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">                   </v>
       </c>
-      <c r="P107">
-        <f t="shared" si="19"/>
-        <v>21</v>
-      </c>
-      <c r="Q107">
-        <f t="shared" ref="Q107:Q157" si="27">P107+1</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="108" spans="2:17">
-      <c r="B108" t="s">
+      <c r="P108">
+        <f>F32+1</f>
+        <v>47</v>
+      </c>
+      <c r="Q108">
+        <f t="shared" ref="Q108:Q158" si="27">P108+1</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="109" spans="2:17">
+      <c r="B109" t="s">
         <v>196</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C109" t="s">
         <v>197</v>
       </c>
-      <c r="D108"/>
-      <c r="E108" t="s">
-        <v>150</v>
-      </c>
-      <c r="G108" t="s">
+      <c r="D109"/>
+      <c r="E109" t="s">
+        <v>150</v>
+      </c>
+      <c r="G109" t="s">
         <v>198</v>
       </c>
-      <c r="I108" t="str">
+      <c r="I109" t="str">
         <f t="shared" si="24"/>
         <v>Jon E. Gudmundsson              \\</v>
       </c>
-      <c r="K108">
+      <c r="K109">
         <f t="shared" si="25"/>
         <v>18</v>
       </c>
-      <c r="L108">
+      <c r="L109">
         <f t="shared" si="26"/>
         <v>14</v>
       </c>
-      <c r="M108" t="str">
+      <c r="M109" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">              </v>
       </c>
-      <c r="P108">
-        <f t="shared" si="19"/>
+      <c r="P109">
+        <f>F33+1</f>
+        <v>25</v>
+      </c>
+      <c r="Q109">
+        <f t="shared" si="27"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="110" spans="2:17">
+      <c r="B110" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E110" t="s">
+        <v>150</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I110" t="str">
+        <f t="shared" si="24"/>
+        <v>Kevin M. Huffenberger           \\</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="25"/>
         <v>21</v>
       </c>
-      <c r="Q108">
+      <c r="L110">
+        <f t="shared" si="26"/>
+        <v>11</v>
+      </c>
+      <c r="M110" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">           </v>
+      </c>
+      <c r="P110">
+        <f>F34+1</f>
+        <v>6</v>
+      </c>
+      <c r="Q110">
+        <f t="shared" si="27"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="2:17">
+      <c r="B111" t="s">
+        <v>199</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E111" t="s">
+        <v>150</v>
+      </c>
+      <c r="G111" t="s">
+        <v>201</v>
+      </c>
+      <c r="I111" t="str">
+        <f t="shared" si="24"/>
+        <v>Marc Kamionkowski               \\</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="25"/>
+        <v>17</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="26"/>
+        <v>15</v>
+      </c>
+      <c r="M111" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">               </v>
+      </c>
+      <c r="P111">
+        <f>F35+1</f>
+        <v>20</v>
+      </c>
+      <c r="Q111">
+        <f t="shared" si="27"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112" spans="2:17">
+      <c r="B112" t="s">
+        <v>202</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E112" t="s">
+        <v>150</v>
+      </c>
+      <c r="G112" t="s">
+        <v>204</v>
+      </c>
+      <c r="I112" t="str">
+        <f t="shared" si="24"/>
+        <v>Reijo Keskitalo                 \\</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="25"/>
+        <v>15</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="26"/>
+        <v>17</v>
+      </c>
+      <c r="M112" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">                 </v>
+      </c>
+      <c r="P112">
+        <f>F36+1</f>
+        <v>29</v>
+      </c>
+      <c r="Q112">
+        <f t="shared" si="27"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113" spans="2:17">
+      <c r="B113" t="s">
+        <v>205</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E113" t="s">
+        <v>150</v>
+      </c>
+      <c r="G113" t="s">
+        <v>207</v>
+      </c>
+      <c r="I113" t="str">
+        <f t="shared" si="24"/>
+        <v>Rishi Khatri                    \\</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="25"/>
+        <v>12</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="26"/>
+        <v>20</v>
+      </c>
+      <c r="M113" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="P113">
+        <f>F37+1</f>
+        <v>9</v>
+      </c>
+      <c r="Q113">
+        <f t="shared" si="27"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="2:17">
+      <c r="B114" t="s">
+        <v>208</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E114" t="s">
+        <v>150</v>
+      </c>
+      <c r="G114" t="s">
+        <v>201</v>
+      </c>
+      <c r="I114" t="str">
+        <f t="shared" si="24"/>
+        <v>Ely Kovetz                      \\</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="25"/>
+        <v>10</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="26"/>
+        <v>22</v>
+      </c>
+      <c r="M114" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">                      </v>
+      </c>
+      <c r="P114">
+        <f>F38+1</f>
+        <v>43</v>
+      </c>
+      <c r="Q114">
+        <f t="shared" si="27"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="115" spans="2:17">
+      <c r="B115" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E115" t="s">
+        <v>150</v>
+      </c>
+      <c r="G115" t="s">
+        <v>350</v>
+      </c>
+      <c r="I115" t="str">
+        <f t="shared" si="24"/>
+        <v>Kerstin Kunze                   \\</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="25"/>
+        <v>13</v>
+      </c>
+      <c r="L115">
+        <f t="shared" si="26"/>
+        <v>19</v>
+      </c>
+      <c r="M115" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">                   </v>
+      </c>
+      <c r="P115">
+        <f>F39+1</f>
+        <v>31</v>
+      </c>
+      <c r="Q115">
+        <f t="shared" si="27"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="116" spans="2:17">
+      <c r="B116" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="I116" t="str">
+        <f t="shared" si="24"/>
+        <v>Guilaine Lagache                \\</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="25"/>
+        <v>16</v>
+      </c>
+      <c r="L116">
+        <f t="shared" si="26"/>
+        <v>16</v>
+      </c>
+      <c r="M116" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">                </v>
+      </c>
+      <c r="P116">
+        <f>F40+1</f>
+        <v>42</v>
+      </c>
+      <c r="Q116">
+        <f t="shared" si="27"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="117" spans="2:17">
+      <c r="B117" t="s">
+        <v>210</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E117" t="s">
+        <v>150</v>
+      </c>
+      <c r="G117" t="s">
+        <v>212</v>
+      </c>
+      <c r="I117" t="str">
+        <f t="shared" si="24"/>
+        <v>Daniel Lenz                     \\</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="25"/>
+        <v>11</v>
+      </c>
+      <c r="L117">
+        <f t="shared" si="26"/>
+        <v>21</v>
+      </c>
+      <c r="M117" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">                     </v>
+      </c>
+      <c r="P117">
+        <f>F41+1</f>
+        <v>21</v>
+      </c>
+      <c r="Q117">
         <f t="shared" si="27"/>
         <v>22</v>
       </c>
     </row>
-    <row r="109" spans="2:17">
-      <c r="B109" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E109" t="s">
-        <v>150</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="I109" t="str">
-        <f t="shared" si="24"/>
-        <v>Kevin M. Huffenberger           \\</v>
-      </c>
-      <c r="K109">
-        <f t="shared" si="25"/>
-        <v>21</v>
-      </c>
-      <c r="L109">
-        <f t="shared" si="26"/>
-        <v>11</v>
-      </c>
-      <c r="M109" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">           </v>
-      </c>
-      <c r="P109">
-        <f t="shared" si="19"/>
-        <v>22</v>
-      </c>
-      <c r="Q109">
-        <f t="shared" si="27"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="110" spans="2:17">
-      <c r="B110" t="s">
-        <v>199</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E110" t="s">
-        <v>150</v>
-      </c>
-      <c r="G110" t="s">
-        <v>201</v>
-      </c>
-      <c r="I110" t="str">
-        <f t="shared" si="24"/>
-        <v>Marc Kamionkowski               \\</v>
-      </c>
-      <c r="K110">
-        <f t="shared" si="25"/>
-        <v>17</v>
-      </c>
-      <c r="L110">
-        <f t="shared" si="26"/>
-        <v>15</v>
-      </c>
-      <c r="M110" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">               </v>
-      </c>
-      <c r="P110">
-        <f t="shared" si="19"/>
-        <v>22</v>
-      </c>
-      <c r="Q110">
-        <f t="shared" si="27"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="111" spans="2:17">
-      <c r="B111" t="s">
-        <v>202</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E111" t="s">
-        <v>150</v>
-      </c>
-      <c r="G111" t="s">
-        <v>204</v>
-      </c>
-      <c r="I111" t="str">
-        <f t="shared" si="24"/>
-        <v>Reijo Keskitalo                 \\</v>
-      </c>
-      <c r="K111">
-        <f t="shared" si="25"/>
-        <v>15</v>
-      </c>
-      <c r="L111">
-        <f t="shared" si="26"/>
-        <v>17</v>
-      </c>
-      <c r="M111" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">                 </v>
-      </c>
-      <c r="P111">
-        <f t="shared" si="19"/>
-        <v>23</v>
-      </c>
-      <c r="Q111">
-        <f t="shared" si="27"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="112" spans="2:17">
-      <c r="B112" t="s">
-        <v>205</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E112" t="s">
-        <v>150</v>
-      </c>
-      <c r="G112" t="s">
-        <v>207</v>
-      </c>
-      <c r="I112" t="str">
-        <f t="shared" si="24"/>
-        <v>Rishi Khatri                    \\</v>
-      </c>
-      <c r="K112">
-        <f t="shared" si="25"/>
-        <v>12</v>
-      </c>
-      <c r="L112">
-        <f t="shared" si="26"/>
-        <v>20</v>
-      </c>
-      <c r="M112" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">                    </v>
-      </c>
-      <c r="P112">
-        <f t="shared" si="19"/>
-        <v>24</v>
-      </c>
-      <c r="Q112">
-        <f t="shared" si="27"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="113" spans="2:17">
-      <c r="B113" t="s">
-        <v>208</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E113" t="s">
-        <v>150</v>
-      </c>
-      <c r="G113" t="s">
-        <v>201</v>
-      </c>
-      <c r="I113" t="str">
-        <f t="shared" si="24"/>
-        <v>Ely Kovetz                      \\</v>
-      </c>
-      <c r="K113">
-        <f t="shared" si="25"/>
-        <v>10</v>
-      </c>
-      <c r="L113">
-        <f t="shared" si="26"/>
-        <v>22</v>
-      </c>
-      <c r="M113" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">                      </v>
-      </c>
-      <c r="P113">
-        <f t="shared" si="19"/>
-        <v>25</v>
-      </c>
-      <c r="Q113">
-        <f t="shared" si="27"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="114" spans="2:17">
-      <c r="B114" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E114" t="s">
-        <v>150</v>
-      </c>
-      <c r="G114" t="s">
-        <v>350</v>
-      </c>
-      <c r="I114" t="str">
-        <f t="shared" si="24"/>
-        <v>Kerstin Kunze                   \\</v>
-      </c>
-      <c r="K114">
-        <f t="shared" si="25"/>
-        <v>13</v>
-      </c>
-      <c r="L114">
-        <f t="shared" si="26"/>
-        <v>19</v>
-      </c>
-      <c r="M114" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">                   </v>
-      </c>
-      <c r="P114">
-        <f t="shared" si="19"/>
-        <v>25</v>
-      </c>
-      <c r="Q114">
-        <f t="shared" si="27"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="115" spans="2:17">
-      <c r="B115" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="I115" t="str">
-        <f t="shared" si="24"/>
-        <v>Guilaine Lagache                \\</v>
-      </c>
-      <c r="K115">
-        <f t="shared" si="25"/>
-        <v>16</v>
-      </c>
-      <c r="L115">
-        <f t="shared" si="26"/>
-        <v>16</v>
-      </c>
-      <c r="M115" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">                </v>
-      </c>
-      <c r="P115">
-        <f t="shared" si="19"/>
-        <v>25</v>
-      </c>
-      <c r="Q115">
-        <f t="shared" si="27"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="116" spans="2:17">
-      <c r="B116" t="s">
-        <v>210</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E116" t="s">
-        <v>150</v>
-      </c>
-      <c r="G116" t="s">
-        <v>212</v>
-      </c>
-      <c r="I116" t="str">
-        <f t="shared" si="24"/>
-        <v>Daniel Lenz                     \\</v>
-      </c>
-      <c r="K116">
-        <f t="shared" si="25"/>
-        <v>11</v>
-      </c>
-      <c r="L116">
-        <f t="shared" si="26"/>
-        <v>21</v>
-      </c>
-      <c r="M116" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">                     </v>
-      </c>
-      <c r="P116">
-        <f t="shared" si="19"/>
-        <v>25</v>
-      </c>
-      <c r="Q116">
-        <f t="shared" si="27"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="117" spans="2:17">
-      <c r="B117" s="5" t="s">
+    <row r="118" spans="2:17">
+      <c r="B118" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C118" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E117" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G117" s="1" t="s">
+      <c r="E118" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G118" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="I117" t="str">
+      <c r="I118" t="str">
         <f t="shared" si="24"/>
         <v>Fran\c{c}ois Levrier            \\</v>
       </c>
-      <c r="K117">
+      <c r="K118">
         <f t="shared" si="25"/>
         <v>20</v>
       </c>
-      <c r="L117">
+      <c r="L118">
         <f t="shared" si="26"/>
         <v>12</v>
       </c>
-      <c r="M117" t="str">
+      <c r="M118" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">            </v>
       </c>
-      <c r="P117">
-        <f t="shared" si="19"/>
-        <v>25</v>
-      </c>
-      <c r="Q117">
-        <f t="shared" si="27"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="118" spans="2:17">
-      <c r="B118" t="s">
-        <v>213</v>
-      </c>
-      <c r="C118" t="s">
-        <v>214</v>
-      </c>
-      <c r="D118"/>
-      <c r="E118" t="s">
-        <v>150</v>
-      </c>
-      <c r="G118" t="s">
-        <v>215</v>
-      </c>
-      <c r="I118" t="str">
-        <f t="shared" si="24"/>
-        <v>Marilena Loverde                \\</v>
-      </c>
-      <c r="K118">
-        <f t="shared" si="25"/>
-        <v>16</v>
-      </c>
-      <c r="L118">
-        <f t="shared" si="26"/>
-        <v>16</v>
-      </c>
-      <c r="M118" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">                </v>
-      </c>
       <c r="P118">
-        <f t="shared" si="19"/>
+        <f>F42+1</f>
         <v>25</v>
       </c>
       <c r="Q118">
@@ -6121,136 +6137,137 @@
       </c>
     </row>
     <row r="119" spans="2:17">
-      <c r="B119" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>353</v>
-      </c>
+      <c r="B119" t="s">
+        <v>213</v>
+      </c>
+      <c r="C119" t="s">
+        <v>214</v>
+      </c>
+      <c r="D119"/>
       <c r="E119" t="s">
         <v>150</v>
       </c>
       <c r="G119" t="s">
-        <v>349</v>
+        <v>215</v>
       </c>
       <c r="I119" t="str">
         <f t="shared" si="24"/>
-        <v>Juan Macias-Perez               \\</v>
+        <v>Marilena Loverde                \\</v>
       </c>
       <c r="K119">
         <f t="shared" si="25"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L119">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M119" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">               </v>
+        <v xml:space="preserve">                </v>
       </c>
       <c r="P119">
-        <f t="shared" si="19"/>
-        <v>25</v>
+        <f>F43+1</f>
+        <v>40</v>
       </c>
       <c r="Q119">
         <f t="shared" si="27"/>
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="120" spans="2:17">
-      <c r="B120" t="s">
-        <v>216</v>
+      <c r="B120" s="1" t="s">
+        <v>352</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>217</v>
+        <v>353</v>
       </c>
       <c r="E120" t="s">
         <v>150</v>
       </c>
       <c r="G120" t="s">
-        <v>218</v>
+        <v>349</v>
       </c>
       <c r="I120" t="str">
         <f t="shared" si="24"/>
-        <v>Carlos Martins                  \\</v>
+        <v>Juan Macias-Perez               \\</v>
       </c>
       <c r="K120">
         <f t="shared" si="25"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L120">
         <f t="shared" si="26"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M120" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">               </v>
       </c>
       <c r="P120">
-        <f t="shared" si="19"/>
-        <v>25</v>
+        <f>F44+1</f>
+        <v>45</v>
       </c>
       <c r="Q120">
         <f t="shared" si="27"/>
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="121" spans="2:17">
       <c r="B121" t="s">
-        <v>187</v>
-      </c>
-      <c r="C121" t="s">
-        <v>219</v>
-      </c>
-      <c r="D121"/>
+        <v>216</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="E121" t="s">
         <v>150</v>
       </c>
       <c r="G121" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I121" t="str">
         <f t="shared" si="24"/>
-        <v>Silvia Masi                     \\</v>
+        <v>Carlos Martins                  \\</v>
       </c>
       <c r="K121">
         <f t="shared" si="25"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L121">
         <f t="shared" si="26"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M121" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                  </v>
       </c>
       <c r="P121">
-        <f t="shared" si="19"/>
-        <v>25</v>
+        <f>F45+1</f>
+        <v>33</v>
       </c>
       <c r="Q121">
         <f t="shared" si="27"/>
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="122" spans="2:17">
-      <c r="B122" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>289</v>
-      </c>
+      <c r="B122" t="s">
+        <v>187</v>
+      </c>
+      <c r="C122" t="s">
+        <v>219</v>
+      </c>
+      <c r="D122"/>
       <c r="E122" t="s">
         <v>150</v>
       </c>
       <c r="G122" t="s">
-        <v>276</v>
+        <v>220</v>
       </c>
       <c r="I122" t="str">
         <f t="shared" si="24"/>
-        <v>Joel Meyers                     \\</v>
+        <v>Silvia Masi                     \\</v>
       </c>
       <c r="K122">
         <f t="shared" si="25"/>
@@ -6265,413 +6282,413 @@
         <v xml:space="preserve">                     </v>
       </c>
       <c r="P122">
-        <f t="shared" si="19"/>
-        <v>25</v>
+        <f>F46+1</f>
+        <v>22</v>
       </c>
       <c r="Q122">
         <f t="shared" si="27"/>
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="123" spans="2:17">
-      <c r="B123" t="s">
-        <v>221</v>
+      <c r="B123" s="1" t="s">
+        <v>288</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="E123" t="s">
         <v>150</v>
       </c>
       <c r="G123" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="I123" t="str">
         <f t="shared" si="24"/>
-        <v>Lorenzo Moncelsi                \\</v>
+        <v>Joel Meyers                     \\</v>
       </c>
       <c r="K123">
         <f t="shared" si="25"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L123">
         <f t="shared" si="26"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M123" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">                </v>
-      </c>
-      <c r="P123">
-        <f t="shared" si="19"/>
-        <v>25</v>
-      </c>
-      <c r="Q123">
+        <v xml:space="preserve">                     </v>
+      </c>
+      <c r="P123" t="e">
+        <f>F47+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q123" t="e">
         <f t="shared" si="27"/>
-        <v>26</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="124" spans="2:17">
       <c r="B124" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E124" t="s">
         <v>150</v>
       </c>
       <c r="G124" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I124" t="str">
         <f t="shared" si="24"/>
-        <v>Pavel Motloch                   \\</v>
+        <v>Lorenzo Moncelsi                \\</v>
       </c>
       <c r="K124">
         <f t="shared" si="25"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L124">
         <f t="shared" si="26"/>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M124" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">                </v>
       </c>
       <c r="P124">
-        <f t="shared" si="19"/>
-        <v>26</v>
+        <f>F48+1</f>
+        <v>19</v>
       </c>
       <c r="Q124">
         <f t="shared" si="27"/>
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125" spans="2:17">
       <c r="B125" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E125" t="s">
         <v>150</v>
       </c>
       <c r="G125" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I125" t="str">
         <f t="shared" si="24"/>
-        <v>Tony Mroczkowski                \\</v>
+        <v>Pavel Motloch                   \\</v>
       </c>
       <c r="K125">
         <f t="shared" si="25"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L125">
         <f t="shared" si="26"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M125" t="str">
         <f t="shared" si="23"/>
+        <v xml:space="preserve">                   </v>
+      </c>
+      <c r="P125">
+        <f>F49+1</f>
+        <v>11</v>
+      </c>
+      <c r="Q125">
+        <f t="shared" si="27"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="2:17">
+      <c r="B126" t="s">
+        <v>227</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E126" t="s">
+        <v>150</v>
+      </c>
+      <c r="G126" t="s">
+        <v>229</v>
+      </c>
+      <c r="I126" t="str">
+        <f t="shared" si="24"/>
+        <v>Tony Mroczkowski                \\</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="25"/>
+        <v>16</v>
+      </c>
+      <c r="L126">
+        <f t="shared" si="26"/>
+        <v>16</v>
+      </c>
+      <c r="M126" t="str">
+        <f t="shared" si="23"/>
         <v xml:space="preserve">                </v>
       </c>
-      <c r="P125" t="e">
-        <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q125" t="e">
-        <f t="shared" si="27"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="126" spans="2:17">
-      <c r="B126" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="I126" t="str">
-        <f t="shared" ref="I126:I158" si="28">CONCATENATE(B126," ",C126,M126,"\\")</f>
-        <v>Suvodip Mukherjee               \\</v>
-      </c>
-      <c r="K126">
-        <f t="shared" ref="K126:K158" si="29">LEN(B126) + LEN(C126) +1</f>
-        <v>17</v>
-      </c>
-      <c r="L126">
-        <f t="shared" ref="L126:L158" si="30">IF(K126&lt;30,(32-K126),3)</f>
-        <v>15</v>
-      </c>
-      <c r="M126" t="str">
-        <f t="shared" ref="M126:M158" si="31">REPT(" ",L126)</f>
-        <v xml:space="preserve">               </v>
-      </c>
       <c r="P126">
-        <f t="shared" si="19"/>
-        <v>29</v>
+        <f>F50+1</f>
+        <v>30</v>
       </c>
       <c r="Q126">
         <f t="shared" si="27"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="127" spans="2:17">
-      <c r="B127" t="s">
+      <c r="B127" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="I127" t="str">
+        <f t="shared" ref="I127:I159" si="28">CONCATENATE(B127," ",C127,M127,"\\")</f>
+        <v>Suvodip Mukherjee               \\</v>
+      </c>
+      <c r="K127">
+        <f t="shared" ref="K127:K159" si="29">LEN(B127) + LEN(C127) +1</f>
+        <v>17</v>
+      </c>
+      <c r="L127">
+        <f t="shared" ref="L127:L159" si="30">IF(K127&lt;30,(32-K127),3)</f>
+        <v>15</v>
+      </c>
+      <c r="M127" t="str">
+        <f t="shared" ref="M127:M159" si="31">REPT(" ",L127)</f>
+        <v xml:space="preserve">               </v>
+      </c>
+      <c r="P127">
+        <f>F51+1</f>
+        <v>10</v>
+      </c>
+      <c r="Q127">
+        <f t="shared" si="27"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="2:17">
+      <c r="B128" t="s">
         <v>224</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C128" t="s">
         <v>230</v>
       </c>
-      <c r="D127"/>
-      <c r="E127" t="s">
-        <v>150</v>
-      </c>
-      <c r="G127" t="s">
+      <c r="D128"/>
+      <c r="E128" t="s">
+        <v>150</v>
+      </c>
+      <c r="G128" t="s">
         <v>231</v>
       </c>
-      <c r="I127" t="str">
+      <c r="I128" t="str">
         <f t="shared" si="28"/>
         <v>Pavel Naselsky                  \\</v>
       </c>
-      <c r="K127">
+      <c r="K128">
         <f t="shared" si="29"/>
         <v>14</v>
       </c>
-      <c r="L127">
+      <c r="L128">
         <f t="shared" si="30"/>
         <v>18</v>
       </c>
-      <c r="M127" t="str">
+      <c r="M128" t="str">
         <f t="shared" si="31"/>
         <v xml:space="preserve">                  </v>
       </c>
-      <c r="P127">
-        <f t="shared" si="19"/>
+      <c r="P128">
+        <f>F52+1</f>
+        <v>45</v>
+      </c>
+      <c r="Q128">
+        <f t="shared" si="27"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="129" spans="2:17">
+      <c r="B129" t="s">
+        <v>160</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E129" t="s">
+        <v>150</v>
+      </c>
+      <c r="G129" t="s">
+        <v>233</v>
+      </c>
+      <c r="I129" t="str">
+        <f t="shared" si="28"/>
+        <v>Federico Nati                   \\</v>
+      </c>
+      <c r="K129">
+        <f t="shared" si="29"/>
+        <v>13</v>
+      </c>
+      <c r="L129">
+        <f t="shared" si="30"/>
+        <v>19</v>
+      </c>
+      <c r="M129" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">                   </v>
+      </c>
+      <c r="P129">
+        <f>F53+1</f>
+        <v>33</v>
+      </c>
+      <c r="Q129">
+        <f t="shared" si="27"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="130" spans="2:17">
+      <c r="B130" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I130" t="str">
+        <f t="shared" si="28"/>
+        <v>Paolo Natoli                    \\</v>
+      </c>
+      <c r="K130">
+        <f t="shared" si="29"/>
+        <v>12</v>
+      </c>
+      <c r="L130">
+        <f t="shared" si="30"/>
+        <v>20</v>
+      </c>
+      <c r="M130" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="P130">
+        <f>F54+1</f>
+        <v>41</v>
+      </c>
+      <c r="Q130">
+        <f t="shared" si="27"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="131" spans="2:17">
+      <c r="B131" t="s">
+        <v>234</v>
+      </c>
+      <c r="C131" t="s">
+        <v>235</v>
+      </c>
+      <c r="D131"/>
+      <c r="E131" t="s">
+        <v>150</v>
+      </c>
+      <c r="G131" t="s">
+        <v>236</v>
+      </c>
+      <c r="I131" t="str">
+        <f t="shared" si="28"/>
+        <v>Elena Orlando                   \\</v>
+      </c>
+      <c r="K131">
+        <f t="shared" si="29"/>
+        <v>13</v>
+      </c>
+      <c r="L131">
+        <f t="shared" si="30"/>
+        <v>19</v>
+      </c>
+      <c r="M131" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">                   </v>
+      </c>
+      <c r="P131">
+        <f>F55+1</f>
         <v>29</v>
       </c>
-      <c r="Q127">
+      <c r="Q131">
         <f t="shared" si="27"/>
         <v>30</v>
       </c>
     </row>
-    <row r="128" spans="2:17">
-      <c r="B128" t="s">
-        <v>160</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E128" t="s">
-        <v>150</v>
-      </c>
-      <c r="G128" t="s">
-        <v>233</v>
-      </c>
-      <c r="I128" t="str">
-        <f t="shared" si="28"/>
-        <v>Federico Nati                   \\</v>
-      </c>
-      <c r="K128">
-        <f t="shared" si="29"/>
-        <v>13</v>
-      </c>
-      <c r="L128">
-        <f t="shared" si="30"/>
-        <v>19</v>
-      </c>
-      <c r="M128" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">                   </v>
-      </c>
-      <c r="P128">
-        <f t="shared" si="19"/>
-        <v>30</v>
-      </c>
-      <c r="Q128">
-        <f t="shared" si="27"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="129" spans="2:17">
-      <c r="B129" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="I129" t="str">
-        <f t="shared" si="28"/>
-        <v>Paolo Natoli                    \\</v>
-      </c>
-      <c r="K129">
-        <f t="shared" si="29"/>
-        <v>12</v>
-      </c>
-      <c r="L129">
-        <f t="shared" si="30"/>
-        <v>20</v>
-      </c>
-      <c r="M129" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">                    </v>
-      </c>
-      <c r="P129">
-        <f t="shared" si="19"/>
-        <v>31</v>
-      </c>
-      <c r="Q129">
-        <f t="shared" si="27"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="130" spans="2:17">
-      <c r="B130" t="s">
-        <v>234</v>
-      </c>
-      <c r="C130" t="s">
-        <v>235</v>
-      </c>
-      <c r="D130"/>
-      <c r="E130" t="s">
-        <v>150</v>
-      </c>
-      <c r="G130" t="s">
-        <v>236</v>
-      </c>
-      <c r="I130" t="str">
-        <f t="shared" si="28"/>
-        <v>Elena Orlando                   \\</v>
-      </c>
-      <c r="K130">
-        <f t="shared" si="29"/>
-        <v>13</v>
-      </c>
-      <c r="L130">
-        <f t="shared" si="30"/>
-        <v>19</v>
-      </c>
-      <c r="M130" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">                   </v>
-      </c>
-      <c r="P130">
-        <f t="shared" si="19"/>
-        <v>32</v>
-      </c>
-      <c r="Q130">
-        <f t="shared" si="27"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="131" spans="2:17">
-      <c r="B131" s="1" t="s">
+    <row r="132" spans="2:17">
+      <c r="B132" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C132" t="s">
         <v>183</v>
       </c>
-      <c r="D131"/>
-      <c r="E131" t="s">
-        <v>150</v>
-      </c>
-      <c r="G131" t="s">
+      <c r="D132"/>
+      <c r="E132" t="s">
+        <v>150</v>
+      </c>
+      <c r="G132" t="s">
         <v>185</v>
       </c>
-      <c r="I131" t="str">
+      <c r="I132" t="str">
         <f t="shared" si="28"/>
         <v>Francesco Piacentini            \\</v>
       </c>
-      <c r="K131">
+      <c r="K132">
         <f t="shared" si="29"/>
         <v>20</v>
       </c>
-      <c r="L131">
+      <c r="L132">
         <f t="shared" si="30"/>
         <v>12</v>
       </c>
-      <c r="M131" t="str">
+      <c r="M132" t="str">
         <f t="shared" si="31"/>
         <v xml:space="preserve">            </v>
       </c>
-      <c r="P131">
-        <f t="shared" si="19"/>
-        <v>33</v>
-      </c>
-      <c r="Q131">
+      <c r="P132">
+        <f>F56+1</f>
+        <v>13</v>
+      </c>
+      <c r="Q132">
         <f t="shared" si="27"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="132" spans="2:17">
-      <c r="B132" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="2:17">
+      <c r="B133" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C133" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="E132" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G132" s="1" t="s">
+      <c r="E133" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G133" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="I132" t="str">
+      <c r="I133" t="str">
         <f t="shared" si="28"/>
         <v>Nicolas Ponthieu                \\</v>
-      </c>
-      <c r="K132">
-        <f t="shared" si="29"/>
-        <v>16</v>
-      </c>
-      <c r="L132">
-        <f t="shared" si="30"/>
-        <v>16</v>
-      </c>
-      <c r="M132" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">                </v>
-      </c>
-      <c r="P132">
-        <f t="shared" si="19"/>
-        <v>33</v>
-      </c>
-      <c r="Q132">
-        <f t="shared" si="27"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="133" spans="2:17">
-      <c r="B133" t="s">
-        <v>237</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E133" t="s">
-        <v>150</v>
-      </c>
-      <c r="G133" t="s">
-        <v>239</v>
-      </c>
-      <c r="I133" t="str">
-        <f t="shared" si="28"/>
-        <v>Giuseppe Puglisi                \\</v>
       </c>
       <c r="K133">
         <f t="shared" si="29"/>
@@ -6686,107 +6703,107 @@
         <v xml:space="preserve">                </v>
       </c>
       <c r="P133">
-        <f t="shared" si="19"/>
-        <v>33</v>
+        <f>F57+1</f>
+        <v>25</v>
       </c>
       <c r="Q133">
         <f t="shared" si="27"/>
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="134" spans="2:17">
-      <c r="B134" s="1" t="s">
-        <v>281</v>
+      <c r="B134" t="s">
+        <v>237</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>312</v>
+        <v>238</v>
       </c>
       <c r="E134" t="s">
         <v>150</v>
       </c>
       <c r="G134" t="s">
-        <v>311</v>
+        <v>239</v>
       </c>
       <c r="I134" t="str">
         <f t="shared" si="28"/>
-        <v>Benjamin Racine                 \\</v>
+        <v>Giuseppe Puglisi                \\</v>
       </c>
       <c r="K134">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L134">
         <f t="shared" si="30"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M134" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">                </v>
       </c>
       <c r="P134">
-        <f t="shared" si="19"/>
-        <v>34</v>
+        <f>F58+1</f>
+        <v>48</v>
       </c>
       <c r="Q134">
         <f t="shared" si="27"/>
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="135" spans="2:17">
-      <c r="B135" t="s">
-        <v>240</v>
-      </c>
-      <c r="C135" t="s">
-        <v>241</v>
-      </c>
-      <c r="D135"/>
+      <c r="B135" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>312</v>
+      </c>
       <c r="E135" t="s">
         <v>150</v>
       </c>
       <c r="G135" t="s">
-        <v>162</v>
+        <v>311</v>
       </c>
       <c r="I135" t="str">
         <f t="shared" si="28"/>
-        <v>Christian Reichardt             \\</v>
+        <v>Benjamin Racine                 \\</v>
       </c>
       <c r="K135">
         <f t="shared" si="29"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L135">
         <f t="shared" si="30"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M135" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">             </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="P135">
-        <f t="shared" si="19"/>
-        <v>35</v>
+        <f>F59+1</f>
+        <v>12</v>
       </c>
       <c r="Q135">
         <f t="shared" si="27"/>
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136" spans="2:17">
-      <c r="B136" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>360</v>
-      </c>
+      <c r="B136" t="s">
+        <v>240</v>
+      </c>
+      <c r="C136" t="s">
+        <v>241</v>
+      </c>
+      <c r="D136"/>
       <c r="E136" t="s">
         <v>150</v>
       </c>
       <c r="G136" t="s">
-        <v>348</v>
+        <v>162</v>
       </c>
       <c r="I136" t="str">
         <f t="shared" si="28"/>
-        <v>Christophe Ringeval             \\</v>
+        <v>Christian Reichardt             \\</v>
       </c>
       <c r="K136">
         <f t="shared" si="29"/>
@@ -6801,220 +6818,220 @@
         <v xml:space="preserve">             </v>
       </c>
       <c r="P136">
-        <f t="shared" si="19"/>
-        <v>36</v>
+        <f>F60+1</f>
+        <v>12</v>
       </c>
       <c r="Q136">
         <f t="shared" si="27"/>
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="137" spans="2:17">
-      <c r="B137" t="s">
-        <v>242</v>
+      <c r="B137" s="1" t="s">
+        <v>478</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>243</v>
+        <v>360</v>
       </c>
       <c r="E137" t="s">
         <v>150</v>
       </c>
       <c r="G137" t="s">
-        <v>244</v>
+        <v>348</v>
       </c>
       <c r="I137" t="str">
         <f t="shared" si="28"/>
-        <v>Anirban Roy                     \\</v>
+        <v>Christophe Ringeval             \\</v>
       </c>
       <c r="K137">
         <f t="shared" si="29"/>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L137">
         <f t="shared" si="30"/>
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M137" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">             </v>
       </c>
       <c r="P137">
-        <f t="shared" si="19"/>
-        <v>37</v>
+        <f>F61+1</f>
+        <v>8</v>
       </c>
       <c r="Q137">
         <f t="shared" si="27"/>
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138" spans="2:17">
-      <c r="B138" s="1" t="s">
-        <v>358</v>
+      <c r="B138" t="s">
+        <v>242</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>359</v>
+        <v>243</v>
       </c>
       <c r="E138" t="s">
         <v>150</v>
       </c>
       <c r="G138" t="s">
-        <v>347</v>
+        <v>244</v>
       </c>
       <c r="I138" t="str">
         <f t="shared" si="28"/>
-        <v>Jose-Alberto Rubino-Martin      \\</v>
+        <v>Anirban Roy                     \\</v>
       </c>
       <c r="K138">
         <f t="shared" si="29"/>
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="L138">
         <f t="shared" si="30"/>
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="M138" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">      </v>
+        <v xml:space="preserve">                     </v>
       </c>
       <c r="P138">
-        <f t="shared" si="19"/>
-        <v>38</v>
+        <f>F62+1</f>
+        <v>7</v>
       </c>
       <c r="Q138">
         <f t="shared" si="27"/>
-        <v>39</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139" spans="2:17">
-      <c r="B139" t="s">
-        <v>245</v>
+      <c r="B139" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>246</v>
+        <v>359</v>
       </c>
       <c r="E139" t="s">
         <v>150</v>
       </c>
       <c r="G139" t="s">
-        <v>247</v>
+        <v>347</v>
       </c>
       <c r="I139" t="str">
         <f t="shared" si="28"/>
-        <v>Maria Salatino                  \\</v>
+        <v>Jose-Alberto Rubino-Martin      \\</v>
       </c>
       <c r="K139">
         <f t="shared" si="29"/>
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="L139">
         <f t="shared" si="30"/>
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="M139" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">      </v>
       </c>
       <c r="P139">
-        <f t="shared" si="19"/>
-        <v>39</v>
+        <f>F63+1</f>
+        <v>32</v>
       </c>
       <c r="Q139">
         <f t="shared" si="27"/>
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="140" spans="2:17">
-      <c r="B140" s="1" t="s">
-        <v>281</v>
+      <c r="B140" t="s">
+        <v>245</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="E140" t="s">
         <v>150</v>
       </c>
       <c r="G140" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="I140" t="str">
         <f t="shared" si="28"/>
-        <v>Benjamin Saliwanchik            \\</v>
+        <v>Maria Salatino                  \\</v>
       </c>
       <c r="K140">
         <f t="shared" si="29"/>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L140">
         <f t="shared" si="30"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M140" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                  </v>
       </c>
       <c r="P140">
-        <f t="shared" si="19"/>
-        <v>40</v>
+        <f>F64+1</f>
+        <v>25</v>
       </c>
       <c r="Q140">
         <f t="shared" si="27"/>
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="141" spans="2:17">
       <c r="B141" s="1" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E141" t="s">
         <v>150</v>
       </c>
       <c r="G141" t="s">
-        <v>215</v>
+        <v>271</v>
       </c>
       <c r="I141" t="str">
         <f t="shared" si="28"/>
-        <v>Neelima Sehgal                  \\</v>
+        <v>Benjamin Saliwanchik            \\</v>
       </c>
       <c r="K141">
         <f t="shared" si="29"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L141">
         <f t="shared" si="30"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M141" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">                  </v>
-      </c>
-      <c r="P141" t="e">
-        <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q141" t="e">
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="P141">
+        <f>F65+1</f>
+        <v>25</v>
+      </c>
+      <c r="Q141">
         <f t="shared" si="27"/>
-        <v>#VALUE!</v>
+        <v>26</v>
       </c>
     </row>
     <row r="142" spans="2:17">
-      <c r="B142" t="s">
-        <v>248</v>
+      <c r="B142" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>249</v>
+        <v>293</v>
       </c>
       <c r="E142" t="s">
         <v>150</v>
       </c>
       <c r="G142" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="I142" t="str">
         <f t="shared" si="28"/>
-        <v>Sarah Shandera                  \\</v>
+        <v>Neelima Sehgal                  \\</v>
       </c>
       <c r="K142">
         <f t="shared" si="29"/>
@@ -7028,32 +7045,31 @@
         <f t="shared" si="31"/>
         <v xml:space="preserve">                  </v>
       </c>
-      <c r="P142" t="e">
-        <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q142" t="e">
+      <c r="P142">
+        <f>F66+1</f>
+        <v>5</v>
+      </c>
+      <c r="Q142">
         <f t="shared" si="27"/>
-        <v>#VALUE!</v>
+        <v>6</v>
       </c>
     </row>
     <row r="143" spans="2:17">
       <c r="B143" t="s">
-        <v>179</v>
-      </c>
-      <c r="C143" t="s">
-        <v>310</v>
-      </c>
-      <c r="D143"/>
+        <v>248</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="E143" t="s">
         <v>150</v>
       </c>
       <c r="G143" t="s">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="I143" t="str">
         <f t="shared" si="28"/>
-        <v>Erik Shirokoff                  \\</v>
+        <v>Sarah Shandera                  \\</v>
       </c>
       <c r="K143">
         <f t="shared" si="29"/>
@@ -7068,68 +7084,69 @@
         <v xml:space="preserve">                  </v>
       </c>
       <c r="P143">
-        <f t="shared" si="19"/>
-        <v>41</v>
+        <f>F67+1</f>
+        <v>37</v>
       </c>
       <c r="Q143">
         <f t="shared" si="27"/>
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="144" spans="2:17">
       <c r="B144" t="s">
-        <v>251</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>252</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="C144" t="s">
+        <v>310</v>
+      </c>
+      <c r="D144"/>
       <c r="E144" t="s">
         <v>150</v>
       </c>
       <c r="G144" t="s">
-        <v>253</v>
+        <v>180</v>
       </c>
       <c r="I144" t="str">
         <f t="shared" si="28"/>
-        <v>An\v{z}e Slosar                 \\</v>
+        <v>Erik Shirokoff                  \\</v>
       </c>
       <c r="K144">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L144">
         <f t="shared" si="30"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M144" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">                  </v>
       </c>
       <c r="P144">
-        <f t="shared" si="19"/>
-        <v>42</v>
+        <f>F68+1</f>
+        <v>45</v>
       </c>
       <c r="Q144">
         <f t="shared" si="27"/>
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="145" spans="2:17">
-      <c r="B145" s="1" t="s">
-        <v>401</v>
+      <c r="B145" t="s">
+        <v>251</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>385</v>
+        <v>252</v>
+      </c>
+      <c r="E145" t="s">
+        <v>150</v>
+      </c>
+      <c r="G145" t="s">
+        <v>253</v>
       </c>
       <c r="I145" t="str">
         <f t="shared" si="28"/>
-        <v>Tarun Souradeep                 \\</v>
+        <v>An\v{z}e Slosar                 \\</v>
       </c>
       <c r="K145">
         <f t="shared" si="29"/>
@@ -7144,387 +7161,387 @@
         <v xml:space="preserve">                 </v>
       </c>
       <c r="P145">
-        <f t="shared" si="19"/>
-        <v>43</v>
+        <f>F69+1</f>
+        <v>44</v>
       </c>
       <c r="Q145">
         <f t="shared" si="27"/>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="146" spans="2:17">
-      <c r="B146" t="s">
-        <v>254</v>
+      <c r="B146" s="1" t="s">
+        <v>401</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E146" t="s">
-        <v>150</v>
-      </c>
-      <c r="G146" t="s">
-        <v>178</v>
+        <v>402</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>385</v>
       </c>
       <c r="I146" t="str">
         <f t="shared" si="28"/>
-        <v>Aritoki Suzuki                  \\</v>
+        <v>Tarun Souradeep                 \\</v>
       </c>
       <c r="K146">
         <f t="shared" si="29"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L146">
         <f t="shared" si="30"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M146" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="P146">
-        <f t="shared" si="19"/>
-        <v>44</v>
+        <f>F70+1</f>
+        <v>25</v>
       </c>
       <c r="Q146">
         <f t="shared" si="27"/>
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="147" spans="2:17">
-      <c r="B147" s="1" t="s">
-        <v>77</v>
+      <c r="B147" t="s">
+        <v>254</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="E147" t="s">
         <v>150</v>
       </c>
       <c r="G147" t="s">
-        <v>277</v>
+        <v>178</v>
       </c>
       <c r="I147" t="str">
         <f t="shared" si="28"/>
-        <v>Eric Switzer                    \\</v>
+        <v>Aritoki Suzuki                  \\</v>
       </c>
       <c r="K147">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L147">
         <f t="shared" si="30"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M147" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">                  </v>
       </c>
       <c r="P147">
-        <f t="shared" si="19"/>
-        <v>44</v>
+        <f>F71+1</f>
+        <v>21</v>
       </c>
       <c r="Q147">
         <f t="shared" si="27"/>
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="148" spans="2:17">
       <c r="B148" s="1" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E148" t="s">
         <v>150</v>
       </c>
       <c r="G148" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I148" t="str">
         <f t="shared" si="28"/>
-        <v>Andrea Tartari                  \\</v>
+        <v>Eric Switzer                    \\</v>
       </c>
       <c r="K148">
         <f t="shared" si="29"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L148">
         <f t="shared" si="30"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M148" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="P148">
-        <f t="shared" si="19"/>
-        <v>45</v>
+        <f>F72+1</f>
+        <v>39</v>
       </c>
       <c r="Q148">
         <f t="shared" si="27"/>
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="149" spans="2:17">
-      <c r="B149" t="s">
-        <v>256</v>
+      <c r="B149" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="E149" t="s">
         <v>150</v>
       </c>
       <c r="G149" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="I149" t="str">
         <f t="shared" si="28"/>
-        <v>Grant Teply                     \\</v>
+        <v>Andrea Tartari                  \\</v>
       </c>
       <c r="K149">
         <f t="shared" si="29"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L149">
         <f t="shared" si="30"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M149" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                  </v>
       </c>
       <c r="P149">
-        <f t="shared" si="19"/>
-        <v>45</v>
+        <f>F73+1</f>
+        <v>14</v>
       </c>
       <c r="Q149">
         <f t="shared" si="27"/>
-        <v>46</v>
+        <v>15</v>
       </c>
     </row>
     <row r="150" spans="2:17">
-      <c r="B150" s="1" t="s">
-        <v>9</v>
+      <c r="B150" t="s">
+        <v>256</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="E150" t="s">
         <v>150</v>
       </c>
       <c r="G150" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="I150" t="str">
         <f t="shared" si="28"/>
-        <v>Peter Timbie                    \\</v>
+        <v>Grant Teply                     \\</v>
       </c>
       <c r="K150">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L150">
         <f t="shared" si="30"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M150" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">                     </v>
       </c>
       <c r="P150">
-        <f t="shared" si="19"/>
-        <v>45</v>
+        <f>F74+1</f>
+        <v>25</v>
       </c>
       <c r="Q150">
         <f t="shared" si="27"/>
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="151" spans="2:17">
-      <c r="B151" t="s">
-        <v>259</v>
+      <c r="B151" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="E151" t="s">
         <v>150</v>
       </c>
       <c r="G151" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="I151" t="str">
         <f t="shared" si="28"/>
-        <v>Matthieu Tristram               \\</v>
+        <v>Peter Timbie                    \\</v>
       </c>
       <c r="K151">
         <f t="shared" si="29"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L151">
         <f t="shared" si="30"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M151" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">               </v>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="P151">
-        <f t="shared" si="19"/>
-        <v>45</v>
+        <f>F75+1</f>
+        <v>38</v>
       </c>
       <c r="Q151">
         <f t="shared" si="27"/>
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="152" spans="2:17">
-      <c r="B152" s="1" t="s">
-        <v>313</v>
+      <c r="B152" t="s">
+        <v>259</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>314</v>
+        <v>260</v>
       </c>
       <c r="E152" t="s">
         <v>150</v>
       </c>
       <c r="G152" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="I152" t="str">
         <f t="shared" si="28"/>
-        <v>Caterina Umilt\`{a}             \\</v>
+        <v>Matthieu Tristram               \\</v>
       </c>
       <c r="K152">
         <f t="shared" si="29"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L152">
         <f t="shared" si="30"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M152" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">             </v>
+        <v xml:space="preserve">               </v>
       </c>
       <c r="P152">
-        <f t="shared" ref="P152:P163" si="32">F77+1</f>
-        <v>45</v>
+        <f>F76+1</f>
+        <v>25</v>
       </c>
       <c r="Q152">
         <f t="shared" si="27"/>
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="153" spans="2:17">
       <c r="B153" s="1" t="s">
-        <v>356</v>
+        <v>313</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
       <c r="E153" t="s">
         <v>150</v>
       </c>
       <c r="G153" t="s">
-        <v>351</v>
+        <v>274</v>
       </c>
       <c r="I153" t="str">
         <f t="shared" si="28"/>
-        <v>Licia Verde                     \\</v>
+        <v>Caterina Umilt\`{a}             \\</v>
       </c>
       <c r="K153">
         <f t="shared" si="29"/>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L153">
         <f t="shared" si="30"/>
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M153" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">             </v>
       </c>
       <c r="P153">
-        <f t="shared" si="32"/>
-        <v>46</v>
+        <f>F77+1</f>
+        <v>17</v>
       </c>
       <c r="Q153">
         <f t="shared" si="27"/>
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="154" spans="2:17">
       <c r="B154" s="1" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="E154" t="s">
         <v>150</v>
       </c>
-      <c r="G154" s="1" t="s">
-        <v>315</v>
+      <c r="G154" t="s">
+        <v>351</v>
       </c>
       <c r="I154" t="str">
         <f t="shared" si="28"/>
-        <v>Patricio Vielva                 \\</v>
+        <v>Licia Verde                     \\</v>
       </c>
       <c r="K154">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L154">
         <f t="shared" si="30"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M154" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">                     </v>
       </c>
       <c r="P154">
-        <f t="shared" si="32"/>
-        <v>47</v>
+        <f>F78+1</f>
+        <v>45</v>
       </c>
       <c r="Q154">
         <f t="shared" si="27"/>
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="155" spans="2:17">
       <c r="B155" s="1" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="E155" t="s">
         <v>150</v>
       </c>
-      <c r="G155" t="s">
-        <v>273</v>
+      <c r="G155" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="I155" t="str">
         <f t="shared" si="28"/>
-        <v>Benjamin Wallisch               \\</v>
+        <v>Patricio Vielva                 \\</v>
       </c>
       <c r="K155">
         <f t="shared" si="29"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L155">
         <f t="shared" si="30"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M155" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">               </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="P155">
-        <f t="shared" si="32"/>
+        <f>F79+1</f>
         <v>48</v>
       </c>
       <c r="Q155">
@@ -7533,336 +7550,370 @@
       </c>
     </row>
     <row r="156" spans="2:17">
-      <c r="B156" t="s">
-        <v>262</v>
+      <c r="B156" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="E156" t="s">
         <v>150</v>
       </c>
       <c r="G156" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="I156" t="str">
         <f t="shared" si="28"/>
-        <v>Scott Watson                    \\</v>
+        <v>Benjamin Wallisch               \\</v>
       </c>
       <c r="K156">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L156">
         <f t="shared" si="30"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M156" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">               </v>
       </c>
       <c r="P156">
-        <f t="shared" si="32"/>
-        <v>48</v>
+        <f>F80+1</f>
+        <v>45</v>
       </c>
       <c r="Q156">
         <f t="shared" si="27"/>
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="157" spans="2:17">
-      <c r="B157" s="5" t="s">
-        <v>396</v>
+      <c r="B157" t="s">
+        <v>262</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G157" s="1" t="s">
-        <v>379</v>
+        <v>263</v>
+      </c>
+      <c r="E157" t="s">
+        <v>150</v>
+      </c>
+      <c r="G157" t="s">
+        <v>264</v>
       </c>
       <c r="I157" t="str">
         <f t="shared" si="28"/>
-        <v>Rien van de Weygaert            \\</v>
+        <v>Scott Watson                    \\</v>
       </c>
       <c r="K157">
         <f t="shared" si="29"/>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="L157">
         <f t="shared" si="30"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M157" t="str">
         <f t="shared" si="31"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="P157">
-        <f t="shared" si="32"/>
-        <v>49</v>
+        <f>F81+1</f>
+        <v>35</v>
       </c>
       <c r="Q157">
         <f t="shared" si="27"/>
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="158" spans="2:17">
-      <c r="B158" t="s">
-        <v>265</v>
+      <c r="B158" s="5" t="s">
+        <v>396</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E158" t="s">
-        <v>150</v>
-      </c>
-      <c r="G158" t="s">
-        <v>55</v>
+        <v>397</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>379</v>
       </c>
       <c r="I158" t="str">
         <f t="shared" si="28"/>
-        <v>Edward J. Wollack               \\</v>
+        <v>Rien van de Weygaert            \\</v>
       </c>
       <c r="K158">
         <f t="shared" si="29"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L158">
         <f t="shared" si="30"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M158" t="str">
         <f t="shared" si="31"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="P158">
+        <f>F82+1</f>
+        <v>16</v>
+      </c>
+      <c r="Q158">
+        <f t="shared" si="27"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="159" spans="2:17">
+      <c r="B159" t="s">
+        <v>265</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E159" t="s">
+        <v>150</v>
+      </c>
+      <c r="G159" t="s">
+        <v>55</v>
+      </c>
+      <c r="I159" t="str">
+        <f t="shared" si="28"/>
+        <v>Edward J. Wollack               \\</v>
+      </c>
+      <c r="K159">
+        <f t="shared" si="29"/>
+        <v>17</v>
+      </c>
+      <c r="L159">
+        <f t="shared" si="30"/>
+        <v>15</v>
+      </c>
+      <c r="M159" t="str">
+        <f t="shared" si="31"/>
         <v xml:space="preserve">               </v>
       </c>
-      <c r="P158">
-        <f t="shared" si="32"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="2:17">
       <c r="P159">
-        <f t="shared" si="32"/>
+        <f>F83+1</f>
         <v>1</v>
       </c>
     </row>
     <row r="160" spans="2:17">
       <c r="P160">
-        <f t="shared" si="32"/>
+        <f>F84+1</f>
         <v>1</v>
       </c>
     </row>
     <row r="161" spans="2:16">
       <c r="P161">
-        <f t="shared" si="32"/>
+        <f>F85+1</f>
         <v>1</v>
       </c>
     </row>
     <row r="162" spans="2:16">
       <c r="P162">
-        <f t="shared" si="32"/>
+        <f>F86+1</f>
         <v>1</v>
       </c>
     </row>
     <row r="163" spans="2:16">
       <c r="P163">
-        <f t="shared" si="32"/>
+        <f>F87+1</f>
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="2:16">
-      <c r="B167" s="1" t="s">
+    <row r="164" spans="2:16">
+      <c r="P164">
+        <f>F88+1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="2:16">
+      <c r="B168" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C168" t="s">
         <v>141</v>
       </c>
-      <c r="D167"/>
-      <c r="E167" t="s">
-        <v>150</v>
-      </c>
-      <c r="I167" t="str">
-        <f>CONCATENATE(B167," ",C167,M167,"\\")</f>
+      <c r="D168"/>
+      <c r="E168" t="s">
+        <v>150</v>
+      </c>
+      <c r="I168" t="str">
+        <f>CONCATENATE(B168," ",C168,M168,"\\")</f>
         <v>Martin White                    \\</v>
       </c>
-      <c r="K167">
-        <f>LEN(B167) + LEN(C167) +1</f>
+      <c r="K168">
+        <f>LEN(B168) + LEN(C168) +1</f>
         <v>12</v>
       </c>
-      <c r="L167">
-        <f>IF(K167&lt;30,(32-K167),3)</f>
+      <c r="L168">
+        <f>IF(K168&lt;30,(32-K168),3)</f>
         <v>20</v>
       </c>
-      <c r="M167" t="str">
-        <f>REPT(" ",L167)</f>
+      <c r="M168" t="str">
+        <f>REPT(" ",L168)</f>
         <v xml:space="preserve">                    </v>
-      </c>
-    </row>
-    <row r="168" spans="2:16">
-      <c r="I168" t="str">
-        <f t="shared" ref="I168:I169" si="33">CONCATENATE(B168," ",C168,M168,"\\")</f>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="K168">
-        <f t="shared" ref="K168:K169" si="34">LEN(B168) + LEN(C168) +1</f>
-        <v>1</v>
-      </c>
-      <c r="L168">
-        <f t="shared" ref="L168:L169" si="35">IF(K168&lt;30,(32-K168),3)</f>
-        <v>31</v>
-      </c>
-      <c r="M168" t="str">
-        <f t="shared" ref="M168:M182" si="36">REPT(" ",L168)</f>
-        <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="169" spans="2:16">
       <c r="I169" t="str">
+        <f t="shared" ref="I169:I170" si="32">CONCATENATE(B169," ",C169,M169,"\\")</f>
+        <v xml:space="preserve">                                \\</v>
+      </c>
+      <c r="K169">
+        <f t="shared" ref="K169:K170" si="33">LEN(B169) + LEN(C169) +1</f>
+        <v>1</v>
+      </c>
+      <c r="L169">
+        <f t="shared" ref="L169:L170" si="34">IF(K169&lt;30,(32-K169),3)</f>
+        <v>31</v>
+      </c>
+      <c r="M169" t="str">
+        <f t="shared" ref="M169:M183" si="35">REPT(" ",L169)</f>
+        <v xml:space="preserve">                               </v>
+      </c>
+    </row>
+    <row r="170" spans="2:16">
+      <c r="I170" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">                                \\</v>
+      </c>
+      <c r="K170">
         <f t="shared" si="33"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="K169">
+        <v>1</v>
+      </c>
+      <c r="L170">
         <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="L169">
+        <v>31</v>
+      </c>
+      <c r="M170" t="str">
         <f t="shared" si="35"/>
-        <v>31</v>
-      </c>
-      <c r="M169" t="str">
-        <f t="shared" si="36"/>
         <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="170" spans="2:16">
-      <c r="M170" t="str">
-        <f t="shared" si="36"/>
-        <v/>
       </c>
     </row>
     <row r="171" spans="2:16">
       <c r="M171" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
     <row r="172" spans="2:16">
-      <c r="B172" s="8" t="s">
+      <c r="M172" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="2:16">
+      <c r="B173" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="M172" t="str">
-        <f t="shared" si="36"/>
+      <c r="M173" t="str">
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
-    <row r="173" spans="2:16">
-      <c r="M173" t="str">
-        <f t="shared" si="36"/>
+    <row r="174" spans="2:16">
+      <c r="M174" t="str">
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
-    <row r="174" spans="2:16">
-      <c r="B174" s="5" t="s">
+    <row r="175" spans="2:16">
+      <c r="B175" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="C175" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="D174" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E174" t="s">
+      <c r="D175" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E175" t="s">
         <v>382</v>
       </c>
-      <c r="M174" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-    </row>
-    <row r="175" spans="2:16">
-      <c r="B175" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E175" t="s">
-        <v>388</v>
-      </c>
       <c r="M175" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
     <row r="176" spans="2:16">
       <c r="B176" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E176" t="s">
+        <v>388</v>
+      </c>
+      <c r="M176" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="2:13">
+      <c r="B177" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="C177" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="D176" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E176" t="s">
+      <c r="D177" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E177" t="s">
         <v>394</v>
       </c>
-      <c r="M176" t="str">
-        <f t="shared" si="36"/>
+      <c r="M177" t="str">
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
-    <row r="177" spans="13:13">
-      <c r="M177" t="str">
-        <f t="shared" si="36"/>
+    <row r="178" spans="2:13">
+      <c r="M178" t="str">
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
-    <row r="178" spans="13:13">
-      <c r="M178" t="str">
-        <f t="shared" si="36"/>
+    <row r="179" spans="2:13">
+      <c r="M179" t="str">
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
-    <row r="179" spans="13:13">
-      <c r="M179" t="str">
-        <f t="shared" si="36"/>
+    <row r="180" spans="2:13">
+      <c r="M180" t="str">
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
-    <row r="180" spans="13:13">
-      <c r="M180" t="str">
-        <f t="shared" si="36"/>
+    <row r="181" spans="2:13">
+      <c r="M181" t="str">
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
-    <row r="181" spans="13:13">
-      <c r="M181" t="str">
-        <f t="shared" si="36"/>
+    <row r="182" spans="2:13">
+      <c r="M182" t="str">
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
-    <row r="182" spans="13:13">
-      <c r="M182" t="str">
-        <f t="shared" si="36"/>
+    <row r="183" spans="2:13">
+      <c r="M183" t="str">
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
-    <row r="194" spans="2:4">
-      <c r="C194"/>
-      <c r="D194"/>
-    </row>
     <row r="195" spans="2:4">
-      <c r="B195" s="6"/>
+      <c r="C195"/>
+      <c r="D195"/>
     </row>
     <row r="196" spans="2:4">
-      <c r="C196"/>
-      <c r="D196"/>
+      <c r="B196" s="6"/>
     </row>
     <row r="197" spans="2:4">
       <c r="C197"/>
@@ -7900,9 +7951,13 @@
       <c r="C205"/>
       <c r="D205"/>
     </row>
+    <row r="206" spans="2:4">
+      <c r="C206"/>
+      <c r="D206"/>
+    </row>
   </sheetData>
-  <sortState ref="B10:H82">
-    <sortCondition ref="G10:G82"/>
+  <sortState ref="B10:G82">
+    <sortCondition ref="C10:C82"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -12874,19 +12929,19 @@
         <v>315</v>
       </c>
       <c r="I154" t="str">
-        <f t="shared" ref="I154:I186" si="14">CONCATENATE(B154," ",C154,M154,"\\")</f>
+        <f t="shared" ref="I154:I158" si="14">CONCATENATE(B154," ",C154,M154,"\\")</f>
         <v>Patricio Vielva                 \\</v>
       </c>
       <c r="K154">
-        <f t="shared" ref="K154:K186" si="15">LEN(B154) + LEN(C154) +1</f>
+        <f t="shared" ref="K154:K158" si="15">LEN(B154) + LEN(C154) +1</f>
         <v>15</v>
       </c>
       <c r="L154">
-        <f t="shared" ref="L154:L186" si="16">IF(K154&lt;30,(32-K154),3)</f>
+        <f t="shared" ref="L154:L158" si="16">IF(K154&lt;30,(32-K154),3)</f>
         <v>17</v>
       </c>
       <c r="M154" t="str">
-        <f t="shared" ref="M154:M186" si="17">REPT(" ",L154)</f>
+        <f t="shared" ref="M154:M158" si="17">REPT(" ",L154)</f>
         <v xml:space="preserve">                 </v>
       </c>
     </row>

--- a/ReferenceDocuments/ReportAuthors.xlsx
+++ b/ReferenceDocuments/ReportAuthors.xlsx
@@ -1520,15 +1520,9 @@
     <t>University of California, Davis</t>
   </si>
   <si>
-    <t>CEA Saclay, DRF/Irfu/SPP, France</t>
-  </si>
-  <si>
     <t>Department of Astronomy \&amp; Astrophysics and Dunlap Institute, University of Toronto, Canada</t>
   </si>
   <si>
-    <t>APC, CNRS/IN2P3, Paris, France,    &amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp; DAP, CEA/lrfu, Centre d'Etudes de Saclay, France</t>
-  </si>
-  <si>
     <t>University of California, Berkeley &amp;&amp;&amp;&amp;&amp;&amp;&amp; LBNL</t>
   </si>
   <si>
@@ -1541,9 +1535,6 @@
     <t>26,27</t>
   </si>
   <si>
-    <t>APC - Universit\'e Paris Diderot,  &amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;    JPL - California Institute of Technology</t>
-  </si>
-  <si>
     <t>Institut d'Astrophysique Spatiale, Orsay, France</t>
   </si>
   <si>
@@ -1587,6 +1578,15 @@
   </si>
   <si>
     <t>Universit\`a degli studi di Milano</t>
+  </si>
+  <si>
+    <t>APC, CNRS, Universit\'e Paris-Diderot, France &amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;    JPL - California Institute of Technology</t>
+  </si>
+  <si>
+    <t>APC, CNRS, Universit\'e Paris-Diderot, France   &amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp; IRFU, CEA, University\'e Paris-Saclay, France</t>
+  </si>
+  <si>
+    <t>IRFU, CEA, University\'e Paris-Saclay, France</t>
   </si>
 </sst>
 </file>
@@ -2070,8 +2070,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Y26" sqref="Y26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -2136,7 +2136,7 @@
         <v>270</v>
       </c>
       <c r="O7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -2180,264 +2180,267 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>369</v>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>428</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="G10" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
       <c r="I10" t="str">
         <f>CONCATENATE(B10," ",C10, " $^{", F10,"}$", M10,"\\")</f>
-        <v>Marcelo Alvarez $^{26,39}$                 \\</v>
+        <v>Jacques Delabrouille $^{2,3}$            \\</v>
       </c>
       <c r="K10">
         <f>LEN(B10) + LEN(C10) +1</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L10">
         <f>IF(K10&lt;30,(32-K10),3)</f>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="M10" t="str">
         <f>REPT(" ",L10)</f>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">            </v>
       </c>
       <c r="O10" t="str">
         <f>CONCATENATE(F10, ". ", G10, ".  \\")</f>
-        <v>26,39. University of California, Berkeley &amp;&amp;&amp;&amp;&amp;&amp;&amp; LBNL.  \\</v>
+        <v>2,3. APC, CNRS, Universit\'e Paris-Diderot, France   &amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp; IRFU, CEA, University\'e Paris-Saclay, France.  \\</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="B11" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>416</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="G11" t="s">
-        <v>495</v>
+        <v>511</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" ref="I11:I74" si="0">CONCATENATE(B11," ",C11, " $^{", F11,"}$", M11,"\\")</f>
-        <v>Peter Ashton $^{26,39}$                    \\</v>
+        <v>James G. Bartlett $^{1,24}$               \\</v>
       </c>
       <c r="K11">
         <f t="shared" ref="K11:K73" si="1">LEN(B11) + LEN(C11) +1</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L11">
         <f t="shared" ref="L11:L73" si="2">IF(K11&lt;30,(32-K11),3)</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" ref="M11:M73" si="3">REPT(" ",L11)</f>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">               </v>
       </c>
       <c r="O11" t="str">
         <f t="shared" ref="O11:O74" si="4">CONCATENATE(F11, ". ", G11, ".  \\")</f>
-        <v>26,39. University of California, Berkeley &amp;&amp;&amp;&amp;&amp;&amp; LBNL.  \\</v>
+        <v>1,24. APC, CNRS, Universit\'e Paris-Diderot, France &amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;    JPL - California Institute of Technology.  \\</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="B12" t="s">
-        <v>12</v>
+      <c r="B12" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
       </c>
       <c r="F12">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="G12" t="s">
-        <v>482</v>
+        <v>223</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="0"/>
-        <v>Jonathan Aumont $^{22}$                 \\</v>
+        <v>Tim Pearson $^{4}$                     \\</v>
       </c>
       <c r="K12">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L12">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">                     </v>
       </c>
       <c r="O12" t="str">
         <f t="shared" si="4"/>
-        <v>22. IRAP, Universit\'e de Toulouse, France.  \\</v>
+        <v>4. California Institute of Technology.  \\</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>414</v>
+        <v>301</v>
+      </c>
+      <c r="C13" t="s">
+        <v>300</v>
+      </c>
+      <c r="D13" t="s">
+        <v>432</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
       </c>
       <c r="F13">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="0"/>
-        <v>Ranajoy Banerji $^{45}$                 \\</v>
+        <v>Alexander van Engelen $^{5}$           \\</v>
       </c>
       <c r="K13">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="L13">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="M13" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">           </v>
       </c>
       <c r="O13" t="str">
         <f t="shared" si="4"/>
-        <v>45. University of Oslo, Norway.  \\</v>
+        <v>5. Canadian Institute for Theoretical Astrophysics, University of Toronto, Canada.  \\</v>
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="B14" s="1" t="s">
-        <v>17</v>
+      <c r="B14" t="s">
+        <v>102</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>415</v>
+        <v>457</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
       </c>
       <c r="F14">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G14" t="s">
-        <v>512</v>
+        <v>104</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="0"/>
-        <v>Belen Barreiro $^{21}$                  \\</v>
+        <v>Mattia Negrello $^{6}$                 \\</v>
       </c>
       <c r="K14">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L14">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M14" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="O14" t="str">
         <f t="shared" si="4"/>
-        <v>21. Instituto de F\'isica de Cantabria (CSIC-Universidad de Cantabria), Spain.  \\</v>
+        <v>6. Cardiff University School of Physics and Astronomy.  \\</v>
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="B15" t="s">
-        <v>19</v>
+      <c r="B15" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>416</v>
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>435</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
       </c>
-      <c r="F15" t="s">
-        <v>496</v>
+      <c r="F15">
+        <v>8</v>
       </c>
       <c r="G15" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="0"/>
-        <v>James G. Bartlett $^{1,24}$               \\</v>
+        <v>Stephen Feeney $^{8}$                  \\</v>
       </c>
       <c r="K15">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L15">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M15" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">               </v>
+        <v xml:space="preserve">                  </v>
       </c>
       <c r="O15" t="str">
         <f t="shared" si="4"/>
-        <v>1,24. APC - Universit\'e Paris Diderot,  &amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;    JPL - California Institute of Technology.  \\</v>
+        <v>8. Center for Computational Astrophysics, Flatiron Institute.  \\</v>
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="B16" s="1" t="s">
-        <v>22</v>
+      <c r="B16" t="s">
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>417</v>
+        <v>448</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
       </c>
       <c r="F16">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="G16" t="s">
-        <v>483</v>
+        <v>373</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="0"/>
-        <v>Soumen Basak $^{35}$                    \\</v>
+        <v>Brad Johnson $^{9}$                    \\</v>
       </c>
       <c r="K16">
         <f t="shared" si="1"/>
@@ -2453,667 +2456,657 @@
       </c>
       <c r="O16" t="str">
         <f t="shared" si="4"/>
-        <v>35. School of Physics, Indian Institute of Science Education and Research Thiruvananthapuram,  India.  \\</v>
+        <v>9. Columbia University.  \\</v>
       </c>
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>370</v>
+        <v>323</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>446</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
       </c>
       <c r="F17">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>87</v>
+        <v>491</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="0"/>
-        <v>Nick Battaglia $^{32}$                  \\</v>
+        <v>Ren\'{e}e  Hlo\v{z}ek $^{10}$           \\</v>
       </c>
       <c r="K17">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L17">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="M17" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">           </v>
       </c>
       <c r="O17" t="str">
         <f t="shared" si="4"/>
-        <v>32. Princeton University.  \\</v>
+        <v>10. Department of Astronomy \&amp; Astrophysics and Dunlap Institute, University of Toronto, Canada.  \\</v>
       </c>
     </row>
     <row r="18" spans="2:15">
-      <c r="B18" t="s">
-        <v>163</v>
+      <c r="B18" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="C18" t="s">
-        <v>164</v>
+        <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>418</v>
+        <v>455</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
       </c>
       <c r="F18">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>110</v>
+        <v>341</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="0"/>
-        <v>Jamie Bock $^{24}$                      \\</v>
+        <v>Zack Li $^{11}$                         \\</v>
       </c>
       <c r="K18">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L18">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M18" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                      </v>
+        <v xml:space="preserve">                         </v>
       </c>
       <c r="O18" t="str">
         <f t="shared" si="4"/>
-        <v>24. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
+        <v>11. Department of Astrophysical Sciences, Princeton University.  \\</v>
       </c>
     </row>
     <row r="19" spans="2:15">
       <c r="B19" s="1" t="s">
-        <v>322</v>
+        <v>98</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>419</v>
+        <v>99</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
       </c>
       <c r="F19">
-        <v>25</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>201</v>
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>341</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="0"/>
-        <v>Kimberly K. Boddy $^{25}$               \\</v>
+        <v>Mathew Madhavacheril $^{11}$            \\</v>
       </c>
       <c r="K19">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L19">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M19" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">               </v>
+        <v xml:space="preserve">            </v>
       </c>
       <c r="O19" t="str">
         <f t="shared" si="4"/>
-        <v>25. Johns Hopkins University.  \\</v>
+        <v>11. Department of Astrophysical Sciences, Princeton University.  \\</v>
       </c>
     </row>
     <row r="20" spans="2:15">
       <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>420</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="C20" t="s">
+        <v>306</v>
+      </c>
+      <c r="D20"/>
       <c r="E20" t="s">
         <v>8</v>
       </c>
       <c r="F20">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>484</v>
+        <v>275</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="0"/>
-        <v>Matteo Bonato $^{14}$                   \\</v>
+        <v>Marcos L\'{o}pez-Caniego $^{12}$        \\</v>
       </c>
       <c r="K20">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="L20">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="M20" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">        </v>
       </c>
       <c r="O20" t="str">
         <f t="shared" si="4"/>
-        <v>14. INAF-Istituto di Radioastronomia and Italian ALMA Regional Centre, Italy.  \\</v>
+        <v>12. European Space Astronomy Centre.  \\</v>
       </c>
     </row>
     <row r="21" spans="2:15">
-      <c r="B21" s="1" t="s">
-        <v>29</v>
+      <c r="B21" t="s">
+        <v>126</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>421</v>
+        <v>127</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
       </c>
-      <c r="F21" t="s">
-        <v>497</v>
+      <c r="F21">
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>505</v>
+        <v>128</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="0"/>
-        <v>Julian Borrill $^{26,27}$                  \\</v>
+        <v>Ian Stephens $^{13}$                    \\</v>
       </c>
       <c r="K21">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L21">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M21" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="O21" t="str">
         <f t="shared" si="4"/>
-        <v>26,27. Lawrence Berkeley National Laboratory, &amp;&amp;&amp;&amp;&amp;   Space Sciences Laboratory, University of California, Berkeley.  \\</v>
+        <v>13. Harvard-Smithsonian Center for Astrophysics.  \\</v>
       </c>
     </row>
     <row r="22" spans="2:15">
-      <c r="B22" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C22" t="s">
-        <v>186</v>
-      </c>
-      <c r="D22"/>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>420</v>
+      </c>
       <c r="E22" t="s">
         <v>8</v>
       </c>
       <c r="F22">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G22" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="0"/>
-        <v>Fran\c{c}ois Bouchet $^{18}$            \\</v>
+        <v>Matteo Bonato $^{14}$                   \\</v>
       </c>
       <c r="K22">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L22">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M22" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                   </v>
       </c>
       <c r="O22" t="str">
         <f t="shared" si="4"/>
-        <v>18. Institut d'Astrophysique de Paris, France.  \\</v>
+        <v>14. INAF-Istituto di Radioastronomia and Italian ALMA Regional Centre, Italy.  \\</v>
       </c>
     </row>
     <row r="23" spans="2:15">
-      <c r="B23" s="1" t="s">
-        <v>305</v>
+      <c r="B23" t="s">
+        <v>303</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>31</v>
+        <v>302</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>422</v>
+        <v>474</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
       </c>
       <c r="F23">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G23" t="s">
-        <v>499</v>
+        <v>42</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="0"/>
-        <v>Fran\c{c}ois Boulanger $^{17}$          \\</v>
+        <v>Gianfranco De Zotti $^{15}$             \\</v>
       </c>
       <c r="K23">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L23">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M23" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">          </v>
+        <v xml:space="preserve">             </v>
       </c>
       <c r="O23" t="str">
         <f t="shared" si="4"/>
-        <v>17. Institut d'Astrophysique Spatiale, Orsay, France.  \\</v>
+        <v>15. INAF-Osservatorio Astronomico di Padova, Italy.  \\</v>
       </c>
     </row>
     <row r="24" spans="2:15">
-      <c r="B24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>423</v>
-      </c>
+      <c r="B24" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C24" t="s">
+        <v>186</v>
+      </c>
+      <c r="D24"/>
       <c r="E24" t="s">
         <v>8</v>
       </c>
       <c r="F24">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>480</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="0"/>
-        <v>Blakesley Burkhart $^{33}$              \\</v>
+        <v>Fran\c{c}ois Bouchet $^{18}$            \\</v>
       </c>
       <c r="K24">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L24">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M24" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">              </v>
+        <v xml:space="preserve">            </v>
       </c>
       <c r="O24" t="str">
         <f t="shared" si="4"/>
-        <v>33. Rutgers.  \\</v>
+        <v>18. Institut d'Astrophysique de Paris, France.  \\</v>
       </c>
     </row>
     <row r="25" spans="2:15">
       <c r="B25" t="s">
-        <v>170</v>
-      </c>
-      <c r="C25" t="s">
-        <v>171</v>
-      </c>
-      <c r="D25" t="s">
-        <v>424</v>
+        <v>77</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>445</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
       </c>
       <c r="F25">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" si="0"/>
-        <v>Jens Chluba $^{23}$                     \\</v>
+        <v>Eric Hivon $^{18}$                      \\</v>
       </c>
       <c r="K25">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L25">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M25" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                      </v>
       </c>
       <c r="O25" t="str">
         <f t="shared" si="4"/>
-        <v>23. JBCA, University of Manchester.  \\</v>
+        <v>18. Institut d'Astrophysique de Paris, France.  \\</v>
       </c>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>425</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="C26" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26"/>
       <c r="E26" t="s">
         <v>8</v>
       </c>
       <c r="F26">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="G26" t="s">
-        <v>331</v>
+        <v>497</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="0"/>
-        <v>David Chuss $^{48}$                     \\</v>
+        <v>Flavien Vansyngel $^{16}$               \\</v>
       </c>
       <c r="K26">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L26">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M26" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">               </v>
       </c>
       <c r="O26" t="str">
         <f t="shared" si="4"/>
-        <v>48. Villanova University.  \\</v>
+        <v>16. Institut d'Astrophysique Spatiale, CNRS, Univ. Paris-Sud, Universit\'e Paris-Saclay, France.  \\</v>
       </c>
     </row>
     <row r="27" spans="2:15">
-      <c r="B27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27"/>
+      <c r="B27" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="E27" t="s">
         <v>8</v>
       </c>
       <c r="F27">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G27" t="s">
-        <v>343</v>
+        <v>496</v>
       </c>
       <c r="I27" t="str">
         <f t="shared" si="0"/>
-        <v>Susan E. Clark $^{20}$                  \\</v>
+        <v>Fran\c{c}ois Boulanger $^{17}$          \\</v>
       </c>
       <c r="K27">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="L27">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="M27" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">          </v>
       </c>
       <c r="O27" t="str">
         <f t="shared" si="4"/>
-        <v>20. Institute for Advanced Study, Princeton.  \\</v>
+        <v>17. Institut d'Astrophysique Spatiale, Orsay, France.  \\</v>
       </c>
     </row>
     <row r="28" spans="2:15">
       <c r="B28" s="1" t="s">
-        <v>362</v>
+        <v>51</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>363</v>
+        <v>52</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="E28" t="s">
         <v>8</v>
       </c>
       <c r="F28">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>110</v>
+        <v>486</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="0"/>
-        <v>Joelle Cooperrider $^{24}$              \\</v>
+        <v>Josquin Errard $^{19}$                  \\</v>
       </c>
       <c r="K28">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L28">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M28" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">              </v>
+        <v xml:space="preserve">                  </v>
       </c>
       <c r="O28" t="str">
         <f t="shared" si="4"/>
-        <v>24. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
+        <v>19. Institut Lagrange, LPNHE,  Paris, France.  \\</v>
       </c>
     </row>
     <row r="29" spans="2:15">
       <c r="B29" s="1" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>427</v>
+        <v>76</v>
+      </c>
+      <c r="D29" t="s">
+        <v>444</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
       </c>
-      <c r="F29">
-        <v>24</v>
+      <c r="F29" t="s">
+        <v>499</v>
       </c>
       <c r="G29" t="s">
-        <v>110</v>
+        <v>338</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" si="0"/>
-        <v>Brendan Crill $^{24}$                   \\</v>
+        <v>Colin Hill $^{8,20}$                      \\</v>
       </c>
       <c r="K29">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L29">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M29" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">                      </v>
       </c>
       <c r="O29" t="str">
         <f t="shared" si="4"/>
-        <v>24. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
+        <v>8,20. Institute for Advanced Study, Flatiron Institute.  \\</v>
       </c>
     </row>
     <row r="30" spans="2:15">
       <c r="B30" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" t="s">
-        <v>428</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D30"/>
       <c r="E30" t="s">
         <v>8</v>
       </c>
-      <c r="F30" t="s">
-        <v>501</v>
+      <c r="F30">
+        <v>20</v>
       </c>
       <c r="G30" t="s">
-        <v>493</v>
+        <v>343</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="0"/>
-        <v>Jacques Delabrouille $^{2,3}$            \\</v>
+        <v>Susan E. Clark $^{20}$                  \\</v>
       </c>
       <c r="K30">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M30" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                  </v>
       </c>
       <c r="O30" t="str">
         <f t="shared" si="4"/>
-        <v>2,3. APC, CNRS/IN2P3, Paris, France,    &amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp; DAP, CEA/lrfu, Centre d'Etudes de Saclay, France.  \\</v>
+        <v>20. Institute for Advanced Study, Princeton.  \\</v>
       </c>
     </row>
     <row r="31" spans="2:15">
-      <c r="B31" t="s">
-        <v>45</v>
+      <c r="B31" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
       </c>
       <c r="F31">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>343</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="0"/>
-        <v>Eleonora Di Valentino $^{43}$           \\</v>
+        <v>Vera Gluscevic $^{20}$                  \\</v>
       </c>
       <c r="K31">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="L31">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="M31" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">           </v>
+        <v xml:space="preserve">                  </v>
       </c>
       <c r="O31" t="str">
         <f t="shared" si="4"/>
-        <v>43. University of Manchester.  \\</v>
+        <v>20. Institute for Advanced Study, Princeton.  \\</v>
       </c>
     </row>
     <row r="32" spans="2:15">
       <c r="B32" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>430</v>
+        <v>466</v>
       </c>
       <c r="E32" t="s">
         <v>8</v>
       </c>
       <c r="F32">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="G32" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="0"/>
-        <v>Joy Didier $^{46}$                      \\</v>
+        <v>Marcel Schmittfull $^{20}$              \\</v>
       </c>
       <c r="K32">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="L32">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="M32" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                      </v>
+        <v xml:space="preserve">              </v>
       </c>
       <c r="O32" t="str">
         <f t="shared" si="4"/>
-        <v>46. University of Southern California.  \\</v>
+        <v>20. Institute for Advanced Study, Princeton.  \\</v>
       </c>
     </row>
     <row r="33" spans="2:15">
-      <c r="B33" t="s">
-        <v>50</v>
+      <c r="B33" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>304</v>
+        <v>18</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="E33" t="s">
         <v>8</v>
       </c>
       <c r="F33">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G33" t="s">
-        <v>110</v>
+        <v>509</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" si="0"/>
-        <v>Olivier Dor\'e $^{24}$                  \\</v>
+        <v>Belen Barreiro $^{21}$                  \\</v>
       </c>
       <c r="K33">
         <f t="shared" si="1"/>
@@ -3129,311 +3122,308 @@
       </c>
       <c r="O33" t="str">
         <f t="shared" si="4"/>
-        <v>24. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
+        <v>21. Instituto de F\'isica de Cantabria (CSIC-Universidad de Cantabria), Spain.  \\</v>
       </c>
     </row>
     <row r="34" spans="2:15">
-      <c r="B34" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C34" t="s">
-        <v>300</v>
-      </c>
-      <c r="D34" t="s">
-        <v>432</v>
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="E34" t="s">
         <v>8</v>
       </c>
       <c r="F34">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G34" t="s">
-        <v>485</v>
+        <v>509</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" si="0"/>
-        <v>Alexander van Engelen $^{5}$           \\</v>
+        <v>Diego Herranz $^{21}$                   \\</v>
       </c>
       <c r="K34">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M34" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">           </v>
+        <v xml:space="preserve">                   </v>
       </c>
       <c r="O34" t="str">
         <f t="shared" si="4"/>
-        <v>5. Canadian Institute for Theoretical Astrophysics, University of Toronto, Canada.  \\</v>
+        <v>21. Instituto de F\'isica de Cantabria (CSIC-Universidad de Cantabria), Spain.  \\</v>
       </c>
     </row>
     <row r="35" spans="2:15">
-      <c r="B35" s="1" t="s">
-        <v>51</v>
+      <c r="B35" t="s">
+        <v>12</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
       <c r="E35" t="s">
         <v>8</v>
       </c>
       <c r="F35">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G35" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="0"/>
-        <v>Josquin Errard $^{19}$                  \\</v>
+        <v>Jonathan Aumont $^{22}$                 \\</v>
       </c>
       <c r="K35">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L35">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M35" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="O35" t="str">
         <f t="shared" si="4"/>
-        <v>19. Institut Lagrange, LPNHE,  Paris, France.  \\</v>
+        <v>22. IRAP, Universit\'e de Toulouse, France.  \\</v>
       </c>
     </row>
     <row r="36" spans="2:15">
-      <c r="B36" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>434</v>
+      <c r="B36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" t="s">
+        <v>456</v>
       </c>
       <c r="E36" t="s">
         <v>8</v>
       </c>
       <c r="F36">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="G36" t="s">
-        <v>55</v>
+        <v>513</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" si="0"/>
-        <v>Tom Essinger-Hileman $^{28}$            \\</v>
+        <v>Jean-Baptiste Melin $^{7}$             \\</v>
       </c>
       <c r="K36">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L36">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M36" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">             </v>
       </c>
       <c r="O36" t="str">
         <f t="shared" si="4"/>
-        <v>28. NASA Goddard Space Flight Center.  \\</v>
+        <v>7. IRFU, CEA, University\'e Paris-Saclay, France.  \\</v>
       </c>
     </row>
     <row r="37" spans="2:15">
-      <c r="B37" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>57</v>
+      <c r="B37" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" t="s">
+        <v>171</v>
       </c>
       <c r="D37" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>
       </c>
       <c r="F37">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="G37" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" si="0"/>
-        <v>Stephen Feeney $^{8}$                  \\</v>
+        <v>Jens Chluba $^{23}$                     \\</v>
       </c>
       <c r="K37">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L37">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M37" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                     </v>
       </c>
       <c r="O37" t="str">
         <f t="shared" si="4"/>
-        <v>8. Center for Computational Astrophysics, Flatiron Institute.  \\</v>
+        <v>23. JBCA, University of Manchester.  \\</v>
       </c>
     </row>
     <row r="38" spans="2:15">
       <c r="B38" t="s">
-        <v>295</v>
+        <v>163</v>
       </c>
       <c r="C38" t="s">
-        <v>296</v>
+        <v>164</v>
       </c>
       <c r="D38" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="E38" t="s">
         <v>8</v>
       </c>
       <c r="F38">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="G38" t="s">
-        <v>280</v>
+        <v>110</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" si="0"/>
-        <v>Jeffrey Filippini $^{42}$               \\</v>
+        <v>Jamie Bock $^{24}$                      \\</v>
       </c>
       <c r="K38">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="L38">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M38" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">               </v>
+        <v xml:space="preserve">                      </v>
       </c>
       <c r="O38" t="str">
         <f t="shared" si="4"/>
-        <v>42. University of Illinois, Urbana-Champaign.  \\</v>
+        <v>24. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
       </c>
     </row>
     <row r="39" spans="2:15">
-      <c r="B39" t="s">
-        <v>58</v>
+      <c r="B39" s="1" t="s">
+        <v>362</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>59</v>
+        <v>363</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="E39" t="s">
         <v>8</v>
       </c>
       <c r="F39">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G39" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="I39" t="str">
         <f t="shared" si="0"/>
-        <v>Laura Fissel $^{30}$                    \\</v>
+        <v>Joelle Cooperrider $^{24}$              \\</v>
       </c>
       <c r="K39">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L39">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M39" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">              </v>
       </c>
       <c r="O39" t="str">
         <f t="shared" si="4"/>
-        <v>30. National Radio Astronomy Observatory.  \\</v>
+        <v>24. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
       </c>
     </row>
     <row r="40" spans="2:15">
-      <c r="B40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" t="s">
-        <v>62</v>
-      </c>
-      <c r="D40" t="s">
-        <v>438</v>
+      <c r="B40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>427</v>
       </c>
       <c r="E40" t="s">
         <v>8</v>
       </c>
       <c r="F40">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G40" t="s">
-        <v>488</v>
+        <v>110</v>
       </c>
       <c r="I40" t="str">
         <f t="shared" si="0"/>
-        <v>Raphael Flauger $^{41}$                 \\</v>
+        <v>Brendan Crill $^{24}$                   \\</v>
       </c>
       <c r="K40">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L40">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M40" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">                   </v>
       </c>
       <c r="O40" t="str">
         <f t="shared" si="4"/>
-        <v>41. University of California, San Diego.  \\</v>
+        <v>24. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
       </c>
     </row>
     <row r="41" spans="2:15">
-      <c r="B41" s="1" t="s">
-        <v>64</v>
+      <c r="B41" t="s">
+        <v>50</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>65</v>
+        <v>304</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="E41" t="s">
         <v>8</v>
       </c>
       <c r="F41">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G41" t="s">
-        <v>343</v>
+        <v>110</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" si="0"/>
-        <v>Vera Gluscevic $^{20}$                  \\</v>
+        <v>Olivier Dor\'e $^{24}$                  \\</v>
       </c>
       <c r="K41">
         <f t="shared" si="1"/>
@@ -3449,7 +3439,7 @@
       </c>
       <c r="O41" t="str">
         <f t="shared" si="4"/>
-        <v>20. Institute for Advanced Study, Princeton.  \\</v>
+        <v>24. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
       </c>
     </row>
     <row r="42" spans="2:15">
@@ -3494,1389 +3484,1387 @@
     </row>
     <row r="43" spans="2:15">
       <c r="B43" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>441</v>
+        <v>92</v>
+      </c>
+      <c r="C43" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" t="s">
+        <v>453</v>
       </c>
       <c r="E43" t="s">
         <v>8</v>
       </c>
       <c r="F43">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="G43" t="s">
-        <v>337</v>
+        <v>110</v>
       </c>
       <c r="I43" t="str">
         <f t="shared" si="0"/>
-        <v>Dan Green $^{39}$                       \\</v>
+        <v>Charles Lawrence $^{24}$                \\</v>
       </c>
       <c r="K43">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L43">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M43" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                       </v>
+        <v xml:space="preserve">                </v>
       </c>
       <c r="O43" t="str">
         <f t="shared" si="4"/>
-        <v>39. University of California, Berkeley.  \\</v>
+        <v>24. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
       </c>
     </row>
     <row r="44" spans="2:15">
-      <c r="B44" s="1" t="s">
-        <v>411</v>
+      <c r="B44" t="s">
+        <v>108</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="D44" t="s">
-        <v>442</v>
+        <v>109</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>459</v>
       </c>
       <c r="E44" t="s">
         <v>8</v>
       </c>
       <c r="F44">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="G44" t="s">
-        <v>410</v>
+        <v>110</v>
       </c>
       <c r="I44" t="str">
         <f t="shared" si="0"/>
-        <v>Shaul Hanany $^{44}$                    \\</v>
+        <v>Roger O'Brient $^{24}$                  \\</v>
       </c>
       <c r="K44">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L44">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M44" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">                  </v>
       </c>
       <c r="O44" t="str">
         <f t="shared" si="4"/>
-        <v>44. University of Minnesota - Twin Cities.  \\</v>
+        <v>24. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
       </c>
     </row>
     <row r="45" spans="2:15">
       <c r="B45" s="1" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>
       </c>
       <c r="F45">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G45" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="I45" t="str">
         <f t="shared" si="0"/>
-        <v>Brandon Hensley $^{32}$                 \\</v>
+        <v>Chris Paine $^{24}$                     \\</v>
       </c>
       <c r="K45">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L45">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M45" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">                     </v>
       </c>
       <c r="O45" t="str">
         <f t="shared" si="4"/>
-        <v>32. Princeton University.  \\</v>
+        <v>24. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
       </c>
     </row>
     <row r="46" spans="2:15">
       <c r="B46" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>73</v>
+        <v>123</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>465</v>
       </c>
       <c r="E46" t="s">
         <v>8</v>
       </c>
       <c r="F46">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G46" t="s">
-        <v>512</v>
+        <v>110</v>
       </c>
       <c r="I46" t="str">
         <f t="shared" si="0"/>
-        <v>Diego Herranz $^{21}$                   \\</v>
+        <v>Graca Rocha $^{24}$                     \\</v>
       </c>
       <c r="K46">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L46">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M46" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">                     </v>
       </c>
       <c r="O46" t="str">
         <f t="shared" si="4"/>
-        <v>21. Instituto de F\'isica de Cantabria (CSIC-Universidad de Cantabria), Spain.  \\</v>
+        <v>24. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
       </c>
     </row>
     <row r="47" spans="2:15">
       <c r="B47" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>76</v>
+        <v>129</v>
+      </c>
+      <c r="C47" t="s">
+        <v>130</v>
       </c>
       <c r="D47" t="s">
-        <v>444</v>
+        <v>468</v>
       </c>
       <c r="E47" t="s">
         <v>8</v>
       </c>
-      <c r="F47" t="s">
-        <v>502</v>
+      <c r="F47">
+        <v>24</v>
       </c>
       <c r="G47" t="s">
-        <v>338</v>
+        <v>110</v>
       </c>
       <c r="I47" t="str">
         <f t="shared" si="0"/>
-        <v>Colin Hill $^{8,20}$                      \\</v>
+        <v>Brian Sutin $^{24}$                     \\</v>
       </c>
       <c r="K47">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L47">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M47" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                      </v>
+        <v xml:space="preserve">                     </v>
       </c>
       <c r="O47" t="str">
         <f t="shared" si="4"/>
-        <v>8,20. Institute for Advanced Study, Flatiron Institute.  \\</v>
+        <v>24. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
       </c>
     </row>
     <row r="48" spans="2:15">
-      <c r="B48" t="s">
-        <v>77</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>445</v>
+      <c r="B48" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" t="s">
+        <v>470</v>
       </c>
       <c r="E48" t="s">
         <v>8</v>
       </c>
       <c r="F48">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G48" t="s">
-        <v>480</v>
+        <v>110</v>
       </c>
       <c r="I48" t="str">
         <f t="shared" si="0"/>
-        <v>Eric Hivon $^{18}$                      \\</v>
+        <v>Amy Trangsrud $^{24}$                   \\</v>
       </c>
       <c r="K48">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L48">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M48" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                      </v>
+        <v xml:space="preserve">                   </v>
       </c>
       <c r="O48" t="str">
         <f t="shared" si="4"/>
-        <v>18. Institut d'Astrophysique de Paris, France.  \\</v>
+        <v>24. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
       </c>
     </row>
     <row r="49" spans="2:15">
-      <c r="B49" s="1" t="s">
-        <v>323</v>
+      <c r="B49" t="s">
+        <v>364</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>446</v>
+        <v>365</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49">
-        <v>10</v>
+        <v>366</v>
       </c>
       <c r="G49" t="s">
-        <v>492</v>
+        <v>110</v>
       </c>
       <c r="I49" t="str">
         <f t="shared" si="0"/>
-        <v>Ren\'{e}e  Hlo\v{z}ek $^{10}$           \\</v>
+        <v>Jeff Booth $^{}$                      \\</v>
       </c>
       <c r="K49">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="L49">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M49" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">           </v>
+        <v xml:space="preserve">                      </v>
       </c>
       <c r="O49" t="str">
         <f t="shared" si="4"/>
-        <v>10. Department of Astronomy \&amp; Astrophysics and Dunlap Institute, University of Toronto, Canada.  \\</v>
+        <v>. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
       </c>
     </row>
     <row r="50" spans="2:15">
-      <c r="B50" t="s">
-        <v>80</v>
+      <c r="B50" s="1" t="s">
+        <v>322</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>447</v>
+        <v>419</v>
       </c>
       <c r="E50" t="s">
         <v>8</v>
       </c>
       <c r="F50">
-        <v>29</v>
-      </c>
-      <c r="G50" t="s">
-        <v>489</v>
+        <v>25</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="I50" t="str">
         <f t="shared" si="0"/>
-        <v>Johannes Hubmayr $^{29}$                \\</v>
+        <v>Kimberly K. Boddy $^{25}$               \\</v>
       </c>
       <c r="K50">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L50">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M50" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                </v>
+        <v xml:space="preserve">               </v>
       </c>
       <c r="O50" t="str">
         <f t="shared" si="4"/>
-        <v>29. National Institute of Standards and Technology.  \\</v>
+        <v>25. Johns Hopkins University.  \\</v>
       </c>
     </row>
     <row r="51" spans="2:15">
-      <c r="B51" t="s">
-        <v>83</v>
-      </c>
-      <c r="C51" t="s">
-        <v>84</v>
-      </c>
-      <c r="D51" t="s">
-        <v>448</v>
+      <c r="B51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>421</v>
       </c>
       <c r="E51" t="s">
         <v>8</v>
       </c>
-      <c r="F51">
-        <v>9</v>
+      <c r="F51" t="s">
+        <v>495</v>
       </c>
       <c r="G51" t="s">
-        <v>373</v>
+        <v>502</v>
       </c>
       <c r="I51" t="str">
         <f t="shared" si="0"/>
-        <v>Brad Johnson $^{9}$                    \\</v>
+        <v>Julian Borrill $^{26,27}$                  \\</v>
       </c>
       <c r="K51">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L51">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M51" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">                  </v>
       </c>
       <c r="O51" t="str">
         <f t="shared" si="4"/>
-        <v>9. Columbia University.  \\</v>
+        <v>26,27. Lawrence Berkeley National Laboratory, &amp;&amp;&amp;&amp;&amp;   Space Sciences Laboratory, University of California, Berkeley.  \\</v>
       </c>
     </row>
     <row r="52" spans="2:15">
       <c r="B52" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="E52" t="s">
         <v>8</v>
       </c>
       <c r="F52">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G52" t="s">
-        <v>410</v>
+        <v>55</v>
       </c>
       <c r="I52" t="str">
         <f t="shared" si="0"/>
-        <v>Terry Jones $^{44}$                     \\</v>
+        <v>Tom Essinger-Hileman $^{28}$            \\</v>
       </c>
       <c r="K52">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="L52">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="M52" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">            </v>
       </c>
       <c r="O52" t="str">
         <f t="shared" si="4"/>
-        <v>44. University of Minnesota - Twin Cities.  \\</v>
+        <v>28. NASA Goddard Space Flight Center.  \\</v>
       </c>
     </row>
     <row r="53" spans="2:15">
-      <c r="B53" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" t="s">
-        <v>86</v>
-      </c>
-      <c r="D53" t="s">
-        <v>449</v>
+      <c r="B53" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>452</v>
       </c>
       <c r="E53" t="s">
         <v>8</v>
       </c>
       <c r="F53">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G53" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="I53" t="str">
         <f t="shared" si="0"/>
-        <v>William Jones $^{32}$                   \\</v>
+        <v>Al Kogut $^{28}$                        \\</v>
       </c>
       <c r="K53">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L53">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M53" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">                        </v>
       </c>
       <c r="O53" t="str">
         <f t="shared" si="4"/>
-        <v>32. Princeton University.  \\</v>
+        <v>28. NASA Goddard Space Flight Center.  \\</v>
       </c>
     </row>
     <row r="54" spans="2:15">
-      <c r="B54" s="1" t="s">
-        <v>307</v>
+      <c r="B54" t="s">
+        <v>80</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E54" t="s">
         <v>8</v>
       </c>
       <c r="F54">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I54" t="str">
         <f t="shared" si="0"/>
-        <v>Lloyd Knox $^{40}$                      \\</v>
+        <v>Johannes Hubmayr $^{29}$                \\</v>
       </c>
       <c r="K54">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L54">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M54" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                      </v>
+        <v xml:space="preserve">                </v>
       </c>
       <c r="O54" t="str">
         <f t="shared" si="4"/>
-        <v>40. University of California, Davis.  \\</v>
+        <v>29. National Institute of Standards and Technology.  \\</v>
       </c>
     </row>
     <row r="55" spans="2:15">
-      <c r="B55" s="1" t="s">
-        <v>90</v>
+      <c r="B55" t="s">
+        <v>58</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="E55" t="s">
         <v>8</v>
       </c>
       <c r="F55">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I55" t="str">
         <f t="shared" si="0"/>
-        <v>Al Kogut $^{28}$                        \\</v>
+        <v>Laura Fissel $^{30}$                    \\</v>
       </c>
       <c r="K55">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L55">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M55" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                        </v>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="O55" t="str">
         <f t="shared" si="4"/>
-        <v>28. NASA Goddard Space Flight Center.  \\</v>
+        <v>30. National Radio Astronomy Observatory.  \\</v>
       </c>
     </row>
     <row r="56" spans="2:15">
       <c r="B56" t="s">
-        <v>287</v>
+        <v>105</v>
       </c>
       <c r="C56" t="s">
-        <v>306</v>
-      </c>
-      <c r="D56"/>
+        <v>106</v>
+      </c>
+      <c r="D56" t="s">
+        <v>458</v>
+      </c>
       <c r="E56" t="s">
         <v>8</v>
       </c>
       <c r="F56">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G56" t="s">
-        <v>275</v>
+        <v>107</v>
       </c>
       <c r="I56" t="str">
         <f t="shared" si="0"/>
-        <v>Marcos L\'{o}pez-Caniego $^{12}$        \\</v>
+        <v>Giles Novak $^{31}$                     \\</v>
       </c>
       <c r="K56">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="L56">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="M56" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">        </v>
+        <v xml:space="preserve">                     </v>
       </c>
       <c r="O56" t="str">
         <f t="shared" si="4"/>
-        <v>12. European Space Astronomy Centre.  \\</v>
+        <v>31. Northwestern University.  \\</v>
       </c>
     </row>
     <row r="57" spans="2:15">
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>367</v>
       </c>
       <c r="C57" t="s">
-        <v>93</v>
-      </c>
-      <c r="D57" t="s">
-        <v>453</v>
+        <v>24</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>370</v>
       </c>
       <c r="E57" t="s">
         <v>8</v>
       </c>
       <c r="F57">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G57" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="I57" t="str">
         <f t="shared" si="0"/>
-        <v>Charles Lawrence $^{24}$                \\</v>
+        <v>Nick Battaglia $^{32}$                  \\</v>
       </c>
       <c r="K57">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L57">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M57" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                </v>
+        <v xml:space="preserve">                  </v>
       </c>
       <c r="O57" t="str">
         <f t="shared" si="4"/>
-        <v>24. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
+        <v>32. Princeton University.  \\</v>
       </c>
     </row>
     <row r="58" spans="2:15">
       <c r="B58" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C58" t="s">
-        <v>95</v>
-      </c>
-      <c r="D58" t="s">
-        <v>454</v>
+        <v>70</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>443</v>
       </c>
       <c r="E58" t="s">
         <v>8</v>
       </c>
       <c r="F58">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G58" t="s">
-        <v>340</v>
+        <v>87</v>
       </c>
       <c r="I58" t="str">
         <f t="shared" si="0"/>
-        <v>Alex Lazarian $^{47}$                   \\</v>
+        <v>Brandon Hensley $^{32}$                 \\</v>
       </c>
       <c r="K58">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L58">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M58" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="O58" t="str">
         <f t="shared" si="4"/>
-        <v>47. University of Wisconsin - Madison.  \\</v>
+        <v>32. Princeton University.  \\</v>
       </c>
     </row>
     <row r="59" spans="2:15">
-      <c r="B59" s="1" t="s">
-        <v>96</v>
+      <c r="B59" t="s">
+        <v>85</v>
       </c>
       <c r="C59" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D59" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="E59" t="s">
         <v>8</v>
       </c>
       <c r="F59">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G59" t="s">
-        <v>341</v>
+        <v>87</v>
       </c>
       <c r="I59" t="str">
         <f t="shared" si="0"/>
-        <v>Zack Li $^{11}$                         \\</v>
+        <v>William Jones $^{32}$                   \\</v>
       </c>
       <c r="K59">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="L59">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M59" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                         </v>
+        <v xml:space="preserve">                   </v>
       </c>
       <c r="O59" t="str">
         <f t="shared" si="4"/>
-        <v>11. Department of Astrophysical Sciences, Princeton University.  \\</v>
+        <v>32. Princeton University.  \\</v>
       </c>
     </row>
     <row r="60" spans="2:15">
-      <c r="B60" s="1" t="s">
-        <v>98</v>
+      <c r="B60" t="s">
+        <v>32</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>99</v>
+        <v>33</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>423</v>
       </c>
       <c r="E60" t="s">
         <v>8</v>
       </c>
       <c r="F60">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G60" t="s">
-        <v>341</v>
+        <v>34</v>
       </c>
       <c r="I60" t="str">
         <f t="shared" si="0"/>
-        <v>Mathew Madhavacheril $^{11}$            \\</v>
+        <v>Blakesley Burkhart $^{33}$              \\</v>
       </c>
       <c r="K60">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L60">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M60" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">              </v>
       </c>
       <c r="O60" t="str">
         <f t="shared" si="4"/>
-        <v>11. Department of Astrophysical Sciences, Princeton University.  \\</v>
+        <v>33. Rutgers.  \\</v>
       </c>
     </row>
     <row r="61" spans="2:15">
-      <c r="B61" s="1" t="s">
-        <v>100</v>
+      <c r="B61" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="C61" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="D61" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="E61" t="s">
         <v>8</v>
       </c>
       <c r="F61">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="I61" t="str">
         <f t="shared" si="0"/>
-        <v>Jean-Baptiste Melin $^{7}$             \\</v>
+        <v>Andrea Zonca $^{34}$                    \\</v>
       </c>
       <c r="K61">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="L61">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M61" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">             </v>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="O61" t="str">
         <f t="shared" si="4"/>
-        <v>7. CEA Saclay, DRF/Irfu/SPP, France.  \\</v>
+        <v>34. San Diego Supercomputer Center, University of California San Diego.  \\</v>
       </c>
     </row>
     <row r="62" spans="2:15">
-      <c r="B62" t="s">
-        <v>102</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>457</v>
+      <c r="B62" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" t="s">
+        <v>417</v>
       </c>
       <c r="E62" t="s">
         <v>8</v>
       </c>
       <c r="F62">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="G62" t="s">
-        <v>104</v>
+        <v>483</v>
       </c>
       <c r="I62" t="str">
         <f t="shared" si="0"/>
-        <v>Mattia Negrello $^{6}$                 \\</v>
+        <v>Soumen Basak $^{35}$                    \\</v>
       </c>
       <c r="K62">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L62">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M62" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="O62" t="str">
         <f t="shared" si="4"/>
-        <v>6. Cardiff University School of Physics and Astronomy.  \\</v>
+        <v>35. School of Physics, Indian Institute of Science Education and Research Thiruvananthapuram,  India.  \\</v>
       </c>
     </row>
     <row r="63" spans="2:15">
       <c r="B63" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C63" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D63" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="E63" t="s">
         <v>8</v>
       </c>
       <c r="F63">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="I63" t="str">
         <f t="shared" si="0"/>
-        <v>Giles Novak $^{31}$                     \\</v>
+        <v>Levon Pogosian $^{36}$                  \\</v>
       </c>
       <c r="K63">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L63">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M63" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                  </v>
       </c>
       <c r="O63" t="str">
         <f t="shared" si="4"/>
-        <v>31. Northwestern University.  \\</v>
+        <v>36. Simon Fraser University.  \\</v>
       </c>
     </row>
     <row r="64" spans="2:15">
       <c r="B64" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="E64" t="s">
         <v>8</v>
       </c>
       <c r="F64">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>110</v>
+        <v>510</v>
       </c>
       <c r="I64" t="str">
         <f t="shared" si="0"/>
-        <v>Roger O'Brient $^{24}$                  \\</v>
+        <v>Maurizio Tomasi $^{37}$                 \\</v>
       </c>
       <c r="K64">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L64">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M64" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="O64" t="str">
         <f t="shared" si="4"/>
-        <v>24. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
+        <v>37. Universit\`a degli studi di Milano.  \\</v>
       </c>
     </row>
     <row r="65" spans="2:15">
       <c r="B65" s="1" t="s">
-        <v>111</v>
+        <v>309</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>112</v>
+        <v>262</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="E65" t="s">
         <v>8</v>
       </c>
       <c r="F65">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="G65" t="s">
-        <v>110</v>
+        <v>344</v>
       </c>
       <c r="I65" t="str">
         <f t="shared" si="0"/>
-        <v>Chris Paine $^{24}$                     \\</v>
+        <v>Douglas Scott $^{38}$                   \\</v>
       </c>
       <c r="K65">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L65">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M65" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                   </v>
       </c>
       <c r="O65" t="str">
         <f t="shared" si="4"/>
-        <v>24. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
+        <v>38. University of British Columbia, Canada.  \\</v>
       </c>
     </row>
     <row r="66" spans="2:15">
       <c r="B66" s="1" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="E66" t="s">
         <v>8</v>
       </c>
       <c r="F66">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="G66" t="s">
-        <v>223</v>
+        <v>337</v>
       </c>
       <c r="I66" t="str">
         <f t="shared" si="0"/>
-        <v>Tim Pearson $^{4}$                     \\</v>
+        <v>Dan Green $^{39}$                       \\</v>
       </c>
       <c r="K66">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L66">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M66" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                       </v>
       </c>
       <c r="O66" t="str">
         <f t="shared" si="4"/>
-        <v>4. California Institute of Technology.  \\</v>
+        <v>39. University of California, Berkeley.  \\</v>
       </c>
     </row>
     <row r="67" spans="2:15">
       <c r="B67" t="s">
-        <v>115</v>
-      </c>
-      <c r="C67" t="s">
-        <v>116</v>
-      </c>
-      <c r="D67" t="s">
-        <v>462</v>
+        <v>9</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E67" t="s">
         <v>8</v>
       </c>
-      <c r="F67">
-        <v>36</v>
+      <c r="F67" t="s">
+        <v>500</v>
       </c>
       <c r="G67" t="s">
-        <v>117</v>
+        <v>493</v>
       </c>
       <c r="I67" t="str">
         <f t="shared" si="0"/>
-        <v>Levon Pogosian $^{36}$                  \\</v>
+        <v>Peter Ashton $^{26,39}$                    \\</v>
       </c>
       <c r="K67">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L67">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M67" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="O67" t="str">
         <f t="shared" si="4"/>
-        <v>36. Simon Fraser University.  \\</v>
+        <v>26,39. University of California, Berkeley &amp;&amp;&amp;&amp;&amp;&amp; LBNL.  \\</v>
       </c>
     </row>
     <row r="68" spans="2:15">
       <c r="B68" s="1" t="s">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>463</v>
+        <v>7</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>369</v>
       </c>
       <c r="E68" t="s">
         <v>8</v>
       </c>
-      <c r="F68">
-        <v>44</v>
+      <c r="F68" t="s">
+        <v>500</v>
       </c>
       <c r="G68" t="s">
-        <v>410</v>
+        <v>492</v>
       </c>
       <c r="I68" t="str">
         <f t="shared" si="0"/>
-        <v>Clem Pryke $^{44}$                      \\</v>
+        <v>Marcelo Alvarez $^{26,39}$                 \\</v>
       </c>
       <c r="K68">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L68">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M68" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                      </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="O68" t="str">
         <f t="shared" si="4"/>
-        <v>44. University of Minnesota - Twin Cities.  \\</v>
+        <v>26,39. University of California, Berkeley &amp;&amp;&amp;&amp;&amp;&amp;&amp; LBNL.  \\</v>
       </c>
     </row>
     <row r="69" spans="2:15">
-      <c r="B69" t="s">
-        <v>120</v>
+      <c r="B69" s="1" t="s">
+        <v>307</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="E69" t="s">
         <v>8</v>
       </c>
       <c r="F69">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G69" t="s">
-        <v>47</v>
+        <v>490</v>
       </c>
       <c r="I69" t="str">
         <f t="shared" si="0"/>
-        <v>Mathieu Remazeilles $^{43}$             \\</v>
+        <v>Lloyd Knox $^{40}$                      \\</v>
       </c>
       <c r="K69">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="L69">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M69" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">             </v>
+        <v xml:space="preserve">                      </v>
       </c>
       <c r="O69" t="str">
         <f t="shared" si="4"/>
-        <v>43. University of Manchester.  \\</v>
+        <v>40. University of California, Davis.  \\</v>
       </c>
     </row>
     <row r="70" spans="2:15">
       <c r="B70" t="s">
-        <v>122</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>465</v>
+        <v>61</v>
+      </c>
+      <c r="C70" t="s">
+        <v>62</v>
+      </c>
+      <c r="D70" t="s">
+        <v>438</v>
       </c>
       <c r="E70" t="s">
         <v>8</v>
       </c>
       <c r="F70">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="G70" t="s">
-        <v>110</v>
+        <v>488</v>
       </c>
       <c r="I70" t="str">
         <f t="shared" si="0"/>
-        <v>Graca Rocha $^{24}$                     \\</v>
+        <v>Raphael Flauger $^{41}$                 \\</v>
       </c>
       <c r="K70">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L70">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M70" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="O70" t="str">
         <f t="shared" si="4"/>
-        <v>24. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
+        <v>41. University of California, San Diego.  \\</v>
       </c>
     </row>
     <row r="71" spans="2:15">
-      <c r="B71" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>466</v>
+      <c r="B71" t="s">
+        <v>295</v>
+      </c>
+      <c r="C71" t="s">
+        <v>296</v>
+      </c>
+      <c r="D71" t="s">
+        <v>436</v>
       </c>
       <c r="E71" t="s">
         <v>8</v>
       </c>
       <c r="F71">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="G71" t="s">
-        <v>343</v>
+        <v>280</v>
       </c>
       <c r="I71" t="str">
         <f t="shared" si="0"/>
-        <v>Marcel Schmittfull $^{20}$              \\</v>
+        <v>Jeffrey Filippini $^{42}$               \\</v>
       </c>
       <c r="K71">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L71">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M71" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">              </v>
+        <v xml:space="preserve">               </v>
       </c>
       <c r="O71" t="str">
         <f t="shared" si="4"/>
-        <v>20. Institute for Advanced Study, Princeton.  \\</v>
+        <v>42. University of Illinois, Urbana-Champaign.  \\</v>
       </c>
     </row>
     <row r="72" spans="2:15">
-      <c r="B72" s="1" t="s">
-        <v>309</v>
+      <c r="B72" t="s">
+        <v>45</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>262</v>
+        <v>46</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="E72" t="s">
         <v>8</v>
       </c>
       <c r="F72">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G72" t="s">
-        <v>344</v>
+        <v>47</v>
       </c>
       <c r="I72" t="str">
         <f t="shared" si="0"/>
-        <v>Douglas Scott $^{38}$                   \\</v>
+        <v>Eleonora Di Valentino $^{43}$           \\</v>
       </c>
       <c r="K72">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L72">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M72" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">           </v>
       </c>
       <c r="O72" t="str">
         <f t="shared" si="4"/>
-        <v>38. University of British Columbia, Canada.  \\</v>
+        <v>43. University of Manchester.  \\</v>
       </c>
     </row>
     <row r="73" spans="2:15">
       <c r="B73" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>464</v>
       </c>
       <c r="E73" t="s">
         <v>8</v>
       </c>
       <c r="F73">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="G73" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="I73" t="str">
         <f t="shared" si="0"/>
-        <v>Ian Stephens $^{13}$                    \\</v>
+        <v>Mathieu Remazeilles $^{43}$             \\</v>
       </c>
       <c r="K73">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L73">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M73" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">             </v>
       </c>
       <c r="O73" t="str">
         <f t="shared" si="4"/>
-        <v>13. Harvard-Smithsonian Center for Astrophysics.  \\</v>
+        <v>43. University of Manchester.  \\</v>
       </c>
     </row>
     <row r="74" spans="2:15">
-      <c r="B74" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C74" t="s">
-        <v>130</v>
-      </c>
-      <c r="D74" t="s">
-        <v>468</v>
+      <c r="B74" t="s">
+        <v>364</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>506</v>
       </c>
       <c r="E74" t="s">
-        <v>8</v>
-      </c>
-      <c r="F74">
-        <v>24</v>
+        <v>366</v>
       </c>
       <c r="G74" t="s">
-        <v>110</v>
+        <v>507</v>
       </c>
       <c r="I74" t="str">
         <f t="shared" si="0"/>
-        <v>Brian Sutin $^{24}$                     \\</v>
+        <v>Jeff McMahon $^{}$                    \\</v>
       </c>
       <c r="K74">
         <f t="shared" ref="K74:K75" si="5">LEN(B74) + LEN(C74) +1</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L74">
         <f t="shared" ref="L74:L75" si="6">IF(K74&lt;30,(32-K74),3)</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M74" t="str">
         <f t="shared" ref="M74:M81" si="7">REPT(" ",L74)</f>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="O74" t="str">
         <f t="shared" si="4"/>
-        <v>24. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
+        <v>. University of Michigan.  \\</v>
       </c>
     </row>
     <row r="75" spans="2:15">
-      <c r="B75" t="s">
-        <v>131</v>
+      <c r="B75" s="1" t="s">
+        <v>411</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>469</v>
+        <v>412</v>
+      </c>
+      <c r="D75" t="s">
+        <v>442</v>
       </c>
       <c r="E75" t="s">
         <v>8</v>
       </c>
       <c r="F75">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G75" t="s">
-        <v>513</v>
+        <v>410</v>
       </c>
       <c r="I75" t="str">
         <f t="shared" ref="I75:I81" si="8">CONCATENATE(B75," ",C75, " $^{", F75,"}$", M75,"\\")</f>
-        <v>Maurizio Tomasi $^{37}$                 \\</v>
+        <v>Shaul Hanany $^{44}$                    \\</v>
       </c>
       <c r="K75">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L75">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M75" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="O75" t="str">
         <f t="shared" ref="O75:O81" si="9">CONCATENATE(F75, ". ", G75, ".  \\")</f>
-        <v>37. Universit\`a degli studi di Milano.  \\</v>
+        <v>44. University of Minnesota - Twin Cities.  \\</v>
       </c>
     </row>
     <row r="76" spans="2:15">
-      <c r="B76" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C76" t="s">
-        <v>135</v>
-      </c>
-      <c r="D76" t="s">
-        <v>470</v>
+      <c r="B76" t="s">
+        <v>88</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="E76" t="s">
         <v>8</v>
       </c>
       <c r="F76">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="G76" t="s">
-        <v>110</v>
+        <v>410</v>
       </c>
       <c r="I76" t="str">
         <f t="shared" si="8"/>
-        <v>Amy Trangsrud $^{24}$                   \\</v>
+        <v>Terry Jones $^{44}$                     \\</v>
       </c>
       <c r="K76">
         <f t="shared" ref="K76" si="10">LEN(B76) + LEN(C76) +1</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L76">
         <f t="shared" ref="L76" si="11">IF(K76&lt;30,(32-K76),3)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M76" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">                     </v>
       </c>
       <c r="O76" t="str">
         <f t="shared" si="9"/>
-        <v>24. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
+        <v>44. University of Minnesota - Twin Cities.  \\</v>
       </c>
     </row>
     <row r="77" spans="2:15">
       <c r="B77" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C77" t="s">
-        <v>137</v>
-      </c>
-      <c r="D77"/>
+        <v>118</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>463</v>
+      </c>
       <c r="E77" t="s">
         <v>8</v>
       </c>
       <c r="F77">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="G77" t="s">
-        <v>500</v>
+        <v>410</v>
       </c>
       <c r="I77" t="str">
         <f t="shared" si="8"/>
-        <v>Flavien Vansyngel $^{16}$               \\</v>
+        <v>Clem Pryke $^{44}$                      \\</v>
       </c>
       <c r="K77">
         <f t="shared" ref="K77:K81" si="12">LEN(B77) + LEN(C77) +1</f>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="L77">
         <f t="shared" ref="L77:L81" si="13">IF(K77&lt;30,(32-K77),3)</f>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M77" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">               </v>
+        <v xml:space="preserve">                      </v>
       </c>
       <c r="O77" t="str">
         <f t="shared" si="9"/>
-        <v>16. Institut d'Astrophysique Spatiale, CNRS, Univ. Paris-Sud, Universit\'e Paris-Saclay, France.  \\</v>
+        <v>44. University of Minnesota - Twin Cities.  \\</v>
       </c>
     </row>
     <row r="78" spans="2:15">
@@ -4921,104 +4909,100 @@
     </row>
     <row r="79" spans="2:15">
       <c r="B79" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C79" t="s">
-        <v>143</v>
-      </c>
-      <c r="D79"/>
+        <v>145</v>
+      </c>
+      <c r="D79" t="s">
+        <v>473</v>
+      </c>
       <c r="E79" t="s">
         <v>8</v>
       </c>
       <c r="F79">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G79" t="s">
-        <v>340</v>
+        <v>410</v>
       </c>
       <c r="I79" t="str">
         <f t="shared" si="8"/>
-        <v>Siyao Xu $^{47}$                        \\</v>
+        <v>Karl Young $^{44}$                      \\</v>
       </c>
       <c r="K79">
         <f>LEN(B79) + LEN(C79) +1</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L79">
         <f>IF(K79&lt;30,(32-K79),3)</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M79" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">                        </v>
+        <v xml:space="preserve">                      </v>
       </c>
       <c r="O79" t="str">
         <f t="shared" si="9"/>
-        <v>47. University of Wisconsin - Madison.  \\</v>
+        <v>44. University of Minnesota - Twin Cities.  \\</v>
       </c>
     </row>
     <row r="80" spans="2:15">
-      <c r="B80" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C80" t="s">
-        <v>145</v>
-      </c>
-      <c r="D80" t="s">
-        <v>473</v>
+      <c r="B80" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="E80" t="s">
         <v>8</v>
       </c>
       <c r="F80">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G80" t="s">
-        <v>410</v>
+        <v>479</v>
       </c>
       <c r="I80" t="str">
         <f t="shared" si="8"/>
-        <v>Karl Young $^{44}$                      \\</v>
+        <v>Ranajoy Banerji $^{45}$                 \\</v>
       </c>
       <c r="K80">
         <f>LEN(B80) + LEN(C80) +1</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L80">
         <f>IF(K80&lt;30,(32-K80),3)</f>
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M80" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">                      </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="O80" t="str">
         <f t="shared" si="9"/>
-        <v>44. University of Minnesota - Twin Cities.  \\</v>
+        <v>45. University of Oslo, Norway.  \\</v>
       </c>
     </row>
     <row r="81" spans="2:16">
-      <c r="B81" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C81" t="s">
-        <v>147</v>
-      </c>
-      <c r="D81" t="s">
-        <v>472</v>
+      <c r="B81" t="s">
+        <v>503</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>504</v>
       </c>
       <c r="E81" t="s">
-        <v>8</v>
-      </c>
-      <c r="F81">
-        <v>34</v>
+        <v>366</v>
       </c>
       <c r="G81" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I81" t="str">
         <f t="shared" si="8"/>
-        <v>Andrea Zonca $^{34}$                    \\</v>
+        <v>Mark  Devlin $^{}$                    \\</v>
       </c>
       <c r="K81">
         <f t="shared" si="12"/>
@@ -5034,136 +5018,134 @@
       </c>
       <c r="O81" t="str">
         <f t="shared" si="9"/>
-        <v>34. San Diego Supercomputer Center, University of California San Diego.  \\</v>
+        <v>. University of Pennsylvania.  \\</v>
       </c>
     </row>
     <row r="82" spans="2:16">
-      <c r="B82" t="s">
-        <v>303</v>
+      <c r="B82" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>302</v>
+        <v>49</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>474</v>
+        <v>430</v>
       </c>
       <c r="E82" t="s">
         <v>8</v>
       </c>
       <c r="F82">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="G82" t="s">
-        <v>42</v>
+        <v>332</v>
       </c>
       <c r="I82" t="str">
         <f t="shared" ref="I82" si="14">CONCATENATE(B82," ",C82, " $^{", F82,"}$", M82,"\\")</f>
-        <v>Gianfranco De Zotti $^{15}$             \\</v>
+        <v>Joy Didier $^{46}$                      \\</v>
       </c>
       <c r="K82">
         <f t="shared" ref="K82" si="15">LEN(B82) + LEN(C82) +1</f>
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="L82">
         <f t="shared" ref="L82" si="16">IF(K82&lt;30,(32-K82),3)</f>
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M82" t="str">
         <f t="shared" ref="M82" si="17">REPT(" ",L82)</f>
-        <v xml:space="preserve">             </v>
+        <v xml:space="preserve">                      </v>
       </c>
       <c r="O82" t="str">
         <f t="shared" ref="O82" si="18">CONCATENATE(F82, ". ", G82, ".  \\")</f>
-        <v>15. INAF-Osservatorio Astronomico di Padova, Italy.  \\</v>
+        <v>46. University of Southern California.  \\</v>
       </c>
     </row>
     <row r="83" spans="2:16">
-      <c r="B83"/>
+      <c r="B83" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C83" t="s">
+        <v>95</v>
+      </c>
+      <c r="D83" t="s">
+        <v>454</v>
+      </c>
+      <c r="E83" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83">
+        <v>47</v>
+      </c>
+      <c r="G83" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="84" spans="2:16">
+      <c r="B84" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C84" t="s">
+        <v>143</v>
+      </c>
+      <c r="D84"/>
+      <c r="E84" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84">
+        <v>47</v>
+      </c>
+      <c r="G84" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="85" spans="2:16">
-      <c r="B85" s="3"/>
-      <c r="C85"/>
-      <c r="D85"/>
-    </row>
-    <row r="87" spans="2:16">
-      <c r="B87" t="s">
-        <v>364</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="E87" t="s">
-        <v>366</v>
-      </c>
-      <c r="G87" t="s">
-        <v>336</v>
-      </c>
-      <c r="P87">
-        <f>F12+1</f>
-        <v>23</v>
-      </c>
+      <c r="B85" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E85" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85">
+        <v>48</v>
+      </c>
+      <c r="G85" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="86" spans="2:16">
+      <c r="B86"/>
     </row>
     <row r="88" spans="2:16">
-      <c r="B88" t="s">
-        <v>506</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="E88" t="s">
-        <v>366</v>
-      </c>
-      <c r="G88" t="s">
-        <v>508</v>
-      </c>
-      <c r="P88">
-        <f t="shared" ref="P88" si="19">F13+1</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="89" spans="2:16">
-      <c r="B89" t="s">
-        <v>364</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E89" t="s">
-        <v>366</v>
-      </c>
-      <c r="G89" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="90" spans="2:16">
-      <c r="P90">
-        <f>F14+1</f>
-        <v>22</v>
-      </c>
+      <c r="B88" s="3"/>
+      <c r="C88"/>
+      <c r="D88"/>
     </row>
     <row r="91" spans="2:16">
       <c r="B91" s="3"/>
       <c r="C91"/>
       <c r="D91"/>
       <c r="I91" t="str">
-        <f t="shared" ref="I91:I92" si="20">CONCATENATE(B91," ",C91,M91,"\\")</f>
+        <f t="shared" ref="I91:I92" si="19">CONCATENATE(B91," ",C91,M91,"\\")</f>
         <v xml:space="preserve">                                \\</v>
       </c>
       <c r="K91">
-        <f t="shared" ref="K91:K92" si="21">LEN(B91) + LEN(C91) +1</f>
+        <f t="shared" ref="K91:K92" si="20">LEN(B91) + LEN(C91) +1</f>
         <v>1</v>
       </c>
       <c r="L91">
-        <f t="shared" ref="L91:L92" si="22">IF(K91&lt;30,(32-K91),3)</f>
+        <f t="shared" ref="L91:L92" si="21">IF(K91&lt;30,(32-K91),3)</f>
         <v>31</v>
       </c>
       <c r="M91" t="str">
-        <f t="shared" ref="M91:M126" si="23">REPT(" ",L91)</f>
+        <f t="shared" ref="M91:M126" si="22">REPT(" ",L91)</f>
         <v xml:space="preserve">                               </v>
-      </c>
-      <c r="P91" t="e">
-        <f>F15+1</f>
-        <v>#VALUE!</v>
       </c>
     </row>
     <row r="92" spans="2:16">
@@ -5181,24 +5163,20 @@
         <v>151</v>
       </c>
       <c r="I92" t="str">
+        <f t="shared" si="19"/>
+        <v>Zeeshan Ahmed                   \\</v>
+      </c>
+      <c r="K92">
         <f t="shared" si="20"/>
-        <v>Zeeshan Ahmed                   \\</v>
-      </c>
-      <c r="K92">
+        <v>13</v>
+      </c>
+      <c r="L92">
         <f t="shared" si="21"/>
-        <v>13</v>
-      </c>
-      <c r="L92">
+        <v>19</v>
+      </c>
+      <c r="M92" t="str">
         <f t="shared" si="22"/>
-        <v>19</v>
-      </c>
-      <c r="M92" t="str">
-        <f t="shared" si="23"/>
         <v xml:space="preserve">                   </v>
-      </c>
-      <c r="P92">
-        <f>F16+1</f>
-        <v>36</v>
       </c>
     </row>
     <row r="93" spans="2:16">
@@ -5215,24 +5193,24 @@
         <v>154</v>
       </c>
       <c r="I93" t="str">
-        <f t="shared" ref="I93:I126" si="24">CONCATENATE(B93," ",C93,M93,"\\")</f>
+        <f t="shared" ref="I93:I126" si="23">CONCATENATE(B93," ",C93,M93,"\\")</f>
         <v>Jason Austermann                \\</v>
       </c>
       <c r="K93">
-        <f t="shared" ref="K93:K126" si="25">LEN(B93) + LEN(C93) +1</f>
+        <f t="shared" ref="K93:K126" si="24">LEN(B93) + LEN(C93) +1</f>
         <v>16</v>
       </c>
       <c r="L93">
-        <f t="shared" ref="L93:L126" si="26">IF(K93&lt;30,(32-K93),3)</f>
+        <f t="shared" ref="L93:L126" si="25">IF(K93&lt;30,(32-K93),3)</f>
         <v>16</v>
       </c>
       <c r="M93" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">                </v>
       </c>
       <c r="P93">
         <f>F17+1</f>
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="2:16">
@@ -5249,24 +5227,24 @@
         <v>157</v>
       </c>
       <c r="I94" t="str">
+        <f t="shared" si="23"/>
+        <v>Darcy Barron                    \\</v>
+      </c>
+      <c r="K94">
         <f t="shared" si="24"/>
-        <v>Darcy Barron                    \\</v>
-      </c>
-      <c r="K94">
+        <v>12</v>
+      </c>
+      <c r="L94">
         <f t="shared" si="25"/>
-        <v>12</v>
-      </c>
-      <c r="L94">
-        <f t="shared" si="26"/>
         <v>20</v>
       </c>
       <c r="M94" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">                    </v>
       </c>
       <c r="P94">
         <f>F18+1</f>
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="2:16">
@@ -5281,24 +5259,24 @@
         <v>150</v>
       </c>
       <c r="I95" t="str">
+        <f t="shared" si="23"/>
+        <v>Karim Benabed                   \\</v>
+      </c>
+      <c r="K95">
         <f t="shared" si="24"/>
-        <v>Karim Benabed                   \\</v>
-      </c>
-      <c r="K95">
+        <v>13</v>
+      </c>
+      <c r="L95">
         <f t="shared" si="25"/>
-        <v>13</v>
-      </c>
-      <c r="L95">
-        <f t="shared" si="26"/>
         <v>19</v>
       </c>
       <c r="M95" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">                   </v>
       </c>
       <c r="P95">
         <f>F19+1</f>
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="2:16">
@@ -5316,24 +5294,24 @@
         <v>162</v>
       </c>
       <c r="I96" t="str">
+        <f t="shared" si="23"/>
+        <v>Federico Bianchini              \\</v>
+      </c>
+      <c r="K96">
         <f t="shared" si="24"/>
-        <v>Federico Bianchini              \\</v>
-      </c>
-      <c r="K96">
+        <v>18</v>
+      </c>
+      <c r="L96">
         <f t="shared" si="25"/>
-        <v>18</v>
-      </c>
-      <c r="L96">
-        <f t="shared" si="26"/>
         <v>14</v>
       </c>
       <c r="M96" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">              </v>
       </c>
       <c r="P96">
         <f>F20+1</f>
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="2:17">
@@ -5350,24 +5328,24 @@
         <v>274</v>
       </c>
       <c r="I97" t="str">
+        <f t="shared" si="23"/>
+        <v>Colin Bischoff                  \\</v>
+      </c>
+      <c r="K97">
         <f t="shared" si="24"/>
-        <v>Colin Bischoff                  \\</v>
-      </c>
-      <c r="K97">
+        <v>14</v>
+      </c>
+      <c r="L97">
         <f t="shared" si="25"/>
+        <v>18</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">                  </v>
+      </c>
+      <c r="P97">
+        <f>F21+1</f>
         <v>14</v>
-      </c>
-      <c r="L97">
-        <f t="shared" si="26"/>
-        <v>18</v>
-      </c>
-      <c r="M97" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">                  </v>
-      </c>
-      <c r="P97" t="e">
-        <f>F21+1</f>
-        <v>#VALUE!</v>
       </c>
     </row>
     <row r="98" spans="2:17">
@@ -5385,24 +5363,24 @@
         <v>167</v>
       </c>
       <c r="I98" t="str">
+        <f t="shared" si="23"/>
+        <v>J. Richard Bond                 \\</v>
+      </c>
+      <c r="K98">
         <f t="shared" si="24"/>
-        <v>J. Richard Bond                 \\</v>
-      </c>
-      <c r="K98">
+        <v>15</v>
+      </c>
+      <c r="L98">
         <f t="shared" si="25"/>
-        <v>15</v>
-      </c>
-      <c r="L98">
-        <f t="shared" si="26"/>
         <v>17</v>
       </c>
       <c r="M98" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">                 </v>
       </c>
       <c r="P98">
         <f>F22+1</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="2:17">
@@ -5419,24 +5397,24 @@
         <v>389</v>
       </c>
       <c r="I99" t="str">
+        <f t="shared" si="23"/>
+        <v>Fran\c{c}ois Boulanger          \\</v>
+      </c>
+      <c r="K99">
         <f t="shared" si="24"/>
-        <v>Fran\c{c}ois Boulanger          \\</v>
-      </c>
-      <c r="K99">
+        <v>22</v>
+      </c>
+      <c r="L99">
         <f t="shared" si="25"/>
-        <v>22</v>
-      </c>
-      <c r="L99">
-        <f t="shared" si="26"/>
         <v>10</v>
       </c>
       <c r="M99" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">          </v>
       </c>
       <c r="P99">
         <f>F23+1</f>
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" spans="2:17">
@@ -5453,24 +5431,24 @@
         <v>272</v>
       </c>
       <c r="I100" t="str">
+        <f t="shared" si="23"/>
+        <v>Robert Caldwell                 \\</v>
+      </c>
+      <c r="K100">
         <f t="shared" si="24"/>
-        <v>Robert Caldwell                 \\</v>
-      </c>
-      <c r="K100">
+        <v>15</v>
+      </c>
+      <c r="L100">
         <f t="shared" si="25"/>
-        <v>15</v>
-      </c>
-      <c r="L100">
-        <f t="shared" si="26"/>
         <v>17</v>
       </c>
       <c r="M100" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">                 </v>
       </c>
       <c r="P100">
         <f>F24+1</f>
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="2:17">
@@ -5488,24 +5466,24 @@
         <v>128</v>
       </c>
       <c r="I101" t="str">
+        <f t="shared" si="23"/>
+        <v>Xingang Chen                    \\</v>
+      </c>
+      <c r="K101">
         <f t="shared" si="24"/>
-        <v>Xingang Chen                    \\</v>
-      </c>
-      <c r="K101">
+        <v>12</v>
+      </c>
+      <c r="L101">
         <f t="shared" si="25"/>
-        <v>12</v>
-      </c>
-      <c r="L101">
-        <f t="shared" si="26"/>
         <v>20</v>
       </c>
       <c r="M101" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">                    </v>
       </c>
       <c r="P101">
         <f>F25+1</f>
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" spans="2:17">
@@ -5522,24 +5500,24 @@
         <v>175</v>
       </c>
       <c r="I102" t="str">
+        <f t="shared" si="23"/>
+        <v>Francis-Yan Cyr-Racine          \\</v>
+      </c>
+      <c r="K102">
         <f t="shared" si="24"/>
-        <v>Francis-Yan Cyr-Racine          \\</v>
-      </c>
-      <c r="K102">
+        <v>22</v>
+      </c>
+      <c r="L102">
         <f t="shared" si="25"/>
-        <v>22</v>
-      </c>
-      <c r="L102">
-        <f t="shared" si="26"/>
         <v>10</v>
       </c>
       <c r="M102" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">          </v>
       </c>
       <c r="P102">
         <f>F26+1</f>
-        <v>49</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" spans="2:17">
@@ -5556,24 +5534,24 @@
         <v>178</v>
       </c>
       <c r="I103" t="str">
+        <f t="shared" si="23"/>
+        <v>Tijmen de Haan                  \\</v>
+      </c>
+      <c r="K103">
         <f t="shared" si="24"/>
-        <v>Tijmen de Haan                  \\</v>
-      </c>
-      <c r="K103">
+        <v>14</v>
+      </c>
+      <c r="L103">
         <f t="shared" si="25"/>
-        <v>14</v>
-      </c>
-      <c r="L103">
-        <f t="shared" si="26"/>
         <v>18</v>
       </c>
       <c r="M103" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">                  </v>
       </c>
       <c r="P103">
         <f>F27+1</f>
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" spans="2:17">
@@ -5590,24 +5568,24 @@
         <v>87</v>
       </c>
       <c r="I104" t="str">
+        <f t="shared" si="23"/>
+        <v>Aurelien Fraisse                \\</v>
+      </c>
+      <c r="K104">
         <f t="shared" si="24"/>
-        <v>Aurelien Fraisse                \\</v>
-      </c>
-      <c r="K104">
+        <v>16</v>
+      </c>
+      <c r="L104">
         <f t="shared" si="25"/>
         <v>16</v>
       </c>
-      <c r="L104">
-        <f t="shared" si="26"/>
-        <v>16</v>
-      </c>
       <c r="M104" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">                </v>
       </c>
       <c r="P104">
         <f>F28+1</f>
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" spans="2:17">
@@ -5624,24 +5602,24 @@
         <v>189</v>
       </c>
       <c r="I105" t="str">
+        <f t="shared" si="23"/>
+        <v>Silvia Galli                    \\</v>
+      </c>
+      <c r="K105">
         <f t="shared" si="24"/>
-        <v>Silvia Galli                    \\</v>
-      </c>
-      <c r="K105">
+        <v>12</v>
+      </c>
+      <c r="L105">
         <f t="shared" si="25"/>
-        <v>12</v>
-      </c>
-      <c r="L105">
-        <f t="shared" si="26"/>
         <v>20</v>
       </c>
       <c r="M105" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">                    </v>
       </c>
-      <c r="P105">
+      <c r="P105" t="e">
         <f>F29+1</f>
-        <v>25</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="106" spans="2:17">
@@ -5659,24 +5637,24 @@
         <v>192</v>
       </c>
       <c r="I106" t="str">
+        <f t="shared" si="23"/>
+        <v>Ken Ganga                       \\</v>
+      </c>
+      <c r="K106">
         <f t="shared" si="24"/>
-        <v>Ken Ganga                       \\</v>
-      </c>
-      <c r="K106">
+        <v>9</v>
+      </c>
+      <c r="L106">
         <f t="shared" si="25"/>
-        <v>9</v>
-      </c>
-      <c r="L106">
-        <f t="shared" si="26"/>
         <v>23</v>
       </c>
       <c r="M106" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">                       </v>
       </c>
-      <c r="P106" t="e">
+      <c r="P106">
         <f>F30+1</f>
-        <v>#VALUE!</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" spans="2:17">
@@ -5693,28 +5671,28 @@
         <v>195</v>
       </c>
       <c r="I107" t="str">
+        <f t="shared" si="23"/>
+        <v>Tuhin Ghosh                     \\</v>
+      </c>
+      <c r="K107">
         <f t="shared" si="24"/>
-        <v>Tuhin Ghosh                     \\</v>
-      </c>
-      <c r="K107">
+        <v>11</v>
+      </c>
+      <c r="L107">
         <f t="shared" si="25"/>
-        <v>11</v>
-      </c>
-      <c r="L107">
-        <f t="shared" si="26"/>
         <v>21</v>
       </c>
       <c r="M107" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">                     </v>
       </c>
       <c r="P107">
         <f>F31+1</f>
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="Q107">
         <f>P107+1</f>
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108" spans="2:17">
@@ -5731,28 +5709,28 @@
         <v>223</v>
       </c>
       <c r="I108" t="str">
+        <f t="shared" si="23"/>
+        <v>Sunil Golwala                   \\</v>
+      </c>
+      <c r="K108">
         <f t="shared" si="24"/>
-        <v>Sunil Golwala                   \\</v>
-      </c>
-      <c r="K108">
+        <v>13</v>
+      </c>
+      <c r="L108">
         <f t="shared" si="25"/>
-        <v>13</v>
-      </c>
-      <c r="L108">
-        <f t="shared" si="26"/>
         <v>19</v>
       </c>
       <c r="M108" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">                   </v>
       </c>
       <c r="P108">
         <f>F32+1</f>
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="Q108">
-        <f t="shared" ref="Q108:Q158" si="27">P108+1</f>
-        <v>48</v>
+        <f t="shared" ref="Q108:Q158" si="26">P108+1</f>
+        <v>22</v>
       </c>
     </row>
     <row r="109" spans="2:17">
@@ -5770,28 +5748,28 @@
         <v>198</v>
       </c>
       <c r="I109" t="str">
+        <f t="shared" si="23"/>
+        <v>Jon E. Gudmundsson              \\</v>
+      </c>
+      <c r="K109">
         <f t="shared" si="24"/>
-        <v>Jon E. Gudmundsson              \\</v>
-      </c>
-      <c r="K109">
+        <v>18</v>
+      </c>
+      <c r="L109">
         <f t="shared" si="25"/>
-        <v>18</v>
-      </c>
-      <c r="L109">
-        <f t="shared" si="26"/>
         <v>14</v>
       </c>
       <c r="M109" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">              </v>
       </c>
       <c r="P109">
         <f>F33+1</f>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q109">
-        <f t="shared" si="27"/>
-        <v>26</v>
+        <f t="shared" si="26"/>
+        <v>23</v>
       </c>
     </row>
     <row r="110" spans="2:17">
@@ -5808,28 +5786,28 @@
         <v>316</v>
       </c>
       <c r="I110" t="str">
+        <f t="shared" si="23"/>
+        <v>Kevin M. Huffenberger           \\</v>
+      </c>
+      <c r="K110">
         <f t="shared" si="24"/>
-        <v>Kevin M. Huffenberger           \\</v>
-      </c>
-      <c r="K110">
+        <v>21</v>
+      </c>
+      <c r="L110">
         <f t="shared" si="25"/>
-        <v>21</v>
-      </c>
-      <c r="L110">
-        <f t="shared" si="26"/>
         <v>11</v>
       </c>
       <c r="M110" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">           </v>
       </c>
       <c r="P110">
         <f>F34+1</f>
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="Q110">
-        <f t="shared" si="27"/>
-        <v>7</v>
+        <f t="shared" si="26"/>
+        <v>23</v>
       </c>
     </row>
     <row r="111" spans="2:17">
@@ -5846,28 +5824,28 @@
         <v>201</v>
       </c>
       <c r="I111" t="str">
+        <f t="shared" si="23"/>
+        <v>Marc Kamionkowski               \\</v>
+      </c>
+      <c r="K111">
         <f t="shared" si="24"/>
-        <v>Marc Kamionkowski               \\</v>
-      </c>
-      <c r="K111">
+        <v>17</v>
+      </c>
+      <c r="L111">
         <f t="shared" si="25"/>
-        <v>17</v>
-      </c>
-      <c r="L111">
-        <f t="shared" si="26"/>
         <v>15</v>
       </c>
       <c r="M111" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">               </v>
       </c>
       <c r="P111">
         <f>F35+1</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q111">
-        <f t="shared" si="27"/>
-        <v>21</v>
+        <f t="shared" si="26"/>
+        <v>24</v>
       </c>
     </row>
     <row r="112" spans="2:17">
@@ -5884,28 +5862,28 @@
         <v>204</v>
       </c>
       <c r="I112" t="str">
+        <f t="shared" si="23"/>
+        <v>Reijo Keskitalo                 \\</v>
+      </c>
+      <c r="K112">
         <f t="shared" si="24"/>
-        <v>Reijo Keskitalo                 \\</v>
-      </c>
-      <c r="K112">
+        <v>15</v>
+      </c>
+      <c r="L112">
         <f t="shared" si="25"/>
-        <v>15</v>
-      </c>
-      <c r="L112">
-        <f t="shared" si="26"/>
         <v>17</v>
       </c>
       <c r="M112" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">                 </v>
       </c>
       <c r="P112">
         <f>F36+1</f>
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="Q112">
-        <f t="shared" si="27"/>
-        <v>30</v>
+        <f t="shared" si="26"/>
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="2:17">
@@ -5922,28 +5900,28 @@
         <v>207</v>
       </c>
       <c r="I113" t="str">
+        <f t="shared" si="23"/>
+        <v>Rishi Khatri                    \\</v>
+      </c>
+      <c r="K113">
         <f t="shared" si="24"/>
-        <v>Rishi Khatri                    \\</v>
-      </c>
-      <c r="K113">
+        <v>12</v>
+      </c>
+      <c r="L113">
         <f t="shared" si="25"/>
-        <v>12</v>
-      </c>
-      <c r="L113">
-        <f t="shared" si="26"/>
         <v>20</v>
       </c>
       <c r="M113" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">                    </v>
       </c>
       <c r="P113">
         <f>F37+1</f>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="Q113">
-        <f t="shared" si="27"/>
-        <v>10</v>
+        <f t="shared" si="26"/>
+        <v>25</v>
       </c>
     </row>
     <row r="114" spans="2:17">
@@ -5960,28 +5938,28 @@
         <v>201</v>
       </c>
       <c r="I114" t="str">
+        <f t="shared" si="23"/>
+        <v>Ely Kovetz                      \\</v>
+      </c>
+      <c r="K114">
         <f t="shared" si="24"/>
-        <v>Ely Kovetz                      \\</v>
-      </c>
-      <c r="K114">
+        <v>10</v>
+      </c>
+      <c r="L114">
         <f t="shared" si="25"/>
-        <v>10</v>
-      </c>
-      <c r="L114">
-        <f t="shared" si="26"/>
         <v>22</v>
       </c>
       <c r="M114" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">                      </v>
       </c>
       <c r="P114">
         <f>F38+1</f>
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="Q114">
-        <f t="shared" si="27"/>
-        <v>44</v>
+        <f t="shared" si="26"/>
+        <v>26</v>
       </c>
     </row>
     <row r="115" spans="2:17">
@@ -5998,28 +5976,28 @@
         <v>350</v>
       </c>
       <c r="I115" t="str">
+        <f t="shared" si="23"/>
+        <v>Kerstin Kunze                   \\</v>
+      </c>
+      <c r="K115">
         <f t="shared" si="24"/>
-        <v>Kerstin Kunze                   \\</v>
-      </c>
-      <c r="K115">
+        <v>13</v>
+      </c>
+      <c r="L115">
         <f t="shared" si="25"/>
-        <v>13</v>
-      </c>
-      <c r="L115">
-        <f t="shared" si="26"/>
         <v>19</v>
       </c>
       <c r="M115" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">                   </v>
       </c>
       <c r="P115">
         <f>F39+1</f>
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="Q115">
-        <f t="shared" si="27"/>
-        <v>32</v>
+        <f t="shared" si="26"/>
+        <v>26</v>
       </c>
     </row>
     <row r="116" spans="2:17">
@@ -6036,28 +6014,28 @@
         <v>395</v>
       </c>
       <c r="I116" t="str">
+        <f t="shared" si="23"/>
+        <v>Guilaine Lagache                \\</v>
+      </c>
+      <c r="K116">
         <f t="shared" si="24"/>
-        <v>Guilaine Lagache                \\</v>
-      </c>
-      <c r="K116">
+        <v>16</v>
+      </c>
+      <c r="L116">
         <f t="shared" si="25"/>
         <v>16</v>
       </c>
-      <c r="L116">
-        <f t="shared" si="26"/>
-        <v>16</v>
-      </c>
       <c r="M116" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">                </v>
       </c>
       <c r="P116">
         <f>F40+1</f>
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="Q116">
-        <f t="shared" si="27"/>
-        <v>43</v>
+        <f t="shared" si="26"/>
+        <v>26</v>
       </c>
     </row>
     <row r="117" spans="2:17">
@@ -6074,28 +6052,28 @@
         <v>212</v>
       </c>
       <c r="I117" t="str">
+        <f t="shared" si="23"/>
+        <v>Daniel Lenz                     \\</v>
+      </c>
+      <c r="K117">
         <f t="shared" si="24"/>
-        <v>Daniel Lenz                     \\</v>
-      </c>
-      <c r="K117">
+        <v>11</v>
+      </c>
+      <c r="L117">
         <f t="shared" si="25"/>
-        <v>11</v>
-      </c>
-      <c r="L117">
-        <f t="shared" si="26"/>
         <v>21</v>
       </c>
       <c r="M117" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">                     </v>
       </c>
       <c r="P117">
         <f>F41+1</f>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q117">
-        <f t="shared" si="27"/>
-        <v>22</v>
+        <f t="shared" si="26"/>
+        <v>26</v>
       </c>
     </row>
     <row r="118" spans="2:17">
@@ -6112,19 +6090,19 @@
         <v>383</v>
       </c>
       <c r="I118" t="str">
+        <f t="shared" si="23"/>
+        <v>Fran\c{c}ois Levrier            \\</v>
+      </c>
+      <c r="K118">
         <f t="shared" si="24"/>
-        <v>Fran\c{c}ois Levrier            \\</v>
-      </c>
-      <c r="K118">
+        <v>20</v>
+      </c>
+      <c r="L118">
         <f t="shared" si="25"/>
-        <v>20</v>
-      </c>
-      <c r="L118">
-        <f t="shared" si="26"/>
         <v>12</v>
       </c>
       <c r="M118" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">            </v>
       </c>
       <c r="P118">
@@ -6132,7 +6110,7 @@
         <v>25</v>
       </c>
       <c r="Q118">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>26</v>
       </c>
     </row>
@@ -6151,28 +6129,28 @@
         <v>215</v>
       </c>
       <c r="I119" t="str">
+        <f t="shared" si="23"/>
+        <v>Marilena Loverde                \\</v>
+      </c>
+      <c r="K119">
         <f t="shared" si="24"/>
-        <v>Marilena Loverde                \\</v>
-      </c>
-      <c r="K119">
+        <v>16</v>
+      </c>
+      <c r="L119">
         <f t="shared" si="25"/>
         <v>16</v>
       </c>
-      <c r="L119">
-        <f t="shared" si="26"/>
-        <v>16</v>
-      </c>
       <c r="M119" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">                </v>
       </c>
       <c r="P119">
         <f>F43+1</f>
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="Q119">
-        <f t="shared" si="27"/>
-        <v>41</v>
+        <f t="shared" si="26"/>
+        <v>26</v>
       </c>
     </row>
     <row r="120" spans="2:17">
@@ -6189,28 +6167,28 @@
         <v>349</v>
       </c>
       <c r="I120" t="str">
+        <f t="shared" si="23"/>
+        <v>Juan Macias-Perez               \\</v>
+      </c>
+      <c r="K120">
         <f t="shared" si="24"/>
-        <v>Juan Macias-Perez               \\</v>
-      </c>
-      <c r="K120">
+        <v>17</v>
+      </c>
+      <c r="L120">
         <f t="shared" si="25"/>
-        <v>17</v>
-      </c>
-      <c r="L120">
-        <f t="shared" si="26"/>
         <v>15</v>
       </c>
       <c r="M120" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">               </v>
       </c>
       <c r="P120">
         <f>F44+1</f>
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="Q120">
-        <f t="shared" si="27"/>
-        <v>46</v>
+        <f t="shared" si="26"/>
+        <v>26</v>
       </c>
     </row>
     <row r="121" spans="2:17">
@@ -6227,28 +6205,28 @@
         <v>218</v>
       </c>
       <c r="I121" t="str">
+        <f t="shared" si="23"/>
+        <v>Carlos Martins                  \\</v>
+      </c>
+      <c r="K121">
         <f t="shared" si="24"/>
-        <v>Carlos Martins                  \\</v>
-      </c>
-      <c r="K121">
+        <v>14</v>
+      </c>
+      <c r="L121">
         <f t="shared" si="25"/>
-        <v>14</v>
-      </c>
-      <c r="L121">
-        <f t="shared" si="26"/>
         <v>18</v>
       </c>
       <c r="M121" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">                  </v>
       </c>
       <c r="P121">
         <f>F45+1</f>
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="Q121">
-        <f t="shared" si="27"/>
-        <v>34</v>
+        <f t="shared" si="26"/>
+        <v>26</v>
       </c>
     </row>
     <row r="122" spans="2:17">
@@ -6266,28 +6244,28 @@
         <v>220</v>
       </c>
       <c r="I122" t="str">
+        <f t="shared" si="23"/>
+        <v>Silvia Masi                     \\</v>
+      </c>
+      <c r="K122">
         <f t="shared" si="24"/>
-        <v>Silvia Masi                     \\</v>
-      </c>
-      <c r="K122">
+        <v>11</v>
+      </c>
+      <c r="L122">
         <f t="shared" si="25"/>
-        <v>11</v>
-      </c>
-      <c r="L122">
+        <v>21</v>
+      </c>
+      <c r="M122" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">                     </v>
+      </c>
+      <c r="P122">
+        <f t="shared" ref="P122:P153" si="27">F46+1</f>
+        <v>25</v>
+      </c>
+      <c r="Q122">
         <f t="shared" si="26"/>
-        <v>21</v>
-      </c>
-      <c r="M122" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">                     </v>
-      </c>
-      <c r="P122">
-        <f>F46+1</f>
-        <v>22</v>
-      </c>
-      <c r="Q122">
-        <f t="shared" si="27"/>
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="123" spans="2:17">
@@ -6304,28 +6282,28 @@
         <v>276</v>
       </c>
       <c r="I123" t="str">
+        <f t="shared" si="23"/>
+        <v>Joel Meyers                     \\</v>
+      </c>
+      <c r="K123">
         <f t="shared" si="24"/>
-        <v>Joel Meyers                     \\</v>
-      </c>
-      <c r="K123">
+        <v>11</v>
+      </c>
+      <c r="L123">
         <f t="shared" si="25"/>
-        <v>11</v>
-      </c>
-      <c r="L123">
+        <v>21</v>
+      </c>
+      <c r="M123" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">                     </v>
+      </c>
+      <c r="P123">
+        <f t="shared" si="27"/>
+        <v>25</v>
+      </c>
+      <c r="Q123">
         <f t="shared" si="26"/>
-        <v>21</v>
-      </c>
-      <c r="M123" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">                     </v>
-      </c>
-      <c r="P123" t="e">
-        <f>F47+1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q123" t="e">
-        <f t="shared" si="27"/>
-        <v>#VALUE!</v>
+        <v>26</v>
       </c>
     </row>
     <row r="124" spans="2:17">
@@ -6342,28 +6320,28 @@
         <v>223</v>
       </c>
       <c r="I124" t="str">
+        <f t="shared" si="23"/>
+        <v>Lorenzo Moncelsi                \\</v>
+      </c>
+      <c r="K124">
         <f t="shared" si="24"/>
-        <v>Lorenzo Moncelsi                \\</v>
-      </c>
-      <c r="K124">
+        <v>16</v>
+      </c>
+      <c r="L124">
         <f t="shared" si="25"/>
         <v>16</v>
       </c>
-      <c r="L124">
+      <c r="M124" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">                </v>
+      </c>
+      <c r="P124">
+        <f t="shared" si="27"/>
+        <v>25</v>
+      </c>
+      <c r="Q124">
         <f t="shared" si="26"/>
-        <v>16</v>
-      </c>
-      <c r="M124" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">                </v>
-      </c>
-      <c r="P124">
-        <f>F48+1</f>
-        <v>19</v>
-      </c>
-      <c r="Q124">
-        <f t="shared" si="27"/>
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="125" spans="2:17">
@@ -6380,28 +6358,28 @@
         <v>226</v>
       </c>
       <c r="I125" t="str">
+        <f t="shared" si="23"/>
+        <v>Pavel Motloch                   \\</v>
+      </c>
+      <c r="K125">
         <f t="shared" si="24"/>
-        <v>Pavel Motloch                   \\</v>
-      </c>
-      <c r="K125">
+        <v>13</v>
+      </c>
+      <c r="L125">
         <f t="shared" si="25"/>
-        <v>13</v>
-      </c>
-      <c r="L125">
+        <v>19</v>
+      </c>
+      <c r="M125" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">                   </v>
+      </c>
+      <c r="P125">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="Q125">
         <f t="shared" si="26"/>
-        <v>19</v>
-      </c>
-      <c r="M125" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">                   </v>
-      </c>
-      <c r="P125">
-        <f>F49+1</f>
-        <v>11</v>
-      </c>
-      <c r="Q125">
-        <f t="shared" si="27"/>
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="2:17">
@@ -6418,28 +6396,28 @@
         <v>229</v>
       </c>
       <c r="I126" t="str">
+        <f t="shared" si="23"/>
+        <v>Tony Mroczkowski                \\</v>
+      </c>
+      <c r="K126">
         <f t="shared" si="24"/>
-        <v>Tony Mroczkowski                \\</v>
-      </c>
-      <c r="K126">
+        <v>16</v>
+      </c>
+      <c r="L126">
         <f t="shared" si="25"/>
         <v>16</v>
       </c>
-      <c r="L126">
+      <c r="M126" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">                </v>
+      </c>
+      <c r="P126">
+        <f t="shared" si="27"/>
+        <v>26</v>
+      </c>
+      <c r="Q126">
         <f t="shared" si="26"/>
-        <v>16</v>
-      </c>
-      <c r="M126" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">                </v>
-      </c>
-      <c r="P126">
-        <f>F50+1</f>
-        <v>30</v>
-      </c>
-      <c r="Q126">
-        <f t="shared" si="27"/>
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="127" spans="2:17">
@@ -6471,13 +6449,13 @@
         <f t="shared" ref="M127:M159" si="31">REPT(" ",L127)</f>
         <v xml:space="preserve">               </v>
       </c>
-      <c r="P127">
-        <f>F51+1</f>
-        <v>10</v>
-      </c>
-      <c r="Q127">
+      <c r="P127" t="e">
         <f t="shared" si="27"/>
-        <v>11</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q127" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="128" spans="2:17">
@@ -6511,12 +6489,12 @@
         <v xml:space="preserve">                  </v>
       </c>
       <c r="P128">
-        <f>F52+1</f>
-        <v>45</v>
+        <f t="shared" si="27"/>
+        <v>29</v>
       </c>
       <c r="Q128">
-        <f t="shared" si="27"/>
-        <v>46</v>
+        <f t="shared" si="26"/>
+        <v>30</v>
       </c>
     </row>
     <row r="129" spans="2:17">
@@ -6549,12 +6527,12 @@
         <v xml:space="preserve">                   </v>
       </c>
       <c r="P129">
-        <f>F53+1</f>
-        <v>33</v>
+        <f t="shared" si="27"/>
+        <v>29</v>
       </c>
       <c r="Q129">
-        <f t="shared" si="27"/>
-        <v>34</v>
+        <f t="shared" si="26"/>
+        <v>30</v>
       </c>
     </row>
     <row r="130" spans="2:17">
@@ -6587,12 +6565,12 @@
         <v xml:space="preserve">                    </v>
       </c>
       <c r="P130">
-        <f>F54+1</f>
-        <v>41</v>
+        <f t="shared" si="27"/>
+        <v>30</v>
       </c>
       <c r="Q130">
-        <f t="shared" si="27"/>
-        <v>42</v>
+        <f t="shared" si="26"/>
+        <v>31</v>
       </c>
     </row>
     <row r="131" spans="2:17">
@@ -6626,12 +6604,12 @@
         <v xml:space="preserve">                   </v>
       </c>
       <c r="P131">
-        <f>F55+1</f>
-        <v>29</v>
+        <f t="shared" si="27"/>
+        <v>31</v>
       </c>
       <c r="Q131">
-        <f t="shared" si="27"/>
-        <v>30</v>
+        <f t="shared" si="26"/>
+        <v>32</v>
       </c>
     </row>
     <row r="132" spans="2:17">
@@ -6665,12 +6643,12 @@
         <v xml:space="preserve">            </v>
       </c>
       <c r="P132">
-        <f>F56+1</f>
-        <v>13</v>
+        <f t="shared" si="27"/>
+        <v>32</v>
       </c>
       <c r="Q132">
-        <f t="shared" si="27"/>
-        <v>14</v>
+        <f t="shared" si="26"/>
+        <v>33</v>
       </c>
     </row>
     <row r="133" spans="2:17">
@@ -6703,12 +6681,12 @@
         <v xml:space="preserve">                </v>
       </c>
       <c r="P133">
-        <f>F57+1</f>
-        <v>25</v>
+        <f t="shared" si="27"/>
+        <v>33</v>
       </c>
       <c r="Q133">
-        <f t="shared" si="27"/>
-        <v>26</v>
+        <f t="shared" si="26"/>
+        <v>34</v>
       </c>
     </row>
     <row r="134" spans="2:17">
@@ -6741,12 +6719,12 @@
         <v xml:space="preserve">                </v>
       </c>
       <c r="P134">
-        <f>F58+1</f>
-        <v>48</v>
+        <f t="shared" si="27"/>
+        <v>33</v>
       </c>
       <c r="Q134">
-        <f t="shared" si="27"/>
-        <v>49</v>
+        <f t="shared" si="26"/>
+        <v>34</v>
       </c>
     </row>
     <row r="135" spans="2:17">
@@ -6779,12 +6757,12 @@
         <v xml:space="preserve">                 </v>
       </c>
       <c r="P135">
-        <f>F59+1</f>
-        <v>12</v>
+        <f t="shared" si="27"/>
+        <v>33</v>
       </c>
       <c r="Q135">
-        <f t="shared" si="27"/>
-        <v>13</v>
+        <f t="shared" si="26"/>
+        <v>34</v>
       </c>
     </row>
     <row r="136" spans="2:17">
@@ -6818,12 +6796,12 @@
         <v xml:space="preserve">             </v>
       </c>
       <c r="P136">
-        <f>F60+1</f>
-        <v>12</v>
+        <f t="shared" si="27"/>
+        <v>34</v>
       </c>
       <c r="Q136">
-        <f t="shared" si="27"/>
-        <v>13</v>
+        <f t="shared" si="26"/>
+        <v>35</v>
       </c>
     </row>
     <row r="137" spans="2:17">
@@ -6856,12 +6834,12 @@
         <v xml:space="preserve">             </v>
       </c>
       <c r="P137">
-        <f>F61+1</f>
-        <v>8</v>
+        <f t="shared" si="27"/>
+        <v>35</v>
       </c>
       <c r="Q137">
-        <f t="shared" si="27"/>
-        <v>9</v>
+        <f t="shared" si="26"/>
+        <v>36</v>
       </c>
     </row>
     <row r="138" spans="2:17">
@@ -6894,12 +6872,12 @@
         <v xml:space="preserve">                     </v>
       </c>
       <c r="P138">
-        <f>F62+1</f>
-        <v>7</v>
+        <f t="shared" si="27"/>
+        <v>36</v>
       </c>
       <c r="Q138">
-        <f t="shared" si="27"/>
-        <v>8</v>
+        <f t="shared" si="26"/>
+        <v>37</v>
       </c>
     </row>
     <row r="139" spans="2:17">
@@ -6932,12 +6910,12 @@
         <v xml:space="preserve">      </v>
       </c>
       <c r="P139">
-        <f>F63+1</f>
-        <v>32</v>
+        <f t="shared" si="27"/>
+        <v>37</v>
       </c>
       <c r="Q139">
-        <f t="shared" si="27"/>
-        <v>33</v>
+        <f t="shared" si="26"/>
+        <v>38</v>
       </c>
     </row>
     <row r="140" spans="2:17">
@@ -6970,12 +6948,12 @@
         <v xml:space="preserve">                  </v>
       </c>
       <c r="P140">
-        <f>F64+1</f>
-        <v>25</v>
+        <f t="shared" si="27"/>
+        <v>38</v>
       </c>
       <c r="Q140">
-        <f t="shared" si="27"/>
-        <v>26</v>
+        <f t="shared" si="26"/>
+        <v>39</v>
       </c>
     </row>
     <row r="141" spans="2:17">
@@ -7008,12 +6986,12 @@
         <v xml:space="preserve">            </v>
       </c>
       <c r="P141">
-        <f>F65+1</f>
-        <v>25</v>
+        <f t="shared" si="27"/>
+        <v>39</v>
       </c>
       <c r="Q141">
-        <f t="shared" si="27"/>
-        <v>26</v>
+        <f t="shared" si="26"/>
+        <v>40</v>
       </c>
     </row>
     <row r="142" spans="2:17">
@@ -7046,12 +7024,12 @@
         <v xml:space="preserve">                  </v>
       </c>
       <c r="P142">
-        <f>F66+1</f>
-        <v>5</v>
+        <f t="shared" si="27"/>
+        <v>40</v>
       </c>
       <c r="Q142">
-        <f t="shared" si="27"/>
-        <v>6</v>
+        <f t="shared" si="26"/>
+        <v>41</v>
       </c>
     </row>
     <row r="143" spans="2:17">
@@ -7083,13 +7061,13 @@
         <f t="shared" si="31"/>
         <v xml:space="preserve">                  </v>
       </c>
-      <c r="P143">
-        <f>F67+1</f>
-        <v>37</v>
-      </c>
-      <c r="Q143">
+      <c r="P143" t="e">
         <f t="shared" si="27"/>
-        <v>38</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q143" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="144" spans="2:17">
@@ -7122,13 +7100,13 @@
         <f t="shared" si="31"/>
         <v xml:space="preserve">                  </v>
       </c>
-      <c r="P144">
-        <f>F68+1</f>
-        <v>45</v>
-      </c>
-      <c r="Q144">
+      <c r="P144" t="e">
         <f t="shared" si="27"/>
-        <v>46</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q144" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="145" spans="2:17">
@@ -7161,12 +7139,12 @@
         <v xml:space="preserve">                 </v>
       </c>
       <c r="P145">
-        <f>F69+1</f>
-        <v>44</v>
+        <f t="shared" si="27"/>
+        <v>41</v>
       </c>
       <c r="Q145">
-        <f t="shared" si="27"/>
-        <v>45</v>
+        <f t="shared" si="26"/>
+        <v>42</v>
       </c>
     </row>
     <row r="146" spans="2:17">
@@ -7199,12 +7177,12 @@
         <v xml:space="preserve">                 </v>
       </c>
       <c r="P146">
-        <f>F70+1</f>
-        <v>25</v>
+        <f t="shared" si="27"/>
+        <v>42</v>
       </c>
       <c r="Q146">
-        <f t="shared" si="27"/>
-        <v>26</v>
+        <f t="shared" si="26"/>
+        <v>43</v>
       </c>
     </row>
     <row r="147" spans="2:17">
@@ -7237,12 +7215,12 @@
         <v xml:space="preserve">                  </v>
       </c>
       <c r="P147">
-        <f>F71+1</f>
-        <v>21</v>
+        <f t="shared" si="27"/>
+        <v>43</v>
       </c>
       <c r="Q147">
-        <f t="shared" si="27"/>
-        <v>22</v>
+        <f t="shared" si="26"/>
+        <v>44</v>
       </c>
     </row>
     <row r="148" spans="2:17">
@@ -7275,12 +7253,12 @@
         <v xml:space="preserve">                    </v>
       </c>
       <c r="P148">
-        <f>F72+1</f>
-        <v>39</v>
+        <f t="shared" si="27"/>
+        <v>44</v>
       </c>
       <c r="Q148">
-        <f t="shared" si="27"/>
-        <v>40</v>
+        <f t="shared" si="26"/>
+        <v>45</v>
       </c>
     </row>
     <row r="149" spans="2:17">
@@ -7313,12 +7291,12 @@
         <v xml:space="preserve">                  </v>
       </c>
       <c r="P149">
-        <f>F73+1</f>
-        <v>14</v>
+        <f t="shared" si="27"/>
+        <v>44</v>
       </c>
       <c r="Q149">
-        <f t="shared" si="27"/>
-        <v>15</v>
+        <f t="shared" si="26"/>
+        <v>45</v>
       </c>
     </row>
     <row r="150" spans="2:17">
@@ -7351,12 +7329,12 @@
         <v xml:space="preserve">                     </v>
       </c>
       <c r="P150">
-        <f>F74+1</f>
-        <v>25</v>
+        <f t="shared" si="27"/>
+        <v>1</v>
       </c>
       <c r="Q150">
-        <f t="shared" si="27"/>
-        <v>26</v>
+        <f t="shared" si="26"/>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="2:17">
@@ -7389,12 +7367,12 @@
         <v xml:space="preserve">                    </v>
       </c>
       <c r="P151">
-        <f>F75+1</f>
-        <v>38</v>
+        <f t="shared" si="27"/>
+        <v>45</v>
       </c>
       <c r="Q151">
-        <f t="shared" si="27"/>
-        <v>39</v>
+        <f t="shared" si="26"/>
+        <v>46</v>
       </c>
     </row>
     <row r="152" spans="2:17">
@@ -7427,12 +7405,12 @@
         <v xml:space="preserve">               </v>
       </c>
       <c r="P152">
-        <f>F76+1</f>
-        <v>25</v>
+        <f t="shared" si="27"/>
+        <v>45</v>
       </c>
       <c r="Q152">
-        <f t="shared" si="27"/>
-        <v>26</v>
+        <f t="shared" si="26"/>
+        <v>46</v>
       </c>
     </row>
     <row r="153" spans="2:17">
@@ -7465,12 +7443,12 @@
         <v xml:space="preserve">             </v>
       </c>
       <c r="P153">
-        <f>F77+1</f>
-        <v>17</v>
+        <f t="shared" si="27"/>
+        <v>45</v>
       </c>
       <c r="Q153">
-        <f t="shared" si="27"/>
-        <v>18</v>
+        <f t="shared" si="26"/>
+        <v>46</v>
       </c>
     </row>
     <row r="154" spans="2:17">
@@ -7507,7 +7485,7 @@
         <v>45</v>
       </c>
       <c r="Q154">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>46</v>
       </c>
     </row>
@@ -7542,11 +7520,11 @@
       </c>
       <c r="P155">
         <f>F79+1</f>
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q155">
-        <f t="shared" si="27"/>
-        <v>49</v>
+        <f t="shared" si="26"/>
+        <v>46</v>
       </c>
     </row>
     <row r="156" spans="2:17">
@@ -7580,11 +7558,11 @@
       </c>
       <c r="P156">
         <f>F80+1</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q156">
-        <f t="shared" si="27"/>
-        <v>46</v>
+        <f t="shared" si="26"/>
+        <v>47</v>
       </c>
     </row>
     <row r="157" spans="2:17">
@@ -7618,11 +7596,11 @@
       </c>
       <c r="P157">
         <f>F81+1</f>
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="Q157">
-        <f t="shared" si="27"/>
-        <v>36</v>
+        <f t="shared" si="26"/>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="2:17">
@@ -7656,11 +7634,11 @@
       </c>
       <c r="P158">
         <f>F82+1</f>
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="Q158">
-        <f t="shared" si="27"/>
-        <v>17</v>
+        <f t="shared" si="26"/>
+        <v>48</v>
       </c>
     </row>
     <row r="159" spans="2:17">
@@ -7693,38 +7671,38 @@
         <v xml:space="preserve">               </v>
       </c>
       <c r="P159">
-        <f>F83+1</f>
+        <f>F86+1</f>
         <v>1</v>
       </c>
     </row>
     <row r="160" spans="2:17">
       <c r="P160">
-        <f>F84+1</f>
+        <f>F87+1</f>
         <v>1</v>
       </c>
     </row>
     <row r="161" spans="2:16">
       <c r="P161">
-        <f>F85+1</f>
+        <f>F88+1</f>
         <v>1</v>
       </c>
     </row>
     <row r="162" spans="2:16">
       <c r="P162">
-        <f>F86+1</f>
+        <f>F89+1</f>
         <v>1</v>
       </c>
     </row>
     <row r="163" spans="2:16">
       <c r="P163">
-        <f>F87+1</f>
-        <v>1</v>
+        <f>F83+1</f>
+        <v>48</v>
       </c>
     </row>
     <row r="164" spans="2:16">
       <c r="P164">
-        <f>F88+1</f>
-        <v>1</v>
+        <f>F84+1</f>
+        <v>48</v>
       </c>
     </row>
     <row r="168" spans="2:16">
@@ -7956,8 +7934,8 @@
       <c r="D206"/>
     </row>
   </sheetData>
-  <sortState ref="B10:G82">
-    <sortCondition ref="C10:C82"/>
+  <sortState ref="B10:G85">
+    <sortCondition ref="G10:G85"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>

--- a/ReferenceDocuments/ReportAuthors.xlsx
+++ b/ReferenceDocuments/ReportAuthors.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="523">
   <si>
     <t>Report Authors</t>
   </si>
@@ -1523,39 +1523,12 @@
     <t>Department of Astronomy \&amp; Astrophysics and Dunlap Institute, University of Toronto, Canada</t>
   </si>
   <si>
-    <t>University of California, Berkeley &amp;&amp;&amp;&amp;&amp;&amp;&amp; LBNL</t>
-  </si>
-  <si>
-    <t>University of California, Berkeley &amp;&amp;&amp;&amp;&amp;&amp; LBNL</t>
-  </si>
-  <si>
-    <t>1,24</t>
-  </si>
-  <si>
-    <t>26,27</t>
-  </si>
-  <si>
-    <t>Institut d'Astrophysique Spatiale, Orsay, France</t>
-  </si>
-  <si>
     <t>Institut d'Astrophysique Spatiale, CNRS, Univ. Paris-Sud, Universit\'e Paris-Saclay, France</t>
   </si>
   <si>
-    <t>2,3</t>
-  </si>
-  <si>
-    <t>8,20</t>
-  </si>
-  <si>
-    <t>26,39</t>
-  </si>
-  <si>
     <t>San Diego Supercomputer Center, University of California San Diego</t>
   </si>
   <si>
-    <t>Lawrence Berkeley National Laboratory, &amp;&amp;&amp;&amp;&amp;   Space Sciences Laboratory, University of California, Berkeley</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mark </t>
   </si>
   <si>
@@ -1580,13 +1553,67 @@
     <t>Universit\`a degli studi di Milano</t>
   </si>
   <si>
-    <t>APC, CNRS, Universit\'e Paris-Diderot, France &amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;    JPL - California Institute of Technology</t>
-  </si>
-  <si>
-    <t>APC, CNRS, Universit\'e Paris-Diderot, France   &amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp; IRFU, CEA, University\'e Paris-Saclay, France</t>
-  </si>
-  <si>
     <t>IRFU, CEA, University\'e Paris-Saclay, France</t>
+  </si>
+  <si>
+    <t>Ecole Normale Superieure, Paris, France</t>
+  </si>
+  <si>
+    <t>Bennett</t>
+  </si>
+  <si>
+    <t>Dodelson</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>Carnegie Melon University</t>
+  </si>
+  <si>
+    <t>%Scott</t>
+  </si>
+  <si>
+    <t>%Charles</t>
+  </si>
+  <si>
+    <t>%Lyman</t>
+  </si>
+  <si>
+    <t>Lawrence Berkeley National Laboratory</t>
+  </si>
+  <si>
+    <t>%Peter</t>
+  </si>
+  <si>
+    <t>%Marcelo</t>
+  </si>
+  <si>
+    <t>jeffmcm@umich.edu</t>
+  </si>
+  <si>
+    <t>dummy</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>%Julian</t>
+  </si>
+  <si>
+    <t>Space Sciences Laboratory, University of California, Berkeley</t>
+  </si>
+  <si>
+    <t>%Colin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APC, CNRS, Universit\'e Paris-Diderot, France </t>
+  </si>
+  <si>
+    <t>%Jacques</t>
+  </si>
+  <si>
+    <t>%James G.</t>
   </si>
 </sst>
 </file>
@@ -2068,10 +2095,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q206"/>
+  <dimension ref="A1:O215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -2136,7 +2163,7 @@
         <v>270</v>
       </c>
       <c r="O7" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -2192,15 +2219,15 @@
       <c r="E10" t="s">
         <v>8</v>
       </c>
-      <c r="F10" t="s">
-        <v>498</v>
+      <c r="F10">
+        <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="I10" t="str">
         <f>CONCATENATE(B10," ",C10, " $^{", F10,"}$", M10,"\\")</f>
-        <v>Jacques Delabrouille $^{2,3}$            \\</v>
+        <v>Jacques Delabrouille $^{1}$            \\</v>
       </c>
       <c r="K10">
         <f>LEN(B10) + LEN(C10) +1</f>
@@ -2216,7 +2243,7 @@
       </c>
       <c r="O10" t="str">
         <f>CONCATENATE(F10, ". ", G10, ".  \\")</f>
-        <v>2,3. APC, CNRS, Universit\'e Paris-Diderot, France   &amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp; IRFU, CEA, University\'e Paris-Saclay, France.  \\</v>
+        <v>1. APC, CNRS, Universit\'e Paris-Diderot, France .  \\</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -2232,31 +2259,31 @@
       <c r="E11" t="s">
         <v>8</v>
       </c>
-      <c r="F11" t="s">
-        <v>494</v>
+      <c r="F11">
+        <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" ref="I11:I74" si="0">CONCATENATE(B11," ",C11, " $^{", F11,"}$", M11,"\\")</f>
-        <v>James G. Bartlett $^{1,24}$               \\</v>
+        <v>James G. Bartlett $^{1}$               \\</v>
       </c>
       <c r="K11">
-        <f t="shared" ref="K11:K73" si="1">LEN(B11) + LEN(C11) +1</f>
+        <f t="shared" ref="K11:K74" si="1">LEN(B11) + LEN(C11) +1</f>
         <v>17</v>
       </c>
       <c r="L11">
-        <f t="shared" ref="L11:L73" si="2">IF(K11&lt;30,(32-K11),3)</f>
+        <f t="shared" ref="L11:L74" si="2">IF(K11&lt;30,(32-K11),3)</f>
         <v>15</v>
       </c>
       <c r="M11" t="str">
-        <f t="shared" ref="M11:M73" si="3">REPT(" ",L11)</f>
+        <f t="shared" ref="M11:M74" si="3">REPT(" ",L11)</f>
         <v xml:space="preserve">               </v>
       </c>
       <c r="O11" t="str">
         <f t="shared" ref="O11:O74" si="4">CONCATENATE(F11, ". ", G11, ".  \\")</f>
-        <v>1,24. APC, CNRS, Universit\'e Paris-Diderot, France &amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;&amp;    JPL - California Institute of Technology.  \\</v>
+        <v>1. APC, CNRS, Universit\'e Paris-Diderot, France .  \\</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -2273,14 +2300,14 @@
         <v>8</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G12" t="s">
         <v>223</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="0"/>
-        <v>Tim Pearson $^{4}$                     \\</v>
+        <v>Tim Pearson $^{2}$                     \\</v>
       </c>
       <c r="K12">
         <f t="shared" si="1"/>
@@ -2296,7 +2323,7 @@
       </c>
       <c r="O12" t="str">
         <f t="shared" si="4"/>
-        <v>4. California Institute of Technology.  \\</v>
+        <v>2. California Institute of Technology.  \\</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -2313,14 +2340,14 @@
         <v>8</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G13" t="s">
         <v>485</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="0"/>
-        <v>Alexander van Engelen $^{5}$           \\</v>
+        <v>Alexander van Engelen $^{3}$           \\</v>
       </c>
       <c r="K13">
         <f t="shared" si="1"/>
@@ -2336,7 +2363,7 @@
       </c>
       <c r="O13" t="str">
         <f t="shared" si="4"/>
-        <v>5. Canadian Institute for Theoretical Astrophysics, University of Toronto, Canada.  \\</v>
+        <v>3. Canadian Institute for Theoretical Astrophysics, University of Toronto, Canada.  \\</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -2353,14 +2380,14 @@
         <v>8</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G14" t="s">
         <v>104</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="0"/>
-        <v>Mattia Negrello $^{6}$                 \\</v>
+        <v>Mattia Negrello $^{3}$                 \\</v>
       </c>
       <c r="K14">
         <f t="shared" si="1"/>
@@ -2376,617 +2403,616 @@
       </c>
       <c r="O14" t="str">
         <f t="shared" si="4"/>
-        <v>6. Cardiff University School of Physics and Astronomy.  \\</v>
+        <v>3. Cardiff University School of Physics and Astronomy.  \\</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>508</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" t="s">
-        <v>435</v>
+        <v>505</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>516</v>
       </c>
       <c r="F15">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G15" t="s">
-        <v>487</v>
+        <v>507</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="0"/>
-        <v>Stephen Feeney $^{8}$                  \\</v>
+        <v>%Scott Dodelson $^{4}$                 \\</v>
       </c>
       <c r="K15">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L15">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M15" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="O15" t="str">
         <f t="shared" si="4"/>
-        <v>8. Center for Computational Astrophysics, Flatiron Institute.  \\</v>
+        <v>4. Carnegie Melon University.  \\</v>
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="B16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" t="s">
-        <v>84</v>
+      <c r="B16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
       </c>
       <c r="F16">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G16" t="s">
-        <v>373</v>
+        <v>487</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="0"/>
-        <v>Brad Johnson $^{9}$                    \\</v>
+        <v>Stephen Feeney $^{5}$                  \\</v>
       </c>
       <c r="K16">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L16">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M16" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">                  </v>
       </c>
       <c r="O16" t="str">
         <f t="shared" si="4"/>
-        <v>9. Columbia University.  \\</v>
+        <v>5. Center for Computational Astrophysics, Flatiron Institute.  \\</v>
       </c>
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="1" t="s">
-        <v>323</v>
+        <v>75</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>446</v>
+        <v>76</v>
+      </c>
+      <c r="D17" t="s">
+        <v>444</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
       </c>
       <c r="F17">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G17" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="0"/>
-        <v>Ren\'{e}e  Hlo\v{z}ek $^{10}$           \\</v>
+        <v>Colin Hill $^{5}$                      \\</v>
       </c>
       <c r="K17">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="L17">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M17" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">           </v>
+        <v xml:space="preserve">                      </v>
       </c>
       <c r="O17" t="str">
         <f t="shared" si="4"/>
-        <v>10. Department of Astronomy \&amp; Astrophysics and Dunlap Institute, University of Toronto, Canada.  \\</v>
+        <v>5. Center for Computational Astrophysics, Flatiron Institute.  \\</v>
       </c>
     </row>
     <row r="18" spans="2:15">
-      <c r="B18" s="1" t="s">
-        <v>96</v>
+      <c r="B18" t="s">
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
       </c>
       <c r="F18">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G18" t="s">
-        <v>341</v>
+        <v>373</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="0"/>
-        <v>Zack Li $^{11}$                         \\</v>
+        <v>Brad Johnson $^{6}$                    \\</v>
       </c>
       <c r="K18">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="L18">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M18" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                         </v>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="O18" t="str">
         <f t="shared" si="4"/>
-        <v>11. Department of Astrophysical Sciences, Princeton University.  \\</v>
+        <v>6. Columbia University.  \\</v>
       </c>
     </row>
     <row r="19" spans="2:15">
       <c r="B19" s="1" t="s">
-        <v>98</v>
+        <v>323</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>99</v>
+        <v>324</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>446</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
       </c>
       <c r="F19">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G19" t="s">
-        <v>341</v>
+        <v>491</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="0"/>
-        <v>Mathew Madhavacheril $^{11}$            \\</v>
+        <v>Ren\'{e}e  Hlo\v{z}ek $^{7}$           \\</v>
       </c>
       <c r="K19">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L19">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M19" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">           </v>
       </c>
       <c r="O19" t="str">
         <f t="shared" si="4"/>
-        <v>11. Department of Astrophysical Sciences, Princeton University.  \\</v>
+        <v>7. Department of Astronomy \&amp; Astrophysics and Dunlap Institute, University of Toronto, Canada.  \\</v>
       </c>
     </row>
     <row r="20" spans="2:15">
-      <c r="B20" t="s">
-        <v>287</v>
+      <c r="B20" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="C20" t="s">
-        <v>306</v>
-      </c>
-      <c r="D20"/>
+        <v>97</v>
+      </c>
+      <c r="D20" t="s">
+        <v>455</v>
+      </c>
       <c r="E20" t="s">
         <v>8</v>
       </c>
       <c r="F20">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G20" t="s">
-        <v>275</v>
+        <v>341</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="0"/>
-        <v>Marcos L\'{o}pez-Caniego $^{12}$        \\</v>
+        <v>Zack Li $^{8}$                         \\</v>
       </c>
       <c r="K20">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="L20">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="M20" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">        </v>
+        <v xml:space="preserve">                         </v>
       </c>
       <c r="O20" t="str">
         <f t="shared" si="4"/>
-        <v>12. European Space Astronomy Centre.  \\</v>
+        <v>8. Department of Astrophysical Sciences, Princeton University.  \\</v>
       </c>
     </row>
     <row r="21" spans="2:15">
-      <c r="B21" t="s">
-        <v>126</v>
+      <c r="B21" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
       </c>
       <c r="F21">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G21" t="s">
-        <v>128</v>
+        <v>341</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="0"/>
-        <v>Ian Stephens $^{13}$                    \\</v>
+        <v>Mathew Madhavacheril $^{8}$            \\</v>
       </c>
       <c r="K21">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L21">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M21" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">            </v>
       </c>
       <c r="O21" t="str">
         <f t="shared" si="4"/>
-        <v>13. Harvard-Smithsonian Center for Astrophysics.  \\</v>
+        <v>8. Department of Astrophysical Sciences, Princeton University.  \\</v>
       </c>
     </row>
     <row r="22" spans="2:15">
-      <c r="B22" t="s">
-        <v>26</v>
+      <c r="B22" s="1" t="s">
+        <v>305</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>420</v>
+        <v>31</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>422</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
       </c>
       <c r="F22">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>484</v>
+        <v>9</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>503</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="0"/>
-        <v>Matteo Bonato $^{14}$                   \\</v>
+        <v>Fran\c{c}ois Boulanger $^{9}$          \\</v>
       </c>
       <c r="K22">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="L22">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="M22" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">          </v>
       </c>
       <c r="O22" t="str">
         <f t="shared" si="4"/>
-        <v>14. INAF-Istituto di Radioastronomia and Italian ALMA Regional Centre, Italy.  \\</v>
+        <v>9. Ecole Normale Superieure, Paris, France.  \\</v>
       </c>
     </row>
     <row r="23" spans="2:15">
       <c r="B23" t="s">
-        <v>303</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>474</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="C23" t="s">
+        <v>306</v>
+      </c>
+      <c r="D23"/>
       <c r="E23" t="s">
         <v>8</v>
       </c>
       <c r="F23">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>275</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="0"/>
-        <v>Gianfranco De Zotti $^{15}$             \\</v>
+        <v>Marcos L\'{o}pez-Caniego $^{10}$        \\</v>
       </c>
       <c r="K23">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L23">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="M23" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">             </v>
+        <v xml:space="preserve">        </v>
       </c>
       <c r="O23" t="str">
         <f t="shared" si="4"/>
-        <v>15. INAF-Osservatorio Astronomico di Padova, Italy.  \\</v>
+        <v>10. European Space Astronomy Centre.  \\</v>
       </c>
     </row>
     <row r="24" spans="2:15">
-      <c r="B24" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C24" t="s">
-        <v>186</v>
-      </c>
-      <c r="D24"/>
+      <c r="B24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="E24" t="s">
         <v>8</v>
       </c>
       <c r="F24">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>480</v>
+        <v>128</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="0"/>
-        <v>Fran\c{c}ois Bouchet $^{18}$            \\</v>
+        <v>Ian Stephens $^{11}$                    \\</v>
       </c>
       <c r="K24">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="L24">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M24" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="O24" t="str">
         <f t="shared" si="4"/>
-        <v>18. Institut d'Astrophysique de Paris, France.  \\</v>
+        <v>11. Harvard-Smithsonian Center for Astrophysics.  \\</v>
       </c>
     </row>
     <row r="25" spans="2:15">
       <c r="B25" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>445</v>
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>420</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
       </c>
       <c r="F25">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" si="0"/>
-        <v>Eric Hivon $^{18}$                      \\</v>
+        <v>Matteo Bonato $^{12}$                   \\</v>
       </c>
       <c r="K25">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L25">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M25" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                      </v>
+        <v xml:space="preserve">                   </v>
       </c>
       <c r="O25" t="str">
         <f t="shared" si="4"/>
-        <v>18. Institut d'Astrophysique de Paris, France.  \\</v>
+        <v>12. INAF-Istituto di Radioastronomia and Italian ALMA Regional Centre, Italy.  \\</v>
       </c>
     </row>
     <row r="26" spans="2:15">
-      <c r="B26" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" t="s">
-        <v>137</v>
-      </c>
-      <c r="D26"/>
+      <c r="B26" t="s">
+        <v>303</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>474</v>
+      </c>
       <c r="E26" t="s">
         <v>8</v>
       </c>
       <c r="F26">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>497</v>
+        <v>42</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="0"/>
-        <v>Flavien Vansyngel $^{16}$               \\</v>
+        <v>Gianfranco De Zotti $^{13}$             \\</v>
       </c>
       <c r="K26">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L26">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M26" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">               </v>
+        <v xml:space="preserve">             </v>
       </c>
       <c r="O26" t="str">
         <f t="shared" si="4"/>
-        <v>16. Institut d'Astrophysique Spatiale, CNRS, Univ. Paris-Sud, Universit\'e Paris-Saclay, France.  \\</v>
+        <v>13. INAF-Osservatorio Astronomico di Padova, Italy.  \\</v>
       </c>
     </row>
     <row r="27" spans="2:15">
       <c r="B27" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>422</v>
-      </c>
+      <c r="C27" t="s">
+        <v>186</v>
+      </c>
+      <c r="D27"/>
       <c r="E27" t="s">
         <v>8</v>
       </c>
       <c r="F27">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G27" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="I27" t="str">
         <f t="shared" si="0"/>
-        <v>Fran\c{c}ois Boulanger $^{17}$          \\</v>
+        <v>Fran\c{c}ois Bouchet $^{14}$            \\</v>
       </c>
       <c r="K27">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L27">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M27" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">          </v>
+        <v xml:space="preserve">            </v>
       </c>
       <c r="O27" t="str">
         <f t="shared" si="4"/>
-        <v>17. Institut d'Astrophysique Spatiale, Orsay, France.  \\</v>
+        <v>14. Institut d'Astrophysique de Paris, France.  \\</v>
       </c>
     </row>
     <row r="28" spans="2:15">
-      <c r="B28" s="1" t="s">
-        <v>51</v>
+      <c r="B28" t="s">
+        <v>77</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="E28" t="s">
         <v>8</v>
       </c>
       <c r="F28">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G28" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="0"/>
-        <v>Josquin Errard $^{19}$                  \\</v>
+        <v>Eric Hivon $^{14}$                      \\</v>
       </c>
       <c r="K28">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L28">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M28" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                      </v>
       </c>
       <c r="O28" t="str">
         <f t="shared" si="4"/>
-        <v>19. Institut Lagrange, LPNHE,  Paris, France.  \\</v>
+        <v>14. Institut d'Astrophysique de Paris, France.  \\</v>
       </c>
     </row>
     <row r="29" spans="2:15">
       <c r="B29" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" t="s">
-        <v>444</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="C29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29"/>
       <c r="E29" t="s">
         <v>8</v>
       </c>
-      <c r="F29" t="s">
-        <v>499</v>
+      <c r="F29">
+        <v>15</v>
       </c>
       <c r="G29" t="s">
-        <v>338</v>
+        <v>492</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" si="0"/>
-        <v>Colin Hill $^{8,20}$                      \\</v>
+        <v>Flavien Vansyngel $^{15}$               \\</v>
       </c>
       <c r="K29">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L29">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M29" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                      </v>
+        <v xml:space="preserve">               </v>
       </c>
       <c r="O29" t="str">
         <f t="shared" si="4"/>
-        <v>8,20. Institute for Advanced Study, Flatiron Institute.  \\</v>
+        <v>15. Institut d'Astrophysique Spatiale, CNRS, Univ. Paris-Sud, Universit\'e Paris-Saclay, France.  \\</v>
       </c>
     </row>
     <row r="30" spans="2:15">
-      <c r="B30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30"/>
+      <c r="B30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>433</v>
+      </c>
       <c r="E30" t="s">
         <v>8</v>
       </c>
       <c r="F30">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G30" t="s">
-        <v>343</v>
+        <v>486</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="0"/>
-        <v>Susan E. Clark $^{20}$                  \\</v>
+        <v>Josquin Errard $^{16}$                  \\</v>
       </c>
       <c r="K30">
         <f t="shared" si="1"/>
@@ -3002,111 +3028,107 @@
       </c>
       <c r="O30" t="str">
         <f t="shared" si="4"/>
-        <v>20. Institute for Advanced Study, Princeton.  \\</v>
+        <v>16. Institut Lagrange, LPNHE,  Paris, France.  \\</v>
       </c>
     </row>
     <row r="31" spans="2:15">
       <c r="B31" s="1" t="s">
-        <v>64</v>
+        <v>519</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>439</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D31"/>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>515</v>
       </c>
       <c r="F31">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G31" t="s">
         <v>343</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="0"/>
-        <v>Vera Gluscevic $^{20}$                  \\</v>
+        <v>%Colin Hill $^{17}$                     \\</v>
       </c>
       <c r="K31">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L31">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M31" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                     </v>
       </c>
       <c r="O31" t="str">
         <f t="shared" si="4"/>
-        <v>20. Institute for Advanced Study, Princeton.  \\</v>
+        <v>17. Institute for Advanced Study, Princeton.  \\</v>
       </c>
     </row>
     <row r="32" spans="2:15">
-      <c r="B32" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>466</v>
-      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32"/>
       <c r="E32" t="s">
         <v>8</v>
       </c>
       <c r="F32">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G32" t="s">
         <v>343</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="0"/>
-        <v>Marcel Schmittfull $^{20}$              \\</v>
+        <v>Susan E. Clark $^{17}$                  \\</v>
       </c>
       <c r="K32">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L32">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M32" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">              </v>
+        <v xml:space="preserve">                  </v>
       </c>
       <c r="O32" t="str">
         <f t="shared" si="4"/>
-        <v>20. Institute for Advanced Study, Princeton.  \\</v>
+        <v>17. Institute for Advanced Study, Princeton.  \\</v>
       </c>
     </row>
     <row r="33" spans="2:15">
       <c r="B33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33">
         <v>17</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="E33" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33">
-        <v>21</v>
-      </c>
       <c r="G33" t="s">
-        <v>509</v>
+        <v>343</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" si="0"/>
-        <v>Belen Barreiro $^{21}$                  \\</v>
+        <v>Vera Gluscevic $^{17}$                  \\</v>
       </c>
       <c r="K33">
         <f t="shared" si="1"/>
@@ -3122,508 +3144,503 @@
       </c>
       <c r="O33" t="str">
         <f t="shared" si="4"/>
-        <v>21. Instituto de F\'isica de Cantabria (CSIC-Universidad de Cantabria), Spain.  \\</v>
+        <v>17. Institute for Advanced Study, Princeton.  \\</v>
       </c>
     </row>
     <row r="34" spans="2:15">
-      <c r="B34" t="s">
-        <v>72</v>
+      <c r="B34" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>73</v>
+        <v>125</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="E34" t="s">
         <v>8</v>
       </c>
       <c r="F34">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G34" t="s">
-        <v>509</v>
+        <v>343</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" si="0"/>
-        <v>Diego Herranz $^{21}$                   \\</v>
+        <v>Marcel Schmittfull $^{17}$              \\</v>
       </c>
       <c r="K34">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L34">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M34" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">              </v>
       </c>
       <c r="O34" t="str">
         <f t="shared" si="4"/>
-        <v>21. Instituto de F\'isica de Cantabria (CSIC-Universidad de Cantabria), Spain.  \\</v>
+        <v>17. Institute for Advanced Study, Princeton.  \\</v>
       </c>
     </row>
     <row r="35" spans="2:15">
-      <c r="B35" t="s">
-        <v>12</v>
+      <c r="B35" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E35" t="s">
         <v>8</v>
       </c>
       <c r="F35">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G35" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="0"/>
-        <v>Jonathan Aumont $^{22}$                 \\</v>
+        <v>Belen Barreiro $^{18}$                  \\</v>
       </c>
       <c r="K35">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L35">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M35" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">                  </v>
       </c>
       <c r="O35" t="str">
         <f t="shared" si="4"/>
-        <v>22. IRAP, Universit\'e de Toulouse, France.  \\</v>
+        <v>18. Instituto de F\'isica de Cantabria (CSIC-Universidad de Cantabria), Spain.  \\</v>
       </c>
     </row>
     <row r="36" spans="2:15">
-      <c r="B36" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" t="s">
-        <v>456</v>
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="E36" t="s">
         <v>8</v>
       </c>
       <c r="F36">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G36" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" si="0"/>
-        <v>Jean-Baptiste Melin $^{7}$             \\</v>
+        <v>Diego Herranz $^{18}$                   \\</v>
       </c>
       <c r="K36">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L36">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M36" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">             </v>
+        <v xml:space="preserve">                   </v>
       </c>
       <c r="O36" t="str">
         <f t="shared" si="4"/>
-        <v>7. IRFU, CEA, University\'e Paris-Saclay, France.  \\</v>
+        <v>18. Instituto de F\'isica de Cantabria (CSIC-Universidad de Cantabria), Spain.  \\</v>
       </c>
     </row>
     <row r="37" spans="2:15">
       <c r="B37" t="s">
-        <v>170</v>
-      </c>
-      <c r="C37" t="s">
-        <v>171</v>
-      </c>
-      <c r="D37" t="s">
-        <v>424</v>
+        <v>12</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>413</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>
       </c>
       <c r="F37">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G37" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" si="0"/>
-        <v>Jens Chluba $^{23}$                     \\</v>
+        <v>Jonathan Aumont $^{19}$                 \\</v>
       </c>
       <c r="K37">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L37">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M37" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="O37" t="str">
         <f t="shared" si="4"/>
-        <v>23. JBCA, University of Manchester.  \\</v>
+        <v>19. IRAP, Universit\'e de Toulouse, France.  \\</v>
       </c>
     </row>
     <row r="38" spans="2:15">
       <c r="B38" t="s">
-        <v>163</v>
+        <v>521</v>
       </c>
       <c r="C38" t="s">
-        <v>164</v>
-      </c>
-      <c r="D38" t="s">
-        <v>418</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D38"/>
       <c r="E38" t="s">
-        <v>8</v>
+        <v>515</v>
       </c>
       <c r="F38">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G38" t="s">
-        <v>110</v>
+        <v>502</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" si="0"/>
-        <v>Jamie Bock $^{24}$                      \\</v>
+        <v>%Jacques Delabrouille $^{20}$           \\</v>
       </c>
       <c r="K38">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="L38">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="M38" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                      </v>
+        <v xml:space="preserve">           </v>
       </c>
       <c r="O38" t="str">
         <f t="shared" si="4"/>
-        <v>24. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
+        <v>20. IRFU, CEA, University\'e Paris-Saclay, France.  \\</v>
       </c>
     </row>
     <row r="39" spans="2:15">
       <c r="B39" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>426</v>
+        <v>100</v>
+      </c>
+      <c r="C39" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39" t="s">
+        <v>456</v>
       </c>
       <c r="E39" t="s">
         <v>8</v>
       </c>
       <c r="F39">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G39" t="s">
-        <v>110</v>
+        <v>502</v>
       </c>
       <c r="I39" t="str">
         <f t="shared" si="0"/>
-        <v>Joelle Cooperrider $^{24}$              \\</v>
+        <v>Jean-Baptiste Melin $^{20}$             \\</v>
       </c>
       <c r="K39">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L39">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M39" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">              </v>
+        <v xml:space="preserve">             </v>
       </c>
       <c r="O39" t="str">
         <f t="shared" si="4"/>
-        <v>24. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
+        <v>20. IRFU, CEA, University\'e Paris-Saclay, France.  \\</v>
       </c>
     </row>
     <row r="40" spans="2:15">
-      <c r="B40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>427</v>
+      <c r="B40" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" t="s">
+        <v>171</v>
+      </c>
+      <c r="D40" t="s">
+        <v>424</v>
       </c>
       <c r="E40" t="s">
         <v>8</v>
       </c>
       <c r="F40">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G40" t="s">
-        <v>110</v>
+        <v>481</v>
       </c>
       <c r="I40" t="str">
         <f t="shared" si="0"/>
-        <v>Brendan Crill $^{24}$                   \\</v>
+        <v>Jens Chluba $^{21}$                     \\</v>
       </c>
       <c r="K40">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L40">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M40" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">                     </v>
       </c>
       <c r="O40" t="str">
         <f t="shared" si="4"/>
-        <v>24. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
+        <v>21. JBCA, University of Manchester.  \\</v>
       </c>
     </row>
     <row r="41" spans="2:15">
       <c r="B41" t="s">
-        <v>50</v>
+        <v>522</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>431</v>
+        <v>20</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>515</v>
       </c>
       <c r="F41">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G41" t="s">
         <v>110</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" si="0"/>
-        <v>Olivier Dor\'e $^{24}$                  \\</v>
+        <v>%James G. Bartlett $^{22}$              \\</v>
       </c>
       <c r="K41">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L41">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M41" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">              </v>
       </c>
       <c r="O41" t="str">
         <f t="shared" si="4"/>
-        <v>24. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
+        <v>22. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
       </c>
     </row>
     <row r="42" spans="2:15">
-      <c r="B42" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>440</v>
+      <c r="B42" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" t="s">
+        <v>164</v>
+      </c>
+      <c r="D42" t="s">
+        <v>418</v>
       </c>
       <c r="E42" t="s">
         <v>8</v>
       </c>
       <c r="F42">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G42" t="s">
         <v>110</v>
       </c>
       <c r="I42" t="str">
         <f t="shared" si="0"/>
-        <v>Kris Gorski $^{24}$                     \\</v>
+        <v>Jamie Bock $^{22}$                      \\</v>
       </c>
       <c r="K42">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L42">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M42" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                      </v>
       </c>
       <c r="O42" t="str">
         <f t="shared" si="4"/>
-        <v>24. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
+        <v>22. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
       </c>
     </row>
     <row r="43" spans="2:15">
       <c r="B43" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43" t="s">
-        <v>453</v>
+        <v>362</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>426</v>
       </c>
       <c r="E43" t="s">
         <v>8</v>
       </c>
       <c r="F43">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G43" t="s">
         <v>110</v>
       </c>
       <c r="I43" t="str">
         <f t="shared" si="0"/>
-        <v>Charles Lawrence $^{24}$                \\</v>
+        <v>Joelle Cooperrider $^{22}$              \\</v>
       </c>
       <c r="K43">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L43">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M43" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                </v>
+        <v xml:space="preserve">              </v>
       </c>
       <c r="O43" t="str">
         <f t="shared" si="4"/>
-        <v>24. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
+        <v>22. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
       </c>
     </row>
     <row r="44" spans="2:15">
-      <c r="B44" t="s">
-        <v>108</v>
+      <c r="B44" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>459</v>
+        <v>427</v>
       </c>
       <c r="E44" t="s">
         <v>8</v>
       </c>
       <c r="F44">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G44" t="s">
         <v>110</v>
       </c>
       <c r="I44" t="str">
         <f t="shared" si="0"/>
-        <v>Roger O'Brient $^{24}$                  \\</v>
+        <v>Brendan Crill $^{22}$                   \\</v>
       </c>
       <c r="K44">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L44">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M44" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                   </v>
       </c>
       <c r="O44" t="str">
         <f t="shared" si="4"/>
-        <v>24. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
+        <v>22. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
       </c>
     </row>
     <row r="45" spans="2:15">
-      <c r="B45" s="1" t="s">
-        <v>111</v>
+      <c r="B45" t="s">
+        <v>50</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>112</v>
+        <v>304</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>460</v>
+        <v>431</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>
       </c>
       <c r="F45">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G45" t="s">
         <v>110</v>
       </c>
       <c r="I45" t="str">
         <f t="shared" si="0"/>
-        <v>Chris Paine $^{24}$                     \\</v>
+        <v>Olivier Dor\'e $^{22}$                  \\</v>
       </c>
       <c r="K45">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L45">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M45" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                  </v>
       </c>
       <c r="O45" t="str">
         <f t="shared" si="4"/>
-        <v>24. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
+        <v>22. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
       </c>
     </row>
     <row r="46" spans="2:15">
-      <c r="B46" t="s">
-        <v>122</v>
+      <c r="B46" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="E46" t="s">
         <v>8</v>
       </c>
       <c r="F46">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G46" t="s">
         <v>110</v>
       </c>
       <c r="I46" t="str">
         <f t="shared" si="0"/>
-        <v>Graca Rocha $^{24}$                     \\</v>
+        <v>Kris Gorski $^{22}$                     \\</v>
       </c>
       <c r="K46">
         <f t="shared" si="1"/>
@@ -3639,625 +3656,620 @@
       </c>
       <c r="O46" t="str">
         <f t="shared" si="4"/>
-        <v>24. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
+        <v>22. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
       </c>
     </row>
     <row r="47" spans="2:15">
       <c r="B47" s="1" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="C47" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="D47" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="E47" t="s">
         <v>8</v>
       </c>
       <c r="F47">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G47" t="s">
         <v>110</v>
       </c>
       <c r="I47" t="str">
         <f t="shared" si="0"/>
-        <v>Brian Sutin $^{24}$                     \\</v>
+        <v>Charles Lawrence $^{22}$                \\</v>
       </c>
       <c r="K47">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L47">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M47" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                </v>
       </c>
       <c r="O47" t="str">
         <f t="shared" si="4"/>
-        <v>24. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
+        <v>22. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
       </c>
     </row>
     <row r="48" spans="2:15">
-      <c r="B48" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" t="s">
-        <v>135</v>
-      </c>
-      <c r="D48" t="s">
-        <v>470</v>
+      <c r="B48" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>459</v>
       </c>
       <c r="E48" t="s">
         <v>8</v>
       </c>
       <c r="F48">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G48" t="s">
         <v>110</v>
       </c>
       <c r="I48" t="str">
         <f t="shared" si="0"/>
-        <v>Amy Trangsrud $^{24}$                   \\</v>
+        <v>Roger O'Brient $^{22}$                  \\</v>
       </c>
       <c r="K48">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L48">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M48" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">                  </v>
       </c>
       <c r="O48" t="str">
         <f t="shared" si="4"/>
-        <v>24. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
+        <v>22. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
       </c>
     </row>
     <row r="49" spans="2:15">
-      <c r="B49" t="s">
-        <v>364</v>
+      <c r="B49" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>365</v>
+        <v>112</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>460</v>
       </c>
       <c r="E49" t="s">
-        <v>366</v>
+        <v>8</v>
+      </c>
+      <c r="F49">
+        <v>22</v>
       </c>
       <c r="G49" t="s">
         <v>110</v>
       </c>
       <c r="I49" t="str">
         <f t="shared" si="0"/>
-        <v>Jeff Booth $^{}$                      \\</v>
+        <v>Chris Paine $^{22}$                     \\</v>
       </c>
       <c r="K49">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L49">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M49" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                      </v>
+        <v xml:space="preserve">                     </v>
       </c>
       <c r="O49" t="str">
         <f t="shared" si="4"/>
-        <v>. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
+        <v>22. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
       </c>
     </row>
     <row r="50" spans="2:15">
-      <c r="B50" s="1" t="s">
-        <v>322</v>
+      <c r="B50" t="s">
+        <v>122</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="E50" t="s">
         <v>8</v>
       </c>
       <c r="F50">
-        <v>25</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>201</v>
+        <v>22</v>
+      </c>
+      <c r="G50" t="s">
+        <v>110</v>
       </c>
       <c r="I50" t="str">
         <f t="shared" si="0"/>
-        <v>Kimberly K. Boddy $^{25}$               \\</v>
+        <v>Graca Rocha $^{22}$                     \\</v>
       </c>
       <c r="K50">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L50">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M50" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">               </v>
+        <v xml:space="preserve">                     </v>
       </c>
       <c r="O50" t="str">
         <f t="shared" si="4"/>
-        <v>25. Johns Hopkins University.  \\</v>
+        <v>22. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
       </c>
     </row>
     <row r="51" spans="2:15">
       <c r="B51" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>421</v>
+        <v>129</v>
+      </c>
+      <c r="C51" t="s">
+        <v>130</v>
+      </c>
+      <c r="D51" t="s">
+        <v>468</v>
       </c>
       <c r="E51" t="s">
         <v>8</v>
       </c>
-      <c r="F51" t="s">
-        <v>495</v>
+      <c r="F51">
+        <v>22</v>
       </c>
       <c r="G51" t="s">
-        <v>502</v>
+        <v>110</v>
       </c>
       <c r="I51" t="str">
         <f t="shared" si="0"/>
-        <v>Julian Borrill $^{26,27}$                  \\</v>
+        <v>Brian Sutin $^{22}$                     \\</v>
       </c>
       <c r="K51">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L51">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M51" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                     </v>
       </c>
       <c r="O51" t="str">
         <f t="shared" si="4"/>
-        <v>26,27. Lawrence Berkeley National Laboratory, &amp;&amp;&amp;&amp;&amp;   Space Sciences Laboratory, University of California, Berkeley.  \\</v>
+        <v>22. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
       </c>
     </row>
     <row r="52" spans="2:15">
-      <c r="B52" t="s">
-        <v>53</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>434</v>
+      <c r="B52" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52" t="s">
+        <v>470</v>
       </c>
       <c r="E52" t="s">
         <v>8</v>
       </c>
       <c r="F52">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G52" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="I52" t="str">
         <f t="shared" si="0"/>
-        <v>Tom Essinger-Hileman $^{28}$            \\</v>
+        <v>Amy Trangsrud $^{22}$                   \\</v>
       </c>
       <c r="K52">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L52">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M52" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                   </v>
       </c>
       <c r="O52" t="str">
         <f t="shared" si="4"/>
-        <v>28. NASA Goddard Space Flight Center.  \\</v>
+        <v>22. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
       </c>
     </row>
     <row r="53" spans="2:15">
-      <c r="B53" s="1" t="s">
-        <v>90</v>
+      <c r="B53" t="s">
+        <v>364</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>452</v>
+        <v>365</v>
       </c>
       <c r="E53" t="s">
-        <v>8</v>
+        <v>366</v>
       </c>
       <c r="F53">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G53" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="I53" t="str">
         <f t="shared" si="0"/>
-        <v>Al Kogut $^{28}$                        \\</v>
+        <v>Jeff Booth $^{22}$                      \\</v>
       </c>
       <c r="K53">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L53">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M53" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                        </v>
+        <v xml:space="preserve">                      </v>
       </c>
       <c r="O53" t="str">
         <f t="shared" si="4"/>
-        <v>28. NASA Goddard Space Flight Center.  \\</v>
+        <v>22. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
       </c>
     </row>
     <row r="54" spans="2:15">
-      <c r="B54" t="s">
-        <v>80</v>
+      <c r="B54" s="1" t="s">
+        <v>322</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>447</v>
+        <v>419</v>
       </c>
       <c r="E54" t="s">
         <v>8</v>
       </c>
       <c r="F54">
-        <v>29</v>
-      </c>
-      <c r="G54" t="s">
-        <v>489</v>
+        <v>23</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="I54" t="str">
         <f t="shared" si="0"/>
-        <v>Johannes Hubmayr $^{29}$                \\</v>
+        <v>Kimberly K. Boddy $^{23}$               \\</v>
       </c>
       <c r="K54">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L54">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M54" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                </v>
+        <v xml:space="preserve">               </v>
       </c>
       <c r="O54" t="str">
         <f t="shared" si="4"/>
-        <v>29. National Institute of Standards and Technology.  \\</v>
+        <v>23. Johns Hopkins University.  \\</v>
       </c>
     </row>
     <row r="55" spans="2:15">
-      <c r="B55" t="s">
-        <v>58</v>
+      <c r="B55" s="1" t="s">
+        <v>509</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>437</v>
+        <v>504</v>
       </c>
       <c r="E55" t="s">
-        <v>8</v>
+        <v>516</v>
       </c>
       <c r="F55">
-        <v>30</v>
-      </c>
-      <c r="G55" t="s">
-        <v>60</v>
+        <v>23</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="I55" t="str">
         <f t="shared" si="0"/>
-        <v>Laura Fissel $^{30}$                    \\</v>
+        <v>%Charles Bennett $^{23}$                \\</v>
       </c>
       <c r="K55">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L55">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M55" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">                </v>
       </c>
       <c r="O55" t="str">
         <f t="shared" si="4"/>
-        <v>30. National Radio Astronomy Observatory.  \\</v>
+        <v>23. Johns Hopkins University.  \\</v>
       </c>
     </row>
     <row r="56" spans="2:15">
-      <c r="B56" t="s">
-        <v>105</v>
-      </c>
-      <c r="C56" t="s">
-        <v>106</v>
-      </c>
-      <c r="D56" t="s">
-        <v>458</v>
+      <c r="B56" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>421</v>
       </c>
       <c r="E56" t="s">
         <v>8</v>
       </c>
       <c r="F56">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G56" t="s">
-        <v>107</v>
+        <v>511</v>
       </c>
       <c r="I56" t="str">
         <f t="shared" si="0"/>
-        <v>Giles Novak $^{31}$                     \\</v>
+        <v>Julian Borrill $^{24}$                  \\</v>
       </c>
       <c r="K56">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L56">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M56" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                  </v>
       </c>
       <c r="O56" t="str">
         <f t="shared" si="4"/>
-        <v>31. Northwestern University.  \\</v>
+        <v>24. Lawrence Berkeley National Laboratory.  \\</v>
       </c>
     </row>
     <row r="57" spans="2:15">
-      <c r="B57" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="B57" t="s">
+        <v>512</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" t="s">
+        <v>515</v>
+      </c>
+      <c r="F57">
         <v>24</v>
       </c>
-      <c r="D57" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="E57" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57">
-        <v>32</v>
-      </c>
       <c r="G57" t="s">
-        <v>87</v>
+        <v>511</v>
       </c>
       <c r="I57" t="str">
         <f t="shared" si="0"/>
-        <v>Nick Battaglia $^{32}$                  \\</v>
+        <v>%Peter Ashton $^{24}$                   \\</v>
       </c>
       <c r="K57">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L57">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M57" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                   </v>
       </c>
       <c r="O57" t="str">
         <f t="shared" si="4"/>
-        <v>32. Princeton University.  \\</v>
+        <v>24. Lawrence Berkeley National Laboratory.  \\</v>
       </c>
     </row>
     <row r="58" spans="2:15">
       <c r="B58" s="1" t="s">
-        <v>70</v>
+        <v>513</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>443</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D58" s="7"/>
       <c r="E58" t="s">
-        <v>8</v>
+        <v>515</v>
       </c>
       <c r="F58">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G58" t="s">
-        <v>87</v>
+        <v>511</v>
       </c>
       <c r="I58" t="str">
         <f t="shared" si="0"/>
-        <v>Brandon Hensley $^{32}$                 \\</v>
+        <v>%Marcelo Alvarez $^{24}$                \\</v>
       </c>
       <c r="K58">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L58">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M58" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">                </v>
       </c>
       <c r="O58" t="str">
         <f t="shared" si="4"/>
-        <v>32. Princeton University.  \\</v>
+        <v>24. Lawrence Berkeley National Laboratory.  \\</v>
       </c>
     </row>
     <row r="59" spans="2:15">
       <c r="B59" t="s">
-        <v>85</v>
-      </c>
-      <c r="C59" t="s">
-        <v>86</v>
-      </c>
-      <c r="D59" t="s">
-        <v>449</v>
+        <v>53</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>434</v>
       </c>
       <c r="E59" t="s">
         <v>8</v>
       </c>
       <c r="F59">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G59" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="I59" t="str">
         <f t="shared" si="0"/>
-        <v>William Jones $^{32}$                   \\</v>
+        <v>Tom Essinger-Hileman $^{25}$            \\</v>
       </c>
       <c r="K59">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L59">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="M59" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">            </v>
       </c>
       <c r="O59" t="str">
         <f t="shared" si="4"/>
-        <v>32. Princeton University.  \\</v>
+        <v>25. NASA Goddard Space Flight Center.  \\</v>
       </c>
     </row>
     <row r="60" spans="2:15">
-      <c r="B60" t="s">
-        <v>32</v>
+      <c r="B60" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>423</v>
+        <v>452</v>
       </c>
       <c r="E60" t="s">
         <v>8</v>
       </c>
       <c r="F60">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G60" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="I60" t="str">
         <f t="shared" si="0"/>
-        <v>Blakesley Burkhart $^{33}$              \\</v>
+        <v>Al Kogut $^{25}$                        \\</v>
       </c>
       <c r="K60">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="L60">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M60" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">              </v>
+        <v xml:space="preserve">                        </v>
       </c>
       <c r="O60" t="str">
         <f t="shared" si="4"/>
-        <v>33. Rutgers.  \\</v>
+        <v>25. NASA Goddard Space Flight Center.  \\</v>
       </c>
     </row>
     <row r="61" spans="2:15">
-      <c r="B61" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C61" t="s">
-        <v>147</v>
-      </c>
-      <c r="D61" t="s">
-        <v>472</v>
+      <c r="B61" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>447</v>
       </c>
       <c r="E61" t="s">
         <v>8</v>
       </c>
       <c r="F61">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G61" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="I61" t="str">
         <f t="shared" si="0"/>
-        <v>Andrea Zonca $^{34}$                    \\</v>
+        <v>Johannes Hubmayr $^{26}$                \\</v>
       </c>
       <c r="K61">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L61">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M61" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">                </v>
       </c>
       <c r="O61" t="str">
         <f t="shared" si="4"/>
-        <v>34. San Diego Supercomputer Center, University of California San Diego.  \\</v>
+        <v>26. National Institute of Standards and Technology.  \\</v>
       </c>
     </row>
     <row r="62" spans="2:15">
-      <c r="B62" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C62" t="s">
-        <v>23</v>
-      </c>
-      <c r="D62" t="s">
-        <v>417</v>
+      <c r="B62" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>437</v>
       </c>
       <c r="E62" t="s">
         <v>8</v>
       </c>
       <c r="F62">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G62" t="s">
-        <v>483</v>
+        <v>60</v>
       </c>
       <c r="I62" t="str">
         <f t="shared" si="0"/>
-        <v>Soumen Basak $^{35}$                    \\</v>
+        <v>Laura Fissel $^{27}$                    \\</v>
       </c>
       <c r="K62">
         <f t="shared" si="1"/>
@@ -4273,3669 +4285,3559 @@
       </c>
       <c r="O62" t="str">
         <f t="shared" si="4"/>
-        <v>35. School of Physics, Indian Institute of Science Education and Research Thiruvananthapuram,  India.  \\</v>
+        <v>27. National Radio Astronomy Observatory.  \\</v>
       </c>
     </row>
     <row r="63" spans="2:15">
       <c r="B63" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C63" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D63" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E63" t="s">
         <v>8</v>
       </c>
       <c r="F63">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G63" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="I63" t="str">
         <f t="shared" si="0"/>
-        <v>Levon Pogosian $^{36}$                  \\</v>
+        <v>Giles Novak $^{28}$                     \\</v>
       </c>
       <c r="K63">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L63">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M63" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                     </v>
       </c>
       <c r="O63" t="str">
         <f t="shared" si="4"/>
-        <v>36. Simon Fraser University.  \\</v>
+        <v>28. Northwestern University.  \\</v>
       </c>
     </row>
     <row r="64" spans="2:15">
-      <c r="B64" t="s">
-        <v>131</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>469</v>
+      <c r="B64" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C64" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>370</v>
       </c>
       <c r="E64" t="s">
         <v>8</v>
       </c>
       <c r="F64">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G64" t="s">
-        <v>510</v>
+        <v>87</v>
       </c>
       <c r="I64" t="str">
         <f t="shared" si="0"/>
-        <v>Maurizio Tomasi $^{37}$                 \\</v>
+        <v>Nick Battaglia $^{29}$                  \\</v>
       </c>
       <c r="K64">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L64">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M64" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">                  </v>
       </c>
       <c r="O64" t="str">
         <f t="shared" si="4"/>
-        <v>37. Universit\`a degli studi di Milano.  \\</v>
+        <v>29. Princeton University.  \\</v>
       </c>
     </row>
     <row r="65" spans="2:15">
       <c r="B65" s="1" t="s">
-        <v>309</v>
+        <v>70</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>262</v>
+        <v>71</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>467</v>
+        <v>443</v>
       </c>
       <c r="E65" t="s">
         <v>8</v>
       </c>
       <c r="F65">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G65" t="s">
-        <v>344</v>
+        <v>87</v>
       </c>
       <c r="I65" t="str">
         <f t="shared" si="0"/>
-        <v>Douglas Scott $^{38}$                   \\</v>
+        <v>Brandon Hensley $^{29}$                 \\</v>
       </c>
       <c r="K65">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L65">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M65" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="O65" t="str">
         <f t="shared" si="4"/>
-        <v>38. University of British Columbia, Canada.  \\</v>
+        <v>29. Princeton University.  \\</v>
       </c>
     </row>
     <row r="66" spans="2:15">
-      <c r="B66" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>441</v>
+      <c r="B66" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" t="s">
+        <v>86</v>
+      </c>
+      <c r="D66" t="s">
+        <v>449</v>
       </c>
       <c r="E66" t="s">
         <v>8</v>
       </c>
       <c r="F66">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>337</v>
+        <v>87</v>
       </c>
       <c r="I66" t="str">
         <f t="shared" si="0"/>
-        <v>Dan Green $^{39}$                       \\</v>
+        <v>William Jones $^{29}$                   \\</v>
       </c>
       <c r="K66">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L66">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M66" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                       </v>
+        <v xml:space="preserve">                   </v>
       </c>
       <c r="O66" t="str">
         <f t="shared" si="4"/>
-        <v>39. University of California, Berkeley.  \\</v>
+        <v>29. Princeton University.  \\</v>
       </c>
     </row>
     <row r="67" spans="2:15">
-      <c r="B67" t="s">
-        <v>9</v>
+      <c r="B67" s="1" t="s">
+        <v>510</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>10</v>
+        <v>506</v>
       </c>
       <c r="E67" t="s">
-        <v>8</v>
-      </c>
-      <c r="F67" t="s">
-        <v>500</v>
+        <v>516</v>
+      </c>
+      <c r="F67">
+        <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>493</v>
+        <v>87</v>
       </c>
       <c r="I67" t="str">
         <f t="shared" si="0"/>
-        <v>Peter Ashton $^{26,39}$                    \\</v>
+        <v>%Lyman Page $^{29}$                     \\</v>
       </c>
       <c r="K67">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L67">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M67" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">                     </v>
       </c>
       <c r="O67" t="str">
         <f t="shared" si="4"/>
-        <v>26,39. University of California, Berkeley &amp;&amp;&amp;&amp;&amp;&amp; LBNL.  \\</v>
+        <v>29. Princeton University.  \\</v>
       </c>
     </row>
     <row r="68" spans="2:15">
-      <c r="B68" s="1" t="s">
-        <v>6</v>
+      <c r="B68" t="s">
+        <v>32</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>369</v>
+        <v>33</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>423</v>
       </c>
       <c r="E68" t="s">
         <v>8</v>
       </c>
-      <c r="F68" t="s">
-        <v>500</v>
+      <c r="F68">
+        <v>30</v>
       </c>
       <c r="G68" t="s">
-        <v>492</v>
+        <v>34</v>
       </c>
       <c r="I68" t="str">
         <f t="shared" si="0"/>
-        <v>Marcelo Alvarez $^{26,39}$                 \\</v>
+        <v>Blakesley Burkhart $^{30}$              \\</v>
       </c>
       <c r="K68">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L68">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M68" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">              </v>
       </c>
       <c r="O68" t="str">
         <f t="shared" si="4"/>
-        <v>26,39. University of California, Berkeley &amp;&amp;&amp;&amp;&amp;&amp;&amp; LBNL.  \\</v>
+        <v>30. Rutgers.  \\</v>
       </c>
     </row>
     <row r="69" spans="2:15">
-      <c r="B69" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>451</v>
+      <c r="B69" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C69" t="s">
+        <v>147</v>
+      </c>
+      <c r="D69" t="s">
+        <v>472</v>
       </c>
       <c r="E69" t="s">
         <v>8</v>
       </c>
       <c r="F69">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G69" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="I69" t="str">
         <f t="shared" si="0"/>
-        <v>Lloyd Knox $^{40}$                      \\</v>
+        <v>Andrea Zonca $^{31}$                    \\</v>
       </c>
       <c r="K69">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L69">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M69" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                      </v>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="O69" t="str">
         <f t="shared" si="4"/>
-        <v>40. University of California, Davis.  \\</v>
+        <v>31. San Diego Supercomputer Center, University of California San Diego.  \\</v>
       </c>
     </row>
     <row r="70" spans="2:15">
-      <c r="B70" t="s">
-        <v>61</v>
+      <c r="B70" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C70" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="D70" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="E70" t="s">
         <v>8</v>
       </c>
       <c r="F70">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="I70" t="str">
         <f t="shared" si="0"/>
-        <v>Raphael Flauger $^{41}$                 \\</v>
+        <v>Soumen Basak $^{32}$                    \\</v>
       </c>
       <c r="K70">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L70">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M70" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="O70" t="str">
         <f t="shared" si="4"/>
-        <v>41. University of California, San Diego.  \\</v>
+        <v>32. School of Physics, Indian Institute of Science Education and Research Thiruvananthapuram,  India.  \\</v>
       </c>
     </row>
     <row r="71" spans="2:15">
       <c r="B71" t="s">
-        <v>295</v>
+        <v>115</v>
       </c>
       <c r="C71" t="s">
-        <v>296</v>
+        <v>116</v>
       </c>
       <c r="D71" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="E71" t="s">
         <v>8</v>
       </c>
       <c r="F71">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>280</v>
+        <v>117</v>
       </c>
       <c r="I71" t="str">
         <f t="shared" si="0"/>
-        <v>Jeffrey Filippini $^{42}$               \\</v>
+        <v>Levon Pogosian $^{33}$                  \\</v>
       </c>
       <c r="K71">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L71">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M71" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">               </v>
+        <v xml:space="preserve">                  </v>
       </c>
       <c r="O71" t="str">
         <f t="shared" si="4"/>
-        <v>42. University of Illinois, Urbana-Champaign.  \\</v>
+        <v>33. Simon Fraser University.  \\</v>
       </c>
     </row>
     <row r="72" spans="2:15">
-      <c r="B72" t="s">
-        <v>45</v>
+      <c r="B72" s="1" t="s">
+        <v>517</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>429</v>
+        <v>30</v>
       </c>
       <c r="E72" t="s">
-        <v>8</v>
+        <v>515</v>
       </c>
       <c r="F72">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>47</v>
+        <v>518</v>
       </c>
       <c r="I72" t="str">
         <f t="shared" si="0"/>
-        <v>Eleonora Di Valentino $^{43}$           \\</v>
+        <v>%Julian Borrill $^{34}$                 \\</v>
       </c>
       <c r="K72">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L72">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="M72" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">           </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="O72" t="str">
         <f t="shared" si="4"/>
-        <v>43. University of Manchester.  \\</v>
+        <v>34. Space Sciences Laboratory, University of California, Berkeley.  \\</v>
       </c>
     </row>
     <row r="73" spans="2:15">
       <c r="B73" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="E73" t="s">
         <v>8</v>
       </c>
       <c r="F73">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>47</v>
+        <v>501</v>
       </c>
       <c r="I73" t="str">
         <f t="shared" si="0"/>
-        <v>Mathieu Remazeilles $^{43}$             \\</v>
+        <v>Maurizio Tomasi $^{35}$                 \\</v>
       </c>
       <c r="K73">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L73">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M73" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">             </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="O73" t="str">
         <f t="shared" si="4"/>
-        <v>43. University of Manchester.  \\</v>
+        <v>35. Universit\`a degli studi di Milano.  \\</v>
       </c>
     </row>
     <row r="74" spans="2:15">
-      <c r="B74" t="s">
-        <v>364</v>
+      <c r="B74" s="1" t="s">
+        <v>309</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>506</v>
+        <v>262</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="E74" t="s">
-        <v>366</v>
+        <v>8</v>
+      </c>
+      <c r="F74">
+        <v>36</v>
       </c>
       <c r="G74" t="s">
-        <v>507</v>
+        <v>344</v>
       </c>
       <c r="I74" t="str">
         <f t="shared" si="0"/>
-        <v>Jeff McMahon $^{}$                    \\</v>
+        <v>Douglas Scott $^{36}$                   \\</v>
       </c>
       <c r="K74">
-        <f t="shared" ref="K74:K75" si="5">LEN(B74) + LEN(C74) +1</f>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="L74">
-        <f t="shared" ref="L74:L75" si="6">IF(K74&lt;30,(32-K74),3)</f>
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>19</v>
       </c>
       <c r="M74" t="str">
-        <f t="shared" ref="M74:M81" si="7">REPT(" ",L74)</f>
-        <v xml:space="preserve">                    </v>
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">                   </v>
       </c>
       <c r="O74" t="str">
         <f t="shared" si="4"/>
-        <v>. University of Michigan.  \\</v>
+        <v>36. University of British Columbia, Canada.  \\</v>
       </c>
     </row>
     <row r="75" spans="2:15">
       <c r="B75" s="1" t="s">
-        <v>411</v>
+        <v>68</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="D75" t="s">
-        <v>442</v>
+        <v>69</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>441</v>
       </c>
       <c r="E75" t="s">
         <v>8</v>
       </c>
       <c r="F75">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>410</v>
+        <v>337</v>
       </c>
       <c r="I75" t="str">
-        <f t="shared" ref="I75:I81" si="8">CONCATENATE(B75," ",C75, " $^{", F75,"}$", M75,"\\")</f>
-        <v>Shaul Hanany $^{44}$                    \\</v>
+        <f t="shared" ref="I75:I96" si="5">CONCATENATE(B75," ",C75, " $^{", F75,"}$", M75,"\\")</f>
+        <v>Dan Green $^{37}$                       \\</v>
       </c>
       <c r="K75">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f t="shared" ref="K75:K96" si="6">LEN(B75) + LEN(C75) +1</f>
+        <v>9</v>
       </c>
       <c r="L75">
-        <f t="shared" si="6"/>
-        <v>20</v>
+        <f t="shared" ref="L75:L96" si="7">IF(K75&lt;30,(32-K75),3)</f>
+        <v>23</v>
       </c>
       <c r="M75" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                    </v>
+        <f t="shared" ref="M75:M96" si="8">REPT(" ",L75)</f>
+        <v xml:space="preserve">                       </v>
       </c>
       <c r="O75" t="str">
-        <f t="shared" ref="O75:O81" si="9">CONCATENATE(F75, ". ", G75, ".  \\")</f>
-        <v>44. University of Minnesota - Twin Cities.  \\</v>
+        <f t="shared" ref="O75:O96" si="9">CONCATENATE(F75, ". ", G75, ".  \\")</f>
+        <v>37. University of California, Berkeley.  \\</v>
       </c>
     </row>
     <row r="76" spans="2:15">
       <c r="B76" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>450</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
         <v>8</v>
       </c>
       <c r="F76">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G76" t="s">
-        <v>410</v>
+        <v>337</v>
       </c>
       <c r="I76" t="str">
+        <f t="shared" si="5"/>
+        <v>Peter Ashton $^{38}$                    \\</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="M76" t="str">
         <f t="shared" si="8"/>
-        <v>Terry Jones $^{44}$                     \\</v>
-      </c>
-      <c r="K76">
-        <f t="shared" ref="K76" si="10">LEN(B76) + LEN(C76) +1</f>
-        <v>11</v>
-      </c>
-      <c r="L76">
-        <f t="shared" ref="L76" si="11">IF(K76&lt;30,(32-K76),3)</f>
-        <v>21</v>
-      </c>
-      <c r="M76" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="O76" t="str">
         <f t="shared" si="9"/>
-        <v>44. University of Minnesota - Twin Cities.  \\</v>
+        <v>38. University of California, Berkeley.  \\</v>
       </c>
     </row>
     <row r="77" spans="2:15">
       <c r="B77" s="1" t="s">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>463</v>
+        <v>7</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>369</v>
       </c>
       <c r="E77" t="s">
         <v>8</v>
       </c>
       <c r="F77">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G77" t="s">
-        <v>410</v>
+        <v>337</v>
       </c>
       <c r="I77" t="str">
+        <f t="shared" si="5"/>
+        <v>Marcelo Alvarez $^{38}$                 \\</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="M77" t="str">
         <f t="shared" si="8"/>
-        <v>Clem Pryke $^{44}$                      \\</v>
-      </c>
-      <c r="K77">
-        <f t="shared" ref="K77:K81" si="12">LEN(B77) + LEN(C77) +1</f>
-        <v>10</v>
-      </c>
-      <c r="L77">
-        <f t="shared" ref="L77:L81" si="13">IF(K77&lt;30,(32-K77),3)</f>
-        <v>22</v>
-      </c>
-      <c r="M77" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                      </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="O77" t="str">
         <f t="shared" si="9"/>
-        <v>44. University of Minnesota - Twin Cities.  \\</v>
+        <v>38. University of California, Berkeley.  \\</v>
       </c>
     </row>
     <row r="78" spans="2:15">
-      <c r="B78" t="s">
-        <v>138</v>
+      <c r="B78" s="1" t="s">
+        <v>307</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
       <c r="E78" t="s">
         <v>8</v>
       </c>
       <c r="F78">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G78" t="s">
-        <v>410</v>
+        <v>490</v>
       </c>
       <c r="I78" t="str">
+        <f t="shared" si="5"/>
+        <v>Lloyd Knox $^{39}$                      \\</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="M78" t="str">
         <f t="shared" si="8"/>
-        <v>Qi Wen $^{44}$                          \\</v>
-      </c>
-      <c r="K78">
-        <f t="shared" si="12"/>
-        <v>6</v>
-      </c>
-      <c r="L78">
-        <f t="shared" si="13"/>
-        <v>26</v>
-      </c>
-      <c r="M78" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                          </v>
+        <v xml:space="preserve">                      </v>
       </c>
       <c r="O78" t="str">
         <f t="shared" si="9"/>
-        <v>44. University of Minnesota - Twin Cities.  \\</v>
+        <v>39. University of California, Davis.  \\</v>
       </c>
     </row>
     <row r="79" spans="2:15">
-      <c r="B79" s="3" t="s">
-        <v>144</v>
+      <c r="B79" t="s">
+        <v>61</v>
       </c>
       <c r="C79" t="s">
-        <v>145</v>
+        <v>62</v>
       </c>
       <c r="D79" t="s">
-        <v>473</v>
+        <v>438</v>
       </c>
       <c r="E79" t="s">
         <v>8</v>
       </c>
       <c r="F79">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G79" t="s">
-        <v>410</v>
+        <v>488</v>
       </c>
       <c r="I79" t="str">
+        <f t="shared" si="5"/>
+        <v>Raphael Flauger $^{40}$                 \\</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="M79" t="str">
         <f t="shared" si="8"/>
-        <v>Karl Young $^{44}$                      \\</v>
-      </c>
-      <c r="K79">
-        <f>LEN(B79) + LEN(C79) +1</f>
-        <v>10</v>
-      </c>
-      <c r="L79">
-        <f>IF(K79&lt;30,(32-K79),3)</f>
-        <v>22</v>
-      </c>
-      <c r="M79" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                      </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="O79" t="str">
         <f t="shared" si="9"/>
-        <v>44. University of Minnesota - Twin Cities.  \\</v>
+        <v>40. University of California, San Diego.  \\</v>
       </c>
     </row>
     <row r="80" spans="2:15">
-      <c r="B80" s="1" t="s">
+      <c r="B80" t="s">
+        <v>295</v>
+      </c>
+      <c r="C80" t="s">
+        <v>296</v>
+      </c>
+      <c r="D80" t="s">
+        <v>436</v>
+      </c>
+      <c r="E80" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80">
+        <v>41</v>
+      </c>
+      <c r="G80" t="s">
+        <v>280</v>
+      </c>
+      <c r="I80" t="str">
+        <f t="shared" si="5"/>
+        <v>Jeffrey Filippini $^{41}$               \\</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="E80" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80">
-        <v>45</v>
-      </c>
-      <c r="G80" t="s">
-        <v>479</v>
-      </c>
-      <c r="I80" t="str">
+      <c r="M80" t="str">
         <f t="shared" si="8"/>
-        <v>Ranajoy Banerji $^{45}$                 \\</v>
-      </c>
-      <c r="K80">
-        <f>LEN(B80) + LEN(C80) +1</f>
-        <v>15</v>
-      </c>
-      <c r="L80">
-        <f>IF(K80&lt;30,(32-K80),3)</f>
-        <v>17</v>
-      </c>
-      <c r="M80" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">               </v>
       </c>
       <c r="O80" t="str">
         <f t="shared" si="9"/>
-        <v>45. University of Oslo, Norway.  \\</v>
-      </c>
-    </row>
-    <row r="81" spans="2:16">
+        <v>41. University of Illinois, Urbana-Champaign.  \\</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15">
       <c r="B81" t="s">
-        <v>503</v>
+        <v>45</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>504</v>
+        <v>46</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>429</v>
       </c>
       <c r="E81" t="s">
-        <v>366</v>
+        <v>8</v>
+      </c>
+      <c r="F81">
+        <v>42</v>
       </c>
       <c r="G81" t="s">
-        <v>505</v>
+        <v>47</v>
       </c>
       <c r="I81" t="str">
+        <f t="shared" si="5"/>
+        <v>Eleonora Di Valentino $^{42}$           \\</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="M81" t="str">
         <f t="shared" si="8"/>
-        <v>Mark  Devlin $^{}$                    \\</v>
-      </c>
-      <c r="K81">
-        <f t="shared" si="12"/>
-        <v>12</v>
-      </c>
-      <c r="L81">
-        <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-      <c r="M81" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">           </v>
       </c>
       <c r="O81" t="str">
         <f t="shared" si="9"/>
-        <v>. University of Pennsylvania.  \\</v>
-      </c>
-    </row>
-    <row r="82" spans="2:16">
-      <c r="B82" s="1" t="s">
+        <v>42. University of Manchester.  \\</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15">
+      <c r="B82" t="s">
+        <v>120</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E82" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82">
+        <v>42</v>
+      </c>
+      <c r="G82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="str">
+        <f t="shared" si="5"/>
+        <v>Mathieu Remazeilles $^{42}$             \\</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="M82" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">             </v>
+      </c>
+      <c r="O82" t="str">
+        <f t="shared" si="9"/>
+        <v>42. University of Manchester.  \\</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15">
+      <c r="B83" t="s">
+        <v>364</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="E83" t="s">
+        <v>366</v>
+      </c>
+      <c r="F83">
+        <v>43</v>
+      </c>
+      <c r="G83" t="s">
+        <v>498</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="5"/>
+        <v>Jeff McMahon $^{43}$                    \\</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="9"/>
+        <v>43. University of Michigan.  \\</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15">
+      <c r="B84" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D84" t="s">
+        <v>442</v>
+      </c>
+      <c r="E84" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84">
+        <v>44</v>
+      </c>
+      <c r="G84" t="s">
+        <v>410</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="5"/>
+        <v>Shaul Hanany $^{44}$                    \\</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="9"/>
+        <v>44. University of Minnesota - Twin Cities.  \\</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15">
+      <c r="B85" t="s">
+        <v>88</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E85" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85">
+        <v>44</v>
+      </c>
+      <c r="G85" t="s">
+        <v>410</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="5"/>
+        <v>Terry Jones $^{44}$                     \\</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">                     </v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="9"/>
+        <v>44. University of Minnesota - Twin Cities.  \\</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15">
+      <c r="B86" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E86" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86">
+        <v>44</v>
+      </c>
+      <c r="G86" t="s">
+        <v>410</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="5"/>
+        <v>Clem Pryke $^{44}$                      \\</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">                      </v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="9"/>
+        <v>44. University of Minnesota - Twin Cities.  \\</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15">
+      <c r="B87" t="s">
+        <v>138</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E87" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87">
+        <v>44</v>
+      </c>
+      <c r="G87" t="s">
+        <v>410</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="5"/>
+        <v>Qi Wen $^{44}$                          \\</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">                          </v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="9"/>
+        <v>44. University of Minnesota - Twin Cities.  \\</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15">
+      <c r="B88" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C88" t="s">
+        <v>145</v>
+      </c>
+      <c r="D88" t="s">
+        <v>473</v>
+      </c>
+      <c r="E88" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88">
+        <v>44</v>
+      </c>
+      <c r="G88" t="s">
+        <v>410</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="5"/>
+        <v>Karl Young $^{44}$                      \\</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">                      </v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="9"/>
+        <v>44. University of Minnesota - Twin Cities.  \\</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15">
+      <c r="B89" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E89" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89">
+        <v>45</v>
+      </c>
+      <c r="G89" t="s">
+        <v>479</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="5"/>
+        <v>Ranajoy Banerji $^{45}$                 \\</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">                 </v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="9"/>
+        <v>45. University of Oslo, Norway.  \\</v>
+      </c>
+    </row>
+    <row r="90" spans="2:15">
+      <c r="B90" t="s">
+        <v>494</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E90" t="s">
+        <v>366</v>
+      </c>
+      <c r="F90">
+        <v>46</v>
+      </c>
+      <c r="G90" t="s">
+        <v>496</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="5"/>
+        <v>Mark  Devlin $^{46}$                    \\</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="9"/>
+        <v>46. University of Pennsylvania.  \\</v>
+      </c>
+    </row>
+    <row r="91" spans="2:15">
+      <c r="B91" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C91" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="E82" t="s">
-        <v>8</v>
-      </c>
-      <c r="F82">
-        <v>46</v>
-      </c>
-      <c r="G82" t="s">
+      <c r="E91" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91">
+        <v>47</v>
+      </c>
+      <c r="G91" t="s">
         <v>332</v>
       </c>
-      <c r="I82" t="str">
-        <f t="shared" ref="I82" si="14">CONCATENATE(B82," ",C82, " $^{", F82,"}$", M82,"\\")</f>
-        <v>Joy Didier $^{46}$                      \\</v>
-      </c>
-      <c r="K82">
-        <f t="shared" ref="K82" si="15">LEN(B82) + LEN(C82) +1</f>
+      <c r="I91" t="str">
+        <f t="shared" si="5"/>
+        <v>Joy Didier $^{47}$                      \\</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="L82">
-        <f t="shared" ref="L82" si="16">IF(K82&lt;30,(32-K82),3)</f>
+      <c r="L91">
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
-      <c r="M82" t="str">
-        <f t="shared" ref="M82" si="17">REPT(" ",L82)</f>
+      <c r="M91" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">                      </v>
       </c>
-      <c r="O82" t="str">
-        <f t="shared" ref="O82" si="18">CONCATENATE(F82, ". ", G82, ".  \\")</f>
-        <v>46. University of Southern California.  \\</v>
-      </c>
-    </row>
-    <row r="83" spans="2:16">
-      <c r="B83" s="1" t="s">
+      <c r="O91" t="str">
+        <f t="shared" si="9"/>
+        <v>47. University of Southern California.  \\</v>
+      </c>
+    </row>
+    <row r="92" spans="2:15">
+      <c r="B92" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C92" t="s">
         <v>95</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D92" t="s">
         <v>454</v>
       </c>
-      <c r="E83" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83">
-        <v>47</v>
-      </c>
-      <c r="G83" t="s">
+      <c r="E92" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92">
+        <v>48</v>
+      </c>
+      <c r="G92" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="84" spans="2:16">
-      <c r="B84" s="3" t="s">
+      <c r="I92" t="str">
+        <f t="shared" si="5"/>
+        <v>Alex Lazarian $^{48}$                   \\</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">                   </v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="9"/>
+        <v>48. University of Wisconsin - Madison.  \\</v>
+      </c>
+    </row>
+    <row r="93" spans="2:15">
+      <c r="B93" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C93" t="s">
         <v>143</v>
       </c>
-      <c r="D84"/>
-      <c r="E84" t="s">
-        <v>8</v>
-      </c>
-      <c r="F84">
-        <v>47</v>
-      </c>
-      <c r="G84" t="s">
+      <c r="D93"/>
+      <c r="E93" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93">
+        <v>48</v>
+      </c>
+      <c r="G93" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="85" spans="2:16">
-      <c r="B85" s="1" t="s">
+      <c r="I93" t="str">
+        <f t="shared" si="5"/>
+        <v>Siyao Xu $^{48}$                        \\</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">                        </v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="9"/>
+        <v>48. University of Wisconsin - Madison.  \\</v>
+      </c>
+    </row>
+    <row r="94" spans="2:15">
+      <c r="B94" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="E85" t="s">
-        <v>8</v>
-      </c>
-      <c r="F85">
-        <v>48</v>
-      </c>
-      <c r="G85" t="s">
+      <c r="E94" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94">
+        <v>49</v>
+      </c>
+      <c r="G94" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="86" spans="2:16">
-      <c r="B86"/>
-    </row>
-    <row r="88" spans="2:16">
-      <c r="B88" s="3"/>
-      <c r="C88"/>
-      <c r="D88"/>
-    </row>
-    <row r="91" spans="2:16">
-      <c r="B91" s="3"/>
-      <c r="C91"/>
-      <c r="D91"/>
-      <c r="I91" t="str">
-        <f t="shared" ref="I91:I92" si="19">CONCATENATE(B91," ",C91,M91,"\\")</f>
+      <c r="I94" t="str">
+        <f t="shared" si="5"/>
+        <v>David Chuss $^{49}$                     \\</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">                     </v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="9"/>
+        <v>49. Villanova University.  \\</v>
+      </c>
+    </row>
+    <row r="95" spans="2:15">
+      <c r="B95"/>
+    </row>
+    <row r="96" spans="2:15">
+      <c r="B96"/>
+    </row>
+    <row r="98" spans="2:13">
+      <c r="B98" s="3"/>
+      <c r="C98"/>
+      <c r="D98"/>
+    </row>
+    <row r="101" spans="2:13">
+      <c r="B101" s="3"/>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="I101" t="str">
+        <f t="shared" ref="I101:I102" si="10">CONCATENATE(B101," ",C101,M101,"\\")</f>
         <v xml:space="preserve">                                \\</v>
       </c>
-      <c r="K91">
-        <f t="shared" ref="K91:K92" si="20">LEN(B91) + LEN(C91) +1</f>
+      <c r="K101">
+        <f t="shared" ref="K101:K102" si="11">LEN(B101) + LEN(C101) +1</f>
         <v>1</v>
       </c>
-      <c r="L91">
-        <f t="shared" ref="L91:L92" si="21">IF(K91&lt;30,(32-K91),3)</f>
+      <c r="L101">
+        <f t="shared" ref="L101:L102" si="12">IF(K101&lt;30,(32-K101),3)</f>
         <v>31</v>
       </c>
-      <c r="M91" t="str">
-        <f t="shared" ref="M91:M126" si="22">REPT(" ",L91)</f>
+      <c r="M101" t="str">
+        <f t="shared" ref="M101:M135" si="13">REPT(" ",L101)</f>
         <v xml:space="preserve">                               </v>
       </c>
     </row>
-    <row r="92" spans="2:16">
-      <c r="B92" t="s">
+    <row r="102" spans="2:13">
+      <c r="B102" t="s">
         <v>148</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C102" t="s">
         <v>149</v>
       </c>
-      <c r="D92"/>
-      <c r="E92" t="s">
-        <v>150</v>
-      </c>
-      <c r="G92" t="s">
+      <c r="D102"/>
+      <c r="E102" t="s">
+        <v>150</v>
+      </c>
+      <c r="G102" t="s">
         <v>151</v>
       </c>
-      <c r="I92" t="str">
-        <f t="shared" si="19"/>
+      <c r="I102" t="str">
+        <f t="shared" si="10"/>
         <v>Zeeshan Ahmed                   \\</v>
       </c>
-      <c r="K92">
-        <f t="shared" si="20"/>
+      <c r="K102">
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
-      <c r="L92">
-        <f t="shared" si="21"/>
+      <c r="L102">
+        <f t="shared" si="12"/>
         <v>19</v>
       </c>
-      <c r="M92" t="str">
-        <f t="shared" si="22"/>
+      <c r="M102" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">                   </v>
       </c>
     </row>
-    <row r="93" spans="2:16">
-      <c r="B93" t="s">
+    <row r="103" spans="2:13">
+      <c r="B103" t="s">
         <v>152</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E93" t="s">
-        <v>150</v>
-      </c>
-      <c r="G93" t="s">
+      <c r="E103" t="s">
+        <v>150</v>
+      </c>
+      <c r="G103" t="s">
         <v>154</v>
       </c>
-      <c r="I93" t="str">
-        <f t="shared" ref="I93:I126" si="23">CONCATENATE(B93," ",C93,M93,"\\")</f>
+      <c r="I103" t="str">
+        <f t="shared" ref="I103:I135" si="14">CONCATENATE(B103," ",C103,M103,"\\")</f>
         <v>Jason Austermann                \\</v>
       </c>
-      <c r="K93">
-        <f t="shared" ref="K93:K126" si="24">LEN(B93) + LEN(C93) +1</f>
+      <c r="K103">
+        <f t="shared" ref="K103:K135" si="15">LEN(B103) + LEN(C103) +1</f>
         <v>16</v>
       </c>
-      <c r="L93">
-        <f t="shared" ref="L93:L126" si="25">IF(K93&lt;30,(32-K93),3)</f>
+      <c r="L103">
+        <f t="shared" ref="L103:L135" si="16">IF(K103&lt;30,(32-K103),3)</f>
         <v>16</v>
       </c>
-      <c r="M93" t="str">
-        <f t="shared" si="22"/>
+      <c r="M103" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">                </v>
       </c>
-      <c r="P93">
-        <f>F17+1</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="94" spans="2:16">
-      <c r="B94" t="s">
+    </row>
+    <row r="104" spans="2:13">
+      <c r="B104" t="s">
         <v>155</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E94" t="s">
-        <v>150</v>
-      </c>
-      <c r="G94" t="s">
+      <c r="E104" t="s">
+        <v>150</v>
+      </c>
+      <c r="G104" t="s">
         <v>157</v>
       </c>
-      <c r="I94" t="str">
-        <f t="shared" si="23"/>
+      <c r="I104" t="str">
+        <f t="shared" si="14"/>
         <v>Darcy Barron                    \\</v>
       </c>
-      <c r="K94">
-        <f t="shared" si="24"/>
+      <c r="K104">
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
-      <c r="L94">
-        <f t="shared" si="25"/>
+      <c r="L104">
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
-      <c r="M94" t="str">
-        <f t="shared" si="22"/>
+      <c r="M104" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">                    </v>
       </c>
-      <c r="P94">
-        <f>F18+1</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" spans="2:16">
-      <c r="B95" t="s">
+    </row>
+    <row r="105" spans="2:13">
+      <c r="B105" t="s">
         <v>158</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C105" t="s">
         <v>159</v>
       </c>
-      <c r="D95"/>
-      <c r="E95" t="s">
-        <v>150</v>
-      </c>
-      <c r="I95" t="str">
-        <f t="shared" si="23"/>
+      <c r="D105"/>
+      <c r="E105" t="s">
+        <v>150</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="14"/>
         <v>Karim Benabed                   \\</v>
       </c>
-      <c r="K95">
-        <f t="shared" si="24"/>
+      <c r="K105">
+        <f t="shared" si="15"/>
         <v>13</v>
       </c>
-      <c r="L95">
-        <f t="shared" si="25"/>
+      <c r="L105">
+        <f t="shared" si="16"/>
         <v>19</v>
       </c>
-      <c r="M95" t="str">
-        <f t="shared" si="22"/>
+      <c r="M105" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">                   </v>
       </c>
-      <c r="P95">
-        <f>F19+1</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="96" spans="2:16">
-      <c r="B96" t="s">
+    </row>
+    <row r="106" spans="2:13">
+      <c r="B106" t="s">
         <v>160</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C106" t="s">
         <v>161</v>
-      </c>
-      <c r="D96"/>
-      <c r="E96" t="s">
-        <v>150</v>
-      </c>
-      <c r="G96" t="s">
-        <v>162</v>
-      </c>
-      <c r="I96" t="str">
-        <f t="shared" si="23"/>
-        <v>Federico Bianchini              \\</v>
-      </c>
-      <c r="K96">
-        <f t="shared" si="24"/>
-        <v>18</v>
-      </c>
-      <c r="L96">
-        <f t="shared" si="25"/>
-        <v>14</v>
-      </c>
-      <c r="M96" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">              </v>
-      </c>
-      <c r="P96">
-        <f>F20+1</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="2:17">
-      <c r="B97" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E97" t="s">
-        <v>150</v>
-      </c>
-      <c r="G97" t="s">
-        <v>274</v>
-      </c>
-      <c r="I97" t="str">
-        <f t="shared" si="23"/>
-        <v>Colin Bischoff                  \\</v>
-      </c>
-      <c r="K97">
-        <f t="shared" si="24"/>
-        <v>14</v>
-      </c>
-      <c r="L97">
-        <f t="shared" si="25"/>
-        <v>18</v>
-      </c>
-      <c r="M97" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">                  </v>
-      </c>
-      <c r="P97">
-        <f>F21+1</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="98" spans="2:17">
-      <c r="B98" t="s">
-        <v>165</v>
-      </c>
-      <c r="C98" t="s">
-        <v>166</v>
-      </c>
-      <c r="D98"/>
-      <c r="E98" t="s">
-        <v>150</v>
-      </c>
-      <c r="G98" t="s">
-        <v>167</v>
-      </c>
-      <c r="I98" t="str">
-        <f t="shared" si="23"/>
-        <v>J. Richard Bond                 \\</v>
-      </c>
-      <c r="K98">
-        <f t="shared" si="24"/>
-        <v>15</v>
-      </c>
-      <c r="L98">
-        <f t="shared" si="25"/>
-        <v>17</v>
-      </c>
-      <c r="M98" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">                 </v>
-      </c>
-      <c r="P98">
-        <f>F22+1</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99" spans="2:17">
-      <c r="B99" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="I99" t="str">
-        <f t="shared" si="23"/>
-        <v>Fran\c{c}ois Boulanger          \\</v>
-      </c>
-      <c r="K99">
-        <f t="shared" si="24"/>
-        <v>22</v>
-      </c>
-      <c r="L99">
-        <f t="shared" si="25"/>
-        <v>10</v>
-      </c>
-      <c r="M99" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">          </v>
-      </c>
-      <c r="P99">
-        <f>F23+1</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="100" spans="2:17">
-      <c r="B100" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E100" t="s">
-        <v>150</v>
-      </c>
-      <c r="G100" t="s">
-        <v>272</v>
-      </c>
-      <c r="I100" t="str">
-        <f t="shared" si="23"/>
-        <v>Robert Caldwell                 \\</v>
-      </c>
-      <c r="K100">
-        <f t="shared" si="24"/>
-        <v>15</v>
-      </c>
-      <c r="L100">
-        <f t="shared" si="25"/>
-        <v>17</v>
-      </c>
-      <c r="M100" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">                 </v>
-      </c>
-      <c r="P100">
-        <f>F24+1</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="101" spans="2:17">
-      <c r="B101" t="s">
-        <v>168</v>
-      </c>
-      <c r="C101" t="s">
-        <v>169</v>
-      </c>
-      <c r="D101"/>
-      <c r="E101" t="s">
-        <v>150</v>
-      </c>
-      <c r="G101" t="s">
-        <v>128</v>
-      </c>
-      <c r="I101" t="str">
-        <f t="shared" si="23"/>
-        <v>Xingang Chen                    \\</v>
-      </c>
-      <c r="K101">
-        <f t="shared" si="24"/>
-        <v>12</v>
-      </c>
-      <c r="L101">
-        <f t="shared" si="25"/>
-        <v>20</v>
-      </c>
-      <c r="M101" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">                    </v>
-      </c>
-      <c r="P101">
-        <f>F25+1</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="102" spans="2:17">
-      <c r="B102" t="s">
-        <v>173</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E102" t="s">
-        <v>150</v>
-      </c>
-      <c r="G102" t="s">
-        <v>175</v>
-      </c>
-      <c r="I102" t="str">
-        <f t="shared" si="23"/>
-        <v>Francis-Yan Cyr-Racine          \\</v>
-      </c>
-      <c r="K102">
-        <f t="shared" si="24"/>
-        <v>22</v>
-      </c>
-      <c r="L102">
-        <f t="shared" si="25"/>
-        <v>10</v>
-      </c>
-      <c r="M102" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">          </v>
-      </c>
-      <c r="P102">
-        <f>F26+1</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="103" spans="2:17">
-      <c r="B103" t="s">
-        <v>176</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E103" t="s">
-        <v>150</v>
-      </c>
-      <c r="G103" t="s">
-        <v>178</v>
-      </c>
-      <c r="I103" t="str">
-        <f t="shared" si="23"/>
-        <v>Tijmen de Haan                  \\</v>
-      </c>
-      <c r="K103">
-        <f t="shared" si="24"/>
-        <v>14</v>
-      </c>
-      <c r="L103">
-        <f t="shared" si="25"/>
-        <v>18</v>
-      </c>
-      <c r="M103" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">                  </v>
-      </c>
-      <c r="P103">
-        <f>F27+1</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="104" spans="2:17">
-      <c r="B104" t="s">
-        <v>181</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E104" t="s">
-        <v>150</v>
-      </c>
-      <c r="G104" t="s">
-        <v>87</v>
-      </c>
-      <c r="I104" t="str">
-        <f t="shared" si="23"/>
-        <v>Aurelien Fraisse                \\</v>
-      </c>
-      <c r="K104">
-        <f t="shared" si="24"/>
-        <v>16</v>
-      </c>
-      <c r="L104">
-        <f t="shared" si="25"/>
-        <v>16</v>
-      </c>
-      <c r="M104" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">                </v>
-      </c>
-      <c r="P104">
-        <f>F28+1</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="105" spans="2:17">
-      <c r="B105" t="s">
-        <v>187</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E105" t="s">
-        <v>150</v>
-      </c>
-      <c r="G105" t="s">
-        <v>189</v>
-      </c>
-      <c r="I105" t="str">
-        <f t="shared" si="23"/>
-        <v>Silvia Galli                    \\</v>
-      </c>
-      <c r="K105">
-        <f t="shared" si="24"/>
-        <v>12</v>
-      </c>
-      <c r="L105">
-        <f t="shared" si="25"/>
-        <v>20</v>
-      </c>
-      <c r="M105" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">                    </v>
-      </c>
-      <c r="P105" t="e">
-        <f>F29+1</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="106" spans="2:17">
-      <c r="B106" t="s">
-        <v>190</v>
-      </c>
-      <c r="C106" t="s">
-        <v>191</v>
       </c>
       <c r="D106"/>
       <c r="E106" t="s">
         <v>150</v>
       </c>
       <c r="G106" t="s">
+        <v>162</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="14"/>
+        <v>Federico Bianchini              \\</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="15"/>
+        <v>18</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">              </v>
+      </c>
+    </row>
+    <row r="107" spans="2:13">
+      <c r="B107" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E107" t="s">
+        <v>150</v>
+      </c>
+      <c r="G107" t="s">
+        <v>274</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="14"/>
+        <v>Colin Bischoff                  \\</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="15"/>
+        <v>14</v>
+      </c>
+      <c r="L107">
+        <f t="shared" si="16"/>
+        <v>18</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">                  </v>
+      </c>
+    </row>
+    <row r="108" spans="2:13">
+      <c r="B108" t="s">
+        <v>165</v>
+      </c>
+      <c r="C108" t="s">
+        <v>166</v>
+      </c>
+      <c r="D108"/>
+      <c r="E108" t="s">
+        <v>150</v>
+      </c>
+      <c r="G108" t="s">
+        <v>167</v>
+      </c>
+      <c r="I108" t="str">
+        <f t="shared" si="14"/>
+        <v>J. Richard Bond                 \\</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="L108">
+        <f t="shared" si="16"/>
+        <v>17</v>
+      </c>
+      <c r="M108" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">                 </v>
+      </c>
+    </row>
+    <row r="109" spans="2:13">
+      <c r="B109" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E109" t="s">
+        <v>150</v>
+      </c>
+      <c r="G109" t="s">
+        <v>272</v>
+      </c>
+      <c r="I109" t="str">
+        <f t="shared" si="14"/>
+        <v>Robert Caldwell                 \\</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="L109">
+        <f t="shared" si="16"/>
+        <v>17</v>
+      </c>
+      <c r="M109" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">                 </v>
+      </c>
+    </row>
+    <row r="110" spans="2:13">
+      <c r="B110" t="s">
+        <v>168</v>
+      </c>
+      <c r="C110" t="s">
+        <v>169</v>
+      </c>
+      <c r="D110"/>
+      <c r="E110" t="s">
+        <v>150</v>
+      </c>
+      <c r="G110" t="s">
+        <v>128</v>
+      </c>
+      <c r="I110" t="str">
+        <f t="shared" si="14"/>
+        <v>Xingang Chen                    \\</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="L110">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="M110" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+    </row>
+    <row r="111" spans="2:13">
+      <c r="B111" t="s">
+        <v>173</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E111" t="s">
+        <v>150</v>
+      </c>
+      <c r="G111" t="s">
+        <v>175</v>
+      </c>
+      <c r="I111" t="str">
+        <f t="shared" si="14"/>
+        <v>Francis-Yan Cyr-Racine          \\</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="15"/>
+        <v>22</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="M111" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">          </v>
+      </c>
+    </row>
+    <row r="112" spans="2:13">
+      <c r="B112" t="s">
+        <v>176</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E112" t="s">
+        <v>150</v>
+      </c>
+      <c r="G112" t="s">
+        <v>178</v>
+      </c>
+      <c r="I112" t="str">
+        <f t="shared" si="14"/>
+        <v>Tijmen de Haan                  \\</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="15"/>
+        <v>14</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="16"/>
+        <v>18</v>
+      </c>
+      <c r="M112" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">                  </v>
+      </c>
+    </row>
+    <row r="113" spans="2:13">
+      <c r="B113" t="s">
+        <v>181</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E113" t="s">
+        <v>150</v>
+      </c>
+      <c r="G113" t="s">
+        <v>87</v>
+      </c>
+      <c r="I113" t="str">
+        <f t="shared" si="14"/>
+        <v>Aurelien Fraisse                \\</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="15"/>
+        <v>16</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="16"/>
+        <v>16</v>
+      </c>
+      <c r="M113" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">                </v>
+      </c>
+    </row>
+    <row r="114" spans="2:13">
+      <c r="B114" t="s">
+        <v>187</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E114" t="s">
+        <v>150</v>
+      </c>
+      <c r="G114" t="s">
+        <v>189</v>
+      </c>
+      <c r="I114" t="str">
+        <f t="shared" si="14"/>
+        <v>Silvia Galli                    \\</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="M114" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+    </row>
+    <row r="115" spans="2:13">
+      <c r="B115" t="s">
+        <v>190</v>
+      </c>
+      <c r="C115" t="s">
+        <v>191</v>
+      </c>
+      <c r="D115"/>
+      <c r="E115" t="s">
+        <v>150</v>
+      </c>
+      <c r="G115" t="s">
         <v>192</v>
       </c>
-      <c r="I106" t="str">
-        <f t="shared" si="23"/>
+      <c r="I115" t="str">
+        <f t="shared" si="14"/>
         <v>Ken Ganga                       \\</v>
       </c>
-      <c r="K106">
-        <f t="shared" si="24"/>
+      <c r="K115">
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
-      <c r="L106">
-        <f t="shared" si="25"/>
+      <c r="L115">
+        <f t="shared" si="16"/>
         <v>23</v>
       </c>
-      <c r="M106" t="str">
-        <f t="shared" si="22"/>
+      <c r="M115" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">                       </v>
       </c>
-      <c r="P106">
-        <f>F30+1</f>
+    </row>
+    <row r="116" spans="2:13">
+      <c r="B116" t="s">
+        <v>193</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E116" t="s">
+        <v>150</v>
+      </c>
+      <c r="G116" t="s">
+        <v>195</v>
+      </c>
+      <c r="I116" t="str">
+        <f t="shared" si="14"/>
+        <v>Tuhin Ghosh                     \\</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="L116">
+        <f t="shared" si="16"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="107" spans="2:17">
-      <c r="B107" t="s">
-        <v>193</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E107" t="s">
-        <v>150</v>
-      </c>
-      <c r="G107" t="s">
-        <v>195</v>
-      </c>
-      <c r="I107" t="str">
-        <f t="shared" si="23"/>
-        <v>Tuhin Ghosh                     \\</v>
-      </c>
-      <c r="K107">
-        <f t="shared" si="24"/>
+      <c r="M116" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">                     </v>
+      </c>
+    </row>
+    <row r="117" spans="2:13">
+      <c r="B117" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E117" t="s">
+        <v>150</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I117" t="str">
+        <f t="shared" si="14"/>
+        <v>Sunil Golwala                   \\</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="L117">
+        <f t="shared" si="16"/>
+        <v>19</v>
+      </c>
+      <c r="M117" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">                   </v>
+      </c>
+    </row>
+    <row r="118" spans="2:13">
+      <c r="B118" t="s">
+        <v>196</v>
+      </c>
+      <c r="C118" t="s">
+        <v>197</v>
+      </c>
+      <c r="D118"/>
+      <c r="E118" t="s">
+        <v>150</v>
+      </c>
+      <c r="G118" t="s">
+        <v>198</v>
+      </c>
+      <c r="I118" t="str">
+        <f t="shared" si="14"/>
+        <v>Jon E. Gudmundsson              \\</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="15"/>
+        <v>18</v>
+      </c>
+      <c r="L118">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="M118" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">              </v>
+      </c>
+    </row>
+    <row r="119" spans="2:13">
+      <c r="B119" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E119" t="s">
+        <v>150</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I119" t="str">
+        <f t="shared" si="14"/>
+        <v>Kevin M. Huffenberger           \\</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="15"/>
+        <v>21</v>
+      </c>
+      <c r="L119">
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
-      <c r="L107">
-        <f t="shared" si="25"/>
+      <c r="M119" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">           </v>
+      </c>
+    </row>
+    <row r="120" spans="2:13">
+      <c r="B120" t="s">
+        <v>199</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E120" t="s">
+        <v>150</v>
+      </c>
+      <c r="G120" t="s">
+        <v>201</v>
+      </c>
+      <c r="I120" t="str">
+        <f t="shared" si="14"/>
+        <v>Marc Kamionkowski               \\</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="15"/>
+        <v>17</v>
+      </c>
+      <c r="L120">
+        <f t="shared" si="16"/>
+        <v>15</v>
+      </c>
+      <c r="M120" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">               </v>
+      </c>
+    </row>
+    <row r="121" spans="2:13">
+      <c r="B121" t="s">
+        <v>202</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E121" t="s">
+        <v>150</v>
+      </c>
+      <c r="G121" t="s">
+        <v>204</v>
+      </c>
+      <c r="I121" t="str">
+        <f t="shared" si="14"/>
+        <v>Reijo Keskitalo                 \\</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="L121">
+        <f t="shared" si="16"/>
+        <v>17</v>
+      </c>
+      <c r="M121" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">                 </v>
+      </c>
+    </row>
+    <row r="122" spans="2:13">
+      <c r="B122" t="s">
+        <v>205</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E122" t="s">
+        <v>150</v>
+      </c>
+      <c r="G122" t="s">
+        <v>207</v>
+      </c>
+      <c r="I122" t="str">
+        <f t="shared" si="14"/>
+        <v>Rishi Khatri                    \\</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="L122">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="M122" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+    </row>
+    <row r="123" spans="2:13">
+      <c r="B123" t="s">
+        <v>208</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E123" t="s">
+        <v>150</v>
+      </c>
+      <c r="G123" t="s">
+        <v>201</v>
+      </c>
+      <c r="I123" t="str">
+        <f t="shared" si="14"/>
+        <v>Ely Kovetz                      \\</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="L123">
+        <f t="shared" si="16"/>
+        <v>22</v>
+      </c>
+      <c r="M123" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">                      </v>
+      </c>
+    </row>
+    <row r="124" spans="2:13">
+      <c r="B124" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E124" t="s">
+        <v>150</v>
+      </c>
+      <c r="G124" t="s">
+        <v>350</v>
+      </c>
+      <c r="I124" t="str">
+        <f t="shared" si="14"/>
+        <v>Kerstin Kunze                   \\</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="L124">
+        <f t="shared" si="16"/>
+        <v>19</v>
+      </c>
+      <c r="M124" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">                   </v>
+      </c>
+    </row>
+    <row r="125" spans="2:13">
+      <c r="B125" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="I125" t="str">
+        <f t="shared" si="14"/>
+        <v>Guilaine Lagache                \\</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="15"/>
+        <v>16</v>
+      </c>
+      <c r="L125">
+        <f t="shared" si="16"/>
+        <v>16</v>
+      </c>
+      <c r="M125" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">                </v>
+      </c>
+    </row>
+    <row r="126" spans="2:13">
+      <c r="B126" t="s">
+        <v>210</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E126" t="s">
+        <v>150</v>
+      </c>
+      <c r="G126" t="s">
+        <v>212</v>
+      </c>
+      <c r="I126" t="str">
+        <f t="shared" si="14"/>
+        <v>Daniel Lenz                     \\</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="L126">
+        <f t="shared" si="16"/>
         <v>21</v>
       </c>
-      <c r="M107" t="str">
-        <f t="shared" si="22"/>
+      <c r="M126" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">                     </v>
       </c>
-      <c r="P107">
-        <f>F31+1</f>
-        <v>21</v>
-      </c>
-      <c r="Q107">
-        <f>P107+1</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="108" spans="2:17">
-      <c r="B108" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="E108" t="s">
-        <v>150</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="I108" t="str">
-        <f t="shared" si="23"/>
-        <v>Sunil Golwala                   \\</v>
-      </c>
-      <c r="K108">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="L108">
-        <f t="shared" si="25"/>
-        <v>19</v>
-      </c>
-      <c r="M108" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">                   </v>
-      </c>
-      <c r="P108">
-        <f>F32+1</f>
-        <v>21</v>
-      </c>
-      <c r="Q108">
-        <f t="shared" ref="Q108:Q158" si="26">P108+1</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="109" spans="2:17">
-      <c r="B109" t="s">
-        <v>196</v>
-      </c>
-      <c r="C109" t="s">
-        <v>197</v>
-      </c>
-      <c r="D109"/>
-      <c r="E109" t="s">
-        <v>150</v>
-      </c>
-      <c r="G109" t="s">
-        <v>198</v>
-      </c>
-      <c r="I109" t="str">
-        <f t="shared" si="23"/>
-        <v>Jon E. Gudmundsson              \\</v>
-      </c>
-      <c r="K109">
-        <f t="shared" si="24"/>
-        <v>18</v>
-      </c>
-      <c r="L109">
-        <f t="shared" si="25"/>
-        <v>14</v>
-      </c>
-      <c r="M109" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">              </v>
-      </c>
-      <c r="P109">
-        <f>F33+1</f>
-        <v>22</v>
-      </c>
-      <c r="Q109">
-        <f t="shared" si="26"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="110" spans="2:17">
-      <c r="B110" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E110" t="s">
-        <v>150</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="I110" t="str">
-        <f t="shared" si="23"/>
-        <v>Kevin M. Huffenberger           \\</v>
-      </c>
-      <c r="K110">
-        <f t="shared" si="24"/>
-        <v>21</v>
-      </c>
-      <c r="L110">
-        <f t="shared" si="25"/>
-        <v>11</v>
-      </c>
-      <c r="M110" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">           </v>
-      </c>
-      <c r="P110">
-        <f>F34+1</f>
-        <v>22</v>
-      </c>
-      <c r="Q110">
-        <f t="shared" si="26"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="111" spans="2:17">
-      <c r="B111" t="s">
-        <v>199</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E111" t="s">
-        <v>150</v>
-      </c>
-      <c r="G111" t="s">
-        <v>201</v>
-      </c>
-      <c r="I111" t="str">
-        <f t="shared" si="23"/>
-        <v>Marc Kamionkowski               \\</v>
-      </c>
-      <c r="K111">
-        <f t="shared" si="24"/>
-        <v>17</v>
-      </c>
-      <c r="L111">
-        <f t="shared" si="25"/>
-        <v>15</v>
-      </c>
-      <c r="M111" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">               </v>
-      </c>
-      <c r="P111">
-        <f>F35+1</f>
-        <v>23</v>
-      </c>
-      <c r="Q111">
-        <f t="shared" si="26"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="112" spans="2:17">
-      <c r="B112" t="s">
-        <v>202</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E112" t="s">
-        <v>150</v>
-      </c>
-      <c r="G112" t="s">
-        <v>204</v>
-      </c>
-      <c r="I112" t="str">
-        <f t="shared" si="23"/>
-        <v>Reijo Keskitalo                 \\</v>
-      </c>
-      <c r="K112">
-        <f t="shared" si="24"/>
-        <v>15</v>
-      </c>
-      <c r="L112">
-        <f t="shared" si="25"/>
-        <v>17</v>
-      </c>
-      <c r="M112" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">                 </v>
-      </c>
-      <c r="P112">
-        <f>F36+1</f>
-        <v>8</v>
-      </c>
-      <c r="Q112">
-        <f t="shared" si="26"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="113" spans="2:17">
-      <c r="B113" t="s">
-        <v>205</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E113" t="s">
-        <v>150</v>
-      </c>
-      <c r="G113" t="s">
-        <v>207</v>
-      </c>
-      <c r="I113" t="str">
-        <f t="shared" si="23"/>
-        <v>Rishi Khatri                    \\</v>
-      </c>
-      <c r="K113">
-        <f t="shared" si="24"/>
+    </row>
+    <row r="127" spans="2:13">
+      <c r="B127" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="I127" t="str">
+        <f t="shared" si="14"/>
+        <v>Fran\c{c}ois Levrier            \\</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="15"/>
+        <v>20</v>
+      </c>
+      <c r="L127">
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="L113">
-        <f t="shared" si="25"/>
-        <v>20</v>
-      </c>
-      <c r="M113" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">                    </v>
-      </c>
-      <c r="P113">
-        <f>F37+1</f>
-        <v>24</v>
-      </c>
-      <c r="Q113">
-        <f t="shared" si="26"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="114" spans="2:17">
-      <c r="B114" t="s">
-        <v>208</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E114" t="s">
-        <v>150</v>
-      </c>
-      <c r="G114" t="s">
-        <v>201</v>
-      </c>
-      <c r="I114" t="str">
-        <f t="shared" si="23"/>
-        <v>Ely Kovetz                      \\</v>
-      </c>
-      <c r="K114">
-        <f t="shared" si="24"/>
-        <v>10</v>
-      </c>
-      <c r="L114">
-        <f t="shared" si="25"/>
-        <v>22</v>
-      </c>
-      <c r="M114" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">                      </v>
-      </c>
-      <c r="P114">
-        <f>F38+1</f>
-        <v>25</v>
-      </c>
-      <c r="Q114">
-        <f t="shared" si="26"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="115" spans="2:17">
-      <c r="B115" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E115" t="s">
-        <v>150</v>
-      </c>
-      <c r="G115" t="s">
-        <v>350</v>
-      </c>
-      <c r="I115" t="str">
-        <f t="shared" si="23"/>
-        <v>Kerstin Kunze                   \\</v>
-      </c>
-      <c r="K115">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="L115">
-        <f t="shared" si="25"/>
-        <v>19</v>
-      </c>
-      <c r="M115" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">                   </v>
-      </c>
-      <c r="P115">
-        <f>F39+1</f>
-        <v>25</v>
-      </c>
-      <c r="Q115">
-        <f t="shared" si="26"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="116" spans="2:17">
-      <c r="B116" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="I116" t="str">
-        <f t="shared" si="23"/>
-        <v>Guilaine Lagache                \\</v>
-      </c>
-      <c r="K116">
-        <f t="shared" si="24"/>
-        <v>16</v>
-      </c>
-      <c r="L116">
-        <f t="shared" si="25"/>
-        <v>16</v>
-      </c>
-      <c r="M116" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">                </v>
-      </c>
-      <c r="P116">
-        <f>F40+1</f>
-        <v>25</v>
-      </c>
-      <c r="Q116">
-        <f t="shared" si="26"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="117" spans="2:17">
-      <c r="B117" t="s">
-        <v>210</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E117" t="s">
-        <v>150</v>
-      </c>
-      <c r="G117" t="s">
-        <v>212</v>
-      </c>
-      <c r="I117" t="str">
-        <f t="shared" si="23"/>
-        <v>Daniel Lenz                     \\</v>
-      </c>
-      <c r="K117">
-        <f t="shared" si="24"/>
-        <v>11</v>
-      </c>
-      <c r="L117">
-        <f t="shared" si="25"/>
-        <v>21</v>
-      </c>
-      <c r="M117" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">                     </v>
-      </c>
-      <c r="P117">
-        <f>F41+1</f>
-        <v>25</v>
-      </c>
-      <c r="Q117">
-        <f t="shared" si="26"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="118" spans="2:17">
-      <c r="B118" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="I118" t="str">
-        <f t="shared" si="23"/>
-        <v>Fran\c{c}ois Levrier            \\</v>
-      </c>
-      <c r="K118">
-        <f t="shared" si="24"/>
-        <v>20</v>
-      </c>
-      <c r="L118">
-        <f t="shared" si="25"/>
-        <v>12</v>
-      </c>
-      <c r="M118" t="str">
-        <f t="shared" si="22"/>
+      <c r="M127" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">            </v>
       </c>
-      <c r="P118">
-        <f>F42+1</f>
-        <v>25</v>
-      </c>
-      <c r="Q118">
-        <f t="shared" si="26"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="119" spans="2:17">
-      <c r="B119" t="s">
+    </row>
+    <row r="128" spans="2:13">
+      <c r="B128" t="s">
         <v>213</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C128" t="s">
         <v>214</v>
-      </c>
-      <c r="D119"/>
-      <c r="E119" t="s">
-        <v>150</v>
-      </c>
-      <c r="G119" t="s">
-        <v>215</v>
-      </c>
-      <c r="I119" t="str">
-        <f t="shared" si="23"/>
-        <v>Marilena Loverde                \\</v>
-      </c>
-      <c r="K119">
-        <f t="shared" si="24"/>
-        <v>16</v>
-      </c>
-      <c r="L119">
-        <f t="shared" si="25"/>
-        <v>16</v>
-      </c>
-      <c r="M119" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">                </v>
-      </c>
-      <c r="P119">
-        <f>F43+1</f>
-        <v>25</v>
-      </c>
-      <c r="Q119">
-        <f t="shared" si="26"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="120" spans="2:17">
-      <c r="B120" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="E120" t="s">
-        <v>150</v>
-      </c>
-      <c r="G120" t="s">
-        <v>349</v>
-      </c>
-      <c r="I120" t="str">
-        <f t="shared" si="23"/>
-        <v>Juan Macias-Perez               \\</v>
-      </c>
-      <c r="K120">
-        <f t="shared" si="24"/>
-        <v>17</v>
-      </c>
-      <c r="L120">
-        <f t="shared" si="25"/>
-        <v>15</v>
-      </c>
-      <c r="M120" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">               </v>
-      </c>
-      <c r="P120">
-        <f>F44+1</f>
-        <v>25</v>
-      </c>
-      <c r="Q120">
-        <f t="shared" si="26"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="121" spans="2:17">
-      <c r="B121" t="s">
-        <v>216</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E121" t="s">
-        <v>150</v>
-      </c>
-      <c r="G121" t="s">
-        <v>218</v>
-      </c>
-      <c r="I121" t="str">
-        <f t="shared" si="23"/>
-        <v>Carlos Martins                  \\</v>
-      </c>
-      <c r="K121">
-        <f t="shared" si="24"/>
-        <v>14</v>
-      </c>
-      <c r="L121">
-        <f t="shared" si="25"/>
-        <v>18</v>
-      </c>
-      <c r="M121" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">                  </v>
-      </c>
-      <c r="P121">
-        <f>F45+1</f>
-        <v>25</v>
-      </c>
-      <c r="Q121">
-        <f t="shared" si="26"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="122" spans="2:17">
-      <c r="B122" t="s">
-        <v>187</v>
-      </c>
-      <c r="C122" t="s">
-        <v>219</v>
-      </c>
-      <c r="D122"/>
-      <c r="E122" t="s">
-        <v>150</v>
-      </c>
-      <c r="G122" t="s">
-        <v>220</v>
-      </c>
-      <c r="I122" t="str">
-        <f t="shared" si="23"/>
-        <v>Silvia Masi                     \\</v>
-      </c>
-      <c r="K122">
-        <f t="shared" si="24"/>
-        <v>11</v>
-      </c>
-      <c r="L122">
-        <f t="shared" si="25"/>
-        <v>21</v>
-      </c>
-      <c r="M122" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">                     </v>
-      </c>
-      <c r="P122">
-        <f t="shared" ref="P122:P153" si="27">F46+1</f>
-        <v>25</v>
-      </c>
-      <c r="Q122">
-        <f t="shared" si="26"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="123" spans="2:17">
-      <c r="B123" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E123" t="s">
-        <v>150</v>
-      </c>
-      <c r="G123" t="s">
-        <v>276</v>
-      </c>
-      <c r="I123" t="str">
-        <f t="shared" si="23"/>
-        <v>Joel Meyers                     \\</v>
-      </c>
-      <c r="K123">
-        <f t="shared" si="24"/>
-        <v>11</v>
-      </c>
-      <c r="L123">
-        <f t="shared" si="25"/>
-        <v>21</v>
-      </c>
-      <c r="M123" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">                     </v>
-      </c>
-      <c r="P123">
-        <f t="shared" si="27"/>
-        <v>25</v>
-      </c>
-      <c r="Q123">
-        <f t="shared" si="26"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="124" spans="2:17">
-      <c r="B124" t="s">
-        <v>221</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E124" t="s">
-        <v>150</v>
-      </c>
-      <c r="G124" t="s">
-        <v>223</v>
-      </c>
-      <c r="I124" t="str">
-        <f t="shared" si="23"/>
-        <v>Lorenzo Moncelsi                \\</v>
-      </c>
-      <c r="K124">
-        <f t="shared" si="24"/>
-        <v>16</v>
-      </c>
-      <c r="L124">
-        <f t="shared" si="25"/>
-        <v>16</v>
-      </c>
-      <c r="M124" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">                </v>
-      </c>
-      <c r="P124">
-        <f t="shared" si="27"/>
-        <v>25</v>
-      </c>
-      <c r="Q124">
-        <f t="shared" si="26"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="125" spans="2:17">
-      <c r="B125" t="s">
-        <v>224</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E125" t="s">
-        <v>150</v>
-      </c>
-      <c r="G125" t="s">
-        <v>226</v>
-      </c>
-      <c r="I125" t="str">
-        <f t="shared" si="23"/>
-        <v>Pavel Motloch                   \\</v>
-      </c>
-      <c r="K125">
-        <f t="shared" si="24"/>
-        <v>13</v>
-      </c>
-      <c r="L125">
-        <f t="shared" si="25"/>
-        <v>19</v>
-      </c>
-      <c r="M125" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">                   </v>
-      </c>
-      <c r="P125">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="Q125">
-        <f t="shared" si="26"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="2:17">
-      <c r="B126" t="s">
-        <v>227</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E126" t="s">
-        <v>150</v>
-      </c>
-      <c r="G126" t="s">
-        <v>229</v>
-      </c>
-      <c r="I126" t="str">
-        <f t="shared" si="23"/>
-        <v>Tony Mroczkowski                \\</v>
-      </c>
-      <c r="K126">
-        <f t="shared" si="24"/>
-        <v>16</v>
-      </c>
-      <c r="L126">
-        <f t="shared" si="25"/>
-        <v>16</v>
-      </c>
-      <c r="M126" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">                </v>
-      </c>
-      <c r="P126">
-        <f t="shared" si="27"/>
-        <v>26</v>
-      </c>
-      <c r="Q126">
-        <f t="shared" si="26"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="127" spans="2:17">
-      <c r="B127" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="I127" t="str">
-        <f t="shared" ref="I127:I159" si="28">CONCATENATE(B127," ",C127,M127,"\\")</f>
-        <v>Suvodip Mukherjee               \\</v>
-      </c>
-      <c r="K127">
-        <f t="shared" ref="K127:K159" si="29">LEN(B127) + LEN(C127) +1</f>
-        <v>17</v>
-      </c>
-      <c r="L127">
-        <f t="shared" ref="L127:L159" si="30">IF(K127&lt;30,(32-K127),3)</f>
-        <v>15</v>
-      </c>
-      <c r="M127" t="str">
-        <f t="shared" ref="M127:M159" si="31">REPT(" ",L127)</f>
-        <v xml:space="preserve">               </v>
-      </c>
-      <c r="P127" t="e">
-        <f t="shared" si="27"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q127" t="e">
-        <f t="shared" si="26"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="128" spans="2:17">
-      <c r="B128" t="s">
-        <v>224</v>
-      </c>
-      <c r="C128" t="s">
-        <v>230</v>
       </c>
       <c r="D128"/>
       <c r="E128" t="s">
         <v>150</v>
       </c>
       <c r="G128" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="I128" t="str">
-        <f t="shared" si="28"/>
-        <v>Pavel Naselsky                  \\</v>
+        <f t="shared" si="14"/>
+        <v>Marilena Loverde                \\</v>
       </c>
       <c r="K128">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
+        <v>16</v>
+      </c>
+      <c r="L128">
+        <f t="shared" si="16"/>
+        <v>16</v>
+      </c>
+      <c r="M128" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">                </v>
+      </c>
+    </row>
+    <row r="129" spans="2:13">
+      <c r="B129" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E129" t="s">
+        <v>150</v>
+      </c>
+      <c r="G129" t="s">
+        <v>349</v>
+      </c>
+      <c r="I129" t="str">
+        <f t="shared" si="14"/>
+        <v>Juan Macias-Perez               \\</v>
+      </c>
+      <c r="K129">
+        <f t="shared" si="15"/>
+        <v>17</v>
+      </c>
+      <c r="L129">
+        <f t="shared" si="16"/>
+        <v>15</v>
+      </c>
+      <c r="M129" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">               </v>
+      </c>
+    </row>
+    <row r="130" spans="2:13">
+      <c r="B130" t="s">
+        <v>216</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E130" t="s">
+        <v>150</v>
+      </c>
+      <c r="G130" t="s">
+        <v>218</v>
+      </c>
+      <c r="I130" t="str">
+        <f t="shared" si="14"/>
+        <v>Carlos Martins                  \\</v>
+      </c>
+      <c r="K130">
+        <f t="shared" si="15"/>
         <v>14</v>
       </c>
-      <c r="L128">
-        <f t="shared" si="30"/>
+      <c r="L130">
+        <f t="shared" si="16"/>
         <v>18</v>
       </c>
-      <c r="M128" t="str">
-        <f t="shared" si="31"/>
+      <c r="M130" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">                  </v>
       </c>
-      <c r="P128">
-        <f t="shared" si="27"/>
-        <v>29</v>
-      </c>
-      <c r="Q128">
-        <f t="shared" si="26"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="129" spans="2:17">
-      <c r="B129" t="s">
-        <v>160</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E129" t="s">
-        <v>150</v>
-      </c>
-      <c r="G129" t="s">
-        <v>233</v>
-      </c>
-      <c r="I129" t="str">
-        <f t="shared" si="28"/>
-        <v>Federico Nati                   \\</v>
-      </c>
-      <c r="K129">
-        <f t="shared" si="29"/>
-        <v>13</v>
-      </c>
-      <c r="L129">
-        <f t="shared" si="30"/>
-        <v>19</v>
-      </c>
-      <c r="M129" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">                   </v>
-      </c>
-      <c r="P129">
-        <f t="shared" si="27"/>
-        <v>29</v>
-      </c>
-      <c r="Q129">
-        <f t="shared" si="26"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="130" spans="2:17">
-      <c r="B130" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="I130" t="str">
-        <f t="shared" si="28"/>
-        <v>Paolo Natoli                    \\</v>
-      </c>
-      <c r="K130">
-        <f t="shared" si="29"/>
-        <v>12</v>
-      </c>
-      <c r="L130">
-        <f t="shared" si="30"/>
-        <v>20</v>
-      </c>
-      <c r="M130" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">                    </v>
-      </c>
-      <c r="P130">
-        <f t="shared" si="27"/>
-        <v>30</v>
-      </c>
-      <c r="Q130">
-        <f t="shared" si="26"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="131" spans="2:17">
+    </row>
+    <row r="131" spans="2:13">
       <c r="B131" t="s">
-        <v>234</v>
+        <v>187</v>
       </c>
       <c r="C131" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="D131"/>
       <c r="E131" t="s">
         <v>150</v>
       </c>
       <c r="G131" t="s">
+        <v>220</v>
+      </c>
+      <c r="I131" t="str">
+        <f t="shared" si="14"/>
+        <v>Silvia Masi                     \\</v>
+      </c>
+      <c r="K131">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="L131">
+        <f t="shared" si="16"/>
+        <v>21</v>
+      </c>
+      <c r="M131" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">                     </v>
+      </c>
+    </row>
+    <row r="132" spans="2:13">
+      <c r="B132" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E132" t="s">
+        <v>150</v>
+      </c>
+      <c r="G132" t="s">
+        <v>276</v>
+      </c>
+      <c r="I132" t="str">
+        <f t="shared" si="14"/>
+        <v>Joel Meyers                     \\</v>
+      </c>
+      <c r="K132">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="L132">
+        <f t="shared" si="16"/>
+        <v>21</v>
+      </c>
+      <c r="M132" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">                     </v>
+      </c>
+    </row>
+    <row r="133" spans="2:13">
+      <c r="B133" t="s">
+        <v>221</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E133" t="s">
+        <v>150</v>
+      </c>
+      <c r="G133" t="s">
+        <v>223</v>
+      </c>
+      <c r="I133" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorenzo Moncelsi                \\</v>
+      </c>
+      <c r="K133">
+        <f t="shared" si="15"/>
+        <v>16</v>
+      </c>
+      <c r="L133">
+        <f t="shared" si="16"/>
+        <v>16</v>
+      </c>
+      <c r="M133" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">                </v>
+      </c>
+    </row>
+    <row r="134" spans="2:13">
+      <c r="B134" t="s">
+        <v>224</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E134" t="s">
+        <v>150</v>
+      </c>
+      <c r="G134" t="s">
+        <v>226</v>
+      </c>
+      <c r="I134" t="str">
+        <f t="shared" si="14"/>
+        <v>Pavel Motloch                   \\</v>
+      </c>
+      <c r="K134">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="L134">
+        <f t="shared" si="16"/>
+        <v>19</v>
+      </c>
+      <c r="M134" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">                   </v>
+      </c>
+    </row>
+    <row r="135" spans="2:13">
+      <c r="B135" t="s">
+        <v>227</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E135" t="s">
+        <v>150</v>
+      </c>
+      <c r="G135" t="s">
+        <v>229</v>
+      </c>
+      <c r="I135" t="str">
+        <f t="shared" si="14"/>
+        <v>Tony Mroczkowski                \\</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="15"/>
+        <v>16</v>
+      </c>
+      <c r="L135">
+        <f t="shared" si="16"/>
+        <v>16</v>
+      </c>
+      <c r="M135" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">                </v>
+      </c>
+    </row>
+    <row r="136" spans="2:13">
+      <c r="B136" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="I136" t="str">
+        <f t="shared" ref="I136:I168" si="17">CONCATENATE(B136," ",C136,M136,"\\")</f>
+        <v>Suvodip Mukherjee               \\</v>
+      </c>
+      <c r="K136">
+        <f t="shared" ref="K136:K168" si="18">LEN(B136) + LEN(C136) +1</f>
+        <v>17</v>
+      </c>
+      <c r="L136">
+        <f t="shared" ref="L136:L168" si="19">IF(K136&lt;30,(32-K136),3)</f>
+        <v>15</v>
+      </c>
+      <c r="M136" t="str">
+        <f t="shared" ref="M136:M168" si="20">REPT(" ",L136)</f>
+        <v xml:space="preserve">               </v>
+      </c>
+    </row>
+    <row r="137" spans="2:13">
+      <c r="B137" t="s">
+        <v>224</v>
+      </c>
+      <c r="C137" t="s">
+        <v>230</v>
+      </c>
+      <c r="D137"/>
+      <c r="E137" t="s">
+        <v>150</v>
+      </c>
+      <c r="G137" t="s">
+        <v>231</v>
+      </c>
+      <c r="I137" t="str">
+        <f t="shared" si="17"/>
+        <v>Pavel Naselsky                  \\</v>
+      </c>
+      <c r="K137">
+        <f t="shared" si="18"/>
+        <v>14</v>
+      </c>
+      <c r="L137">
+        <f t="shared" si="19"/>
+        <v>18</v>
+      </c>
+      <c r="M137" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">                  </v>
+      </c>
+    </row>
+    <row r="138" spans="2:13">
+      <c r="B138" t="s">
+        <v>160</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E138" t="s">
+        <v>150</v>
+      </c>
+      <c r="G138" t="s">
+        <v>233</v>
+      </c>
+      <c r="I138" t="str">
+        <f t="shared" si="17"/>
+        <v>Federico Nati                   \\</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="18"/>
+        <v>13</v>
+      </c>
+      <c r="L138">
+        <f t="shared" si="19"/>
+        <v>19</v>
+      </c>
+      <c r="M138" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">                   </v>
+      </c>
+    </row>
+    <row r="139" spans="2:13">
+      <c r="B139" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I139" t="str">
+        <f t="shared" si="17"/>
+        <v>Paolo Natoli                    \\</v>
+      </c>
+      <c r="K139">
+        <f t="shared" si="18"/>
+        <v>12</v>
+      </c>
+      <c r="L139">
+        <f t="shared" si="19"/>
+        <v>20</v>
+      </c>
+      <c r="M139" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+    </row>
+    <row r="140" spans="2:13">
+      <c r="B140" t="s">
+        <v>234</v>
+      </c>
+      <c r="C140" t="s">
+        <v>235</v>
+      </c>
+      <c r="D140"/>
+      <c r="E140" t="s">
+        <v>150</v>
+      </c>
+      <c r="G140" t="s">
         <v>236</v>
       </c>
-      <c r="I131" t="str">
-        <f t="shared" si="28"/>
+      <c r="I140" t="str">
+        <f t="shared" si="17"/>
         <v>Elena Orlando                   \\</v>
       </c>
-      <c r="K131">
-        <f t="shared" si="29"/>
+      <c r="K140">
+        <f t="shared" si="18"/>
         <v>13</v>
       </c>
-      <c r="L131">
-        <f t="shared" si="30"/>
+      <c r="L140">
+        <f t="shared" si="19"/>
         <v>19</v>
       </c>
-      <c r="M131" t="str">
-        <f t="shared" si="31"/>
+      <c r="M140" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve">                   </v>
       </c>
-      <c r="P131">
-        <f t="shared" si="27"/>
-        <v>31</v>
-      </c>
-      <c r="Q131">
-        <f t="shared" si="26"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="132" spans="2:17">
-      <c r="B132" s="1" t="s">
+    </row>
+    <row r="141" spans="2:13">
+      <c r="B141" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C141" t="s">
         <v>183</v>
       </c>
-      <c r="D132"/>
-      <c r="E132" t="s">
-        <v>150</v>
-      </c>
-      <c r="G132" t="s">
+      <c r="D141"/>
+      <c r="E141" t="s">
+        <v>150</v>
+      </c>
+      <c r="G141" t="s">
         <v>185</v>
       </c>
-      <c r="I132" t="str">
-        <f t="shared" si="28"/>
+      <c r="I141" t="str">
+        <f t="shared" si="17"/>
         <v>Francesco Piacentini            \\</v>
       </c>
-      <c r="K132">
-        <f t="shared" si="29"/>
+      <c r="K141">
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
-      <c r="L132">
-        <f t="shared" si="30"/>
+      <c r="L141">
+        <f t="shared" si="19"/>
         <v>12</v>
       </c>
-      <c r="M132" t="str">
-        <f t="shared" si="31"/>
+      <c r="M141" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve">            </v>
       </c>
-      <c r="P132">
-        <f t="shared" si="27"/>
-        <v>32</v>
-      </c>
-      <c r="Q132">
-        <f t="shared" si="26"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="133" spans="2:17">
-      <c r="B133" s="1" t="s">
+    </row>
+    <row r="142" spans="2:13">
+      <c r="B142" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C142" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="E133" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G133" s="1" t="s">
+      <c r="E142" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G142" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="I133" t="str">
-        <f t="shared" si="28"/>
+      <c r="I142" t="str">
+        <f t="shared" si="17"/>
         <v>Nicolas Ponthieu                \\</v>
       </c>
-      <c r="K133">
-        <f t="shared" si="29"/>
+      <c r="K142">
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
-      <c r="L133">
-        <f t="shared" si="30"/>
+      <c r="L142">
+        <f t="shared" si="19"/>
         <v>16</v>
       </c>
-      <c r="M133" t="str">
-        <f t="shared" si="31"/>
+      <c r="M142" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve">                </v>
       </c>
-      <c r="P133">
-        <f t="shared" si="27"/>
-        <v>33</v>
-      </c>
-      <c r="Q133">
-        <f t="shared" si="26"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="134" spans="2:17">
-      <c r="B134" t="s">
+    </row>
+    <row r="143" spans="2:13">
+      <c r="B143" t="s">
         <v>237</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C143" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E134" t="s">
-        <v>150</v>
-      </c>
-      <c r="G134" t="s">
+      <c r="E143" t="s">
+        <v>150</v>
+      </c>
+      <c r="G143" t="s">
         <v>239</v>
       </c>
-      <c r="I134" t="str">
-        <f t="shared" si="28"/>
+      <c r="I143" t="str">
+        <f t="shared" si="17"/>
         <v>Giuseppe Puglisi                \\</v>
       </c>
-      <c r="K134">
-        <f t="shared" si="29"/>
+      <c r="K143">
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
-      <c r="L134">
-        <f t="shared" si="30"/>
+      <c r="L143">
+        <f t="shared" si="19"/>
         <v>16</v>
       </c>
-      <c r="M134" t="str">
-        <f t="shared" si="31"/>
+      <c r="M143" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve">                </v>
       </c>
-      <c r="P134">
-        <f t="shared" si="27"/>
-        <v>33</v>
-      </c>
-      <c r="Q134">
-        <f t="shared" si="26"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="135" spans="2:17">
-      <c r="B135" s="1" t="s">
+    </row>
+    <row r="144" spans="2:13">
+      <c r="B144" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C144" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="E135" t="s">
-        <v>150</v>
-      </c>
-      <c r="G135" t="s">
+      <c r="E144" t="s">
+        <v>150</v>
+      </c>
+      <c r="G144" t="s">
         <v>311</v>
       </c>
-      <c r="I135" t="str">
-        <f t="shared" si="28"/>
+      <c r="I144" t="str">
+        <f t="shared" si="17"/>
         <v>Benjamin Racine                 \\</v>
       </c>
-      <c r="K135">
-        <f t="shared" si="29"/>
+      <c r="K144">
+        <f t="shared" si="18"/>
         <v>15</v>
       </c>
-      <c r="L135">
-        <f t="shared" si="30"/>
+      <c r="L144">
+        <f t="shared" si="19"/>
         <v>17</v>
       </c>
-      <c r="M135" t="str">
-        <f t="shared" si="31"/>
+      <c r="M144" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve">                 </v>
       </c>
-      <c r="P135">
-        <f t="shared" si="27"/>
-        <v>33</v>
-      </c>
-      <c r="Q135">
-        <f t="shared" si="26"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="136" spans="2:17">
-      <c r="B136" t="s">
+    </row>
+    <row r="145" spans="2:13">
+      <c r="B145" t="s">
         <v>240</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C145" t="s">
         <v>241</v>
       </c>
-      <c r="D136"/>
-      <c r="E136" t="s">
-        <v>150</v>
-      </c>
-      <c r="G136" t="s">
+      <c r="D145"/>
+      <c r="E145" t="s">
+        <v>150</v>
+      </c>
+      <c r="G145" t="s">
         <v>162</v>
       </c>
-      <c r="I136" t="str">
-        <f t="shared" si="28"/>
+      <c r="I145" t="str">
+        <f t="shared" si="17"/>
         <v>Christian Reichardt             \\</v>
       </c>
-      <c r="K136">
-        <f t="shared" si="29"/>
+      <c r="K145">
+        <f t="shared" si="18"/>
         <v>19</v>
       </c>
-      <c r="L136">
-        <f t="shared" si="30"/>
+      <c r="L145">
+        <f t="shared" si="19"/>
         <v>13</v>
       </c>
-      <c r="M136" t="str">
-        <f t="shared" si="31"/>
+      <c r="M145" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve">             </v>
       </c>
-      <c r="P136">
-        <f t="shared" si="27"/>
-        <v>34</v>
-      </c>
-      <c r="Q136">
-        <f t="shared" si="26"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="137" spans="2:17">
-      <c r="B137" s="1" t="s">
+    </row>
+    <row r="146" spans="2:13">
+      <c r="B146" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C146" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="E137" t="s">
-        <v>150</v>
-      </c>
-      <c r="G137" t="s">
+      <c r="E146" t="s">
+        <v>150</v>
+      </c>
+      <c r="G146" t="s">
         <v>348</v>
       </c>
-      <c r="I137" t="str">
-        <f t="shared" si="28"/>
+      <c r="I146" t="str">
+        <f t="shared" si="17"/>
         <v>Christophe Ringeval             \\</v>
       </c>
-      <c r="K137">
-        <f t="shared" si="29"/>
+      <c r="K146">
+        <f t="shared" si="18"/>
         <v>19</v>
       </c>
-      <c r="L137">
-        <f t="shared" si="30"/>
+      <c r="L146">
+        <f t="shared" si="19"/>
         <v>13</v>
       </c>
-      <c r="M137" t="str">
-        <f t="shared" si="31"/>
+      <c r="M146" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve">             </v>
       </c>
-      <c r="P137">
-        <f t="shared" si="27"/>
-        <v>35</v>
-      </c>
-      <c r="Q137">
-        <f t="shared" si="26"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="138" spans="2:17">
-      <c r="B138" t="s">
+    </row>
+    <row r="147" spans="2:13">
+      <c r="B147" t="s">
         <v>242</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C147" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E138" t="s">
-        <v>150</v>
-      </c>
-      <c r="G138" t="s">
+      <c r="E147" t="s">
+        <v>150</v>
+      </c>
+      <c r="G147" t="s">
         <v>244</v>
       </c>
-      <c r="I138" t="str">
-        <f t="shared" si="28"/>
+      <c r="I147" t="str">
+        <f t="shared" si="17"/>
         <v>Anirban Roy                     \\</v>
       </c>
-      <c r="K138">
-        <f t="shared" si="29"/>
+      <c r="K147">
+        <f t="shared" si="18"/>
         <v>11</v>
       </c>
-      <c r="L138">
-        <f t="shared" si="30"/>
+      <c r="L147">
+        <f t="shared" si="19"/>
         <v>21</v>
       </c>
-      <c r="M138" t="str">
-        <f t="shared" si="31"/>
+      <c r="M147" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve">                     </v>
       </c>
-      <c r="P138">
-        <f t="shared" si="27"/>
-        <v>36</v>
-      </c>
-      <c r="Q138">
-        <f t="shared" si="26"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="139" spans="2:17">
-      <c r="B139" s="1" t="s">
+    </row>
+    <row r="148" spans="2:13">
+      <c r="B148" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C148" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="E139" t="s">
-        <v>150</v>
-      </c>
-      <c r="G139" t="s">
+      <c r="E148" t="s">
+        <v>150</v>
+      </c>
+      <c r="G148" t="s">
         <v>347</v>
       </c>
-      <c r="I139" t="str">
-        <f t="shared" si="28"/>
+      <c r="I148" t="str">
+        <f t="shared" si="17"/>
         <v>Jose-Alberto Rubino-Martin      \\</v>
       </c>
-      <c r="K139">
-        <f t="shared" si="29"/>
+      <c r="K148">
+        <f t="shared" si="18"/>
         <v>26</v>
       </c>
-      <c r="L139">
-        <f t="shared" si="30"/>
+      <c r="L148">
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
-      <c r="M139" t="str">
-        <f t="shared" si="31"/>
+      <c r="M148" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve">      </v>
       </c>
-      <c r="P139">
-        <f t="shared" si="27"/>
-        <v>37</v>
-      </c>
-      <c r="Q139">
-        <f t="shared" si="26"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="140" spans="2:17">
-      <c r="B140" t="s">
+    </row>
+    <row r="149" spans="2:13">
+      <c r="B149" t="s">
         <v>245</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C149" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E140" t="s">
-        <v>150</v>
-      </c>
-      <c r="G140" t="s">
+      <c r="E149" t="s">
+        <v>150</v>
+      </c>
+      <c r="G149" t="s">
         <v>247</v>
       </c>
-      <c r="I140" t="str">
-        <f t="shared" si="28"/>
+      <c r="I149" t="str">
+        <f t="shared" si="17"/>
         <v>Maria Salatino                  \\</v>
       </c>
-      <c r="K140">
-        <f t="shared" si="29"/>
+      <c r="K149">
+        <f t="shared" si="18"/>
         <v>14</v>
       </c>
-      <c r="L140">
-        <f t="shared" si="30"/>
+      <c r="L149">
+        <f t="shared" si="19"/>
         <v>18</v>
       </c>
-      <c r="M140" t="str">
-        <f t="shared" si="31"/>
+      <c r="M149" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve">                  </v>
       </c>
-      <c r="P140">
-        <f t="shared" si="27"/>
-        <v>38</v>
-      </c>
-      <c r="Q140">
-        <f t="shared" si="26"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="141" spans="2:17">
-      <c r="B141" s="1" t="s">
+    </row>
+    <row r="150" spans="2:13">
+      <c r="B150" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C150" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E141" t="s">
-        <v>150</v>
-      </c>
-      <c r="G141" t="s">
+      <c r="E150" t="s">
+        <v>150</v>
+      </c>
+      <c r="G150" t="s">
         <v>271</v>
       </c>
-      <c r="I141" t="str">
-        <f t="shared" si="28"/>
+      <c r="I150" t="str">
+        <f t="shared" si="17"/>
         <v>Benjamin Saliwanchik            \\</v>
       </c>
-      <c r="K141">
-        <f t="shared" si="29"/>
+      <c r="K150">
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
-      <c r="L141">
-        <f t="shared" si="30"/>
+      <c r="L150">
+        <f t="shared" si="19"/>
         <v>12</v>
       </c>
-      <c r="M141" t="str">
-        <f t="shared" si="31"/>
+      <c r="M150" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve">            </v>
       </c>
-      <c r="P141">
-        <f t="shared" si="27"/>
-        <v>39</v>
-      </c>
-      <c r="Q141">
-        <f t="shared" si="26"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="142" spans="2:17">
-      <c r="B142" s="1" t="s">
+    </row>
+    <row r="151" spans="2:13">
+      <c r="B151" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C151" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E142" t="s">
-        <v>150</v>
-      </c>
-      <c r="G142" t="s">
+      <c r="E151" t="s">
+        <v>150</v>
+      </c>
+      <c r="G151" t="s">
         <v>215</v>
       </c>
-      <c r="I142" t="str">
-        <f t="shared" si="28"/>
+      <c r="I151" t="str">
+        <f t="shared" si="17"/>
         <v>Neelima Sehgal                  \\</v>
       </c>
-      <c r="K142">
-        <f t="shared" si="29"/>
+      <c r="K151">
+        <f t="shared" si="18"/>
         <v>14</v>
       </c>
-      <c r="L142">
-        <f t="shared" si="30"/>
+      <c r="L151">
+        <f t="shared" si="19"/>
         <v>18</v>
       </c>
-      <c r="M142" t="str">
-        <f t="shared" si="31"/>
+      <c r="M151" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve">                  </v>
       </c>
-      <c r="P142">
-        <f t="shared" si="27"/>
-        <v>40</v>
-      </c>
-      <c r="Q142">
-        <f t="shared" si="26"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="143" spans="2:17">
-      <c r="B143" t="s">
+    </row>
+    <row r="152" spans="2:13">
+      <c r="B152" t="s">
         <v>248</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C152" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E143" t="s">
-        <v>150</v>
-      </c>
-      <c r="G143" t="s">
+      <c r="E152" t="s">
+        <v>150</v>
+      </c>
+      <c r="G152" t="s">
         <v>250</v>
       </c>
-      <c r="I143" t="str">
-        <f t="shared" si="28"/>
+      <c r="I152" t="str">
+        <f t="shared" si="17"/>
         <v>Sarah Shandera                  \\</v>
       </c>
-      <c r="K143">
-        <f t="shared" si="29"/>
+      <c r="K152">
+        <f t="shared" si="18"/>
         <v>14</v>
       </c>
-      <c r="L143">
-        <f t="shared" si="30"/>
+      <c r="L152">
+        <f t="shared" si="19"/>
         <v>18</v>
       </c>
-      <c r="M143" t="str">
-        <f t="shared" si="31"/>
+      <c r="M152" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve">                  </v>
       </c>
-      <c r="P143" t="e">
-        <f t="shared" si="27"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q143" t="e">
-        <f t="shared" si="26"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="144" spans="2:17">
-      <c r="B144" t="s">
+    </row>
+    <row r="153" spans="2:13">
+      <c r="B153" t="s">
         <v>179</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C153" t="s">
         <v>310</v>
       </c>
-      <c r="D144"/>
-      <c r="E144" t="s">
-        <v>150</v>
-      </c>
-      <c r="G144" t="s">
+      <c r="D153"/>
+      <c r="E153" t="s">
+        <v>150</v>
+      </c>
+      <c r="G153" t="s">
         <v>180</v>
       </c>
-      <c r="I144" t="str">
-        <f t="shared" si="28"/>
+      <c r="I153" t="str">
+        <f t="shared" si="17"/>
         <v>Erik Shirokoff                  \\</v>
       </c>
-      <c r="K144">
-        <f t="shared" si="29"/>
+      <c r="K153">
+        <f t="shared" si="18"/>
         <v>14</v>
       </c>
-      <c r="L144">
-        <f t="shared" si="30"/>
+      <c r="L153">
+        <f t="shared" si="19"/>
         <v>18</v>
       </c>
-      <c r="M144" t="str">
-        <f t="shared" si="31"/>
+      <c r="M153" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve">                  </v>
       </c>
-      <c r="P144" t="e">
-        <f t="shared" si="27"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q144" t="e">
-        <f t="shared" si="26"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="145" spans="2:17">
-      <c r="B145" t="s">
+    </row>
+    <row r="154" spans="2:13">
+      <c r="B154" t="s">
         <v>251</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C154" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="E145" t="s">
-        <v>150</v>
-      </c>
-      <c r="G145" t="s">
+      <c r="E154" t="s">
+        <v>150</v>
+      </c>
+      <c r="G154" t="s">
         <v>253</v>
       </c>
-      <c r="I145" t="str">
-        <f t="shared" si="28"/>
+      <c r="I154" t="str">
+        <f t="shared" si="17"/>
         <v>An\v{z}e Slosar                 \\</v>
       </c>
-      <c r="K145">
-        <f t="shared" si="29"/>
+      <c r="K154">
+        <f t="shared" si="18"/>
         <v>15</v>
       </c>
-      <c r="L145">
-        <f t="shared" si="30"/>
+      <c r="L154">
+        <f t="shared" si="19"/>
         <v>17</v>
       </c>
-      <c r="M145" t="str">
-        <f t="shared" si="31"/>
+      <c r="M154" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve">                 </v>
       </c>
-      <c r="P145">
-        <f t="shared" si="27"/>
-        <v>41</v>
-      </c>
-      <c r="Q145">
-        <f t="shared" si="26"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="146" spans="2:17">
-      <c r="B146" s="1" t="s">
+    </row>
+    <row r="155" spans="2:13">
+      <c r="B155" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C155" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="E146" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G146" s="1" t="s">
+      <c r="E155" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G155" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="I146" t="str">
-        <f t="shared" si="28"/>
+      <c r="I155" t="str">
+        <f t="shared" si="17"/>
         <v>Tarun Souradeep                 \\</v>
       </c>
-      <c r="K146">
-        <f t="shared" si="29"/>
+      <c r="K155">
+        <f t="shared" si="18"/>
         <v>15</v>
       </c>
-      <c r="L146">
-        <f t="shared" si="30"/>
+      <c r="L155">
+        <f t="shared" si="19"/>
         <v>17</v>
       </c>
-      <c r="M146" t="str">
-        <f t="shared" si="31"/>
+      <c r="M155" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve">                 </v>
       </c>
-      <c r="P146">
-        <f t="shared" si="27"/>
-        <v>42</v>
-      </c>
-      <c r="Q146">
-        <f t="shared" si="26"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="147" spans="2:17">
-      <c r="B147" t="s">
+    </row>
+    <row r="156" spans="2:13">
+      <c r="B156" t="s">
         <v>254</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C156" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E147" t="s">
-        <v>150</v>
-      </c>
-      <c r="G147" t="s">
+      <c r="E156" t="s">
+        <v>150</v>
+      </c>
+      <c r="G156" t="s">
         <v>178</v>
       </c>
-      <c r="I147" t="str">
-        <f t="shared" si="28"/>
+      <c r="I156" t="str">
+        <f t="shared" si="17"/>
         <v>Aritoki Suzuki                  \\</v>
       </c>
-      <c r="K147">
-        <f t="shared" si="29"/>
+      <c r="K156">
+        <f t="shared" si="18"/>
         <v>14</v>
       </c>
-      <c r="L147">
-        <f t="shared" si="30"/>
+      <c r="L156">
+        <f t="shared" si="19"/>
         <v>18</v>
       </c>
-      <c r="M147" t="str">
-        <f t="shared" si="31"/>
+      <c r="M156" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve">                  </v>
       </c>
-      <c r="P147">
-        <f t="shared" si="27"/>
-        <v>43</v>
-      </c>
-      <c r="Q147">
-        <f t="shared" si="26"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="148" spans="2:17">
-      <c r="B148" s="1" t="s">
+    </row>
+    <row r="157" spans="2:13">
+      <c r="B157" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="C157" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E148" t="s">
-        <v>150</v>
-      </c>
-      <c r="G148" t="s">
+      <c r="E157" t="s">
+        <v>150</v>
+      </c>
+      <c r="G157" t="s">
         <v>277</v>
       </c>
-      <c r="I148" t="str">
-        <f t="shared" si="28"/>
+      <c r="I157" t="str">
+        <f t="shared" si="17"/>
         <v>Eric Switzer                    \\</v>
       </c>
-      <c r="K148">
-        <f t="shared" si="29"/>
+      <c r="K157">
+        <f t="shared" si="18"/>
         <v>12</v>
       </c>
-      <c r="L148">
-        <f t="shared" si="30"/>
+      <c r="L157">
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
-      <c r="M148" t="str">
-        <f t="shared" si="31"/>
+      <c r="M157" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve">                    </v>
       </c>
-      <c r="P148">
-        <f t="shared" si="27"/>
-        <v>44</v>
-      </c>
-      <c r="Q148">
-        <f t="shared" si="26"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="149" spans="2:17">
-      <c r="B149" s="1" t="s">
+    </row>
+    <row r="158" spans="2:13">
+      <c r="B158" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C158" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E149" t="s">
-        <v>150</v>
-      </c>
-      <c r="G149" t="s">
+      <c r="E158" t="s">
+        <v>150</v>
+      </c>
+      <c r="G158" t="s">
         <v>278</v>
       </c>
-      <c r="I149" t="str">
-        <f t="shared" si="28"/>
+      <c r="I158" t="str">
+        <f t="shared" si="17"/>
         <v>Andrea Tartari                  \\</v>
       </c>
-      <c r="K149">
-        <f t="shared" si="29"/>
+      <c r="K158">
+        <f t="shared" si="18"/>
         <v>14</v>
       </c>
-      <c r="L149">
-        <f t="shared" si="30"/>
+      <c r="L158">
+        <f t="shared" si="19"/>
         <v>18</v>
       </c>
-      <c r="M149" t="str">
-        <f t="shared" si="31"/>
+      <c r="M158" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve">                  </v>
       </c>
-      <c r="P149">
-        <f t="shared" si="27"/>
-        <v>44</v>
-      </c>
-      <c r="Q149">
-        <f t="shared" si="26"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="150" spans="2:17">
-      <c r="B150" t="s">
+    </row>
+    <row r="159" spans="2:13">
+      <c r="B159" t="s">
         <v>256</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="C159" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E150" t="s">
-        <v>150</v>
-      </c>
-      <c r="G150" t="s">
+      <c r="E159" t="s">
+        <v>150</v>
+      </c>
+      <c r="G159" t="s">
         <v>258</v>
       </c>
-      <c r="I150" t="str">
-        <f t="shared" si="28"/>
+      <c r="I159" t="str">
+        <f t="shared" si="17"/>
         <v>Grant Teply                     \\</v>
       </c>
-      <c r="K150">
-        <f t="shared" si="29"/>
+      <c r="K159">
+        <f t="shared" si="18"/>
         <v>11</v>
       </c>
-      <c r="L150">
-        <f t="shared" si="30"/>
+      <c r="L159">
+        <f t="shared" si="19"/>
         <v>21</v>
       </c>
-      <c r="M150" t="str">
-        <f t="shared" si="31"/>
+      <c r="M159" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve">                     </v>
       </c>
-      <c r="P150">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="Q150">
-        <f t="shared" si="26"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="2:17">
-      <c r="B151" s="1" t="s">
+    </row>
+    <row r="160" spans="2:13">
+      <c r="B160" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C160" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="E151" t="s">
-        <v>150</v>
-      </c>
-      <c r="G151" t="s">
+      <c r="E160" t="s">
+        <v>150</v>
+      </c>
+      <c r="G160" t="s">
         <v>279</v>
       </c>
-      <c r="I151" t="str">
-        <f t="shared" si="28"/>
+      <c r="I160" t="str">
+        <f t="shared" si="17"/>
         <v>Peter Timbie                    \\</v>
       </c>
-      <c r="K151">
-        <f t="shared" si="29"/>
+      <c r="K160">
+        <f t="shared" si="18"/>
         <v>12</v>
       </c>
-      <c r="L151">
-        <f t="shared" si="30"/>
+      <c r="L160">
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
-      <c r="M151" t="str">
-        <f t="shared" si="31"/>
+      <c r="M160" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve">                    </v>
       </c>
-      <c r="P151">
-        <f t="shared" si="27"/>
-        <v>45</v>
-      </c>
-      <c r="Q151">
-        <f t="shared" si="26"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="152" spans="2:17">
-      <c r="B152" t="s">
+    </row>
+    <row r="161" spans="2:13">
+      <c r="B161" t="s">
         <v>259</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="C161" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E152" t="s">
-        <v>150</v>
-      </c>
-      <c r="G152" t="s">
+      <c r="E161" t="s">
+        <v>150</v>
+      </c>
+      <c r="G161" t="s">
         <v>261</v>
       </c>
-      <c r="I152" t="str">
-        <f t="shared" si="28"/>
+      <c r="I161" t="str">
+        <f t="shared" si="17"/>
         <v>Matthieu Tristram               \\</v>
       </c>
-      <c r="K152">
-        <f t="shared" si="29"/>
+      <c r="K161">
+        <f t="shared" si="18"/>
         <v>17</v>
       </c>
-      <c r="L152">
-        <f t="shared" si="30"/>
+      <c r="L161">
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
-      <c r="M152" t="str">
-        <f t="shared" si="31"/>
+      <c r="M161" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve">               </v>
       </c>
-      <c r="P152">
-        <f t="shared" si="27"/>
-        <v>45</v>
-      </c>
-      <c r="Q152">
-        <f t="shared" si="26"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="153" spans="2:17">
-      <c r="B153" s="1" t="s">
+    </row>
+    <row r="162" spans="2:13">
+      <c r="B162" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="C162" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="E153" t="s">
-        <v>150</v>
-      </c>
-      <c r="G153" t="s">
+      <c r="E162" t="s">
+        <v>150</v>
+      </c>
+      <c r="G162" t="s">
         <v>274</v>
       </c>
-      <c r="I153" t="str">
-        <f t="shared" si="28"/>
+      <c r="I162" t="str">
+        <f t="shared" si="17"/>
         <v>Caterina Umilt\`{a}             \\</v>
       </c>
-      <c r="K153">
-        <f t="shared" si="29"/>
+      <c r="K162">
+        <f t="shared" si="18"/>
         <v>19</v>
       </c>
-      <c r="L153">
-        <f t="shared" si="30"/>
+      <c r="L162">
+        <f t="shared" si="19"/>
         <v>13</v>
       </c>
-      <c r="M153" t="str">
-        <f t="shared" si="31"/>
+      <c r="M162" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve">             </v>
       </c>
-      <c r="P153">
-        <f t="shared" si="27"/>
-        <v>45</v>
-      </c>
-      <c r="Q153">
-        <f t="shared" si="26"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="154" spans="2:17">
-      <c r="B154" s="1" t="s">
+    </row>
+    <row r="163" spans="2:13">
+      <c r="B163" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="C163" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="E154" t="s">
-        <v>150</v>
-      </c>
-      <c r="G154" t="s">
+      <c r="E163" t="s">
+        <v>150</v>
+      </c>
+      <c r="G163" t="s">
         <v>351</v>
       </c>
-      <c r="I154" t="str">
-        <f t="shared" si="28"/>
+      <c r="I163" t="str">
+        <f t="shared" si="17"/>
         <v>Licia Verde                     \\</v>
       </c>
-      <c r="K154">
-        <f t="shared" si="29"/>
+      <c r="K163">
+        <f t="shared" si="18"/>
         <v>11</v>
       </c>
-      <c r="L154">
-        <f t="shared" si="30"/>
+      <c r="L163">
+        <f t="shared" si="19"/>
         <v>21</v>
       </c>
-      <c r="M154" t="str">
-        <f t="shared" si="31"/>
+      <c r="M163" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve">                     </v>
       </c>
-      <c r="P154">
-        <f>F78+1</f>
-        <v>45</v>
-      </c>
-      <c r="Q154">
-        <f t="shared" si="26"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="155" spans="2:17">
-      <c r="B155" s="1" t="s">
+    </row>
+    <row r="164" spans="2:13">
+      <c r="B164" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C164" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="E155" t="s">
-        <v>150</v>
-      </c>
-      <c r="G155" s="1" t="s">
+      <c r="E164" t="s">
+        <v>150</v>
+      </c>
+      <c r="G164" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="I155" t="str">
-        <f t="shared" si="28"/>
+      <c r="I164" t="str">
+        <f t="shared" si="17"/>
         <v>Patricio Vielva                 \\</v>
       </c>
-      <c r="K155">
-        <f t="shared" si="29"/>
+      <c r="K164">
+        <f t="shared" si="18"/>
         <v>15</v>
       </c>
-      <c r="L155">
-        <f t="shared" si="30"/>
+      <c r="L164">
+        <f t="shared" si="19"/>
         <v>17</v>
       </c>
-      <c r="M155" t="str">
-        <f t="shared" si="31"/>
+      <c r="M164" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve">                 </v>
       </c>
-      <c r="P155">
-        <f>F79+1</f>
-        <v>45</v>
-      </c>
-      <c r="Q155">
-        <f t="shared" si="26"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="156" spans="2:17">
-      <c r="B156" s="1" t="s">
+    </row>
+    <row r="165" spans="2:13">
+      <c r="B165" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="C165" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="E156" t="s">
-        <v>150</v>
-      </c>
-      <c r="G156" t="s">
+      <c r="E165" t="s">
+        <v>150</v>
+      </c>
+      <c r="G165" t="s">
         <v>273</v>
       </c>
-      <c r="I156" t="str">
-        <f t="shared" si="28"/>
+      <c r="I165" t="str">
+        <f t="shared" si="17"/>
         <v>Benjamin Wallisch               \\</v>
       </c>
-      <c r="K156">
-        <f t="shared" si="29"/>
+      <c r="K165">
+        <f t="shared" si="18"/>
         <v>17</v>
       </c>
-      <c r="L156">
-        <f t="shared" si="30"/>
+      <c r="L165">
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
-      <c r="M156" t="str">
-        <f t="shared" si="31"/>
+      <c r="M165" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve">               </v>
       </c>
-      <c r="P156">
-        <f>F80+1</f>
-        <v>46</v>
-      </c>
-      <c r="Q156">
-        <f t="shared" si="26"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="157" spans="2:17">
-      <c r="B157" t="s">
+    </row>
+    <row r="166" spans="2:13">
+      <c r="B166" t="s">
         <v>262</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="C166" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E157" t="s">
-        <v>150</v>
-      </c>
-      <c r="G157" t="s">
+      <c r="E166" t="s">
+        <v>150</v>
+      </c>
+      <c r="G166" t="s">
         <v>264</v>
       </c>
-      <c r="I157" t="str">
-        <f t="shared" si="28"/>
+      <c r="I166" t="str">
+        <f t="shared" si="17"/>
         <v>Scott Watson                    \\</v>
       </c>
-      <c r="K157">
-        <f t="shared" si="29"/>
+      <c r="K166">
+        <f t="shared" si="18"/>
         <v>12</v>
       </c>
-      <c r="L157">
-        <f t="shared" si="30"/>
+      <c r="L166">
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
-      <c r="M157" t="str">
-        <f t="shared" si="31"/>
+      <c r="M166" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve">                    </v>
       </c>
-      <c r="P157">
-        <f>F81+1</f>
-        <v>1</v>
-      </c>
-      <c r="Q157">
-        <f t="shared" si="26"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="158" spans="2:17">
-      <c r="B158" s="5" t="s">
+    </row>
+    <row r="167" spans="2:13">
+      <c r="B167" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="C167" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="E158" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G158" s="1" t="s">
+      <c r="E167" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G167" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="I158" t="str">
-        <f t="shared" si="28"/>
+      <c r="I167" t="str">
+        <f t="shared" si="17"/>
         <v>Rien van de Weygaert            \\</v>
       </c>
-      <c r="K158">
-        <f t="shared" si="29"/>
+      <c r="K167">
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
-      <c r="L158">
-        <f t="shared" si="30"/>
+      <c r="L167">
+        <f t="shared" si="19"/>
         <v>12</v>
       </c>
-      <c r="M158" t="str">
-        <f t="shared" si="31"/>
+      <c r="M167" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve">            </v>
       </c>
-      <c r="P158">
-        <f>F82+1</f>
-        <v>47</v>
-      </c>
-      <c r="Q158">
-        <f t="shared" si="26"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="159" spans="2:17">
-      <c r="B159" t="s">
+    </row>
+    <row r="168" spans="2:13">
+      <c r="B168" t="s">
         <v>265</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="C168" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="E159" t="s">
-        <v>150</v>
-      </c>
-      <c r="G159" t="s">
+      <c r="E168" t="s">
+        <v>150</v>
+      </c>
+      <c r="G168" t="s">
         <v>55</v>
       </c>
-      <c r="I159" t="str">
-        <f t="shared" si="28"/>
+      <c r="I168" t="str">
+        <f t="shared" si="17"/>
         <v>Edward J. Wollack               \\</v>
       </c>
-      <c r="K159">
-        <f t="shared" si="29"/>
+      <c r="K168">
+        <f t="shared" si="18"/>
         <v>17</v>
       </c>
-      <c r="L159">
-        <f t="shared" si="30"/>
+      <c r="L168">
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
-      <c r="M159" t="str">
-        <f t="shared" si="31"/>
+      <c r="M168" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve">               </v>
-      </c>
-      <c r="P159">
-        <f>F86+1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="2:17">
-      <c r="P160">
-        <f>F87+1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="2:16">
-      <c r="P161">
-        <f>F88+1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="2:16">
-      <c r="P162">
-        <f>F89+1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="2:16">
-      <c r="P163">
-        <f>F83+1</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="164" spans="2:16">
-      <c r="P164">
-        <f>F84+1</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="168" spans="2:16">
-      <c r="B168" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C168" t="s">
-        <v>141</v>
-      </c>
-      <c r="D168"/>
-      <c r="E168" t="s">
-        <v>150</v>
-      </c>
-      <c r="I168" t="str">
-        <f>CONCATENATE(B168," ",C168,M168,"\\")</f>
-        <v>Martin White                    \\</v>
-      </c>
-      <c r="K168">
-        <f>LEN(B168) + LEN(C168) +1</f>
-        <v>12</v>
-      </c>
-      <c r="L168">
-        <f>IF(K168&lt;30,(32-K168),3)</f>
-        <v>20</v>
-      </c>
-      <c r="M168" t="str">
-        <f>REPT(" ",L168)</f>
-        <v xml:space="preserve">                    </v>
-      </c>
-    </row>
-    <row r="169" spans="2:16">
-      <c r="I169" t="str">
-        <f t="shared" ref="I169:I170" si="32">CONCATENATE(B169," ",C169,M169,"\\")</f>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="K169">
-        <f t="shared" ref="K169:K170" si="33">LEN(B169) + LEN(C169) +1</f>
-        <v>1</v>
-      </c>
-      <c r="L169">
-        <f t="shared" ref="L169:L170" si="34">IF(K169&lt;30,(32-K169),3)</f>
-        <v>31</v>
-      </c>
-      <c r="M169" t="str">
-        <f t="shared" ref="M169:M183" si="35">REPT(" ",L169)</f>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="170" spans="2:16">
-      <c r="I170" t="str">
-        <f t="shared" si="32"/>
-        <v xml:space="preserve">                                \\</v>
-      </c>
-      <c r="K170">
-        <f t="shared" si="33"/>
-        <v>1</v>
-      </c>
-      <c r="L170">
-        <f t="shared" si="34"/>
-        <v>31</v>
-      </c>
-      <c r="M170" t="str">
-        <f t="shared" si="35"/>
-        <v xml:space="preserve">                               </v>
-      </c>
-    </row>
-    <row r="171" spans="2:16">
-      <c r="M171" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-    </row>
-    <row r="172" spans="2:16">
-      <c r="M172" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-    </row>
-    <row r="173" spans="2:16">
-      <c r="B173" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="M173" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-    </row>
-    <row r="174" spans="2:16">
-      <c r="M174" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-    </row>
-    <row r="175" spans="2:16">
-      <c r="B175" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E175" t="s">
-        <v>382</v>
-      </c>
-      <c r="M175" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-    </row>
-    <row r="176" spans="2:16">
-      <c r="B176" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E176" t="s">
-        <v>388</v>
-      </c>
-      <c r="M176" t="str">
-        <f t="shared" si="35"/>
-        <v/>
       </c>
     </row>
     <row r="177" spans="2:13">
       <c r="B177" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="C177" t="s">
+        <v>141</v>
+      </c>
+      <c r="D177"/>
       <c r="E177" t="s">
-        <v>394</v>
+        <v>150</v>
+      </c>
+      <c r="I177" t="str">
+        <f>CONCATENATE(B177," ",C177,M177,"\\")</f>
+        <v>Martin White                    \\</v>
+      </c>
+      <c r="K177">
+        <f>LEN(B177) + LEN(C177) +1</f>
+        <v>12</v>
+      </c>
+      <c r="L177">
+        <f>IF(K177&lt;30,(32-K177),3)</f>
+        <v>20</v>
       </c>
       <c r="M177" t="str">
-        <f t="shared" si="35"/>
-        <v/>
+        <f>REPT(" ",L177)</f>
+        <v xml:space="preserve">                    </v>
       </c>
     </row>
     <row r="178" spans="2:13">
+      <c r="I178" t="str">
+        <f t="shared" ref="I178:I179" si="21">CONCATENATE(B178," ",C178,M178,"\\")</f>
+        <v xml:space="preserve">                                \\</v>
+      </c>
+      <c r="K178">
+        <f t="shared" ref="K178:K179" si="22">LEN(B178) + LEN(C178) +1</f>
+        <v>1</v>
+      </c>
+      <c r="L178">
+        <f t="shared" ref="L178:L179" si="23">IF(K178&lt;30,(32-K178),3)</f>
+        <v>31</v>
+      </c>
       <c r="M178" t="str">
-        <f t="shared" si="35"/>
-        <v/>
+        <f t="shared" ref="M178:M192" si="24">REPT(" ",L178)</f>
+        <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="179" spans="2:13">
+      <c r="I179" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">                                \\</v>
+      </c>
+      <c r="K179">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="L179">
+        <f t="shared" si="23"/>
+        <v>31</v>
+      </c>
       <c r="M179" t="str">
-        <f t="shared" si="35"/>
-        <v/>
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">                               </v>
       </c>
     </row>
     <row r="180" spans="2:13">
       <c r="M180" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="181" spans="2:13">
       <c r="M181" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="182" spans="2:13">
+      <c r="B182" s="8" t="s">
+        <v>409</v>
+      </c>
       <c r="M182" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
     <row r="183" spans="2:13">
       <c r="M183" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
-    <row r="195" spans="2:4">
-      <c r="C195"/>
-      <c r="D195"/>
-    </row>
-    <row r="196" spans="2:4">
-      <c r="B196" s="6"/>
-    </row>
-    <row r="197" spans="2:4">
-      <c r="C197"/>
-      <c r="D197"/>
-    </row>
-    <row r="198" spans="2:4">
-      <c r="C198"/>
-      <c r="D198"/>
-    </row>
-    <row r="199" spans="2:4">
-      <c r="C199"/>
-      <c r="D199"/>
-    </row>
-    <row r="200" spans="2:4">
-      <c r="C200"/>
-      <c r="D200"/>
-    </row>
-    <row r="201" spans="2:4">
-      <c r="C201"/>
-      <c r="D201"/>
-    </row>
-    <row r="202" spans="2:4">
-      <c r="C202"/>
-      <c r="D202"/>
-    </row>
-    <row r="203" spans="2:4">
-      <c r="C203"/>
-      <c r="D203"/>
+    <row r="184" spans="2:13">
+      <c r="B184" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E184" t="s">
+        <v>382</v>
+      </c>
+      <c r="M184" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="2:13">
+      <c r="B185" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E185" t="s">
+        <v>388</v>
+      </c>
+      <c r="M185" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="2:13">
+      <c r="B186" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E186" t="s">
+        <v>394</v>
+      </c>
+      <c r="M186" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="2:13">
+      <c r="M187" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="2:13">
+      <c r="M188" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="2:13">
+      <c r="M189" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="2:13">
+      <c r="M190" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="2:13">
+      <c r="M191" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="2:13">
+      <c r="M192" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
     </row>
     <row r="204" spans="2:4">
       <c r="C204"/>
       <c r="D204"/>
     </row>
     <row r="205" spans="2:4">
-      <c r="C205"/>
-      <c r="D205"/>
+      <c r="B205" s="6"/>
     </row>
     <row r="206" spans="2:4">
       <c r="C206"/>
       <c r="D206"/>
     </row>
+    <row r="207" spans="2:4">
+      <c r="C207"/>
+      <c r="D207"/>
+    </row>
+    <row r="208" spans="2:4">
+      <c r="C208"/>
+      <c r="D208"/>
+    </row>
+    <row r="209" spans="3:4">
+      <c r="C209"/>
+      <c r="D209"/>
+    </row>
+    <row r="210" spans="3:4">
+      <c r="C210"/>
+      <c r="D210"/>
+    </row>
+    <row r="211" spans="3:4">
+      <c r="C211"/>
+      <c r="D211"/>
+    </row>
+    <row r="212" spans="3:4">
+      <c r="C212"/>
+      <c r="D212"/>
+    </row>
+    <row r="213" spans="3:4">
+      <c r="C213"/>
+      <c r="D213"/>
+    </row>
+    <row r="214" spans="3:4">
+      <c r="C214"/>
+      <c r="D214"/>
+    </row>
+    <row r="215" spans="3:4">
+      <c r="C215"/>
+      <c r="D215"/>
+    </row>
   </sheetData>
-  <sortState ref="B10:G85">
-    <sortCondition ref="G10:G85"/>
+  <sortState ref="B10:G97">
+    <sortCondition ref="G10:G97"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>

--- a/ReferenceDocuments/ReportAuthors.xlsx
+++ b/ReferenceDocuments/ReportAuthors.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="544">
   <si>
     <t>Report Authors</t>
   </si>
@@ -1592,9 +1592,6 @@
     <t>jeffmcm@umich.edu</t>
   </si>
   <si>
-    <t>dummy</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -1607,13 +1604,79 @@
     <t>%Colin</t>
   </si>
   <si>
-    <t xml:space="preserve">APC, CNRS, Universit\'e Paris-Diderot, France </t>
-  </si>
-  <si>
     <t>%Jacques</t>
   </si>
   <si>
     <t>%James G.</t>
+  </si>
+  <si>
+    <t>Kavli Institute for Particle Astrophysics and Cosmology</t>
+  </si>
+  <si>
+    <t>%Giuseppe</t>
+  </si>
+  <si>
+    <t>Emmanuel</t>
+  </si>
+  <si>
+    <t>Artis</t>
+  </si>
+  <si>
+    <t>Calum</t>
+  </si>
+  <si>
+    <t>Murray</t>
+  </si>
+  <si>
+    <t>APC, Univ Paris Diderot, CNRS/IN2P3, CEA/lrfu, Obs de Paris, Sorbonne Paris Cité, France</t>
+  </si>
+  <si>
+    <t>emmanuel.artis@cea.fr</t>
+  </si>
+  <si>
+    <t>calum.murray@apc.in2p3.fr</t>
+  </si>
+  <si>
+    <t>giuse.puglisi@gmail.com</t>
+  </si>
+  <si>
+    <t>PAshton@lbl.gov</t>
+  </si>
+  <si>
+    <t>cbennett@jhu.edu</t>
+  </si>
+  <si>
+    <t>jeffrey.t.booth@jpl.nasa.gov</t>
+  </si>
+  <si>
+    <t>bouchet@iap.fr</t>
+  </si>
+  <si>
+    <t>seclark@ias.edu</t>
+  </si>
+  <si>
+    <t>devlin@physics.upenn.edu</t>
+  </si>
+  <si>
+    <t>sdodelso@andrew.cmu.edu</t>
+  </si>
+  <si>
+    <t>herranz@ifca.unican.es</t>
+  </si>
+  <si>
+    <t>mathewm@astro.princeton.edu</t>
+  </si>
+  <si>
+    <t>page@Princeton.edu</t>
+  </si>
+  <si>
+    <t>ian.stephens@cfa.harvard.edu</t>
+  </si>
+  <si>
+    <t>sxu93@wisc.edu</t>
+  </si>
+  <si>
+    <t>Author, ec</t>
   </si>
 </sst>
 </file>
@@ -1702,7 +1765,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1722,6 +1785,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2095,10 +2159,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O215"/>
+  <dimension ref="A1:Q218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -2207,224 +2271,222 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" t="s">
-        <v>428</v>
-      </c>
+      <c r="B10" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="I10" t="str">
         <f>CONCATENATE(B10," ",C10, " $^{", F10,"}$", M10,"\\")</f>
-        <v>Jacques Delabrouille $^{1}$            \\</v>
+        <v>%Marcelo Alvarez $^{25}$                \\</v>
       </c>
       <c r="K10">
         <f>LEN(B10) + LEN(C10) +1</f>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L10">
         <f>IF(K10&lt;30,(32-K10),3)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M10" t="str">
         <f>REPT(" ",L10)</f>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                </v>
       </c>
       <c r="O10" t="str">
         <f>CONCATENATE(F10, ". ", G10, ".  \\")</f>
-        <v>1. APC, CNRS, Universit\'e Paris-Diderot, France .  \\</v>
+        <v>25. Lawrence Berkeley National Laboratory.  \\</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="B11" t="s">
-        <v>19</v>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>416</v>
+        <v>7</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>369</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>520</v>
+        <v>337</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" ref="I11:I74" si="0">CONCATENATE(B11," ",C11, " $^{", F11,"}$", M11,"\\")</f>
-        <v>James G. Bartlett $^{1}$               \\</v>
+        <v>Marcelo Alvarez $^{39}$                 \\</v>
       </c>
       <c r="K11">
         <f t="shared" ref="K11:K74" si="1">LEN(B11) + LEN(C11) +1</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L11">
         <f t="shared" ref="L11:L74" si="2">IF(K11&lt;30,(32-K11),3)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" ref="M11:M74" si="3">REPT(" ",L11)</f>
-        <v xml:space="preserve">               </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="O11" t="str">
         <f t="shared" ref="O11:O74" si="4">CONCATENATE(F11, ". ", G11, ".  \\")</f>
-        <v>1. APC, CNRS, Universit\'e Paris-Diderot, France .  \\</v>
+        <v>39. University of California, Berkeley.  \\</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="B12" s="1" t="s">
-        <v>113</v>
+        <v>523</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>114</v>
+        <v>524</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>461</v>
+        <v>528</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>223</v>
+        <v>502</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="0"/>
-        <v>Tim Pearson $^{2}$                     \\</v>
+        <v>Emmanuel Artis $^{20}$                  \\</v>
       </c>
       <c r="K12">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L12">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                  </v>
       </c>
       <c r="O12" t="str">
         <f t="shared" si="4"/>
-        <v>2. California Institute of Technology.  \\</v>
+        <v>20. IRFU, CEA, University\'e Paris-Saclay, France.  \\</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="B13" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C13" t="s">
-        <v>300</v>
-      </c>
-      <c r="D13" t="s">
-        <v>432</v>
+      <c r="B13" t="s">
+        <v>512</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="G13" t="s">
-        <v>485</v>
+        <v>511</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="0"/>
-        <v>Alexander van Engelen $^{3}$           \\</v>
+        <v>%Peter Ashton $^{25}$                   \\</v>
       </c>
       <c r="K13">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L13">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M13" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">           </v>
+        <v xml:space="preserve">                   </v>
       </c>
       <c r="O13" t="str">
         <f t="shared" si="4"/>
-        <v>3. Canadian Institute for Theoretical Astrophysics, University of Toronto, Canada.  \\</v>
+        <v>25. Lawrence Berkeley National Laboratory.  \\</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="B14" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>457</v>
+        <v>531</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>104</v>
+        <v>337</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="0"/>
-        <v>Mattia Negrello $^{3}$                 \\</v>
+        <v>Peter Ashton $^{39}$                    \\</v>
       </c>
       <c r="K14">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L14">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M14" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="O14" t="str">
         <f t="shared" si="4"/>
-        <v>3. Cardiff University School of Physics and Astronomy.  \\</v>
+        <v>39. University of California, Berkeley.  \\</v>
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="B15" s="1" t="s">
-        <v>508</v>
+      <c r="B15" t="s">
+        <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>505</v>
+        <v>13</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>413</v>
       </c>
       <c r="E15" t="s">
-        <v>516</v>
+        <v>8</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>507</v>
+        <v>482</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="0"/>
-        <v>%Scott Dodelson $^{4}$                 \\</v>
+        <v>Jonathan Aumont $^{19}$                 \\</v>
       </c>
       <c r="K15">
         <f t="shared" si="1"/>
@@ -2440,359 +2502,364 @@
       </c>
       <c r="O15" t="str">
         <f t="shared" si="4"/>
-        <v>4. Carnegie Melon University.  \\</v>
+        <v>19. IRAP, Universit\'e de Toulouse, France.  \\</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="B16" s="1" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" t="s">
-        <v>435</v>
+        <v>16</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="G16" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="0"/>
-        <v>Stephen Feeney $^{5}$                  \\</v>
+        <v>Ranajoy Banerji $^{46}$                 \\</v>
       </c>
       <c r="K16">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L16">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M16" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="O16" t="str">
         <f t="shared" si="4"/>
-        <v>5. Center for Computational Astrophysics, Flatiron Institute.  \\</v>
+        <v>46. University of Oslo, Norway.  \\</v>
       </c>
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="1" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" t="s">
-        <v>444</v>
+        <v>18</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
       </c>
       <c r="F17">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="0"/>
-        <v>Colin Hill $^{5}$                      \\</v>
+        <v>Belen Barreiro $^{18}$                  \\</v>
       </c>
       <c r="K17">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L17">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M17" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                      </v>
+        <v xml:space="preserve">                  </v>
       </c>
       <c r="O17" t="str">
         <f t="shared" si="4"/>
-        <v>5. Center for Computational Astrophysics, Flatiron Institute.  \\</v>
+        <v>18. Instituto de F\'isica de Cantabria (CSIC-Universidad de Cantabria), Spain.  \\</v>
       </c>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" t="s">
-        <v>448</v>
+        <v>19</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>416</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>543</v>
       </c>
       <c r="F18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>373</v>
+        <v>527</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="0"/>
-        <v>Brad Johnson $^{6}$                    \\</v>
+        <v>James G. Bartlett $^{1}$               \\</v>
       </c>
       <c r="K18">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L18">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M18" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">               </v>
       </c>
       <c r="O18" t="str">
         <f t="shared" si="4"/>
-        <v>6. Columbia University.  \\</v>
+        <v>1. APC, Univ Paris Diderot, CNRS/IN2P3, CEA/lrfu, Obs de Paris, Sorbonne Paris Cité, France.  \\</v>
       </c>
     </row>
     <row r="19" spans="2:15">
-      <c r="B19" s="1" t="s">
-        <v>323</v>
+      <c r="B19" t="s">
+        <v>520</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>446</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>543</v>
       </c>
       <c r="F19">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G19" t="s">
-        <v>491</v>
+        <v>110</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="0"/>
-        <v>Ren\'{e}e  Hlo\v{z}ek $^{7}$           \\</v>
+        <v>%James G. Bartlett $^{22}$              \\</v>
       </c>
       <c r="K19">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L19">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M19" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">           </v>
+        <v xml:space="preserve">              </v>
       </c>
       <c r="O19" t="str">
         <f t="shared" si="4"/>
-        <v>7. Department of Astronomy \&amp; Astrophysics and Dunlap Institute, University of Toronto, Canada.  \\</v>
+        <v>22. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
       </c>
     </row>
     <row r="20" spans="2:15">
       <c r="B20" s="1" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>455</v>
+        <v>417</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
       </c>
       <c r="F20">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>341</v>
+        <v>483</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="0"/>
-        <v>Zack Li $^{8}$                         \\</v>
+        <v>Soumen Basak $^{33}$                    \\</v>
       </c>
       <c r="K20">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="L20">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M20" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                         </v>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="O20" t="str">
         <f t="shared" si="4"/>
-        <v>8. Department of Astrophysical Sciences, Princeton University.  \\</v>
+        <v>33. School of Physics, Indian Institute of Science Education and Research Thiruvananthapuram,  India.  \\</v>
       </c>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>99</v>
+        <v>367</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>370</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>543</v>
       </c>
       <c r="F21">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>341</v>
+        <v>87</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="0"/>
-        <v>Mathew Madhavacheril $^{8}$            \\</v>
+        <v>Nick Battaglia $^{30}$                  \\</v>
       </c>
       <c r="K21">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L21">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M21" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                  </v>
       </c>
       <c r="O21" t="str">
         <f t="shared" si="4"/>
-        <v>8. Department of Astrophysical Sciences, Princeton University.  \\</v>
+        <v>30. Princeton University.  \\</v>
       </c>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="1" t="s">
-        <v>305</v>
+        <v>509</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>31</v>
+        <v>504</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>422</v>
+        <v>532</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>515</v>
       </c>
       <c r="F22">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>503</v>
+        <v>201</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="0"/>
-        <v>Fran\c{c}ois Boulanger $^{9}$          \\</v>
+        <v>%Charles Bennett $^{23}$                \\</v>
       </c>
       <c r="K22">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L22">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="M22" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">          </v>
+        <v xml:space="preserve">                </v>
       </c>
       <c r="O22" t="str">
         <f t="shared" si="4"/>
-        <v>9. Ecole Normale Superieure, Paris, France.  \\</v>
+        <v>23. Johns Hopkins University.  \\</v>
       </c>
     </row>
     <row r="23" spans="2:15">
       <c r="B23" t="s">
-        <v>287</v>
+        <v>163</v>
       </c>
       <c r="C23" t="s">
-        <v>306</v>
-      </c>
-      <c r="D23"/>
+        <v>164</v>
+      </c>
+      <c r="D23" t="s">
+        <v>418</v>
+      </c>
       <c r="E23" t="s">
         <v>8</v>
       </c>
       <c r="F23">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G23" t="s">
-        <v>275</v>
+        <v>110</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="0"/>
-        <v>Marcos L\'{o}pez-Caniego $^{10}$        \\</v>
+        <v>Jamie Bock $^{22}$                      \\</v>
       </c>
       <c r="K23">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="L23">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="M23" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">        </v>
+        <v xml:space="preserve">                      </v>
       </c>
       <c r="O23" t="str">
         <f t="shared" si="4"/>
-        <v>10. European Space Astronomy Centre.  \\</v>
+        <v>22. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
       </c>
     </row>
     <row r="24" spans="2:15">
-      <c r="B24" t="s">
-        <v>126</v>
+      <c r="B24" s="1" t="s">
+        <v>322</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>127</v>
+        <v>25</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>419</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
       </c>
       <c r="F24">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s">
-        <v>128</v>
+        <v>23</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="0"/>
-        <v>Ian Stephens $^{11}$                    \\</v>
+        <v>Kimberly K. Boddy $^{23}$               \\</v>
       </c>
       <c r="K24">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L24">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M24" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">               </v>
       </c>
       <c r="O24" t="str">
         <f t="shared" si="4"/>
-        <v>11. Harvard-Smithsonian Center for Astrophysics.  \\</v>
+        <v>23. Johns Hopkins University.  \\</v>
       </c>
     </row>
     <row r="25" spans="2:15">
@@ -2837,325 +2904,330 @@
     </row>
     <row r="26" spans="2:15">
       <c r="B26" t="s">
-        <v>303</v>
+        <v>364</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>302</v>
+        <v>365</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>474</v>
+        <v>533</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>366</v>
       </c>
       <c r="F26">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G26" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="0"/>
-        <v>Gianfranco De Zotti $^{13}$             \\</v>
+        <v>Jeff Booth $^{22}$                      \\</v>
       </c>
       <c r="K26">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="L26">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M26" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">             </v>
+        <v xml:space="preserve">                      </v>
       </c>
       <c r="O26" t="str">
         <f t="shared" si="4"/>
-        <v>13. INAF-Osservatorio Astronomico di Padova, Italy.  \\</v>
+        <v>22. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
       </c>
     </row>
     <row r="27" spans="2:15">
       <c r="B27" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C27" t="s">
-        <v>186</v>
-      </c>
-      <c r="D27"/>
+        <v>29</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>421</v>
+      </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>543</v>
       </c>
       <c r="F27">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G27" t="s">
-        <v>480</v>
+        <v>511</v>
       </c>
       <c r="I27" t="str">
         <f t="shared" si="0"/>
-        <v>Fran\c{c}ois Bouchet $^{14}$            \\</v>
+        <v>Julian Borrill $^{25}$                  \\</v>
       </c>
       <c r="K27">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L27">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M27" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                  </v>
       </c>
       <c r="O27" t="str">
         <f t="shared" si="4"/>
-        <v>14. Institut d'Astrophysique de Paris, France.  \\</v>
+        <v>25. Lawrence Berkeley National Laboratory.  \\</v>
       </c>
     </row>
     <row r="28" spans="2:15">
-      <c r="B28" t="s">
-        <v>77</v>
+      <c r="B28" s="1" t="s">
+        <v>516</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>445</v>
+        <v>30</v>
       </c>
       <c r="E28" t="s">
         <v>8</v>
       </c>
       <c r="F28">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>480</v>
+        <v>517</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="0"/>
-        <v>Eric Hivon $^{14}$                      \\</v>
+        <v>%Julian Borrill $^{35}$                 \\</v>
       </c>
       <c r="K28">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L28">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M28" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                      </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="O28" t="str">
         <f t="shared" si="4"/>
-        <v>14. Institut d'Astrophysique de Paris, France.  \\</v>
+        <v>35. Space Sciences Laboratory, University of California, Berkeley.  \\</v>
       </c>
     </row>
     <row r="29" spans="2:15">
       <c r="B29" s="1" t="s">
-        <v>136</v>
+        <v>305</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
-      </c>
-      <c r="D29"/>
+        <v>186</v>
+      </c>
+      <c r="D29" t="s">
+        <v>534</v>
+      </c>
       <c r="E29" t="s">
         <v>8</v>
       </c>
       <c r="F29">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G29" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" si="0"/>
-        <v>Flavien Vansyngel $^{15}$               \\</v>
+        <v>Fran\c{c}ois Bouchet $^{14}$            \\</v>
       </c>
       <c r="K29">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L29">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M29" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">               </v>
+        <v xml:space="preserve">            </v>
       </c>
       <c r="O29" t="str">
         <f t="shared" si="4"/>
-        <v>15. Institut d'Astrophysique Spatiale, CNRS, Univ. Paris-Sud, Universit\'e Paris-Saclay, France.  \\</v>
+        <v>14. Institut d'Astrophysique de Paris, France.  \\</v>
       </c>
     </row>
     <row r="30" spans="2:15">
       <c r="B30" s="1" t="s">
-        <v>51</v>
+        <v>305</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
       </c>
       <c r="F30">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s">
-        <v>486</v>
+        <v>9</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>503</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="0"/>
-        <v>Josquin Errard $^{16}$                  \\</v>
+        <v>Fran\c{c}ois Boulanger $^{9}$          \\</v>
       </c>
       <c r="K30">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="L30">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="M30" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">          </v>
       </c>
       <c r="O30" t="str">
         <f t="shared" si="4"/>
-        <v>16. Institut Lagrange, LPNHE,  Paris, France.  \\</v>
+        <v>9. Ecole Normale Superieure, Paris, France.  \\</v>
       </c>
     </row>
     <row r="31" spans="2:15">
-      <c r="B31" s="1" t="s">
-        <v>519</v>
+      <c r="B31" t="s">
+        <v>32</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31"/>
+        <v>33</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>423</v>
+      </c>
       <c r="E31" t="s">
-        <v>515</v>
+        <v>8</v>
       </c>
       <c r="F31">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>343</v>
+        <v>34</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="0"/>
-        <v>%Colin Hill $^{17}$                     \\</v>
+        <v>Blakesley Burkhart $^{31}$              \\</v>
       </c>
       <c r="K31">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L31">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M31" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">              </v>
       </c>
       <c r="O31" t="str">
         <f t="shared" si="4"/>
-        <v>17. Institute for Advanced Study, Princeton.  \\</v>
+        <v>31. Rutgers.  \\</v>
       </c>
     </row>
     <row r="32" spans="2:15">
       <c r="B32" t="s">
-        <v>37</v>
+        <v>170</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32"/>
+        <v>171</v>
+      </c>
+      <c r="D32" t="s">
+        <v>424</v>
+      </c>
       <c r="E32" t="s">
         <v>8</v>
       </c>
       <c r="F32">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G32" t="s">
-        <v>343</v>
+        <v>481</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="0"/>
-        <v>Susan E. Clark $^{17}$                  \\</v>
+        <v>Jens Chluba $^{21}$                     \\</v>
       </c>
       <c r="K32">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L32">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M32" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                     </v>
       </c>
       <c r="O32" t="str">
         <f t="shared" si="4"/>
-        <v>17. Institute for Advanced Study, Princeton.  \\</v>
+        <v>21. JBCA, University of Manchester.  \\</v>
       </c>
     </row>
     <row r="33" spans="2:15">
       <c r="B33" s="1" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>543</v>
       </c>
       <c r="F33">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="G33" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" si="0"/>
-        <v>Vera Gluscevic $^{17}$                  \\</v>
+        <v>David Chuss $^{50}$                     \\</v>
       </c>
       <c r="K33">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L33">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M33" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                     </v>
       </c>
       <c r="O33" t="str">
         <f t="shared" si="4"/>
-        <v>17. Institute for Advanced Study, Princeton.  \\</v>
+        <v>50. Villanova University.  \\</v>
       </c>
     </row>
     <row r="34" spans="2:15">
-      <c r="B34" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>466</v>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" t="s">
+        <v>535</v>
       </c>
       <c r="E34" t="s">
         <v>8</v>
@@ -3168,19 +3240,19 @@
       </c>
       <c r="I34" t="str">
         <f t="shared" si="0"/>
-        <v>Marcel Schmittfull $^{17}$              \\</v>
+        <v>Susan E. Clark $^{17}$                  \\</v>
       </c>
       <c r="K34">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M34" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">              </v>
+        <v xml:space="preserve">                  </v>
       </c>
       <c r="O34" t="str">
         <f t="shared" si="4"/>
@@ -3189,63 +3261,66 @@
     </row>
     <row r="35" spans="2:15">
       <c r="B35" s="1" t="s">
-        <v>17</v>
+        <v>362</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>18</v>
+        <v>363</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="E35" t="s">
         <v>8</v>
       </c>
       <c r="F35">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G35" t="s">
-        <v>500</v>
+        <v>110</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="0"/>
-        <v>Belen Barreiro $^{18}$                  \\</v>
+        <v>Joelle Cooperrider $^{22}$              \\</v>
       </c>
       <c r="K35">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L35">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M35" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">              </v>
       </c>
       <c r="O35" t="str">
         <f t="shared" si="4"/>
-        <v>18. Instituto de F\'isica de Cantabria (CSIC-Universidad de Cantabria), Spain.  \\</v>
+        <v>22. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
       </c>
     </row>
     <row r="36" spans="2:15">
-      <c r="B36" t="s">
-        <v>72</v>
+      <c r="B36" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>73</v>
+        <v>41</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>427</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>543</v>
       </c>
       <c r="F36">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G36" t="s">
-        <v>500</v>
+        <v>110</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" si="0"/>
-        <v>Diego Herranz $^{18}$                   \\</v>
+        <v>Brendan Crill $^{22}$                   \\</v>
       </c>
       <c r="K36">
         <f t="shared" si="1"/>
@@ -3261,59 +3336,59 @@
       </c>
       <c r="O36" t="str">
         <f t="shared" si="4"/>
-        <v>18. Instituto de F\'isica de Cantabria (CSIC-Universidad de Cantabria), Spain.  \\</v>
+        <v>22. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
       </c>
     </row>
     <row r="37" spans="2:15">
       <c r="B37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>413</v>
+        <v>43</v>
+      </c>
+      <c r="C37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" t="s">
+        <v>428</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>543</v>
       </c>
       <c r="F37">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>482</v>
+        <v>527</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" si="0"/>
-        <v>Jonathan Aumont $^{19}$                 \\</v>
+        <v>Jacques Delabrouille $^{1}$            \\</v>
       </c>
       <c r="K37">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L37">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="M37" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">            </v>
       </c>
       <c r="O37" t="str">
         <f t="shared" si="4"/>
-        <v>19. IRAP, Universit\'e de Toulouse, France.  \\</v>
+        <v>1. APC, Univ Paris Diderot, CNRS/IN2P3, CEA/lrfu, Obs de Paris, Sorbonne Paris Cité, France.  \\</v>
       </c>
     </row>
     <row r="38" spans="2:15">
       <c r="B38" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C38" t="s">
         <v>44</v>
       </c>
       <c r="D38"/>
       <c r="E38" t="s">
-        <v>515</v>
+        <v>543</v>
       </c>
       <c r="F38">
         <v>20</v>
@@ -3343,171 +3418,174 @@
       </c>
     </row>
     <row r="39" spans="2:15">
-      <c r="B39" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C39" t="s">
-        <v>101</v>
-      </c>
-      <c r="D39" t="s">
-        <v>456</v>
+      <c r="B39" t="s">
+        <v>494</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>536</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>366</v>
       </c>
       <c r="F39">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="G39" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="I39" t="str">
         <f t="shared" si="0"/>
-        <v>Jean-Baptiste Melin $^{20}$             \\</v>
+        <v>Mark  Devlin $^{47}$                    \\</v>
       </c>
       <c r="K39">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="L39">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M39" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">             </v>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="O39" t="str">
         <f t="shared" si="4"/>
-        <v>20. IRFU, CEA, University\'e Paris-Saclay, France.  \\</v>
+        <v>47. University of Pennsylvania.  \\</v>
       </c>
     </row>
     <row r="40" spans="2:15">
       <c r="B40" t="s">
-        <v>170</v>
-      </c>
-      <c r="C40" t="s">
-        <v>171</v>
-      </c>
-      <c r="D40" t="s">
-        <v>424</v>
+        <v>45</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>429</v>
       </c>
       <c r="E40" t="s">
         <v>8</v>
       </c>
       <c r="F40">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="G40" t="s">
-        <v>481</v>
+        <v>47</v>
       </c>
       <c r="I40" t="str">
         <f t="shared" si="0"/>
-        <v>Jens Chluba $^{21}$                     \\</v>
+        <v>Eleonora Di Valentino $^{43}$           \\</v>
       </c>
       <c r="K40">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="L40">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="M40" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">           </v>
       </c>
       <c r="O40" t="str">
         <f t="shared" si="4"/>
-        <v>21. JBCA, University of Manchester.  \\</v>
+        <v>43. University of Manchester.  \\</v>
       </c>
     </row>
     <row r="41" spans="2:15">
-      <c r="B41" t="s">
-        <v>522</v>
+      <c r="B41" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>20</v>
+        <v>49</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>430</v>
       </c>
       <c r="E41" t="s">
-        <v>515</v>
+        <v>8</v>
       </c>
       <c r="F41">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="G41" t="s">
-        <v>110</v>
+        <v>332</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" si="0"/>
-        <v>%James G. Bartlett $^{22}$              \\</v>
+        <v>Joy Didier $^{48}$                      \\</v>
       </c>
       <c r="K41">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L41">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M41" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">              </v>
+        <v xml:space="preserve">                      </v>
       </c>
       <c r="O41" t="str">
         <f t="shared" si="4"/>
-        <v>22. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
+        <v>48. University of Southern California.  \\</v>
       </c>
     </row>
     <row r="42" spans="2:15">
-      <c r="B42" t="s">
-        <v>163</v>
-      </c>
-      <c r="C42" t="s">
-        <v>164</v>
-      </c>
-      <c r="D42" t="s">
-        <v>418</v>
+      <c r="B42" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>537</v>
       </c>
       <c r="E42" t="s">
-        <v>8</v>
+        <v>515</v>
       </c>
       <c r="F42">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="G42" t="s">
-        <v>110</v>
+        <v>507</v>
       </c>
       <c r="I42" t="str">
         <f t="shared" si="0"/>
-        <v>Jamie Bock $^{22}$                      \\</v>
+        <v>%Scott Dodelson $^{5}$                 \\</v>
       </c>
       <c r="K42">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L42">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M42" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                      </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="O42" t="str">
         <f t="shared" si="4"/>
-        <v>22. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
+        <v>5. Carnegie Melon University.  \\</v>
       </c>
     </row>
     <row r="43" spans="2:15">
-      <c r="B43" s="1" t="s">
-        <v>362</v>
+      <c r="B43" t="s">
+        <v>50</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>363</v>
+        <v>304</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="E43" t="s">
         <v>8</v>
@@ -3520,19 +3598,19 @@
       </c>
       <c r="I43" t="str">
         <f t="shared" si="0"/>
-        <v>Joelle Cooperrider $^{22}$              \\</v>
+        <v>Olivier Dor\'e $^{22}$                  \\</v>
       </c>
       <c r="K43">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L43">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M43" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">              </v>
+        <v xml:space="preserve">                  </v>
       </c>
       <c r="O43" t="str">
         <f t="shared" si="4"/>
@@ -3541,66 +3619,66 @@
     </row>
     <row r="44" spans="2:15">
       <c r="B44" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>427</v>
+        <v>301</v>
+      </c>
+      <c r="C44" t="s">
+        <v>300</v>
+      </c>
+      <c r="D44" t="s">
+        <v>432</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>543</v>
       </c>
       <c r="F44">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="G44" t="s">
-        <v>110</v>
+        <v>485</v>
       </c>
       <c r="I44" t="str">
         <f t="shared" si="0"/>
-        <v>Brendan Crill $^{22}$                   \\</v>
+        <v>Alexander van Engelen $^{3}$           \\</v>
       </c>
       <c r="K44">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L44">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M44" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">           </v>
       </c>
       <c r="O44" t="str">
         <f t="shared" si="4"/>
-        <v>22. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
+        <v>3. Canadian Institute for Theoretical Astrophysics, University of Toronto, Canada.  \\</v>
       </c>
     </row>
     <row r="45" spans="2:15">
-      <c r="B45" t="s">
-        <v>50</v>
+      <c r="B45" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>304</v>
+        <v>52</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>
       </c>
       <c r="F45">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G45" t="s">
-        <v>110</v>
+        <v>486</v>
       </c>
       <c r="I45" t="str">
         <f t="shared" si="0"/>
-        <v>Olivier Dor\'e $^{22}$                  \\</v>
+        <v>Josquin Errard $^{16}$                  \\</v>
       </c>
       <c r="K45">
         <f t="shared" si="1"/>
@@ -3616,258 +3694,258 @@
       </c>
       <c r="O45" t="str">
         <f t="shared" si="4"/>
-        <v>22. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
+        <v>16. Institut Lagrange, LPNHE,  Paris, France.  \\</v>
       </c>
     </row>
     <row r="46" spans="2:15">
-      <c r="B46" s="1" t="s">
-        <v>66</v>
+      <c r="B46" t="s">
+        <v>53</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="E46" t="s">
         <v>8</v>
       </c>
       <c r="F46">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G46" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="I46" t="str">
         <f t="shared" si="0"/>
-        <v>Kris Gorski $^{22}$                     \\</v>
+        <v>Tom Essinger-Hileman $^{26}$            \\</v>
       </c>
       <c r="K46">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="L46">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="M46" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">            </v>
       </c>
       <c r="O46" t="str">
         <f t="shared" si="4"/>
-        <v>22. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
+        <v>26. NASA Goddard Space Flight Center.  \\</v>
       </c>
     </row>
     <row r="47" spans="2:15">
       <c r="B47" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C47" t="s">
-        <v>93</v>
+        <v>56</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D47" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="E47" t="s">
         <v>8</v>
       </c>
       <c r="F47">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G47" t="s">
-        <v>110</v>
+        <v>487</v>
       </c>
       <c r="I47" t="str">
         <f t="shared" si="0"/>
-        <v>Charles Lawrence $^{22}$                \\</v>
+        <v>Stephen Feeney $^{6}$                  \\</v>
       </c>
       <c r="K47">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L47">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M47" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                </v>
+        <v xml:space="preserve">                  </v>
       </c>
       <c r="O47" t="str">
         <f t="shared" si="4"/>
-        <v>22. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
+        <v>6. Center for Computational Astrophysics, Flatiron Institute.  \\</v>
       </c>
     </row>
     <row r="48" spans="2:15">
       <c r="B48" t="s">
-        <v>108</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>459</v>
+        <v>295</v>
+      </c>
+      <c r="C48" t="s">
+        <v>296</v>
+      </c>
+      <c r="D48" t="s">
+        <v>436</v>
       </c>
       <c r="E48" t="s">
         <v>8</v>
       </c>
       <c r="F48">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="G48" t="s">
-        <v>110</v>
+        <v>280</v>
       </c>
       <c r="I48" t="str">
         <f t="shared" si="0"/>
-        <v>Roger O'Brient $^{22}$                  \\</v>
+        <v>Jeffrey Filippini $^{42}$               \\</v>
       </c>
       <c r="K48">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L48">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M48" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">               </v>
       </c>
       <c r="O48" t="str">
         <f t="shared" si="4"/>
-        <v>22. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
+        <v>42. University of Illinois, Urbana-Champaign.  \\</v>
       </c>
     </row>
     <row r="49" spans="2:15">
-      <c r="B49" s="1" t="s">
-        <v>111</v>
+      <c r="B49" t="s">
+        <v>58</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>543</v>
       </c>
       <c r="F49">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G49" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="I49" t="str">
         <f t="shared" si="0"/>
-        <v>Chris Paine $^{22}$                     \\</v>
+        <v>Laura Fissel $^{28}$                    \\</v>
       </c>
       <c r="K49">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L49">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M49" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="O49" t="str">
         <f t="shared" si="4"/>
-        <v>22. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
+        <v>28. National Radio Astronomy Observatory.  \\</v>
       </c>
     </row>
     <row r="50" spans="2:15">
       <c r="B50" t="s">
-        <v>122</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>465</v>
+        <v>61</v>
+      </c>
+      <c r="C50" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" t="s">
+        <v>438</v>
       </c>
       <c r="E50" t="s">
-        <v>8</v>
+        <v>543</v>
       </c>
       <c r="F50">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>110</v>
+        <v>488</v>
       </c>
       <c r="I50" t="str">
         <f t="shared" si="0"/>
-        <v>Graca Rocha $^{22}$                     \\</v>
+        <v>Raphael Flauger $^{41}$                 \\</v>
       </c>
       <c r="K50">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L50">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M50" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="O50" t="str">
         <f t="shared" si="4"/>
-        <v>22. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
+        <v>41. University of California, San Diego.  \\</v>
       </c>
     </row>
     <row r="51" spans="2:15">
       <c r="B51" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C51" t="s">
-        <v>130</v>
-      </c>
-      <c r="D51" t="s">
-        <v>468</v>
+        <v>64</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>439</v>
       </c>
       <c r="E51" t="s">
         <v>8</v>
       </c>
       <c r="F51">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G51" t="s">
-        <v>110</v>
+        <v>343</v>
       </c>
       <c r="I51" t="str">
         <f t="shared" si="0"/>
-        <v>Brian Sutin $^{22}$                     \\</v>
+        <v>Vera Gluscevic $^{17}$                  \\</v>
       </c>
       <c r="K51">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L51">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M51" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                  </v>
       </c>
       <c r="O51" t="str">
         <f t="shared" si="4"/>
-        <v>22. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
+        <v>17. Institute for Advanced Study, Princeton.  \\</v>
       </c>
     </row>
     <row r="52" spans="2:15">
       <c r="B52" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C52" t="s">
-        <v>135</v>
-      </c>
-      <c r="D52" t="s">
-        <v>470</v>
+        <v>66</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>440</v>
       </c>
       <c r="E52" t="s">
         <v>8</v>
@@ -3880,19 +3958,19 @@
       </c>
       <c r="I52" t="str">
         <f t="shared" si="0"/>
-        <v>Amy Trangsrud $^{22}$                   \\</v>
+        <v>Kris Gorski $^{22}$                     \\</v>
       </c>
       <c r="K52">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L52">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M52" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">                     </v>
       </c>
       <c r="O52" t="str">
         <f t="shared" si="4"/>
@@ -3900,312 +3978,321 @@
       </c>
     </row>
     <row r="53" spans="2:15">
-      <c r="B53" t="s">
-        <v>364</v>
+      <c r="B53" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>365</v>
+        <v>69</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>441</v>
       </c>
       <c r="E53" t="s">
-        <v>366</v>
+        <v>543</v>
       </c>
       <c r="F53">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="G53" t="s">
-        <v>110</v>
+        <v>337</v>
       </c>
       <c r="I53" t="str">
         <f t="shared" si="0"/>
-        <v>Jeff Booth $^{22}$                      \\</v>
+        <v>Dan Green $^{39}$                       \\</v>
       </c>
       <c r="K53">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L53">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M53" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                      </v>
+        <v xml:space="preserve">                       </v>
       </c>
       <c r="O53" t="str">
         <f t="shared" si="4"/>
-        <v>22. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
+        <v>39. University of California, Berkeley.  \\</v>
       </c>
     </row>
     <row r="54" spans="2:15">
       <c r="B54" s="1" t="s">
-        <v>322</v>
+        <v>411</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>419</v>
+        <v>412</v>
+      </c>
+      <c r="D54" t="s">
+        <v>442</v>
       </c>
       <c r="E54" t="s">
-        <v>8</v>
+        <v>543</v>
       </c>
       <c r="F54">
-        <v>23</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>201</v>
+        <v>45</v>
+      </c>
+      <c r="G54" t="s">
+        <v>410</v>
       </c>
       <c r="I54" t="str">
         <f t="shared" si="0"/>
-        <v>Kimberly K. Boddy $^{23}$               \\</v>
+        <v>Shaul Hanany $^{45}$                    \\</v>
       </c>
       <c r="K54">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L54">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M54" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">               </v>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="O54" t="str">
         <f t="shared" si="4"/>
-        <v>23. Johns Hopkins University.  \\</v>
+        <v>45. University of Minnesota - Twin Cities.  \\</v>
       </c>
     </row>
     <row r="55" spans="2:15">
       <c r="B55" s="1" t="s">
-        <v>509</v>
+        <v>70</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>504</v>
+        <v>71</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>443</v>
       </c>
       <c r="E55" t="s">
-        <v>516</v>
+        <v>8</v>
       </c>
       <c r="F55">
-        <v>23</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>201</v>
+        <v>30</v>
+      </c>
+      <c r="G55" t="s">
+        <v>87</v>
       </c>
       <c r="I55" t="str">
         <f t="shared" si="0"/>
-        <v>%Charles Bennett $^{23}$                \\</v>
+        <v>Brandon Hensley $^{30}$                 \\</v>
       </c>
       <c r="K55">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L55">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M55" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="O55" t="str">
         <f t="shared" si="4"/>
-        <v>23. Johns Hopkins University.  \\</v>
+        <v>30. Princeton University.  \\</v>
       </c>
     </row>
     <row r="56" spans="2:15">
-      <c r="B56" s="1" t="s">
-        <v>29</v>
+      <c r="B56" t="s">
+        <v>72</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>421</v>
+        <v>538</v>
       </c>
       <c r="E56" t="s">
         <v>8</v>
       </c>
       <c r="F56">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G56" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="I56" t="str">
         <f t="shared" si="0"/>
-        <v>Julian Borrill $^{24}$                  \\</v>
+        <v>Diego Herranz $^{18}$                   \\</v>
       </c>
       <c r="K56">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L56">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M56" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                   </v>
       </c>
       <c r="O56" t="str">
         <f t="shared" si="4"/>
-        <v>24. Lawrence Berkeley National Laboratory.  \\</v>
+        <v>18. Instituto de F\'isica de Cantabria (CSIC-Universidad de Cantabria), Spain.  \\</v>
       </c>
     </row>
     <row r="57" spans="2:15">
-      <c r="B57" t="s">
-        <v>512</v>
+      <c r="B57" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>10</v>
+        <v>76</v>
+      </c>
+      <c r="D57" t="s">
+        <v>444</v>
       </c>
       <c r="E57" t="s">
-        <v>515</v>
+        <v>543</v>
       </c>
       <c r="F57">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="G57" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="I57" t="str">
         <f t="shared" si="0"/>
-        <v>%Peter Ashton $^{24}$                   \\</v>
+        <v>Colin Hill $^{6}$                      \\</v>
       </c>
       <c r="K57">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L57">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M57" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">                      </v>
       </c>
       <c r="O57" t="str">
         <f t="shared" si="4"/>
-        <v>24. Lawrence Berkeley National Laboratory.  \\</v>
+        <v>6. Center for Computational Astrophysics, Flatiron Institute.  \\</v>
       </c>
     </row>
     <row r="58" spans="2:15">
       <c r="B58" s="1" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" s="7"/>
+        <v>76</v>
+      </c>
+      <c r="D58"/>
       <c r="E58" t="s">
-        <v>515</v>
+        <v>543</v>
       </c>
       <c r="F58">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G58" t="s">
-        <v>511</v>
+        <v>343</v>
       </c>
       <c r="I58" t="str">
         <f t="shared" si="0"/>
-        <v>%Marcelo Alvarez $^{24}$                \\</v>
+        <v>%Colin Hill $^{17}$                     \\</v>
       </c>
       <c r="K58">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L58">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M58" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                </v>
+        <v xml:space="preserve">                     </v>
       </c>
       <c r="O58" t="str">
         <f t="shared" si="4"/>
-        <v>24. Lawrence Berkeley National Laboratory.  \\</v>
+        <v>17. Institute for Advanced Study, Princeton.  \\</v>
       </c>
     </row>
     <row r="59" spans="2:15">
       <c r="B59" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E59" t="s">
         <v>8</v>
       </c>
       <c r="F59">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G59" t="s">
-        <v>55</v>
+        <v>480</v>
       </c>
       <c r="I59" t="str">
         <f t="shared" si="0"/>
-        <v>Tom Essinger-Hileman $^{25}$            \\</v>
+        <v>Eric Hivon $^{14}$                      \\</v>
       </c>
       <c r="K59">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L59">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M59" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                      </v>
       </c>
       <c r="O59" t="str">
         <f t="shared" si="4"/>
-        <v>25. NASA Goddard Space Flight Center.  \\</v>
+        <v>14. Institut d'Astrophysique de Paris, France.  \\</v>
       </c>
     </row>
     <row r="60" spans="2:15">
       <c r="B60" s="1" t="s">
-        <v>90</v>
+        <v>323</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>91</v>
+        <v>324</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="E60" t="s">
         <v>8</v>
       </c>
       <c r="F60">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G60" t="s">
-        <v>55</v>
+        <v>491</v>
       </c>
       <c r="I60" t="str">
         <f t="shared" si="0"/>
-        <v>Al Kogut $^{25}$                        \\</v>
+        <v>Ren\'{e}e  Hlo\v{z}ek $^{8}$           \\</v>
       </c>
       <c r="K60">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="L60">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="M60" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                        </v>
+        <v xml:space="preserve">           </v>
       </c>
       <c r="O60" t="str">
         <f t="shared" si="4"/>
-        <v>25. NASA Goddard Space Flight Center.  \\</v>
+        <v>8. Department of Astronomy \&amp; Astrophysics and Dunlap Institute, University of Toronto, Canada.  \\</v>
       </c>
     </row>
     <row r="61" spans="2:15">
@@ -4219,17 +4306,17 @@
         <v>447</v>
       </c>
       <c r="E61" t="s">
-        <v>8</v>
+        <v>543</v>
       </c>
       <c r="F61">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G61" t="s">
         <v>489</v>
       </c>
       <c r="I61" t="str">
         <f t="shared" si="0"/>
-        <v>Johannes Hubmayr $^{26}$                \\</v>
+        <v>Johannes Hubmayr $^{27}$                \\</v>
       </c>
       <c r="K61">
         <f t="shared" si="1"/>
@@ -4245,31 +4332,31 @@
       </c>
       <c r="O61" t="str">
         <f t="shared" si="4"/>
-        <v>26. National Institute of Standards and Technology.  \\</v>
+        <v>27. National Institute of Standards and Technology.  \\</v>
       </c>
     </row>
     <row r="62" spans="2:15">
       <c r="B62" t="s">
-        <v>58</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>437</v>
+        <v>83</v>
+      </c>
+      <c r="C62" t="s">
+        <v>84</v>
+      </c>
+      <c r="D62" t="s">
+        <v>448</v>
       </c>
       <c r="E62" t="s">
         <v>8</v>
       </c>
       <c r="F62">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G62" t="s">
-        <v>60</v>
+        <v>373</v>
       </c>
       <c r="I62" t="str">
         <f t="shared" si="0"/>
-        <v>Laura Fissel $^{27}$                    \\</v>
+        <v>Brad Johnson $^{7}$                    \\</v>
       </c>
       <c r="K62">
         <f t="shared" si="1"/>
@@ -4285,1179 +4372,1186 @@
       </c>
       <c r="O62" t="str">
         <f t="shared" si="4"/>
-        <v>27. National Radio Astronomy Observatory.  \\</v>
+        <v>7. Columbia University.  \\</v>
       </c>
     </row>
     <row r="63" spans="2:15">
       <c r="B63" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C63" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="D63" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E63" t="s">
-        <v>8</v>
+        <v>543</v>
       </c>
       <c r="F63">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="I63" t="str">
         <f t="shared" si="0"/>
-        <v>Giles Novak $^{28}$                     \\</v>
+        <v>William Jones $^{30}$                   \\</v>
       </c>
       <c r="K63">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L63">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M63" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                   </v>
       </c>
       <c r="O63" t="str">
         <f t="shared" si="4"/>
-        <v>28. Northwestern University.  \\</v>
+        <v>30. Princeton University.  \\</v>
       </c>
     </row>
     <row r="64" spans="2:15">
-      <c r="B64" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C64" t="s">
-        <v>24</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>370</v>
+      <c r="B64" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="E64" t="s">
         <v>8</v>
       </c>
       <c r="F64">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G64" t="s">
-        <v>87</v>
+        <v>410</v>
       </c>
       <c r="I64" t="str">
         <f t="shared" si="0"/>
-        <v>Nick Battaglia $^{29}$                  \\</v>
+        <v>Terry Jones $^{45}$                     \\</v>
       </c>
       <c r="K64">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L64">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M64" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">                     </v>
       </c>
       <c r="O64" t="str">
         <f t="shared" si="4"/>
-        <v>29. Princeton University.  \\</v>
+        <v>45. University of Minnesota - Twin Cities.  \\</v>
       </c>
     </row>
     <row r="65" spans="2:15">
       <c r="B65" s="1" t="s">
-        <v>70</v>
+        <v>307</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="E65" t="s">
-        <v>8</v>
+        <v>543</v>
       </c>
       <c r="F65">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G65" t="s">
-        <v>87</v>
+        <v>490</v>
       </c>
       <c r="I65" t="str">
         <f t="shared" si="0"/>
-        <v>Brandon Hensley $^{29}$                 \\</v>
+        <v>Lloyd Knox $^{40}$                      \\</v>
       </c>
       <c r="K65">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L65">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M65" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">                      </v>
       </c>
       <c r="O65" t="str">
         <f t="shared" si="4"/>
-        <v>29. Princeton University.  \\</v>
+        <v>40. University of California, Davis.  \\</v>
       </c>
     </row>
     <row r="66" spans="2:15">
-      <c r="B66" t="s">
-        <v>85</v>
-      </c>
-      <c r="C66" t="s">
-        <v>86</v>
-      </c>
-      <c r="D66" t="s">
-        <v>449</v>
+      <c r="B66" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>452</v>
       </c>
       <c r="E66" t="s">
-        <v>8</v>
+        <v>543</v>
       </c>
       <c r="F66">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G66" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="I66" t="str">
         <f t="shared" si="0"/>
-        <v>William Jones $^{29}$                   \\</v>
+        <v>Al Kogut $^{26}$                        \\</v>
       </c>
       <c r="K66">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L66">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M66" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">                        </v>
       </c>
       <c r="O66" t="str">
         <f t="shared" si="4"/>
-        <v>29. Princeton University.  \\</v>
+        <v>26. NASA Goddard Space Flight Center.  \\</v>
       </c>
     </row>
     <row r="67" spans="2:15">
-      <c r="B67" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>506</v>
-      </c>
+      <c r="B67" t="s">
+        <v>287</v>
+      </c>
+      <c r="C67" t="s">
+        <v>306</v>
+      </c>
+      <c r="D67"/>
       <c r="E67" t="s">
-        <v>516</v>
+        <v>8</v>
       </c>
       <c r="F67">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G67" t="s">
-        <v>87</v>
+        <v>275</v>
       </c>
       <c r="I67" t="str">
         <f t="shared" si="0"/>
-        <v>%Lyman Page $^{29}$                     \\</v>
+        <v>Marcos L\'{o}pez-Caniego $^{10}$        \\</v>
       </c>
       <c r="K67">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="L67">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="M67" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">        </v>
       </c>
       <c r="O67" t="str">
         <f t="shared" si="4"/>
-        <v>29. Princeton University.  \\</v>
+        <v>10. European Space Astronomy Centre.  \\</v>
       </c>
     </row>
     <row r="68" spans="2:15">
-      <c r="B68" t="s">
-        <v>32</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>423</v>
+      <c r="B68" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C68" t="s">
+        <v>93</v>
+      </c>
+      <c r="D68" t="s">
+        <v>453</v>
       </c>
       <c r="E68" t="s">
-        <v>8</v>
+        <v>543</v>
       </c>
       <c r="F68">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G68" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="I68" t="str">
         <f t="shared" si="0"/>
-        <v>Blakesley Burkhart $^{30}$              \\</v>
+        <v>Charles Lawrence $^{22}$                \\</v>
       </c>
       <c r="K68">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L68">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M68" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">              </v>
+        <v xml:space="preserve">                </v>
       </c>
       <c r="O68" t="str">
         <f t="shared" si="4"/>
-        <v>30. Rutgers.  \\</v>
+        <v>22. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
       </c>
     </row>
     <row r="69" spans="2:15">
-      <c r="B69" s="3" t="s">
-        <v>146</v>
+      <c r="B69" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="C69" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="D69" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="E69" t="s">
         <v>8</v>
       </c>
       <c r="F69">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G69" t="s">
-        <v>493</v>
+        <v>340</v>
       </c>
       <c r="I69" t="str">
         <f t="shared" si="0"/>
-        <v>Andrea Zonca $^{31}$                    \\</v>
+        <v>Alex Lazarian $^{49}$                   \\</v>
       </c>
       <c r="K69">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L69">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M69" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">                   </v>
       </c>
       <c r="O69" t="str">
         <f t="shared" si="4"/>
-        <v>31. San Diego Supercomputer Center, University of California San Diego.  \\</v>
+        <v>49. University of Wisconsin - Madison.  \\</v>
       </c>
     </row>
     <row r="70" spans="2:15">
       <c r="B70" s="1" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="C70" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="D70" t="s">
-        <v>417</v>
+        <v>455</v>
       </c>
       <c r="E70" t="s">
         <v>8</v>
       </c>
       <c r="F70">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>483</v>
+        <v>87</v>
       </c>
       <c r="I70" t="str">
         <f t="shared" si="0"/>
-        <v>Soumen Basak $^{32}$                    \\</v>
+        <v>Zack Li $^{30}$                         \\</v>
       </c>
       <c r="K70">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L70">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M70" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">                         </v>
       </c>
       <c r="O70" t="str">
         <f t="shared" si="4"/>
-        <v>32. School of Physics, Indian Institute of Science Education and Research Thiruvananthapuram,  India.  \\</v>
+        <v>30. Princeton University.  \\</v>
       </c>
     </row>
     <row r="71" spans="2:15">
-      <c r="B71" t="s">
-        <v>115</v>
-      </c>
-      <c r="C71" t="s">
-        <v>116</v>
-      </c>
-      <c r="D71" t="s">
-        <v>462</v>
+      <c r="B71" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>539</v>
       </c>
       <c r="E71" t="s">
         <v>8</v>
       </c>
       <c r="F71">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G71" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="I71" t="str">
         <f t="shared" si="0"/>
-        <v>Levon Pogosian $^{33}$                  \\</v>
+        <v>Mathew Madhavacheril $^{30}$            \\</v>
       </c>
       <c r="K71">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L71">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M71" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">            </v>
       </c>
       <c r="O71" t="str">
         <f t="shared" si="4"/>
-        <v>33. Simon Fraser University.  \\</v>
+        <v>30. Princeton University.  \\</v>
       </c>
     </row>
     <row r="72" spans="2:15">
-      <c r="B72" s="1" t="s">
-        <v>517</v>
+      <c r="B72" t="s">
+        <v>364</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>30</v>
+        <v>497</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>514</v>
       </c>
       <c r="E72" t="s">
-        <v>515</v>
+        <v>366</v>
       </c>
       <c r="F72">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G72" t="s">
-        <v>518</v>
+        <v>498</v>
       </c>
       <c r="I72" t="str">
         <f t="shared" si="0"/>
-        <v>%Julian Borrill $^{34}$                 \\</v>
+        <v>Jeff McMahon $^{44}$                    \\</v>
       </c>
       <c r="K72">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L72">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M72" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="O72" t="str">
         <f t="shared" si="4"/>
-        <v>34. Space Sciences Laboratory, University of California, Berkeley.  \\</v>
+        <v>44. University of Michigan.  \\</v>
       </c>
     </row>
     <row r="73" spans="2:15">
-      <c r="B73" t="s">
-        <v>131</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>469</v>
+      <c r="B73" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C73" t="s">
+        <v>101</v>
+      </c>
+      <c r="D73" t="s">
+        <v>456</v>
       </c>
       <c r="E73" t="s">
         <v>8</v>
       </c>
       <c r="F73">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G73" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="I73" t="str">
         <f t="shared" si="0"/>
-        <v>Maurizio Tomasi $^{35}$                 \\</v>
+        <v>Jean-Baptiste Melin $^{20}$             \\</v>
       </c>
       <c r="K73">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L73">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M73" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">             </v>
       </c>
       <c r="O73" t="str">
         <f t="shared" si="4"/>
-        <v>35. Universit\`a degli studi di Milano.  \\</v>
+        <v>20. IRFU, CEA, University\'e Paris-Saclay, France.  \\</v>
       </c>
     </row>
     <row r="74" spans="2:15">
-      <c r="B74" s="1" t="s">
-        <v>309</v>
+      <c r="B74" s="3" t="s">
+        <v>525</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>467</v>
+        <v>526</v>
+      </c>
+      <c r="D74" t="s">
+        <v>529</v>
       </c>
       <c r="E74" t="s">
         <v>8</v>
       </c>
       <c r="F74">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="G74" t="s">
-        <v>344</v>
+        <v>527</v>
       </c>
       <c r="I74" t="str">
         <f t="shared" si="0"/>
-        <v>Douglas Scott $^{36}$                   \\</v>
+        <v>Calum Murray $^{1}$                    \\</v>
       </c>
       <c r="K74">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L74">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M74" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="O74" t="str">
         <f t="shared" si="4"/>
-        <v>36. University of British Columbia, Canada.  \\</v>
+        <v>1. APC, Univ Paris Diderot, CNRS/IN2P3, CEA/lrfu, Obs de Paris, Sorbonne Paris Cité, France.  \\</v>
       </c>
     </row>
     <row r="75" spans="2:15">
-      <c r="B75" s="1" t="s">
-        <v>68</v>
+      <c r="B75" t="s">
+        <v>102</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="E75" t="s">
         <v>8</v>
       </c>
       <c r="F75">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="G75" t="s">
-        <v>337</v>
+        <v>104</v>
       </c>
       <c r="I75" t="str">
-        <f t="shared" ref="I75:I96" si="5">CONCATENATE(B75," ",C75, " $^{", F75,"}$", M75,"\\")</f>
-        <v>Dan Green $^{37}$                       \\</v>
+        <f t="shared" ref="I75:I94" si="5">CONCATENATE(B75," ",C75, " $^{", F75,"}$", M75,"\\")</f>
+        <v>Mattia Negrello $^{4}$                 \\</v>
       </c>
       <c r="K75">
-        <f t="shared" ref="K75:K96" si="6">LEN(B75) + LEN(C75) +1</f>
-        <v>9</v>
+        <f t="shared" ref="K75:K94" si="6">LEN(B75) + LEN(C75) +1</f>
+        <v>15</v>
       </c>
       <c r="L75">
-        <f t="shared" ref="L75:L96" si="7">IF(K75&lt;30,(32-K75),3)</f>
-        <v>23</v>
+        <f t="shared" ref="L75:L98" si="7">IF(K75&lt;30,(32-K75),3)</f>
+        <v>17</v>
       </c>
       <c r="M75" t="str">
-        <f t="shared" ref="M75:M96" si="8">REPT(" ",L75)</f>
-        <v xml:space="preserve">                       </v>
+        <f t="shared" ref="M75:M98" si="8">REPT(" ",L75)</f>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="O75" t="str">
-        <f t="shared" ref="O75:O96" si="9">CONCATENATE(F75, ". ", G75, ".  \\")</f>
-        <v>37. University of California, Berkeley.  \\</v>
+        <f t="shared" ref="O75:O94" si="9">CONCATENATE(F75, ". ", G75, ".  \\")</f>
+        <v>4. Cardiff University School of Physics and Astronomy.  \\</v>
       </c>
     </row>
     <row r="76" spans="2:15">
       <c r="B76" t="s">
-        <v>9</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>10</v>
+        <v>105</v>
+      </c>
+      <c r="C76" t="s">
+        <v>106</v>
+      </c>
+      <c r="D76" t="s">
+        <v>458</v>
       </c>
       <c r="E76" t="s">
         <v>8</v>
       </c>
       <c r="F76">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G76" t="s">
-        <v>337</v>
+        <v>107</v>
       </c>
       <c r="I76" t="str">
         <f t="shared" si="5"/>
-        <v>Peter Ashton $^{38}$                    \\</v>
+        <v>Giles Novak $^{29}$                     \\</v>
       </c>
       <c r="K76">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L76">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M76" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">                     </v>
       </c>
       <c r="O76" t="str">
         <f t="shared" si="9"/>
-        <v>38. University of California, Berkeley.  \\</v>
+        <v>29. Northwestern University.  \\</v>
       </c>
     </row>
     <row r="77" spans="2:15">
-      <c r="B77" s="1" t="s">
-        <v>6</v>
+      <c r="B77" t="s">
+        <v>108</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>369</v>
+        <v>109</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>459</v>
       </c>
       <c r="E77" t="s">
         <v>8</v>
       </c>
       <c r="F77">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="G77" t="s">
-        <v>337</v>
+        <v>110</v>
       </c>
       <c r="I77" t="str">
         <f t="shared" si="5"/>
-        <v>Marcelo Alvarez $^{38}$                 \\</v>
+        <v>Roger O'Brient $^{22}$                  \\</v>
       </c>
       <c r="K77">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L77">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M77" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">                  </v>
       </c>
       <c r="O77" t="str">
         <f t="shared" si="9"/>
-        <v>38. University of California, Berkeley.  \\</v>
+        <v>22. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
       </c>
     </row>
     <row r="78" spans="2:15">
       <c r="B78" s="1" t="s">
-        <v>307</v>
+        <v>510</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>89</v>
+        <v>506</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>451</v>
+        <v>540</v>
       </c>
       <c r="E78" t="s">
-        <v>8</v>
+        <v>515</v>
       </c>
       <c r="F78">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>490</v>
+        <v>87</v>
       </c>
       <c r="I78" t="str">
         <f t="shared" si="5"/>
-        <v>Lloyd Knox $^{39}$                      \\</v>
+        <v>%Lyman Page $^{30}$                     \\</v>
       </c>
       <c r="K78">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L78">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M78" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">                      </v>
+        <v xml:space="preserve">                     </v>
       </c>
       <c r="O78" t="str">
         <f t="shared" si="9"/>
-        <v>39. University of California, Davis.  \\</v>
+        <v>30. Princeton University.  \\</v>
       </c>
     </row>
     <row r="79" spans="2:15">
-      <c r="B79" t="s">
-        <v>61</v>
-      </c>
-      <c r="C79" t="s">
-        <v>62</v>
-      </c>
-      <c r="D79" t="s">
-        <v>438</v>
+      <c r="B79" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>460</v>
       </c>
       <c r="E79" t="s">
         <v>8</v>
       </c>
       <c r="F79">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="G79" t="s">
-        <v>488</v>
+        <v>110</v>
       </c>
       <c r="I79" t="str">
         <f t="shared" si="5"/>
-        <v>Raphael Flauger $^{40}$                 \\</v>
+        <v>Chris Paine $^{22}$                     \\</v>
       </c>
       <c r="K79">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L79">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M79" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">                     </v>
       </c>
       <c r="O79" t="str">
         <f t="shared" si="9"/>
-        <v>40. University of California, San Diego.  \\</v>
+        <v>22. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
       </c>
     </row>
     <row r="80" spans="2:15">
-      <c r="B80" t="s">
-        <v>295</v>
-      </c>
-      <c r="C80" t="s">
-        <v>296</v>
-      </c>
-      <c r="D80" t="s">
-        <v>436</v>
+      <c r="B80" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="E80" t="s">
-        <v>8</v>
+        <v>543</v>
       </c>
       <c r="F80">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="G80" t="s">
-        <v>280</v>
+        <v>223</v>
       </c>
       <c r="I80" t="str">
         <f t="shared" si="5"/>
-        <v>Jeffrey Filippini $^{41}$               \\</v>
+        <v>Tim Pearson $^{2}$                     \\</v>
       </c>
       <c r="K80">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L80">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M80" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">               </v>
+        <v xml:space="preserve">                     </v>
       </c>
       <c r="O80" t="str">
         <f t="shared" si="9"/>
-        <v>41. University of Illinois, Urbana-Champaign.  \\</v>
+        <v>2. California Institute of Technology.  \\</v>
       </c>
     </row>
     <row r="81" spans="2:15">
       <c r="B81" t="s">
-        <v>45</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>429</v>
+        <v>115</v>
+      </c>
+      <c r="C81" t="s">
+        <v>116</v>
+      </c>
+      <c r="D81" t="s">
+        <v>462</v>
       </c>
       <c r="E81" t="s">
         <v>8</v>
       </c>
       <c r="F81">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G81" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="I81" t="str">
         <f t="shared" si="5"/>
-        <v>Eleonora Di Valentino $^{42}$           \\</v>
+        <v>Levon Pogosian $^{34}$                  \\</v>
       </c>
       <c r="K81">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="L81">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="M81" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">           </v>
+        <v xml:space="preserve">                  </v>
       </c>
       <c r="O81" t="str">
         <f t="shared" si="9"/>
-        <v>42. University of Manchester.  \\</v>
+        <v>34. Simon Fraser University.  \\</v>
       </c>
     </row>
     <row r="82" spans="2:15">
-      <c r="B82" t="s">
-        <v>120</v>
+      <c r="B82" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E82" t="s">
-        <v>8</v>
+        <v>543</v>
       </c>
       <c r="F82">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G82" t="s">
-        <v>47</v>
+        <v>410</v>
       </c>
       <c r="I82" t="str">
         <f t="shared" si="5"/>
-        <v>Mathieu Remazeilles $^{42}$             \\</v>
+        <v>Clem Pryke $^{45}$                      \\</v>
       </c>
       <c r="K82">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="L82">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M82" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">             </v>
+        <v xml:space="preserve">                      </v>
       </c>
       <c r="O82" t="str">
         <f t="shared" si="9"/>
-        <v>42. University of Manchester.  \\</v>
+        <v>45. University of Minnesota - Twin Cities.  \\</v>
       </c>
     </row>
     <row r="83" spans="2:15">
       <c r="B83" t="s">
-        <v>364</v>
+        <v>522</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>514</v>
+        <v>238</v>
       </c>
       <c r="E83" t="s">
-        <v>366</v>
+        <v>8</v>
       </c>
       <c r="F83">
-        <v>43</v>
-      </c>
-      <c r="G83" t="s">
-        <v>498</v>
+        <v>24</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>521</v>
       </c>
       <c r="I83" t="str">
         <f t="shared" si="5"/>
-        <v>Jeff McMahon $^{43}$                    \\</v>
+        <v>%Giuseppe Puglisi $^{24}$               \\</v>
       </c>
       <c r="K83">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L83">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M83" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">               </v>
       </c>
       <c r="O83" t="str">
         <f t="shared" si="9"/>
-        <v>43. University of Michigan.  \\</v>
+        <v>24. Kavli Institute for Particle Astrophysics and Cosmology.  \\</v>
       </c>
     </row>
     <row r="84" spans="2:15">
-      <c r="B84" s="1" t="s">
-        <v>411</v>
+      <c r="B84" t="s">
+        <v>237</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="D84" t="s">
-        <v>442</v>
+        <v>238</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>530</v>
       </c>
       <c r="E84" t="s">
         <v>8</v>
       </c>
       <c r="F84">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G84" t="s">
-        <v>410</v>
+        <v>236</v>
       </c>
       <c r="I84" t="str">
         <f t="shared" si="5"/>
-        <v>Shaul Hanany $^{44}$                    \\</v>
+        <v>Giuseppe Puglisi $^{36}$                \\</v>
       </c>
       <c r="K84">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L84">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M84" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">                </v>
       </c>
       <c r="O84" t="str">
         <f t="shared" si="9"/>
-        <v>44. University of Minnesota - Twin Cities.  \\</v>
+        <v>36. Stanford University.  \\</v>
       </c>
     </row>
     <row r="85" spans="2:15">
       <c r="B85" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="E85" t="s">
         <v>8</v>
       </c>
       <c r="F85">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G85" t="s">
-        <v>410</v>
+        <v>47</v>
       </c>
       <c r="I85" t="str">
         <f t="shared" si="5"/>
-        <v>Terry Jones $^{44}$                     \\</v>
+        <v>Mathieu Remazeilles $^{43}$             \\</v>
       </c>
       <c r="K85">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L85">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M85" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">             </v>
       </c>
       <c r="O85" t="str">
         <f t="shared" si="9"/>
-        <v>44. University of Minnesota - Twin Cities.  \\</v>
+        <v>43. University of Manchester.  \\</v>
       </c>
     </row>
     <row r="86" spans="2:15">
-      <c r="B86" s="1" t="s">
-        <v>118</v>
+      <c r="B86" t="s">
+        <v>122</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E86" t="s">
         <v>8</v>
       </c>
       <c r="F86">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="G86" t="s">
-        <v>410</v>
+        <v>110</v>
       </c>
       <c r="I86" t="str">
         <f t="shared" si="5"/>
-        <v>Clem Pryke $^{44}$                      \\</v>
+        <v>Graca Rocha $^{22}$                     \\</v>
       </c>
       <c r="K86">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L86">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M86" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">                      </v>
+        <v xml:space="preserve">                     </v>
       </c>
       <c r="O86" t="str">
         <f t="shared" si="9"/>
-        <v>44. University of Minnesota - Twin Cities.  \\</v>
+        <v>22. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
       </c>
     </row>
     <row r="87" spans="2:15">
-      <c r="B87" t="s">
-        <v>138</v>
+      <c r="B87" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E87" t="s">
-        <v>8</v>
+        <v>543</v>
       </c>
       <c r="F87">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="G87" t="s">
-        <v>410</v>
+        <v>343</v>
       </c>
       <c r="I87" t="str">
         <f t="shared" si="5"/>
-        <v>Qi Wen $^{44}$                          \\</v>
+        <v>Marcel Schmittfull $^{17}$              \\</v>
       </c>
       <c r="K87">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="L87">
         <f t="shared" si="7"/>
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M87" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">                          </v>
+        <v xml:space="preserve">              </v>
       </c>
       <c r="O87" t="str">
         <f t="shared" si="9"/>
-        <v>44. University of Minnesota - Twin Cities.  \\</v>
+        <v>17. Institute for Advanced Study, Princeton.  \\</v>
       </c>
     </row>
     <row r="88" spans="2:15">
-      <c r="B88" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C88" t="s">
-        <v>145</v>
-      </c>
-      <c r="D88" t="s">
-        <v>473</v>
+      <c r="B88" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="E88" t="s">
         <v>8</v>
       </c>
       <c r="F88">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G88" t="s">
-        <v>410</v>
+        <v>344</v>
       </c>
       <c r="I88" t="str">
         <f t="shared" si="5"/>
-        <v>Karl Young $^{44}$                      \\</v>
+        <v>Douglas Scott $^{38}$                   \\</v>
       </c>
       <c r="K88">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L88">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M88" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">                      </v>
+        <v xml:space="preserve">                   </v>
       </c>
       <c r="O88" t="str">
         <f t="shared" si="9"/>
-        <v>44. University of Minnesota - Twin Cities.  \\</v>
+        <v>38. University of British Columbia, Canada.  \\</v>
       </c>
     </row>
     <row r="89" spans="2:15">
-      <c r="B89" s="1" t="s">
-        <v>15</v>
+      <c r="B89" t="s">
+        <v>126</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>414</v>
+        <v>541</v>
       </c>
       <c r="E89" t="s">
         <v>8</v>
       </c>
       <c r="F89">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G89" t="s">
-        <v>479</v>
+        <v>128</v>
       </c>
       <c r="I89" t="str">
         <f t="shared" si="5"/>
-        <v>Ranajoy Banerji $^{45}$                 \\</v>
+        <v>Ian Stephens $^{11}$                    \\</v>
       </c>
       <c r="K89">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L89">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M89" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="O89" t="str">
         <f t="shared" si="9"/>
-        <v>45. University of Oslo, Norway.  \\</v>
+        <v>11. Harvard-Smithsonian Center for Astrophysics.  \\</v>
       </c>
     </row>
     <row r="90" spans="2:15">
-      <c r="B90" t="s">
-        <v>494</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>495</v>
+      <c r="B90" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C90" t="s">
+        <v>130</v>
+      </c>
+      <c r="D90" t="s">
+        <v>468</v>
       </c>
       <c r="E90" t="s">
-        <v>366</v>
+        <v>8</v>
       </c>
       <c r="F90">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="G90" t="s">
-        <v>496</v>
+        <v>110</v>
       </c>
       <c r="I90" t="str">
         <f t="shared" si="5"/>
-        <v>Mark  Devlin $^{46}$                    \\</v>
+        <v>Brian Sutin $^{22}$                     \\</v>
       </c>
       <c r="K90">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L90">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M90" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">                     </v>
       </c>
       <c r="O90" t="str">
         <f t="shared" si="9"/>
-        <v>46. University of Pennsylvania.  \\</v>
+        <v>22. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
       </c>
     </row>
     <row r="91" spans="2:15">
-      <c r="B91" s="1" t="s">
-        <v>48</v>
+      <c r="B91" t="s">
+        <v>131</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>49</v>
+        <v>132</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>430</v>
+        <v>469</v>
       </c>
       <c r="E91" t="s">
         <v>8</v>
       </c>
       <c r="F91">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G91" t="s">
-        <v>332</v>
+        <v>501</v>
       </c>
       <c r="I91" t="str">
         <f t="shared" si="5"/>
-        <v>Joy Didier $^{47}$                      \\</v>
+        <v>Maurizio Tomasi $^{37}$                 \\</v>
       </c>
       <c r="K91">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L91">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M91" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">                      </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="O91" t="str">
         <f t="shared" si="9"/>
-        <v>47. University of Southern California.  \\</v>
+        <v>37. Universit\`a degli studi di Milano.  \\</v>
       </c>
     </row>
     <row r="92" spans="2:15">
       <c r="B92" s="1" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="C92" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="D92" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="E92" t="s">
-        <v>8</v>
+        <v>543</v>
       </c>
       <c r="F92">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="G92" t="s">
-        <v>340</v>
+        <v>110</v>
       </c>
       <c r="I92" t="str">
         <f t="shared" si="5"/>
-        <v>Alex Lazarian $^{48}$                   \\</v>
+        <v>Amy Trangsrud $^{22}$                   \\</v>
       </c>
       <c r="K92">
         <f t="shared" si="6"/>
@@ -5473,759 +5567,982 @@
       </c>
       <c r="O92" t="str">
         <f t="shared" si="9"/>
-        <v>48. University of Wisconsin - Madison.  \\</v>
+        <v>22. Jet Propulsion Laboratory, California Institute of Technology.  \\</v>
       </c>
     </row>
     <row r="93" spans="2:15">
-      <c r="B93" s="3" t="s">
-        <v>142</v>
+      <c r="B93" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C93" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D93"/>
       <c r="E93" t="s">
         <v>8</v>
       </c>
       <c r="F93">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="G93" t="s">
-        <v>340</v>
+        <v>492</v>
       </c>
       <c r="I93" t="str">
         <f t="shared" si="5"/>
-        <v>Siyao Xu $^{48}$                        \\</v>
+        <v>Flavien Vansyngel $^{15}$               \\</v>
       </c>
       <c r="K93">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="L93">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M93" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">                        </v>
+        <v xml:space="preserve">               </v>
       </c>
       <c r="O93" t="str">
         <f t="shared" si="9"/>
-        <v>48. University of Wisconsin - Madison.  \\</v>
+        <v>15. Institut d'Astrophysique Spatiale, CNRS, Univ. Paris-Sud, Universit\'e Paris-Saclay, France.  \\</v>
       </c>
     </row>
     <row r="94" spans="2:15">
-      <c r="B94" s="1" t="s">
-        <v>35</v>
+      <c r="B94" t="s">
+        <v>138</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>425</v>
+        <v>471</v>
       </c>
       <c r="E94" t="s">
         <v>8</v>
       </c>
       <c r="F94">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G94" t="s">
-        <v>331</v>
+        <v>410</v>
       </c>
       <c r="I94" t="str">
         <f t="shared" si="5"/>
-        <v>David Chuss $^{49}$                     \\</v>
+        <v>Qi Wen $^{45}$                          \\</v>
       </c>
       <c r="K94">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L94">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M94" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                          </v>
       </c>
       <c r="O94" t="str">
         <f t="shared" si="9"/>
-        <v>49. Villanova University.  \\</v>
+        <v>45. University of Minnesota - Twin Cities.  \\</v>
       </c>
     </row>
     <row r="95" spans="2:15">
-      <c r="B95"/>
+      <c r="B95" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C95" t="s">
+        <v>143</v>
+      </c>
+      <c r="D95" t="s">
+        <v>542</v>
+      </c>
+      <c r="E95" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95">
+        <v>49</v>
+      </c>
+      <c r="G95" t="s">
+        <v>340</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" ref="I95:I98" si="10">CONCATENATE(B95," ",C95, " $^{", F95,"}$", M95,"\\")</f>
+        <v>Siyao Xu $^{49}$                        \\</v>
+      </c>
+      <c r="K95">
+        <f t="shared" ref="K95:K98" si="11">LEN(B95) + LEN(C95) +1</f>
+        <v>8</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">                        </v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" ref="O95:O98" si="12">CONCATENATE(F95, ". ", G95, ".  \\")</f>
+        <v>49. University of Wisconsin - Madison.  \\</v>
+      </c>
     </row>
     <row r="96" spans="2:15">
-      <c r="B96"/>
-    </row>
-    <row r="98" spans="2:13">
-      <c r="B98" s="3"/>
-      <c r="C98"/>
-      <c r="D98"/>
-    </row>
-    <row r="101" spans="2:13">
+      <c r="B96" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C96" t="s">
+        <v>145</v>
+      </c>
+      <c r="D96" t="s">
+        <v>473</v>
+      </c>
+      <c r="E96" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96">
+        <v>45</v>
+      </c>
+      <c r="G96" t="s">
+        <v>410</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="10"/>
+        <v>Karl Young $^{45}$                      \\</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">                      </v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="12"/>
+        <v>45. University of Minnesota - Twin Cities.  \\</v>
+      </c>
+    </row>
+    <row r="97" spans="2:17">
+      <c r="B97" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C97" t="s">
+        <v>147</v>
+      </c>
+      <c r="D97" t="s">
+        <v>472</v>
+      </c>
+      <c r="E97" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97">
+        <v>32</v>
+      </c>
+      <c r="G97" t="s">
+        <v>493</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="10"/>
+        <v>Andrea Zonca $^{32}$                    \\</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="12"/>
+        <v>32. San Diego Supercomputer Center, University of California San Diego.  \\</v>
+      </c>
+    </row>
+    <row r="98" spans="2:17">
+      <c r="B98" t="s">
+        <v>303</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="E98" t="s">
+        <v>8</v>
+      </c>
+      <c r="F98">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s">
+        <v>42</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="10"/>
+        <v>Gianfranco De Zotti $^{13}$             \\</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">             </v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="12"/>
+        <v>13. INAF-Osservatorio Astronomico di Padova, Italy.  \\</v>
+      </c>
+    </row>
+    <row r="99" spans="2:17">
+      <c r="B99" s="3"/>
+      <c r="D99"/>
+    </row>
+    <row r="100" spans="2:17">
+      <c r="B100" s="3"/>
+      <c r="D100"/>
+    </row>
+    <row r="101" spans="2:17">
       <c r="B101" s="3"/>
-      <c r="C101"/>
       <c r="D101"/>
-      <c r="I101" t="str">
-        <f t="shared" ref="I101:I102" si="10">CONCATENATE(B101," ",C101,M101,"\\")</f>
+    </row>
+    <row r="104" spans="2:17">
+      <c r="B104" s="3"/>
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="I104" t="str">
+        <f t="shared" ref="I104:I105" si="13">CONCATENATE(B104," ",C104,M104,"\\")</f>
         <v xml:space="preserve">                                \\</v>
       </c>
-      <c r="K101">
-        <f t="shared" ref="K101:K102" si="11">LEN(B101) + LEN(C101) +1</f>
+      <c r="K104">
+        <f t="shared" ref="K104:K105" si="14">LEN(B104) + LEN(C104) +1</f>
         <v>1</v>
       </c>
-      <c r="L101">
-        <f t="shared" ref="L101:L102" si="12">IF(K101&lt;30,(32-K101),3)</f>
+      <c r="L104">
+        <f t="shared" ref="L104:L105" si="15">IF(K104&lt;30,(32-K104),3)</f>
         <v>31</v>
       </c>
-      <c r="M101" t="str">
-        <f t="shared" ref="M101:M135" si="13">REPT(" ",L101)</f>
+      <c r="M104" t="str">
+        <f t="shared" ref="M104:M138" si="16">REPT(" ",L104)</f>
         <v xml:space="preserve">                               </v>
       </c>
-    </row>
-    <row r="102" spans="2:13">
-      <c r="B102" t="s">
+      <c r="P104">
+        <f>F15+1</f>
+        <v>20</v>
+      </c>
+      <c r="Q104">
+        <f>P104-2</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="2:17">
+      <c r="B105" t="s">
         <v>148</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C105" t="s">
         <v>149</v>
-      </c>
-      <c r="D102"/>
-      <c r="E102" t="s">
-        <v>150</v>
-      </c>
-      <c r="G102" t="s">
-        <v>151</v>
-      </c>
-      <c r="I102" t="str">
-        <f t="shared" si="10"/>
-        <v>Zeeshan Ahmed                   \\</v>
-      </c>
-      <c r="K102">
-        <f t="shared" si="11"/>
-        <v>13</v>
-      </c>
-      <c r="L102">
-        <f t="shared" si="12"/>
-        <v>19</v>
-      </c>
-      <c r="M102" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">                   </v>
-      </c>
-    </row>
-    <row r="103" spans="2:13">
-      <c r="B103" t="s">
-        <v>152</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E103" t="s">
-        <v>150</v>
-      </c>
-      <c r="G103" t="s">
-        <v>154</v>
-      </c>
-      <c r="I103" t="str">
-        <f t="shared" ref="I103:I135" si="14">CONCATENATE(B103," ",C103,M103,"\\")</f>
-        <v>Jason Austermann                \\</v>
-      </c>
-      <c r="K103">
-        <f t="shared" ref="K103:K135" si="15">LEN(B103) + LEN(C103) +1</f>
-        <v>16</v>
-      </c>
-      <c r="L103">
-        <f t="shared" ref="L103:L135" si="16">IF(K103&lt;30,(32-K103),3)</f>
-        <v>16</v>
-      </c>
-      <c r="M103" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">                </v>
-      </c>
-    </row>
-    <row r="104" spans="2:13">
-      <c r="B104" t="s">
-        <v>155</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E104" t="s">
-        <v>150</v>
-      </c>
-      <c r="G104" t="s">
-        <v>157</v>
-      </c>
-      <c r="I104" t="str">
-        <f t="shared" si="14"/>
-        <v>Darcy Barron                    \\</v>
-      </c>
-      <c r="K104">
-        <f t="shared" si="15"/>
-        <v>12</v>
-      </c>
-      <c r="L104">
-        <f t="shared" si="16"/>
-        <v>20</v>
-      </c>
-      <c r="M104" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">                    </v>
-      </c>
-    </row>
-    <row r="105" spans="2:13">
-      <c r="B105" t="s">
-        <v>158</v>
-      </c>
-      <c r="C105" t="s">
-        <v>159</v>
       </c>
       <c r="D105"/>
       <c r="E105" t="s">
         <v>150</v>
       </c>
+      <c r="G105" t="s">
+        <v>151</v>
+      </c>
       <c r="I105" t="str">
+        <f t="shared" si="13"/>
+        <v>Zeeshan Ahmed                   \\</v>
+      </c>
+      <c r="K105">
         <f t="shared" si="14"/>
-        <v>Karim Benabed                   \\</v>
-      </c>
-      <c r="K105">
+        <v>13</v>
+      </c>
+      <c r="L105">
         <f t="shared" si="15"/>
-        <v>13</v>
-      </c>
-      <c r="L105">
+        <v>19</v>
+      </c>
+      <c r="M105" t="str">
         <f t="shared" si="16"/>
-        <v>19</v>
-      </c>
-      <c r="M105" t="str">
-        <f t="shared" si="13"/>
         <v xml:space="preserve">                   </v>
       </c>
-    </row>
-    <row r="106" spans="2:13">
+      <c r="P105">
+        <f>F16+1</f>
+        <v>47</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" ref="Q105:Q168" si="17">P105-2</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="106" spans="2:17">
       <c r="B106" t="s">
-        <v>160</v>
-      </c>
-      <c r="C106" t="s">
-        <v>161</v>
-      </c>
-      <c r="D106"/>
+        <v>152</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="E106" t="s">
         <v>150</v>
       </c>
       <c r="G106" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="I106" t="str">
-        <f t="shared" si="14"/>
-        <v>Federico Bianchini              \\</v>
+        <f t="shared" ref="I106:I138" si="18">CONCATENATE(B106," ",C106,M106,"\\")</f>
+        <v>Jason Austermann                \\</v>
       </c>
       <c r="K106">
-        <f t="shared" si="15"/>
-        <v>18</v>
+        <f t="shared" ref="K106:K138" si="19">LEN(B106) + LEN(C106) +1</f>
+        <v>16</v>
       </c>
       <c r="L106">
+        <f t="shared" ref="L106:L138" si="20">IF(K106&lt;30,(32-K106),3)</f>
+        <v>16</v>
+      </c>
+      <c r="M106" t="str">
         <f t="shared" si="16"/>
-        <v>14</v>
-      </c>
-      <c r="M106" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">              </v>
-      </c>
-    </row>
-    <row r="107" spans="2:13">
-      <c r="B107" s="1" t="s">
-        <v>75</v>
+        <v xml:space="preserve">                </v>
+      </c>
+      <c r="P106">
+        <f>F17+1</f>
+        <v>19</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="17"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="2:17">
+      <c r="B107" t="s">
+        <v>155</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>286</v>
+        <v>156</v>
       </c>
       <c r="E107" t="s">
         <v>150</v>
       </c>
       <c r="G107" t="s">
-        <v>274</v>
+        <v>157</v>
       </c>
       <c r="I107" t="str">
-        <f t="shared" si="14"/>
-        <v>Colin Bischoff                  \\</v>
+        <f t="shared" si="18"/>
+        <v>Darcy Barron                    \\</v>
       </c>
       <c r="K107">
-        <f t="shared" si="15"/>
-        <v>14</v>
+        <f t="shared" si="19"/>
+        <v>12</v>
       </c>
       <c r="L107">
+        <f t="shared" si="20"/>
+        <v>20</v>
+      </c>
+      <c r="M107" t="str">
         <f t="shared" si="16"/>
-        <v>18</v>
-      </c>
-      <c r="M107" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">                  </v>
-      </c>
-    </row>
-    <row r="108" spans="2:13">
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="P107">
+        <f>F18+1</f>
+        <v>2</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:17">
       <c r="B108" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C108" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D108"/>
       <c r="E108" t="s">
         <v>150</v>
       </c>
-      <c r="G108" t="s">
-        <v>167</v>
-      </c>
       <c r="I108" t="str">
-        <f t="shared" si="14"/>
-        <v>J. Richard Bond                 \\</v>
+        <f t="shared" si="18"/>
+        <v>Karim Benabed                   \\</v>
       </c>
       <c r="K108">
-        <f t="shared" si="15"/>
-        <v>15</v>
+        <f t="shared" si="19"/>
+        <v>13</v>
       </c>
       <c r="L108">
+        <f t="shared" si="20"/>
+        <v>19</v>
+      </c>
+      <c r="M108" t="str">
         <f t="shared" si="16"/>
-        <v>17</v>
-      </c>
-      <c r="M108" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">                 </v>
-      </c>
-    </row>
-    <row r="109" spans="2:13">
-      <c r="B109" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>284</v>
-      </c>
+        <v xml:space="preserve">                   </v>
+      </c>
+      <c r="P108">
+        <f>F19+1</f>
+        <v>23</v>
+      </c>
+      <c r="Q108">
+        <f t="shared" si="17"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" spans="2:17">
+      <c r="B109" t="s">
+        <v>160</v>
+      </c>
+      <c r="C109" t="s">
+        <v>161</v>
+      </c>
+      <c r="D109"/>
       <c r="E109" t="s">
         <v>150</v>
       </c>
       <c r="G109" t="s">
-        <v>272</v>
+        <v>162</v>
       </c>
       <c r="I109" t="str">
-        <f t="shared" si="14"/>
-        <v>Robert Caldwell                 \\</v>
+        <f t="shared" si="18"/>
+        <v>Federico Bianchini              \\</v>
       </c>
       <c r="K109">
-        <f t="shared" si="15"/>
-        <v>15</v>
+        <f t="shared" si="19"/>
+        <v>18</v>
       </c>
       <c r="L109">
+        <f t="shared" si="20"/>
+        <v>14</v>
+      </c>
+      <c r="M109" t="str">
         <f t="shared" si="16"/>
-        <v>17</v>
-      </c>
-      <c r="M109" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">                 </v>
-      </c>
-    </row>
-    <row r="110" spans="2:13">
-      <c r="B110" t="s">
-        <v>168</v>
-      </c>
-      <c r="C110" t="s">
-        <v>169</v>
-      </c>
-      <c r="D110"/>
+        <v xml:space="preserve">              </v>
+      </c>
+      <c r="P109">
+        <f>F20+1</f>
+        <v>34</v>
+      </c>
+      <c r="Q109">
+        <f t="shared" si="17"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="110" spans="2:17">
+      <c r="B110" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>286</v>
+      </c>
       <c r="E110" t="s">
         <v>150</v>
       </c>
       <c r="G110" t="s">
-        <v>128</v>
+        <v>274</v>
       </c>
       <c r="I110" t="str">
-        <f t="shared" si="14"/>
-        <v>Xingang Chen                    \\</v>
+        <f t="shared" si="18"/>
+        <v>Colin Bischoff                  \\</v>
       </c>
       <c r="K110">
-        <f t="shared" si="15"/>
-        <v>12</v>
+        <f t="shared" si="19"/>
+        <v>14</v>
       </c>
       <c r="L110">
+        <f t="shared" si="20"/>
+        <v>18</v>
+      </c>
+      <c r="M110" t="str">
         <f t="shared" si="16"/>
-        <v>20</v>
-      </c>
-      <c r="M110" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">                    </v>
-      </c>
-    </row>
-    <row r="111" spans="2:13">
+        <v xml:space="preserve">                  </v>
+      </c>
+      <c r="P110">
+        <f>F21+1</f>
+        <v>31</v>
+      </c>
+      <c r="Q110">
+        <f t="shared" si="17"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="111" spans="2:17">
       <c r="B111" t="s">
-        <v>173</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>174</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="C111" t="s">
+        <v>166</v>
+      </c>
+      <c r="D111"/>
       <c r="E111" t="s">
         <v>150</v>
       </c>
       <c r="G111" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="I111" t="str">
-        <f t="shared" si="14"/>
-        <v>Francis-Yan Cyr-Racine          \\</v>
+        <f t="shared" si="18"/>
+        <v>J. Richard Bond                 \\</v>
       </c>
       <c r="K111">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
+        <v>15</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="20"/>
+        <v>17</v>
+      </c>
+      <c r="M111" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">                 </v>
+      </c>
+      <c r="P111">
+        <f>F22+1</f>
+        <v>24</v>
+      </c>
+      <c r="Q111">
+        <f t="shared" si="17"/>
         <v>22</v>
       </c>
-      <c r="L111">
-        <f t="shared" si="16"/>
-        <v>10</v>
-      </c>
-      <c r="M111" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">          </v>
-      </c>
-    </row>
-    <row r="112" spans="2:13">
-      <c r="B112" t="s">
-        <v>176</v>
+    </row>
+    <row r="112" spans="2:17">
+      <c r="B112" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>177</v>
+        <v>284</v>
       </c>
       <c r="E112" t="s">
         <v>150</v>
       </c>
       <c r="G112" t="s">
-        <v>178</v>
+        <v>272</v>
       </c>
       <c r="I112" t="str">
-        <f t="shared" si="14"/>
-        <v>Tijmen de Haan                  \\</v>
+        <f t="shared" si="18"/>
+        <v>Robert Caldwell                 \\</v>
       </c>
       <c r="K112">
-        <f t="shared" si="15"/>
-        <v>14</v>
+        <f t="shared" si="19"/>
+        <v>15</v>
       </c>
       <c r="L112">
+        <f t="shared" si="20"/>
+        <v>17</v>
+      </c>
+      <c r="M112" t="str">
         <f t="shared" si="16"/>
-        <v>18</v>
-      </c>
-      <c r="M112" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">                  </v>
-      </c>
-    </row>
-    <row r="113" spans="2:13">
+        <v xml:space="preserve">                 </v>
+      </c>
+      <c r="P112">
+        <f>F23+1</f>
+        <v>23</v>
+      </c>
+      <c r="Q112">
+        <f t="shared" si="17"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113" spans="2:17">
       <c r="B113" t="s">
-        <v>181</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>182</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="C113" t="s">
+        <v>169</v>
+      </c>
+      <c r="D113"/>
       <c r="E113" t="s">
         <v>150</v>
       </c>
       <c r="G113" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="I113" t="str">
-        <f t="shared" si="14"/>
-        <v>Aurelien Fraisse                \\</v>
+        <f t="shared" si="18"/>
+        <v>Xingang Chen                    \\</v>
       </c>
       <c r="K113">
-        <f t="shared" si="15"/>
-        <v>16</v>
+        <f t="shared" si="19"/>
+        <v>12</v>
       </c>
       <c r="L113">
+        <f t="shared" si="20"/>
+        <v>20</v>
+      </c>
+      <c r="M113" t="str">
         <f t="shared" si="16"/>
-        <v>16</v>
-      </c>
-      <c r="M113" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">                </v>
-      </c>
-    </row>
-    <row r="114" spans="2:13">
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="P113">
+        <f>F24+1</f>
+        <v>24</v>
+      </c>
+      <c r="Q113">
+        <f t="shared" si="17"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="114" spans="2:17">
       <c r="B114" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="E114" t="s">
         <v>150</v>
       </c>
       <c r="G114" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="I114" t="str">
-        <f t="shared" si="14"/>
-        <v>Silvia Galli                    \\</v>
+        <f t="shared" si="18"/>
+        <v>Francis-Yan Cyr-Racine          \\</v>
       </c>
       <c r="K114">
-        <f t="shared" si="15"/>
-        <v>12</v>
+        <f t="shared" si="19"/>
+        <v>22</v>
       </c>
       <c r="L114">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="M114" t="str">
         <f t="shared" si="16"/>
-        <v>20</v>
-      </c>
-      <c r="M114" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">                    </v>
-      </c>
-    </row>
-    <row r="115" spans="2:13">
+        <v xml:space="preserve">          </v>
+      </c>
+      <c r="P114">
+        <f>F25+1</f>
+        <v>13</v>
+      </c>
+      <c r="Q114">
+        <f t="shared" si="17"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="2:17">
       <c r="B115" t="s">
-        <v>190</v>
-      </c>
-      <c r="C115" t="s">
-        <v>191</v>
-      </c>
-      <c r="D115"/>
+        <v>176</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="E115" t="s">
         <v>150</v>
       </c>
       <c r="G115" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="I115" t="str">
-        <f t="shared" si="14"/>
-        <v>Ken Ganga                       \\</v>
+        <f t="shared" si="18"/>
+        <v>Tijmen de Haan                  \\</v>
       </c>
       <c r="K115">
-        <f t="shared" si="15"/>
-        <v>9</v>
+        <f t="shared" si="19"/>
+        <v>14</v>
       </c>
       <c r="L115">
+        <f t="shared" si="20"/>
+        <v>18</v>
+      </c>
+      <c r="M115" t="str">
         <f t="shared" si="16"/>
+        <v xml:space="preserve">                  </v>
+      </c>
+      <c r="P115">
+        <f>F26+1</f>
         <v>23</v>
       </c>
-      <c r="M115" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">                       </v>
-      </c>
-    </row>
-    <row r="116" spans="2:13">
+      <c r="Q115">
+        <f t="shared" si="17"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="116" spans="2:17">
       <c r="B116" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="E116" t="s">
         <v>150</v>
       </c>
       <c r="G116" t="s">
-        <v>195</v>
+        <v>87</v>
       </c>
       <c r="I116" t="str">
-        <f t="shared" si="14"/>
-        <v>Tuhin Ghosh                     \\</v>
+        <f t="shared" si="18"/>
+        <v>Aurelien Fraisse                \\</v>
       </c>
       <c r="K116">
-        <f t="shared" si="15"/>
-        <v>11</v>
+        <f t="shared" si="19"/>
+        <v>16</v>
       </c>
       <c r="L116">
+        <f t="shared" si="20"/>
+        <v>16</v>
+      </c>
+      <c r="M116" t="str">
         <f t="shared" si="16"/>
-        <v>21</v>
-      </c>
-      <c r="M116" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">                     </v>
-      </c>
-    </row>
-    <row r="117" spans="2:13">
-      <c r="B117" s="1" t="s">
-        <v>317</v>
+        <v xml:space="preserve">                </v>
+      </c>
+      <c r="P116">
+        <f>F27+1</f>
+        <v>26</v>
+      </c>
+      <c r="Q116">
+        <f t="shared" si="17"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="117" spans="2:17">
+      <c r="B117" t="s">
+        <v>187</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>477</v>
+        <v>188</v>
       </c>
       <c r="E117" t="s">
         <v>150</v>
       </c>
-      <c r="G117" s="1" t="s">
-        <v>223</v>
+      <c r="G117" t="s">
+        <v>189</v>
       </c>
       <c r="I117" t="str">
-        <f t="shared" si="14"/>
-        <v>Sunil Golwala                   \\</v>
+        <f t="shared" si="18"/>
+        <v>Silvia Galli                    \\</v>
       </c>
       <c r="K117">
-        <f t="shared" si="15"/>
-        <v>13</v>
+        <f t="shared" si="19"/>
+        <v>12</v>
       </c>
       <c r="L117">
+        <f t="shared" si="20"/>
+        <v>20</v>
+      </c>
+      <c r="M117" t="str">
         <f t="shared" si="16"/>
-        <v>19</v>
-      </c>
-      <c r="M117" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">                   </v>
-      </c>
-    </row>
-    <row r="118" spans="2:13">
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="P117">
+        <f>F28+1</f>
+        <v>36</v>
+      </c>
+      <c r="Q117">
+        <f t="shared" si="17"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="118" spans="2:17">
       <c r="B118" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C118" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D118"/>
       <c r="E118" t="s">
         <v>150</v>
       </c>
       <c r="G118" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="I118" t="str">
-        <f t="shared" si="14"/>
-        <v>Jon E. Gudmundsson              \\</v>
+        <f t="shared" si="18"/>
+        <v>Ken Ganga                       \\</v>
       </c>
       <c r="K118">
-        <f t="shared" si="15"/>
-        <v>18</v>
+        <f t="shared" si="19"/>
+        <v>9</v>
       </c>
       <c r="L118">
+        <f t="shared" si="20"/>
+        <v>23</v>
+      </c>
+      <c r="M118" t="str">
         <f t="shared" si="16"/>
-        <v>14</v>
-      </c>
-      <c r="M118" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">              </v>
-      </c>
-    </row>
-    <row r="119" spans="2:13">
-      <c r="B119" s="1" t="s">
-        <v>318</v>
+        <v xml:space="preserve">                       </v>
+      </c>
+      <c r="P118">
+        <f>F29+1</f>
+        <v>15</v>
+      </c>
+      <c r="Q118">
+        <f t="shared" si="17"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="2:17">
+      <c r="B119" t="s">
+        <v>193</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>319</v>
+        <v>194</v>
       </c>
       <c r="E119" t="s">
         <v>150</v>
       </c>
-      <c r="G119" s="1" t="s">
-        <v>316</v>
+      <c r="G119" t="s">
+        <v>195</v>
       </c>
       <c r="I119" t="str">
-        <f t="shared" si="14"/>
-        <v>Kevin M. Huffenberger           \\</v>
+        <f t="shared" si="18"/>
+        <v>Tuhin Ghosh                     \\</v>
       </c>
       <c r="K119">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
+        <v>11</v>
+      </c>
+      <c r="L119">
+        <f t="shared" si="20"/>
         <v>21</v>
       </c>
-      <c r="L119">
+      <c r="M119" t="str">
         <f t="shared" si="16"/>
-        <v>11</v>
-      </c>
-      <c r="M119" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">           </v>
-      </c>
-    </row>
-    <row r="120" spans="2:13">
-      <c r="B120" t="s">
-        <v>199</v>
+        <v xml:space="preserve">                     </v>
+      </c>
+      <c r="P119">
+        <f>F30+1</f>
+        <v>10</v>
+      </c>
+      <c r="Q119">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="2:17">
+      <c r="B120" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>200</v>
+        <v>477</v>
       </c>
       <c r="E120" t="s">
         <v>150</v>
       </c>
-      <c r="G120" t="s">
-        <v>201</v>
+      <c r="G120" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="I120" t="str">
-        <f t="shared" si="14"/>
-        <v>Marc Kamionkowski               \\</v>
+        <f t="shared" si="18"/>
+        <v>Sunil Golwala                   \\</v>
       </c>
       <c r="K120">
-        <f t="shared" si="15"/>
-        <v>17</v>
+        <f t="shared" si="19"/>
+        <v>13</v>
       </c>
       <c r="L120">
+        <f t="shared" si="20"/>
+        <v>19</v>
+      </c>
+      <c r="M120" t="str">
         <f t="shared" si="16"/>
-        <v>15</v>
-      </c>
-      <c r="M120" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">               </v>
-      </c>
-    </row>
-    <row r="121" spans="2:13">
+        <v xml:space="preserve">                   </v>
+      </c>
+      <c r="P120">
+        <f>F31+1</f>
+        <v>32</v>
+      </c>
+      <c r="Q120">
+        <f t="shared" si="17"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="121" spans="2:17">
       <c r="B121" t="s">
-        <v>202</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>203</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="C121" t="s">
+        <v>197</v>
+      </c>
+      <c r="D121"/>
       <c r="E121" t="s">
         <v>150</v>
       </c>
       <c r="G121" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="I121" t="str">
-        <f t="shared" si="14"/>
-        <v>Reijo Keskitalo                 \\</v>
+        <f t="shared" si="18"/>
+        <v>Jon E. Gudmundsson              \\</v>
       </c>
       <c r="K121">
-        <f t="shared" si="15"/>
-        <v>15</v>
+        <f t="shared" si="19"/>
+        <v>18</v>
       </c>
       <c r="L121">
+        <f t="shared" si="20"/>
+        <v>14</v>
+      </c>
+      <c r="M121" t="str">
         <f t="shared" si="16"/>
-        <v>17</v>
-      </c>
-      <c r="M121" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">                 </v>
-      </c>
-    </row>
-    <row r="122" spans="2:13">
-      <c r="B122" t="s">
-        <v>205</v>
+        <v xml:space="preserve">              </v>
+      </c>
+      <c r="P121">
+        <f>F32+1</f>
+        <v>22</v>
+      </c>
+      <c r="Q121">
+        <f t="shared" si="17"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="2:17">
+      <c r="B122" s="1" t="s">
+        <v>318</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>206</v>
+        <v>319</v>
       </c>
       <c r="E122" t="s">
         <v>150</v>
       </c>
-      <c r="G122" t="s">
-        <v>207</v>
+      <c r="G122" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="I122" t="str">
-        <f t="shared" si="14"/>
-        <v>Rishi Khatri                    \\</v>
+        <f t="shared" si="18"/>
+        <v>Kevin M. Huffenberger           \\</v>
       </c>
       <c r="K122">
-        <f t="shared" si="15"/>
-        <v>12</v>
+        <f t="shared" si="19"/>
+        <v>21</v>
       </c>
       <c r="L122">
+        <f t="shared" si="20"/>
+        <v>11</v>
+      </c>
+      <c r="M122" t="str">
         <f t="shared" si="16"/>
-        <v>20</v>
-      </c>
-      <c r="M122" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">                    </v>
-      </c>
-    </row>
-    <row r="123" spans="2:13">
+        <v xml:space="preserve">           </v>
+      </c>
+      <c r="P122">
+        <f>F33+1</f>
+        <v>51</v>
+      </c>
+      <c r="Q122">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="123" spans="2:17">
       <c r="B123" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="E123" t="s">
         <v>150</v>
@@ -6234,1578 +6551,2160 @@
         <v>201</v>
       </c>
       <c r="I123" t="str">
-        <f t="shared" si="14"/>
-        <v>Ely Kovetz                      \\</v>
+        <f t="shared" si="18"/>
+        <v>Marc Kamionkowski               \\</v>
       </c>
       <c r="K123">
-        <f t="shared" si="15"/>
-        <v>10</v>
+        <f t="shared" si="19"/>
+        <v>17</v>
       </c>
       <c r="L123">
+        <f t="shared" si="20"/>
+        <v>15</v>
+      </c>
+      <c r="M123" t="str">
         <f t="shared" si="16"/>
-        <v>22</v>
-      </c>
-      <c r="M123" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">                      </v>
-      </c>
-    </row>
-    <row r="124" spans="2:13">
-      <c r="B124" s="1" t="s">
-        <v>354</v>
+        <v xml:space="preserve">               </v>
+      </c>
+      <c r="P123">
+        <f>F34+1</f>
+        <v>18</v>
+      </c>
+      <c r="Q123">
+        <f t="shared" si="17"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="2:17">
+      <c r="B124" t="s">
+        <v>202</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>355</v>
+        <v>203</v>
       </c>
       <c r="E124" t="s">
         <v>150</v>
       </c>
       <c r="G124" t="s">
-        <v>350</v>
+        <v>204</v>
       </c>
       <c r="I124" t="str">
-        <f t="shared" si="14"/>
-        <v>Kerstin Kunze                   \\</v>
+        <f t="shared" si="18"/>
+        <v>Reijo Keskitalo                 \\</v>
       </c>
       <c r="K124">
-        <f t="shared" si="15"/>
-        <v>13</v>
+        <f t="shared" si="19"/>
+        <v>15</v>
       </c>
       <c r="L124">
+        <f t="shared" si="20"/>
+        <v>17</v>
+      </c>
+      <c r="M124" t="str">
         <f t="shared" si="16"/>
-        <v>19</v>
-      </c>
-      <c r="M124" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">                   </v>
-      </c>
-    </row>
-    <row r="125" spans="2:13">
-      <c r="B125" s="1" t="s">
-        <v>407</v>
+        <v xml:space="preserve">                 </v>
+      </c>
+      <c r="P124">
+        <f>F35+1</f>
+        <v>23</v>
+      </c>
+      <c r="Q124">
+        <f t="shared" si="17"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="125" spans="2:17">
+      <c r="B125" t="s">
+        <v>205</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="E125" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E125" t="s">
         <v>150</v>
       </c>
-      <c r="G125" s="1" t="s">
-        <v>395</v>
+      <c r="G125" t="s">
+        <v>207</v>
       </c>
       <c r="I125" t="str">
-        <f t="shared" si="14"/>
-        <v>Guilaine Lagache                \\</v>
+        <f t="shared" si="18"/>
+        <v>Rishi Khatri                    \\</v>
       </c>
       <c r="K125">
-        <f t="shared" si="15"/>
-        <v>16</v>
+        <f t="shared" si="19"/>
+        <v>12</v>
       </c>
       <c r="L125">
+        <f t="shared" si="20"/>
+        <v>20</v>
+      </c>
+      <c r="M125" t="str">
         <f t="shared" si="16"/>
-        <v>16</v>
-      </c>
-      <c r="M125" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">                </v>
-      </c>
-    </row>
-    <row r="126" spans="2:13">
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="P125">
+        <f>F36+1</f>
+        <v>23</v>
+      </c>
+      <c r="Q125">
+        <f t="shared" si="17"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="126" spans="2:17">
       <c r="B126" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E126" t="s">
         <v>150</v>
       </c>
       <c r="G126" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="I126" t="str">
-        <f t="shared" si="14"/>
-        <v>Daniel Lenz                     \\</v>
+        <f t="shared" si="18"/>
+        <v>Ely Kovetz                      \\</v>
       </c>
       <c r="K126">
-        <f t="shared" si="15"/>
-        <v>11</v>
+        <f t="shared" si="19"/>
+        <v>10</v>
       </c>
       <c r="L126">
+        <f t="shared" si="20"/>
+        <v>22</v>
+      </c>
+      <c r="M126" t="str">
         <f t="shared" si="16"/>
+        <v xml:space="preserve">                      </v>
+      </c>
+      <c r="P126">
+        <f>F37+1</f>
+        <v>2</v>
+      </c>
+      <c r="Q126">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="2:17">
+      <c r="B127" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E127" t="s">
+        <v>150</v>
+      </c>
+      <c r="G127" t="s">
+        <v>350</v>
+      </c>
+      <c r="I127" t="str">
+        <f t="shared" si="18"/>
+        <v>Kerstin Kunze                   \\</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="19"/>
+        <v>13</v>
+      </c>
+      <c r="L127">
+        <f t="shared" si="20"/>
+        <v>19</v>
+      </c>
+      <c r="M127" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">                   </v>
+      </c>
+      <c r="P127">
+        <f>F38+1</f>
         <v>21</v>
       </c>
-      <c r="M126" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">                     </v>
-      </c>
-    </row>
-    <row r="127" spans="2:13">
-      <c r="B127" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="E127" s="1" t="s">
+      <c r="Q127">
+        <f t="shared" si="17"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="128" spans="2:17">
+      <c r="B128" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E128" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G127" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="I127" t="str">
-        <f t="shared" si="14"/>
-        <v>Fran\c{c}ois Levrier            \\</v>
-      </c>
-      <c r="K127">
-        <f t="shared" si="15"/>
-        <v>20</v>
-      </c>
-      <c r="L127">
+      <c r="G128" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="I128" t="str">
+        <f t="shared" si="18"/>
+        <v>Guilaine Lagache                \\</v>
+      </c>
+      <c r="K128">
+        <f t="shared" si="19"/>
+        <v>16</v>
+      </c>
+      <c r="L128">
+        <f t="shared" si="20"/>
+        <v>16</v>
+      </c>
+      <c r="M128" t="str">
         <f t="shared" si="16"/>
-        <v>12</v>
-      </c>
-      <c r="M127" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">            </v>
-      </c>
-    </row>
-    <row r="128" spans="2:13">
-      <c r="B128" t="s">
-        <v>213</v>
-      </c>
-      <c r="C128" t="s">
-        <v>214</v>
-      </c>
-      <c r="D128"/>
-      <c r="E128" t="s">
-        <v>150</v>
-      </c>
-      <c r="G128" t="s">
-        <v>215</v>
-      </c>
-      <c r="I128" t="str">
-        <f t="shared" si="14"/>
-        <v>Marilena Loverde                \\</v>
-      </c>
-      <c r="K128">
-        <f t="shared" si="15"/>
-        <v>16</v>
-      </c>
-      <c r="L128">
-        <f t="shared" si="16"/>
-        <v>16</v>
-      </c>
-      <c r="M128" t="str">
-        <f t="shared" si="13"/>
         <v xml:space="preserve">                </v>
       </c>
-    </row>
-    <row r="129" spans="2:13">
-      <c r="B129" s="1" t="s">
-        <v>352</v>
+      <c r="P128">
+        <f>F39+1</f>
+        <v>48</v>
+      </c>
+      <c r="Q128">
+        <f t="shared" si="17"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="129" spans="2:17">
+      <c r="B129" t="s">
+        <v>210</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>353</v>
+        <v>211</v>
       </c>
       <c r="E129" t="s">
         <v>150</v>
       </c>
       <c r="G129" t="s">
-        <v>349</v>
+        <v>212</v>
       </c>
       <c r="I129" t="str">
-        <f t="shared" si="14"/>
-        <v>Juan Macias-Perez               \\</v>
+        <f t="shared" si="18"/>
+        <v>Daniel Lenz                     \\</v>
       </c>
       <c r="K129">
-        <f t="shared" si="15"/>
-        <v>17</v>
+        <f t="shared" si="19"/>
+        <v>11</v>
       </c>
       <c r="L129">
+        <f t="shared" si="20"/>
+        <v>21</v>
+      </c>
+      <c r="M129" t="str">
         <f t="shared" si="16"/>
-        <v>15</v>
-      </c>
-      <c r="M129" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">               </v>
-      </c>
-    </row>
-    <row r="130" spans="2:13">
-      <c r="B130" t="s">
-        <v>216</v>
+        <v xml:space="preserve">                     </v>
+      </c>
+      <c r="P129">
+        <f>F40+1</f>
+        <v>44</v>
+      </c>
+      <c r="Q129">
+        <f t="shared" si="17"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="130" spans="2:17">
+      <c r="B130" s="5" t="s">
+        <v>305</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E130" t="s">
+        <v>398</v>
+      </c>
+      <c r="E130" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G130" t="s">
-        <v>218</v>
+      <c r="G130" s="1" t="s">
+        <v>383</v>
       </c>
       <c r="I130" t="str">
-        <f t="shared" si="14"/>
-        <v>Carlos Martins                  \\</v>
+        <f t="shared" si="18"/>
+        <v>Fran\c{c}ois Levrier            \\</v>
       </c>
       <c r="K130">
-        <f t="shared" si="15"/>
-        <v>14</v>
+        <f t="shared" si="19"/>
+        <v>20</v>
       </c>
       <c r="L130">
+        <f t="shared" si="20"/>
+        <v>12</v>
+      </c>
+      <c r="M130" t="str">
         <f t="shared" si="16"/>
-        <v>18</v>
-      </c>
-      <c r="M130" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">                  </v>
-      </c>
-    </row>
-    <row r="131" spans="2:13">
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="P130">
+        <f>F41+1</f>
+        <v>49</v>
+      </c>
+      <c r="Q130">
+        <f t="shared" si="17"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="131" spans="2:17">
       <c r="B131" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="C131" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D131"/>
       <c r="E131" t="s">
         <v>150</v>
       </c>
       <c r="G131" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I131" t="str">
-        <f t="shared" si="14"/>
-        <v>Silvia Masi                     \\</v>
+        <f t="shared" si="18"/>
+        <v>Marilena Loverde                \\</v>
       </c>
       <c r="K131">
-        <f t="shared" si="15"/>
-        <v>11</v>
+        <f t="shared" si="19"/>
+        <v>16</v>
       </c>
       <c r="L131">
+        <f t="shared" si="20"/>
+        <v>16</v>
+      </c>
+      <c r="M131" t="str">
         <f t="shared" si="16"/>
-        <v>21</v>
-      </c>
-      <c r="M131" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">                     </v>
-      </c>
-    </row>
-    <row r="132" spans="2:13">
+        <v xml:space="preserve">                </v>
+      </c>
+      <c r="P131">
+        <f>F42+1</f>
+        <v>6</v>
+      </c>
+      <c r="Q131">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="2:17">
       <c r="B132" s="1" t="s">
-        <v>288</v>
+        <v>352</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>289</v>
+        <v>353</v>
       </c>
       <c r="E132" t="s">
         <v>150</v>
       </c>
       <c r="G132" t="s">
-        <v>276</v>
+        <v>349</v>
       </c>
       <c r="I132" t="str">
-        <f t="shared" si="14"/>
-        <v>Joel Meyers                     \\</v>
+        <f t="shared" si="18"/>
+        <v>Juan Macias-Perez               \\</v>
       </c>
       <c r="K132">
-        <f t="shared" si="15"/>
-        <v>11</v>
+        <f t="shared" si="19"/>
+        <v>17</v>
       </c>
       <c r="L132">
+        <f t="shared" si="20"/>
+        <v>15</v>
+      </c>
+      <c r="M132" t="str">
         <f t="shared" si="16"/>
+        <v xml:space="preserve">               </v>
+      </c>
+      <c r="P132">
+        <f>F43+1</f>
+        <v>23</v>
+      </c>
+      <c r="Q132">
+        <f t="shared" si="17"/>
         <v>21</v>
       </c>
-      <c r="M132" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">                     </v>
-      </c>
-    </row>
-    <row r="133" spans="2:13">
+    </row>
+    <row r="133" spans="2:17">
       <c r="B133" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E133" t="s">
         <v>150</v>
       </c>
       <c r="G133" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="I133" t="str">
-        <f t="shared" si="14"/>
-        <v>Lorenzo Moncelsi                \\</v>
+        <f t="shared" si="18"/>
+        <v>Carlos Martins                  \\</v>
       </c>
       <c r="K133">
-        <f t="shared" si="15"/>
-        <v>16</v>
+        <f t="shared" si="19"/>
+        <v>14</v>
       </c>
       <c r="L133">
+        <f t="shared" si="20"/>
+        <v>18</v>
+      </c>
+      <c r="M133" t="str">
         <f t="shared" si="16"/>
-        <v>16</v>
-      </c>
-      <c r="M133" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">                </v>
-      </c>
-    </row>
-    <row r="134" spans="2:13">
+        <v xml:space="preserve">                  </v>
+      </c>
+      <c r="P133">
+        <f>F44+1</f>
+        <v>4</v>
+      </c>
+      <c r="Q133">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="2:17">
       <c r="B134" t="s">
-        <v>224</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>225</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="C134" t="s">
+        <v>219</v>
+      </c>
+      <c r="D134"/>
       <c r="E134" t="s">
         <v>150</v>
       </c>
       <c r="G134" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="I134" t="str">
-        <f t="shared" si="14"/>
-        <v>Pavel Motloch                   \\</v>
+        <f t="shared" si="18"/>
+        <v>Silvia Masi                     \\</v>
       </c>
       <c r="K134">
-        <f t="shared" si="15"/>
-        <v>13</v>
+        <f t="shared" si="19"/>
+        <v>11</v>
       </c>
       <c r="L134">
+        <f t="shared" si="20"/>
+        <v>21</v>
+      </c>
+      <c r="M134" t="str">
         <f t="shared" si="16"/>
-        <v>19</v>
-      </c>
-      <c r="M134" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">                   </v>
-      </c>
-    </row>
-    <row r="135" spans="2:13">
-      <c r="B135" t="s">
-        <v>227</v>
+        <v xml:space="preserve">                     </v>
+      </c>
+      <c r="P134">
+        <f>F45+1</f>
+        <v>17</v>
+      </c>
+      <c r="Q134">
+        <f t="shared" si="17"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="2:17">
+      <c r="B135" s="1" t="s">
+        <v>288</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>228</v>
+        <v>289</v>
       </c>
       <c r="E135" t="s">
         <v>150</v>
       </c>
       <c r="G135" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="I135" t="str">
-        <f t="shared" si="14"/>
-        <v>Tony Mroczkowski                \\</v>
+        <f t="shared" si="18"/>
+        <v>Joel Meyers                     \\</v>
       </c>
       <c r="K135">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
+        <v>11</v>
+      </c>
+      <c r="L135">
+        <f t="shared" si="20"/>
+        <v>21</v>
+      </c>
+      <c r="M135" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">                     </v>
+      </c>
+      <c r="P135">
+        <f>F46+1</f>
+        <v>27</v>
+      </c>
+      <c r="Q135">
+        <f t="shared" si="17"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="136" spans="2:17">
+      <c r="B136" t="s">
+        <v>221</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E136" t="s">
+        <v>150</v>
+      </c>
+      <c r="G136" t="s">
+        <v>223</v>
+      </c>
+      <c r="I136" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorenzo Moncelsi                \\</v>
+      </c>
+      <c r="K136">
+        <f t="shared" si="19"/>
         <v>16</v>
       </c>
-      <c r="L135">
+      <c r="L136">
+        <f t="shared" si="20"/>
+        <v>16</v>
+      </c>
+      <c r="M136" t="str">
         <f t="shared" si="16"/>
-        <v>16</v>
-      </c>
-      <c r="M135" t="str">
-        <f t="shared" si="13"/>
         <v xml:space="preserve">                </v>
       </c>
-    </row>
-    <row r="136" spans="2:13">
-      <c r="B136" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="I136" t="str">
-        <f t="shared" ref="I136:I168" si="17">CONCATENATE(B136," ",C136,M136,"\\")</f>
-        <v>Suvodip Mukherjee               \\</v>
-      </c>
-      <c r="K136">
-        <f t="shared" ref="K136:K168" si="18">LEN(B136) + LEN(C136) +1</f>
-        <v>17</v>
-      </c>
-      <c r="L136">
-        <f t="shared" ref="L136:L168" si="19">IF(K136&lt;30,(32-K136),3)</f>
-        <v>15</v>
-      </c>
-      <c r="M136" t="str">
-        <f t="shared" ref="M136:M168" si="20">REPT(" ",L136)</f>
-        <v xml:space="preserve">               </v>
-      </c>
-    </row>
-    <row r="137" spans="2:13">
+      <c r="P136">
+        <f>F47+1</f>
+        <v>7</v>
+      </c>
+      <c r="Q136">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="2:17">
       <c r="B137" t="s">
         <v>224</v>
       </c>
-      <c r="C137" t="s">
-        <v>230</v>
-      </c>
-      <c r="D137"/>
+      <c r="C137" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="E137" t="s">
         <v>150</v>
       </c>
       <c r="G137" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="I137" t="str">
+        <f t="shared" si="18"/>
+        <v>Pavel Motloch                   \\</v>
+      </c>
+      <c r="K137">
+        <f t="shared" si="19"/>
+        <v>13</v>
+      </c>
+      <c r="L137">
+        <f t="shared" si="20"/>
+        <v>19</v>
+      </c>
+      <c r="M137" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">                   </v>
+      </c>
+      <c r="P137">
+        <f>F48+1</f>
+        <v>43</v>
+      </c>
+      <c r="Q137">
         <f t="shared" si="17"/>
-        <v>Pavel Naselsky                  \\</v>
-      </c>
-      <c r="K137">
-        <f t="shared" si="18"/>
-        <v>14</v>
-      </c>
-      <c r="L137">
-        <f t="shared" si="19"/>
-        <v>18</v>
-      </c>
-      <c r="M137" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">                  </v>
-      </c>
-    </row>
-    <row r="138" spans="2:13">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="138" spans="2:17">
       <c r="B138" t="s">
-        <v>160</v>
+        <v>227</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E138" t="s">
         <v>150</v>
       </c>
       <c r="G138" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I138" t="str">
+        <f t="shared" si="18"/>
+        <v>Tony Mroczkowski                \\</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="19"/>
+        <v>16</v>
+      </c>
+      <c r="L138">
+        <f t="shared" si="20"/>
+        <v>16</v>
+      </c>
+      <c r="M138" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">                </v>
+      </c>
+      <c r="P138">
+        <f>F49+1</f>
+        <v>29</v>
+      </c>
+      <c r="Q138">
         <f t="shared" si="17"/>
-        <v>Federico Nati                   \\</v>
-      </c>
-      <c r="K138">
-        <f t="shared" si="18"/>
-        <v>13</v>
-      </c>
-      <c r="L138">
-        <f t="shared" si="19"/>
-        <v>19</v>
-      </c>
-      <c r="M138" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">                   </v>
-      </c>
-    </row>
-    <row r="139" spans="2:13">
-      <c r="B139" s="1" t="s">
-        <v>403</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="139" spans="2:17">
+      <c r="B139" s="5" t="s">
+        <v>399</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>150</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="I139" t="str">
+        <f t="shared" ref="I139:I171" si="21">CONCATENATE(B139," ",C139,M139,"\\")</f>
+        <v>Suvodip Mukherjee               \\</v>
+      </c>
+      <c r="K139">
+        <f t="shared" ref="K139:K171" si="22">LEN(B139) + LEN(C139) +1</f>
+        <v>17</v>
+      </c>
+      <c r="L139">
+        <f t="shared" ref="L139:L171" si="23">IF(K139&lt;30,(32-K139),3)</f>
+        <v>15</v>
+      </c>
+      <c r="M139" t="str">
+        <f t="shared" ref="M139:M171" si="24">REPT(" ",L139)</f>
+        <v xml:space="preserve">               </v>
+      </c>
+      <c r="P139">
+        <f>F50+1</f>
+        <v>42</v>
+      </c>
+      <c r="Q139">
         <f t="shared" si="17"/>
-        <v>Paolo Natoli                    \\</v>
-      </c>
-      <c r="K139">
-        <f t="shared" si="18"/>
-        <v>12</v>
-      </c>
-      <c r="L139">
-        <f t="shared" si="19"/>
-        <v>20</v>
-      </c>
-      <c r="M139" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">                    </v>
-      </c>
-    </row>
-    <row r="140" spans="2:13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="140" spans="2:17">
       <c r="B140" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C140" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D140"/>
       <c r="E140" t="s">
         <v>150</v>
       </c>
       <c r="G140" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="I140" t="str">
+        <f t="shared" si="21"/>
+        <v>Pavel Naselsky                  \\</v>
+      </c>
+      <c r="K140">
+        <f t="shared" si="22"/>
+        <v>14</v>
+      </c>
+      <c r="L140">
+        <f t="shared" si="23"/>
+        <v>18</v>
+      </c>
+      <c r="M140" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">                  </v>
+      </c>
+      <c r="P140">
+        <f>F51+1</f>
+        <v>18</v>
+      </c>
+      <c r="Q140">
         <f t="shared" si="17"/>
-        <v>Elena Orlando                   \\</v>
-      </c>
-      <c r="K140">
-        <f t="shared" si="18"/>
-        <v>13</v>
-      </c>
-      <c r="L140">
-        <f t="shared" si="19"/>
-        <v>19</v>
-      </c>
-      <c r="M140" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">                   </v>
-      </c>
-    </row>
-    <row r="141" spans="2:13">
-      <c r="B141" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C141" t="s">
-        <v>183</v>
-      </c>
-      <c r="D141"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="2:17">
+      <c r="B141" t="s">
+        <v>160</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="E141" t="s">
         <v>150</v>
       </c>
       <c r="G141" t="s">
-        <v>185</v>
+        <v>233</v>
       </c>
       <c r="I141" t="str">
+        <f t="shared" si="21"/>
+        <v>Federico Nati                   \\</v>
+      </c>
+      <c r="K141">
+        <f t="shared" si="22"/>
+        <v>13</v>
+      </c>
+      <c r="L141">
+        <f t="shared" si="23"/>
+        <v>19</v>
+      </c>
+      <c r="M141" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">                   </v>
+      </c>
+      <c r="P141">
+        <f>F52+1</f>
+        <v>23</v>
+      </c>
+      <c r="Q141">
         <f t="shared" si="17"/>
-        <v>Francesco Piacentini            \\</v>
-      </c>
-      <c r="K141">
-        <f t="shared" si="18"/>
-        <v>20</v>
-      </c>
-      <c r="L141">
-        <f t="shared" si="19"/>
-        <v>12</v>
-      </c>
-      <c r="M141" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">            </v>
-      </c>
-    </row>
-    <row r="142" spans="2:13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="142" spans="2:17">
       <c r="B142" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>150</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I142" t="str">
+        <f t="shared" si="21"/>
+        <v>Paolo Natoli                    \\</v>
+      </c>
+      <c r="K142">
+        <f t="shared" si="22"/>
+        <v>12</v>
+      </c>
+      <c r="L142">
+        <f t="shared" si="23"/>
+        <v>20</v>
+      </c>
+      <c r="M142" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="P142">
+        <f>F53+1</f>
+        <v>40</v>
+      </c>
+      <c r="Q142">
         <f t="shared" si="17"/>
-        <v>Nicolas Ponthieu                \\</v>
-      </c>
-      <c r="K142">
-        <f t="shared" si="18"/>
-        <v>16</v>
-      </c>
-      <c r="L142">
-        <f t="shared" si="19"/>
-        <v>16</v>
-      </c>
-      <c r="M142" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">                </v>
-      </c>
-    </row>
-    <row r="143" spans="2:13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="143" spans="2:17">
       <c r="B143" t="s">
-        <v>237</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>238</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="C143" t="s">
+        <v>235</v>
+      </c>
+      <c r="D143"/>
       <c r="E143" t="s">
         <v>150</v>
       </c>
       <c r="G143" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I143" t="str">
+        <f t="shared" si="21"/>
+        <v>Elena Orlando                   \\</v>
+      </c>
+      <c r="K143">
+        <f t="shared" si="22"/>
+        <v>13</v>
+      </c>
+      <c r="L143">
+        <f t="shared" si="23"/>
+        <v>19</v>
+      </c>
+      <c r="M143" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">                   </v>
+      </c>
+      <c r="P143">
+        <f>F54+1</f>
+        <v>46</v>
+      </c>
+      <c r="Q143">
         <f t="shared" si="17"/>
-        <v>Giuseppe Puglisi                \\</v>
-      </c>
-      <c r="K143">
-        <f t="shared" si="18"/>
-        <v>16</v>
-      </c>
-      <c r="L143">
-        <f t="shared" si="19"/>
-        <v>16</v>
-      </c>
-      <c r="M143" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">                </v>
-      </c>
-    </row>
-    <row r="144" spans="2:13">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="144" spans="2:17">
       <c r="B144" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>312</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="C144" t="s">
+        <v>183</v>
+      </c>
+      <c r="D144"/>
       <c r="E144" t="s">
         <v>150</v>
       </c>
       <c r="G144" t="s">
-        <v>311</v>
+        <v>185</v>
       </c>
       <c r="I144" t="str">
+        <f t="shared" si="21"/>
+        <v>Francesco Piacentini            \\</v>
+      </c>
+      <c r="K144">
+        <f t="shared" si="22"/>
+        <v>20</v>
+      </c>
+      <c r="L144">
+        <f t="shared" si="23"/>
+        <v>12</v>
+      </c>
+      <c r="M144" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="P144">
+        <f>F55+1</f>
+        <v>31</v>
+      </c>
+      <c r="Q144">
         <f t="shared" si="17"/>
-        <v>Benjamin Racine                 \\</v>
-      </c>
-      <c r="K144">
-        <f t="shared" si="18"/>
-        <v>15</v>
-      </c>
-      <c r="L144">
-        <f t="shared" si="19"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="145" spans="2:17">
+      <c r="B145" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="I145" t="str">
+        <f t="shared" si="21"/>
+        <v>Nicolas Ponthieu                \\</v>
+      </c>
+      <c r="K145">
+        <f t="shared" si="22"/>
+        <v>16</v>
+      </c>
+      <c r="L145">
+        <f t="shared" si="23"/>
+        <v>16</v>
+      </c>
+      <c r="M145" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">                </v>
+      </c>
+      <c r="P145">
+        <f>F56+1</f>
+        <v>19</v>
+      </c>
+      <c r="Q145">
+        <f t="shared" si="17"/>
         <v>17</v>
       </c>
-      <c r="M144" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">                 </v>
-      </c>
-    </row>
-    <row r="145" spans="2:13">
-      <c r="B145" t="s">
-        <v>240</v>
-      </c>
-      <c r="C145" t="s">
-        <v>241</v>
-      </c>
-      <c r="D145"/>
-      <c r="E145" t="s">
-        <v>150</v>
-      </c>
-      <c r="G145" t="s">
-        <v>162</v>
-      </c>
-      <c r="I145" t="str">
-        <f t="shared" si="17"/>
-        <v>Christian Reichardt             \\</v>
-      </c>
-      <c r="K145">
-        <f t="shared" si="18"/>
-        <v>19</v>
-      </c>
-      <c r="L145">
-        <f t="shared" si="19"/>
-        <v>13</v>
-      </c>
-      <c r="M145" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">             </v>
-      </c>
-    </row>
-    <row r="146" spans="2:13">
-      <c r="B146" s="1" t="s">
-        <v>478</v>
+    </row>
+    <row r="146" spans="2:17">
+      <c r="B146" t="s">
+        <v>237</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>360</v>
+        <v>238</v>
       </c>
       <c r="E146" t="s">
         <v>150</v>
       </c>
       <c r="G146" t="s">
-        <v>348</v>
+        <v>239</v>
       </c>
       <c r="I146" t="str">
+        <f t="shared" si="21"/>
+        <v>Giuseppe Puglisi                \\</v>
+      </c>
+      <c r="K146">
+        <f t="shared" si="22"/>
+        <v>16</v>
+      </c>
+      <c r="L146">
+        <f t="shared" si="23"/>
+        <v>16</v>
+      </c>
+      <c r="M146" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">                </v>
+      </c>
+      <c r="P146">
+        <f>F57+1</f>
+        <v>7</v>
+      </c>
+      <c r="Q146">
         <f t="shared" si="17"/>
-        <v>Christophe Ringeval             \\</v>
-      </c>
-      <c r="K146">
-        <f t="shared" si="18"/>
-        <v>19</v>
-      </c>
-      <c r="L146">
-        <f t="shared" si="19"/>
-        <v>13</v>
-      </c>
-      <c r="M146" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">             </v>
-      </c>
-    </row>
-    <row r="147" spans="2:13">
-      <c r="B147" t="s">
-        <v>242</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="2:17">
+      <c r="B147" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>243</v>
+        <v>312</v>
       </c>
       <c r="E147" t="s">
         <v>150</v>
       </c>
       <c r="G147" t="s">
-        <v>244</v>
+        <v>311</v>
       </c>
       <c r="I147" t="str">
+        <f t="shared" si="21"/>
+        <v>Benjamin Racine                 \\</v>
+      </c>
+      <c r="K147">
+        <f t="shared" si="22"/>
+        <v>15</v>
+      </c>
+      <c r="L147">
+        <f t="shared" si="23"/>
+        <v>17</v>
+      </c>
+      <c r="M147" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">                 </v>
+      </c>
+      <c r="P147">
+        <f t="shared" ref="P147:P183" si="25">F58+1</f>
+        <v>18</v>
+      </c>
+      <c r="Q147">
         <f t="shared" si="17"/>
-        <v>Anirban Roy                     \\</v>
-      </c>
-      <c r="K147">
-        <f t="shared" si="18"/>
-        <v>11</v>
-      </c>
-      <c r="L147">
-        <f t="shared" si="19"/>
-        <v>21</v>
-      </c>
-      <c r="M147" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">                     </v>
-      </c>
-    </row>
-    <row r="148" spans="2:13">
-      <c r="B148" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>359</v>
-      </c>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" spans="2:17">
+      <c r="B148" t="s">
+        <v>240</v>
+      </c>
+      <c r="C148" t="s">
+        <v>241</v>
+      </c>
+      <c r="D148"/>
       <c r="E148" t="s">
         <v>150</v>
       </c>
       <c r="G148" t="s">
-        <v>347</v>
+        <v>162</v>
       </c>
       <c r="I148" t="str">
+        <f t="shared" si="21"/>
+        <v>Christian Reichardt             \\</v>
+      </c>
+      <c r="K148">
+        <f t="shared" si="22"/>
+        <v>19</v>
+      </c>
+      <c r="L148">
+        <f t="shared" si="23"/>
+        <v>13</v>
+      </c>
+      <c r="M148" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">             </v>
+      </c>
+      <c r="P148">
+        <f t="shared" si="25"/>
+        <v>15</v>
+      </c>
+      <c r="Q148">
         <f t="shared" si="17"/>
-        <v>Jose-Alberto Rubino-Martin      \\</v>
-      </c>
-      <c r="K148">
-        <f t="shared" si="18"/>
-        <v>26</v>
-      </c>
-      <c r="L148">
-        <f t="shared" si="19"/>
-        <v>6</v>
-      </c>
-      <c r="M148" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">      </v>
-      </c>
-    </row>
-    <row r="149" spans="2:13">
-      <c r="B149" t="s">
-        <v>245</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="2:17">
+      <c r="B149" s="1" t="s">
+        <v>478</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>246</v>
+        <v>360</v>
       </c>
       <c r="E149" t="s">
         <v>150</v>
       </c>
       <c r="G149" t="s">
-        <v>247</v>
+        <v>348</v>
       </c>
       <c r="I149" t="str">
+        <f t="shared" si="21"/>
+        <v>Christophe Ringeval             \\</v>
+      </c>
+      <c r="K149">
+        <f t="shared" si="22"/>
+        <v>19</v>
+      </c>
+      <c r="L149">
+        <f t="shared" si="23"/>
+        <v>13</v>
+      </c>
+      <c r="M149" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">             </v>
+      </c>
+      <c r="P149">
+        <f t="shared" si="25"/>
+        <v>9</v>
+      </c>
+      <c r="Q149">
         <f t="shared" si="17"/>
-        <v>Maria Salatino                  \\</v>
-      </c>
-      <c r="K149">
-        <f t="shared" si="18"/>
-        <v>14</v>
-      </c>
-      <c r="L149">
-        <f t="shared" si="19"/>
-        <v>18</v>
-      </c>
-      <c r="M149" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">                  </v>
-      </c>
-    </row>
-    <row r="150" spans="2:13">
-      <c r="B150" s="1" t="s">
-        <v>281</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="2:17">
+      <c r="B150" t="s">
+        <v>242</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="E150" t="s">
         <v>150</v>
       </c>
       <c r="G150" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="I150" t="str">
+        <f t="shared" si="21"/>
+        <v>Anirban Roy                     \\</v>
+      </c>
+      <c r="K150">
+        <f t="shared" si="22"/>
+        <v>11</v>
+      </c>
+      <c r="L150">
+        <f t="shared" si="23"/>
+        <v>21</v>
+      </c>
+      <c r="M150" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">                     </v>
+      </c>
+      <c r="P150">
+        <f t="shared" si="25"/>
+        <v>28</v>
+      </c>
+      <c r="Q150">
         <f t="shared" si="17"/>
-        <v>Benjamin Saliwanchik            \\</v>
-      </c>
-      <c r="K150">
-        <f t="shared" si="18"/>
-        <v>20</v>
-      </c>
-      <c r="L150">
-        <f t="shared" si="19"/>
-        <v>12</v>
-      </c>
-      <c r="M150" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">            </v>
-      </c>
-    </row>
-    <row r="151" spans="2:13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="151" spans="2:17">
       <c r="B151" s="1" t="s">
-        <v>292</v>
+        <v>358</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>293</v>
+        <v>359</v>
       </c>
       <c r="E151" t="s">
         <v>150</v>
       </c>
       <c r="G151" t="s">
-        <v>215</v>
+        <v>347</v>
       </c>
       <c r="I151" t="str">
+        <f t="shared" si="21"/>
+        <v>Jose-Alberto Rubino-Martin      \\</v>
+      </c>
+      <c r="K151">
+        <f t="shared" si="22"/>
+        <v>26</v>
+      </c>
+      <c r="L151">
+        <f t="shared" si="23"/>
+        <v>6</v>
+      </c>
+      <c r="M151" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">      </v>
+      </c>
+      <c r="P151">
+        <f t="shared" si="25"/>
+        <v>8</v>
+      </c>
+      <c r="Q151">
         <f t="shared" si="17"/>
-        <v>Neelima Sehgal                  \\</v>
-      </c>
-      <c r="K151">
-        <f t="shared" si="18"/>
-        <v>14</v>
-      </c>
-      <c r="L151">
-        <f t="shared" si="19"/>
-        <v>18</v>
-      </c>
-      <c r="M151" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">                  </v>
-      </c>
-    </row>
-    <row r="152" spans="2:13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="2:17">
       <c r="B152" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E152" t="s">
         <v>150</v>
       </c>
       <c r="G152" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I152" t="str">
+        <f t="shared" si="21"/>
+        <v>Maria Salatino                  \\</v>
+      </c>
+      <c r="K152">
+        <f t="shared" si="22"/>
+        <v>14</v>
+      </c>
+      <c r="L152">
+        <f t="shared" si="23"/>
+        <v>18</v>
+      </c>
+      <c r="M152" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">                  </v>
+      </c>
+      <c r="P152">
+        <f t="shared" si="25"/>
+        <v>31</v>
+      </c>
+      <c r="Q152">
         <f t="shared" si="17"/>
-        <v>Sarah Shandera                  \\</v>
-      </c>
-      <c r="K152">
-        <f t="shared" si="18"/>
-        <v>14</v>
-      </c>
-      <c r="L152">
-        <f t="shared" si="19"/>
-        <v>18</v>
-      </c>
-      <c r="M152" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">                  </v>
-      </c>
-    </row>
-    <row r="153" spans="2:13">
-      <c r="B153" t="s">
-        <v>179</v>
-      </c>
-      <c r="C153" t="s">
-        <v>310</v>
-      </c>
-      <c r="D153"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="153" spans="2:17">
+      <c r="B153" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="E153" t="s">
         <v>150</v>
       </c>
       <c r="G153" t="s">
-        <v>180</v>
+        <v>271</v>
       </c>
       <c r="I153" t="str">
+        <f t="shared" si="21"/>
+        <v>Benjamin Saliwanchik            \\</v>
+      </c>
+      <c r="K153">
+        <f t="shared" si="22"/>
+        <v>20</v>
+      </c>
+      <c r="L153">
+        <f t="shared" si="23"/>
+        <v>12</v>
+      </c>
+      <c r="M153" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="P153">
+        <f t="shared" si="25"/>
+        <v>46</v>
+      </c>
+      <c r="Q153">
         <f t="shared" si="17"/>
-        <v>Erik Shirokoff                  \\</v>
-      </c>
-      <c r="K153">
-        <f t="shared" si="18"/>
-        <v>14</v>
-      </c>
-      <c r="L153">
-        <f t="shared" si="19"/>
-        <v>18</v>
-      </c>
-      <c r="M153" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">                  </v>
-      </c>
-    </row>
-    <row r="154" spans="2:13">
-      <c r="B154" t="s">
-        <v>251</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="154" spans="2:17">
+      <c r="B154" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>252</v>
+        <v>293</v>
       </c>
       <c r="E154" t="s">
         <v>150</v>
       </c>
       <c r="G154" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="I154" t="str">
+        <f t="shared" si="21"/>
+        <v>Neelima Sehgal                  \\</v>
+      </c>
+      <c r="K154">
+        <f t="shared" si="22"/>
+        <v>14</v>
+      </c>
+      <c r="L154">
+        <f t="shared" si="23"/>
+        <v>18</v>
+      </c>
+      <c r="M154" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">                  </v>
+      </c>
+      <c r="P154">
+        <f t="shared" si="25"/>
+        <v>41</v>
+      </c>
+      <c r="Q154">
         <f t="shared" si="17"/>
-        <v>An\v{z}e Slosar                 \\</v>
-      </c>
-      <c r="K154">
-        <f t="shared" si="18"/>
-        <v>15</v>
-      </c>
-      <c r="L154">
-        <f t="shared" si="19"/>
-        <v>17</v>
-      </c>
-      <c r="M154" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">                 </v>
-      </c>
-    </row>
-    <row r="155" spans="2:13">
-      <c r="B155" s="1" t="s">
-        <v>401</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="155" spans="2:17">
+      <c r="B155" t="s">
+        <v>248</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="E155" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E155" t="s">
         <v>150</v>
       </c>
-      <c r="G155" s="1" t="s">
-        <v>385</v>
+      <c r="G155" t="s">
+        <v>250</v>
       </c>
       <c r="I155" t="str">
+        <f t="shared" si="21"/>
+        <v>Sarah Shandera                  \\</v>
+      </c>
+      <c r="K155">
+        <f t="shared" si="22"/>
+        <v>14</v>
+      </c>
+      <c r="L155">
+        <f t="shared" si="23"/>
+        <v>18</v>
+      </c>
+      <c r="M155" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">                  </v>
+      </c>
+      <c r="P155">
+        <f t="shared" si="25"/>
+        <v>27</v>
+      </c>
+      <c r="Q155">
         <f t="shared" si="17"/>
-        <v>Tarun Souradeep                 \\</v>
-      </c>
-      <c r="K155">
-        <f t="shared" si="18"/>
-        <v>15</v>
-      </c>
-      <c r="L155">
-        <f t="shared" si="19"/>
-        <v>17</v>
-      </c>
-      <c r="M155" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">                 </v>
-      </c>
-    </row>
-    <row r="156" spans="2:13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="156" spans="2:17">
       <c r="B156" t="s">
-        <v>254</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>255</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="C156" t="s">
+        <v>310</v>
+      </c>
+      <c r="D156"/>
       <c r="E156" t="s">
         <v>150</v>
       </c>
       <c r="G156" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I156" t="str">
+        <f t="shared" si="21"/>
+        <v>Erik Shirokoff                  \\</v>
+      </c>
+      <c r="K156">
+        <f t="shared" si="22"/>
+        <v>14</v>
+      </c>
+      <c r="L156">
+        <f t="shared" si="23"/>
+        <v>18</v>
+      </c>
+      <c r="M156" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">                  </v>
+      </c>
+      <c r="P156">
+        <f t="shared" si="25"/>
+        <v>11</v>
+      </c>
+      <c r="Q156">
         <f t="shared" si="17"/>
-        <v>Aritoki Suzuki                  \\</v>
-      </c>
-      <c r="K156">
-        <f t="shared" si="18"/>
-        <v>14</v>
-      </c>
-      <c r="L156">
-        <f t="shared" si="19"/>
-        <v>18</v>
-      </c>
-      <c r="M156" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">                  </v>
-      </c>
-    </row>
-    <row r="157" spans="2:13">
-      <c r="B157" s="1" t="s">
-        <v>77</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" spans="2:17">
+      <c r="B157" t="s">
+        <v>251</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="E157" t="s">
         <v>150</v>
       </c>
       <c r="G157" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="I157" t="str">
+        <f t="shared" si="21"/>
+        <v>An\v{z}e Slosar                 \\</v>
+      </c>
+      <c r="K157">
+        <f t="shared" si="22"/>
+        <v>15</v>
+      </c>
+      <c r="L157">
+        <f t="shared" si="23"/>
+        <v>17</v>
+      </c>
+      <c r="M157" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">                 </v>
+      </c>
+      <c r="P157">
+        <f t="shared" si="25"/>
+        <v>23</v>
+      </c>
+      <c r="Q157">
         <f t="shared" si="17"/>
-        <v>Eric Switzer                    \\</v>
-      </c>
-      <c r="K157">
-        <f t="shared" si="18"/>
-        <v>12</v>
-      </c>
-      <c r="L157">
-        <f t="shared" si="19"/>
-        <v>20</v>
-      </c>
-      <c r="M157" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">                    </v>
-      </c>
-    </row>
-    <row r="158" spans="2:13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="158" spans="2:17">
       <c r="B158" s="1" t="s">
-        <v>146</v>
+        <v>401</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E158" t="s">
+        <v>402</v>
+      </c>
+      <c r="E158" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G158" t="s">
-        <v>278</v>
+      <c r="G158" s="1" t="s">
+        <v>385</v>
       </c>
       <c r="I158" t="str">
+        <f t="shared" si="21"/>
+        <v>Tarun Souradeep                 \\</v>
+      </c>
+      <c r="K158">
+        <f t="shared" si="22"/>
+        <v>15</v>
+      </c>
+      <c r="L158">
+        <f t="shared" si="23"/>
+        <v>17</v>
+      </c>
+      <c r="M158" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">                 </v>
+      </c>
+      <c r="P158">
+        <f t="shared" si="25"/>
+        <v>50</v>
+      </c>
+      <c r="Q158">
         <f t="shared" si="17"/>
-        <v>Andrea Tartari                  \\</v>
-      </c>
-      <c r="K158">
-        <f t="shared" si="18"/>
-        <v>14</v>
-      </c>
-      <c r="L158">
-        <f t="shared" si="19"/>
-        <v>18</v>
-      </c>
-      <c r="M158" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">                  </v>
-      </c>
-    </row>
-    <row r="159" spans="2:13">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="159" spans="2:17">
       <c r="B159" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E159" t="s">
         <v>150</v>
       </c>
       <c r="G159" t="s">
-        <v>258</v>
+        <v>178</v>
       </c>
       <c r="I159" t="str">
+        <f t="shared" si="21"/>
+        <v>Aritoki Suzuki                  \\</v>
+      </c>
+      <c r="K159">
+        <f t="shared" si="22"/>
+        <v>14</v>
+      </c>
+      <c r="L159">
+        <f t="shared" si="23"/>
+        <v>18</v>
+      </c>
+      <c r="M159" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">                  </v>
+      </c>
+      <c r="P159">
+        <f t="shared" si="25"/>
+        <v>31</v>
+      </c>
+      <c r="Q159">
         <f t="shared" si="17"/>
-        <v>Grant Teply                     \\</v>
-      </c>
-      <c r="K159">
-        <f t="shared" si="18"/>
-        <v>11</v>
-      </c>
-      <c r="L159">
-        <f t="shared" si="19"/>
-        <v>21</v>
-      </c>
-      <c r="M159" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">                     </v>
-      </c>
-    </row>
-    <row r="160" spans="2:13">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="160" spans="2:17">
       <c r="B160" s="1" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E160" t="s">
         <v>150</v>
       </c>
       <c r="G160" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I160" t="str">
+        <f t="shared" si="21"/>
+        <v>Eric Switzer                    \\</v>
+      </c>
+      <c r="K160">
+        <f t="shared" si="22"/>
+        <v>12</v>
+      </c>
+      <c r="L160">
+        <f t="shared" si="23"/>
+        <v>20</v>
+      </c>
+      <c r="M160" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="P160">
+        <f t="shared" si="25"/>
+        <v>31</v>
+      </c>
+      <c r="Q160">
         <f t="shared" si="17"/>
-        <v>Peter Timbie                    \\</v>
-      </c>
-      <c r="K160">
-        <f t="shared" si="18"/>
-        <v>12</v>
-      </c>
-      <c r="L160">
-        <f t="shared" si="19"/>
-        <v>20</v>
-      </c>
-      <c r="M160" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">                    </v>
-      </c>
-    </row>
-    <row r="161" spans="2:13">
-      <c r="B161" t="s">
-        <v>259</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="161" spans="2:17">
+      <c r="B161" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="E161" t="s">
         <v>150</v>
       </c>
       <c r="G161" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="I161" t="str">
+        <f t="shared" si="21"/>
+        <v>Andrea Tartari                  \\</v>
+      </c>
+      <c r="K161">
+        <f t="shared" si="22"/>
+        <v>14</v>
+      </c>
+      <c r="L161">
+        <f t="shared" si="23"/>
+        <v>18</v>
+      </c>
+      <c r="M161" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">                  </v>
+      </c>
+      <c r="P161">
+        <f t="shared" si="25"/>
+        <v>45</v>
+      </c>
+      <c r="Q161">
         <f t="shared" si="17"/>
-        <v>Matthieu Tristram               \\</v>
-      </c>
-      <c r="K161">
-        <f t="shared" si="18"/>
-        <v>17</v>
-      </c>
-      <c r="L161">
-        <f t="shared" si="19"/>
-        <v>15</v>
-      </c>
-      <c r="M161" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">               </v>
-      </c>
-    </row>
-    <row r="162" spans="2:13">
-      <c r="B162" s="1" t="s">
-        <v>313</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="162" spans="2:17">
+      <c r="B162" t="s">
+        <v>256</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>314</v>
+        <v>257</v>
       </c>
       <c r="E162" t="s">
         <v>150</v>
       </c>
       <c r="G162" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="I162" t="str">
+        <f t="shared" si="21"/>
+        <v>Grant Teply                     \\</v>
+      </c>
+      <c r="K162">
+        <f t="shared" si="22"/>
+        <v>11</v>
+      </c>
+      <c r="L162">
+        <f t="shared" si="23"/>
+        <v>21</v>
+      </c>
+      <c r="M162" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">                     </v>
+      </c>
+      <c r="P162">
+        <f t="shared" si="25"/>
+        <v>21</v>
+      </c>
+      <c r="Q162">
         <f t="shared" si="17"/>
-        <v>Caterina Umilt\`{a}             \\</v>
-      </c>
-      <c r="K162">
-        <f t="shared" si="18"/>
         <v>19</v>
       </c>
-      <c r="L162">
-        <f t="shared" si="19"/>
-        <v>13</v>
-      </c>
-      <c r="M162" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">             </v>
-      </c>
-    </row>
-    <row r="163" spans="2:13">
+    </row>
+    <row r="163" spans="2:17">
       <c r="B163" s="1" t="s">
-        <v>356</v>
+        <v>9</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>357</v>
+        <v>294</v>
       </c>
       <c r="E163" t="s">
         <v>150</v>
       </c>
       <c r="G163" t="s">
-        <v>351</v>
+        <v>279</v>
       </c>
       <c r="I163" t="str">
+        <f t="shared" si="21"/>
+        <v>Peter Timbie                    \\</v>
+      </c>
+      <c r="K163">
+        <f t="shared" si="22"/>
+        <v>12</v>
+      </c>
+      <c r="L163">
+        <f t="shared" si="23"/>
+        <v>20</v>
+      </c>
+      <c r="M163" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="P163">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="Q163">
         <f t="shared" si="17"/>
-        <v>Licia Verde                     \\</v>
-      </c>
-      <c r="K163">
-        <f t="shared" si="18"/>
-        <v>11</v>
-      </c>
-      <c r="L163">
-        <f t="shared" si="19"/>
-        <v>21</v>
-      </c>
-      <c r="M163" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">                     </v>
-      </c>
-    </row>
-    <row r="164" spans="2:13">
-      <c r="B164" s="1" t="s">
-        <v>321</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="2:17">
+      <c r="B164" t="s">
+        <v>259</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="E164" t="s">
         <v>150</v>
       </c>
-      <c r="G164" s="1" t="s">
-        <v>315</v>
+      <c r="G164" t="s">
+        <v>261</v>
       </c>
       <c r="I164" t="str">
+        <f t="shared" si="21"/>
+        <v>Matthieu Tristram               \\</v>
+      </c>
+      <c r="K164">
+        <f t="shared" si="22"/>
+        <v>17</v>
+      </c>
+      <c r="L164">
+        <f t="shared" si="23"/>
+        <v>15</v>
+      </c>
+      <c r="M164" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">               </v>
+      </c>
+      <c r="P164">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="Q164">
         <f t="shared" si="17"/>
-        <v>Patricio Vielva                 \\</v>
-      </c>
-      <c r="K164">
-        <f t="shared" si="18"/>
-        <v>15</v>
-      </c>
-      <c r="L164">
-        <f t="shared" si="19"/>
-        <v>17</v>
-      </c>
-      <c r="M164" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">                 </v>
-      </c>
-    </row>
-    <row r="165" spans="2:13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="2:17">
       <c r="B165" s="1" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="E165" t="s">
         <v>150</v>
       </c>
       <c r="G165" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I165" t="str">
+        <f t="shared" si="21"/>
+        <v>Caterina Umilt\`{a}             \\</v>
+      </c>
+      <c r="K165">
+        <f t="shared" si="22"/>
+        <v>19</v>
+      </c>
+      <c r="L165">
+        <f t="shared" si="23"/>
+        <v>13</v>
+      </c>
+      <c r="M165" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">             </v>
+      </c>
+      <c r="P165">
+        <f t="shared" si="25"/>
+        <v>30</v>
+      </c>
+      <c r="Q165">
         <f t="shared" si="17"/>
-        <v>Benjamin Wallisch               \\</v>
-      </c>
-      <c r="K165">
-        <f t="shared" si="18"/>
-        <v>17</v>
-      </c>
-      <c r="L165">
-        <f t="shared" si="19"/>
-        <v>15</v>
-      </c>
-      <c r="M165" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">               </v>
-      </c>
-    </row>
-    <row r="166" spans="2:13">
-      <c r="B166" t="s">
-        <v>262</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="166" spans="2:17">
+      <c r="B166" s="1" t="s">
+        <v>356</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>263</v>
+        <v>357</v>
       </c>
       <c r="E166" t="s">
         <v>150</v>
       </c>
       <c r="G166" t="s">
-        <v>264</v>
+        <v>351</v>
       </c>
       <c r="I166" t="str">
+        <f t="shared" si="21"/>
+        <v>Licia Verde                     \\</v>
+      </c>
+      <c r="K166">
+        <f t="shared" si="22"/>
+        <v>11</v>
+      </c>
+      <c r="L166">
+        <f t="shared" si="23"/>
+        <v>21</v>
+      </c>
+      <c r="M166" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">                     </v>
+      </c>
+      <c r="P166">
+        <f t="shared" si="25"/>
+        <v>23</v>
+      </c>
+      <c r="Q166">
         <f t="shared" si="17"/>
-        <v>Scott Watson                    \\</v>
-      </c>
-      <c r="K166">
-        <f t="shared" si="18"/>
-        <v>12</v>
-      </c>
-      <c r="L166">
-        <f t="shared" si="19"/>
-        <v>20</v>
-      </c>
-      <c r="M166" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">                    </v>
-      </c>
-    </row>
-    <row r="167" spans="2:13">
-      <c r="B167" s="5" t="s">
-        <v>396</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="167" spans="2:17">
+      <c r="B167" s="1" t="s">
+        <v>321</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E167" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E167" t="s">
         <v>150</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>379</v>
+        <v>315</v>
       </c>
       <c r="I167" t="str">
+        <f t="shared" si="21"/>
+        <v>Patricio Vielva                 \\</v>
+      </c>
+      <c r="K167">
+        <f t="shared" si="22"/>
+        <v>15</v>
+      </c>
+      <c r="L167">
+        <f t="shared" si="23"/>
+        <v>17</v>
+      </c>
+      <c r="M167" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">                 </v>
+      </c>
+      <c r="P167">
+        <f t="shared" si="25"/>
+        <v>31</v>
+      </c>
+      <c r="Q167">
         <f t="shared" si="17"/>
-        <v>Rien van de Weygaert            \\</v>
-      </c>
-      <c r="K167">
-        <f t="shared" si="18"/>
-        <v>20</v>
-      </c>
-      <c r="L167">
-        <f t="shared" si="19"/>
-        <v>12</v>
-      </c>
-      <c r="M167" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">            </v>
-      </c>
-    </row>
-    <row r="168" spans="2:13">
-      <c r="B168" t="s">
-        <v>265</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="168" spans="2:17">
+      <c r="B168" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="E168" t="s">
         <v>150</v>
       </c>
       <c r="G168" t="s">
+        <v>273</v>
+      </c>
+      <c r="I168" t="str">
+        <f t="shared" si="21"/>
+        <v>Benjamin Wallisch               \\</v>
+      </c>
+      <c r="K168">
+        <f t="shared" si="22"/>
+        <v>17</v>
+      </c>
+      <c r="L168">
+        <f t="shared" si="23"/>
+        <v>15</v>
+      </c>
+      <c r="M168" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">               </v>
+      </c>
+      <c r="P168">
+        <f t="shared" si="25"/>
+        <v>23</v>
+      </c>
+      <c r="Q168">
+        <f t="shared" si="17"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="169" spans="2:17">
+      <c r="B169" t="s">
+        <v>262</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E169" t="s">
+        <v>150</v>
+      </c>
+      <c r="G169" t="s">
+        <v>264</v>
+      </c>
+      <c r="I169" t="str">
+        <f t="shared" si="21"/>
+        <v>Scott Watson                    \\</v>
+      </c>
+      <c r="K169">
+        <f t="shared" si="22"/>
+        <v>12</v>
+      </c>
+      <c r="L169">
+        <f t="shared" si="23"/>
+        <v>20</v>
+      </c>
+      <c r="M169" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="P169">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="Q169">
+        <f t="shared" ref="Q169:Q183" si="26">P169-2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="2:17">
+      <c r="B170" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I170" t="str">
+        <f t="shared" si="21"/>
+        <v>Rien van de Weygaert            \\</v>
+      </c>
+      <c r="K170">
+        <f t="shared" si="22"/>
+        <v>20</v>
+      </c>
+      <c r="L170">
+        <f t="shared" si="23"/>
+        <v>12</v>
+      </c>
+      <c r="M170" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="P170">
+        <f t="shared" si="25"/>
+        <v>35</v>
+      </c>
+      <c r="Q170">
+        <f t="shared" si="26"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="171" spans="2:17">
+      <c r="B171" t="s">
+        <v>265</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E171" t="s">
+        <v>150</v>
+      </c>
+      <c r="G171" t="s">
         <v>55</v>
       </c>
-      <c r="I168" t="str">
-        <f t="shared" si="17"/>
+      <c r="I171" t="str">
+        <f t="shared" si="21"/>
         <v>Edward J. Wollack               \\</v>
       </c>
-      <c r="K168">
-        <f t="shared" si="18"/>
+      <c r="K171">
+        <f t="shared" si="22"/>
         <v>17</v>
       </c>
-      <c r="L168">
-        <f t="shared" si="19"/>
+      <c r="L171">
+        <f t="shared" si="23"/>
         <v>15</v>
       </c>
-      <c r="M168" t="str">
-        <f t="shared" si="20"/>
+      <c r="M171" t="str">
+        <f t="shared" si="24"/>
         <v xml:space="preserve">               </v>
       </c>
-    </row>
-    <row r="177" spans="2:13">
-      <c r="B177" s="1" t="s">
+      <c r="P171">
+        <f t="shared" si="25"/>
+        <v>46</v>
+      </c>
+      <c r="Q171">
+        <f t="shared" si="26"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="172" spans="2:17">
+      <c r="P172">
+        <f t="shared" si="25"/>
+        <v>25</v>
+      </c>
+      <c r="Q172">
+        <f t="shared" si="26"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="173" spans="2:17">
+      <c r="P173">
+        <f t="shared" si="25"/>
+        <v>37</v>
+      </c>
+      <c r="Q173">
+        <f t="shared" si="26"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="174" spans="2:17">
+      <c r="P174">
+        <f t="shared" si="25"/>
+        <v>44</v>
+      </c>
+      <c r="Q174">
+        <f t="shared" si="26"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="175" spans="2:17">
+      <c r="P175">
+        <f t="shared" si="25"/>
+        <v>23</v>
+      </c>
+      <c r="Q175">
+        <f t="shared" si="26"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="176" spans="2:17">
+      <c r="P176">
+        <f t="shared" si="25"/>
+        <v>18</v>
+      </c>
+      <c r="Q176">
+        <f t="shared" si="26"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="177" spans="2:17">
+      <c r="P177">
+        <f t="shared" si="25"/>
+        <v>39</v>
+      </c>
+      <c r="Q177">
+        <f t="shared" si="26"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="178" spans="2:17">
+      <c r="P178">
+        <f t="shared" si="25"/>
+        <v>12</v>
+      </c>
+      <c r="Q178">
+        <f t="shared" si="26"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="2:17">
+      <c r="P179">
+        <f t="shared" si="25"/>
+        <v>23</v>
+      </c>
+      <c r="Q179">
+        <f t="shared" si="26"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="180" spans="2:17">
+      <c r="B180" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C180" t="s">
         <v>141</v>
       </c>
-      <c r="D177"/>
-      <c r="E177" t="s">
+      <c r="D180"/>
+      <c r="E180" t="s">
         <v>150</v>
       </c>
-      <c r="I177" t="str">
-        <f>CONCATENATE(B177," ",C177,M177,"\\")</f>
+      <c r="I180" t="str">
+        <f>CONCATENATE(B180," ",C180,M180,"\\")</f>
         <v>Martin White                    \\</v>
       </c>
-      <c r="K177">
-        <f>LEN(B177) + LEN(C177) +1</f>
+      <c r="K180">
+        <f>LEN(B180) + LEN(C180) +1</f>
         <v>12</v>
       </c>
-      <c r="L177">
-        <f>IF(K177&lt;30,(32-K177),3)</f>
+      <c r="L180">
+        <f>IF(K180&lt;30,(32-K180),3)</f>
         <v>20</v>
       </c>
-      <c r="M177" t="str">
-        <f>REPT(" ",L177)</f>
+      <c r="M180" t="str">
+        <f>REPT(" ",L180)</f>
         <v xml:space="preserve">                    </v>
       </c>
-    </row>
-    <row r="178" spans="2:13">
-      <c r="I178" t="str">
-        <f t="shared" ref="I178:I179" si="21">CONCATENATE(B178," ",C178,M178,"\\")</f>
+      <c r="P180">
+        <f t="shared" si="25"/>
+        <v>38</v>
+      </c>
+      <c r="Q180">
+        <f t="shared" si="26"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="181" spans="2:17">
+      <c r="I181" t="str">
+        <f t="shared" ref="I181:I182" si="27">CONCATENATE(B181," ",C181,M181,"\\")</f>
         <v xml:space="preserve">                                \\</v>
       </c>
-      <c r="K178">
-        <f t="shared" ref="K178:K179" si="22">LEN(B178) + LEN(C178) +1</f>
+      <c r="K181">
+        <f t="shared" ref="K181:K182" si="28">LEN(B181) + LEN(C181) +1</f>
         <v>1</v>
       </c>
-      <c r="L178">
-        <f t="shared" ref="L178:L179" si="23">IF(K178&lt;30,(32-K178),3)</f>
+      <c r="L181">
+        <f t="shared" ref="L181:L182" si="29">IF(K181&lt;30,(32-K181),3)</f>
         <v>31</v>
       </c>
-      <c r="M178" t="str">
-        <f t="shared" ref="M178:M192" si="24">REPT(" ",L178)</f>
+      <c r="M181" t="str">
+        <f t="shared" ref="M181:M195" si="30">REPT(" ",L181)</f>
         <v xml:space="preserve">                               </v>
       </c>
-    </row>
-    <row r="179" spans="2:13">
-      <c r="I179" t="str">
-        <f t="shared" si="21"/>
+      <c r="P181">
+        <f t="shared" si="25"/>
+        <v>23</v>
+      </c>
+      <c r="Q181">
+        <f t="shared" si="26"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="182" spans="2:17">
+      <c r="I182" t="str">
+        <f t="shared" si="27"/>
         <v xml:space="preserve">                                \\</v>
       </c>
-      <c r="K179">
-        <f t="shared" si="22"/>
+      <c r="K182">
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="L179">
-        <f t="shared" si="23"/>
+      <c r="L182">
+        <f t="shared" si="29"/>
         <v>31</v>
       </c>
-      <c r="M179" t="str">
-        <f t="shared" si="24"/>
+      <c r="M182" t="str">
+        <f t="shared" si="30"/>
         <v xml:space="preserve">                               </v>
       </c>
-    </row>
-    <row r="180" spans="2:13">
-      <c r="M180" t="str">
-        <f t="shared" si="24"/>
+      <c r="P182">
+        <f t="shared" si="25"/>
+        <v>16</v>
+      </c>
+      <c r="Q182">
+        <f t="shared" si="26"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="183" spans="2:17">
+      <c r="M183" t="str">
+        <f t="shared" si="30"/>
         <v/>
       </c>
-    </row>
-    <row r="181" spans="2:13">
-      <c r="M181" t="str">
-        <f t="shared" si="24"/>
+      <c r="P183">
+        <f t="shared" si="25"/>
+        <v>46</v>
+      </c>
+      <c r="Q183">
+        <f t="shared" si="26"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="184" spans="2:17">
+      <c r="M184" t="str">
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
-    <row r="182" spans="2:13">
-      <c r="B182" s="8" t="s">
+    <row r="185" spans="2:17">
+      <c r="B185" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="M182" t="str">
-        <f t="shared" si="24"/>
+      <c r="M185" t="str">
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
-    <row r="183" spans="2:13">
-      <c r="M183" t="str">
-        <f t="shared" si="24"/>
+    <row r="186" spans="2:17">
+      <c r="M186" t="str">
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
-    <row r="184" spans="2:13">
-      <c r="B184" s="5" t="s">
+    <row r="187" spans="2:17">
+      <c r="B187" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="C187" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="D184" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E184" t="s">
+      <c r="D187" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E187" t="s">
         <v>382</v>
       </c>
-      <c r="M184" t="str">
-        <f t="shared" si="24"/>
+      <c r="M187" t="str">
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
-    <row r="185" spans="2:13">
-      <c r="B185" s="1" t="s">
+    <row r="188" spans="2:17">
+      <c r="B188" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="C188" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="D185" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E185" t="s">
+      <c r="D188" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E188" t="s">
         <v>388</v>
       </c>
-      <c r="M185" t="str">
-        <f t="shared" si="24"/>
+      <c r="M188" t="str">
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
-    <row r="186" spans="2:13">
-      <c r="B186" s="1" t="s">
+    <row r="189" spans="2:17">
+      <c r="B189" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="C189" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="D186" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E186" t="s">
+      <c r="D189" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E189" t="s">
         <v>394</v>
       </c>
-      <c r="M186" t="str">
-        <f t="shared" si="24"/>
+      <c r="M189" t="str">
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
-    <row r="187" spans="2:13">
-      <c r="M187" t="str">
-        <f t="shared" si="24"/>
+    <row r="190" spans="2:17">
+      <c r="M190" t="str">
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
-    <row r="188" spans="2:13">
-      <c r="M188" t="str">
-        <f t="shared" si="24"/>
+    <row r="191" spans="2:17">
+      <c r="M191" t="str">
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
-    <row r="189" spans="2:13">
-      <c r="M189" t="str">
-        <f t="shared" si="24"/>
+    <row r="192" spans="2:17">
+      <c r="M192" t="str">
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
-    <row r="190" spans="2:13">
-      <c r="M190" t="str">
-        <f t="shared" si="24"/>
+    <row r="193" spans="2:13">
+      <c r="M193" t="str">
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
-    <row r="191" spans="2:13">
-      <c r="M191" t="str">
-        <f t="shared" si="24"/>
+    <row r="194" spans="2:13">
+      <c r="M194" t="str">
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
-    <row r="192" spans="2:13">
-      <c r="M192" t="str">
-        <f t="shared" si="24"/>
+    <row r="195" spans="2:13">
+      <c r="M195" t="str">
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
-    <row r="204" spans="2:4">
-      <c r="C204"/>
-      <c r="D204"/>
-    </row>
-    <row r="205" spans="2:4">
-      <c r="B205" s="6"/>
-    </row>
-    <row r="206" spans="2:4">
-      <c r="C206"/>
-      <c r="D206"/>
-    </row>
-    <row r="207" spans="2:4">
+    <row r="207" spans="2:13">
       <c r="C207"/>
       <c r="D207"/>
     </row>
-    <row r="208" spans="2:4">
-      <c r="C208"/>
-      <c r="D208"/>
+    <row r="208" spans="2:13">
+      <c r="B208" s="6"/>
     </row>
     <row r="209" spans="3:4">
       <c r="C209"/>
@@ -7835,9 +8734,21 @@
       <c r="C215"/>
       <c r="D215"/>
     </row>
+    <row r="216" spans="3:4">
+      <c r="C216"/>
+      <c r="D216"/>
+    </row>
+    <row r="217" spans="3:4">
+      <c r="C217"/>
+      <c r="D217"/>
+    </row>
+    <row r="218" spans="3:4">
+      <c r="C218"/>
+      <c r="D218"/>
+    </row>
   </sheetData>
-  <sortState ref="B10:G97">
-    <sortCondition ref="G10:G97"/>
+  <sortState ref="B10:G98">
+    <sortCondition ref="C10:C98"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>

--- a/ReferenceDocuments/ReportAuthors.xlsx
+++ b/ReferenceDocuments/ReportAuthors.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="627">
   <si>
     <t>Report Authors</t>
   </si>
@@ -1521,9 +1521,6 @@
     <t>Institut d'Astrophysique Spatiale, CNRS, Univ. Paris-Sud, Universit\'e Paris-Saclay, France</t>
   </si>
   <si>
-    <t>San Diego Supercomputer Center, University of California San Diego</t>
-  </si>
-  <si>
     <t>Devlin</t>
   </si>
   <si>
@@ -1668,6 +1665,9 @@
     <t>University of Florida</t>
   </si>
   <si>
+    <t>??</t>
+  </si>
+  <si>
     <t>Thiem</t>
   </si>
   <si>
@@ -1906,6 +1906,27 @@
   </si>
   <si>
     <t>IRFU, CEA, Universit\'e Paris-Saclay, France</t>
+  </si>
+  <si>
+    <t>R. Belen</t>
+  </si>
+  <si>
+    <t>San Diego Supercomputer Center, University of California, San Diego</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
+    <t>Bradley R.</t>
+  </si>
+  <si>
+    <t>1/10/2019, 11 am.</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Niemack</t>
   </si>
 </sst>
 </file>
@@ -2394,10 +2415,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q241"/>
+  <dimension ref="A1:Q243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -2430,7 +2451,7 @@
       </c>
       <c r="B3"/>
       <c r="C3" s="1" t="s">
-        <v>606</v>
+        <v>624</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2439,7 +2460,7 @@
       </c>
       <c r="B4"/>
       <c r="C4" s="1" t="s">
-        <v>606</v>
+        <v>624</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -2462,7 +2483,7 @@
         <v>270</v>
       </c>
       <c r="O7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -2516,13 +2537,13 @@
         <v>416</v>
       </c>
       <c r="E10" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" ref="I10:I74" si="0">CONCATENATE(B10," ",C10, " $^{", F10,"}$", M10,"\\")</f>
@@ -2556,13 +2577,13 @@
         <v>428</v>
       </c>
       <c r="E11" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="0"/>
@@ -2602,7 +2623,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="0"/>
@@ -2627,13 +2648,13 @@
     </row>
     <row r="13" spans="1:15">
       <c r="B13" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>521</v>
-      </c>
       <c r="D13" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -2642,7 +2663,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="0"/>
@@ -2676,7 +2697,7 @@
         <v>461</v>
       </c>
       <c r="E14" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -2716,7 +2737,7 @@
         <v>432</v>
       </c>
       <c r="E15" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -2787,22 +2808,22 @@
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F17">
         <v>5</v>
       </c>
       <c r="G17" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="0"/>
@@ -2876,7 +2897,7 @@
         <v>444</v>
       </c>
       <c r="E19" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F19">
         <v>6</v>
@@ -2907,7 +2928,7 @@
     </row>
     <row r="20" spans="2:15">
       <c r="B20" t="s">
-        <v>83</v>
+        <v>623</v>
       </c>
       <c r="C20" t="s">
         <v>84</v>
@@ -2926,19 +2947,19 @@
       </c>
       <c r="I20" t="str">
         <f t="shared" si="0"/>
-        <v>Brad Johnson $^{7}$                    \\</v>
+        <v>Bradley R. Johnson $^{7}$              \\</v>
       </c>
       <c r="K20">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L20">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M20" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">              </v>
       </c>
       <c r="O20" t="str">
         <f t="shared" si="4"/>
@@ -2956,7 +2977,7 @@
         <v>609</v>
       </c>
       <c r="E21" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G21" t="s">
         <v>608</v>
@@ -3039,7 +3060,7 @@
         <v>9</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="0"/>
@@ -3110,7 +3131,7 @@
         <v>127</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
@@ -3230,7 +3251,7 @@
         <v>186</v>
       </c>
       <c r="D28" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E28" t="s">
         <v>8</v>
@@ -3350,7 +3371,7 @@
         <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
@@ -3391,7 +3412,7 @@
       </c>
       <c r="D32"/>
       <c r="E32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F32">
         <v>16</v>
@@ -3431,7 +3452,7 @@
         <v>466</v>
       </c>
       <c r="E33" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F33">
         <v>16</v>
@@ -3462,7 +3483,7 @@
     </row>
     <row r="34" spans="2:15">
       <c r="B34" s="1" t="s">
-        <v>17</v>
+        <v>620</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>18</v>
@@ -3477,23 +3498,23 @@
         <v>17</v>
       </c>
       <c r="G34" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" si="0"/>
-        <v>Belen Barreiro $^{17}$                  \\</v>
+        <v>R. Belen Barreiro $^{17}$               \\</v>
       </c>
       <c r="K34">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L34">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M34" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">               </v>
       </c>
       <c r="O34" t="str">
         <f t="shared" si="4"/>
@@ -3508,7 +3529,7 @@
         <v>73</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E35" t="s">
         <v>8</v>
@@ -3517,7 +3538,7 @@
         <v>17</v>
       </c>
       <c r="G35" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="0"/>
@@ -3582,13 +3603,13 @@
     </row>
     <row r="37" spans="2:15">
       <c r="B37" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>519</v>
-      </c>
       <c r="D37" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>
@@ -3622,14 +3643,14 @@
     </row>
     <row r="38" spans="2:15">
       <c r="B38" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C38" t="s">
         <v>44</v>
       </c>
       <c r="D38"/>
       <c r="E38" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F38">
         <v>19</v>
@@ -3780,13 +3801,13 @@
     </row>
     <row r="42" spans="2:15">
       <c r="B42" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E42" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F42">
         <v>21</v>
@@ -3906,7 +3927,7 @@
         <v>427</v>
       </c>
       <c r="E45" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F45">
         <v>21</v>
@@ -4026,7 +4047,7 @@
         <v>453</v>
       </c>
       <c r="E48" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F48">
         <v>21</v>
@@ -4097,7 +4118,7 @@
     </row>
     <row r="50" spans="2:15">
       <c r="B50" s="1" t="s">
-        <v>111</v>
+        <v>622</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>112</v>
@@ -4116,19 +4137,19 @@
       </c>
       <c r="I50" t="str">
         <f t="shared" si="0"/>
-        <v>Chris Paine $^{21}$                     \\</v>
+        <v>Christopher Paine $^{21}$               \\</v>
       </c>
       <c r="K50">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L50">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M50" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">               </v>
       </c>
       <c r="O50" t="str">
         <f t="shared" si="4"/>
@@ -4226,7 +4247,7 @@
         <v>470</v>
       </c>
       <c r="E53" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F53">
         <v>21</v>
@@ -4257,16 +4278,16 @@
     </row>
     <row r="54" spans="2:15">
       <c r="B54" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E54" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F54">
         <v>22</v>
@@ -4337,7 +4358,7 @@
     </row>
     <row r="56" spans="2:15">
       <c r="B56" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>238</v>
@@ -4349,7 +4370,7 @@
         <v>23</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I56" t="str">
         <f t="shared" si="0"/>
@@ -4374,7 +4395,7 @@
     </row>
     <row r="57" spans="2:15">
       <c r="B57" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>7</v>
@@ -4387,7 +4408,7 @@
         <v>24</v>
       </c>
       <c r="G57" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I57" t="str">
         <f t="shared" si="0"/>
@@ -4412,7 +4433,7 @@
     </row>
     <row r="58" spans="2:15">
       <c r="B58" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>10</v>
@@ -4424,7 +4445,7 @@
         <v>24</v>
       </c>
       <c r="G58" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I58" t="str">
         <f t="shared" ref="I58" si="5">CONCATENATE(B58," ",C58, " $^{", F58,"}$", M58,"\\")</f>
@@ -4449,7 +4470,7 @@
     </row>
     <row r="59" spans="2:15">
       <c r="B59" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>10</v>
@@ -4492,13 +4513,13 @@
         <v>421</v>
       </c>
       <c r="E60" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F60">
         <v>24</v>
       </c>
       <c r="G60" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I60" t="str">
         <f t="shared" si="0"/>
@@ -4572,7 +4593,7 @@
         <v>452</v>
       </c>
       <c r="E62" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F62">
         <v>25</v>
@@ -4612,7 +4633,7 @@
         <v>447</v>
       </c>
       <c r="E63" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F63">
         <v>26</v>
@@ -4652,7 +4673,7 @@
         <v>437</v>
       </c>
       <c r="E64" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F64">
         <v>27</v>
@@ -4772,7 +4793,7 @@
         <v>449</v>
       </c>
       <c r="E67" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F67">
         <v>29</v>
@@ -4849,7 +4870,7 @@
         <v>99</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E69" t="s">
         <v>8</v>
@@ -4883,16 +4904,16 @@
     </row>
     <row r="70" spans="2:15">
       <c r="B70" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E70" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F70">
         <v>29</v>
@@ -4978,7 +4999,7 @@
         <v>31</v>
       </c>
       <c r="G72" t="s">
-        <v>491</v>
+        <v>621</v>
       </c>
       <c r="I72" t="str">
         <f t="shared" si="0"/>
@@ -4998,7 +5019,7 @@
       </c>
       <c r="O72" t="str">
         <f t="shared" si="4"/>
-        <v>31. San Diego Supercomputer Center, University of California San Diego.  \\</v>
+        <v>31. San Diego Supercomputer Center, University of California, San Diego.  \\</v>
       </c>
     </row>
     <row r="73" spans="2:15">
@@ -5083,19 +5104,19 @@
     </row>
     <row r="75" spans="2:15">
       <c r="B75" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E75" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F75">
         <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I75" t="str">
         <f t="shared" ref="I75:I94" si="10">CONCATENATE(B75," ",C75, " $^{", F75,"}$", M75,"\\")</f>
@@ -5106,11 +5127,11 @@
         <v>15</v>
       </c>
       <c r="L75">
-        <f t="shared" ref="L75:L98" si="12">IF(K75&lt;30,(32-K75),3)</f>
+        <f t="shared" ref="L75:L99" si="12">IF(K75&lt;30,(32-K75),3)</f>
         <v>17</v>
       </c>
       <c r="M75" t="str">
-        <f t="shared" ref="M75:M98" si="13">REPT(" ",L75)</f>
+        <f t="shared" ref="M75:M99" si="13">REPT(" ",L75)</f>
         <v xml:space="preserve">                 </v>
       </c>
       <c r="O75" t="str">
@@ -5126,7 +5147,7 @@
         <v>238</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E76" t="s">
         <v>8</v>
@@ -5175,7 +5196,7 @@
         <v>36</v>
       </c>
       <c r="G77" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I77" t="str">
         <f t="shared" si="10"/>
@@ -5286,7 +5307,7 @@
         <v>10</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E80" t="s">
         <v>8</v>
@@ -5329,7 +5350,7 @@
         <v>441</v>
       </c>
       <c r="E81" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F81">
         <v>38</v>
@@ -5369,7 +5390,7 @@
         <v>451</v>
       </c>
       <c r="E82" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F82">
         <v>39</v>
@@ -5409,7 +5430,7 @@
         <v>438</v>
       </c>
       <c r="E83" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F83">
         <v>40</v>
@@ -5455,7 +5476,7 @@
         <v>41</v>
       </c>
       <c r="G84" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I84" t="str">
         <f t="shared" si="10"/>
@@ -5563,10 +5584,10 @@
         <v>605</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E87" t="s">
         <v>366</v>
@@ -5575,7 +5596,7 @@
         <v>44</v>
       </c>
       <c r="G87" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I87" t="str">
         <f t="shared" si="10"/>
@@ -5609,7 +5630,7 @@
         <v>442</v>
       </c>
       <c r="E88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F88">
         <v>45</v>
@@ -5689,7 +5710,7 @@
         <v>463</v>
       </c>
       <c r="E90" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F90">
         <v>45</v>
@@ -5843,10 +5864,10 @@
         <v>604</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E94" t="s">
         <v>366</v>
@@ -5855,7 +5876,7 @@
         <v>47</v>
       </c>
       <c r="G94" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I94" t="str">
         <f t="shared" si="10"/>
@@ -5958,7 +5979,7 @@
         <v>49. University of Wisconsin - Madison.  \\</v>
       </c>
     </row>
-    <row r="97" spans="2:17">
+    <row r="97" spans="1:17">
       <c r="B97" s="3" t="s">
         <v>142</v>
       </c>
@@ -5966,7 +5987,7 @@
         <v>143</v>
       </c>
       <c r="D97" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E97" t="s">
         <v>8</v>
@@ -5998,7 +6019,7 @@
         <v>49. University of Wisconsin - Madison.  \\</v>
       </c>
     </row>
-    <row r="98" spans="2:17">
+    <row r="98" spans="1:17">
       <c r="B98" s="1" t="s">
         <v>35</v>
       </c>
@@ -6009,7 +6030,7 @@
         <v>425</v>
       </c>
       <c r="E98" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F98">
         <v>50</v>
@@ -6038,214 +6059,181 @@
         <v>50. Villanova University.  \\</v>
       </c>
     </row>
-    <row r="99" spans="2:17">
-      <c r="B99" s="3"/>
-      <c r="D99"/>
-    </row>
-    <row r="100" spans="2:17">
-      <c r="B100" s="3"/>
-      <c r="D100"/>
-    </row>
-    <row r="101" spans="2:17">
+    <row r="99" spans="1:17">
+      <c r="B99" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K99">
+        <f>LEN(B99) + LEN(C99) +1</f>
+        <v>11</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="12"/>
+        <v>21</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">                     </v>
+      </c>
+    </row>
+    <row r="101" spans="1:17">
       <c r="B101" s="3"/>
       <c r="D101"/>
     </row>
-    <row r="102" spans="2:17">
-      <c r="E102" s="1"/>
-    </row>
-    <row r="105" spans="2:17">
-      <c r="B105" s="3"/>
-      <c r="C105"/>
-      <c r="D105"/>
-      <c r="I105" t="str">
-        <f>CONCATENATE(B105," ",C105,M105,"\\")</f>
+    <row r="102" spans="1:17">
+      <c r="A102" t="s">
+        <v>539</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D102"/>
+      <c r="F102">
+        <v>45</v>
+      </c>
+      <c r="G102" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17">
+      <c r="B103" s="3"/>
+      <c r="D103"/>
+    </row>
+    <row r="104" spans="1:17">
+      <c r="E104" s="1"/>
+    </row>
+    <row r="107" spans="1:17">
+      <c r="B107" s="3"/>
+      <c r="C107"/>
+      <c r="D107"/>
+      <c r="I107" t="str">
+        <f>CONCATENATE(B107," ",C107,M107,"\\")</f>
         <v xml:space="preserve">                                \\</v>
       </c>
-      <c r="K105">
-        <f>LEN(B105) + LEN(C105) +1</f>
+      <c r="K107">
+        <f>LEN(B107) + LEN(C107) +1</f>
         <v>1</v>
       </c>
-      <c r="L105">
-        <f>IF(K105&lt;30,(32-K105),3)</f>
+      <c r="L107">
+        <f>IF(K107&lt;30,(32-K107),3)</f>
         <v>31</v>
       </c>
-      <c r="M105" t="str">
-        <f>REPT(" ",L105)</f>
+      <c r="M107" t="str">
+        <f>REPT(" ",L107)</f>
         <v xml:space="preserve">                               </v>
       </c>
-      <c r="P105">
+      <c r="P107">
         <f>F14+1</f>
         <v>3</v>
       </c>
-      <c r="Q105">
-        <f>P105-2</f>
+      <c r="Q107">
+        <f>P107-2</f>
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="2:17">
-      <c r="B106" s="1" t="s">
+    <row r="108" spans="1:17">
+      <c r="B108" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="E106" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G106" s="1" t="s">
+      <c r="E108" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G108" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="I106" t="str">
-        <f t="shared" ref="I106" si="15">CONCATENATE(B106," ",C106,M106,"\\")</f>
+      <c r="I108" t="str">
+        <f t="shared" ref="I108" si="15">CONCATENATE(B108," ",C108,M108,"\\")</f>
         <v>Maximilian Abitbol              \\</v>
       </c>
-      <c r="K106">
-        <f t="shared" ref="K106" si="16">LEN(B106) + LEN(C106) +1</f>
+      <c r="K108">
+        <f t="shared" ref="K108" si="16">LEN(B108) + LEN(C108) +1</f>
         <v>18</v>
       </c>
-      <c r="L106">
-        <f t="shared" ref="L106" si="17">IF(K106&lt;30,(32-K106),3)</f>
+      <c r="L108">
+        <f t="shared" ref="L108" si="17">IF(K108&lt;30,(32-K108),3)</f>
         <v>14</v>
       </c>
-      <c r="M106" t="str">
-        <f t="shared" ref="M106" si="18">REPT(" ",L106)</f>
+      <c r="M108" t="str">
+        <f t="shared" ref="M108" si="18">REPT(" ",L108)</f>
         <v xml:space="preserve">              </v>
       </c>
-      <c r="P106">
+      <c r="P108">
         <f>F15+1</f>
         <v>4</v>
       </c>
-      <c r="Q106">
-        <f t="shared" ref="Q106:Q169" si="19">P106-2</f>
+      <c r="Q108">
+        <f t="shared" ref="Q108:Q171" si="19">P108-2</f>
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="2:17">
-      <c r="B107" s="1" t="s">
+    <row r="109" spans="1:17">
+      <c r="B109" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E107" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G107" s="1" t="s">
+      <c r="E109" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G109" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I107" t="str">
-        <f t="shared" ref="I107:I169" si="20">CONCATENATE(B107," ",C107,M107,"\\")</f>
+      <c r="I109" t="str">
+        <f t="shared" ref="I109:I171" si="20">CONCATENATE(B109," ",C109,M109,"\\")</f>
         <v>Zeeshan Ahmed                   \\</v>
       </c>
-      <c r="K107">
-        <f t="shared" ref="K107:K169" si="21">LEN(B107) + LEN(C107) +1</f>
+      <c r="K109">
+        <f t="shared" ref="K109:K171" si="21">LEN(B109) + LEN(C109) +1</f>
         <v>13</v>
       </c>
-      <c r="L107">
-        <f t="shared" ref="L107:L169" si="22">IF(K107&lt;30,(32-K107),3)</f>
+      <c r="L109">
+        <f t="shared" ref="L109:L171" si="22">IF(K109&lt;30,(32-K109),3)</f>
         <v>19</v>
       </c>
-      <c r="M107" t="str">
-        <f t="shared" ref="M107:M169" si="23">REPT(" ",L107)</f>
+      <c r="M109" t="str">
+        <f t="shared" ref="M109:M171" si="23">REPT(" ",L109)</f>
         <v xml:space="preserve">                   </v>
       </c>
-      <c r="P107">
+      <c r="P109">
         <f>F16+1</f>
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="2:17">
-      <c r="B108" s="1" t="s">
+    <row r="110" spans="1:17">
+      <c r="B110" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="E108" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G108" s="1" t="s">
+      <c r="E110" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G110" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="I108" t="str">
+      <c r="I110" t="str">
         <f t="shared" si="20"/>
         <v>David Alonso                    \\</v>
-      </c>
-      <c r="K108">
-        <f t="shared" si="21"/>
-        <v>12</v>
-      </c>
-      <c r="L108">
-        <f t="shared" si="22"/>
-        <v>20</v>
-      </c>
-      <c r="M108" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">                    </v>
-      </c>
-      <c r="P108">
-        <f>F17+1</f>
-        <v>6</v>
-      </c>
-      <c r="Q108">
-        <f t="shared" si="19"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="109" spans="2:17">
-      <c r="B109" t="s">
-        <v>152</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E109" t="s">
-        <v>150</v>
-      </c>
-      <c r="G109" t="s">
-        <v>154</v>
-      </c>
-      <c r="I109" t="str">
-        <f t="shared" si="20"/>
-        <v>Jason Austermann                \\</v>
-      </c>
-      <c r="K109">
-        <f t="shared" si="21"/>
-        <v>16</v>
-      </c>
-      <c r="L109">
-        <f t="shared" si="22"/>
-        <v>16</v>
-      </c>
-      <c r="M109" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">                </v>
-      </c>
-      <c r="P109">
-        <f>F18+1</f>
-        <v>7</v>
-      </c>
-      <c r="Q109">
-        <f t="shared" si="19"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="110" spans="2:17">
-      <c r="B110" t="s">
-        <v>155</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E110" t="s">
-        <v>150</v>
-      </c>
-      <c r="G110" t="s">
-        <v>157</v>
-      </c>
-      <c r="I110" t="str">
-        <f t="shared" si="20"/>
-        <v>Darcy Barron                    \\</v>
       </c>
       <c r="K110">
         <f t="shared" si="21"/>
@@ -6260,540 +6248,540 @@
         <v xml:space="preserve">                    </v>
       </c>
       <c r="P110">
+        <f>F17+1</f>
+        <v>6</v>
+      </c>
+      <c r="Q110">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17">
+      <c r="B111" t="s">
+        <v>152</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E111" t="s">
+        <v>150</v>
+      </c>
+      <c r="G111" t="s">
+        <v>154</v>
+      </c>
+      <c r="I111" t="str">
+        <f t="shared" si="20"/>
+        <v>Jason Austermann                \\</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="22"/>
+        <v>16</v>
+      </c>
+      <c r="M111" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">                </v>
+      </c>
+      <c r="P111">
+        <f>F18+1</f>
+        <v>7</v>
+      </c>
+      <c r="Q111">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17">
+      <c r="B112" t="s">
+        <v>155</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E112" t="s">
+        <v>150</v>
+      </c>
+      <c r="G112" t="s">
+        <v>157</v>
+      </c>
+      <c r="I112" t="str">
+        <f t="shared" si="20"/>
+        <v>Darcy Barron                    \\</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="22"/>
+        <v>20</v>
+      </c>
+      <c r="M112" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="P112">
         <f>F19+1</f>
         <v>7</v>
       </c>
-      <c r="Q110">
+      <c r="Q112">
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="2:17">
-      <c r="B111" s="1" t="s">
+    <row r="113" spans="2:17">
+      <c r="B113" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C113" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="E111" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G111" s="1" t="s">
+      <c r="E113" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G113" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="I111" t="str">
+      <c r="I113" t="str">
         <f t="shared" si="20"/>
         <v>Daniel Baumann                  \\</v>
       </c>
-      <c r="K111">
+      <c r="K113">
         <f t="shared" si="21"/>
         <v>14</v>
       </c>
-      <c r="L111">
+      <c r="L113">
         <f t="shared" si="22"/>
         <v>18</v>
       </c>
-      <c r="M111" t="str">
+      <c r="M113" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">                  </v>
       </c>
-      <c r="P111">
+      <c r="P113">
         <f>F20+1</f>
         <v>8</v>
       </c>
-      <c r="Q111">
+      <c r="Q113">
         <f t="shared" si="19"/>
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="2:17">
-      <c r="B112" s="1" t="s">
+    <row r="114" spans="2:17">
+      <c r="B114" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E112" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G112" s="1" t="s">
+      <c r="E114" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G114" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="I112" t="str">
+      <c r="I114" t="str">
         <f t="shared" si="20"/>
         <v>Karim Benabed                   \\</v>
       </c>
-      <c r="K112">
+      <c r="K114">
         <f t="shared" si="21"/>
         <v>13</v>
       </c>
-      <c r="L112">
+      <c r="L114">
         <f t="shared" si="22"/>
         <v>19</v>
       </c>
-      <c r="M112" t="str">
+      <c r="M114" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">                   </v>
       </c>
-      <c r="P112">
+      <c r="P114">
         <f>F21+1</f>
         <v>1</v>
       </c>
-      <c r="Q112">
+      <c r="Q114">
         <f t="shared" si="19"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="113" spans="2:17">
-      <c r="B113" s="1" t="s">
+    <row r="115" spans="2:17">
+      <c r="B115" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="E113" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G113" s="1" t="s">
+      <c r="E115" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G115" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="I113" t="str">
+      <c r="I115" t="str">
         <f t="shared" si="20"/>
         <v>Bradford Benson                 \\</v>
       </c>
-      <c r="K113">
+      <c r="K115">
         <f t="shared" si="21"/>
         <v>15</v>
       </c>
-      <c r="L113">
+      <c r="L115">
         <f t="shared" si="22"/>
         <v>17</v>
       </c>
-      <c r="M113" t="str">
+      <c r="M115" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">                 </v>
       </c>
-      <c r="P113">
+      <c r="P115">
         <f>F22+1</f>
         <v>9</v>
       </c>
-      <c r="Q113">
+      <c r="Q115">
         <f t="shared" si="19"/>
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="2:17">
-      <c r="B114" s="1" t="s">
+    <row r="116" spans="2:17">
+      <c r="B116" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C116" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="E114" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G114" s="1" t="s">
+      <c r="E116" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G116" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="I114" t="str">
+      <c r="I116" t="str">
         <f t="shared" si="20"/>
         <v>Paolo de Bernardis              \\</v>
       </c>
-      <c r="K114">
+      <c r="K116">
         <f t="shared" si="21"/>
         <v>18</v>
       </c>
-      <c r="L114">
+      <c r="L116">
         <f t="shared" si="22"/>
         <v>14</v>
       </c>
-      <c r="M114" t="str">
+      <c r="M116" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">              </v>
       </c>
-      <c r="P114">
+      <c r="P116">
         <f>F23+1</f>
         <v>10</v>
       </c>
-      <c r="Q114">
+      <c r="Q116">
         <f t="shared" si="19"/>
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="2:17">
-      <c r="B115" t="s">
+    <row r="117" spans="2:17">
+      <c r="B117" t="s">
         <v>160</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C117" t="s">
         <v>161</v>
       </c>
-      <c r="D115"/>
-      <c r="E115" t="s">
-        <v>150</v>
-      </c>
-      <c r="G115" t="s">
+      <c r="D117"/>
+      <c r="E117" t="s">
+        <v>150</v>
+      </c>
+      <c r="G117" t="s">
         <v>162</v>
       </c>
-      <c r="I115" t="str">
+      <c r="I117" t="str">
         <f t="shared" si="20"/>
         <v>Federico Bianchini              \\</v>
       </c>
-      <c r="K115">
+      <c r="K117">
         <f t="shared" si="21"/>
         <v>18</v>
       </c>
-      <c r="L115">
+      <c r="L117">
         <f t="shared" si="22"/>
         <v>14</v>
       </c>
-      <c r="M115" t="str">
+      <c r="M117" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">              </v>
       </c>
-      <c r="P115">
+      <c r="P117">
         <f>F24+1</f>
         <v>11</v>
       </c>
-      <c r="Q115">
+      <c r="Q117">
         <f t="shared" si="19"/>
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="2:17">
-      <c r="B116" s="1" t="s">
+    <row r="118" spans="2:17">
+      <c r="B118" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C118" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E116" t="s">
-        <v>150</v>
-      </c>
-      <c r="G116" t="s">
+      <c r="E118" t="s">
+        <v>150</v>
+      </c>
+      <c r="G118" t="s">
         <v>274</v>
       </c>
-      <c r="I116" t="str">
+      <c r="I118" t="str">
         <f t="shared" si="20"/>
         <v>Colin Bischoff                  \\</v>
       </c>
-      <c r="K116">
+      <c r="K118">
         <f t="shared" si="21"/>
         <v>14</v>
       </c>
-      <c r="L116">
+      <c r="L118">
         <f t="shared" si="22"/>
         <v>18</v>
       </c>
-      <c r="M116" t="str">
+      <c r="M118" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">                  </v>
       </c>
-      <c r="P116">
+      <c r="P118">
         <f>F25+1</f>
         <v>12</v>
       </c>
-      <c r="Q116">
+      <c r="Q118">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="2:17">
-      <c r="B117" s="1" t="s">
+    <row r="119" spans="2:17">
+      <c r="B119" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C119" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E117" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G117" s="1" t="s">
+      <c r="E119" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G119" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="I117" t="str">
+      <c r="I119" t="str">
         <f t="shared" si="20"/>
         <v>J. Richard Bond                 \\</v>
       </c>
-      <c r="K117">
+      <c r="K119">
         <f t="shared" si="21"/>
         <v>15</v>
       </c>
-      <c r="L117">
+      <c r="L119">
         <f t="shared" si="22"/>
         <v>17</v>
       </c>
-      <c r="M117" t="str">
+      <c r="M119" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">                 </v>
       </c>
-      <c r="P117">
+      <c r="P119">
         <f>F26+1</f>
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="2:17">
-      <c r="B118" s="1" t="s">
+    <row r="120" spans="2:17">
+      <c r="B120" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C120" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="E118" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G118" s="1" t="s">
+      <c r="E120" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G120" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="I118" t="str">
+      <c r="I120" t="str">
         <f t="shared" si="20"/>
         <v>Sean Bryan                      \\</v>
       </c>
-      <c r="K118">
+      <c r="K120">
         <f t="shared" si="21"/>
         <v>10</v>
       </c>
-      <c r="L118">
+      <c r="L120">
         <f t="shared" si="22"/>
         <v>22</v>
       </c>
-      <c r="M118" t="str">
+      <c r="M120" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">                      </v>
       </c>
-      <c r="P118">
+      <c r="P120">
         <f>F27+1</f>
         <v>14</v>
       </c>
-      <c r="Q118">
+      <c r="Q120">
         <f t="shared" si="19"/>
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="2:17">
-      <c r="B119" s="1" t="s">
+    <row r="121" spans="2:17">
+      <c r="B121" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C121" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="E119" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F119" t="s">
+      <c r="E121" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F121" t="s">
         <v>388</v>
       </c>
-      <c r="G119" s="1" t="s">
+      <c r="G121" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="I119" t="str">
+      <c r="I121" t="str">
         <f t="shared" si="20"/>
         <v>Carlo Burigana                  \\</v>
       </c>
-      <c r="K119">
+      <c r="K121">
         <f t="shared" si="21"/>
         <v>14</v>
       </c>
-      <c r="L119">
+      <c r="L121">
         <f t="shared" si="22"/>
         <v>18</v>
       </c>
-      <c r="M119" t="str">
+      <c r="M121" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">                  </v>
       </c>
-      <c r="P119">
+      <c r="P121">
         <f>F28+1</f>
         <v>15</v>
       </c>
-      <c r="Q119">
+      <c r="Q121">
         <f t="shared" si="19"/>
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="2:17">
-      <c r="B120" s="1" t="s">
+    <row r="122" spans="2:17">
+      <c r="B122" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C122" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E120" t="s">
-        <v>150</v>
-      </c>
-      <c r="G120" t="s">
+      <c r="E122" t="s">
+        <v>150</v>
+      </c>
+      <c r="G122" t="s">
         <v>272</v>
       </c>
-      <c r="I120" t="str">
+      <c r="I122" t="str">
         <f t="shared" si="20"/>
         <v>Robert Caldwell                 \\</v>
       </c>
-      <c r="K120">
+      <c r="K122">
         <f t="shared" si="21"/>
         <v>15</v>
       </c>
-      <c r="L120">
+      <c r="L122">
         <f t="shared" si="22"/>
         <v>17</v>
       </c>
-      <c r="M120" t="str">
+      <c r="M122" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">                 </v>
       </c>
-      <c r="P120">
+      <c r="P122">
         <f>F29+1</f>
         <v>15</v>
       </c>
-      <c r="Q120">
+      <c r="Q122">
         <f t="shared" si="19"/>
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="2:17">
-      <c r="B121" t="s">
+    <row r="123" spans="2:17">
+      <c r="B123" t="s">
         <v>168</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C123" t="s">
         <v>169</v>
       </c>
-      <c r="D121"/>
-      <c r="E121" t="s">
-        <v>150</v>
-      </c>
-      <c r="G121" t="s">
+      <c r="D123"/>
+      <c r="E123" t="s">
+        <v>150</v>
+      </c>
+      <c r="G123" t="s">
         <v>128</v>
       </c>
-      <c r="I121" t="str">
+      <c r="I123" t="str">
         <f t="shared" si="20"/>
         <v>Xingang Chen                    \\</v>
       </c>
-      <c r="K121">
+      <c r="K123">
         <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="L121">
+      <c r="L123">
         <f t="shared" si="22"/>
         <v>20</v>
       </c>
-      <c r="M121" t="str">
+      <c r="M123" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">                    </v>
       </c>
-      <c r="P121">
+      <c r="P123">
         <f>F30+1</f>
         <v>16</v>
       </c>
-      <c r="Q121">
+      <c r="Q123">
         <f t="shared" si="19"/>
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="2:17">
-      <c r="B122" t="s">
+    <row r="124" spans="2:17">
+      <c r="B124" t="s">
         <v>173</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C124" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E122" t="s">
-        <v>150</v>
-      </c>
-      <c r="G122" t="s">
+      <c r="E124" t="s">
+        <v>150</v>
+      </c>
+      <c r="G124" t="s">
         <v>175</v>
       </c>
-      <c r="I122" t="str">
+      <c r="I124" t="str">
         <f t="shared" si="20"/>
         <v>Francis-Yan Cyr-Racine          \\</v>
       </c>
-      <c r="K122">
+      <c r="K124">
         <f t="shared" si="21"/>
         <v>22</v>
       </c>
-      <c r="L122">
+      <c r="L124">
         <f t="shared" si="22"/>
         <v>10</v>
       </c>
-      <c r="M122" t="str">
+      <c r="M124" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">          </v>
       </c>
-      <c r="P122">
+      <c r="P124">
         <f>F31+1</f>
-        <v>17</v>
-      </c>
-      <c r="Q122">
-        <f t="shared" si="19"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="123" spans="2:17">
-      <c r="B123" t="s">
-        <v>176</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E123" t="s">
-        <v>150</v>
-      </c>
-      <c r="G123" t="s">
-        <v>178</v>
-      </c>
-      <c r="I123" t="str">
-        <f t="shared" si="20"/>
-        <v>Tijmen de Haan                  \\</v>
-      </c>
-      <c r="K123">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="L123">
-        <f t="shared" si="22"/>
-        <v>18</v>
-      </c>
-      <c r="M123" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">                  </v>
-      </c>
-      <c r="P123">
-        <f>F32+1</f>
-        <v>17</v>
-      </c>
-      <c r="Q123">
-        <f t="shared" si="19"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="124" spans="2:17">
-      <c r="B124" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I124" t="str">
-        <f t="shared" si="20"/>
-        <v>Cora Dvorkin                    \\</v>
-      </c>
-      <c r="K124">
-        <f t="shared" si="21"/>
-        <v>12</v>
-      </c>
-      <c r="L124">
-        <f t="shared" si="22"/>
-        <v>20</v>
-      </c>
-      <c r="M124" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">                    </v>
-      </c>
-      <c r="P124">
-        <f>F33+1</f>
         <v>17</v>
       </c>
       <c r="Q124">
@@ -6803,221 +6791,221 @@
     </row>
     <row r="125" spans="2:17">
       <c r="B125" t="s">
-        <v>588</v>
+        <v>176</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>586</v>
+        <v>177</v>
+      </c>
+      <c r="E125" t="s">
+        <v>150</v>
+      </c>
+      <c r="G125" t="s">
+        <v>178</v>
       </c>
       <c r="I125" t="str">
         <f t="shared" si="20"/>
-        <v>Ivan Soares Ferreira            \\</v>
+        <v>Tijmen de Haan                  \\</v>
       </c>
       <c r="K125">
         <f t="shared" si="21"/>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L125">
         <f t="shared" si="22"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M125" t="str">
         <f t="shared" si="23"/>
+        <v xml:space="preserve">                  </v>
+      </c>
+      <c r="P125">
+        <f>F32+1</f>
+        <v>17</v>
+      </c>
+      <c r="Q125">
+        <f t="shared" si="19"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="2:17">
+      <c r="B126" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I126" t="str">
+        <f t="shared" si="20"/>
+        <v>Cora Dvorkin                    \\</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="L126">
+        <f t="shared" si="22"/>
+        <v>20</v>
+      </c>
+      <c r="M126" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="P126">
+        <f>F33+1</f>
+        <v>17</v>
+      </c>
+      <c r="Q126">
+        <f t="shared" si="19"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="2:17">
+      <c r="B127" t="s">
+        <v>588</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="I127" t="str">
+        <f t="shared" si="20"/>
+        <v>Ivan Soares Ferreira            \\</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="21"/>
+        <v>20</v>
+      </c>
+      <c r="L127">
+        <f t="shared" si="22"/>
+        <v>12</v>
+      </c>
+      <c r="M127" t="str">
+        <f t="shared" si="23"/>
         <v xml:space="preserve">            </v>
       </c>
-      <c r="P125">
+      <c r="P127">
         <f>F34+1</f>
         <v>18</v>
       </c>
-      <c r="Q125">
+      <c r="Q127">
         <f t="shared" si="19"/>
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="2:17">
-      <c r="B126" t="s">
+    <row r="128" spans="2:17">
+      <c r="B128" t="s">
         <v>181</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C128" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E126" t="s">
-        <v>150</v>
-      </c>
-      <c r="G126" t="s">
+      <c r="E128" t="s">
+        <v>150</v>
+      </c>
+      <c r="G128" t="s">
         <v>87</v>
       </c>
-      <c r="I126" t="str">
+      <c r="I128" t="str">
         <f t="shared" si="20"/>
         <v>Aurelien Fraisse                \\</v>
       </c>
-      <c r="K126">
+      <c r="K128">
         <f t="shared" si="21"/>
         <v>16</v>
       </c>
-      <c r="L126">
+      <c r="L128">
         <f t="shared" si="22"/>
         <v>16</v>
       </c>
-      <c r="M126" t="str">
+      <c r="M128" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">                </v>
       </c>
-      <c r="P126">
+      <c r="P128">
         <f>F35+1</f>
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="2:17">
-      <c r="B127" t="s">
+    <row r="129" spans="2:17">
+      <c r="B129" t="s">
         <v>187</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C129" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E127" t="s">
-        <v>150</v>
-      </c>
-      <c r="G127" t="s">
+      <c r="E129" t="s">
+        <v>150</v>
+      </c>
+      <c r="G129" t="s">
         <v>189</v>
       </c>
-      <c r="I127" t="str">
+      <c r="I129" t="str">
         <f t="shared" si="20"/>
         <v>Silvia Galli                    \\</v>
       </c>
-      <c r="K127">
+      <c r="K129">
         <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="L127">
+      <c r="L129">
         <f t="shared" si="22"/>
         <v>20</v>
       </c>
-      <c r="M127" t="str">
+      <c r="M129" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">                    </v>
       </c>
-      <c r="P127">
+      <c r="P129">
         <f>F36+1</f>
         <v>19</v>
       </c>
-      <c r="Q127">
+      <c r="Q129">
         <f t="shared" si="19"/>
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="2:17">
-      <c r="B128" s="1" t="s">
+    <row r="130" spans="2:17">
+      <c r="B130" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C130" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E128" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G128" s="1" t="s">
+      <c r="E130" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G130" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="I128" t="str">
+      <c r="I130" t="str">
         <f t="shared" si="20"/>
         <v>Ken Ganga                       \\</v>
       </c>
-      <c r="K128">
+      <c r="K130">
         <f t="shared" si="21"/>
         <v>9</v>
       </c>
-      <c r="L128">
+      <c r="L130">
         <f t="shared" si="22"/>
         <v>23</v>
       </c>
-      <c r="M128" t="str">
+      <c r="M130" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">                       </v>
       </c>
-      <c r="P128">
+      <c r="P130">
         <f>F37+1</f>
-        <v>20</v>
-      </c>
-      <c r="Q128">
-        <f t="shared" si="19"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="129" spans="2:17">
-      <c r="B129" t="s">
-        <v>193</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E129" t="s">
-        <v>150</v>
-      </c>
-      <c r="G129" t="s">
-        <v>195</v>
-      </c>
-      <c r="I129" t="str">
-        <f t="shared" si="20"/>
-        <v>Tuhin Ghosh                     \\</v>
-      </c>
-      <c r="K129">
-        <f t="shared" si="21"/>
-        <v>11</v>
-      </c>
-      <c r="L129">
-        <f t="shared" si="22"/>
-        <v>21</v>
-      </c>
-      <c r="M129" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">                     </v>
-      </c>
-      <c r="P129">
-        <f>F38+1</f>
-        <v>20</v>
-      </c>
-      <c r="Q129">
-        <f t="shared" si="19"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="130" spans="2:17">
-      <c r="B130" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="E130" t="s">
-        <v>150</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="I130" t="str">
-        <f t="shared" si="20"/>
-        <v>Sunil Golwala                   \\</v>
-      </c>
-      <c r="K130">
-        <f t="shared" si="21"/>
-        <v>13</v>
-      </c>
-      <c r="L130">
-        <f t="shared" si="22"/>
-        <v>19</v>
-      </c>
-      <c r="M130" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">                   </v>
-      </c>
-      <c r="P130">
-        <f>F39+1</f>
         <v>20</v>
       </c>
       <c r="Q130">
@@ -7026,188 +7014,189 @@
       </c>
     </row>
     <row r="131" spans="2:17">
-      <c r="B131" s="1" t="s">
-        <v>573</v>
+      <c r="B131" t="s">
+        <v>193</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>557</v>
+        <v>194</v>
+      </c>
+      <c r="E131" t="s">
+        <v>150</v>
+      </c>
+      <c r="G131" t="s">
+        <v>195</v>
       </c>
       <c r="I131" t="str">
         <f t="shared" si="20"/>
-        <v>Riccardo Gualtieri              \\</v>
+        <v>Tuhin Ghosh                     \\</v>
       </c>
       <c r="K131">
         <f t="shared" si="21"/>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L131">
         <f t="shared" si="22"/>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M131" t="str">
         <f t="shared" si="23"/>
+        <v xml:space="preserve">                     </v>
+      </c>
+      <c r="P131">
+        <f>F38+1</f>
+        <v>20</v>
+      </c>
+      <c r="Q131">
+        <f t="shared" si="19"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" spans="2:17">
+      <c r="B132" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E132" t="s">
+        <v>150</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I132" t="str">
+        <f t="shared" si="20"/>
+        <v>Sunil Golwala                   \\</v>
+      </c>
+      <c r="K132">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="L132">
+        <f t="shared" si="22"/>
+        <v>19</v>
+      </c>
+      <c r="M132" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">                   </v>
+      </c>
+      <c r="P132">
+        <f>F39+1</f>
+        <v>20</v>
+      </c>
+      <c r="Q132">
+        <f t="shared" si="19"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133" spans="2:17">
+      <c r="B133" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="I133" t="str">
+        <f t="shared" si="20"/>
+        <v>Riccardo Gualtieri              \\</v>
+      </c>
+      <c r="K133">
+        <f t="shared" si="21"/>
+        <v>18</v>
+      </c>
+      <c r="L133">
+        <f t="shared" si="22"/>
+        <v>14</v>
+      </c>
+      <c r="M133" t="str">
+        <f t="shared" si="23"/>
         <v xml:space="preserve">              </v>
       </c>
-      <c r="P131">
+      <c r="P133">
         <f>F40+1</f>
         <v>21</v>
       </c>
-      <c r="Q131">
+      <c r="Q133">
         <f t="shared" si="19"/>
         <v>19</v>
       </c>
     </row>
-    <row r="132" spans="2:17">
-      <c r="B132" t="s">
+    <row r="134" spans="2:17">
+      <c r="B134" t="s">
         <v>196</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C134" t="s">
         <v>197</v>
       </c>
-      <c r="D132"/>
-      <c r="E132" t="s">
-        <v>150</v>
-      </c>
-      <c r="G132" t="s">
+      <c r="D134"/>
+      <c r="E134" t="s">
+        <v>150</v>
+      </c>
+      <c r="G134" t="s">
         <v>198</v>
       </c>
-      <c r="I132" t="str">
+      <c r="I134" t="str">
         <f t="shared" si="20"/>
         <v>Jon E. Gudmundsson              \\</v>
       </c>
-      <c r="K132">
+      <c r="K134">
         <f t="shared" si="21"/>
         <v>18</v>
       </c>
-      <c r="L132">
+      <c r="L134">
         <f t="shared" si="22"/>
         <v>14</v>
       </c>
-      <c r="M132" t="str">
+      <c r="M134" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">              </v>
       </c>
-      <c r="P132">
+      <c r="P134">
         <f>F41+1</f>
         <v>21</v>
       </c>
-      <c r="Q132">
+      <c r="Q134">
         <f t="shared" si="19"/>
         <v>19</v>
       </c>
     </row>
-    <row r="133" spans="2:17">
-      <c r="B133" s="1" t="s">
+    <row r="135" spans="2:17">
+      <c r="B135" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C135" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="E133" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G133" s="1" t="s">
+      <c r="E135" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G135" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="I133" t="str">
+      <c r="I135" t="str">
         <f t="shared" si="20"/>
         <v>Nikhel Gupta                    \\</v>
       </c>
-      <c r="K133">
+      <c r="K135">
         <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="L133">
+      <c r="L135">
         <f t="shared" si="22"/>
         <v>20</v>
       </c>
-      <c r="M133" t="str">
+      <c r="M135" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">                    </v>
       </c>
-      <c r="P133">
+      <c r="P135">
         <f>F42+1</f>
-        <v>22</v>
-      </c>
-      <c r="Q133">
-        <f t="shared" si="19"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="134" spans="2:17">
-      <c r="B134" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="I134" t="str">
-        <f t="shared" si="20"/>
-        <v>Sophie Henrot-Versill\'e        \\</v>
-      </c>
-      <c r="K134">
-        <f t="shared" si="21"/>
-        <v>24</v>
-      </c>
-      <c r="L134">
-        <f t="shared" si="22"/>
-        <v>8</v>
-      </c>
-      <c r="M134" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">        </v>
-      </c>
-      <c r="P134">
-        <f>F43+1</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="135" spans="2:17">
-      <c r="B135" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="G135" t="s">
-        <v>543</v>
-      </c>
-      <c r="I135" t="str">
-        <f t="shared" si="20"/>
-        <v>Thiem Hoang                     \\</v>
-      </c>
-      <c r="K135">
-        <f t="shared" si="21"/>
-        <v>11</v>
-      </c>
-      <c r="L135">
-        <f t="shared" si="22"/>
-        <v>21</v>
-      </c>
-      <c r="M135" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">                     </v>
-      </c>
-      <c r="P135">
-        <f>F44+1</f>
         <v>22</v>
       </c>
       <c r="Q135">
@@ -7217,73 +7206,72 @@
     </row>
     <row r="136" spans="2:17">
       <c r="B136" s="1" t="s">
-        <v>318</v>
+        <v>602</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E136" t="s">
+        <v>603</v>
+      </c>
+      <c r="E136" s="1" t="s">
         <v>150</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>316</v>
+        <v>599</v>
       </c>
       <c r="I136" t="str">
         <f t="shared" si="20"/>
-        <v>Kevin M. Huffenberger           \\</v>
+        <v>Sophie Henrot-Versill\'e        \\</v>
       </c>
       <c r="K136">
         <f t="shared" si="21"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L136">
         <f t="shared" si="22"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M136" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">           </v>
+        <v xml:space="preserve">        </v>
       </c>
       <c r="P136">
-        <f>F45+1</f>
+        <f>F43+1</f>
         <v>22</v>
-      </c>
-      <c r="Q136">
-        <f t="shared" si="19"/>
-        <v>20</v>
       </c>
     </row>
     <row r="137" spans="2:17">
       <c r="B137" s="1" t="s">
-        <v>199</v>
+        <v>540</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>200</v>
+        <v>541</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>542</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>201</v>
+        <v>544</v>
+      </c>
+      <c r="G137" t="s">
+        <v>543</v>
       </c>
       <c r="I137" t="str">
         <f t="shared" si="20"/>
-        <v>Marc Kamionkowski               \\</v>
+        <v>Thiem Hoang                     \\</v>
       </c>
       <c r="K137">
         <f t="shared" si="21"/>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L137">
         <f t="shared" si="22"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M137" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">               </v>
+        <v xml:space="preserve">                     </v>
       </c>
       <c r="P137">
-        <f>F46+1</f>
+        <f>F44+1</f>
         <v>22</v>
       </c>
       <c r="Q137">
@@ -7292,70 +7280,74 @@
       </c>
     </row>
     <row r="138" spans="2:17">
-      <c r="B138" t="s">
-        <v>202</v>
+      <c r="B138" s="1" t="s">
+        <v>318</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="E138" t="s">
         <v>150</v>
       </c>
-      <c r="G138" t="s">
-        <v>204</v>
+      <c r="G138" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="I138" t="str">
         <f t="shared" si="20"/>
-        <v>Reijo Keskitalo                 \\</v>
+        <v>Kevin M. Huffenberger           \\</v>
       </c>
       <c r="K138">
         <f t="shared" si="21"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="L138">
         <f t="shared" si="22"/>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="M138" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">           </v>
       </c>
       <c r="P138">
-        <f>F47+1</f>
+        <f>F45+1</f>
         <v>22</v>
       </c>
+      <c r="Q138">
+        <f t="shared" si="19"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="139" spans="2:17">
-      <c r="B139" t="s">
-        <v>205</v>
+      <c r="B139" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E139" t="s">
-        <v>150</v>
-      </c>
-      <c r="G139" t="s">
-        <v>207</v>
+        <v>200</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="I139" t="str">
         <f t="shared" si="20"/>
-        <v>Rishi Khatri                    \\</v>
+        <v>Marc Kamionkowski               \\</v>
       </c>
       <c r="K139">
         <f t="shared" si="21"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L139">
         <f t="shared" si="22"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M139" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">               </v>
       </c>
       <c r="P139">
-        <f>F48+1</f>
+        <f>F46+1</f>
         <v>22</v>
       </c>
       <c r="Q139">
@@ -7364,74 +7356,70 @@
       </c>
     </row>
     <row r="140" spans="2:17">
-      <c r="B140" s="1" t="s">
-        <v>208</v>
+      <c r="B140" t="s">
+        <v>202</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
+      </c>
+      <c r="E140" t="s">
+        <v>150</v>
+      </c>
+      <c r="G140" t="s">
+        <v>204</v>
       </c>
       <c r="I140" t="str">
         <f t="shared" si="20"/>
-        <v>Ely Kovetz                      \\</v>
+        <v>Reijo Keskitalo                 \\</v>
       </c>
       <c r="K140">
         <f t="shared" si="21"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L140">
         <f t="shared" si="22"/>
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M140" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">                      </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="P140">
-        <f>F49+1</f>
+        <f>F47+1</f>
         <v>22</v>
       </c>
-      <c r="Q140">
-        <f t="shared" si="19"/>
-        <v>20</v>
-      </c>
     </row>
     <row r="141" spans="2:17">
-      <c r="B141" s="1" t="s">
-        <v>354</v>
+      <c r="B141" t="s">
+        <v>205</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>355</v>
+        <v>206</v>
       </c>
       <c r="E141" t="s">
         <v>150</v>
       </c>
       <c r="G141" t="s">
-        <v>350</v>
+        <v>207</v>
       </c>
       <c r="I141" t="str">
         <f t="shared" si="20"/>
-        <v>Kerstin Kunze                   \\</v>
+        <v>Rishi Khatri                    \\</v>
       </c>
       <c r="K141">
         <f t="shared" si="21"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L141">
         <f t="shared" si="22"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M141" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="P141">
-        <f>F50+1</f>
+        <f>F48+1</f>
         <v>22</v>
       </c>
       <c r="Q141">
@@ -7441,35 +7429,35 @@
     </row>
     <row r="142" spans="2:17">
       <c r="B142" s="1" t="s">
-        <v>407</v>
+        <v>208</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>408</v>
+        <v>209</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>150</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>395</v>
+        <v>201</v>
       </c>
       <c r="I142" t="str">
         <f t="shared" si="20"/>
-        <v>Guilaine Lagache                \\</v>
+        <v>Ely Kovetz                      \\</v>
       </c>
       <c r="K142">
         <f t="shared" si="21"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L142">
         <f t="shared" si="22"/>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M142" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">                </v>
+        <v xml:space="preserve">                      </v>
       </c>
       <c r="P142">
-        <f>F51+1</f>
+        <f>F49+1</f>
         <v>22</v>
       </c>
       <c r="Q142">
@@ -7478,36 +7466,36 @@
       </c>
     </row>
     <row r="143" spans="2:17">
-      <c r="B143" t="s">
-        <v>210</v>
+      <c r="B143" s="1" t="s">
+        <v>354</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>211</v>
+        <v>355</v>
       </c>
       <c r="E143" t="s">
         <v>150</v>
       </c>
       <c r="G143" t="s">
-        <v>212</v>
+        <v>350</v>
       </c>
       <c r="I143" t="str">
         <f t="shared" si="20"/>
-        <v>Daniel Lenz                     \\</v>
+        <v>Kerstin Kunze                   \\</v>
       </c>
       <c r="K143">
         <f t="shared" si="21"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L143">
         <f t="shared" si="22"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M143" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                   </v>
       </c>
       <c r="P143">
-        <f>F52+1</f>
+        <f>F50+1</f>
         <v>22</v>
       </c>
       <c r="Q143">
@@ -7516,36 +7504,36 @@
       </c>
     </row>
     <row r="144" spans="2:17">
-      <c r="B144" s="5" t="s">
-        <v>305</v>
+      <c r="B144" s="1" t="s">
+        <v>407</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>150</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="I144" t="str">
         <f t="shared" si="20"/>
-        <v>Fran\c{c}ois Levrier            \\</v>
+        <v>Guilaine Lagache                \\</v>
       </c>
       <c r="K144">
         <f t="shared" si="21"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L144">
         <f t="shared" si="22"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M144" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                </v>
       </c>
       <c r="P144">
-        <f>F53+1</f>
+        <f>F51+1</f>
         <v>22</v>
       </c>
       <c r="Q144">
@@ -7555,230 +7543,229 @@
     </row>
     <row r="145" spans="2:17">
       <c r="B145" t="s">
-        <v>213</v>
-      </c>
-      <c r="C145" t="s">
-        <v>214</v>
-      </c>
-      <c r="D145"/>
+        <v>210</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="E145" t="s">
         <v>150</v>
       </c>
       <c r="G145" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I145" t="str">
         <f t="shared" si="20"/>
-        <v>Marilena Loverde                \\</v>
+        <v>Daniel Lenz                     \\</v>
       </c>
       <c r="K145">
         <f t="shared" si="21"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L145">
         <f t="shared" si="22"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M145" t="str">
         <f t="shared" si="23"/>
+        <v xml:space="preserve">                     </v>
+      </c>
+      <c r="P145">
+        <f>F52+1</f>
+        <v>22</v>
+      </c>
+      <c r="Q145">
+        <f t="shared" si="19"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146" spans="2:17">
+      <c r="B146" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="I146" t="str">
+        <f t="shared" si="20"/>
+        <v>Fran\c{c}ois Levrier            \\</v>
+      </c>
+      <c r="K146">
+        <f t="shared" si="21"/>
+        <v>20</v>
+      </c>
+      <c r="L146">
+        <f t="shared" si="22"/>
+        <v>12</v>
+      </c>
+      <c r="M146" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="P146">
+        <f>F53+1</f>
+        <v>22</v>
+      </c>
+      <c r="Q146">
+        <f t="shared" si="19"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="2:17">
+      <c r="B147" t="s">
+        <v>213</v>
+      </c>
+      <c r="C147" t="s">
+        <v>214</v>
+      </c>
+      <c r="D147"/>
+      <c r="E147" t="s">
+        <v>150</v>
+      </c>
+      <c r="G147" t="s">
+        <v>215</v>
+      </c>
+      <c r="I147" t="str">
+        <f t="shared" si="20"/>
+        <v>Marilena Loverde                \\</v>
+      </c>
+      <c r="K147">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="L147">
+        <f t="shared" si="22"/>
+        <v>16</v>
+      </c>
+      <c r="M147" t="str">
+        <f t="shared" si="23"/>
         <v xml:space="preserve">                </v>
       </c>
-      <c r="P145">
+      <c r="P147">
         <f>F54+1</f>
         <v>23</v>
       </c>
-      <c r="Q145">
+      <c r="Q147">
         <f t="shared" si="19"/>
         <v>21</v>
       </c>
     </row>
-    <row r="146" spans="2:17">
-      <c r="B146" s="1" t="s">
+    <row r="148" spans="2:17">
+      <c r="B148" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C148" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="E146" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G146" s="1" t="s">
+      <c r="E148" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G148" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="I146" t="str">
+      <c r="I148" t="str">
         <f t="shared" si="20"/>
         <v>Philip Lubin                    \\</v>
       </c>
-      <c r="K146">
+      <c r="K148">
         <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="L146">
+      <c r="L148">
         <f t="shared" si="22"/>
         <v>20</v>
       </c>
-      <c r="M146" t="str">
+      <c r="M148" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">                    </v>
       </c>
-      <c r="P146">
+      <c r="P148">
         <f>F55+1</f>
         <v>23</v>
       </c>
-      <c r="Q146">
+      <c r="Q148">
         <f t="shared" si="19"/>
         <v>21</v>
       </c>
     </row>
-    <row r="147" spans="2:17">
-      <c r="B147" s="1" t="s">
+    <row r="149" spans="2:17">
+      <c r="B149" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C149" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="E147" t="s">
-        <v>150</v>
-      </c>
-      <c r="G147" t="s">
+      <c r="E149" t="s">
+        <v>150</v>
+      </c>
+      <c r="G149" t="s">
         <v>349</v>
       </c>
-      <c r="I147" t="str">
+      <c r="I149" t="str">
         <f t="shared" si="20"/>
         <v>Juan Macias-Perez               \\</v>
       </c>
-      <c r="K147">
+      <c r="K149">
         <f t="shared" si="21"/>
         <v>17</v>
       </c>
-      <c r="L147">
+      <c r="L149">
         <f t="shared" si="22"/>
         <v>15</v>
       </c>
-      <c r="M147" t="str">
+      <c r="M149" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">               </v>
       </c>
-      <c r="P147">
+      <c r="P149">
         <f>F56+1</f>
         <v>24</v>
       </c>
-      <c r="Q147">
+      <c r="Q149">
         <f t="shared" si="19"/>
         <v>22</v>
       </c>
     </row>
-    <row r="148" spans="2:17">
-      <c r="B148" s="1" t="s">
+    <row r="150" spans="2:17">
+      <c r="B150" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="C150" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="E148" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F148" t="s">
+      <c r="E150" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F150" t="s">
         <v>394</v>
       </c>
-      <c r="G148" s="1" t="s">
+      <c r="G150" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="I148" t="str">
+      <c r="I150" t="str">
         <f t="shared" si="20"/>
         <v>Nazzareno Mandolesi             \\</v>
       </c>
-      <c r="K148">
+      <c r="K150">
         <f t="shared" si="21"/>
         <v>19</v>
       </c>
-      <c r="L148">
+      <c r="L150">
         <f t="shared" si="22"/>
         <v>13</v>
       </c>
-      <c r="M148" t="str">
+      <c r="M150" t="str">
         <f t="shared" si="23"/>
         <v xml:space="preserve">             </v>
       </c>
-      <c r="P148">
+      <c r="P150">
         <f>F57+1</f>
-        <v>25</v>
-      </c>
-      <c r="Q148">
-        <f t="shared" si="19"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="149" spans="2:17">
-      <c r="B149" t="s">
-        <v>216</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E149" t="s">
-        <v>150</v>
-      </c>
-      <c r="G149" t="s">
-        <v>218</v>
-      </c>
-      <c r="I149" t="str">
-        <f t="shared" si="20"/>
-        <v>Carlos Martins                  \\</v>
-      </c>
-      <c r="K149">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="L149">
-        <f t="shared" si="22"/>
-        <v>18</v>
-      </c>
-      <c r="M149" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">                  </v>
-      </c>
-      <c r="P149">
-        <f t="shared" ref="P149:P168" si="24">F59+1</f>
-        <v>1</v>
-      </c>
-      <c r="Q149">
-        <f t="shared" si="19"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="150" spans="2:17">
-      <c r="B150" t="s">
-        <v>187</v>
-      </c>
-      <c r="C150" t="s">
-        <v>219</v>
-      </c>
-      <c r="D150"/>
-      <c r="E150" t="s">
-        <v>150</v>
-      </c>
-      <c r="G150" t="s">
-        <v>220</v>
-      </c>
-      <c r="I150" t="str">
-        <f t="shared" si="20"/>
-        <v>Silvia Masi                     \\</v>
-      </c>
-      <c r="K150">
-        <f t="shared" si="21"/>
-        <v>11</v>
-      </c>
-      <c r="L150">
-        <f t="shared" si="22"/>
-        <v>21</v>
-      </c>
-      <c r="M150" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">                     </v>
-      </c>
-      <c r="P150">
-        <f t="shared" si="24"/>
         <v>25</v>
       </c>
       <c r="Q150">
@@ -7787,173 +7774,174 @@
       </c>
     </row>
     <row r="151" spans="2:17">
-      <c r="B151" s="1" t="s">
-        <v>288</v>
+      <c r="B151" t="s">
+        <v>216</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>289</v>
+        <v>217</v>
       </c>
       <c r="E151" t="s">
         <v>150</v>
       </c>
       <c r="G151" t="s">
-        <v>276</v>
+        <v>218</v>
       </c>
       <c r="I151" t="str">
         <f t="shared" si="20"/>
-        <v>Joel Meyers                     \\</v>
+        <v>Carlos Martins                  \\</v>
       </c>
       <c r="K151">
         <f t="shared" si="21"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L151">
         <f t="shared" si="22"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M151" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">                  </v>
       </c>
       <c r="P151">
-        <f t="shared" si="24"/>
-        <v>26</v>
+        <f>F59+1</f>
+        <v>1</v>
       </c>
       <c r="Q151">
         <f t="shared" si="19"/>
-        <v>24</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="2:17">
-      <c r="B152" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G152" s="1" t="s">
-        <v>549</v>
+      <c r="B152" t="s">
+        <v>187</v>
+      </c>
+      <c r="C152" t="s">
+        <v>219</v>
+      </c>
+      <c r="D152"/>
+      <c r="E152" t="s">
+        <v>150</v>
+      </c>
+      <c r="G152" t="s">
+        <v>220</v>
       </c>
       <c r="I152" t="str">
         <f t="shared" si="20"/>
-        <v>Amber Miller                    \\</v>
+        <v>Silvia Masi                     \\</v>
       </c>
       <c r="K152">
         <f t="shared" si="21"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L152">
         <f t="shared" si="22"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M152" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">                     </v>
       </c>
       <c r="P152">
-        <f t="shared" si="24"/>
-        <v>26</v>
+        <f>F60+1</f>
+        <v>25</v>
       </c>
       <c r="Q152">
         <f t="shared" si="19"/>
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="153" spans="2:17">
-      <c r="B153" t="s">
-        <v>221</v>
+      <c r="B153" s="1" t="s">
+        <v>288</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="E153" t="s">
         <v>150</v>
       </c>
       <c r="G153" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="I153" t="str">
         <f t="shared" si="20"/>
-        <v>Lorenzo Moncelsi                \\</v>
+        <v>Joel Meyers                     \\</v>
       </c>
       <c r="K153">
         <f t="shared" si="21"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L153">
         <f t="shared" si="22"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M153" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">                </v>
+        <v xml:space="preserve">                     </v>
       </c>
       <c r="P153">
-        <f t="shared" si="24"/>
-        <v>27</v>
+        <f>F61+1</f>
+        <v>26</v>
       </c>
       <c r="Q153">
         <f t="shared" si="19"/>
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="154" spans="2:17">
-      <c r="B154" t="s">
-        <v>224</v>
+      <c r="B154" s="1" t="s">
+        <v>560</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E154" t="s">
-        <v>150</v>
-      </c>
-      <c r="G154" t="s">
-        <v>226</v>
+        <v>561</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>549</v>
       </c>
       <c r="I154" t="str">
         <f t="shared" si="20"/>
-        <v>Pavel Motloch                   \\</v>
+        <v>Amber Miller                    \\</v>
       </c>
       <c r="K154">
         <f t="shared" si="21"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L154">
         <f t="shared" si="22"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M154" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="P154">
-        <f t="shared" si="24"/>
-        <v>28</v>
+        <f>F62+1</f>
+        <v>26</v>
       </c>
       <c r="Q154">
         <f t="shared" si="19"/>
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="155" spans="2:17">
       <c r="B155" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E155" t="s">
         <v>150</v>
       </c>
       <c r="G155" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="I155" t="str">
         <f t="shared" si="20"/>
-        <v>Tony Mroczkowski                \\</v>
+        <v>Lorenzo Moncelsi                \\</v>
       </c>
       <c r="K155">
         <f t="shared" si="21"/>
@@ -7968,122 +7956,121 @@
         <v xml:space="preserve">                </v>
       </c>
       <c r="P155">
-        <f t="shared" si="24"/>
-        <v>29</v>
+        <f>F63+1</f>
+        <v>27</v>
       </c>
       <c r="Q155">
         <f t="shared" si="19"/>
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="156" spans="2:17">
-      <c r="B156" s="5" t="s">
-        <v>399</v>
+      <c r="B156" t="s">
+        <v>224</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G156" s="1" t="s">
-        <v>384</v>
+        <v>225</v>
+      </c>
+      <c r="E156" t="s">
+        <v>150</v>
+      </c>
+      <c r="G156" t="s">
+        <v>226</v>
       </c>
       <c r="I156" t="str">
         <f t="shared" si="20"/>
-        <v>Suvodip Mukherjee               \\</v>
+        <v>Pavel Motloch                   \\</v>
       </c>
       <c r="K156">
         <f t="shared" si="21"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L156">
         <f t="shared" si="22"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M156" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">               </v>
+        <v xml:space="preserve">                   </v>
       </c>
       <c r="P156">
-        <f t="shared" si="24"/>
-        <v>30</v>
+        <f>F64+1</f>
+        <v>28</v>
       </c>
       <c r="Q156">
         <f t="shared" si="19"/>
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="157" spans="2:17">
-      <c r="B157" s="1" t="s">
-        <v>575</v>
+      <c r="B157" t="s">
+        <v>227</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G157" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
+      </c>
+      <c r="E157" t="s">
+        <v>150</v>
+      </c>
+      <c r="G157" t="s">
+        <v>229</v>
       </c>
       <c r="I157" t="str">
         <f t="shared" si="20"/>
-        <v>Johanna Nagy                    \\</v>
+        <v>Tony Mroczkowski                \\</v>
       </c>
       <c r="K157">
         <f t="shared" si="21"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L157">
         <f t="shared" si="22"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M157" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">                </v>
       </c>
       <c r="P157">
-        <f t="shared" si="24"/>
-        <v>30</v>
+        <f>F65+1</f>
+        <v>29</v>
       </c>
       <c r="Q157">
         <f t="shared" si="19"/>
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="158" spans="2:17">
-      <c r="B158" t="s">
-        <v>224</v>
-      </c>
-      <c r="C158" t="s">
-        <v>230</v>
-      </c>
-      <c r="D158"/>
-      <c r="E158" t="s">
-        <v>150</v>
-      </c>
-      <c r="G158" t="s">
-        <v>231</v>
+      <c r="B158" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>384</v>
       </c>
       <c r="I158" t="str">
         <f t="shared" si="20"/>
-        <v>Pavel Naselsky                  \\</v>
+        <v>Suvodip Mukherjee               \\</v>
       </c>
       <c r="K158">
         <f t="shared" si="21"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L158">
         <f t="shared" si="22"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M158" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">                  </v>
+        <v xml:space="preserve">               </v>
       </c>
       <c r="P158">
-        <f t="shared" si="24"/>
+        <f>F66+1</f>
         <v>30</v>
       </c>
       <c r="Q158">
@@ -8093,35 +8080,35 @@
     </row>
     <row r="159" spans="2:17">
       <c r="B159" s="1" t="s">
-        <v>160</v>
+        <v>575</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>232</v>
+        <v>576</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>150</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>579</v>
+        <v>226</v>
       </c>
       <c r="I159" t="str">
         <f t="shared" si="20"/>
-        <v>Federico Nati                   \\</v>
+        <v>Johanna Nagy                    \\</v>
       </c>
       <c r="K159">
         <f t="shared" si="21"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L159">
         <f t="shared" si="22"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M159" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="P159">
-        <f t="shared" si="24"/>
+        <f>F67+1</f>
         <v>30</v>
       </c>
       <c r="Q159">
@@ -8130,36 +8117,37 @@
       </c>
     </row>
     <row r="160" spans="2:17">
-      <c r="B160" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G160" s="1" t="s">
-        <v>390</v>
+      <c r="B160" t="s">
+        <v>224</v>
+      </c>
+      <c r="C160" t="s">
+        <v>230</v>
+      </c>
+      <c r="D160"/>
+      <c r="E160" t="s">
+        <v>150</v>
+      </c>
+      <c r="G160" t="s">
+        <v>231</v>
       </c>
       <c r="I160" t="str">
         <f t="shared" si="20"/>
-        <v>Paolo Natoli                    \\</v>
+        <v>Pavel Naselsky                  \\</v>
       </c>
       <c r="K160">
         <f t="shared" si="21"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L160">
         <f t="shared" si="22"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M160" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">                  </v>
       </c>
       <c r="P160">
-        <f t="shared" si="24"/>
+        <f>F68+1</f>
         <v>30</v>
       </c>
       <c r="Q160">
@@ -8168,22 +8156,21 @@
       </c>
     </row>
     <row r="161" spans="2:17">
-      <c r="B161" t="s">
-        <v>234</v>
-      </c>
-      <c r="C161" t="s">
-        <v>235</v>
-      </c>
-      <c r="D161"/>
-      <c r="E161" t="s">
-        <v>150</v>
-      </c>
-      <c r="G161" t="s">
-        <v>236</v>
+      <c r="B161" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>579</v>
       </c>
       <c r="I161" t="str">
         <f t="shared" si="20"/>
-        <v>Elena Orlando                   \\</v>
+        <v>Federico Nati                   \\</v>
       </c>
       <c r="K161">
         <f t="shared" si="21"/>
@@ -8198,1271 +8185,1363 @@
         <v xml:space="preserve">                   </v>
       </c>
       <c r="P161">
-        <f t="shared" si="24"/>
-        <v>31</v>
+        <f>F69+1</f>
+        <v>30</v>
       </c>
       <c r="Q161">
         <f t="shared" si="19"/>
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="162" spans="2:17">
       <c r="B162" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C162" t="s">
-        <v>183</v>
-      </c>
-      <c r="D162"/>
-      <c r="E162" t="s">
-        <v>150</v>
-      </c>
-      <c r="G162" t="s">
-        <v>185</v>
+        <v>403</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>390</v>
       </c>
       <c r="I162" t="str">
         <f t="shared" si="20"/>
-        <v>Francesco Piacentini            \\</v>
+        <v>Paolo Natoli                    \\</v>
       </c>
       <c r="K162">
         <f t="shared" si="21"/>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="L162">
         <f t="shared" si="22"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M162" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="P162">
-        <f t="shared" si="24"/>
-        <v>32</v>
+        <f>F70+1</f>
+        <v>30</v>
       </c>
       <c r="Q162">
         <f t="shared" si="19"/>
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="163" spans="2:17">
-      <c r="B163" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G163" s="1" t="s">
-        <v>391</v>
+      <c r="B163" t="s">
+        <v>234</v>
+      </c>
+      <c r="C163" t="s">
+        <v>235</v>
+      </c>
+      <c r="D163"/>
+      <c r="E163" t="s">
+        <v>150</v>
+      </c>
+      <c r="G163" t="s">
+        <v>236</v>
       </c>
       <c r="I163" t="str">
         <f t="shared" si="20"/>
-        <v>Nicolas Ponthieu                \\</v>
+        <v>Elena Orlando                   \\</v>
       </c>
       <c r="K163">
         <f t="shared" si="21"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L163">
         <f t="shared" si="22"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M163" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">                </v>
+        <v xml:space="preserve">                   </v>
       </c>
       <c r="P163">
-        <f t="shared" si="24"/>
-        <v>33</v>
+        <f>F71+1</f>
+        <v>31</v>
       </c>
       <c r="Q163">
         <f t="shared" si="19"/>
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="164" spans="2:17">
-      <c r="B164" t="s">
-        <v>237</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>238</v>
-      </c>
+      <c r="B164" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C164" t="s">
+        <v>183</v>
+      </c>
+      <c r="D164"/>
       <c r="E164" t="s">
         <v>150</v>
       </c>
       <c r="G164" t="s">
-        <v>239</v>
+        <v>185</v>
       </c>
       <c r="I164" t="str">
         <f t="shared" si="20"/>
-        <v>Giuseppe Puglisi                \\</v>
+        <v>Francesco Piacentini            \\</v>
       </c>
       <c r="K164">
         <f t="shared" si="21"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L164">
         <f t="shared" si="22"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M164" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">                </v>
+        <v xml:space="preserve">            </v>
       </c>
       <c r="P164">
-        <f t="shared" si="24"/>
-        <v>34</v>
+        <f>F72+1</f>
+        <v>32</v>
       </c>
       <c r="Q164">
         <f t="shared" si="19"/>
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="165" spans="2:17">
       <c r="B165" s="1" t="s">
-        <v>281</v>
+        <v>405</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E165" t="s">
-        <v>150</v>
-      </c>
-      <c r="G165" t="s">
-        <v>311</v>
+        <v>406</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>391</v>
       </c>
       <c r="I165" t="str">
         <f t="shared" si="20"/>
-        <v>Benjamin Racine                 \\</v>
+        <v>Nicolas Ponthieu                \\</v>
       </c>
       <c r="K165">
         <f t="shared" si="21"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L165">
         <f t="shared" si="22"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M165" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">                 </v>
+        <v xml:space="preserve">                </v>
       </c>
       <c r="P165">
-        <f t="shared" si="24"/>
-        <v>35</v>
+        <f>F73+1</f>
+        <v>33</v>
       </c>
       <c r="Q165">
         <f t="shared" si="19"/>
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="166" spans="2:17">
       <c r="B166" t="s">
-        <v>240</v>
-      </c>
-      <c r="C166" t="s">
-        <v>241</v>
-      </c>
-      <c r="D166"/>
+        <v>237</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>238</v>
+      </c>
       <c r="E166" t="s">
         <v>150</v>
       </c>
       <c r="G166" t="s">
-        <v>162</v>
+        <v>239</v>
       </c>
       <c r="I166" t="str">
         <f t="shared" si="20"/>
-        <v>Christian Reichardt             \\</v>
+        <v>Giuseppe Puglisi                \\</v>
       </c>
       <c r="K166">
         <f t="shared" si="21"/>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L166">
         <f t="shared" si="22"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M166" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">             </v>
+        <v xml:space="preserve">                </v>
       </c>
       <c r="P166">
-        <f t="shared" si="24"/>
-        <v>36</v>
+        <f>F74+1</f>
+        <v>34</v>
       </c>
       <c r="Q166">
         <f t="shared" si="19"/>
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="167" spans="2:17">
       <c r="B167" s="1" t="s">
-        <v>478</v>
+        <v>281</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>360</v>
+        <v>312</v>
       </c>
       <c r="E167" t="s">
         <v>150</v>
       </c>
       <c r="G167" t="s">
-        <v>348</v>
+        <v>311</v>
       </c>
       <c r="I167" t="str">
         <f t="shared" si="20"/>
-        <v>Christophe Ringeval             \\</v>
+        <v>Benjamin Racine                 \\</v>
       </c>
       <c r="K167">
         <f t="shared" si="21"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L167">
         <f t="shared" si="22"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M167" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">             </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="P167">
-        <f t="shared" si="24"/>
-        <v>37</v>
+        <f>F75+1</f>
+        <v>35</v>
       </c>
       <c r="Q167">
         <f t="shared" si="19"/>
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="168" spans="2:17">
-      <c r="B168" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G168" s="1" t="s">
-        <v>597</v>
+      <c r="B168" t="s">
+        <v>240</v>
+      </c>
+      <c r="C168" t="s">
+        <v>241</v>
+      </c>
+      <c r="D168"/>
+      <c r="E168" t="s">
+        <v>150</v>
+      </c>
+      <c r="G168" t="s">
+        <v>162</v>
       </c>
       <c r="I168" t="str">
         <f t="shared" si="20"/>
-        <v>Karwan Rostem                   \\</v>
+        <v>Christian Reichardt             \\</v>
       </c>
       <c r="K168">
         <f t="shared" si="21"/>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L168">
         <f t="shared" si="22"/>
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M168" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">                   </v>
+        <v xml:space="preserve">             </v>
       </c>
       <c r="P168">
-        <f t="shared" si="24"/>
-        <v>38</v>
+        <f>F76+1</f>
+        <v>36</v>
       </c>
       <c r="Q168">
         <f t="shared" si="19"/>
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="169" spans="2:17">
-      <c r="B169" t="s">
-        <v>242</v>
+      <c r="B169" s="1" t="s">
+        <v>478</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>243</v>
+        <v>360</v>
       </c>
       <c r="E169" t="s">
         <v>150</v>
       </c>
       <c r="G169" t="s">
-        <v>244</v>
+        <v>348</v>
       </c>
       <c r="I169" t="str">
         <f t="shared" si="20"/>
-        <v>Anirban Roy                     \\</v>
+        <v>Christophe Ringeval             \\</v>
       </c>
       <c r="K169">
         <f t="shared" si="21"/>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L169">
         <f t="shared" si="22"/>
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M169" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">                     </v>
+        <v xml:space="preserve">             </v>
       </c>
       <c r="P169">
-        <f t="shared" ref="P169:P173" si="25">F79+1</f>
-        <v>39</v>
+        <f>F77+1</f>
+        <v>37</v>
       </c>
       <c r="Q169">
         <f t="shared" si="19"/>
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="170" spans="2:17">
       <c r="B170" s="1" t="s">
-        <v>358</v>
+        <v>595</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="E170" t="s">
-        <v>150</v>
-      </c>
-      <c r="G170" t="s">
-        <v>347</v>
+        <v>596</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>597</v>
       </c>
       <c r="I170" t="str">
-        <f t="shared" ref="I170:I194" si="26">CONCATENATE(B170," ",C170,M170,"\\")</f>
-        <v>Jose-Alberto Rubino-Martin      \\</v>
+        <f t="shared" si="20"/>
+        <v>Karwan Rostem                   \\</v>
       </c>
       <c r="K170">
-        <f t="shared" ref="K170:K194" si="27">LEN(B170) + LEN(C170) +1</f>
-        <v>26</v>
+        <f t="shared" si="21"/>
+        <v>13</v>
       </c>
       <c r="L170">
-        <f t="shared" ref="L170:L194" si="28">IF(K170&lt;30,(32-K170),3)</f>
-        <v>6</v>
+        <f t="shared" si="22"/>
+        <v>19</v>
       </c>
       <c r="M170" t="str">
-        <f t="shared" ref="M170:M194" si="29">REPT(" ",L170)</f>
-        <v xml:space="preserve">      </v>
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">                   </v>
       </c>
       <c r="P170">
-        <f t="shared" si="25"/>
-        <v>39</v>
+        <f>F78+1</f>
+        <v>38</v>
       </c>
       <c r="Q170">
-        <f t="shared" ref="Q170:Q172" si="30">P170-2</f>
-        <v>37</v>
+        <f t="shared" si="19"/>
+        <v>36</v>
       </c>
     </row>
     <row r="171" spans="2:17">
       <c r="B171" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E171" t="s">
         <v>150</v>
       </c>
       <c r="G171" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I171" t="str">
-        <f t="shared" si="26"/>
-        <v>Maria Salatino                  \\</v>
+        <f t="shared" si="20"/>
+        <v>Anirban Roy                     \\</v>
       </c>
       <c r="K171">
-        <f t="shared" si="27"/>
-        <v>14</v>
+        <f t="shared" si="21"/>
+        <v>11</v>
       </c>
       <c r="L171">
-        <f t="shared" si="28"/>
-        <v>18</v>
+        <f t="shared" si="22"/>
+        <v>21</v>
       </c>
       <c r="M171" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">                  </v>
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">                     </v>
       </c>
       <c r="P171">
-        <f t="shared" si="25"/>
+        <f>F79+1</f>
         <v>39</v>
       </c>
       <c r="Q171">
-        <f t="shared" si="30"/>
+        <f t="shared" si="19"/>
         <v>37</v>
       </c>
     </row>
     <row r="172" spans="2:17">
       <c r="B172" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E172" t="s">
+        <v>150</v>
+      </c>
+      <c r="G172" t="s">
+        <v>347</v>
+      </c>
+      <c r="I172" t="str">
+        <f t="shared" ref="I172:I196" si="24">CONCATENATE(B172," ",C172,M172,"\\")</f>
+        <v>Jose-Alberto Rubino-Martin      \\</v>
+      </c>
+      <c r="K172">
+        <f t="shared" ref="K172:K196" si="25">LEN(B172) + LEN(C172) +1</f>
+        <v>26</v>
+      </c>
+      <c r="L172">
+        <f t="shared" ref="L172:L196" si="26">IF(K172&lt;30,(32-K172),3)</f>
+        <v>6</v>
+      </c>
+      <c r="M172" t="str">
+        <f t="shared" ref="M172:M196" si="27">REPT(" ",L172)</f>
+        <v xml:space="preserve">      </v>
+      </c>
+      <c r="P172">
+        <f>F80+1</f>
+        <v>39</v>
+      </c>
+      <c r="Q172">
+        <f t="shared" ref="Q172:Q174" si="28">P172-2</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="173" spans="2:17">
+      <c r="B173" t="s">
+        <v>245</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E173" t="s">
+        <v>150</v>
+      </c>
+      <c r="G